--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B021A9-819C-4169-90F7-0D2C0EFEB589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68B657-AE8E-4EE0-81C4-AEE434632833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopCashTable" sheetId="2" r:id="rId1"/>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
-  <si>
-    <t>항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +45,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>level|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>eng|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>계정당 하나 사는 레벨 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -616,7 +620,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -649,7 +653,7 @@
         <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
         <v>536881545</v>
@@ -661,7 +665,7 @@
         <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1391,315 +1395,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC4D5C-517B-4FB0-9AE7-BB90579FD5C6}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>2^(A2-1)</f>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C31" si="0">2^(A3-1)</f>
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>2097152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>4194304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>8388608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>33554432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>67108864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>134217728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>268435456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>536870912</v>
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68B657-AE8E-4EE0-81C4-AEE434632833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C98ACF-1DEF-4242-9882-11ABF4E883C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>energy|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lpsEn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +607,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1395,104 +1407,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC4D5C-517B-4FB0-9AE7-BB90579FD5C6}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="3" max="4" width="9" outlineLevel="1"/>
+    <col min="6" max="6" width="9" outlineLevel="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C11" ca="1" si="0">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
+        <v>"5":1200</v>
+      </c>
+      <c r="D2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;B2</f>
+        <v>"5":1200</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(C1,COUNTA(C:C)-1,0),1)=",",SUBSTITUTE(OFFSET(C1,COUNTA(C:C)-1,0),",","",1),OFFSET(C1,COUNTA(C:C)-1,0))
+&amp;"}"</f>
+        <v>{"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500,"35":2500,"40":3000,"45":3500,"50":4000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;B3</f>
+        <v>"10":1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>"15":1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>"20":2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>25</v>
       </c>
       <c r="B6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>"25":2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>"30":2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>35</v>
       </c>
       <c r="B8">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500,"35":2500</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>"35":2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>40</v>
       </c>
       <c r="B9">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500,"35":2500,"40":3000</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>"40":3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>45</v>
       </c>
       <c r="B10">
         <v>3500</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500,"35":2500,"40":3000,"45":3500</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>"45":3500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>50</v>
       </c>
       <c r="B11">
         <v>4000</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"5":1200,"10":1200,"15":1600,"20":2000,"25":2500,"30":2500,"35":2500,"40":3000,"45":3500,"50":4000</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>"50":4000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD74267-F27F-43EB-A8BB-DEFF6671229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FACE59-175A-4719-8580-2C555133B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>epntRw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템</t>
   </si>
   <si>
@@ -561,6 +557,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sProd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,52 +994,48 @@
   <dimension ref="A1:BA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" collapsed="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="19.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="9" collapsed="1"/>
-    <col min="46" max="47" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="9" collapsed="1"/>
-    <col min="49" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9" collapsed="1"/>
+    <col min="43" max="44" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="47" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="27" customHeight="1">
@@ -1050,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -1089,40 +1085,40 @@
         <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
         <v>42</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="U1" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>49</v>
@@ -1143,31 +1139,31 @@
         <v>54</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>33</v>
@@ -1182,7 +1178,7 @@
         <v>56</v>
       </c>
       <c r="AW1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -1218,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <v>35</v>
@@ -1381,7 +1377,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -1496,10 +1492,10 @@
         <v/>
       </c>
       <c r="AT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU3" t="s">
         <v>59</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1532,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4">
         <v>65</v>
@@ -1659,7 +1655,7 @@
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>80</v>
@@ -1786,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1913,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -2040,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>120</v>
@@ -2167,7 +2163,7 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <v>120</v>
@@ -2294,7 +2290,7 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>135</v>
@@ -2421,7 +2417,7 @@
         <v>it</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -2545,7 +2541,7 @@
         <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12">
         <v>600</v>
@@ -2646,7 +2642,7 @@
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="7"/>
@@ -2671,10 +2667,10 @@
         <v>it</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>30</v>
@@ -2686,10 +2682,10 @@
         <v>it</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2783,7 +2779,7 @@
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="7"/>
@@ -2800,7 +2796,7 @@
         <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>300</v>
@@ -2892,7 +2888,7 @@
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="7"/>
@@ -2909,7 +2905,7 @@
         <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -3009,7 +3005,7 @@
     </row>
     <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="7"/>
@@ -3026,7 +3022,7 @@
         <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16">
         <v>80</v>
@@ -3118,7 +3114,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="7"/>
@@ -3135,7 +3131,7 @@
         <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>80</v>
@@ -3227,7 +3223,7 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="7"/>
@@ -3253,7 +3249,7 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
         <v>80</v>
@@ -3345,7 +3341,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="7"/>
@@ -3362,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>80</v>
@@ -3454,7 +3450,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="7"/>
@@ -3471,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20">
         <v>80</v>
@@ -3563,7 +3559,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="7"/>
@@ -3589,7 +3585,7 @@
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>80</v>
@@ -3681,7 +3677,7 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="7"/>
@@ -3698,7 +3694,7 @@
         <v>40</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>80</v>
@@ -3790,7 +3786,7 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="7"/>
@@ -3807,7 +3803,7 @@
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23">
         <v>80</v>
@@ -3899,7 +3895,7 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="7"/>
@@ -3927,7 +3923,7 @@
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>80</v>
@@ -4019,7 +4015,7 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="7"/>
@@ -4045,7 +4041,7 @@
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>80</v>
@@ -4137,7 +4133,7 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="7"/>
@@ -4163,7 +4159,7 @@
         <v>40</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>80</v>
@@ -4255,7 +4251,7 @@
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="7"/>
@@ -4281,7 +4277,7 @@
         <v>40</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
         <v>80</v>
@@ -4373,7 +4369,7 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="7"/>
@@ -4390,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28">
         <v>80</v>
@@ -4482,7 +4478,7 @@
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="7"/>
@@ -4508,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
         <v>80</v>
@@ -4600,7 +4596,7 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="7"/>
@@ -4626,7 +4622,7 @@
         <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30">
         <v>80</v>
@@ -4718,7 +4714,7 @@
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="7"/>
@@ -4744,7 +4740,7 @@
         <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>80</v>
@@ -4836,7 +4832,7 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="7"/>
@@ -4862,7 +4858,7 @@
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>80</v>
@@ -4954,7 +4950,7 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="7"/>
@@ -4980,7 +4976,7 @@
         <v>40</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33">
         <v>80</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FACE59-175A-4719-8580-2C555133B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5355A-4AD4-4B24-A63D-485B735721A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,24 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"kor|Int":"1200","buyingEnergy|Int":35,"buyingItemCount|Int!":1, 30,"tp1":"cu","vl1":"EN","cn1":35,"tp2":"cu","vl2":"GO","cn2":15000},{"kor|Int":"2500","buyingEnergy|Int":50,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":50,"tp2":"cu","vl2":"GO","cn2":25000},{"kor|Int":"3900","buyingEnergy|Int":65,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":65,"tp2":"cu","vl2":"GO","cn2":30000},{"kor|Int":"4900","buyingEnergy|Int":80,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":30000},{"kor|Int":"5900","buyingEnergy|Int":100,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":100,"tp2":"cu","vl2":"GO","cn2":30000},{"kor|Int":"7500","buyingEnergy|Int":100,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":100,"tp2":"cu","vl2":"GO","cn2":35000},{"kor|Int":"9900","buyingEnergy|Int":120,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":120,"tp2":"cu","vl2":"GO","cn2":35000},{"kor|Int":"11000","buyingEnergy|Int":120,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":120,"tp2":"cu","vl2":"GO","cn2":40000},{"kor|Int":"12000","buyingEnergy|Int":135,"buyingItemCount|Int!":,"tp1":"cu","vl1":"EN","cn1":135,"tp2":"cu","vl2":"GO","cn2":45000},{"kor|Int":"13000","buyingEnergy|Int":,"buyingItemCount|Int!":1,"tp1":"it","vl1":"Cash_bLevelPass","cn1":1},{"kor|Int":"13000","buyingEnergy|Int":600,"buyingItemCount|Int!":,"tp1":"it","vl1":"Cash_bBigBoost","cn1":1}</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cash_cDailyBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,6 +543,33 @@
   </si>
   <si>
     <t>sProd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_oneofthree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_oneofthree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_oneofthree3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BA33"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1046,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -1178,7 +1187,7 @@
         <v>56</v>
       </c>
       <c r="AW1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -1354,7 +1363,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C33" si="7">A3</f>
+        <f t="shared" ref="C3:C36" si="7">A3</f>
         <v>Research5</v>
       </c>
       <c r="D3" t="b">
@@ -1408,63 +1417,63 @@
         <v/>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" ref="AB3:AB33" ca="1" si="8">IF(LEN(H3)=0,"",H3)</f>
+        <f t="shared" ref="AB3:AB36" ca="1" si="8">IF(LEN(H3)=0,"",H3)</f>
         <v>cu</v>
       </c>
       <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC33" si="9">IF(LEN(J3)=0,"",J3)</f>
+        <f t="shared" ref="AC3:AC36" si="9">IF(LEN(J3)=0,"",J3)</f>
         <v>EN</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD33" si="10">IF(LEN(K3)=0,"",K3)</f>
+        <f t="shared" ref="AD3:AD36" si="10">IF(LEN(K3)=0,"",K3)</f>
         <v>50</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE33" ca="1" si="11">IF(LEN(L3)=0,"",L3)</f>
+        <f t="shared" ref="AE3:AE36" ca="1" si="11">IF(LEN(L3)=0,"",L3)</f>
         <v>cu</v>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" ref="AF3:AF33" si="12">IF(LEN(N3)=0,"",N3)</f>
+        <f t="shared" ref="AF3:AF36" si="12">IF(LEN(N3)=0,"",N3)</f>
         <v>GO</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG33" si="13">IF(LEN(O3)=0,"",O3)</f>
+        <f t="shared" ref="AG3:AG36" si="13">IF(LEN(O3)=0,"",O3)</f>
         <v>25000</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH33" ca="1" si="14">IF(LEN(P3)=0,"",P3)</f>
+        <f t="shared" ref="AH3:AH36" ca="1" si="14">IF(LEN(P3)=0,"",P3)</f>
         <v/>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI33" si="15">IF(LEN(R3)=0,"",R3)</f>
+        <f t="shared" ref="AI3:AI36" si="15">IF(LEN(R3)=0,"",R3)</f>
         <v/>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ33" si="16">IF(LEN(S3)=0,"",S3)</f>
+        <f t="shared" ref="AJ3:AJ36" si="16">IF(LEN(S3)=0,"",S3)</f>
         <v/>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK33" ca="1" si="17">IF(LEN(T3)=0,"",T3)</f>
+        <f t="shared" ref="AK3:AK36" ca="1" si="17">IF(LEN(T3)=0,"",T3)</f>
         <v/>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL33" si="18">IF(LEN(V3)=0,"",V3)</f>
+        <f t="shared" ref="AL3:AL36" si="18">IF(LEN(V3)=0,"",V3)</f>
         <v/>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM33" si="19">IF(LEN(W3)=0,"",W3)</f>
+        <f t="shared" ref="AM3:AM36" si="19">IF(LEN(W3)=0,"",W3)</f>
         <v/>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN33" ca="1" si="20">IF(LEN(X3)=0,"",X3)</f>
+        <f t="shared" ref="AN3:AN36" ca="1" si="20">IF(LEN(X3)=0,"",X3)</f>
         <v/>
       </c>
       <c r="AO3" t="str">
-        <f t="shared" ref="AO3:AO33" si="21">IF(LEN(Z3)=0,"",Z3)</f>
+        <f t="shared" ref="AO3:AO36" si="21">IF(LEN(Z3)=0,"",Z3)</f>
         <v/>
       </c>
       <c r="AP3" t="str">
-        <f t="shared" ref="AP3:AP33" si="22">IF(LEN(AA3)=0,"",AA3)</f>
+        <f t="shared" ref="AP3:AP36" si="22">IF(LEN(AA3)=0,"",AA3)</f>
         <v/>
       </c>
       <c r="AQ3" t="str">
@@ -1472,7 +1481,7 @@
         <v/>
       </c>
       <c r="AR3" t="str">
-        <f t="shared" ref="AR3:AR33" si="23">IF(D3=FALSE,"",
+        <f t="shared" ref="AR3:AR36" si="23">IF(D3=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C3&amp;""""
 &amp;IF(LEN(H3)=0,"",","""&amp;H$1&amp;""":"""&amp;H3&amp;"""")
 &amp;IF(LEN(J3)=0,"",","""&amp;J$1&amp;""":"""&amp;J3&amp;"""")
@@ -2661,7 +2670,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H23" ca="1" si="26">IF(ISBLANK(I13),"",
+        <f t="shared" ref="H13:H26" ca="1" si="26">IF(ISBLANK(I13),"",
 VLOOKUP(I13,OFFSET(INDIRECT("$A:$B"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -2670,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K13">
         <v>30</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L20" ca="1" si="27">IF(ISBLANK(M13),"",
+        <f t="shared" ref="L13:L14" ca="1" si="27">IF(ISBLANK(M13),"",
 VLOOKUP(M13,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -2685,25 +2694,25 @@
         <v>57</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" ref="P13:P20" ca="1" si="28">IF(ISBLANK(Q13),"",
+        <f t="shared" ref="P13:P14" ca="1" si="28">IF(ISBLANK(Q13),"",
 VLOOKUP(Q13,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="T13" t="str">
-        <f t="shared" ref="T13:T20" ca="1" si="29">IF(ISBLANK(U13),"",
+        <f t="shared" ref="T13:T14" ca="1" si="29">IF(ISBLANK(U13),"",
 VLOOKUP(U13,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="X13" t="str">
-        <f t="shared" ref="X13:X20" ca="1" si="30">IF(ISBLANK(Y13),"",
+        <f t="shared" ref="X13:X14" ca="1" si="30">IF(ISBLANK(Y13),"",
 VLOOKUP(Y13,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -2769,7 +2778,7 @@
         <v/>
       </c>
       <c r="AQ13" t="str">
-        <f t="shared" ref="AQ13:AQ20" ca="1" si="31">IF(ROW()=2,AR13,OFFSET(AQ13,-1,0)&amp;IF(LEN(AR13)=0,"",","&amp;AR13))</f>
+        <f t="shared" ref="AQ13:AQ23" ca="1" si="31">IF(ROW()=2,AR13,OFFSET(AQ13,-1,0)&amp;IF(LEN(AR13)=0,"",","&amp;AR13))</f>
         <v/>
       </c>
       <c r="AR13" t="str">
@@ -2911,25 +2920,25 @@
         <v>80</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L33" ca="1" si="32">IF(ISBLANK(M15),"",
+        <f t="shared" ref="L15:L36" ca="1" si="32">IF(ISBLANK(M15),"",
 VLOOKUP(M15,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" ref="P15:P33" ca="1" si="33">IF(ISBLANK(Q15),"",
+        <f t="shared" ref="P15:P36" ca="1" si="33">IF(ISBLANK(Q15),"",
 VLOOKUP(Q15,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" ref="T15:T33" ca="1" si="34">IF(ISBLANK(U15),"",
+        <f t="shared" ref="T15:T36" ca="1" si="34">IF(ISBLANK(U15),"",
 VLOOKUP(U15,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="X15" t="str">
-        <f t="shared" ref="X15:X33" ca="1" si="35">IF(ISBLANK(Y15),"",
+        <f t="shared" ref="X15:X36" ca="1" si="35">IF(ISBLANK(Y15),"",
 VLOOKUP(Y15,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -3005,347 +3014,454 @@
     </row>
     <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="7"/>
-        <v>Ev4_Conti1</v>
+        <f t="shared" ref="C16:C18" si="36">A16</f>
+        <v>Ev3_OneOfThree1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>14.99</v>
+      </c>
+      <c r="F16">
+        <v>19000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="H16:H18" ca="1" si="37">IF(ISBLANK(I16),"",
+VLOOKUP(I16,OFFSET(INDIRECT("$A:$B"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ref="L16:L18" ca="1" si="38">IF(ISBLANK(M16),"",
+VLOOKUP(M16,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <v>35000</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ref="P16:P18" ca="1" si="39">IF(ISBLANK(Q16),"",
+VLOOKUP(Q16,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="T16:T18" ca="1" si="40">IF(ISBLANK(U16),"",
+VLOOKUP(U16,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="X16" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="X16:X18" ca="1" si="41">IF(ISBLANK(Y16),"",
+VLOOKUP(Y16,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="AB16:AB18" ca="1" si="42">IF(LEN(H16)=0,"",H16)</f>
         <v>cu</v>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AC16:AC18" si="43">IF(LEN(J16)=0,"",J16)</f>
         <v>EN</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f t="shared" ref="AD16:AD18" si="44">IF(LEN(K16)=0,"",K16)</f>
+        <v>30</v>
       </c>
       <c r="AE16" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ref="AE16:AE18" ca="1" si="45">IF(LEN(L16)=0,"",L16)</f>
+        <v>cu</v>
       </c>
       <c r="AF16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" ref="AF16:AF18" si="46">IF(LEN(N16)=0,"",N16)</f>
+        <v>GO</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AG18" si="47">IF(LEN(O16)=0,"",O16)</f>
+        <v>35000</v>
       </c>
       <c r="AH16" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+        <f t="shared" ref="AH16:AH18" ca="1" si="48">IF(LEN(P16)=0,"",P16)</f>
+        <v>cu</v>
       </c>
       <c r="AI16" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ16" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" ref="AI16:AI18" si="49">IF(LEN(R16)=0,"",R16)</f>
+        <v>EN</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" ref="AJ16:AJ18" si="50">IF(LEN(S16)=0,"",S16)</f>
+        <v>100</v>
       </c>
       <c r="AK16" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ref="AK16:AK18" ca="1" si="51">IF(LEN(T16)=0,"",T16)</f>
         <v/>
       </c>
       <c r="AL16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AL16:AL18" si="52">IF(LEN(V16)=0,"",V16)</f>
         <v/>
       </c>
       <c r="AM16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AM16:AM18" si="53">IF(LEN(W16)=0,"",W16)</f>
         <v/>
       </c>
       <c r="AN16" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="AN16:AN18" ca="1" si="54">IF(LEN(X16)=0,"",X16)</f>
         <v/>
       </c>
       <c r="AO16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AO16:AO18" si="55">IF(LEN(Z16)=0,"",Z16)</f>
         <v/>
       </c>
       <c r="AP16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AP16:AP18" si="56">IF(LEN(AA16)=0,"",AA16)</f>
         <v/>
       </c>
       <c r="AQ16" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ref="AQ16:AQ18" ca="1" si="57">IF(ROW()=2,AR16,OFFSET(AQ16,-1,0)&amp;IF(LEN(AR16)=0,"",","&amp;AR16))</f>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR16" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ref="AR16:AR18" si="58">IF(D16=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C16&amp;""""
+&amp;IF(LEN(H16)=0,"",","""&amp;H$1&amp;""":"""&amp;H16&amp;"""")
+&amp;IF(LEN(J16)=0,"",","""&amp;J$1&amp;""":"""&amp;J16&amp;"""")
+&amp;IF(LEN(K16)=0,"",","""&amp;K$1&amp;""":"&amp;K16)
+&amp;IF(LEN(L16)=0,"",","""&amp;L$1&amp;""":"""&amp;L16&amp;"""")
+&amp;IF(LEN(N16)=0,"",","""&amp;N$1&amp;""":"""&amp;N16&amp;"""")
+&amp;IF(LEN(O16)=0,"",","""&amp;O$1&amp;""":"&amp;O16)
+&amp;IF(LEN(P16)=0,"",","""&amp;P$1&amp;""":"""&amp;P16&amp;"""")
+&amp;IF(LEN(R16)=0,"",","""&amp;R$1&amp;""":"""&amp;R16&amp;"""")
+&amp;IF(LEN(S16)=0,"",","""&amp;S$1&amp;""":"&amp;S16)
+&amp;IF(LEN(T16)=0,"",","""&amp;T$1&amp;""":"""&amp;T16&amp;"""")
+&amp;IF(LEN(V16)=0,"",","""&amp;V$1&amp;""":"""&amp;V16&amp;"""")
+&amp;IF(LEN(W16)=0,"",","""&amp;W$1&amp;""":"&amp;W16)
+&amp;IF(LEN(X16)=0,"",","""&amp;X$1&amp;""":"""&amp;X16&amp;"""")
+&amp;IF(LEN(Z16)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z16&amp;"""")
+&amp;IF(LEN(AA16)=0,"",","""&amp;AA$1&amp;""":"&amp;AA16)&amp;"}")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="7"/>
-        <v>Ev4_Conti2</v>
+        <f t="shared" si="36"/>
+        <v>Ev3_OneOfThree2</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>29.99</v>
+      </c>
+      <c r="F17">
+        <v>39000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="I17" t="s">
         <v>40</v>
       </c>
       <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17">
         <v>60</v>
       </c>
-      <c r="K17">
-        <v>80</v>
-      </c>
       <c r="L17" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17">
+        <v>35000</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17">
+        <v>120</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="X17" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="42"/>
         <v>cu</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="43"/>
         <v>EN</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f t="shared" si="44"/>
+        <v>60</v>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="45"/>
+        <v>cu</v>
       </c>
       <c r="AF17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG17" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" si="46"/>
+        <v>GO</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="47"/>
+        <v>35000</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+        <f t="shared" ca="1" si="48"/>
+        <v>cu</v>
       </c>
       <c r="AI17" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ17" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="49"/>
+        <v>EN</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="50"/>
+        <v>120</v>
       </c>
       <c r="AK17" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AL17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AM17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AN17" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AP17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AQ17" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR17" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" si="58"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="7"/>
-        <v>Ev4_Conti3</v>
+        <f t="shared" si="36"/>
+        <v>Ev3_OneOfThree3</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.99</v>
+        <v>49.99</v>
       </c>
       <c r="F18">
-        <v>2500</v>
+        <v>69000</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18">
+        <v>35000</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18">
+        <v>150</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="U18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18">
+        <v>300</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="42"/>
         <v>cu</v>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="43"/>
         <v>EN</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f t="shared" si="44"/>
+        <v>90</v>
       </c>
       <c r="AE18" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
+        <f t="shared" ca="1" si="45"/>
+        <v>cu</v>
       </c>
       <c r="AF18" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG18" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" si="46"/>
+        <v>GO</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="47"/>
+        <v>35000</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
+        <f t="shared" ca="1" si="48"/>
+        <v>cu</v>
       </c>
       <c r="AI18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ18" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="49"/>
+        <v>EN</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="50"/>
+        <v>150</v>
       </c>
       <c r="AK18" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
       </c>
       <c r="AL18" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AM18" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="52"/>
+        <v>EN</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="53"/>
+        <v>300</v>
       </c>
       <c r="AN18" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AP18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AQ18" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="7"/>
-        <v>Ev4_Conti4</v>
+        <v>Ev4_Conti1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -3441,20 +3557,20 @@
       </c>
       <c r="AQ19" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR19" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="7"/>
-        <v>Ev4_Conti5</v>
+        <v>Ev4_Conti2</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3550,32 +3666,32 @@
       </c>
       <c r="AQ20" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR20" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="7"/>
-        <v>Ev4_Conti6</v>
+        <v>Ev4_Conti3</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.99</v>
+        <v>1.99</v>
       </c>
       <c r="F21">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="26"/>
@@ -3667,8 +3783,8 @@
         <v/>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" ref="AQ21:AQ33" ca="1" si="36">IF(ROW()=2,AR21,OFFSET(AQ21,-1,0)&amp;IF(LEN(AR21)=0,"",","&amp;AR21))</f>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR21" t="str">
         <f t="shared" si="23"/>
@@ -3677,11 +3793,11 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="7"/>
-        <v>Ev4_Conti7</v>
+        <v>Ev4_Conti4</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -3776,21 +3892,21 @@
         <v/>
       </c>
       <c r="AQ22" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR22" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="7"/>
-        <v>Ev4_Conti8</v>
+        <v>Ev4_Conti5</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -3885,38 +4001,36 @@
         <v/>
       </c>
       <c r="AQ23" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR23" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="7"/>
-        <v>Ev6_Disco1</v>
+        <v>Ev4_Conti6</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.99</v>
+        <v>5.99</v>
       </c>
       <c r="F24">
-        <v>1200</v>
+        <v>7500</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H24:H33" ca="1" si="37">IF(ISBLANK(I24),"",
-VLOOKUP(I24,OFFSET(INDIRECT("$A:$B"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="I24" t="s">
@@ -4005,8 +4119,8 @@
         <v/>
       </c>
       <c r="AQ24" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ref="AQ24:AQ36" ca="1" si="59">IF(ROW()=2,AR24,OFFSET(AQ24,-1,0)&amp;IF(LEN(AR24)=0,"",","&amp;AR24))</f>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR24" t="str">
         <f t="shared" si="23"/>
@@ -4015,26 +4129,17 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="7"/>
-        <v>Ev6_Disco2</v>
+        <v>Ev4_Conti7</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1.99</v>
-      </c>
-      <c r="F25">
-        <v>2500</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="I25" t="s">
@@ -4123,36 +4228,27 @@
         <v/>
       </c>
       <c r="AQ25" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" ca="1" si="23"/>
+        <v>{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="7"/>
-        <v>Ev6_Disco3</v>
+        <v>Ev4_Conti8</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2.99</v>
-      </c>
-      <c r="F26">
-        <v>3900</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="I26" t="s">
@@ -4241,36 +4337,38 @@
         <v/>
       </c>
       <c r="AQ26" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="59"/>
         <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR26" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" ca="1" si="23"/>
+        <v>{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="7"/>
-        <v>Ev6_Disco4</v>
+        <v>Ev6_Disco1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3.99</v>
+        <v>0.99</v>
       </c>
       <c r="F27">
-        <v>4900</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ref="H27:H36" ca="1" si="60">IF(ISBLANK(I27),"",
+VLOOKUP(I27,OFFSET(INDIRECT("$A:$B"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="I27" t="s">
@@ -4359,7 +4457,7 @@
         <v/>
       </c>
       <c r="AQ27" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="59"/>
         <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR27" t="str">
@@ -4369,17 +4467,26 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer1</v>
+        <v>Ev6_Disco2</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1.99</v>
+      </c>
+      <c r="F28">
+        <v>2500</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I28" t="s">
@@ -4468,36 +4575,36 @@
         <v/>
       </c>
       <c r="AQ28" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR28" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" si="23"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer2</v>
+        <v>Ev6_Disco3</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
       <c r="F29">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I29" t="s">
@@ -4586,8 +4693,8 @@
         <v/>
       </c>
       <c r="AQ29" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR29" t="str">
         <f t="shared" si="23"/>
@@ -4596,26 +4703,26 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer3</v>
+        <v>Ev6_Disco4</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="F30">
-        <v>3900</v>
+        <v>4900</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I30" t="s">
@@ -4704,8 +4811,8 @@
         <v/>
       </c>
       <c r="AQ30" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR30" t="str">
         <f t="shared" si="23"/>
@@ -4714,26 +4821,17 @@
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer4</v>
+        <v>Ev7_Summer1</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>3.99</v>
-      </c>
-      <c r="F31">
-        <v>4900</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I31" t="s">
@@ -4822,36 +4920,36 @@
         <v/>
       </c>
       <c r="AQ31" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="59"/>
         <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR31" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" ca="1" si="23"/>
+        <v>{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer5</v>
+        <v>Ev7_Summer2</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F32">
-        <v>5900</v>
+        <v>2500</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I32" t="s">
@@ -4940,7 +5038,7 @@
         <v/>
       </c>
       <c r="AQ32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="59"/>
         <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR32" t="str">
@@ -4950,26 +5048,26 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="7"/>
-        <v>Ev7_Summer6</v>
+        <v>Ev7_Summer3</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>5.99</v>
+        <v>2.99</v>
       </c>
       <c r="F33">
-        <v>7500</v>
+        <v>3900</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="60"/>
         <v>cu</v>
       </c>
       <c r="I33" t="s">
@@ -5058,10 +5156,364 @@
         <v/>
       </c>
       <c r="AQ33" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="59"/>
         <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR33" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:44">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="7"/>
+        <v>Ev7_Summer4</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3.99</v>
+      </c>
+      <c r="F34">
+        <v>4900</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>cu</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34">
+        <v>80</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="9"/>
+        <v>EN</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="AE34" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF34" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AG34" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AI34" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AJ34" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK34" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL34" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM34" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AN34" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AO34" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP34" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AR34" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:44">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="7"/>
+        <v>Ev7_Summer5</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>4.99</v>
+      </c>
+      <c r="F35">
+        <v>5900</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>cu</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35">
+        <v>80</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="9"/>
+        <v>EN</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="AE35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AG35" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AI35" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AJ35" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK35" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM35" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AN35" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AO35" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP35" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ35" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AR35" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:44">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="7"/>
+        <v>Ev7_Summer6</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>5.99</v>
+      </c>
+      <c r="F36">
+        <v>7500</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v>cu</v>
+      </c>
+      <c r="I36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36">
+        <v>80</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="9"/>
+        <v>EN</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="AE36" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AG36" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AI36" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AJ36" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AK36" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AL36" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AM36" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AN36" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AO36" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AP36" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ36" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AR36" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -5069,7 +5521,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U33 Q2:Q33 Y2:Y33 I2:I33 M2:M33" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36 M2:M36 Y2:Y36 I2:I36 U2:U36" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5355A-4AD4-4B24-A63D-485B735721A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E378556-EFEE-42E9-AB9B-48C17AFC42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="120" yWindow="570" windowWidth="13515" windowHeight="14265" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,10 +1003,10 @@
   <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1355,7 +1355,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(AQ1,COUNTA(AQ:AQ)-1,0),1)=",",SUBSTITUTE(OFFSET(AQ1,COUNTA(AQ:AQ)-1,0),",","",1),OFFSET(AQ1,COUNTA(AQ:AQ)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}]</v>
+        <v>[{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}]</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -3060,7 +3060,7 @@
         <v>39</v>
       </c>
       <c r="O16">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" ref="P16:P18" ca="1" si="39">IF(ISBLANK(Q16),"",
@@ -3111,7 +3111,7 @@
       </c>
       <c r="AG16">
         <f t="shared" ref="AG16:AG18" si="47">IF(LEN(O16)=0,"",O16)</f>
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" ref="AH16:AH18" ca="1" si="48">IF(LEN(P16)=0,"",P16)</f>
@@ -3218,7 +3218,7 @@
         <v>39</v>
       </c>
       <c r="O17">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AG17">
         <f t="shared" si="47"/>
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -3354,7 +3354,7 @@
         <v>39</v>
       </c>
       <c r="O18">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AG18">
         <f t="shared" si="47"/>
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="AH18" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -3481,11 +3481,29 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19">
+        <v>35000</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19">
+        <v>170</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -3509,27 +3527,27 @@
       </c>
       <c r="AE19" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF19" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG19" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="13"/>
-        <v/>
+        <v>35000</v>
       </c>
       <c r="AH19" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ19" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AJ19">
         <f t="shared" si="16"/>
-        <v/>
+        <v>170</v>
       </c>
       <c r="AK19" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -3557,11 +3575,11 @@
       </c>
       <c r="AQ19" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="AR19" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
     </row>
     <row r="20" spans="1:44">
@@ -3586,7 +3604,7 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -3614,7 +3632,7 @@
       </c>
       <c r="AD20">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AE20" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -3666,11 +3684,11 @@
       </c>
       <c r="AQ20" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AR20" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
     </row>
     <row r="21" spans="1:44">
@@ -3701,22 +3719,49 @@
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21">
+        <v>150</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21">
+        <v>35000</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="U21" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21">
+        <v>200</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -3728,47 +3773,47 @@
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="AD21">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="AE21" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF21" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG21" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AG21">
         <f t="shared" si="13"/>
-        <v/>
+        <v>150</v>
       </c>
       <c r="AH21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ21" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AJ21">
         <f t="shared" si="16"/>
-        <v/>
+        <v>35000</v>
       </c>
       <c r="AK21" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AL21" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AM21" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AM21">
         <f t="shared" si="19"/>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -3784,7 +3829,7 @@
       </c>
       <c r="AQ21" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AR21" t="str">
         <f t="shared" si="23"/>
@@ -3813,11 +3858,20 @@
         <v>60</v>
       </c>
       <c r="K22">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22">
+        <v>20000</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -3841,19 +3895,19 @@
       </c>
       <c r="AD22">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AE22" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF22" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG22" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="13"/>
-        <v/>
+        <v>20000</v>
       </c>
       <c r="AH22" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3893,11 +3947,11 @@
       </c>
       <c r="AQ22" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AR22" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
     <row r="23" spans="1:44">
@@ -3926,11 +3980,29 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23">
+        <v>10000</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23">
+        <v>200</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" ca="1" si="34"/>
@@ -3954,27 +4026,27 @@
       </c>
       <c r="AE23" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF23" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG23" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AG23">
         <f t="shared" si="13"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="AH23" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ23" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AJ23">
         <f t="shared" si="16"/>
-        <v/>
+        <v>200</v>
       </c>
       <c r="AK23" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -4002,11 +4074,11 @@
       </c>
       <c r="AQ23" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
       <c r="AR23" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
     </row>
     <row r="24" spans="1:44">
@@ -4040,19 +4112,46 @@
         <v>60</v>
       </c>
       <c r="K24">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24">
+        <v>25000</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <v>450</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" ca="1" si="34"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="U24" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24">
+        <v>35000</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -4068,43 +4167,43 @@
       </c>
       <c r="AD24">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AE24" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF24" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG24" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="13"/>
-        <v/>
+        <v>25000</v>
       </c>
       <c r="AH24" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ24" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AJ24">
         <f t="shared" si="16"/>
-        <v/>
+        <v>450</v>
       </c>
       <c r="AK24" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AL24" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AM24" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AM24">
         <f t="shared" si="19"/>
-        <v/>
+        <v>35000</v>
       </c>
       <c r="AN24" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -4120,7 +4219,7 @@
       </c>
       <c r="AQ24" t="str">
         <f t="shared" ref="AQ24:AQ36" ca="1" si="59">IF(ROW()=2,AR24,OFFSET(AQ24,-1,0)&amp;IF(LEN(AR24)=0,"",","&amp;AR24))</f>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
       <c r="AR24" t="str">
         <f t="shared" si="23"/>
@@ -4146,10 +4245,10 @@
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>80</v>
+        <v>50000</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -4173,11 +4272,11 @@
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="9"/>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="AD25">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>50000</v>
       </c>
       <c r="AE25" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4229,11 +4328,11 @@
       </c>
       <c r="AQ25" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000}</v>
       </c>
       <c r="AR25" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000}</v>
       </c>
     </row>
     <row r="26" spans="1:44">
@@ -4258,11 +4357,20 @@
         <v>60</v>
       </c>
       <c r="K26">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26">
+        <v>30000</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -4286,19 +4394,19 @@
       </c>
       <c r="AD26">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AE26" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AF26" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG26" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="13"/>
-        <v/>
+        <v>30000</v>
       </c>
       <c r="AH26" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4338,11 +4446,11 @@
       </c>
       <c r="AQ26" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
       <c r="AR26" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
     </row>
     <row r="27" spans="1:44">
@@ -4458,7 +4566,7 @@
       </c>
       <c r="AQ27" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
       <c r="AR27" t="str">
         <f t="shared" si="23"/>
@@ -4576,7 +4684,7 @@
       </c>
       <c r="AQ28" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
       <c r="AR28" t="str">
         <f t="shared" si="23"/>
@@ -4694,7 +4802,7 @@
       </c>
       <c r="AQ29" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
       <c r="AR29" t="str">
         <f t="shared" si="23"/>
@@ -4812,7 +4920,7 @@
       </c>
       <c r="AQ30" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
       <c r="AR30" t="str">
         <f t="shared" si="23"/>
@@ -4921,7 +5029,7 @@
       </c>
       <c r="AQ31" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR31" t="str">
         <f t="shared" ca="1" si="23"/>
@@ -5039,7 +5147,7 @@
       </c>
       <c r="AQ32" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR32" t="str">
         <f t="shared" si="23"/>
@@ -5157,7 +5265,7 @@
       </c>
       <c r="AQ33" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR33" t="str">
         <f t="shared" si="23"/>
@@ -5275,7 +5383,7 @@
       </c>
       <c r="AQ34" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR34" t="str">
         <f t="shared" si="23"/>
@@ -5393,7 +5501,7 @@
       </c>
       <c r="AQ35" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR35" t="str">
         <f t="shared" si="23"/>
@@ -5511,7 +5619,7 @@
       </c>
       <c r="AQ36" t="str">
         <f t="shared" ca="1" si="59"/>
-        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti7","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"Ev5_OnePlusTwo2","tp1":"cu","vl1":"EN","cn1":300},{"id":"Ev5_OnePlusTwo3","tp1":"cu","vl1":"EN","cn1":80},{"id":"Ev4_Conti1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"Ev4_Conti2","tp1":"cu","vl1":"EN","cn1":150},{"id":"Ev4_Conti4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"Ev4_Conti5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"Ev4_Conti7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"Ev4_Conti8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"Ev7_Summer1","tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AR36" t="str">
         <f t="shared" si="23"/>
@@ -5521,7 +5629,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q36 M2:M36 Y2:Y36 I2:I36 U2:U36" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I36 Q2:Q36 U2:U36 Y2:Y36 M2:M36" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(I$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E378556-EFEE-42E9-AB9B-48C17AFC42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF486B-E466-43D6-B9DA-FB8D9ACB7BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="570" windowWidth="13515" windowHeight="14265" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="1" r:id="rId2"/>
+    <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="115">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +571,22 @@
   </si>
   <si>
     <t>test_oneofthree3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sBrokenEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashName_sBrokenEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,11 +1019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
   <dimension ref="A1:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -5841,4 +5858,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4349C-9B9F-4098-A086-194012A30D18}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B124517D-582D-4B0B-AFBA-58BFD789CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B848B-0141-486F-A2AB-C7AAF6715A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sProd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,13 +560,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +597,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -970,12 +956,10 @@
     <col min="36" max="36" width="19.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="48" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="46" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="27" customHeight="1">
+    <row r="1" spans="1:46" ht="27" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -986,7 +970,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1105,23 +1089,14 @@
       <c r="AQ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AS1" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AT1" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1243,44 +1218,14 @@
         <f t="shared" ref="AQ2:AQ27" si="20">IF(LEN(AB2)=0,"",AB2)</f>
         <v/>
       </c>
-      <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR3" ca="1" si="21">IF(ROW()=2,AS2,OFFSET(AR2,-1,0)&amp;IF(LEN(AS2)=0,"",","&amp;AS2))</f>
-        <v/>
-      </c>
-      <c r="AS2" t="str">
-        <f t="shared" ref="AS2:AS27" si="22">IF(E2=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
-&amp;IF(LEN(I2)=0,"",","""&amp;I$1&amp;""":"""&amp;I2&amp;"""")
-&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"""&amp;K2&amp;"""")
-&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"&amp;L2)
-&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
-&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
-&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"&amp;P2)
-&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
-&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
-&amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"&amp;T2)
-&amp;IF(LEN(U2)=0,"",","""&amp;U$1&amp;""":"""&amp;U2&amp;"""")
-&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"""&amp;W2&amp;"""")
-&amp;IF(LEN(X2)=0,"",","""&amp;X$1&amp;""":"&amp;X2)
-&amp;IF(LEN(Y2)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y2&amp;"""")
-&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA2&amp;"""")
-&amp;IF(LEN(AB2)=0,"",","""&amp;AB$1&amp;""":"&amp;AB2)&amp;"}")</f>
-        <v/>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AS2" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AT2" t="s">
         <v>16</v>
       </c>
-      <c r="AX2" t="str">
-        <f ca="1">"["&amp;
-IF(LEFT(OFFSET(AR1,COUNTA(AR:AR)-1,0),1)=",",SUBSTITUTE(OFFSET(AR1,COUNTA(AR:AR)-1,0),",","",1),OFFSET(AR1,COUNTA(AR:AR)-1,0))
-&amp;"]"</f>
-        <v>[{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}]</v>
-      </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1401,24 +1346,16 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR3" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS3" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AU3" t="s">
+      <c r="AS3" t="s">
         <v>36</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AT3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1437,10 +1374,10 @@
         <v>25000</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I17" ca="1" si="23">IF(ISBLANK(J4),"",
+        <f t="shared" ref="I4:I17" ca="1" si="21">IF(ISBLANK(J4),"",
 VLOOKUP(J4,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -1455,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M5" ca="1" si="24">IF(ISBLANK(N4),"",
+        <f t="shared" ref="M4:M5" ca="1" si="22">IF(ISBLANK(N4),"",
 VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -1470,19 +1407,19 @@
         <v>1</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q5" ca="1" si="25">IF(ISBLANK(R4),"",
+        <f t="shared" ref="Q4:Q5" ca="1" si="23">IF(ISBLANK(R4),"",
 VLOOKUP(R4,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U5" ca="1" si="26">IF(ISBLANK(V4),"",
+        <f t="shared" ref="U4:U5" ca="1" si="24">IF(ISBLANK(V4),"",
 VLOOKUP(V4,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y5" ca="1" si="27">IF(ISBLANK(Z4),"",
+        <f t="shared" ref="Y4:Y5" ca="1" si="25">IF(ISBLANK(Z4),"",
 VLOOKUP(Z4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -1547,18 +1484,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR4" t="str">
-        <f t="shared" ref="AR4:AR14" ca="1" si="28">IF(ROW()=2,AS4,OFFSET(AR4,-1,0)&amp;IF(LEN(AS4)=0,"",","&amp;AS4))</f>
-        <v/>
-      </c>
-      <c r="AS4" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1571,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J5" t="s">
@@ -1584,19 +1513,19 @@
         <v>300</v>
       </c>
       <c r="M5" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="U5" t="str">
         <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
-      <c r="Q5" t="str">
+      <c r="Y5" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AC5" t="str">
@@ -1659,18 +1588,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR5" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300}</v>
-      </c>
-      <c r="AS5" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300}</v>
-      </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1683,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J6" t="s">
@@ -1696,25 +1617,25 @@
         <v>80</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M27" ca="1" si="29">IF(ISBLANK(N6),"",
+        <f t="shared" ref="M6:M27" ca="1" si="26">IF(ISBLANK(N6),"",
 VLOOKUP(N6,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q27" ca="1" si="30">IF(ISBLANK(R6),"",
+        <f t="shared" ref="Q6:Q27" ca="1" si="27">IF(ISBLANK(R6),"",
 VLOOKUP(R6,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U27" ca="1" si="31">IF(ISBLANK(V6),"",
+        <f t="shared" ref="U6:U27" ca="1" si="28">IF(ISBLANK(V6),"",
 VLOOKUP(V6,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" ref="Y6:Y27" ca="1" si="32">IF(ISBLANK(Z6),"",
+        <f t="shared" ref="Y6:Y27" ca="1" si="29">IF(ISBLANK(Z6),"",
 VLOOKUP(Z6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -1779,21 +1700,13 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR6" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS6" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C9" si="33">A7</f>
+        <f t="shared" ref="C7:C9" si="30">A7</f>
         <v>ev3_oneofthree_1</v>
       </c>
       <c r="E7" t="b">
@@ -1806,10 +1719,10 @@
         <v>19000</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I9" ca="1" si="34">IF(ISBLANK(J7),"",
+        <f t="shared" ref="I7:I9" ca="1" si="31">IF(ISBLANK(J7),"",
 VLOOKUP(J7,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1818,13 +1731,13 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7">
         <v>30</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M7:M9" ca="1" si="35">IF(ISBLANK(N7),"",
+        <f t="shared" ref="M7:M9" ca="1" si="32">IF(ISBLANK(N7),"",
 VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1839,7 +1752,7 @@
         <v>25000</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q9" ca="1" si="36">IF(ISBLANK(R7),"",
+        <f t="shared" ref="Q7:Q9" ca="1" si="33">IF(ISBLANK(R7),"",
 VLOOKUP(R7,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1848,114 +1761,90 @@
         <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7">
         <v>100</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U7:U9" ca="1" si="37">IF(ISBLANK(V7),"",
+        <f t="shared" ref="U7:U9" ca="1" si="34">IF(ISBLANK(V7),"",
 VLOOKUP(V7,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" ref="Y7:Y9" ca="1" si="38">IF(ISBLANK(Z7),"",
+        <f t="shared" ref="Y7:Y9" ca="1" si="35">IF(ISBLANK(Z7),"",
 VLOOKUP(Z7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" ref="AC7:AC9" ca="1" si="39">IF(LEN(I7)=0,"",I7)</f>
+        <f t="shared" ref="AC7:AC9" ca="1" si="36">IF(LEN(I7)=0,"",I7)</f>
         <v>cu</v>
       </c>
       <c r="AD7" t="str">
-        <f t="shared" ref="AD7:AD9" si="40">IF(LEN(K7)=0,"",K7)</f>
+        <f t="shared" ref="AD7:AD9" si="37">IF(LEN(K7)=0,"",K7)</f>
         <v>EN</v>
       </c>
       <c r="AE7">
-        <f t="shared" ref="AE7:AE9" si="41">IF(LEN(L7)=0,"",L7)</f>
+        <f t="shared" ref="AE7:AE9" si="38">IF(LEN(L7)=0,"",L7)</f>
         <v>30</v>
       </c>
       <c r="AF7" t="str">
-        <f t="shared" ref="AF7:AF9" ca="1" si="42">IF(LEN(M7)=0,"",M7)</f>
+        <f t="shared" ref="AF7:AF9" ca="1" si="39">IF(LEN(M7)=0,"",M7)</f>
         <v>cu</v>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AG9" si="43">IF(LEN(O7)=0,"",O7)</f>
+        <f t="shared" ref="AG7:AG9" si="40">IF(LEN(O7)=0,"",O7)</f>
         <v>GO</v>
       </c>
       <c r="AH7">
-        <f t="shared" ref="AH7:AH9" si="44">IF(LEN(P7)=0,"",P7)</f>
+        <f t="shared" ref="AH7:AH9" si="41">IF(LEN(P7)=0,"",P7)</f>
         <v>25000</v>
       </c>
       <c r="AI7" t="str">
-        <f t="shared" ref="AI7:AI9" ca="1" si="45">IF(LEN(Q7)=0,"",Q7)</f>
+        <f t="shared" ref="AI7:AI9" ca="1" si="42">IF(LEN(Q7)=0,"",Q7)</f>
         <v>cu</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AJ9" si="46">IF(LEN(S7)=0,"",S7)</f>
+        <f t="shared" ref="AJ7:AJ9" si="43">IF(LEN(S7)=0,"",S7)</f>
         <v>EN</v>
       </c>
       <c r="AK7">
-        <f t="shared" ref="AK7:AK9" si="47">IF(LEN(T7)=0,"",T7)</f>
+        <f t="shared" ref="AK7:AK9" si="44">IF(LEN(T7)=0,"",T7)</f>
         <v>100</v>
       </c>
       <c r="AL7" t="str">
-        <f t="shared" ref="AL7:AL9" ca="1" si="48">IF(LEN(U7)=0,"",U7)</f>
+        <f t="shared" ref="AL7:AL9" ca="1" si="45">IF(LEN(U7)=0,"",U7)</f>
         <v/>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AM9" si="49">IF(LEN(W7)=0,"",W7)</f>
+        <f t="shared" ref="AM7:AM9" si="46">IF(LEN(W7)=0,"",W7)</f>
         <v/>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" ref="AN7:AN9" si="50">IF(LEN(X7)=0,"",X7)</f>
+        <f t="shared" ref="AN7:AN9" si="47">IF(LEN(X7)=0,"",X7)</f>
         <v/>
       </c>
       <c r="AO7" t="str">
-        <f t="shared" ref="AO7:AO9" ca="1" si="51">IF(LEN(Y7)=0,"",Y7)</f>
+        <f t="shared" ref="AO7:AO9" ca="1" si="48">IF(LEN(Y7)=0,"",Y7)</f>
         <v/>
       </c>
       <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AP9" si="52">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" ref="AP7:AP9" si="49">IF(LEN(AA7)=0,"",AA7)</f>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" si="53">IF(LEN(AB7)=0,"",AB7)</f>
-        <v/>
-      </c>
-      <c r="AR7" t="str">
-        <f t="shared" ref="AR7:AR9" ca="1" si="54">IF(ROW()=2,AS7,OFFSET(AR7,-1,0)&amp;IF(LEN(AS7)=0,"",","&amp;AS7))</f>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS7" t="str">
-        <f t="shared" ref="AS7:AS9" si="55">IF(E7=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C7&amp;""""
-&amp;IF(LEN(I7)=0,"",","""&amp;I$1&amp;""":"""&amp;I7&amp;"""")
-&amp;IF(LEN(K7)=0,"",","""&amp;K$1&amp;""":"""&amp;K7&amp;"""")
-&amp;IF(LEN(L7)=0,"",","""&amp;L$1&amp;""":"&amp;L7)
-&amp;IF(LEN(M7)=0,"",","""&amp;M$1&amp;""":"""&amp;M7&amp;"""")
-&amp;IF(LEN(O7)=0,"",","""&amp;O$1&amp;""":"""&amp;O7&amp;"""")
-&amp;IF(LEN(P7)=0,"",","""&amp;P$1&amp;""":"&amp;P7)
-&amp;IF(LEN(Q7)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q7&amp;"""")
-&amp;IF(LEN(S7)=0,"",","""&amp;S$1&amp;""":"""&amp;S7&amp;"""")
-&amp;IF(LEN(T7)=0,"",","""&amp;T$1&amp;""":"&amp;T7)
-&amp;IF(LEN(U7)=0,"",","""&amp;U$1&amp;""":"""&amp;U7&amp;"""")
-&amp;IF(LEN(W7)=0,"",","""&amp;W$1&amp;""":"""&amp;W7&amp;"""")
-&amp;IF(LEN(X7)=0,"",","""&amp;X$1&amp;""":"&amp;X7)
-&amp;IF(LEN(Y7)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y7&amp;"""")
-&amp;IF(LEN(AA7)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA7&amp;"""")
-&amp;IF(LEN(AB7)=0,"",","""&amp;AB$1&amp;""":"&amp;AB7)&amp;"}")</f>
+        <f t="shared" ref="AQ7:AQ9" si="50">IF(LEN(AB7)=0,"",AB7)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>ev3_oneofthree_2</v>
       </c>
       <c r="E8" t="b">
@@ -1968,23 +1857,23 @@
         <v>39000</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="31"/>
         <v>cu</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8">
         <v>60</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="N8" t="s">
@@ -1997,243 +1886,227 @@
         <v>15000</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="33"/>
         <v>cu</v>
       </c>
       <c r="R8" t="s">
         <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8">
         <v>120</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AC8" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="37"/>
+        <v>EN</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+      <c r="AF8" t="str">
         <f t="shared" ca="1" si="39"/>
         <v>cu</v>
       </c>
-      <c r="AD8" t="str">
+      <c r="AG8" t="str">
         <f t="shared" si="40"/>
+        <v>GO</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="41"/>
+        <v>15000</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>cu</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="43"/>
         <v>EN</v>
       </c>
-      <c r="AE8">
+      <c r="AK8">
+        <f t="shared" si="44"/>
+        <v>120</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="30"/>
+        <v>ev3_oneofthree_3</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>49.99</v>
+      </c>
+      <c r="G9">
+        <v>69000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9">
+        <v>30000</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>cu</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9">
+        <v>150</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9">
+        <v>300</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="37"/>
+        <v>EN</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="38"/>
+        <v>90</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="40"/>
+        <v>GO</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="41"/>
-        <v>60</v>
-      </c>
-      <c r="AF8" t="str">
+        <v>30000</v>
+      </c>
+      <c r="AI9" t="str">
         <f t="shared" ca="1" si="42"/>
         <v>cu</v>
       </c>
-      <c r="AG8" t="str">
+      <c r="AJ9" t="str">
         <f t="shared" si="43"/>
-        <v>GO</v>
-      </c>
-      <c r="AH8">
+        <v>EN</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="44"/>
-        <v>15000</v>
-      </c>
-      <c r="AI8" t="str">
+        <v>150</v>
+      </c>
+      <c r="AL9" t="str">
         <f t="shared" ca="1" si="45"/>
         <v>cu</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AM9" t="str">
         <f t="shared" si="46"/>
         <v>EN</v>
       </c>
-      <c r="AK8">
+      <c r="AN9">
         <f t="shared" si="47"/>
-        <v>120</v>
-      </c>
-      <c r="AL8" t="str">
+        <v>300</v>
+      </c>
+      <c r="AO9" t="str">
         <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
-      <c r="AM8" t="str">
+      <c r="AP9" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="AN8" t="str">
+      <c r="AQ9" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="AO8" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AP8" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AQ8" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AR8" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS8" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
     </row>
-    <row r="9" spans="1:50">
-      <c r="A9" t="s">
+    <row r="10" spans="1:46">
+      <c r="A10" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="33"/>
-        <v>ev3_oneofthree_3</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>49.99</v>
-      </c>
-      <c r="G9">
-        <v>69000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>cu</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9">
-        <v>90</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9">
-        <v>30000</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9">
-        <v>150</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>cu</v>
-      </c>
-      <c r="V9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X9">
-        <v>300</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>cu</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="40"/>
-        <v>EN</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="41"/>
-        <v>90</v>
-      </c>
-      <c r="AF9" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="43"/>
-        <v>GO</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="44"/>
-        <v>30000</v>
-      </c>
-      <c r="AI9" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>cu</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f t="shared" si="46"/>
-        <v>EN</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="47"/>
-        <v>150</v>
-      </c>
-      <c r="AL9" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>cu</v>
-      </c>
-      <c r="AM9" t="str">
-        <f t="shared" si="49"/>
-        <v>EN</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="50"/>
-        <v>300</v>
-      </c>
-      <c r="AO9" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AP9" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="AQ9" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="AR9" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS9" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:50">
-      <c r="A10" t="s">
-        <v>78</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2246,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J10" t="s">
@@ -2259,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N10" t="s">
@@ -2272,24 +2145,24 @@
         <v>35000</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="R10" t="s">
         <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T10">
         <v>170</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC10" t="str">
@@ -2352,18 +2225,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR10" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
-      </c>
-      <c r="AS10" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
-      </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2376,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J11" t="s">
@@ -2389,19 +2254,19 @@
         <v>150</v>
       </c>
       <c r="M11" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC11" t="str">
@@ -2464,18 +2329,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR11" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150}</v>
-      </c>
-      <c r="AS11" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150}</v>
-      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2494,10 +2351,10 @@
         <v>2500</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J12" t="s">
@@ -2510,7 +2367,7 @@
         <v>20000</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N12" t="s">
@@ -2523,7 +2380,7 @@
         <v>150</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="R12" t="s">
@@ -2536,7 +2393,7 @@
         <v>35000</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v>cu</v>
       </c>
       <c r="V12" t="s">
@@ -2549,7 +2406,7 @@
         <v>200</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC12" t="str">
@@ -2612,18 +2469,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR12" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150}</v>
-      </c>
-      <c r="AS12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2636,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J13" t="s">
@@ -2649,7 +2498,7 @@
         <v>150</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N13" t="s">
@@ -2662,15 +2511,15 @@
         <v>20000</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="U13" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC13" t="str">
@@ -2733,18 +2582,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR13" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
-      </c>
-      <c r="AS13" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
-      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2757,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J14" t="s">
@@ -2770,7 +2611,7 @@
         <v>80</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N14" t="s">
@@ -2783,7 +2624,7 @@
         <v>10000</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="R14" t="s">
@@ -2796,11 +2637,11 @@
         <v>200</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC14" t="str">
@@ -2863,18 +2704,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR14" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
-      </c>
-      <c r="AS14" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
-      </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2893,10 +2726,10 @@
         <v>7500</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J15" t="s">
@@ -2909,7 +2742,7 @@
         <v>300</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N15" t="s">
@@ -2922,7 +2755,7 @@
         <v>25000</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="R15" t="s">
@@ -2935,7 +2768,7 @@
         <v>450</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v>cu</v>
       </c>
       <c r="V15" t="s">
@@ -2948,7 +2781,7 @@
         <v>35000</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC15" t="str">
@@ -3011,18 +2844,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR15" t="str">
-        <f t="shared" ref="AR15:AR27" ca="1" si="56">IF(ROW()=2,AS15,OFFSET(AR15,-1,0)&amp;IF(LEN(AS15)=0,"",","&amp;AS15))</f>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
-      </c>
-      <c r="AS15" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:46">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3035,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J16" t="s">
@@ -3048,19 +2873,19 @@
         <v>50000</v>
       </c>
       <c r="M16" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC16" t="str">
@@ -3123,18 +2948,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR16" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000}</v>
-      </c>
-      <c r="AS16" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000}</v>
-      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3147,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v>cu</v>
       </c>
       <c r="J17" t="s">
@@ -3160,7 +2977,7 @@
         <v>350</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="26"/>
         <v>cu</v>
       </c>
       <c r="N17" t="s">
@@ -3173,15 +2990,15 @@
         <v>30000</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC17" t="str">
@@ -3244,18 +3061,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR17" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
-      <c r="AS17" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3271,10 +3080,10 @@
         <v>1200</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" ref="I18:I27" ca="1" si="57">IF(ISBLANK(J18),"",
+        <f t="shared" ref="I18:I27" ca="1" si="51">IF(ISBLANK(J18),"",
 VLOOKUP(J18,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3289,19 +3098,19 @@
         <v>80</v>
       </c>
       <c r="M18" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC18" t="str">
@@ -3364,18 +3173,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR18" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
-      <c r="AS18" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3391,10 +3192,10 @@
         <v>2500</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J19" t="s">
@@ -3407,19 +3208,19 @@
         <v>80</v>
       </c>
       <c r="M19" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC19" t="str">
@@ -3482,18 +3283,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR19" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
-      <c r="AS19" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3509,10 +3302,10 @@
         <v>3900</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J20" t="s">
@@ -3525,19 +3318,19 @@
         <v>80</v>
       </c>
       <c r="M20" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC20" t="str">
@@ -3600,18 +3393,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR20" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
-      <c r="AS20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3627,10 +3412,10 @@
         <v>4900</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J21" t="s">
@@ -3643,19 +3428,19 @@
         <v>80</v>
       </c>
       <c r="M21" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC21" t="str">
@@ -3718,18 +3503,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR21" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
-      </c>
-      <c r="AS21" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -3739,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J22" t="s">
@@ -3752,19 +3529,19 @@
         <v>80</v>
       </c>
       <c r="M22" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC22" t="str">
@@ -3827,18 +3604,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR22" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS22" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3854,10 +3623,10 @@
         <v>2500</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J23" t="s">
@@ -3870,19 +3639,19 @@
         <v>80</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC23" t="str">
@@ -3945,18 +3714,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR23" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS23" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -3972,10 +3733,10 @@
         <v>3900</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J24" t="s">
@@ -3988,19 +3749,19 @@
         <v>80</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC24" t="str">
@@ -4063,18 +3824,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR24" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS24" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4090,10 +3843,10 @@
         <v>4900</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J25" t="s">
@@ -4106,19 +3859,19 @@
         <v>80</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC25" t="str">
@@ -4181,18 +3934,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR25" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS25" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4208,10 +3953,10 @@
         <v>5900</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J26" t="s">
@@ -4224,19 +3969,19 @@
         <v>80</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC26" t="str">
@@ -4299,18 +4044,10 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AR26" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS26" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4326,10 +4063,10 @@
         <v>7500</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="J27" t="s">
@@ -4342,19 +4079,19 @@
         <v>80</v>
       </c>
       <c r="M27" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC27" t="str">
@@ -4415,14 +4152,6 @@
       </c>
       <c r="AQ27" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AR27" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>,{"id":"ev5_oneplustwo_2","tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AS27" t="str">
-        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4659,18 +4388,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B848B-0141-486F-A2AB-C7AAF6715A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69E15E-A650-4FDE-935E-CA6B6C7B8BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-6780" yWindow="1830" windowWidth="13515" windowHeight="14265" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,18 @@
   </si>
   <si>
     <t>ev7_summer_6</t>
+  </si>
+  <si>
+    <t>sProd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -913,13 +925,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -931,35 +943,38 @@
     <col min="5" max="5" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="18.75" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="18.75" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="18.75" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="27" customHeight="1">
+    <row r="1" spans="1:52" ht="27" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -984,119 +999,134 @@
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>34</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1119,113 +1149,151 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I3" ca="1" si="1">IF(ISBLANK(J2),"",
-VLOOKUP(J2,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="I2">
+        <v>434</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>434</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K3" ca="1" si="1">IF(ISBLANK(L2),"",
+VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="M2" t="str">
-        <f t="shared" ref="M2:M3" ca="1" si="2">IF(ISBLANK(N2),"",
-VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O3" ca="1" si="2">IF(ISBLANK(P2),"",
+VLOOKUP(P2,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q3" ca="1" si="3">IF(ISBLANK(R2),"",
-VLOOKUP(R2,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:S3" ca="1" si="3">IF(ISBLANK(T2),"",
+VLOOKUP(T2,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="U2" t="str">
-        <f t="shared" ref="U2:U3" ca="1" si="4">IF(ISBLANK(V2),"",
-VLOOKUP(V2,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="W2" t="str">
+        <f t="shared" ref="W2:W3" ca="1" si="4">IF(ISBLANK(X2),"",
+VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Y2" t="str">
-        <f t="shared" ref="Y2:Y3" ca="1" si="5">IF(ISBLANK(Z2),"",
-VLOOKUP(Z2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA3" ca="1" si="5">IF(ISBLANK(AB2),"",
+VLOOKUP(AB2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AC2" t="str">
-        <f t="shared" ref="AC2:AC27" ca="1" si="6">IF(LEN(I2)=0,"",I2)</f>
+      <c r="AE2" t="str">
+        <f t="shared" ref="AE2:AE27" ca="1" si="6">IF(LEN(K2)=0,"",K2)</f>
         <v>it</v>
       </c>
-      <c r="AD2" t="str">
-        <f t="shared" ref="AD2:AD27" si="7">IF(LEN(K2)=0,"",K2)</f>
+      <c r="AF2" t="str">
+        <f t="shared" ref="AF2:AF27" si="7">IF(LEN(M2)=0,"",M2)</f>
         <v>Cash_bLevelPass</v>
       </c>
-      <c r="AE2">
-        <f t="shared" ref="AE2:AE27" si="8">IF(LEN(L2)=0,"",L2)</f>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AG27" si="8">IF(LEN(N2)=0,"",N2)</f>
         <v>1</v>
       </c>
-      <c r="AF2" t="str">
-        <f t="shared" ref="AF2:AF27" ca="1" si="9">IF(LEN(M2)=0,"",M2)</f>
-        <v/>
-      </c>
-      <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AG27" si="10">IF(LEN(O2)=0,"",O2)</f>
-        <v/>
-      </c>
       <c r="AH2" t="str">
-        <f t="shared" ref="AH2:AH27" si="11">IF(LEN(P2)=0,"",P2)</f>
+        <f t="shared" ref="AH2:AH27" ca="1" si="9">IF(LEN(O2)=0,"",O2)</f>
         <v/>
       </c>
       <c r="AI2" t="str">
-        <f t="shared" ref="AI2:AI27" ca="1" si="12">IF(LEN(Q2)=0,"",Q2)</f>
+        <f t="shared" ref="AI2:AI27" si="10">IF(LEN(Q2)=0,"",Q2)</f>
         <v/>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ27" si="13">IF(LEN(S2)=0,"",S2)</f>
+        <f t="shared" ref="AJ2:AJ27" si="11">IF(LEN(R2)=0,"",R2)</f>
         <v/>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK27" si="14">IF(LEN(T2)=0,"",T2)</f>
+        <f t="shared" ref="AK2:AK27" ca="1" si="12">IF(LEN(S2)=0,"",S2)</f>
         <v/>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL27" ca="1" si="15">IF(LEN(U2)=0,"",U2)</f>
+        <f t="shared" ref="AL2:AL27" si="13">IF(LEN(U2)=0,"",U2)</f>
         <v/>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM27" si="16">IF(LEN(W2)=0,"",W2)</f>
+        <f t="shared" ref="AM2:AM27" si="14">IF(LEN(V2)=0,"",V2)</f>
         <v/>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN27" si="17">IF(LEN(X2)=0,"",X2)</f>
+        <f t="shared" ref="AN2:AN27" ca="1" si="15">IF(LEN(W2)=0,"",W2)</f>
         <v/>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ref="AO2:AO27" ca="1" si="18">IF(LEN(Y2)=0,"",Y2)</f>
+        <f t="shared" ref="AO2:AO27" si="16">IF(LEN(Y2)=0,"",Y2)</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AP27" si="19">IF(LEN(AA2)=0,"",AA2)</f>
+        <f t="shared" ref="AP2:AP27" si="17">IF(LEN(Z2)=0,"",Z2)</f>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f t="shared" ref="AQ2:AQ27" si="20">IF(LEN(AB2)=0,"",AB2)</f>
-        <v/>
-      </c>
-      <c r="AS2" t="s">
+        <f t="shared" ref="AQ2:AQ27" ca="1" si="18">IF(LEN(AA2)=0,"",AA2)</f>
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" ref="AR2:AR27" si="19">IF(LEN(AC2)=0,"",AC2)</f>
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" ref="AS2:AS27" si="20">IF(LEN(AD2)=0,"",AD2)</f>
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <f ca="1">IF(ROW()=2,AU2,OFFSET(AT2,-1,0)&amp;IF(LEN(AU2)=0,"",","&amp;AU2))</f>
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" ref="AU2:AU27" si="21">IF(E2=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+&amp;","""&amp;I$1&amp;""":"&amp;I2
+&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"""&amp;K2&amp;"""")
+&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
+&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
+&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
+&amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"&amp;R2)
+&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
+&amp;IF(LEN(U2)=0,"",","""&amp;U$1&amp;""":"""&amp;U2&amp;"""")
+&amp;IF(LEN(V2)=0,"",","""&amp;V$1&amp;""":"&amp;V2)
+&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"""&amp;W2&amp;"""")
+&amp;IF(LEN(Y2)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y2&amp;"""")
+&amp;IF(LEN(Z2)=0,"",","""&amp;Z$1&amp;""":"&amp;Z2)
+&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA2&amp;"""")
+&amp;IF(LEN(AC2)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC2&amp;"""")
+&amp;IF(LEN(AD2)=0,"",","""&amp;AD$1&amp;""":"&amp;AD2)&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AW2" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
+      <c r="AZ2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(AT1,COUNTA(AT:AT)-1,0),1)=",",SUBSTITUTE(OFFSET(AT1,COUNTA(AT:AT)-1,0),",","",1),OFFSET(AT1,COUNTA(AT:AT)-1,0))
+&amp;"]"</f>
+        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1248,112 +1316,127 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3">
+        <v>806</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J27" si="22">I3</f>
+        <v>806</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>600</v>
       </c>
-      <c r="M3" t="str">
+      <c r="O3" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>50000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="S3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="U3" t="str">
+      <c r="W3" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="Y3" t="str">
+      <c r="AA3" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AC3" t="str">
+      <c r="AE3" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="AF3" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AH3" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AI3" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <f t="shared" si="11"/>
         <v>50000</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AK3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AL3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK3" t="str">
+      <c r="AM3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL3" t="str">
+      <c r="AN3" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM3" t="str">
+      <c r="AO3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN3" t="str">
+      <c r="AP3" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO3" t="str">
+      <c r="AQ3" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP3" t="str">
+      <c r="AR3" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AS3" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="str">
+        <f t="shared" ref="AT3:AT27" ca="1" si="23">IF(ROW()=2,AU3,OFFSET(AT3,-1,0)&amp;IF(LEN(AU3)=0,"",","&amp;AU3))</f>
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="AW3" t="s">
         <v>36</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AX3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1376,116 +1459,131 @@
       <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I17" ca="1" si="21">IF(ISBLANK(J4),"",
-VLOOKUP(J4,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="I4">
+        <v>548</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="22"/>
+        <v>548</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K17" ca="1" si="24">IF(ISBLANK(L4),"",
+VLOOKUP(L4,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M5" ca="1" si="22">IF(ISBLANK(N4),"",
-VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O5" ca="1" si="25">IF(ISBLANK(P4),"",
+VLOOKUP(P4,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>58</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q5" ca="1" si="23">IF(ISBLANK(R4),"",
-VLOOKUP(R4,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S5" ca="1" si="26">IF(ISBLANK(T4),"",
+VLOOKUP(T4,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U5" ca="1" si="24">IF(ISBLANK(V4),"",
-VLOOKUP(V4,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W5" ca="1" si="27">IF(ISBLANK(X4),"",
+VLOOKUP(X4,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y5" ca="1" si="25">IF(ISBLANK(Z4),"",
-VLOOKUP(Z4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA5" ca="1" si="28">IF(ISBLANK(AB4),"",
+VLOOKUP(AB4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AC4" t="str">
+      <c r="AE4" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>it</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="AF4" t="str">
         <f t="shared" si="7"/>
         <v>Cash_cDailyBox</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AH4" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>it</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AI4" t="str">
         <f t="shared" si="10"/>
         <v>Cash_cThickBox</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AK4" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AL4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK4" t="str">
+      <c r="AM4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL4" t="str">
+      <c r="AN4" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM4" t="str">
+      <c r="AO4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN4" t="str">
+      <c r="AP4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO4" t="str">
+      <c r="AQ4" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP4" t="str">
+      <c r="AR4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AS4" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT4" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1499,97 +1597,129 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5">
+        <v>537</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="22"/>
+        <v>537</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>300</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
+      <c r="O5" t="str">
         <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
-      <c r="AC5" t="str">
+      <c r="S5" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="AF5" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AH5" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG5" t="str">
+      <c r="AI5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH5" t="str">
+      <c r="AJ5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI5" t="str">
+      <c r="AK5" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AL5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK5" t="str">
+      <c r="AM5" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL5" t="str">
+      <c r="AN5" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM5" t="str">
+      <c r="AO5" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN5" t="str">
+      <c r="AP5" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO5" t="str">
+      <c r="AQ5" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP5" t="str">
+      <c r="AR5" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AS5" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT5" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
+      </c>
+      <c r="AU5" t="str">
+        <f ca="1">IF(E5=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C5&amp;""""
+&amp;","""&amp;I$1&amp;""":"&amp;I5
+&amp;IF(LEN(K5)=0,"",","""&amp;K$1&amp;""":"""&amp;K5&amp;"""")
+&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
+&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
+&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"""&amp;O5&amp;"""")
+&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
+&amp;IF(LEN(R5)=0,"",","""&amp;R$1&amp;""":"&amp;R5)
+&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
+&amp;IF(LEN(U5)=0,"",","""&amp;U$1&amp;""":"""&amp;U5&amp;"""")
+&amp;IF(LEN(V5)=0,"",","""&amp;V$1&amp;""":"&amp;V5)
+&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"""&amp;W5&amp;"""")
+&amp;IF(LEN(Y5)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y5&amp;"""")
+&amp;IF(LEN(Z5)=0,"",","""&amp;Z$1&amp;""":"&amp;Z5)
+&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA5&amp;"""")
+&amp;IF(LEN(AC5)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC5&amp;"""")
+&amp;IF(LEN(AD5)=0,"",","""&amp;AD$1&amp;""":"&amp;AD5)&amp;"}")</f>
+        <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1603,110 +1733,142 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>314</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="22"/>
+        <v>314</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>80</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" ref="M6:M27" ca="1" si="26">IF(ISBLANK(N6),"",
-VLOOKUP(N6,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="O6" t="str">
+        <f t="shared" ref="O6:O27" ca="1" si="29">IF(ISBLANK(P6),"",
+VLOOKUP(P6,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q27" ca="1" si="27">IF(ISBLANK(R6),"",
-VLOOKUP(R6,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="S6" t="str">
+        <f t="shared" ref="S6:S27" ca="1" si="30">IF(ISBLANK(T6),"",
+VLOOKUP(T6,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="U6" t="str">
-        <f t="shared" ref="U6:U27" ca="1" si="28">IF(ISBLANK(V6),"",
-VLOOKUP(V6,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W27" ca="1" si="31">IF(ISBLANK(X6),"",
+VLOOKUP(X6,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Y6" t="str">
-        <f t="shared" ref="Y6:Y27" ca="1" si="29">IF(ISBLANK(Z6),"",
-VLOOKUP(Z6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6:AA27" ca="1" si="32">IF(ISBLANK(AB6),"",
+VLOOKUP(AB6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AC6" t="str">
+      <c r="AE6" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD6" t="str">
+      <c r="AF6" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AH6" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG6" t="str">
+      <c r="AI6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH6" t="str">
+      <c r="AJ6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI6" t="str">
+      <c r="AK6" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AL6" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK6" t="str">
+      <c r="AM6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL6" t="str">
+      <c r="AN6" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM6" t="str">
+      <c r="AO6" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN6" t="str">
+      <c r="AP6" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO6" t="str">
+      <c r="AQ6" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP6" t="str">
+      <c r="AR6" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ6" t="str">
+      <c r="AS6" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT6" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU6" t="str">
+        <f t="shared" ref="AU6:AU27" ca="1" si="33">IF(E6=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C6&amp;""""
+&amp;","""&amp;I$1&amp;""":"&amp;I6
+&amp;IF(LEN(K6)=0,"",","""&amp;K$1&amp;""":"""&amp;K6&amp;"""")
+&amp;IF(LEN(M6)=0,"",","""&amp;M$1&amp;""":"""&amp;M6&amp;"""")
+&amp;IF(LEN(N6)=0,"",","""&amp;N$1&amp;""":"&amp;N6)
+&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"""&amp;O6&amp;"""")
+&amp;IF(LEN(Q6)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q6&amp;"""")
+&amp;IF(LEN(R6)=0,"",","""&amp;R$1&amp;""":"&amp;R6)
+&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
+&amp;IF(LEN(U6)=0,"",","""&amp;U$1&amp;""":"""&amp;U6&amp;"""")
+&amp;IF(LEN(V6)=0,"",","""&amp;V$1&amp;""":"&amp;V6)
+&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"""&amp;W6&amp;"""")
+&amp;IF(LEN(Y6)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y6&amp;"""")
+&amp;IF(LEN(Z6)=0,"",","""&amp;Z$1&amp;""":"&amp;Z6)
+&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA6&amp;"""")
+&amp;IF(LEN(AC6)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC6&amp;"""")
+&amp;IF(LEN(AD6)=0,"",","""&amp;AD$1&amp;""":"&amp;AD6)&amp;"}")</f>
+        <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C9" si="30">A7</f>
+        <f t="shared" ref="C7:C9" si="34">A7</f>
         <v>ev3_oneofthree_1</v>
       </c>
       <c r="E7" t="b">
@@ -1721,130 +1883,145 @@
       <c r="H7" t="s">
         <v>74</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" ref="I7:I9" ca="1" si="31">IF(ISBLANK(J7),"",
-VLOOKUP(J7,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="I7">
+        <v>876</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="22"/>
+        <v>876</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K9" ca="1" si="35">IF(ISBLANK(L7),"",
+VLOOKUP(L7,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>30</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" ref="M7:M9" ca="1" si="32">IF(ISBLANK(N7),"",
-VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="O7" t="str">
+        <f t="shared" ref="O7:O9" ca="1" si="36">IF(ISBLANK(P7),"",
+VLOOKUP(P7,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>17</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>25000</v>
       </c>
-      <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q9" ca="1" si="33">IF(ISBLANK(R7),"",
-VLOOKUP(R7,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="S7" t="str">
+        <f t="shared" ref="S7:S9" ca="1" si="37">IF(ISBLANK(T7),"",
+VLOOKUP(T7,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>18</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>60</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>100</v>
       </c>
-      <c r="U7" t="str">
-        <f t="shared" ref="U7:U9" ca="1" si="34">IF(ISBLANK(V7),"",
-VLOOKUP(V7,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="W7" t="str">
+        <f t="shared" ref="W7:W9" ca="1" si="38">IF(ISBLANK(X7),"",
+VLOOKUP(X7,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="Y7" t="str">
-        <f t="shared" ref="Y7:Y9" ca="1" si="35">IF(ISBLANK(Z7),"",
-VLOOKUP(Z7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7:AA9" ca="1" si="39">IF(ISBLANK(AB7),"",
+VLOOKUP(AB7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AC7" t="str">
-        <f t="shared" ref="AC7:AC9" ca="1" si="36">IF(LEN(I7)=0,"",I7)</f>
-        <v>cu</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" ref="AD7:AD9" si="37">IF(LEN(K7)=0,"",K7)</f>
+      <c r="AE7" t="str">
+        <f t="shared" ref="AE7:AE9" ca="1" si="40">IF(LEN(K7)=0,"",K7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" ref="AF7:AF9" si="41">IF(LEN(M7)=0,"",M7)</f>
         <v>EN</v>
       </c>
-      <c r="AE7">
-        <f t="shared" ref="AE7:AE9" si="38">IF(LEN(L7)=0,"",L7)</f>
+      <c r="AG7">
+        <f t="shared" ref="AG7:AG9" si="42">IF(LEN(N7)=0,"",N7)</f>
         <v>30</v>
       </c>
-      <c r="AF7" t="str">
-        <f t="shared" ref="AF7:AF9" ca="1" si="39">IF(LEN(M7)=0,"",M7)</f>
-        <v>cu</v>
-      </c>
-      <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AG9" si="40">IF(LEN(O7)=0,"",O7)</f>
+      <c r="AH7" t="str">
+        <f t="shared" ref="AH7:AH9" ca="1" si="43">IF(LEN(O7)=0,"",O7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AI7" t="str">
+        <f t="shared" ref="AI7:AI9" si="44">IF(LEN(Q7)=0,"",Q7)</f>
         <v>GO</v>
       </c>
-      <c r="AH7">
-        <f t="shared" ref="AH7:AH9" si="41">IF(LEN(P7)=0,"",P7)</f>
+      <c r="AJ7">
+        <f t="shared" ref="AJ7:AJ9" si="45">IF(LEN(R7)=0,"",R7)</f>
         <v>25000</v>
       </c>
-      <c r="AI7" t="str">
-        <f t="shared" ref="AI7:AI9" ca="1" si="42">IF(LEN(Q7)=0,"",Q7)</f>
-        <v>cu</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AJ9" si="43">IF(LEN(S7)=0,"",S7)</f>
+      <c r="AK7" t="str">
+        <f t="shared" ref="AK7:AK9" ca="1" si="46">IF(LEN(S7)=0,"",S7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" ref="AL7:AL9" si="47">IF(LEN(U7)=0,"",U7)</f>
         <v>EN</v>
       </c>
-      <c r="AK7">
-        <f t="shared" ref="AK7:AK9" si="44">IF(LEN(T7)=0,"",T7)</f>
+      <c r="AM7">
+        <f t="shared" ref="AM7:AM9" si="48">IF(LEN(V7)=0,"",V7)</f>
         <v>100</v>
       </c>
-      <c r="AL7" t="str">
-        <f t="shared" ref="AL7:AL9" ca="1" si="45">IF(LEN(U7)=0,"",U7)</f>
-        <v/>
-      </c>
-      <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AM9" si="46">IF(LEN(W7)=0,"",W7)</f>
-        <v/>
-      </c>
       <c r="AN7" t="str">
-        <f t="shared" ref="AN7:AN9" si="47">IF(LEN(X7)=0,"",X7)</f>
+        <f t="shared" ref="AN7:AN9" ca="1" si="49">IF(LEN(W7)=0,"",W7)</f>
         <v/>
       </c>
       <c r="AO7" t="str">
-        <f t="shared" ref="AO7:AO9" ca="1" si="48">IF(LEN(Y7)=0,"",Y7)</f>
+        <f t="shared" ref="AO7:AO9" si="50">IF(LEN(Y7)=0,"",Y7)</f>
         <v/>
       </c>
       <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AP9" si="49">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" ref="AP7:AP9" si="51">IF(LEN(Z7)=0,"",Z7)</f>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" si="50">IF(LEN(AB7)=0,"",AB7)</f>
+        <f t="shared" ref="AQ7:AQ9" ca="1" si="52">IF(LEN(AA7)=0,"",AA7)</f>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f t="shared" ref="AR7:AR9" si="53">IF(LEN(AC7)=0,"",AC7)</f>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f t="shared" ref="AS7:AS9" si="54">IF(LEN(AD7)=0,"",AD7)</f>
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU7" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>ev3_oneofthree_2</v>
       </c>
       <c r="E8" t="b">
@@ -1859,120 +2036,135 @@
       <c r="H8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8">
+        <v>973</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="22"/>
+        <v>973</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>60</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>cu</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>17</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>15000</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>cu</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>cu</v>
+      </c>
+      <c r="T8" t="s">
         <v>18</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>60</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>120</v>
       </c>
-      <c r="U8" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AC8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="37"/>
+      <c r="W8" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="41"/>
         <v>EN</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="38"/>
+      <c r="AG8">
+        <f t="shared" si="42"/>
         <v>60</v>
       </c>
-      <c r="AF8" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>cu</v>
-      </c>
-      <c r="AG8" t="str">
-        <f t="shared" si="40"/>
+      <c r="AH8" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="44"/>
         <v>GO</v>
       </c>
-      <c r="AH8">
-        <f t="shared" si="41"/>
+      <c r="AJ8">
+        <f t="shared" si="45"/>
         <v>15000</v>
       </c>
-      <c r="AI8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
-      </c>
-      <c r="AJ8" t="str">
-        <f t="shared" si="43"/>
+      <c r="AK8" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v>cu</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="47"/>
         <v>EN</v>
       </c>
-      <c r="AK8">
-        <f t="shared" si="44"/>
+      <c r="AM8">
+        <f t="shared" si="48"/>
         <v>120</v>
       </c>
-      <c r="AL8" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AM8" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
       <c r="AN8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AO8" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="AP8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU8" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>ev3_oneofthree_3</v>
       </c>
       <c r="E9" t="b">
@@ -1987,124 +2179,139 @@
       <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9">
+        <v>180</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="22"/>
+        <v>180</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="L9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>90</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>cu</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="P9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>17</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>30000</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>cu</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>cu</v>
+      </c>
+      <c r="T9" t="s">
         <v>18</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>60</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>150</v>
       </c>
-      <c r="U9" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>cu</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="X9" t="s">
         <v>18</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>60</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>300</v>
       </c>
-      <c r="Y9" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="37"/>
+      <c r="AA9" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="41"/>
         <v>EN</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="38"/>
+      <c r="AG9">
+        <f t="shared" si="42"/>
         <v>90</v>
       </c>
-      <c r="AF9" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>cu</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="40"/>
+      <c r="AH9" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>cu</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="44"/>
         <v>GO</v>
       </c>
-      <c r="AH9">
-        <f t="shared" si="41"/>
+      <c r="AJ9">
+        <f t="shared" si="45"/>
         <v>30000</v>
       </c>
-      <c r="AI9" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f t="shared" si="43"/>
+      <c r="AK9" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v>cu</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="47"/>
         <v>EN</v>
       </c>
-      <c r="AK9">
-        <f t="shared" si="44"/>
+      <c r="AM9">
+        <f t="shared" si="48"/>
         <v>150</v>
       </c>
-      <c r="AL9" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>cu</v>
-      </c>
-      <c r="AM9" t="str">
-        <f t="shared" si="46"/>
+      <c r="AN9" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>cu</v>
+      </c>
+      <c r="AO9" t="str">
+        <f t="shared" si="50"/>
         <v>EN</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="47"/>
+      <c r="AP9">
+        <f t="shared" si="51"/>
         <v>300</v>
       </c>
-      <c r="AO9" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="AP9" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
       <c r="AQ9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2118,115 +2325,130 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10">
+        <v>721</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="22"/>
+        <v>721</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>38</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>80</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P10" t="s">
         <v>18</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>17</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>35000</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="T10" t="s">
         <v>18</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>60</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>170</v>
       </c>
-      <c r="U10" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC10" t="str">
+      <c r="W10" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="AF10" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="AH10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG10" t="str">
+      <c r="AI10" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <f t="shared" si="11"/>
         <v>35000</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AK10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AL10" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AN10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM10" t="str">
+      <c r="AO10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN10" t="str">
+      <c r="AP10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO10" t="str">
+      <c r="AQ10" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP10" t="str">
+      <c r="AR10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ10" t="str">
+      <c r="AS10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT10" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2240,97 +2462,112 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>884</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="22"/>
+        <v>884</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>150</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y11" t="str">
+      <c r="O11" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC11" t="str">
+      <c r="S11" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD11" t="str">
+      <c r="AF11" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AF11" t="str">
+      <c r="AH11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG11" t="str">
+      <c r="AI11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH11" t="str">
+      <c r="AJ11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI11" t="str">
+      <c r="AK11" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AL11" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK11" t="str">
+      <c r="AM11" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL11" t="str">
+      <c r="AN11" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM11" t="str">
+      <c r="AO11" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN11" t="str">
+      <c r="AP11" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO11" t="str">
+      <c r="AQ11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP11" t="str">
+      <c r="AR11" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ11" t="str">
+      <c r="AS11" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT11" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+      </c>
+      <c r="AU11" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2353,124 +2590,139 @@
       <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12">
+        <v>217</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="22"/>
+        <v>217</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>17</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>20000</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>38</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>150</v>
       </c>
-      <c r="Q12" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="S12" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="T12" t="s">
         <v>18</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>17</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>35000</v>
       </c>
-      <c r="U12" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>cu</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="X12" t="s">
         <v>18</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>38</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>200</v>
       </c>
-      <c r="Y12" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC12" t="str">
+      <c r="AA12" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD12" t="str">
+      <c r="AF12" t="str">
         <f t="shared" si="7"/>
         <v>GO</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="AH12" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG12" t="str">
+      <c r="AI12" t="str">
         <f t="shared" si="10"/>
         <v>EN</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AK12" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AL12" t="str">
         <f t="shared" si="13"/>
         <v>GO</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <f t="shared" si="14"/>
         <v>35000</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AN12" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>cu</v>
       </c>
-      <c r="AM12" t="str">
+      <c r="AO12" t="str">
         <f t="shared" si="16"/>
         <v>EN</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="AO12" t="str">
+      <c r="AQ12" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP12" t="str">
+      <c r="AR12" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ12" t="str">
+      <c r="AS12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT12" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+      </c>
+      <c r="AU12" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2484,106 +2736,121 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>394</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="22"/>
+        <v>394</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>150</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P13" t="s">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>17</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>20000</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC13" t="str">
+      <c r="S13" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD13" t="str">
+      <c r="AF13" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AF13" t="str">
+      <c r="AH13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG13" t="str">
+      <c r="AI13" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AK13" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AL13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK13" t="str">
+      <c r="AM13" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL13" t="str">
+      <c r="AN13" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM13" t="str">
+      <c r="AO13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN13" t="str">
+      <c r="AP13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO13" t="str">
+      <c r="AQ13" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP13" t="str">
+      <c r="AR13" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ13" t="str">
+      <c r="AS13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT13" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+      </c>
+      <c r="AU13" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2597,115 +2864,130 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14">
+        <v>612</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="22"/>
+        <v>612</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>80</v>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>17</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>10000</v>
       </c>
-      <c r="Q14" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="T14" t="s">
         <v>18</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>38</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>200</v>
       </c>
-      <c r="U14" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC14" t="str">
+      <c r="W14" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD14" t="str">
+      <c r="AF14" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF14" t="str">
+      <c r="AH14" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG14" t="str">
+      <c r="AI14" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AK14" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AL14" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="AL14" t="str">
+      <c r="AN14" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM14" t="str">
+      <c r="AO14" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN14" t="str">
+      <c r="AP14" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO14" t="str">
+      <c r="AQ14" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP14" t="str">
+      <c r="AR14" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ14" t="str">
+      <c r="AS14" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT14" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2728,124 +3010,139 @@
       <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15">
+        <v>501</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="22"/>
+        <v>501</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>38</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>300</v>
       </c>
-      <c r="M15" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>17</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>25000</v>
       </c>
-      <c r="Q15" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="T15" t="s">
         <v>18</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>38</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>450</v>
       </c>
-      <c r="U15" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>cu</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="W15" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="X15" t="s">
         <v>18</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>17</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>35000</v>
       </c>
-      <c r="Y15" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC15" t="str">
+      <c r="AA15" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD15" t="str">
+      <c r="AF15" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="AF15" t="str">
+      <c r="AH15" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG15" t="str">
+      <c r="AI15" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <f t="shared" si="11"/>
         <v>25000</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AK15" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AL15" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <f t="shared" si="14"/>
         <v>450</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="AN15" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>cu</v>
       </c>
-      <c r="AM15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" si="16"/>
         <v>GO</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <f t="shared" si="17"/>
         <v>35000</v>
       </c>
-      <c r="AO15" t="str">
+      <c r="AQ15" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP15" t="str">
+      <c r="AR15" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ15" t="str">
+      <c r="AS15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT15" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+      </c>
+      <c r="AU15" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -2859,97 +3156,112 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I16">
+        <v>930</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="22"/>
+        <v>930</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
         <v>17</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>50000</v>
       </c>
-      <c r="M16" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y16" t="str">
+      <c r="O16" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC16" t="str">
+      <c r="S16" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE16" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD16" t="str">
+      <c r="AF16" t="str">
         <f t="shared" si="7"/>
         <v>GO</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="AF16" t="str">
+      <c r="AH16" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG16" t="str">
+      <c r="AI16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH16" t="str">
+      <c r="AJ16" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI16" t="str">
+      <c r="AK16" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AL16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK16" t="str">
+      <c r="AM16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL16" t="str">
+      <c r="AN16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN16" t="str">
+      <c r="AP16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO16" t="str">
+      <c r="AQ16" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP16" t="str">
+      <c r="AR16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ16" t="str">
+      <c r="AS16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT16" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
+      </c>
+      <c r="AU16" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
+      </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:47">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2963,106 +3275,121 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>cu</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17">
+        <v>959</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="22"/>
+        <v>959</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>cu</v>
+      </c>
+      <c r="L17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>38</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>350</v>
       </c>
-      <c r="M17" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="P17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>17</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>30000</v>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AC17" t="str">
+      <c r="S17" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD17" t="str">
+      <c r="AF17" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <f t="shared" si="8"/>
         <v>350</v>
       </c>
-      <c r="AF17" t="str">
+      <c r="AH17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AG17" t="str">
+      <c r="AI17" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AK17" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AL17" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK17" t="str">
+      <c r="AM17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL17" t="str">
+      <c r="AN17" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM17" t="str">
+      <c r="AO17" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN17" t="str">
+      <c r="AP17" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO17" t="str">
+      <c r="AQ17" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP17" t="str">
+      <c r="AR17" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ17" t="str">
+      <c r="AS17" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT17" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
+      <c r="AU17" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:47">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3082,99 +3409,114 @@
       <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" ref="I18:I27" ca="1" si="51">IF(ISBLANK(J18),"",
-VLOOKUP(J18,OFFSET(INDIRECT("$A:$B"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="I18">
+        <v>712</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="22"/>
+        <v>712</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ref="K18:K27" ca="1" si="55">IF(ISBLANK(L18),"",
+VLOOKUP(L18,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>18</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>38</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>80</v>
       </c>
-      <c r="M18" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y18" t="str">
+      <c r="O18" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC18" t="str">
+      <c r="S18" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD18" t="str">
+      <c r="AF18" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF18" t="str">
+      <c r="AH18" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG18" t="str">
+      <c r="AI18" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH18" t="str">
+      <c r="AJ18" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI18" t="str">
+      <c r="AK18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AL18" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK18" t="str">
+      <c r="AM18" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL18" t="str">
+      <c r="AN18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM18" t="str">
+      <c r="AO18" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN18" t="str">
+      <c r="AP18" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO18" t="str">
+      <c r="AQ18" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP18" t="str">
+      <c r="AR18" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ18" t="str">
+      <c r="AS18" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT18" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
+      <c r="AU18" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:47">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3194,97 +3536,112 @@
       <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19">
+        <v>268</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>38</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>80</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y19" t="str">
+      <c r="O19" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC19" t="str">
+      <c r="S19" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD19" t="str">
+      <c r="AF19" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF19" t="str">
+      <c r="AH19" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG19" t="str">
+      <c r="AI19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH19" t="str">
+      <c r="AJ19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI19" t="str">
+      <c r="AK19" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AL19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK19" t="str">
+      <c r="AM19" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL19" t="str">
+      <c r="AN19" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM19" t="str">
+      <c r="AO19" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN19" t="str">
+      <c r="AP19" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO19" t="str">
+      <c r="AQ19" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP19" t="str">
+      <c r="AR19" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ19" t="str">
+      <c r="AS19" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT19" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
+      <c r="AU19" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:47">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -3304,97 +3661,112 @@
       <c r="H20" t="s">
         <v>82</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20">
+        <v>851</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="22"/>
+        <v>851</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L20" t="s">
         <v>18</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>38</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>80</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y20" t="str">
+      <c r="O20" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC20" t="str">
+      <c r="S20" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD20" t="str">
+      <c r="AF20" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF20" t="str">
+      <c r="AH20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG20" t="str">
+      <c r="AI20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH20" t="str">
+      <c r="AJ20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI20" t="str">
+      <c r="AK20" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AL20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK20" t="str">
+      <c r="AM20" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL20" t="str">
+      <c r="AN20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM20" t="str">
+      <c r="AO20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN20" t="str">
+      <c r="AP20" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO20" t="str">
+      <c r="AQ20" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP20" t="str">
+      <c r="AR20" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ20" t="str">
+      <c r="AS20" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT20" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
+      <c r="AU20" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:47">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -3414,97 +3786,112 @@
       <c r="H21" t="s">
         <v>83</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21">
+        <v>532</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="22"/>
+        <v>532</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L21" t="s">
         <v>18</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>38</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>80</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y21" t="str">
+      <c r="O21" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC21" t="str">
+      <c r="S21" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE21" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD21" t="str">
+      <c r="AF21" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF21" t="str">
+      <c r="AH21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG21" t="str">
+      <c r="AI21" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH21" t="str">
+      <c r="AJ21" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI21" t="str">
+      <c r="AK21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ21" t="str">
+      <c r="AL21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK21" t="str">
+      <c r="AM21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL21" t="str">
+      <c r="AN21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM21" t="str">
+      <c r="AO21" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN21" t="str">
+      <c r="AP21" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO21" t="str">
+      <c r="AQ21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP21" t="str">
+      <c r="AR21" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ21" t="str">
+      <c r="AS21" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT21" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+      </c>
+      <c r="AU21" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:47">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -3515,97 +3902,112 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22">
+        <v>444</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="22"/>
+        <v>444</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L22" t="s">
         <v>18</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>38</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>80</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y22" t="str">
+      <c r="O22" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC22" t="str">
+      <c r="S22" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE22" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD22" t="str">
+      <c r="AF22" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF22" t="str">
+      <c r="AH22" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG22" t="str">
+      <c r="AI22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH22" t="str">
+      <c r="AJ22" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI22" t="str">
+      <c r="AK22" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AL22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK22" t="str">
+      <c r="AM22" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL22" t="str">
+      <c r="AN22" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM22" t="str">
+      <c r="AO22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN22" t="str">
+      <c r="AP22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO22" t="str">
+      <c r="AQ22" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP22" t="str">
+      <c r="AR22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ22" t="str">
+      <c r="AS22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT22" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU22" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:47">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -3625,97 +4027,112 @@
       <c r="H23" t="s">
         <v>85</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23">
+        <v>833</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="22"/>
+        <v>833</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L23" t="s">
         <v>18</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>38</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>80</v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y23" t="str">
+      <c r="O23" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC23" t="str">
+      <c r="S23" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD23" t="str">
+      <c r="AF23" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF23" t="str">
+      <c r="AH23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG23" t="str">
+      <c r="AI23" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH23" t="str">
+      <c r="AJ23" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI23" t="str">
+      <c r="AK23" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AL23" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK23" t="str">
+      <c r="AM23" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL23" t="str">
+      <c r="AN23" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM23" t="str">
+      <c r="AO23" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN23" t="str">
+      <c r="AP23" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO23" t="str">
+      <c r="AQ23" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP23" t="str">
+      <c r="AR23" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ23" t="str">
+      <c r="AS23" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT23" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU23" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:47">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -3735,97 +4152,112 @@
       <c r="H24" t="s">
         <v>86</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24">
+        <v>955</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="22"/>
+        <v>955</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L24" t="s">
         <v>18</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>38</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>80</v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y24" t="str">
+      <c r="O24" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC24" t="str">
+      <c r="S24" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE24" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD24" t="str">
+      <c r="AF24" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF24" t="str">
+      <c r="AH24" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG24" t="str">
+      <c r="AI24" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH24" t="str">
+      <c r="AJ24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI24" t="str">
+      <c r="AK24" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AL24" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK24" t="str">
+      <c r="AM24" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL24" t="str">
+      <c r="AN24" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM24" t="str">
+      <c r="AO24" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN24" t="str">
+      <c r="AP24" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO24" t="str">
+      <c r="AQ24" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP24" t="str">
+      <c r="AR24" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ24" t="str">
+      <c r="AS24" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT24" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU24" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:47">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -3845,97 +4277,112 @@
       <c r="H25" t="s">
         <v>87</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25">
+        <v>375</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="22"/>
+        <v>375</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>38</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>80</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y25" t="str">
+      <c r="O25" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC25" t="str">
+      <c r="S25" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE25" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD25" t="str">
+      <c r="AF25" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF25" t="str">
+      <c r="AH25" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG25" t="str">
+      <c r="AI25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH25" t="str">
+      <c r="AJ25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI25" t="str">
+      <c r="AK25" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AL25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK25" t="str">
+      <c r="AM25" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL25" t="str">
+      <c r="AN25" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM25" t="str">
+      <c r="AO25" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN25" t="str">
+      <c r="AP25" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO25" t="str">
+      <c r="AQ25" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP25" t="str">
+      <c r="AR25" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ25" t="str">
+      <c r="AS25" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT25" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:47">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -3955,97 +4402,112 @@
       <c r="H26" t="s">
         <v>88</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26">
+        <v>970</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="22"/>
+        <v>970</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>38</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>80</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y26" t="str">
+      <c r="O26" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC26" t="str">
+      <c r="S26" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE26" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD26" t="str">
+      <c r="AF26" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF26" t="str">
+      <c r="AH26" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG26" t="str">
+      <c r="AI26" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH26" t="str">
+      <c r="AJ26" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI26" t="str">
+      <c r="AK26" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AL26" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK26" t="str">
+      <c r="AM26" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL26" t="str">
+      <c r="AN26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM26" t="str">
+      <c r="AO26" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN26" t="str">
+      <c r="AP26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO26" t="str">
+      <c r="AQ26" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP26" t="str">
+      <c r="AR26" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ26" t="str">
+      <c r="AS26" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="AT26" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU26" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:47">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -4065,101 +4527,116 @@
       <c r="H27" t="s">
         <v>89</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27">
+        <v>506</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="22"/>
+        <v>506</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="L27" t="s">
         <v>18</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>38</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>80</v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="Y27" t="str">
+      <c r="O27" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AC27" t="str">
+      <c r="S27" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AE27" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AD27" t="str">
+      <c r="AF27" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AF27" t="str">
+      <c r="AH27" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AG27" t="str">
+      <c r="AI27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AH27" t="str">
+      <c r="AJ27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AI27" t="str">
+      <c r="AK27" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AL27" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AK27" t="str">
+      <c r="AM27" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL27" t="str">
+      <c r="AN27" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AM27" t="str">
+      <c r="AO27" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AN27" t="str">
+      <c r="AP27" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AO27" t="str">
+      <c r="AQ27" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AP27" t="str">
+      <c r="AR27" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AQ27" t="str">
+      <c r="AS27" t="str">
         <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AT27" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+      </c>
+      <c r="AU27" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J27 N2:N27 Z2:Z27 V2:V27 R2:R27" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(J$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L27 P2:P27 AB2:AB27 X2:X27 T2:T27" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69E15E-A650-4FDE-935E-CA6B6C7B8BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC3404-BD6B-4E7D-BFFD-112C8CFE98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6780" yWindow="1830" windowWidth="13515" windowHeight="14265" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>key|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트프로덕트카운트참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,56 +929,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:AZ27"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="9" outlineLevel="1"/>
+    <col min="3" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="27" customHeight="1">
+    <row r="1" spans="1:53" ht="27" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -985,148 +989,151 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>33</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1137,163 +1144,168 @@
         <f t="shared" ref="C2:C27" si="0">A2</f>
         <v>test_levelpass</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="str">
+        <f>IF(ISERROR(FIND("_",A2)),"구분자없음",
+LEFT(A2,FIND("_",A2)-1))</f>
+        <v>test</v>
+      </c>
+      <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.99</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>13000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>434</v>
       </c>
-      <c r="J2">
-        <f>I2</f>
+      <c r="K2">
+        <f>J2</f>
         <v>434</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K3" ca="1" si="1">IF(ISBLANK(L2),"",
-VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L3" ca="1" si="1">IF(ISBLANK(M2),"",
+VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O3" ca="1" si="2">IF(ISBLANK(P2),"",
-VLOOKUP(P2,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P3" ca="1" si="2">IF(ISBLANK(Q2),"",
+VLOOKUP(Q2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="S2" t="str">
-        <f t="shared" ref="S2:S3" ca="1" si="3">IF(ISBLANK(T2),"",
-VLOOKUP(T2,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T3" ca="1" si="3">IF(ISBLANK(U2),"",
+VLOOKUP(U2,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="W2" t="str">
-        <f t="shared" ref="W2:W3" ca="1" si="4">IF(ISBLANK(X2),"",
-VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="X2" t="str">
+        <f t="shared" ref="X2:X3" ca="1" si="4">IF(ISBLANK(Y2),"",
+VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA3" ca="1" si="5">IF(ISBLANK(AB2),"",
-VLOOKUP(AB2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB3" ca="1" si="5">IF(ISBLANK(AC2),"",
+VLOOKUP(AC2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AE2" t="str">
-        <f t="shared" ref="AE2:AE27" ca="1" si="6">IF(LEN(K2)=0,"",K2)</f>
+      <c r="AF2" t="str">
+        <f t="shared" ref="AF2:AF27" ca="1" si="6">IF(LEN(L2)=0,"",L2)</f>
         <v>it</v>
       </c>
-      <c r="AF2" t="str">
-        <f t="shared" ref="AF2:AF27" si="7">IF(LEN(M2)=0,"",M2)</f>
+      <c r="AG2" t="str">
+        <f t="shared" ref="AG2:AG27" si="7">IF(LEN(N2)=0,"",N2)</f>
         <v>Cash_bLevelPass</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:AG27" si="8">IF(LEN(N2)=0,"",N2)</f>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH27" si="8">IF(LEN(O2)=0,"",O2)</f>
         <v>1</v>
       </c>
-      <c r="AH2" t="str">
-        <f t="shared" ref="AH2:AH27" ca="1" si="9">IF(LEN(O2)=0,"",O2)</f>
-        <v/>
-      </c>
       <c r="AI2" t="str">
-        <f t="shared" ref="AI2:AI27" si="10">IF(LEN(Q2)=0,"",Q2)</f>
+        <f t="shared" ref="AI2:AI27" ca="1" si="9">IF(LEN(P2)=0,"",P2)</f>
         <v/>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ27" si="11">IF(LEN(R2)=0,"",R2)</f>
+        <f t="shared" ref="AJ2:AJ27" si="10">IF(LEN(R2)=0,"",R2)</f>
         <v/>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK27" ca="1" si="12">IF(LEN(S2)=0,"",S2)</f>
+        <f t="shared" ref="AK2:AK27" si="11">IF(LEN(S2)=0,"",S2)</f>
         <v/>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL27" si="13">IF(LEN(U2)=0,"",U2)</f>
+        <f t="shared" ref="AL2:AL27" ca="1" si="12">IF(LEN(T2)=0,"",T2)</f>
         <v/>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM27" si="14">IF(LEN(V2)=0,"",V2)</f>
+        <f t="shared" ref="AM2:AM27" si="13">IF(LEN(V2)=0,"",V2)</f>
         <v/>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN27" ca="1" si="15">IF(LEN(W2)=0,"",W2)</f>
+        <f t="shared" ref="AN2:AN27" si="14">IF(LEN(W2)=0,"",W2)</f>
         <v/>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ref="AO2:AO27" si="16">IF(LEN(Y2)=0,"",Y2)</f>
+        <f t="shared" ref="AO2:AO27" ca="1" si="15">IF(LEN(X2)=0,"",X2)</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AP27" si="17">IF(LEN(Z2)=0,"",Z2)</f>
+        <f t="shared" ref="AP2:AP27" si="16">IF(LEN(Z2)=0,"",Z2)</f>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f t="shared" ref="AQ2:AQ27" ca="1" si="18">IF(LEN(AA2)=0,"",AA2)</f>
+        <f t="shared" ref="AQ2:AQ27" si="17">IF(LEN(AA2)=0,"",AA2)</f>
         <v/>
       </c>
       <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR27" si="19">IF(LEN(AC2)=0,"",AC2)</f>
+        <f t="shared" ref="AR2:AR27" ca="1" si="18">IF(LEN(AB2)=0,"",AB2)</f>
         <v/>
       </c>
       <c r="AS2" t="str">
-        <f t="shared" ref="AS2:AS27" si="20">IF(LEN(AD2)=0,"",AD2)</f>
+        <f t="shared" ref="AS2:AS27" si="19">IF(LEN(AD2)=0,"",AD2)</f>
         <v/>
       </c>
       <c r="AT2" t="str">
-        <f ca="1">IF(ROW()=2,AU2,OFFSET(AT2,-1,0)&amp;IF(LEN(AU2)=0,"",","&amp;AU2))</f>
+        <f t="shared" ref="AT2:AT27" si="20">IF(LEN(AE2)=0,"",AE2)</f>
         <v/>
       </c>
       <c r="AU2" t="str">
-        <f t="shared" ref="AU2:AU27" si="21">IF(E2=FALSE,"",
+        <f ca="1">IF(ROW()=2,AV2,OFFSET(AU2,-1,0)&amp;IF(LEN(AV2)=0,"",","&amp;AV2))</f>
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" ref="AV2:AV27" si="21">IF(F2=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
-&amp;","""&amp;I$1&amp;""":"&amp;I2
-&amp;IF(LEN(K2)=0,"",","""&amp;K$1&amp;""":"""&amp;K2&amp;"""")
-&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
-&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"&amp;N2)
-&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
-&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
-&amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"&amp;R2)
-&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
-&amp;IF(LEN(U2)=0,"",","""&amp;U$1&amp;""":"""&amp;U2&amp;"""")
-&amp;IF(LEN(V2)=0,"",","""&amp;V$1&amp;""":"&amp;V2)
-&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"""&amp;W2&amp;"""")
-&amp;IF(LEN(Y2)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y2&amp;"""")
-&amp;IF(LEN(Z2)=0,"",","""&amp;Z$1&amp;""":"&amp;Z2)
-&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA2&amp;"""")
-&amp;IF(LEN(AC2)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC2&amp;"""")
-&amp;IF(LEN(AD2)=0,"",","""&amp;AD$1&amp;""":"&amp;AD2)&amp;"}")</f>
-        <v/>
-      </c>
-      <c r="AW2" t="s">
+&amp;","""&amp;J$1&amp;""":"&amp;J2
+&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"""&amp;L2&amp;"""")
+&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"""&amp;N2&amp;"""")
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)
+&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"""&amp;P2&amp;"""")
+&amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"""&amp;R2&amp;"""")
+&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"&amp;S2)
+&amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"""&amp;T2&amp;"""")
+&amp;IF(LEN(V2)=0,"",","""&amp;V$1&amp;""":"""&amp;V2&amp;"""")
+&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"&amp;W2)
+&amp;IF(LEN(X2)=0,"",","""&amp;X$1&amp;""":"""&amp;X2&amp;"""")
+&amp;IF(LEN(Z2)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z2&amp;"""")
+&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"&amp;AA2)
+&amp;IF(LEN(AB2)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB2&amp;"""")
+&amp;IF(LEN(AD2)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD2&amp;"""")
+&amp;IF(LEN(AE2)=0,"",","""&amp;AE$1&amp;""":"&amp;AE2)&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AX2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>16</v>
       </c>
-      <c r="AZ2" t="str">
+      <c r="BA2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(AT1,COUNTA(AT:AT)-1,0),1)=",",SUBSTITUTE(OFFSET(AT1,COUNTA(AT:AT)-1,0),",","",1),OFFSET(AT1,COUNTA(AT:AT)-1,0))
+IF(LEFT(OFFSET(AU1,COUNTA(AU:AU)-1,0),1)=",",SUBSTITUTE(OFFSET(AU1,COUNTA(AU:AU)-1,0),",","",1),OFFSET(AU1,COUNTA(AU:AU)-1,0))
 &amp;"]"</f>
         <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1304,139 +1316,144 @@
         <f t="shared" si="0"/>
         <v>test_bigboost</v>
       </c>
-      <c r="E3" t="b">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D27" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
+LEFT(A3,FIND("_",A3)-1))</f>
+        <v>test</v>
+      </c>
+      <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9.99</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>13000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>806</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J27" si="22">I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K27" si="23">J3</f>
         <v>806</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>600</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>50000</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="AA3" t="str">
+      <c r="AB3" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AE3" t="str">
+      <c r="AF3" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="AG3" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="AI3" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AJ3" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <f t="shared" si="11"/>
         <v>50000</v>
       </c>
-      <c r="AK3" t="str">
+      <c r="AL3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM3" t="str">
+      <c r="AN3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO3" t="str">
+      <c r="AP3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP3" t="str">
+      <c r="AQ3" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AR3" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR3" t="str">
+      <c r="AS3" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS3" t="str">
+      <c r="AT3" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT3" t="str">
-        <f t="shared" ref="AT3:AT27" ca="1" si="23">IF(ROW()=2,AU3,OFFSET(AT3,-1,0)&amp;IF(LEN(AU3)=0,"",","&amp;AU3))</f>
-        <v/>
-      </c>
       <c r="AU3" t="str">
+        <f t="shared" ref="AU3:AU27" ca="1" si="24">IF(ROW()=2,AV3,OFFSET(AU3,-1,0)&amp;IF(LEN(AV3)=0,"",","&amp;AV3))</f>
+        <v/>
+      </c>
+      <c r="AV3" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>36</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1444,146 +1461,150 @@
         <f t="shared" si="0"/>
         <v>ev5_oneplustwo_1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="str">
+        <f t="shared" si="22"/>
+        <v>ev5</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" t="b">
+      <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>19.989999999999998</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>25000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>71</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>548</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="22"/>
+      <c r="K4">
+        <f t="shared" si="23"/>
         <v>548</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K17" ca="1" si="24">IF(ISBLANK(L4),"",
-VLOOKUP(L4,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L17" ca="1" si="25">IF(ISBLANK(M4),"",
+VLOOKUP(M4,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>30</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" ref="O4:O5" ca="1" si="25">IF(ISBLANK(P4),"",
-VLOOKUP(P4,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P5" ca="1" si="26">IF(ISBLANK(Q4),"",
+VLOOKUP(Q4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>58</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="S4" t="str">
-        <f t="shared" ref="S4:S5" ca="1" si="26">IF(ISBLANK(T4),"",
-VLOOKUP(T4,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T5" ca="1" si="27">IF(ISBLANK(U4),"",
+VLOOKUP(U4,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="W4" t="str">
-        <f t="shared" ref="W4:W5" ca="1" si="27">IF(ISBLANK(X4),"",
-VLOOKUP(X4,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X5" ca="1" si="28">IF(ISBLANK(Y4),"",
+VLOOKUP(Y4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AA4" t="str">
-        <f t="shared" ref="AA4:AA5" ca="1" si="28">IF(ISBLANK(AB4),"",
-VLOOKUP(AB4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB5" ca="1" si="29">IF(ISBLANK(AC4),"",
+VLOOKUP(AC4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AE4" t="str">
+      <c r="AF4" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>it</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <f t="shared" si="7"/>
         <v>Cash_cDailyBox</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="AI4" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>it</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AJ4" t="str">
         <f t="shared" si="10"/>
         <v>Cash_cThickBox</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AK4" t="str">
+      <c r="AL4" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO4" t="str">
+      <c r="AP4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP4" t="str">
+      <c r="AQ4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AR4" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR4" t="str">
+      <c r="AS4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS4" t="str">
+      <c r="AT4" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT4" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
       <c r="AU4" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="AV4" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1591,135 +1612,139 @@
         <f t="shared" si="0"/>
         <v>ev5_oneplustwo_2</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="str">
+        <f t="shared" si="22"/>
+        <v>ev5</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" t="b">
+      <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>537</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="22"/>
+      <c r="K5">
+        <f t="shared" si="23"/>
         <v>537</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>38</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="S5" t="str">
+      <c r="P5" t="str">
         <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
-      <c r="W5" t="str">
+      <c r="T5" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="AA5" t="str">
+      <c r="X5" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="AE5" t="str">
+      <c r="AB5" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AF5" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="AG5" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="AI5" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI5" t="str">
+      <c r="AJ5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO5" t="str">
+      <c r="AP5" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP5" t="str">
+      <c r="AQ5" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AR5" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR5" t="str">
+      <c r="AS5" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS5" t="str">
+      <c r="AT5" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT5" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU5" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
       </c>
-      <c r="AU5" t="str">
-        <f ca="1">IF(E5=FALSE,"",
+      <c r="AV5" t="str">
+        <f ca="1">IF(F5=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C5&amp;""""
-&amp;","""&amp;I$1&amp;""":"&amp;I5
-&amp;IF(LEN(K5)=0,"",","""&amp;K$1&amp;""":"""&amp;K5&amp;"""")
-&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
-&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"&amp;N5)
-&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"""&amp;O5&amp;"""")
-&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
-&amp;IF(LEN(R5)=0,"",","""&amp;R$1&amp;""":"&amp;R5)
-&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
-&amp;IF(LEN(U5)=0,"",","""&amp;U$1&amp;""":"""&amp;U5&amp;"""")
-&amp;IF(LEN(V5)=0,"",","""&amp;V$1&amp;""":"&amp;V5)
-&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"""&amp;W5&amp;"""")
-&amp;IF(LEN(Y5)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y5&amp;"""")
-&amp;IF(LEN(Z5)=0,"",","""&amp;Z$1&amp;""":"&amp;Z5)
-&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA5&amp;"""")
-&amp;IF(LEN(AC5)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC5&amp;"""")
-&amp;IF(LEN(AD5)=0,"",","""&amp;AD$1&amp;""":"&amp;AD5)&amp;"}")</f>
+&amp;","""&amp;J$1&amp;""":"&amp;J5
+&amp;IF(LEN(L5)=0,"",","""&amp;L$1&amp;""":"""&amp;L5&amp;"""")
+&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"""&amp;N5&amp;"""")
+&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"&amp;O5)
+&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"""&amp;P5&amp;"""")
+&amp;IF(LEN(R5)=0,"",","""&amp;R$1&amp;""":"""&amp;R5&amp;"""")
+&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"&amp;S5)
+&amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"""&amp;T5&amp;"""")
+&amp;IF(LEN(V5)=0,"",","""&amp;V$1&amp;""":"""&amp;V5&amp;"""")
+&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"&amp;W5)
+&amp;IF(LEN(X5)=0,"",","""&amp;X$1&amp;""":"""&amp;X5&amp;"""")
+&amp;IF(LEN(Z5)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z5&amp;"""")
+&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"&amp;AA5)
+&amp;IF(LEN(AB5)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB5&amp;"""")
+&amp;IF(LEN(AD5)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD5&amp;"""")
+&amp;IF(LEN(AE5)=0,"",","""&amp;AE$1&amp;""":"&amp;AE5)&amp;"}")</f>
         <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1727,268 +1752,272 @@
         <f t="shared" si="0"/>
         <v>ev5_oneplustwo_3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="str">
+        <f t="shared" si="22"/>
+        <v>ev5</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="b">
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>314</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="22"/>
+      <c r="K6">
+        <f t="shared" si="23"/>
         <v>314</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>38</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>80</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" ref="O6:O27" ca="1" si="29">IF(ISBLANK(P6),"",
-VLOOKUP(P6,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P27" ca="1" si="30">IF(ISBLANK(Q6),"",
+VLOOKUP(Q6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="S6" t="str">
-        <f t="shared" ref="S6:S27" ca="1" si="30">IF(ISBLANK(T6),"",
-VLOOKUP(T6,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="T6" t="str">
+        <f t="shared" ref="T6:T27" ca="1" si="31">IF(ISBLANK(U6),"",
+VLOOKUP(U6,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="W6" t="str">
-        <f t="shared" ref="W6:W27" ca="1" si="31">IF(ISBLANK(X6),"",
-VLOOKUP(X6,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="X6" t="str">
+        <f t="shared" ref="X6:X27" ca="1" si="32">IF(ISBLANK(Y6),"",
+VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AA6" t="str">
-        <f t="shared" ref="AA6:AA27" ca="1" si="32">IF(ISBLANK(AB6),"",
-VLOOKUP(AB6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AB6" t="str">
+        <f t="shared" ref="AB6:AB27" ca="1" si="33">IF(ISBLANK(AC6),"",
+VLOOKUP(AC6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AE6" t="str">
+      <c r="AF6" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="AG6" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH6" t="str">
+      <c r="AI6" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI6" t="str">
+      <c r="AJ6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AK6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM6" t="str">
+      <c r="AN6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO6" t="str">
+      <c r="AP6" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP6" t="str">
+      <c r="AQ6" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ6" t="str">
+      <c r="AR6" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR6" t="str">
+      <c r="AS6" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS6" t="str">
+      <c r="AT6" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT6" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU6" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU6" t="str">
-        <f t="shared" ref="AU6:AU27" ca="1" si="33">IF(E6=FALSE,"",
+      <c r="AV6" t="str">
+        <f t="shared" ref="AV6:AV27" ca="1" si="34">IF(F6=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C6&amp;""""
-&amp;","""&amp;I$1&amp;""":"&amp;I6
-&amp;IF(LEN(K6)=0,"",","""&amp;K$1&amp;""":"""&amp;K6&amp;"""")
-&amp;IF(LEN(M6)=0,"",","""&amp;M$1&amp;""":"""&amp;M6&amp;"""")
-&amp;IF(LEN(N6)=0,"",","""&amp;N$1&amp;""":"&amp;N6)
-&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"""&amp;O6&amp;"""")
-&amp;IF(LEN(Q6)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q6&amp;"""")
-&amp;IF(LEN(R6)=0,"",","""&amp;R$1&amp;""":"&amp;R6)
-&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
-&amp;IF(LEN(U6)=0,"",","""&amp;U$1&amp;""":"""&amp;U6&amp;"""")
-&amp;IF(LEN(V6)=0,"",","""&amp;V$1&amp;""":"&amp;V6)
-&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"""&amp;W6&amp;"""")
-&amp;IF(LEN(Y6)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y6&amp;"""")
-&amp;IF(LEN(Z6)=0,"",","""&amp;Z$1&amp;""":"&amp;Z6)
-&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA6&amp;"""")
-&amp;IF(LEN(AC6)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC6&amp;"""")
-&amp;IF(LEN(AD6)=0,"",","""&amp;AD$1&amp;""":"&amp;AD6)&amp;"}")</f>
+&amp;","""&amp;J$1&amp;""":"&amp;J6
+&amp;IF(LEN(L6)=0,"",","""&amp;L$1&amp;""":"""&amp;L6&amp;"""")
+&amp;IF(LEN(N6)=0,"",","""&amp;N$1&amp;""":"""&amp;N6&amp;"""")
+&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"&amp;O6)
+&amp;IF(LEN(P6)=0,"",","""&amp;P$1&amp;""":"""&amp;P6&amp;"""")
+&amp;IF(LEN(R6)=0,"",","""&amp;R$1&amp;""":"""&amp;R6&amp;"""")
+&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"&amp;S6)
+&amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"""&amp;T6&amp;"""")
+&amp;IF(LEN(V6)=0,"",","""&amp;V$1&amp;""":"""&amp;V6&amp;"""")
+&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"&amp;W6)
+&amp;IF(LEN(X6)=0,"",","""&amp;X$1&amp;""":"""&amp;X6&amp;"""")
+&amp;IF(LEN(Z6)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z6&amp;"""")
+&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"&amp;AA6)
+&amp;IF(LEN(AB6)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB6&amp;"""")
+&amp;IF(LEN(AD6)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD6&amp;"""")
+&amp;IF(LEN(AE6)=0,"",","""&amp;AE$1&amp;""":"&amp;AE6)&amp;"}")</f>
         <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C9" si="34">A7</f>
+        <f t="shared" ref="C7:C9" si="35">A7</f>
         <v>ev3_oneofthree_1</v>
       </c>
-      <c r="E7" t="b">
+      <c r="D7" t="str">
+        <f t="shared" si="22"/>
+        <v>ev3</v>
+      </c>
+      <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14.99</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>876</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="22"/>
+      <c r="K7">
+        <f t="shared" si="23"/>
         <v>876</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:K9" ca="1" si="35">IF(ISBLANK(L7),"",
-VLOOKUP(L7,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L9" ca="1" si="36">IF(ISBLANK(M7),"",
+VLOOKUP(M7,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>30</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" ref="O7:O9" ca="1" si="36">IF(ISBLANK(P7),"",
-VLOOKUP(P7,OFFSET(INDIRECT("$A:$B"),0,MATCH(P$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="P7" t="str">
+        <f t="shared" ref="P7:P9" ca="1" si="37">IF(ISBLANK(Q7),"",
+VLOOKUP(Q7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>25000</v>
       </c>
-      <c r="S7" t="str">
-        <f t="shared" ref="S7:S9" ca="1" si="37">IF(ISBLANK(T7),"",
-VLOOKUP(T7,OFFSET(INDIRECT("$A:$B"),0,MATCH(T$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="T7" t="str">
+        <f t="shared" ref="T7:T9" ca="1" si="38">IF(ISBLANK(U7),"",
+VLOOKUP(U7,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>60</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>100</v>
       </c>
-      <c r="W7" t="str">
-        <f t="shared" ref="W7:W9" ca="1" si="38">IF(ISBLANK(X7),"",
-VLOOKUP(X7,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="X7" t="str">
+        <f t="shared" ref="X7:X9" ca="1" si="39">IF(ISBLANK(Y7),"",
+VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AA7" t="str">
-        <f t="shared" ref="AA7:AA9" ca="1" si="39">IF(ISBLANK(AB7),"",
-VLOOKUP(AB7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AB$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AB7" t="str">
+        <f t="shared" ref="AB7:AB9" ca="1" si="40">IF(ISBLANK(AC7),"",
+VLOOKUP(AC7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AE7" t="str">
-        <f t="shared" ref="AE7:AE9" ca="1" si="40">IF(LEN(K7)=0,"",K7)</f>
-        <v>cu</v>
-      </c>
       <c r="AF7" t="str">
-        <f t="shared" ref="AF7:AF9" si="41">IF(LEN(M7)=0,"",M7)</f>
+        <f t="shared" ref="AF7:AF9" ca="1" si="41">IF(LEN(L7)=0,"",L7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" ref="AG7:AG9" si="42">IF(LEN(N7)=0,"",N7)</f>
         <v>EN</v>
       </c>
-      <c r="AG7">
-        <f t="shared" ref="AG7:AG9" si="42">IF(LEN(N7)=0,"",N7)</f>
+      <c r="AH7">
+        <f t="shared" ref="AH7:AH9" si="43">IF(LEN(O7)=0,"",O7)</f>
         <v>30</v>
       </c>
-      <c r="AH7" t="str">
-        <f t="shared" ref="AH7:AH9" ca="1" si="43">IF(LEN(O7)=0,"",O7)</f>
-        <v>cu</v>
-      </c>
       <c r="AI7" t="str">
-        <f t="shared" ref="AI7:AI9" si="44">IF(LEN(Q7)=0,"",Q7)</f>
+        <f t="shared" ref="AI7:AI9" ca="1" si="44">IF(LEN(P7)=0,"",P7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" ref="AJ7:AJ9" si="45">IF(LEN(R7)=0,"",R7)</f>
         <v>GO</v>
       </c>
-      <c r="AJ7">
-        <f t="shared" ref="AJ7:AJ9" si="45">IF(LEN(R7)=0,"",R7)</f>
+      <c r="AK7">
+        <f t="shared" ref="AK7:AK9" si="46">IF(LEN(S7)=0,"",S7)</f>
         <v>25000</v>
       </c>
-      <c r="AK7" t="str">
-        <f t="shared" ref="AK7:AK9" ca="1" si="46">IF(LEN(S7)=0,"",S7)</f>
-        <v>cu</v>
-      </c>
       <c r="AL7" t="str">
-        <f t="shared" ref="AL7:AL9" si="47">IF(LEN(U7)=0,"",U7)</f>
+        <f t="shared" ref="AL7:AL9" ca="1" si="47">IF(LEN(T7)=0,"",T7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" ref="AM7:AM9" si="48">IF(LEN(V7)=0,"",V7)</f>
         <v>EN</v>
       </c>
-      <c r="AM7">
-        <f t="shared" ref="AM7:AM9" si="48">IF(LEN(V7)=0,"",V7)</f>
+      <c r="AN7">
+        <f t="shared" ref="AN7:AN9" si="49">IF(LEN(W7)=0,"",W7)</f>
         <v>100</v>
       </c>
-      <c r="AN7" t="str">
-        <f t="shared" ref="AN7:AN9" ca="1" si="49">IF(LEN(W7)=0,"",W7)</f>
-        <v/>
-      </c>
       <c r="AO7" t="str">
-        <f t="shared" ref="AO7:AO9" si="50">IF(LEN(Y7)=0,"",Y7)</f>
+        <f t="shared" ref="AO7:AO9" ca="1" si="50">IF(LEN(X7)=0,"",X7)</f>
         <v/>
       </c>
       <c r="AP7" t="str">
@@ -1996,11 +2025,11 @@
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" ca="1" si="52">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" ref="AQ7:AQ9" si="52">IF(LEN(AA7)=0,"",AA7)</f>
         <v/>
       </c>
       <c r="AR7" t="str">
-        <f t="shared" ref="AR7:AR9" si="53">IF(LEN(AC7)=0,"",AC7)</f>
+        <f t="shared" ref="AR7:AR9" ca="1" si="53">IF(LEN(AB7)=0,"",AB7)</f>
         <v/>
       </c>
       <c r="AS7" t="str">
@@ -2008,130 +2037,134 @@
         <v/>
       </c>
       <c r="AT7" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="AT7:AT9" si="55">IF(LEN(AE7)=0,"",AE7)</f>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU7" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV7" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>ev3_oneofthree_2</v>
       </c>
-      <c r="E8" t="b">
+      <c r="D8" t="str">
+        <f t="shared" si="22"/>
+        <v>ev3</v>
+      </c>
+      <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>29.99</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>39000</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>75</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>973</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="22"/>
+      <c r="K8">
+        <f t="shared" si="23"/>
         <v>973</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="M8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>60</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>cu</v>
+      </c>
+      <c r="Q8" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>17</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>15000</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>cu</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="T8" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="U8" t="s">
         <v>18</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>60</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>120</v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AA8" t="str">
+      <c r="X8" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
-      <c r="AE8" t="str">
+      <c r="AB8" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AF8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ca="1" si="41"/>
+        <v>cu</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="42"/>
         <v>EN</v>
       </c>
-      <c r="AG8">
-        <f t="shared" si="42"/>
+      <c r="AH8">
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
-      <c r="AH8" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>cu</v>
-      </c>
       <c r="AI8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ca="1" si="44"/>
+        <v>cu</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="45"/>
         <v>GO</v>
       </c>
-      <c r="AJ8">
-        <f t="shared" si="45"/>
+      <c r="AK8">
+        <f t="shared" si="46"/>
         <v>15000</v>
       </c>
-      <c r="AK8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>cu</v>
-      </c>
       <c r="AL8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>cu</v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="48"/>
         <v>EN</v>
       </c>
-      <c r="AM8">
-        <f t="shared" si="48"/>
+      <c r="AN8">
+        <f t="shared" si="49"/>
         <v>120</v>
       </c>
-      <c r="AN8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
       <c r="AO8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AP8" t="str">
@@ -2139,11 +2172,11 @@
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AR8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="AS8" t="str">
@@ -2151,151 +2184,155 @@
         <v/>
       </c>
       <c r="AT8" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU8" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV8" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>ev3_oneofthree_3</v>
       </c>
-      <c r="E9" t="b">
+      <c r="D9" t="str">
+        <f t="shared" si="22"/>
+        <v>ev3</v>
+      </c>
+      <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>49.99</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>69000</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>76</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>180</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="22"/>
+      <c r="K9">
+        <f t="shared" si="23"/>
         <v>180</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>cu</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
+      </c>
+      <c r="M9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>90</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>cu</v>
+      </c>
+      <c r="Q9" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>30000</v>
       </c>
-      <c r="S9" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>cu</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="T9" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="U9" t="s">
         <v>18</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>60</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>150</v>
       </c>
-      <c r="W9" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>cu</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="X9" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="Y9" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>60</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>300</v>
       </c>
-      <c r="AA9" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AE9" t="str">
+      <c r="AB9" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AF9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ca="1" si="41"/>
+        <v>cu</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="42"/>
         <v>EN</v>
       </c>
-      <c r="AG9">
-        <f t="shared" si="42"/>
+      <c r="AH9">
+        <f t="shared" si="43"/>
         <v>90</v>
       </c>
-      <c r="AH9" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>cu</v>
-      </c>
       <c r="AI9" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ca="1" si="44"/>
+        <v>cu</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="45"/>
         <v>GO</v>
       </c>
-      <c r="AJ9">
-        <f t="shared" si="45"/>
+      <c r="AK9">
+        <f t="shared" si="46"/>
         <v>30000</v>
       </c>
-      <c r="AK9" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>cu</v>
-      </c>
       <c r="AL9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>cu</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="48"/>
         <v>EN</v>
       </c>
-      <c r="AM9">
-        <f t="shared" si="48"/>
+      <c r="AN9">
+        <f t="shared" si="49"/>
         <v>150</v>
       </c>
-      <c r="AN9" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>cu</v>
-      </c>
       <c r="AO9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ca="1" si="50"/>
+        <v>cu</v>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" si="51"/>
         <v>EN</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="51"/>
+      <c r="AQ9">
+        <f t="shared" si="52"/>
         <v>300</v>
       </c>
-      <c r="AQ9" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
       <c r="AR9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="AS9" t="str">
@@ -2303,15 +2340,19 @@
         <v/>
       </c>
       <c r="AT9" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU9" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV9" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2319,136 +2360,140 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_1</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" t="b">
+      <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>721</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="22"/>
+      <c r="K10">
+        <f t="shared" si="23"/>
         <v>721</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="L10" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M10" t="s">
         <v>18</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>80</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q10" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>17</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>35000</v>
       </c>
-      <c r="S10" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="T10" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="U10" t="s">
         <v>18</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>60</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>170</v>
       </c>
-      <c r="W10" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA10" t="str">
+      <c r="X10" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE10" t="str">
+      <c r="AB10" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="AG10" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AI10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AJ10" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <f t="shared" si="11"/>
         <v>35000</v>
       </c>
-      <c r="AK10" t="str">
+      <c r="AL10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AM10" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="AO10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO10" t="str">
+      <c r="AP10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP10" t="str">
+      <c r="AQ10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ10" t="str">
+      <c r="AR10" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR10" t="str">
+      <c r="AS10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS10" t="str">
+      <c r="AT10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT10" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU10" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
-      <c r="AU10" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV10" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -2456,118 +2501,122 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_2</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E11" t="b">
+      <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>884</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="22"/>
+      <c r="K11">
+        <f t="shared" si="23"/>
         <v>884</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>38</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>150</v>
       </c>
-      <c r="O11" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S11" t="str">
+      <c r="P11" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W11" t="str">
+      <c r="T11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA11" t="str">
+      <c r="X11" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE11" t="str">
+      <c r="AB11" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF11" t="str">
+      <c r="AG11" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AH11" t="str">
+      <c r="AI11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI11" t="str">
+      <c r="AJ11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AK11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK11" t="str">
+      <c r="AL11" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL11" t="str">
+      <c r="AM11" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM11" t="str">
+      <c r="AN11" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN11" t="str">
+      <c r="AO11" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO11" t="str">
+      <c r="AP11" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP11" t="str">
+      <c r="AQ11" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ11" t="str">
+      <c r="AR11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR11" t="str">
+      <c r="AS11" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS11" t="str">
+      <c r="AT11" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT11" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU11" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
-      <c r="AU11" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV11" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:53">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2575,154 +2624,158 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_3</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12" t="b">
+      <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.99</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2500</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>66</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>217</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="22"/>
+      <c r="K12">
+        <f t="shared" si="23"/>
         <v>217</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M12" t="s">
         <v>18</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>17</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>20000</v>
       </c>
-      <c r="O12" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q12" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>38</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>150</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="T12" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="U12" t="s">
         <v>18</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>17</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>35000</v>
       </c>
-      <c r="W12" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="X12" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
+      </c>
+      <c r="Y12" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>38</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>200</v>
       </c>
-      <c r="AA12" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE12" t="str">
+      <c r="AB12" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="AG12" t="str">
         <f t="shared" si="7"/>
         <v>GO</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AI12" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AJ12" t="str">
         <f t="shared" si="10"/>
         <v>EN</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="AK12" t="str">
+      <c r="AL12" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AM12" t="str">
         <f t="shared" si="13"/>
         <v>GO</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <f t="shared" si="14"/>
         <v>35000</v>
       </c>
-      <c r="AN12" t="str">
+      <c r="AO12" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>cu</v>
       </c>
-      <c r="AO12" t="str">
+      <c r="AP12" t="str">
         <f t="shared" si="16"/>
         <v>EN</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="AQ12" t="str">
+      <c r="AR12" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR12" t="str">
+      <c r="AS12" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS12" t="str">
+      <c r="AT12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT12" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU12" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
-      <c r="AU12" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV12" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2730,127 +2783,131 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_4</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E13" t="b">
+      <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>394</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="22"/>
+      <c r="K13">
+        <f t="shared" si="23"/>
         <v>394</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>150</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="P13" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q13" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>17</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>20000</v>
       </c>
-      <c r="S13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="W13" t="str">
+      <c r="T13" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA13" t="str">
+      <c r="X13" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE13" t="str">
+      <c r="AB13" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF13" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF13" t="str">
+      <c r="AG13" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AI13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AJ13" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="AK13" t="str">
+      <c r="AL13" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL13" t="str">
+      <c r="AM13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM13" t="str">
+      <c r="AN13" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN13" t="str">
+      <c r="AO13" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO13" t="str">
+      <c r="AP13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP13" t="str">
+      <c r="AQ13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ13" t="str">
+      <c r="AR13" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR13" t="str">
+      <c r="AS13" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS13" t="str">
+      <c r="AT13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT13" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU13" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AU13" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV13" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2858,136 +2915,140 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_5</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14" t="b">
+      <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>612</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="22"/>
+      <c r="K14">
+        <f t="shared" si="23"/>
         <v>612</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="L14" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M14" t="s">
         <v>18</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>38</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>80</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="P14" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q14" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>17</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>10000</v>
       </c>
-      <c r="S14" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="T14" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="U14" t="s">
         <v>18</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>38</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>200</v>
       </c>
-      <c r="W14" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="AA14" t="str">
+      <c r="X14" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE14" t="str">
+      <c r="AB14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF14" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF14" t="str">
+      <c r="AG14" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH14" t="str">
+      <c r="AI14" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AJ14" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="AK14" t="str">
+      <c r="AL14" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AL14" t="str">
+      <c r="AM14" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
-      <c r="AN14" t="str">
+      <c r="AO14" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO14" t="str">
+      <c r="AP14" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP14" t="str">
+      <c r="AQ14" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ14" t="str">
+      <c r="AR14" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR14" t="str">
+      <c r="AS14" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS14" t="str">
+      <c r="AT14" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT14" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU14" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
-      <c r="AU14" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV14" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:53">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2995,154 +3056,158 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_6</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="E15" t="b">
+      <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5.99</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7500</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>501</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="22"/>
+      <c r="K15">
+        <f t="shared" si="23"/>
         <v>501</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>300</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="P15" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q15" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>17</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>25000</v>
       </c>
-      <c r="S15" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="T15" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="U15" t="s">
         <v>18</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>38</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>450</v>
       </c>
-      <c r="W15" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="X15" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
+      </c>
+      <c r="Y15" t="s">
         <v>18</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>17</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>35000</v>
       </c>
-      <c r="AA15" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AE15" t="str">
+      <c r="AB15" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF15" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF15" t="str">
+      <c r="AG15" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="AH15" t="str">
+      <c r="AI15" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AJ15" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <f t="shared" si="11"/>
         <v>25000</v>
       </c>
-      <c r="AK15" t="str">
+      <c r="AL15" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="AM15" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <f t="shared" si="14"/>
         <v>450</v>
       </c>
-      <c r="AN15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>cu</v>
       </c>
-      <c r="AO15" t="str">
+      <c r="AP15" t="str">
         <f t="shared" si="16"/>
         <v>GO</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <f t="shared" si="17"/>
         <v>35000</v>
       </c>
-      <c r="AQ15" t="str">
+      <c r="AR15" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR15" t="str">
+      <c r="AS15" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS15" t="str">
+      <c r="AT15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT15" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU15" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
       </c>
-      <c r="AU15" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV15" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3150,118 +3215,122 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_7</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="E16" t="b">
+      <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>930</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="22"/>
+      <c r="K16">
+        <f t="shared" si="23"/>
         <v>930</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="L16" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M16" t="s">
         <v>18</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>17</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>50000</v>
       </c>
-      <c r="O16" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S16" t="str">
+      <c r="P16" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W16" t="str">
+      <c r="T16" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA16" t="str">
+      <c r="X16" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE16" t="str">
+      <c r="AB16" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF16" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF16" t="str">
+      <c r="AG16" t="str">
         <f t="shared" si="7"/>
         <v>GO</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AI16" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI16" t="str">
+      <c r="AJ16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AK16" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK16" t="str">
+      <c r="AL16" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL16" t="str">
+      <c r="AM16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM16" t="str">
+      <c r="AN16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO16" t="str">
+      <c r="AP16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP16" t="str">
+      <c r="AQ16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ16" t="str">
+      <c r="AR16" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR16" t="str">
+      <c r="AS16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS16" t="str">
+      <c r="AT16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT16" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU16" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
       </c>
-      <c r="AU16" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV16" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:48">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -3269,127 +3338,131 @@
         <f t="shared" si="0"/>
         <v>ev4_conti_8</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="str">
+        <f t="shared" si="22"/>
+        <v>ev4</v>
+      </c>
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="E17" t="b">
+      <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>959</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="22"/>
+      <c r="K17">
+        <f t="shared" si="23"/>
         <v>959</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="L17" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>cu</v>
+      </c>
+      <c r="M17" t="s">
         <v>18</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>38</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>350</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>cu</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="P17" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="Q17" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>17</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>30000</v>
       </c>
-      <c r="S17" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="W17" t="str">
+      <c r="T17" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA17" t="str">
+      <c r="X17" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE17" t="str">
+      <c r="AB17" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF17" t="str">
+      <c r="AG17" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <f t="shared" si="8"/>
         <v>350</v>
       </c>
-      <c r="AH17" t="str">
+      <c r="AI17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AJ17" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <f t="shared" si="11"/>
         <v>30000</v>
       </c>
-      <c r="AK17" t="str">
+      <c r="AL17" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL17" t="str">
+      <c r="AM17" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM17" t="str">
+      <c r="AN17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN17" t="str">
+      <c r="AO17" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO17" t="str">
+      <c r="AP17" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP17" t="str">
+      <c r="AQ17" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ17" t="str">
+      <c r="AR17" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR17" t="str">
+      <c r="AS17" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS17" t="str">
+      <c r="AT17" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT17" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU17" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
-      <c r="AU17" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV17" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:48">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3397,126 +3470,130 @@
         <f t="shared" si="0"/>
         <v>ev6_disco_1</v>
       </c>
-      <c r="E18" t="b">
+      <c r="D18" t="str">
+        <f t="shared" si="22"/>
+        <v>ev6</v>
+      </c>
+      <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.99</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1200</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>712</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="22"/>
+      <c r="K18">
+        <f t="shared" si="23"/>
         <v>712</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" ref="K18:K27" ca="1" si="55">IF(ISBLANK(L18),"",
-VLOOKUP(L18,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L27" ca="1" si="56">IF(ISBLANK(M18),"",
+VLOOKUP(M18,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>18</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>38</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>80</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S18" t="str">
+      <c r="P18" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W18" t="str">
+      <c r="T18" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA18" t="str">
+      <c r="X18" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE18" t="str">
+      <c r="AB18" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF18" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF18" t="str">
+      <c r="AG18" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH18" t="str">
+      <c r="AI18" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI18" t="str">
+      <c r="AJ18" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AK18" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK18" t="str">
+      <c r="AL18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL18" t="str">
+      <c r="AM18" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM18" t="str">
+      <c r="AN18" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN18" t="str">
+      <c r="AO18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO18" t="str">
+      <c r="AP18" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP18" t="str">
+      <c r="AQ18" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ18" t="str">
+      <c r="AR18" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR18" t="str">
+      <c r="AS18" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS18" t="str">
+      <c r="AT18" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT18" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU18" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
-      <c r="AU18" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV18" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:48">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3524,124 +3601,128 @@
         <f t="shared" si="0"/>
         <v>ev6_disco_2</v>
       </c>
-      <c r="E19" t="b">
+      <c r="D19" t="str">
+        <f t="shared" si="22"/>
+        <v>ev6</v>
+      </c>
+      <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.99</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2500</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>81</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>268</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="22"/>
+      <c r="K19">
+        <f t="shared" si="23"/>
         <v>268</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M19" t="s">
         <v>18</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>38</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>80</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S19" t="str">
+      <c r="P19" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W19" t="str">
+      <c r="T19" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA19" t="str">
+      <c r="X19" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE19" t="str">
+      <c r="AB19" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF19" t="str">
+      <c r="AG19" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH19" t="str">
+      <c r="AI19" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI19" t="str">
+      <c r="AJ19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AK19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK19" t="str">
+      <c r="AL19" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL19" t="str">
+      <c r="AM19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM19" t="str">
+      <c r="AN19" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN19" t="str">
+      <c r="AO19" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO19" t="str">
+      <c r="AP19" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP19" t="str">
+      <c r="AQ19" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ19" t="str">
+      <c r="AR19" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR19" t="str">
+      <c r="AS19" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS19" t="str">
+      <c r="AT19" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT19" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU19" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
-      <c r="AU19" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV19" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:48">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -3649,124 +3730,128 @@
         <f t="shared" si="0"/>
         <v>ev6_disco_3</v>
       </c>
-      <c r="E20" t="b">
+      <c r="D20" t="str">
+        <f t="shared" si="22"/>
+        <v>ev6</v>
+      </c>
+      <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.99</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3900</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>82</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>851</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="22"/>
+      <c r="K20">
+        <f t="shared" si="23"/>
         <v>851</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M20" t="s">
         <v>18</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>38</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>80</v>
       </c>
-      <c r="O20" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S20" t="str">
+      <c r="P20" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W20" t="str">
+      <c r="T20" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA20" t="str">
+      <c r="X20" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE20" t="str">
+      <c r="AB20" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF20" t="str">
+      <c r="AG20" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AI20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI20" t="str">
+      <c r="AJ20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AK20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK20" t="str">
+      <c r="AL20" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL20" t="str">
+      <c r="AM20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM20" t="str">
+      <c r="AN20" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN20" t="str">
+      <c r="AO20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO20" t="str">
+      <c r="AP20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP20" t="str">
+      <c r="AQ20" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ20" t="str">
+      <c r="AR20" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR20" t="str">
+      <c r="AS20" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS20" t="str">
+      <c r="AT20" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT20" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU20" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
-      <c r="AU20" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV20" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:48">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -3774,124 +3859,128 @@
         <f t="shared" si="0"/>
         <v>ev6_disco_4</v>
       </c>
-      <c r="E21" t="b">
+      <c r="D21" t="str">
+        <f t="shared" si="22"/>
+        <v>ev6</v>
+      </c>
+      <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.99</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4900</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>83</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>532</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="22"/>
+      <c r="K21">
+        <f t="shared" si="23"/>
         <v>532</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="L21" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M21" t="s">
         <v>18</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>38</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>80</v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S21" t="str">
+      <c r="P21" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W21" t="str">
+      <c r="T21" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA21" t="str">
+      <c r="X21" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE21" t="str">
+      <c r="AB21" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF21" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF21" t="str">
+      <c r="AG21" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH21" t="str">
+      <c r="AI21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI21" t="str">
+      <c r="AJ21" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ21" t="str">
+      <c r="AK21" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK21" t="str">
+      <c r="AL21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL21" t="str">
+      <c r="AM21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM21" t="str">
+      <c r="AN21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN21" t="str">
+      <c r="AO21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO21" t="str">
+      <c r="AP21" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP21" t="str">
+      <c r="AQ21" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ21" t="str">
+      <c r="AR21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR21" t="str">
+      <c r="AS21" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS21" t="str">
+      <c r="AT21" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT21" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU21" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
       </c>
-      <c r="AU21" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV21" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:48">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -3899,115 +3988,119 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_1</v>
       </c>
-      <c r="E22" t="b">
+      <c r="D22" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>444</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="22"/>
+      <c r="K22">
+        <f t="shared" si="23"/>
         <v>444</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="L22" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M22" t="s">
         <v>18</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>38</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>80</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S22" t="str">
+      <c r="P22" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W22" t="str">
+      <c r="T22" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA22" t="str">
+      <c r="X22" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE22" t="str">
+      <c r="AB22" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF22" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF22" t="str">
+      <c r="AG22" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AI22" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI22" t="str">
+      <c r="AJ22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AK22" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK22" t="str">
+      <c r="AL22" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL22" t="str">
+      <c r="AM22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM22" t="str">
+      <c r="AN22" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN22" t="str">
+      <c r="AO22" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO22" t="str">
+      <c r="AP22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP22" t="str">
+      <c r="AQ22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ22" t="str">
+      <c r="AR22" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR22" t="str">
+      <c r="AS22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS22" t="str">
+      <c r="AT22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT22" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU22" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU22" t="str">
-        <f t="shared" ca="1" si="33"/>
+      <c r="AV22" t="str">
+        <f t="shared" ca="1" si="34"/>
         <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:48">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4015,124 +4108,128 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_2</v>
       </c>
-      <c r="E23" t="b">
+      <c r="D23" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.99</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2500</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>85</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>833</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="22"/>
+      <c r="K23">
+        <f t="shared" si="23"/>
         <v>833</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M23" t="s">
         <v>18</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>38</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>80</v>
       </c>
-      <c r="O23" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S23" t="str">
+      <c r="P23" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W23" t="str">
+      <c r="T23" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA23" t="str">
+      <c r="X23" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE23" t="str">
+      <c r="AB23" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF23" t="str">
+      <c r="AG23" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AI23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI23" t="str">
+      <c r="AJ23" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AK23" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK23" t="str">
+      <c r="AL23" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL23" t="str">
+      <c r="AM23" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM23" t="str">
+      <c r="AN23" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN23" t="str">
+      <c r="AO23" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO23" t="str">
+      <c r="AP23" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP23" t="str">
+      <c r="AQ23" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ23" t="str">
+      <c r="AR23" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR23" t="str">
+      <c r="AS23" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS23" t="str">
+      <c r="AT23" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT23" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU23" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU23" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV23" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:48">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -4140,124 +4237,128 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_3</v>
       </c>
-      <c r="E24" t="b">
+      <c r="D24" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.99</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3900</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>86</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>955</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="22"/>
+      <c r="K24">
+        <f t="shared" si="23"/>
         <v>955</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="L24" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M24" t="s">
         <v>18</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>38</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>80</v>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S24" t="str">
+      <c r="P24" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W24" t="str">
+      <c r="T24" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA24" t="str">
+      <c r="X24" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE24" t="str">
+      <c r="AB24" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF24" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF24" t="str">
+      <c r="AG24" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AI24" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI24" t="str">
+      <c r="AJ24" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ24" t="str">
+      <c r="AK24" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK24" t="str">
+      <c r="AL24" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL24" t="str">
+      <c r="AM24" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM24" t="str">
+      <c r="AN24" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN24" t="str">
+      <c r="AO24" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO24" t="str">
+      <c r="AP24" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP24" t="str">
+      <c r="AQ24" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ24" t="str">
+      <c r="AR24" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR24" t="str">
+      <c r="AS24" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS24" t="str">
+      <c r="AT24" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT24" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU24" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU24" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV24" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:48">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -4265,124 +4366,128 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_4</v>
       </c>
-      <c r="E25" t="b">
+      <c r="D25" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F25" t="b">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.99</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4900</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>87</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>375</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="22"/>
+      <c r="K25">
+        <f t="shared" si="23"/>
         <v>375</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="L25" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M25" t="s">
         <v>18</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>38</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>80</v>
       </c>
-      <c r="O25" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S25" t="str">
+      <c r="P25" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W25" t="str">
+      <c r="T25" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA25" t="str">
+      <c r="X25" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE25" t="str">
+      <c r="AB25" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF25" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF25" t="str">
+      <c r="AG25" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AI25" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI25" t="str">
+      <c r="AJ25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ25" t="str">
+      <c r="AK25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK25" t="str">
+      <c r="AL25" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL25" t="str">
+      <c r="AM25" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM25" t="str">
+      <c r="AN25" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN25" t="str">
+      <c r="AO25" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO25" t="str">
+      <c r="AP25" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP25" t="str">
+      <c r="AQ25" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ25" t="str">
+      <c r="AR25" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR25" t="str">
+      <c r="AS25" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS25" t="str">
+      <c r="AT25" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT25" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU25" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU25" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV25" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:48">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -4390,124 +4495,128 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_5</v>
       </c>
-      <c r="E26" t="b">
+      <c r="D26" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.99</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5900</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>88</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>970</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="22"/>
+      <c r="K26">
+        <f t="shared" si="23"/>
         <v>970</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L26" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>38</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>80</v>
       </c>
-      <c r="O26" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S26" t="str">
+      <c r="P26" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W26" t="str">
+      <c r="T26" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA26" t="str">
+      <c r="X26" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE26" t="str">
+      <c r="AB26" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF26" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF26" t="str">
+      <c r="AG26" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AI26" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI26" t="str">
+      <c r="AJ26" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ26" t="str">
+      <c r="AK26" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK26" t="str">
+      <c r="AL26" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL26" t="str">
+      <c r="AM26" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM26" t="str">
+      <c r="AN26" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN26" t="str">
+      <c r="AO26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO26" t="str">
+      <c r="AP26" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP26" t="str">
+      <c r="AQ26" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ26" t="str">
+      <c r="AR26" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR26" t="str">
+      <c r="AS26" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS26" t="str">
+      <c r="AT26" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT26" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU26" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU26" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV26" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:48">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -4515,128 +4624,132 @@
         <f t="shared" si="0"/>
         <v>ev7_summer_6</v>
       </c>
-      <c r="E27" t="b">
+      <c r="D27" t="str">
+        <f t="shared" si="22"/>
+        <v>ev7</v>
+      </c>
+      <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5.99</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7500</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>89</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>506</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="22"/>
+      <c r="K27">
+        <f t="shared" si="23"/>
         <v>506</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v>cu</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="L27" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="M27" t="s">
         <v>18</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>38</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>80</v>
       </c>
-      <c r="O27" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="S27" t="str">
+      <c r="P27" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="W27" t="str">
+      <c r="T27" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA27" t="str">
+      <c r="X27" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE27" t="str">
+      <c r="AB27" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AF27" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AF27" t="str">
+      <c r="AG27" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AI27" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AI27" t="str">
+      <c r="AJ27" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ27" t="str">
+      <c r="AK27" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AK27" t="str">
+      <c r="AL27" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AL27" t="str">
+      <c r="AM27" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AM27" t="str">
+      <c r="AN27" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AN27" t="str">
+      <c r="AO27" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AO27" t="str">
+      <c r="AP27" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AP27" t="str">
+      <c r="AQ27" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AQ27" t="str">
+      <c r="AR27" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AR27" t="str">
+      <c r="AS27" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AS27" t="str">
+      <c r="AT27" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AT27" t="str">
-        <f t="shared" ca="1" si="23"/>
+      <c r="AU27" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AU27" t="str">
-        <f t="shared" si="33"/>
+      <c r="AV27" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L27 P2:P27 AB2:AB27 X2:X27 T2:T27" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M27 Q2:Q27 AC2:AC27 Y2:Y27 U2:U27" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC3404-BD6B-4E7D-BFFD-112C8CFE98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C137E45-7792-41E4-AC2D-93880678AB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6780" yWindow="1830" windowWidth="13515" windowHeight="14265" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,15 +423,6 @@
     <t>ev4_conti_4</t>
   </si>
   <si>
-    <t>ev4_conti_5</t>
-  </si>
-  <si>
-    <t>ev4_conti_7</t>
-  </si>
-  <si>
-    <t>ev4_conti_8</t>
-  </si>
-  <si>
     <t>ev5_oneplustwo_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,9 +450,6 @@
   </si>
   <si>
     <t>ev4_conti_2</t>
-  </si>
-  <si>
-    <t>ev4_conti_6</t>
   </si>
   <si>
     <t>ev6_disco_1</t>
@@ -929,13 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -974,8 +962,9 @@
     <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9" customWidth="1" outlineLevel="1"/>
     <col min="50" max="51" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9" outlineLevel="1"/>
+    <col min="53" max="53" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27" customHeight="1">
@@ -989,7 +978,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
@@ -1007,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>21</v>
@@ -1130,7 +1119,7 @@
         <v>34</v>
       </c>
       <c r="BA1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:53">
@@ -1141,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C27" si="0">A2</f>
+        <f t="shared" ref="C2:C23" si="0">A2</f>
         <v>test_levelpass</v>
       </c>
       <c r="D2" t="str">
@@ -1208,63 +1197,63 @@
         <v/>
       </c>
       <c r="AF2" t="str">
-        <f t="shared" ref="AF2:AF27" ca="1" si="6">IF(LEN(L2)=0,"",L2)</f>
+        <f t="shared" ref="AF2:AF23" ca="1" si="6">IF(LEN(L2)=0,"",L2)</f>
         <v>it</v>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AG27" si="7">IF(LEN(N2)=0,"",N2)</f>
+        <f t="shared" ref="AG2:AG23" si="7">IF(LEN(N2)=0,"",N2)</f>
         <v>Cash_bLevelPass</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH27" si="8">IF(LEN(O2)=0,"",O2)</f>
+        <f t="shared" ref="AH2:AH23" si="8">IF(LEN(O2)=0,"",O2)</f>
         <v>1</v>
       </c>
       <c r="AI2" t="str">
-        <f t="shared" ref="AI2:AI27" ca="1" si="9">IF(LEN(P2)=0,"",P2)</f>
+        <f t="shared" ref="AI2:AI23" ca="1" si="9">IF(LEN(P2)=0,"",P2)</f>
         <v/>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ27" si="10">IF(LEN(R2)=0,"",R2)</f>
+        <f t="shared" ref="AJ2:AJ23" si="10">IF(LEN(R2)=0,"",R2)</f>
         <v/>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK27" si="11">IF(LEN(S2)=0,"",S2)</f>
+        <f t="shared" ref="AK2:AK23" si="11">IF(LEN(S2)=0,"",S2)</f>
         <v/>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL27" ca="1" si="12">IF(LEN(T2)=0,"",T2)</f>
+        <f t="shared" ref="AL2:AL23" ca="1" si="12">IF(LEN(T2)=0,"",T2)</f>
         <v/>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM27" si="13">IF(LEN(V2)=0,"",V2)</f>
+        <f t="shared" ref="AM2:AM23" si="13">IF(LEN(V2)=0,"",V2)</f>
         <v/>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN27" si="14">IF(LEN(W2)=0,"",W2)</f>
+        <f t="shared" ref="AN2:AN23" si="14">IF(LEN(W2)=0,"",W2)</f>
         <v/>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ref="AO2:AO27" ca="1" si="15">IF(LEN(X2)=0,"",X2)</f>
+        <f t="shared" ref="AO2:AO23" ca="1" si="15">IF(LEN(X2)=0,"",X2)</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AP27" si="16">IF(LEN(Z2)=0,"",Z2)</f>
+        <f t="shared" ref="AP2:AP23" si="16">IF(LEN(Z2)=0,"",Z2)</f>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f t="shared" ref="AQ2:AQ27" si="17">IF(LEN(AA2)=0,"",AA2)</f>
+        <f t="shared" ref="AQ2:AQ23" si="17">IF(LEN(AA2)=0,"",AA2)</f>
         <v/>
       </c>
       <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR27" ca="1" si="18">IF(LEN(AB2)=0,"",AB2)</f>
+        <f t="shared" ref="AR2:AR23" ca="1" si="18">IF(LEN(AB2)=0,"",AB2)</f>
         <v/>
       </c>
       <c r="AS2" t="str">
-        <f t="shared" ref="AS2:AS27" si="19">IF(LEN(AD2)=0,"",AD2)</f>
+        <f t="shared" ref="AS2:AS23" si="19">IF(LEN(AD2)=0,"",AD2)</f>
         <v/>
       </c>
       <c r="AT2" t="str">
-        <f t="shared" ref="AT2:AT27" si="20">IF(LEN(AE2)=0,"",AE2)</f>
+        <f t="shared" ref="AT2:AT23" si="20">IF(LEN(AE2)=0,"",AE2)</f>
         <v/>
       </c>
       <c r="AU2" t="str">
@@ -1272,7 +1261,7 @@
         <v/>
       </c>
       <c r="AV2" t="str">
-        <f t="shared" ref="AV2:AV27" si="21">IF(F2=FALSE,"",
+        <f t="shared" ref="AV2:AV4" si="21">IF(F2=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;","""&amp;J$1&amp;""":"&amp;J2
 &amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"""&amp;L2&amp;"""")
@@ -1302,7 +1291,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(AU1,COUNTA(AU:AU)-1,0),1)=",",SUBSTITUTE(OFFSET(AU1,COUNTA(AU:AU)-1,0),",","",1),OFFSET(AU1,COUNTA(AU:AU)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
+        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -1317,7 +1306,7 @@
         <v>test_bigboost</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D27" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
+        <f t="shared" ref="D3:D23" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
 LEFT(A3,FIND("_",A3)-1))</f>
         <v>test</v>
       </c>
@@ -1337,7 +1326,7 @@
         <v>806</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K27" si="23">J3</f>
+        <f t="shared" ref="K3:K23" si="23">J3</f>
         <v>806</v>
       </c>
       <c r="L3" t="str">
@@ -1439,7 +1428,7 @@
         <v/>
       </c>
       <c r="AU3" t="str">
-        <f t="shared" ref="AU3:AU27" ca="1" si="24">IF(ROW()=2,AV3,OFFSET(AU3,-1,0)&amp;IF(LEN(AV3)=0,"",","&amp;AV3))</f>
+        <f t="shared" ref="AU3:AU23" ca="1" si="24">IF(ROW()=2,AV3,OFFSET(AU3,-1,0)&amp;IF(LEN(AV3)=0,"",","&amp;AV3))</f>
         <v/>
       </c>
       <c r="AV3" t="str">
@@ -1455,7 +1444,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1478,7 +1467,7 @@
         <v>25000</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4">
         <v>548</v>
@@ -1488,7 +1477,7 @@
         <v>548</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L17" ca="1" si="25">IF(ISBLANK(M4),"",
+        <f t="shared" ref="L4:L13" ca="1" si="25">IF(ISBLANK(M4),"",
 VLOOKUP(M4,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -1606,7 +1595,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1746,7 +1735,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1783,25 +1772,25 @@
         <v>80</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P27" ca="1" si="30">IF(ISBLANK(Q6),"",
+        <f t="shared" ref="P6:P23" ca="1" si="30">IF(ISBLANK(Q6),"",
 VLOOKUP(Q6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f t="shared" ref="T6:T27" ca="1" si="31">IF(ISBLANK(U6),"",
+        <f t="shared" ref="T6:T23" ca="1" si="31">IF(ISBLANK(U6),"",
 VLOOKUP(U6,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="X6" t="str">
-        <f t="shared" ref="X6:X27" ca="1" si="32">IF(ISBLANK(Y6),"",
+        <f t="shared" ref="X6:X23" ca="1" si="32">IF(ISBLANK(Y6),"",
 VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" ref="AB6:AB27" ca="1" si="33">IF(ISBLANK(AC6),"",
+        <f t="shared" ref="AB6:AB23" ca="1" si="33">IF(ISBLANK(AC6),"",
 VLOOKUP(AC6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -1871,7 +1860,7 @@
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV6" t="str">
-        <f t="shared" ref="AV6:AV27" ca="1" si="34">IF(F6=FALSE,"",
+        <f t="shared" ref="AV6:AV23" ca="1" si="34">IF(F6=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C6&amp;""""
 &amp;","""&amp;J$1&amp;""":"&amp;J6
 &amp;IF(LEN(L6)=0,"",","""&amp;L$1&amp;""":"""&amp;L6&amp;"""")
@@ -1894,7 +1883,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ref="C7:C9" si="35">A7</f>
@@ -1914,7 +1903,7 @@
         <v>19000</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <v>876</v>
@@ -2051,7 +2040,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="35"/>
@@ -2071,7 +2060,7 @@
         <v>39000</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J8">
         <v>973</v>
@@ -2198,7 +2187,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="35"/>
@@ -2218,7 +2207,7 @@
         <v>69000</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>180</v>
@@ -2354,7 +2343,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2495,7 +2484,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2909,31 +2898,39 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>ev4_conti_5</v>
+        <v>ev6_disco_1</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="22"/>
-        <v>ev4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
+        <v>ev6</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.99</v>
+      </c>
+      <c r="H14">
+        <v>1200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
       </c>
       <c r="J14">
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="K14">
         <f t="shared" si="23"/>
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="L14:L23" ca="1" si="56">IF(ISBLANK(M14),"",
+VLOOKUP(M14,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="M14" t="s">
@@ -2947,29 +2944,11 @@
       </c>
       <c r="P14" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14">
-        <v>10000</v>
+        <v/>
       </c>
       <c r="T14" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="U14" t="s">
-        <v>18</v>
-      </c>
-      <c r="V14" t="s">
-        <v>38</v>
-      </c>
-      <c r="W14">
-        <v>200</v>
+        <v/>
       </c>
       <c r="X14" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -2993,27 +2972,27 @@
       </c>
       <c r="AI14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AJ14" t="str">
         <f t="shared" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="AK14">
+        <v/>
+      </c>
+      <c r="AK14" t="str">
         <f t="shared" si="11"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AM14" t="str">
         <f t="shared" si="13"/>
-        <v>EN</v>
-      </c>
-      <c r="AN14">
+        <v/>
+      </c>
+      <c r="AN14" t="str">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v/>
       </c>
       <c r="AO14" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -3041,49 +3020,46 @@
       </c>
       <c r="AU14" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AV14" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>ev4_conti_6</v>
+        <v>ev6_disco_2</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="22"/>
-        <v>ev4</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
+        <v>ev6</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.99</v>
+        <v>1.99</v>
       </c>
       <c r="H15">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J15">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="K15">
         <f t="shared" si="23"/>
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="M15" t="s">
@@ -3093,46 +3069,19 @@
         <v>38</v>
       </c>
       <c r="O15">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15">
-        <v>25000</v>
+        <v/>
       </c>
       <c r="T15" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
-      <c r="V15" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15">
-        <v>450</v>
+        <v/>
       </c>
       <c r="X15" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>cu</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15">
-        <v>35000</v>
+        <v/>
       </c>
       <c r="AB15" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -3148,43 +3097,43 @@
       </c>
       <c r="AH15">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="AK15">
+        <v/>
+      </c>
+      <c r="AK15" t="str">
         <f t="shared" si="11"/>
-        <v>25000</v>
+        <v/>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AM15" t="str">
         <f t="shared" si="13"/>
-        <v>EN</v>
-      </c>
-      <c r="AN15">
+        <v/>
+      </c>
+      <c r="AN15" t="str">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v/>
       </c>
       <c r="AO15" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AP15" t="str">
         <f t="shared" si="16"/>
-        <v>GO</v>
-      </c>
-      <c r="AQ15">
+        <v/>
+      </c>
+      <c r="AQ15" t="str">
         <f t="shared" si="17"/>
-        <v>35000</v>
+        <v/>
       </c>
       <c r="AR15" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -3200,7 +3149,7 @@
       </c>
       <c r="AU15" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AV15" t="str">
         <f t="shared" si="34"/>
@@ -3209,41 +3158,47 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>ev4_conti_7</v>
+        <v>ev6_disco_3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="22"/>
-        <v>ev4</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
+        <v>ev6</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.99</v>
+      </c>
+      <c r="H16">
+        <v>3900</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
       </c>
       <c r="J16">
-        <v>930</v>
+        <v>851</v>
       </c>
       <c r="K16">
         <f t="shared" si="23"/>
-        <v>930</v>
+        <v>851</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="O16">
-        <v>50000</v>
+        <v>80</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -3267,11 +3222,11 @@
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="7"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="AH16">
         <f t="shared" si="8"/>
-        <v>50000</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3323,40 +3278,46 @@
       </c>
       <c r="AU16" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AV16" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000}</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>ev4_conti_8</v>
+        <v>ev6_disco_4</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="22"/>
-        <v>ev4</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
+        <v>ev6</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3.99</v>
+      </c>
+      <c r="H17">
+        <v>4900</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
       </c>
       <c r="J17">
-        <v>959</v>
+        <v>532</v>
       </c>
       <c r="K17">
         <f t="shared" si="23"/>
-        <v>959</v>
+        <v>532</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="M17" t="s">
@@ -3366,20 +3327,11 @@
         <v>38</v>
       </c>
       <c r="O17">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17">
-        <v>30000</v>
+        <v/>
       </c>
       <c r="T17" t="str">
         <f t="shared" ca="1" si="31"/>
@@ -3403,19 +3355,19 @@
       </c>
       <c r="AH17">
         <f t="shared" si="8"/>
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AJ17" t="str">
         <f t="shared" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="AK17">
+        <v/>
+      </c>
+      <c r="AK17" t="str">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v/>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -3455,11 +3407,11 @@
       </c>
       <c r="AU17" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AV17" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:48">
@@ -3468,35 +3420,24 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_1</v>
+        <v>ev7_summer_1</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
+        <v>ev7</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.99</v>
-      </c>
-      <c r="H18">
-        <v>1200</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>712</v>
+        <v>444</v>
       </c>
       <c r="K18">
         <f t="shared" si="23"/>
-        <v>712</v>
+        <v>444</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L27" ca="1" si="56">IF(ISBLANK(M18),"",
-VLOOKUP(M18,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="M18" t="s">
@@ -3586,11 +3527,11 @@
       </c>
       <c r="AU18" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV18" t="str">
-        <f t="shared" si="34"/>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="19" spans="1:48">
@@ -3599,11 +3540,11 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_2</v>
+        <v>ev7_summer_2</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
+        <v>ev7</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3618,11 +3559,11 @@
         <v>81</v>
       </c>
       <c r="J19">
-        <v>268</v>
+        <v>833</v>
       </c>
       <c r="K19">
         <f t="shared" si="23"/>
-        <v>268</v>
+        <v>833</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -3715,7 +3656,7 @@
       </c>
       <c r="AU19" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV19" t="str">
         <f t="shared" si="34"/>
@@ -3728,11 +3669,11 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_3</v>
+        <v>ev7_summer_3</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
+        <v>ev7</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3747,11 +3688,11 @@
         <v>82</v>
       </c>
       <c r="J20">
-        <v>851</v>
+        <v>955</v>
       </c>
       <c r="K20">
         <f t="shared" si="23"/>
-        <v>851</v>
+        <v>955</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -3844,7 +3785,7 @@
       </c>
       <c r="AU20" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV20" t="str">
         <f t="shared" si="34"/>
@@ -3857,11 +3798,11 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_4</v>
+        <v>ev7_summer_4</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
+        <v>ev7</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3876,11 +3817,11 @@
         <v>83</v>
       </c>
       <c r="J21">
-        <v>532</v>
+        <v>375</v>
       </c>
       <c r="K21">
         <f t="shared" si="23"/>
-        <v>532</v>
+        <v>375</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -3973,7 +3914,7 @@
       </c>
       <c r="AU21" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV21" t="str">
         <f t="shared" si="34"/>
@@ -3986,21 +3927,30 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_1</v>
+        <v>ev7_summer_5</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4.99</v>
+      </c>
+      <c r="H22">
+        <v>5900</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
       </c>
       <c r="J22">
-        <v>444</v>
+        <v>970</v>
       </c>
       <c r="K22">
         <f t="shared" si="23"/>
-        <v>444</v>
+        <v>970</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -4093,11 +4043,11 @@
       </c>
       <c r="AU22" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" si="34"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:48">
@@ -4106,7 +4056,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_2</v>
+        <v>ev7_summer_6</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="22"/>
@@ -4116,20 +4066,20 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.99</v>
+        <v>5.99</v>
       </c>
       <c r="H23">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I23" t="s">
         <v>85</v>
       </c>
       <c r="J23">
-        <v>833</v>
+        <v>506</v>
       </c>
       <c r="K23">
         <f t="shared" si="23"/>
-        <v>833</v>
+        <v>506</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -4222,525 +4172,9 @@
       </c>
       <c r="AU23" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AV23" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:48">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>ev7_summer_3</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="22"/>
-        <v>ev7</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>2.99</v>
-      </c>
-      <c r="H24">
-        <v>3900</v>
-      </c>
-      <c r="I24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24">
-        <v>955</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="23"/>
-        <v>955</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>cu</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24">
-        <v>80</v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AF24" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
-      </c>
-      <c r="AG24" t="str">
-        <f t="shared" si="7"/>
-        <v>EN</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AI24" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ24" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK24" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AL24" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM24" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AN24" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AO24" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AP24" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ24" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AR24" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AT24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AU24" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AV24" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>ev7_summer_4</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="22"/>
-        <v>ev7</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>3.99</v>
-      </c>
-      <c r="H25">
-        <v>4900</v>
-      </c>
-      <c r="I25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25">
-        <v>375</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="23"/>
-        <v>375</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>cu</v>
-      </c>
-      <c r="M25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25">
-        <v>80</v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AF25" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
-      </c>
-      <c r="AG25" t="str">
-        <f t="shared" si="7"/>
-        <v>EN</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AI25" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ25" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK25" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AL25" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM25" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AN25" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AO25" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AP25" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ25" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AR25" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS25" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AT25" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AU25" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AV25" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>ev7_summer_5</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="22"/>
-        <v>ev7</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>4.99</v>
-      </c>
-      <c r="H26">
-        <v>5900</v>
-      </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26">
-        <v>970</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="23"/>
-        <v>970</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>cu</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26">
-        <v>80</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AB26" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AF26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
-      </c>
-      <c r="AG26" t="str">
-        <f t="shared" si="7"/>
-        <v>EN</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AI26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ26" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK26" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AL26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM26" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AN26" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AO26" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AP26" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ26" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AR26" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS26" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AT26" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AU26" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AV26" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>ev7_summer_6</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="22"/>
-        <v>ev7</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>5.99</v>
-      </c>
-      <c r="H27">
-        <v>7500</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27">
-        <v>506</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="23"/>
-        <v>506</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v>cu</v>
-      </c>
-      <c r="M27" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O27">
-        <v>80</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AF27" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
-      </c>
-      <c r="AG27" t="str">
-        <f t="shared" si="7"/>
-        <v>EN</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AI27" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ27" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK27" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AL27" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM27" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AN27" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AO27" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AP27" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ27" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AR27" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AS27" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AT27" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AU27" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev4_conti_5","key":612,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":10000,"tp3":"cu","vl3":"EN","cn3":200},{"id":"ev4_conti_7","key":930,"tp1":"cu","vl1":"GO","cn1":50000},{"id":"ev4_conti_8","key":959,"tp1":"cu","vl1":"EN","cn1":350,"tp2":"cu","vl2":"GO","cn2":30000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AV27" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -4748,7 +4182,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M27 Q2:Q27 AC2:AC27 Y2:Y27 U2:U27" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U23 Y2:Y23 AC2:AC23 Q2:Q23 M2:M23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4967,7 +4401,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4995,5 +4429,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C137E45-7792-41E4-AC2D-93880678AB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8742E-C39F-4A5B-B136-012282367B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,26 @@
   </si>
   <si>
     <t>이벤트프로덕트카운트참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev10_disco_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev10_disco_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev10_disco_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev10_disco_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록상품개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,57 +937,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="51" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="27" customHeight="1">
+    <row r="1" spans="1:54" ht="27" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -981,148 +1001,151 @@
         <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>34</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1138,163 +1161,167 @@
 LEFT(A2,FIND("_",A2)-1))</f>
         <v>test</v>
       </c>
-      <c r="F2" t="b">
+      <c r="E2">
+        <f>COUNTA(N2,R2,V2,Z2,AD2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.99</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>434</v>
       </c>
-      <c r="K2">
-        <f>J2</f>
+      <c r="L2">
+        <f>K2</f>
         <v>434</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L3" ca="1" si="1">IF(ISBLANK(M2),"",
-VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M3" ca="1" si="1">IF(ISBLANK(N2),"",
+VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P3" ca="1" si="2">IF(ISBLANK(Q2),"",
-VLOOKUP(Q2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q3" ca="1" si="2">IF(ISBLANK(R2),"",
+VLOOKUP(R2,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:T3" ca="1" si="3">IF(ISBLANK(U2),"",
-VLOOKUP(U2,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="U2" t="str">
+        <f t="shared" ref="U2:U3" ca="1" si="3">IF(ISBLANK(V2),"",
+VLOOKUP(V2,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="X2" t="str">
-        <f t="shared" ref="X2:X3" ca="1" si="4">IF(ISBLANK(Y2),"",
-VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y3" ca="1" si="4">IF(ISBLANK(Z2),"",
+VLOOKUP(Z2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB3" ca="1" si="5">IF(ISBLANK(AC2),"",
-VLOOKUP(AC2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AC2" t="str">
+        <f t="shared" ref="AC2:AC3" ca="1" si="5">IF(ISBLANK(AD2),"",
+VLOOKUP(AD2,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AF2" t="str">
-        <f t="shared" ref="AF2:AF23" ca="1" si="6">IF(LEN(L2)=0,"",L2)</f>
+      <c r="AG2" t="str">
+        <f t="shared" ref="AG2:AG23" ca="1" si="6">IF(LEN(M2)=0,"",M2)</f>
         <v>it</v>
       </c>
-      <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AG23" si="7">IF(LEN(N2)=0,"",N2)</f>
+      <c r="AH2" t="str">
+        <f t="shared" ref="AH2:AH23" si="7">IF(LEN(O2)=0,"",O2)</f>
         <v>Cash_bLevelPass</v>
       </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:AH23" si="8">IF(LEN(O2)=0,"",O2)</f>
+      <c r="AI2">
+        <f t="shared" ref="AI2:AI23" si="8">IF(LEN(P2)=0,"",P2)</f>
         <v>1</v>
       </c>
-      <c r="AI2" t="str">
-        <f t="shared" ref="AI2:AI23" ca="1" si="9">IF(LEN(P2)=0,"",P2)</f>
-        <v/>
-      </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ23" si="10">IF(LEN(R2)=0,"",R2)</f>
+        <f t="shared" ref="AJ2:AJ23" ca="1" si="9">IF(LEN(Q2)=0,"",Q2)</f>
         <v/>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK23" si="11">IF(LEN(S2)=0,"",S2)</f>
+        <f t="shared" ref="AK2:AK23" si="10">IF(LEN(S2)=0,"",S2)</f>
         <v/>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL23" ca="1" si="12">IF(LEN(T2)=0,"",T2)</f>
+        <f t="shared" ref="AL2:AL23" si="11">IF(LEN(T2)=0,"",T2)</f>
         <v/>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM23" si="13">IF(LEN(V2)=0,"",V2)</f>
+        <f t="shared" ref="AM2:AM23" ca="1" si="12">IF(LEN(U2)=0,"",U2)</f>
         <v/>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN23" si="14">IF(LEN(W2)=0,"",W2)</f>
+        <f t="shared" ref="AN2:AN23" si="13">IF(LEN(W2)=0,"",W2)</f>
         <v/>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ref="AO2:AO23" ca="1" si="15">IF(LEN(X2)=0,"",X2)</f>
+        <f t="shared" ref="AO2:AO23" si="14">IF(LEN(X2)=0,"",X2)</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AP23" si="16">IF(LEN(Z2)=0,"",Z2)</f>
+        <f t="shared" ref="AP2:AP23" ca="1" si="15">IF(LEN(Y2)=0,"",Y2)</f>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f t="shared" ref="AQ2:AQ23" si="17">IF(LEN(AA2)=0,"",AA2)</f>
+        <f t="shared" ref="AQ2:AQ23" si="16">IF(LEN(AA2)=0,"",AA2)</f>
         <v/>
       </c>
       <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR23" ca="1" si="18">IF(LEN(AB2)=0,"",AB2)</f>
+        <f t="shared" ref="AR2:AR23" si="17">IF(LEN(AB2)=0,"",AB2)</f>
         <v/>
       </c>
       <c r="AS2" t="str">
-        <f t="shared" ref="AS2:AS23" si="19">IF(LEN(AD2)=0,"",AD2)</f>
+        <f t="shared" ref="AS2:AS23" ca="1" si="18">IF(LEN(AC2)=0,"",AC2)</f>
         <v/>
       </c>
       <c r="AT2" t="str">
-        <f t="shared" ref="AT2:AT23" si="20">IF(LEN(AE2)=0,"",AE2)</f>
+        <f t="shared" ref="AT2:AT23" si="19">IF(LEN(AE2)=0,"",AE2)</f>
         <v/>
       </c>
       <c r="AU2" t="str">
-        <f ca="1">IF(ROW()=2,AV2,OFFSET(AU2,-1,0)&amp;IF(LEN(AV2)=0,"",","&amp;AV2))</f>
+        <f t="shared" ref="AU2:AU23" si="20">IF(LEN(AF2)=0,"",AF2)</f>
         <v/>
       </c>
       <c r="AV2" t="str">
-        <f t="shared" ref="AV2:AV4" si="21">IF(F2=FALSE,"",
+        <f ca="1">IF(ROW()=2,AW2,OFFSET(AV2,-1,0)&amp;IF(LEN(AW2)=0,"",","&amp;AW2))</f>
+        <v/>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" ref="AW2:AW4" si="21">IF(G2=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
-&amp;","""&amp;J$1&amp;""":"&amp;J2
-&amp;IF(LEN(L2)=0,"",","""&amp;L$1&amp;""":"""&amp;L2&amp;"""")
-&amp;IF(LEN(N2)=0,"",","""&amp;N$1&amp;""":"""&amp;N2&amp;"""")
-&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"&amp;O2)
-&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"""&amp;P2&amp;"""")
-&amp;IF(LEN(R2)=0,"",","""&amp;R$1&amp;""":"""&amp;R2&amp;"""")
-&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"&amp;S2)
-&amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"""&amp;T2&amp;"""")
-&amp;IF(LEN(V2)=0,"",","""&amp;V$1&amp;""":"""&amp;V2&amp;"""")
-&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"&amp;W2)
-&amp;IF(LEN(X2)=0,"",","""&amp;X$1&amp;""":"""&amp;X2&amp;"""")
-&amp;IF(LEN(Z2)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z2&amp;"""")
-&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"&amp;AA2)
-&amp;IF(LEN(AB2)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB2&amp;"""")
-&amp;IF(LEN(AD2)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD2&amp;"""")
-&amp;IF(LEN(AE2)=0,"",","""&amp;AE$1&amp;""":"&amp;AE2)&amp;"}")</f>
-        <v/>
-      </c>
-      <c r="AX2" t="s">
+&amp;","""&amp;K$1&amp;""":"&amp;K2
+&amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
+&amp;IF(LEN(O2)=0,"",","""&amp;O$1&amp;""":"""&amp;O2&amp;"""")
+&amp;IF(LEN(P2)=0,"",","""&amp;P$1&amp;""":"&amp;P2)
+&amp;IF(LEN(Q2)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q2&amp;"""")
+&amp;IF(LEN(S2)=0,"",","""&amp;S$1&amp;""":"""&amp;S2&amp;"""")
+&amp;IF(LEN(T2)=0,"",","""&amp;T$1&amp;""":"&amp;T2)
+&amp;IF(LEN(U2)=0,"",","""&amp;U$1&amp;""":"""&amp;U2&amp;"""")
+&amp;IF(LEN(W2)=0,"",","""&amp;W$1&amp;""":"""&amp;W2&amp;"""")
+&amp;IF(LEN(X2)=0,"",","""&amp;X$1&amp;""":"&amp;X2)
+&amp;IF(LEN(Y2)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y2&amp;"""")
+&amp;IF(LEN(AA2)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA2&amp;"""")
+&amp;IF(LEN(AB2)=0,"",","""&amp;AB$1&amp;""":"&amp;AB2)
+&amp;IF(LEN(AC2)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC2&amp;"""")
+&amp;IF(LEN(AE2)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE2&amp;"""")
+&amp;IF(LEN(AF2)=0,"",","""&amp;AF$1&amp;""":"&amp;AF2)&amp;"}")</f>
+        <v/>
+      </c>
+      <c r="AY2" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>16</v>
       </c>
-      <c r="BA2" t="str">
+      <c r="BB2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(AU1,COUNTA(AU:AU)-1,0),1)=",",SUBSTITUTE(OFFSET(AU1,COUNTA(AU:AU)-1,0),",","",1),OFFSET(AU1,COUNTA(AU:AU)-1,0))
+IF(LEFT(OFFSET(AV1,COUNTA(AV:AV)-1,0),1)=",",SUBSTITUTE(OFFSET(AV1,COUNTA(AV:AV)-1,0),",","",1),OFFSET(AV1,COUNTA(AV:AV)-1,0))
 &amp;"]"</f>
         <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1310,139 +1337,143 @@
 LEFT(A3,FIND("_",A3)-1))</f>
         <v>test</v>
       </c>
-      <c r="F3" t="b">
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="23">COUNTA(N3,R3,V3,Z3,AD3)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.99</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13000</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>806</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K23" si="23">J3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L23" si="24">K3</f>
         <v>806</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>38</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>600</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>50000</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="AB3" t="str">
+      <c r="AC3" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AF3" t="str">
+      <c r="AG3" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG3" t="str">
+      <c r="AH3" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="AJ3" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="AK3" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f t="shared" si="11"/>
         <v>50000</v>
       </c>
-      <c r="AL3" t="str">
+      <c r="AM3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM3" t="str">
+      <c r="AN3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN3" t="str">
+      <c r="AO3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO3" t="str">
+      <c r="AP3" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP3" t="str">
+      <c r="AQ3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ3" t="str">
+      <c r="AR3" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR3" t="str">
+      <c r="AS3" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS3" t="str">
+      <c r="AT3" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT3" t="str">
+      <c r="AU3" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU3" t="str">
-        <f t="shared" ref="AU3:AU23" ca="1" si="24">IF(ROW()=2,AV3,OFFSET(AU3,-1,0)&amp;IF(LEN(AV3)=0,"",","&amp;AV3))</f>
-        <v/>
-      </c>
       <c r="AV3" t="str">
+        <f t="shared" ref="AV3:AV23" ca="1" si="25">IF(ROW()=2,AW3,OFFSET(AV3,-1,0)&amp;IF(LEN(AW3)=0,"",","&amp;AW3))</f>
+        <v/>
+      </c>
+      <c r="AW3" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>36</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1455,145 +1486,149 @@
         <v>ev5</v>
       </c>
       <c r="E4">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
+      <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>19.989999999999998</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>25000</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>548</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="23"/>
+      <c r="L4">
+        <f t="shared" si="24"/>
         <v>548</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L13" ca="1" si="25">IF(ISBLANK(M4),"",
-VLOOKUP(M4,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M13" ca="1" si="26">IF(ISBLANK(N4),"",
+VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>57</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>30</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P5" ca="1" si="26">IF(ISBLANK(Q4),"",
-VLOOKUP(Q4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q5" ca="1" si="27">IF(ISBLANK(R4),"",
+VLOOKUP(R4,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>35</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>58</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T5" ca="1" si="27">IF(ISBLANK(U4),"",
-VLOOKUP(U4,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U5" ca="1" si="28">IF(ISBLANK(V4),"",
+VLOOKUP(V4,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="X4" t="str">
-        <f t="shared" ref="X4:X5" ca="1" si="28">IF(ISBLANK(Y4),"",
-VLOOKUP(Y4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y5" ca="1" si="29">IF(ISBLANK(Z4),"",
+VLOOKUP(Z4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB5" ca="1" si="29">IF(ISBLANK(AC4),"",
-VLOOKUP(AC4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC5" ca="1" si="30">IF(ISBLANK(AD4),"",
+VLOOKUP(AD4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AF4" t="str">
+      <c r="AG4" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>it</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="AH4" t="str">
         <f t="shared" si="7"/>
         <v>Cash_cDailyBox</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="AJ4" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>it</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="AK4" t="str">
         <f t="shared" si="10"/>
         <v>Cash_cThickBox</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AL4" t="str">
+      <c r="AM4" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM4" t="str">
+      <c r="AN4" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN4" t="str">
+      <c r="AO4" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO4" t="str">
+      <c r="AP4" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP4" t="str">
+      <c r="AQ4" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ4" t="str">
+      <c r="AR4" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR4" t="str">
+      <c r="AS4" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS4" t="str">
+      <c r="AT4" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT4" t="str">
+      <c r="AU4" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU4" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
       <c r="AV4" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="AW4" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1606,134 +1641,138 @@
         <v>ev5</v>
       </c>
       <c r="E5">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>537</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="23"/>
+      <c r="L5">
+        <f t="shared" si="24"/>
         <v>537</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>38</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>300</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="T5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="X5" t="str">
+      <c r="U5" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
-      <c r="AB5" t="str">
+      <c r="Y5" t="str">
         <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
-      <c r="AF5" t="str">
+      <c r="AC5" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AG5" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="AH5" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="AJ5" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ5" t="str">
+      <c r="AK5" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK5" t="str">
+      <c r="AL5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL5" t="str">
+      <c r="AM5" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM5" t="str">
+      <c r="AN5" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO5" t="str">
+      <c r="AP5" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP5" t="str">
+      <c r="AQ5" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ5" t="str">
+      <c r="AR5" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR5" t="str">
+      <c r="AS5" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS5" t="str">
+      <c r="AT5" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT5" t="str">
+      <c r="AU5" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU5" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV5" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
       </c>
-      <c r="AV5" t="str">
-        <f ca="1">IF(F5=FALSE,"",
+      <c r="AW5" t="str">
+        <f ca="1">IF(G5=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C5&amp;""""
-&amp;","""&amp;J$1&amp;""":"&amp;J5
-&amp;IF(LEN(L5)=0,"",","""&amp;L$1&amp;""":"""&amp;L5&amp;"""")
-&amp;IF(LEN(N5)=0,"",","""&amp;N$1&amp;""":"""&amp;N5&amp;"""")
-&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"&amp;O5)
-&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"""&amp;P5&amp;"""")
-&amp;IF(LEN(R5)=0,"",","""&amp;R$1&amp;""":"""&amp;R5&amp;"""")
-&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"&amp;S5)
-&amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"""&amp;T5&amp;"""")
-&amp;IF(LEN(V5)=0,"",","""&amp;V$1&amp;""":"""&amp;V5&amp;"""")
-&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"&amp;W5)
-&amp;IF(LEN(X5)=0,"",","""&amp;X$1&amp;""":"""&amp;X5&amp;"""")
-&amp;IF(LEN(Z5)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z5&amp;"""")
-&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"&amp;AA5)
-&amp;IF(LEN(AB5)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB5&amp;"""")
-&amp;IF(LEN(AD5)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD5&amp;"""")
-&amp;IF(LEN(AE5)=0,"",","""&amp;AE$1&amp;""":"&amp;AE5)&amp;"}")</f>
+&amp;","""&amp;K$1&amp;""":"&amp;K5
+&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
+&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"""&amp;O5&amp;"""")
+&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"&amp;P5)
+&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
+&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
+&amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"&amp;T5)
+&amp;IF(LEN(U5)=0,"",","""&amp;U$1&amp;""":"""&amp;U5&amp;"""")
+&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"""&amp;W5&amp;"""")
+&amp;IF(LEN(X5)=0,"",","""&amp;X$1&amp;""":"&amp;X5)
+&amp;IF(LEN(Y5)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y5&amp;"""")
+&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA5&amp;"""")
+&amp;IF(LEN(AB5)=0,"",","""&amp;AB$1&amp;""":"&amp;AB5)
+&amp;IF(LEN(AC5)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC5&amp;"""")
+&amp;IF(LEN(AE5)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE5&amp;"""")
+&amp;IF(LEN(AF5)=0,"",","""&amp;AF$1&amp;""":"&amp;AF5)&amp;"}")</f>
         <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1746,142 +1785,146 @@
         <v>ev5</v>
       </c>
       <c r="E6">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" t="b">
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>314</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="23"/>
+      <c r="L6">
+        <f t="shared" si="24"/>
         <v>314</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>38</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>80</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" ref="P6:P23" ca="1" si="30">IF(ISBLANK(Q6),"",
-VLOOKUP(Q6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Q6" t="str">
+        <f t="shared" ref="Q6:Q23" ca="1" si="31">IF(ISBLANK(R6),"",
+VLOOKUP(R6,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" ref="T6:T23" ca="1" si="31">IF(ISBLANK(U6),"",
-VLOOKUP(U6,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="U6" t="str">
+        <f t="shared" ref="U6:U23" ca="1" si="32">IF(ISBLANK(V6),"",
+VLOOKUP(V6,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="X6" t="str">
-        <f t="shared" ref="X6:X23" ca="1" si="32">IF(ISBLANK(Y6),"",
-VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Y6" t="str">
+        <f t="shared" ref="Y6:Y23" ca="1" si="33">IF(ISBLANK(Z6),"",
+VLOOKUP(Z6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AB6" t="str">
-        <f t="shared" ref="AB6:AB23" ca="1" si="33">IF(ISBLANK(AC6),"",
-VLOOKUP(AC6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AC6" t="str">
+        <f t="shared" ref="AC6:AC23" ca="1" si="34">IF(ISBLANK(AD6),"",
+VLOOKUP(AD6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AF6" t="str">
+      <c r="AG6" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG6" t="str">
+      <c r="AH6" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="AJ6" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ6" t="str">
+      <c r="AK6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK6" t="str">
+      <c r="AL6" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL6" t="str">
+      <c r="AM6" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM6" t="str">
+      <c r="AN6" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN6" t="str">
+      <c r="AO6" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO6" t="str">
+      <c r="AP6" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP6" t="str">
+      <c r="AQ6" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ6" t="str">
+      <c r="AR6" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR6" t="str">
+      <c r="AS6" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS6" t="str">
+      <c r="AT6" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT6" t="str">
+      <c r="AU6" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU6" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV6" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV6" t="str">
-        <f t="shared" ref="AV6:AV23" ca="1" si="34">IF(F6=FALSE,"",
+      <c r="AW6" t="str">
+        <f ca="1">IF(G6=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C6&amp;""""
-&amp;","""&amp;J$1&amp;""":"&amp;J6
-&amp;IF(LEN(L6)=0,"",","""&amp;L$1&amp;""":"""&amp;L6&amp;"""")
-&amp;IF(LEN(N6)=0,"",","""&amp;N$1&amp;""":"""&amp;N6&amp;"""")
-&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"&amp;O6)
-&amp;IF(LEN(P6)=0,"",","""&amp;P$1&amp;""":"""&amp;P6&amp;"""")
-&amp;IF(LEN(R6)=0,"",","""&amp;R$1&amp;""":"""&amp;R6&amp;"""")
-&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"&amp;S6)
-&amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"""&amp;T6&amp;"""")
-&amp;IF(LEN(V6)=0,"",","""&amp;V$1&amp;""":"""&amp;V6&amp;"""")
-&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"&amp;W6)
-&amp;IF(LEN(X6)=0,"",","""&amp;X$1&amp;""":"""&amp;X6&amp;"""")
-&amp;IF(LEN(Z6)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z6&amp;"""")
-&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"&amp;AA6)
-&amp;IF(LEN(AB6)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB6&amp;"""")
-&amp;IF(LEN(AD6)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD6&amp;"""")
-&amp;IF(LEN(AE6)=0,"",","""&amp;AE$1&amp;""":"&amp;AE6)&amp;"}")</f>
+&amp;","""&amp;K$1&amp;""":"&amp;K6
+&amp;IF(LEN(M6)=0,"",","""&amp;M$1&amp;""":"""&amp;M6&amp;"""")
+&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"""&amp;O6&amp;"""")
+&amp;IF(LEN(P6)=0,"",","""&amp;P$1&amp;""":"&amp;P6)
+&amp;IF(LEN(Q6)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q6&amp;"""")
+&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
+&amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"&amp;T6)
+&amp;IF(LEN(U6)=0,"",","""&amp;U$1&amp;""":"""&amp;U6&amp;"""")
+&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"""&amp;W6&amp;"""")
+&amp;IF(LEN(X6)=0,"",","""&amp;X$1&amp;""":"&amp;X6)
+&amp;IF(LEN(Y6)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y6&amp;"""")
+&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA6&amp;"""")
+&amp;IF(LEN(AB6)=0,"",","""&amp;AB$1&amp;""":"&amp;AB6)
+&amp;IF(LEN(AC6)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC6&amp;"""")
+&amp;IF(LEN(AE6)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE6&amp;"""")
+&amp;IF(LEN(AF6)=0,"",","""&amp;AF$1&amp;""":"&amp;AF6)&amp;"}")</f>
         <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1893,152 +1936,173 @@
         <f t="shared" si="22"/>
         <v>ev3</v>
       </c>
-      <c r="F7" t="b">
+      <c r="E7">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14.99</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>19000</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>71</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>876</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="23"/>
+      <c r="L7">
+        <f t="shared" si="24"/>
         <v>876</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" ref="L7:L9" ca="1" si="36">IF(ISBLANK(M7),"",
-VLOOKUP(M7,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M7" t="str">
+        <f t="shared" ref="M7:M9" ca="1" si="36">IF(ISBLANK(N7),"",
+VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>30</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" ref="P7:P9" ca="1" si="37">IF(ISBLANK(Q7),"",
-VLOOKUP(Q7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Q$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Q7" t="str">
+        <f t="shared" ref="Q7:Q9" ca="1" si="37">IF(ISBLANK(R7),"",
+VLOOKUP(R7,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>18</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>17</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>25000</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" ref="T7:T9" ca="1" si="38">IF(ISBLANK(U7),"",
-VLOOKUP(U7,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="U7" t="str">
+        <f t="shared" ref="U7:U9" ca="1" si="38">IF(ISBLANK(V7),"",
+VLOOKUP(V7,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>18</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>60</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>100</v>
       </c>
-      <c r="X7" t="str">
-        <f t="shared" ref="X7:X9" ca="1" si="39">IF(ISBLANK(Y7),"",
-VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="Y7" t="str">
+        <f t="shared" ref="Y7:Y9" ca="1" si="39">IF(ISBLANK(Z7),"",
+VLOOKUP(Z7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AB7" t="str">
-        <f t="shared" ref="AB7:AB9" ca="1" si="40">IF(ISBLANK(AC7),"",
-VLOOKUP(AC7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AC$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="AC7" t="str">
+        <f t="shared" ref="AC7:AC9" ca="1" si="40">IF(ISBLANK(AD7),"",
+VLOOKUP(AD7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="AF7" t="str">
-        <f t="shared" ref="AF7:AF9" ca="1" si="41">IF(LEN(L7)=0,"",L7)</f>
-        <v>cu</v>
-      </c>
       <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AG9" si="42">IF(LEN(N7)=0,"",N7)</f>
+        <f t="shared" ref="AG7:AG9" ca="1" si="41">IF(LEN(M7)=0,"",M7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" ref="AH7:AH9" si="42">IF(LEN(O7)=0,"",O7)</f>
         <v>EN</v>
       </c>
-      <c r="AH7">
-        <f t="shared" ref="AH7:AH9" si="43">IF(LEN(O7)=0,"",O7)</f>
+      <c r="AI7">
+        <f t="shared" ref="AI7:AI9" si="43">IF(LEN(P7)=0,"",P7)</f>
         <v>30</v>
       </c>
-      <c r="AI7" t="str">
-        <f t="shared" ref="AI7:AI9" ca="1" si="44">IF(LEN(P7)=0,"",P7)</f>
-        <v>cu</v>
-      </c>
       <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AJ9" si="45">IF(LEN(R7)=0,"",R7)</f>
+        <f t="shared" ref="AJ7:AJ9" ca="1" si="44">IF(LEN(Q7)=0,"",Q7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" ref="AK7:AK9" si="45">IF(LEN(S7)=0,"",S7)</f>
         <v>GO</v>
       </c>
-      <c r="AK7">
-        <f t="shared" ref="AK7:AK9" si="46">IF(LEN(S7)=0,"",S7)</f>
+      <c r="AL7">
+        <f t="shared" ref="AL7:AL9" si="46">IF(LEN(T7)=0,"",T7)</f>
         <v>25000</v>
       </c>
-      <c r="AL7" t="str">
-        <f t="shared" ref="AL7:AL9" ca="1" si="47">IF(LEN(T7)=0,"",T7)</f>
-        <v>cu</v>
-      </c>
       <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AM9" si="48">IF(LEN(V7)=0,"",V7)</f>
+        <f t="shared" ref="AM7:AM9" ca="1" si="47">IF(LEN(U7)=0,"",U7)</f>
+        <v>cu</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" ref="AN7:AN9" si="48">IF(LEN(W7)=0,"",W7)</f>
         <v>EN</v>
       </c>
-      <c r="AN7">
-        <f t="shared" ref="AN7:AN9" si="49">IF(LEN(W7)=0,"",W7)</f>
+      <c r="AO7">
+        <f t="shared" ref="AO7:AO9" si="49">IF(LEN(X7)=0,"",X7)</f>
         <v>100</v>
       </c>
-      <c r="AO7" t="str">
-        <f t="shared" ref="AO7:AO9" ca="1" si="50">IF(LEN(X7)=0,"",X7)</f>
-        <v/>
-      </c>
       <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AP9" si="51">IF(LEN(Z7)=0,"",Z7)</f>
+        <f t="shared" ref="AP7:AP9" ca="1" si="50">IF(LEN(Y7)=0,"",Y7)</f>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" si="52">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" ref="AQ7:AQ9" si="51">IF(LEN(AA7)=0,"",AA7)</f>
         <v/>
       </c>
       <c r="AR7" t="str">
-        <f t="shared" ref="AR7:AR9" ca="1" si="53">IF(LEN(AB7)=0,"",AB7)</f>
+        <f t="shared" ref="AR7:AR9" si="52">IF(LEN(AB7)=0,"",AB7)</f>
         <v/>
       </c>
       <c r="AS7" t="str">
-        <f t="shared" ref="AS7:AS9" si="54">IF(LEN(AD7)=0,"",AD7)</f>
+        <f t="shared" ref="AS7:AS9" ca="1" si="53">IF(LEN(AC7)=0,"",AC7)</f>
         <v/>
       </c>
       <c r="AT7" t="str">
-        <f t="shared" ref="AT7:AT9" si="55">IF(LEN(AE7)=0,"",AE7)</f>
+        <f t="shared" ref="AT7:AT9" si="54">IF(LEN(AE7)=0,"",AE7)</f>
         <v/>
       </c>
       <c r="AU7" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="AU7:AU9" si="55">IF(LEN(AF7)=0,"",AF7)</f>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV7" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW7" t="str">
+        <f>IF(G7=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C7&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K7
+&amp;IF(LEN(M7)=0,"",","""&amp;M$1&amp;""":"""&amp;M7&amp;"""")
+&amp;IF(LEN(O7)=0,"",","""&amp;O$1&amp;""":"""&amp;O7&amp;"""")
+&amp;IF(LEN(P7)=0,"",","""&amp;P$1&amp;""":"&amp;P7)
+&amp;IF(LEN(Q7)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q7&amp;"""")
+&amp;IF(LEN(S7)=0,"",","""&amp;S$1&amp;""":"""&amp;S7&amp;"""")
+&amp;IF(LEN(T7)=0,"",","""&amp;T$1&amp;""":"&amp;T7)
+&amp;IF(LEN(U7)=0,"",","""&amp;U$1&amp;""":"""&amp;U7&amp;"""")
+&amp;IF(LEN(W7)=0,"",","""&amp;W$1&amp;""":"""&amp;W7&amp;"""")
+&amp;IF(LEN(X7)=0,"",","""&amp;X$1&amp;""":"&amp;X7)
+&amp;IF(LEN(Y7)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y7&amp;"""")
+&amp;IF(LEN(AA7)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA7&amp;"""")
+&amp;IF(LEN(AB7)=0,"",","""&amp;AB$1&amp;""":"&amp;AB7)
+&amp;IF(LEN(AC7)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC7&amp;"""")
+&amp;IF(LEN(AE7)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE7&amp;"""")
+&amp;IF(LEN(AF7)=0,"",","""&amp;AF$1&amp;""":"&amp;AF7)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -2050,142 +2114,163 @@
         <f t="shared" si="22"/>
         <v>ev3</v>
       </c>
-      <c r="F8" t="b">
+      <c r="E8">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.99</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>39000</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>973</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="23"/>
+      <c r="L8">
+        <f t="shared" si="24"/>
         <v>973</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>60</v>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>18</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>17</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>15000</v>
       </c>
-      <c r="T8" t="str">
+      <c r="U8" t="str">
         <f t="shared" ca="1" si="38"/>
         <v>cu</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>18</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>60</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>120</v>
       </c>
-      <c r="X8" t="str">
+      <c r="Y8" t="str">
         <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
-      <c r="AB8" t="str">
+      <c r="AC8" t="str">
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="AF8" t="str">
+      <c r="AG8" t="str">
         <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
-      <c r="AG8" t="str">
+      <c r="AH8" t="str">
         <f t="shared" si="42"/>
         <v>EN</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <f t="shared" si="43"/>
         <v>60</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="AJ8" t="str">
         <f t="shared" ca="1" si="44"/>
         <v>cu</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="AK8" t="str">
         <f t="shared" si="45"/>
         <v>GO</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="46"/>
         <v>15000</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="AM8" t="str">
         <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="AN8" t="str">
         <f t="shared" si="48"/>
         <v>EN</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <f t="shared" si="49"/>
         <v>120</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="AP8" t="str">
         <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
-      <c r="AP8" t="str">
+      <c r="AQ8" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="AQ8" t="str">
+      <c r="AR8" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="AR8" t="str">
+      <c r="AS8" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AS8" t="str">
+      <c r="AT8" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AT8" t="str">
+      <c r="AU8" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="AU8" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV8" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV8" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW8" t="str">
+        <f>IF(G8=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C8&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K8
+&amp;IF(LEN(M8)=0,"",","""&amp;M$1&amp;""":"""&amp;M8&amp;"""")
+&amp;IF(LEN(O8)=0,"",","""&amp;O$1&amp;""":"""&amp;O8&amp;"""")
+&amp;IF(LEN(P8)=0,"",","""&amp;P$1&amp;""":"&amp;P8)
+&amp;IF(LEN(Q8)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q8&amp;"""")
+&amp;IF(LEN(S8)=0,"",","""&amp;S$1&amp;""":"""&amp;S8&amp;"""")
+&amp;IF(LEN(T8)=0,"",","""&amp;T$1&amp;""":"&amp;T8)
+&amp;IF(LEN(U8)=0,"",","""&amp;U$1&amp;""":"""&amp;U8&amp;"""")
+&amp;IF(LEN(W8)=0,"",","""&amp;W$1&amp;""":"""&amp;W8&amp;"""")
+&amp;IF(LEN(X8)=0,"",","""&amp;X$1&amp;""":"&amp;X8)
+&amp;IF(LEN(Y8)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y8&amp;"""")
+&amp;IF(LEN(AA8)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA8&amp;"""")
+&amp;IF(LEN(AB8)=0,"",","""&amp;AB$1&amp;""":"&amp;AB8)
+&amp;IF(LEN(AC8)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC8&amp;"""")
+&amp;IF(LEN(AE8)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE8&amp;"""")
+&amp;IF(LEN(AF8)=0,"",","""&amp;AF$1&amp;""":"&amp;AF8)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -2197,151 +2282,172 @@
         <f t="shared" si="22"/>
         <v>ev3</v>
       </c>
-      <c r="F9" t="b">
+      <c r="E9">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>49.99</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>69000</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>73</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>180</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="23"/>
+      <c r="L9">
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>18</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>90</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>18</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>17</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>30000</v>
       </c>
-      <c r="T9" t="str">
+      <c r="U9" t="str">
         <f t="shared" ca="1" si="38"/>
         <v>cu</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>18</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>60</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>150</v>
       </c>
-      <c r="X9" t="str">
+      <c r="Y9" t="str">
         <f t="shared" ca="1" si="39"/>
         <v>cu</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>60</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>300</v>
       </c>
-      <c r="AB9" t="str">
+      <c r="AC9" t="str">
         <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
-      <c r="AF9" t="str">
+      <c r="AG9" t="str">
         <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
-      <c r="AG9" t="str">
+      <c r="AH9" t="str">
         <f t="shared" si="42"/>
         <v>EN</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <f t="shared" si="43"/>
         <v>90</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="AJ9" t="str">
         <f t="shared" ca="1" si="44"/>
         <v>cu</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="AK9" t="str">
         <f t="shared" si="45"/>
         <v>GO</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="46"/>
         <v>30000</v>
       </c>
-      <c r="AL9" t="str">
+      <c r="AM9" t="str">
         <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="AN9" t="str">
         <f t="shared" si="48"/>
         <v>EN</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <f t="shared" si="49"/>
         <v>150</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="AP9" t="str">
         <f t="shared" ca="1" si="50"/>
         <v>cu</v>
       </c>
-      <c r="AP9" t="str">
+      <c r="AQ9" t="str">
         <f t="shared" si="51"/>
         <v>EN</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f t="shared" si="52"/>
         <v>300</v>
       </c>
-      <c r="AR9" t="str">
+      <c r="AS9" t="str">
         <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
-      <c r="AS9" t="str">
+      <c r="AT9" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="AT9" t="str">
+      <c r="AU9" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="AU9" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV9" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV9" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW9" t="str">
+        <f>IF(G9=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C9&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K9
+&amp;IF(LEN(M9)=0,"",","""&amp;M$1&amp;""":"""&amp;M9&amp;"""")
+&amp;IF(LEN(O9)=0,"",","""&amp;O$1&amp;""":"""&amp;O9&amp;"""")
+&amp;IF(LEN(P9)=0,"",","""&amp;P$1&amp;""":"&amp;P9)
+&amp;IF(LEN(Q9)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q9&amp;"""")
+&amp;IF(LEN(S9)=0,"",","""&amp;S$1&amp;""":"""&amp;S9&amp;"""")
+&amp;IF(LEN(T9)=0,"",","""&amp;T$1&amp;""":"&amp;T9)
+&amp;IF(LEN(U9)=0,"",","""&amp;U$1&amp;""":"""&amp;U9&amp;"""")
+&amp;IF(LEN(W9)=0,"",","""&amp;W$1&amp;""":"""&amp;W9&amp;"""")
+&amp;IF(LEN(X9)=0,"",","""&amp;X$1&amp;""":"&amp;X9)
+&amp;IF(LEN(Y9)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y9&amp;"""")
+&amp;IF(LEN(AA9)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA9&amp;"""")
+&amp;IF(LEN(AB9)=0,"",","""&amp;AB$1&amp;""":"&amp;AB9)
+&amp;IF(LEN(AC9)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC9&amp;"""")
+&amp;IF(LEN(AE9)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE9&amp;"""")
+&amp;IF(LEN(AF9)=0,"",","""&amp;AF$1&amp;""":"&amp;AF9)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2354,135 +2460,156 @@
         <v>ev4</v>
       </c>
       <c r="E10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
+      <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>721</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="23"/>
+      <c r="L10">
+        <f t="shared" si="24"/>
         <v>721</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="M10" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>38</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>80</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="Q10" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="R10" t="s">
         <v>18</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>17</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>35000</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="U10" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
+      </c>
+      <c r="V10" t="s">
         <v>18</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>60</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>170</v>
       </c>
-      <c r="X10" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="AB10" t="str">
+      <c r="Y10" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF10" t="str">
+      <c r="AC10" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG10" t="str">
+      <c r="AH10" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="AJ10" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="AK10" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="11"/>
         <v>35000</v>
       </c>
-      <c r="AL10" t="str">
+      <c r="AM10" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="AN10" t="str">
         <f t="shared" si="13"/>
         <v>EN</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <f t="shared" si="14"/>
         <v>170</v>
       </c>
-      <c r="AO10" t="str">
+      <c r="AP10" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP10" t="str">
+      <c r="AQ10" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ10" t="str">
+      <c r="AR10" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR10" t="str">
+      <c r="AS10" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS10" t="str">
+      <c r="AT10" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT10" t="str">
+      <c r="AU10" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU10" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV10" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
-      <c r="AV10" t="str">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AW10" t="str">
+        <f ca="1">IF(G10=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C10&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K10
+&amp;IF(LEN(M10)=0,"",","""&amp;M$1&amp;""":"""&amp;M10&amp;"""")
+&amp;IF(LEN(O10)=0,"",","""&amp;O$1&amp;""":"""&amp;O10&amp;"""")
+&amp;IF(LEN(P10)=0,"",","""&amp;P$1&amp;""":"&amp;P10)
+&amp;IF(LEN(Q10)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q10&amp;"""")
+&amp;IF(LEN(S10)=0,"",","""&amp;S$1&amp;""":"""&amp;S10&amp;"""")
+&amp;IF(LEN(T10)=0,"",","""&amp;T$1&amp;""":"&amp;T10)
+&amp;IF(LEN(U10)=0,"",","""&amp;U$1&amp;""":"""&amp;U10&amp;"""")
+&amp;IF(LEN(W10)=0,"",","""&amp;W$1&amp;""":"""&amp;W10&amp;"""")
+&amp;IF(LEN(X10)=0,"",","""&amp;X$1&amp;""":"&amp;X10)
+&amp;IF(LEN(Y10)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y10&amp;"""")
+&amp;IF(LEN(AA10)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA10&amp;"""")
+&amp;IF(LEN(AB10)=0,"",","""&amp;AB$1&amp;""":"&amp;AB10)
+&amp;IF(LEN(AC10)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC10&amp;"""")
+&amp;IF(LEN(AE10)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE10&amp;"""")
+&amp;IF(LEN(AF10)=0,"",","""&amp;AF$1&amp;""":"&amp;AF10)&amp;"}")</f>
         <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2495,117 +2622,138 @@
         <v>ev4</v>
       </c>
       <c r="E11">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11" t="b">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>884</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="23"/>
+      <c r="L11">
+        <f t="shared" si="24"/>
         <v>884</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M11" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>38</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>150</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X11" t="str">
+      <c r="U11" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB11" t="str">
+      <c r="Y11" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF11" t="str">
+      <c r="AC11" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG11" t="str">
+      <c r="AH11" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="AJ11" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ11" t="str">
+      <c r="AK11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK11" t="str">
+      <c r="AL11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL11" t="str">
+      <c r="AM11" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM11" t="str">
+      <c r="AN11" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN11" t="str">
+      <c r="AO11" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO11" t="str">
+      <c r="AP11" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP11" t="str">
+      <c r="AQ11" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ11" t="str">
+      <c r="AR11" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR11" t="str">
+      <c r="AS11" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS11" t="str">
+      <c r="AT11" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT11" t="str">
+      <c r="AU11" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU11" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV11" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
-      <c r="AV11" t="str">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AW11" t="str">
+        <f ca="1">IF(G11=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C11&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K11
+&amp;IF(LEN(M11)=0,"",","""&amp;M$1&amp;""":"""&amp;M11&amp;"""")
+&amp;IF(LEN(O11)=0,"",","""&amp;O$1&amp;""":"""&amp;O11&amp;"""")
+&amp;IF(LEN(P11)=0,"",","""&amp;P$1&amp;""":"&amp;P11)
+&amp;IF(LEN(Q11)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q11&amp;"""")
+&amp;IF(LEN(S11)=0,"",","""&amp;S$1&amp;""":"""&amp;S11&amp;"""")
+&amp;IF(LEN(T11)=0,"",","""&amp;T$1&amp;""":"&amp;T11)
+&amp;IF(LEN(U11)=0,"",","""&amp;U$1&amp;""":"""&amp;U11&amp;"""")
+&amp;IF(LEN(W11)=0,"",","""&amp;W$1&amp;""":"""&amp;W11&amp;"""")
+&amp;IF(LEN(X11)=0,"",","""&amp;X$1&amp;""":"&amp;X11)
+&amp;IF(LEN(Y11)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y11&amp;"""")
+&amp;IF(LEN(AA11)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA11&amp;"""")
+&amp;IF(LEN(AB11)=0,"",","""&amp;AB$1&amp;""":"&amp;AB11)
+&amp;IF(LEN(AC11)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC11&amp;"""")
+&amp;IF(LEN(AE11)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE11&amp;"""")
+&amp;IF(LEN(AF11)=0,"",","""&amp;AF$1&amp;""":"&amp;AF11)&amp;"}")</f>
         <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2618,153 +2766,174 @@
         <v>ev4</v>
       </c>
       <c r="E12">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12" t="b">
+      <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.99</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2500</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>66</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>217</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="23"/>
+      <c r="L12">
+        <f t="shared" si="24"/>
         <v>217</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N12" t="s">
         <v>18</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>17</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>20000</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="R12" t="s">
         <v>18</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>38</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>150</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>cu</v>
+      </c>
+      <c r="V12" t="s">
         <v>18</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>17</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>35000</v>
       </c>
-      <c r="X12" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>cu</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="Y12" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>cu</v>
+      </c>
+      <c r="Z12" t="s">
         <v>18</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>38</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>200</v>
       </c>
-      <c r="AB12" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AF12" t="str">
+      <c r="AC12" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG12" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG12" t="str">
+      <c r="AH12" t="str">
         <f t="shared" si="7"/>
         <v>GO</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="AJ12" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="AK12" t="str">
         <f t="shared" si="10"/>
         <v>EN</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="AL12" t="str">
+      <c r="AM12" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
-      <c r="AM12" t="str">
+      <c r="AN12" t="str">
         <f t="shared" si="13"/>
         <v>GO</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <f t="shared" si="14"/>
         <v>35000</v>
       </c>
-      <c r="AO12" t="str">
+      <c r="AP12" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>cu</v>
       </c>
-      <c r="AP12" t="str">
+      <c r="AQ12" t="str">
         <f t="shared" si="16"/>
         <v>EN</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="AR12" t="str">
+      <c r="AS12" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS12" t="str">
+      <c r="AT12" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT12" t="str">
+      <c r="AU12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU12" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV12" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
-      <c r="AV12" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW12" t="str">
+        <f>IF(G12=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C12&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K12
+&amp;IF(LEN(M12)=0,"",","""&amp;M$1&amp;""":"""&amp;M12&amp;"""")
+&amp;IF(LEN(O12)=0,"",","""&amp;O$1&amp;""":"""&amp;O12&amp;"""")
+&amp;IF(LEN(P12)=0,"",","""&amp;P$1&amp;""":"&amp;P12)
+&amp;IF(LEN(Q12)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q12&amp;"""")
+&amp;IF(LEN(S12)=0,"",","""&amp;S$1&amp;""":"""&amp;S12&amp;"""")
+&amp;IF(LEN(T12)=0,"",","""&amp;T$1&amp;""":"&amp;T12)
+&amp;IF(LEN(U12)=0,"",","""&amp;U$1&amp;""":"""&amp;U12&amp;"""")
+&amp;IF(LEN(W12)=0,"",","""&amp;W$1&amp;""":"""&amp;W12&amp;"""")
+&amp;IF(LEN(X12)=0,"",","""&amp;X$1&amp;""":"&amp;X12)
+&amp;IF(LEN(Y12)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y12&amp;"""")
+&amp;IF(LEN(AA12)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA12&amp;"""")
+&amp;IF(LEN(AB12)=0,"",","""&amp;AB$1&amp;""":"&amp;AB12)
+&amp;IF(LEN(AC12)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC12&amp;"""")
+&amp;IF(LEN(AE12)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE12&amp;"""")
+&amp;IF(LEN(AF12)=0,"",","""&amp;AF$1&amp;""":"&amp;AF12)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2777,644 +2946,749 @@
         <v>ev4</v>
       </c>
       <c r="E13">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13" t="b">
+      <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>394</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="23"/>
+      <c r="L13">
+        <f t="shared" si="24"/>
         <v>394</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>cu</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>cu</v>
+      </c>
+      <c r="N13" t="s">
         <v>18</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>38</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>150</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>cu</v>
+      </c>
+      <c r="R13" t="s">
         <v>18</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>17</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>20000</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="X13" t="str">
+      <c r="U13" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB13" t="str">
+      <c r="Y13" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF13" t="str">
+      <c r="AC13" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG13" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG13" t="str">
+      <c r="AH13" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AJ13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AK13" t="str">
         <f t="shared" si="10"/>
         <v>GO</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="11"/>
         <v>20000</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="AM13" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM13" t="str">
+      <c r="AN13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN13" t="str">
+      <c r="AO13" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO13" t="str">
+      <c r="AP13" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP13" t="str">
+      <c r="AQ13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ13" t="str">
+      <c r="AR13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR13" t="str">
+      <c r="AS13" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS13" t="str">
+      <c r="AT13" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT13" t="str">
+      <c r="AU13" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU13" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV13" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AV13" t="str">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AW13" t="str">
+        <f ca="1">IF(G13=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C13&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K13
+&amp;IF(LEN(M13)=0,"",","""&amp;M$1&amp;""":"""&amp;M13&amp;"""")
+&amp;IF(LEN(O13)=0,"",","""&amp;O$1&amp;""":"""&amp;O13&amp;"""")
+&amp;IF(LEN(P13)=0,"",","""&amp;P$1&amp;""":"&amp;P13)
+&amp;IF(LEN(Q13)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q13&amp;"""")
+&amp;IF(LEN(S13)=0,"",","""&amp;S$1&amp;""":"""&amp;S13&amp;"""")
+&amp;IF(LEN(T13)=0,"",","""&amp;T$1&amp;""":"&amp;T13)
+&amp;IF(LEN(U13)=0,"",","""&amp;U$1&amp;""":"""&amp;U13&amp;"""")
+&amp;IF(LEN(W13)=0,"",","""&amp;W$1&amp;""":"""&amp;W13&amp;"""")
+&amp;IF(LEN(X13)=0,"",","""&amp;X$1&amp;""":"&amp;X13)
+&amp;IF(LEN(Y13)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y13&amp;"""")
+&amp;IF(LEN(AA13)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA13&amp;"""")
+&amp;IF(LEN(AB13)=0,"",","""&amp;AB$1&amp;""":"&amp;AB13)
+&amp;IF(LEN(AC13)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC13&amp;"""")
+&amp;IF(LEN(AE13)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE13&amp;"""")
+&amp;IF(LEN(AF13)=0,"",","""&amp;AF$1&amp;""":"&amp;AF13)&amp;"}")</f>
         <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_1</v>
+        <v>ev10_disco_1</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
-      </c>
-      <c r="F14" t="b">
+        <v>ev10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.99</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1200</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>76</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>712</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="23"/>
+      <c r="L14">
+        <f t="shared" si="24"/>
         <v>712</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" ref="L14:L23" ca="1" si="56">IF(ISBLANK(M14),"",
-VLOOKUP(M14,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M14" t="str">
+        <f t="shared" ref="M14:M23" ca="1" si="56">IF(ISBLANK(N14),"",
+VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>18</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>38</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>80</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X14" t="str">
+      <c r="U14" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB14" t="str">
+      <c r="Y14" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF14" t="str">
+      <c r="AC14" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG14" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG14" t="str">
+      <c r="AH14" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="AJ14" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ14" t="str">
+      <c r="AK14" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK14" t="str">
+      <c r="AL14" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL14" t="str">
+      <c r="AM14" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM14" t="str">
+      <c r="AN14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN14" t="str">
+      <c r="AO14" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO14" t="str">
+      <c r="AP14" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP14" t="str">
+      <c r="AQ14" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ14" t="str">
+      <c r="AR14" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR14" t="str">
+      <c r="AS14" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS14" t="str">
+      <c r="AT14" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT14" t="str">
+      <c r="AU14" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU14" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV14" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW14" t="str">
+        <f>IF(G14=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C14&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K14
+&amp;IF(LEN(M14)=0,"",","""&amp;M$1&amp;""":"""&amp;M14&amp;"""")
+&amp;IF(LEN(O14)=0,"",","""&amp;O$1&amp;""":"""&amp;O14&amp;"""")
+&amp;IF(LEN(P14)=0,"",","""&amp;P$1&amp;""":"&amp;P14)
+&amp;IF(LEN(Q14)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q14&amp;"""")
+&amp;IF(LEN(S14)=0,"",","""&amp;S$1&amp;""":"""&amp;S14&amp;"""")
+&amp;IF(LEN(T14)=0,"",","""&amp;T$1&amp;""":"&amp;T14)
+&amp;IF(LEN(U14)=0,"",","""&amp;U$1&amp;""":"""&amp;U14&amp;"""")
+&amp;IF(LEN(W14)=0,"",","""&amp;W$1&amp;""":"""&amp;W14&amp;"""")
+&amp;IF(LEN(X14)=0,"",","""&amp;X$1&amp;""":"&amp;X14)
+&amp;IF(LEN(Y14)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y14&amp;"""")
+&amp;IF(LEN(AA14)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA14&amp;"""")
+&amp;IF(LEN(AB14)=0,"",","""&amp;AB$1&amp;""":"&amp;AB14)
+&amp;IF(LEN(AC14)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC14&amp;"""")
+&amp;IF(LEN(AE14)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE14&amp;"""")
+&amp;IF(LEN(AF14)=0,"",","""&amp;AF$1&amp;""":"&amp;AF14)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_2</v>
+        <v>ev10_disco_2</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
-      </c>
-      <c r="F15" t="b">
+        <v>ev10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.99</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2500</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>77</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>268</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="23"/>
+      <c r="L15">
+        <f t="shared" si="24"/>
         <v>268</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>80</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X15" t="str">
+      <c r="U15" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB15" t="str">
+      <c r="Y15" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF15" t="str">
+      <c r="AC15" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG15" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG15" t="str">
+      <c r="AH15" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="AJ15" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ15" t="str">
+      <c r="AK15" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK15" t="str">
+      <c r="AL15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL15" t="str">
+      <c r="AM15" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM15" t="str">
+      <c r="AN15" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN15" t="str">
+      <c r="AO15" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO15" t="str">
+      <c r="AP15" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP15" t="str">
+      <c r="AQ15" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ15" t="str">
+      <c r="AR15" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR15" t="str">
+      <c r="AS15" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS15" t="str">
+      <c r="AT15" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT15" t="str">
+      <c r="AU15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU15" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV15" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW15" t="str">
+        <f>IF(G15=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C15&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K15
+&amp;IF(LEN(M15)=0,"",","""&amp;M$1&amp;""":"""&amp;M15&amp;"""")
+&amp;IF(LEN(O15)=0,"",","""&amp;O$1&amp;""":"""&amp;O15&amp;"""")
+&amp;IF(LEN(P15)=0,"",","""&amp;P$1&amp;""":"&amp;P15)
+&amp;IF(LEN(Q15)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q15&amp;"""")
+&amp;IF(LEN(S15)=0,"",","""&amp;S$1&amp;""":"""&amp;S15&amp;"""")
+&amp;IF(LEN(T15)=0,"",","""&amp;T$1&amp;""":"&amp;T15)
+&amp;IF(LEN(U15)=0,"",","""&amp;U$1&amp;""":"""&amp;U15&amp;"""")
+&amp;IF(LEN(W15)=0,"",","""&amp;W$1&amp;""":"""&amp;W15&amp;"""")
+&amp;IF(LEN(X15)=0,"",","""&amp;X$1&amp;""":"&amp;X15)
+&amp;IF(LEN(Y15)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y15&amp;"""")
+&amp;IF(LEN(AA15)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA15&amp;"""")
+&amp;IF(LEN(AB15)=0,"",","""&amp;AB$1&amp;""":"&amp;AB15)
+&amp;IF(LEN(AC15)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC15&amp;"""")
+&amp;IF(LEN(AE15)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE15&amp;"""")
+&amp;IF(LEN(AF15)=0,"",","""&amp;AF$1&amp;""":"&amp;AF15)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_3</v>
+        <v>ev10_disco_3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
-      </c>
-      <c r="F16" t="b">
+        <v>ev10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.99</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3900</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>78</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>851</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="23"/>
+      <c r="L16">
+        <f t="shared" si="24"/>
         <v>851</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>18</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>38</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>80</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X16" t="str">
+      <c r="U16" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB16" t="str">
+      <c r="Y16" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF16" t="str">
+      <c r="AC16" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG16" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG16" t="str">
+      <c r="AH16" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AJ16" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AK16" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK16" t="str">
+      <c r="AL16" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL16" t="str">
+      <c r="AM16" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM16" t="str">
+      <c r="AN16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN16" t="str">
+      <c r="AO16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO16" t="str">
+      <c r="AP16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP16" t="str">
+      <c r="AQ16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ16" t="str">
+      <c r="AR16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR16" t="str">
+      <c r="AS16" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS16" t="str">
+      <c r="AT16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT16" t="str">
+      <c r="AU16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU16" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV16" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AV16" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW16" t="str">
+        <f>IF(G16=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C16&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K16
+&amp;IF(LEN(M16)=0,"",","""&amp;M$1&amp;""":"""&amp;M16&amp;"""")
+&amp;IF(LEN(O16)=0,"",","""&amp;O$1&amp;""":"""&amp;O16&amp;"""")
+&amp;IF(LEN(P16)=0,"",","""&amp;P$1&amp;""":"&amp;P16)
+&amp;IF(LEN(Q16)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q16&amp;"""")
+&amp;IF(LEN(S16)=0,"",","""&amp;S$1&amp;""":"""&amp;S16&amp;"""")
+&amp;IF(LEN(T16)=0,"",","""&amp;T$1&amp;""":"&amp;T16)
+&amp;IF(LEN(U16)=0,"",","""&amp;U$1&amp;""":"""&amp;U16&amp;"""")
+&amp;IF(LEN(W16)=0,"",","""&amp;W$1&amp;""":"""&amp;W16&amp;"""")
+&amp;IF(LEN(X16)=0,"",","""&amp;X$1&amp;""":"&amp;X16)
+&amp;IF(LEN(Y16)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y16&amp;"""")
+&amp;IF(LEN(AA16)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA16&amp;"""")
+&amp;IF(LEN(AB16)=0,"",","""&amp;AB$1&amp;""":"&amp;AB16)
+&amp;IF(LEN(AC16)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC16&amp;"""")
+&amp;IF(LEN(AE16)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE16&amp;"""")
+&amp;IF(LEN(AF16)=0,"",","""&amp;AF$1&amp;""":"&amp;AF16)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>ev6_disco_4</v>
+        <v>ev10_disco_4</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="22"/>
-        <v>ev6</v>
-      </c>
-      <c r="F17" t="b">
+        <v>ev10</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.99</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4900</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>79</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>532</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="23"/>
+      <c r="L17">
+        <f t="shared" si="24"/>
         <v>532</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>18</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>38</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>80</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X17" t="str">
+      <c r="U17" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB17" t="str">
+      <c r="Y17" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF17" t="str">
+      <c r="AC17" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG17" t="str">
+      <c r="AH17" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="AJ17" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ17" t="str">
+      <c r="AK17" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK17" t="str">
+      <c r="AL17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL17" t="str">
+      <c r="AM17" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM17" t="str">
+      <c r="AN17" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN17" t="str">
+      <c r="AO17" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO17" t="str">
+      <c r="AP17" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP17" t="str">
+      <c r="AQ17" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ17" t="str">
+      <c r="AR17" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR17" t="str">
+      <c r="AS17" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS17" t="str">
+      <c r="AT17" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT17" t="str">
+      <c r="AU17" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU17" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV17" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
-      <c r="AV17" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW17" t="str">
+        <f>IF(G17=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C17&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K17
+&amp;IF(LEN(M17)=0,"",","""&amp;M$1&amp;""":"""&amp;M17&amp;"""")
+&amp;IF(LEN(O17)=0,"",","""&amp;O$1&amp;""":"""&amp;O17&amp;"""")
+&amp;IF(LEN(P17)=0,"",","""&amp;P$1&amp;""":"&amp;P17)
+&amp;IF(LEN(Q17)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q17&amp;"""")
+&amp;IF(LEN(S17)=0,"",","""&amp;S$1&amp;""":"""&amp;S17&amp;"""")
+&amp;IF(LEN(T17)=0,"",","""&amp;T$1&amp;""":"&amp;T17)
+&amp;IF(LEN(U17)=0,"",","""&amp;U$1&amp;""":"""&amp;U17&amp;"""")
+&amp;IF(LEN(W17)=0,"",","""&amp;W$1&amp;""":"""&amp;W17&amp;"""")
+&amp;IF(LEN(X17)=0,"",","""&amp;X$1&amp;""":"&amp;X17)
+&amp;IF(LEN(Y17)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y17&amp;"""")
+&amp;IF(LEN(AA17)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA17&amp;"""")
+&amp;IF(LEN(AB17)=0,"",","""&amp;AB$1&amp;""":"&amp;AB17)
+&amp;IF(LEN(AC17)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC17&amp;"""")
+&amp;IF(LEN(AE17)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE17&amp;"""")
+&amp;IF(LEN(AF17)=0,"",","""&amp;AF$1&amp;""":"&amp;AF17)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3426,115 +3700,136 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F18" t="b">
+      <c r="E18">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>444</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="23"/>
+      <c r="L18">
+        <f t="shared" si="24"/>
         <v>444</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>18</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>38</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>80</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X18" t="str">
+      <c r="U18" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB18" t="str">
+      <c r="Y18" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF18" t="str">
+      <c r="AC18" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG18" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG18" t="str">
+      <c r="AH18" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI18" t="str">
+      <c r="AJ18" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ18" t="str">
+      <c r="AK18" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK18" t="str">
+      <c r="AL18" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL18" t="str">
+      <c r="AM18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM18" t="str">
+      <c r="AN18" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN18" t="str">
+      <c r="AO18" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO18" t="str">
+      <c r="AP18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP18" t="str">
+      <c r="AQ18" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ18" t="str">
+      <c r="AR18" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR18" t="str">
+      <c r="AS18" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS18" t="str">
+      <c r="AT18" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT18" t="str">
+      <c r="AU18" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU18" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV18" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV18" t="str">
-        <f t="shared" ca="1" si="34"/>
+      <c r="AW18" t="str">
+        <f ca="1">IF(G18=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C18&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K18
+&amp;IF(LEN(M18)=0,"",","""&amp;M$1&amp;""":"""&amp;M18&amp;"""")
+&amp;IF(LEN(O18)=0,"",","""&amp;O$1&amp;""":"""&amp;O18&amp;"""")
+&amp;IF(LEN(P18)=0,"",","""&amp;P$1&amp;""":"&amp;P18)
+&amp;IF(LEN(Q18)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q18&amp;"""")
+&amp;IF(LEN(S18)=0,"",","""&amp;S$1&amp;""":"""&amp;S18&amp;"""")
+&amp;IF(LEN(T18)=0,"",","""&amp;T$1&amp;""":"&amp;T18)
+&amp;IF(LEN(U18)=0,"",","""&amp;U$1&amp;""":"""&amp;U18&amp;"""")
+&amp;IF(LEN(W18)=0,"",","""&amp;W$1&amp;""":"""&amp;W18&amp;"""")
+&amp;IF(LEN(X18)=0,"",","""&amp;X$1&amp;""":"&amp;X18)
+&amp;IF(LEN(Y18)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y18&amp;"""")
+&amp;IF(LEN(AA18)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA18&amp;"""")
+&amp;IF(LEN(AB18)=0,"",","""&amp;AB$1&amp;""":"&amp;AB18)
+&amp;IF(LEN(AC18)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC18&amp;"""")
+&amp;IF(LEN(AE18)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE18&amp;"""")
+&amp;IF(LEN(AF18)=0,"",","""&amp;AF$1&amp;""":"&amp;AF18)&amp;"}")</f>
         <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -3546,124 +3841,145 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F19" t="b">
+      <c r="E19">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.99</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2500</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>81</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>833</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="23"/>
+      <c r="L19">
+        <f t="shared" si="24"/>
         <v>833</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>18</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>38</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>80</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X19" t="str">
+      <c r="U19" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB19" t="str">
+      <c r="Y19" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF19" t="str">
+      <c r="AC19" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG19" t="str">
+      <c r="AH19" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI19" t="str">
+      <c r="AJ19" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ19" t="str">
+      <c r="AK19" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK19" t="str">
+      <c r="AL19" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL19" t="str">
+      <c r="AM19" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM19" t="str">
+      <c r="AN19" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN19" t="str">
+      <c r="AO19" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO19" t="str">
+      <c r="AP19" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP19" t="str">
+      <c r="AQ19" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ19" t="str">
+      <c r="AR19" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR19" t="str">
+      <c r="AS19" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS19" t="str">
+      <c r="AT19" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT19" t="str">
+      <c r="AU19" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU19" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV19" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV19" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW19" t="str">
+        <f>IF(G19=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C19&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K19
+&amp;IF(LEN(M19)=0,"",","""&amp;M$1&amp;""":"""&amp;M19&amp;"""")
+&amp;IF(LEN(O19)=0,"",","""&amp;O$1&amp;""":"""&amp;O19&amp;"""")
+&amp;IF(LEN(P19)=0,"",","""&amp;P$1&amp;""":"&amp;P19)
+&amp;IF(LEN(Q19)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q19&amp;"""")
+&amp;IF(LEN(S19)=0,"",","""&amp;S$1&amp;""":"""&amp;S19&amp;"""")
+&amp;IF(LEN(T19)=0,"",","""&amp;T$1&amp;""":"&amp;T19)
+&amp;IF(LEN(U19)=0,"",","""&amp;U$1&amp;""":"""&amp;U19&amp;"""")
+&amp;IF(LEN(W19)=0,"",","""&amp;W$1&amp;""":"""&amp;W19&amp;"""")
+&amp;IF(LEN(X19)=0,"",","""&amp;X$1&amp;""":"&amp;X19)
+&amp;IF(LEN(Y19)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y19&amp;"""")
+&amp;IF(LEN(AA19)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA19&amp;"""")
+&amp;IF(LEN(AB19)=0,"",","""&amp;AB$1&amp;""":"&amp;AB19)
+&amp;IF(LEN(AC19)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC19&amp;"""")
+&amp;IF(LEN(AE19)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE19&amp;"""")
+&amp;IF(LEN(AF19)=0,"",","""&amp;AF$1&amp;""":"&amp;AF19)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -3675,124 +3991,145 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F20" t="b">
+      <c r="E20">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.99</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3900</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>82</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>955</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="23"/>
+      <c r="L20">
+        <f t="shared" si="24"/>
         <v>955</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>18</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>38</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>80</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X20" t="str">
+      <c r="U20" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB20" t="str">
+      <c r="Y20" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF20" t="str">
+      <c r="AC20" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG20" t="str">
+      <c r="AH20" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI20" t="str">
+      <c r="AJ20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AK20" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK20" t="str">
+      <c r="AL20" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL20" t="str">
+      <c r="AM20" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM20" t="str">
+      <c r="AN20" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN20" t="str">
+      <c r="AO20" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO20" t="str">
+      <c r="AP20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP20" t="str">
+      <c r="AQ20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ20" t="str">
+      <c r="AR20" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR20" t="str">
+      <c r="AS20" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS20" t="str">
+      <c r="AT20" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT20" t="str">
+      <c r="AU20" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU20" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV20" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW20" t="str">
+        <f>IF(G20=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C20&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K20
+&amp;IF(LEN(M20)=0,"",","""&amp;M$1&amp;""":"""&amp;M20&amp;"""")
+&amp;IF(LEN(O20)=0,"",","""&amp;O$1&amp;""":"""&amp;O20&amp;"""")
+&amp;IF(LEN(P20)=0,"",","""&amp;P$1&amp;""":"&amp;P20)
+&amp;IF(LEN(Q20)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q20&amp;"""")
+&amp;IF(LEN(S20)=0,"",","""&amp;S$1&amp;""":"""&amp;S20&amp;"""")
+&amp;IF(LEN(T20)=0,"",","""&amp;T$1&amp;""":"&amp;T20)
+&amp;IF(LEN(U20)=0,"",","""&amp;U$1&amp;""":"""&amp;U20&amp;"""")
+&amp;IF(LEN(W20)=0,"",","""&amp;W$1&amp;""":"""&amp;W20&amp;"""")
+&amp;IF(LEN(X20)=0,"",","""&amp;X$1&amp;""":"&amp;X20)
+&amp;IF(LEN(Y20)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y20&amp;"""")
+&amp;IF(LEN(AA20)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA20&amp;"""")
+&amp;IF(LEN(AB20)=0,"",","""&amp;AB$1&amp;""":"&amp;AB20)
+&amp;IF(LEN(AC20)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC20&amp;"""")
+&amp;IF(LEN(AE20)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE20&amp;"""")
+&amp;IF(LEN(AF20)=0,"",","""&amp;AF$1&amp;""":"&amp;AF20)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -3804,124 +4141,145 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F21" t="b">
+      <c r="E21">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3.99</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4900</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>83</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>375</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="23"/>
+      <c r="L21">
+        <f t="shared" si="24"/>
         <v>375</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>18</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>38</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>80</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X21" t="str">
+      <c r="U21" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB21" t="str">
+      <c r="Y21" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF21" t="str">
+      <c r="AC21" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG21" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG21" t="str">
+      <c r="AH21" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI21" t="str">
+      <c r="AJ21" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ21" t="str">
+      <c r="AK21" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK21" t="str">
+      <c r="AL21" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL21" t="str">
+      <c r="AM21" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM21" t="str">
+      <c r="AN21" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN21" t="str">
+      <c r="AO21" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO21" t="str">
+      <c r="AP21" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP21" t="str">
+      <c r="AQ21" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ21" t="str">
+      <c r="AR21" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR21" t="str">
+      <c r="AS21" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS21" t="str">
+      <c r="AT21" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT21" t="str">
+      <c r="AU21" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU21" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV21" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV21" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW21" t="str">
+        <f>IF(G21=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C21&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K21
+&amp;IF(LEN(M21)=0,"",","""&amp;M$1&amp;""":"""&amp;M21&amp;"""")
+&amp;IF(LEN(O21)=0,"",","""&amp;O$1&amp;""":"""&amp;O21&amp;"""")
+&amp;IF(LEN(P21)=0,"",","""&amp;P$1&amp;""":"&amp;P21)
+&amp;IF(LEN(Q21)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q21&amp;"""")
+&amp;IF(LEN(S21)=0,"",","""&amp;S$1&amp;""":"""&amp;S21&amp;"""")
+&amp;IF(LEN(T21)=0,"",","""&amp;T$1&amp;""":"&amp;T21)
+&amp;IF(LEN(U21)=0,"",","""&amp;U$1&amp;""":"""&amp;U21&amp;"""")
+&amp;IF(LEN(W21)=0,"",","""&amp;W$1&amp;""":"""&amp;W21&amp;"""")
+&amp;IF(LEN(X21)=0,"",","""&amp;X$1&amp;""":"&amp;X21)
+&amp;IF(LEN(Y21)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y21&amp;"""")
+&amp;IF(LEN(AA21)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA21&amp;"""")
+&amp;IF(LEN(AB21)=0,"",","""&amp;AB$1&amp;""":"&amp;AB21)
+&amp;IF(LEN(AC21)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC21&amp;"""")
+&amp;IF(LEN(AE21)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE21&amp;"""")
+&amp;IF(LEN(AF21)=0,"",","""&amp;AF$1&amp;""":"&amp;AF21)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -3933,124 +4291,145 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F22" t="b">
+      <c r="E22">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.99</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5900</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>970</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="23"/>
+      <c r="L22">
+        <f t="shared" si="24"/>
         <v>970</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>18</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>38</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>80</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X22" t="str">
+      <c r="U22" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB22" t="str">
+      <c r="Y22" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF22" t="str">
+      <c r="AC22" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG22" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG22" t="str">
+      <c r="AH22" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI22" t="str">
+      <c r="AJ22" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ22" t="str">
+      <c r="AK22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK22" t="str">
+      <c r="AL22" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL22" t="str">
+      <c r="AM22" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM22" t="str">
+      <c r="AN22" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN22" t="str">
+      <c r="AO22" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO22" t="str">
+      <c r="AP22" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP22" t="str">
+      <c r="AQ22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ22" t="str">
+      <c r="AR22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR22" t="str">
+      <c r="AS22" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS22" t="str">
+      <c r="AT22" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT22" t="str">
+      <c r="AU22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU22" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV22" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW22" t="str">
+        <f>IF(G22=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C22&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K22
+&amp;IF(LEN(M22)=0,"",","""&amp;M$1&amp;""":"""&amp;M22&amp;"""")
+&amp;IF(LEN(O22)=0,"",","""&amp;O$1&amp;""":"""&amp;O22&amp;"""")
+&amp;IF(LEN(P22)=0,"",","""&amp;P$1&amp;""":"&amp;P22)
+&amp;IF(LEN(Q22)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q22&amp;"""")
+&amp;IF(LEN(S22)=0,"",","""&amp;S$1&amp;""":"""&amp;S22&amp;"""")
+&amp;IF(LEN(T22)=0,"",","""&amp;T$1&amp;""":"&amp;T22)
+&amp;IF(LEN(U22)=0,"",","""&amp;U$1&amp;""":"""&amp;U22&amp;"""")
+&amp;IF(LEN(W22)=0,"",","""&amp;W$1&amp;""":"""&amp;W22&amp;"""")
+&amp;IF(LEN(X22)=0,"",","""&amp;X$1&amp;""":"&amp;X22)
+&amp;IF(LEN(Y22)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y22&amp;"""")
+&amp;IF(LEN(AA22)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA22&amp;"""")
+&amp;IF(LEN(AB22)=0,"",","""&amp;AB$1&amp;""":"&amp;AB22)
+&amp;IF(LEN(AC22)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC22&amp;"""")
+&amp;IF(LEN(AE22)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE22&amp;"""")
+&amp;IF(LEN(AF22)=0,"",","""&amp;AF$1&amp;""":"&amp;AF22)&amp;"}")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -4062,128 +4441,149 @@
         <f t="shared" si="22"/>
         <v>ev7</v>
       </c>
-      <c r="F23" t="b">
+      <c r="E23">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5.99</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>7500</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>85</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>506</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="23"/>
+      <c r="L23">
+        <f t="shared" si="24"/>
         <v>506</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>18</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>38</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>80</v>
       </c>
-      <c r="P23" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="T23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X23" t="str">
+      <c r="U23" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AB23" t="str">
+      <c r="Y23" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AF23" t="str">
+      <c r="AC23" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="AG23" t="str">
+      <c r="AH23" t="str">
         <f t="shared" si="7"/>
         <v>EN</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AJ23" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AK23" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AK23" t="str">
+      <c r="AL23" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL23" t="str">
+      <c r="AM23" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AM23" t="str">
+      <c r="AN23" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AN23" t="str">
+      <c r="AO23" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AO23" t="str">
+      <c r="AP23" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP23" t="str">
+      <c r="AQ23" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AQ23" t="str">
+      <c r="AR23" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AR23" t="str">
+      <c r="AS23" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AS23" t="str">
+      <c r="AT23" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AT23" t="str">
+      <c r="AU23" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AU23" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="AV23" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
-      <c r="AV23" t="str">
-        <f t="shared" si="34"/>
+      <c r="AW23" t="str">
+        <f>IF(G23=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C23&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K23
+&amp;IF(LEN(M23)=0,"",","""&amp;M$1&amp;""":"""&amp;M23&amp;"""")
+&amp;IF(LEN(O23)=0,"",","""&amp;O$1&amp;""":"""&amp;O23&amp;"""")
+&amp;IF(LEN(P23)=0,"",","""&amp;P$1&amp;""":"&amp;P23)
+&amp;IF(LEN(Q23)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q23&amp;"""")
+&amp;IF(LEN(S23)=0,"",","""&amp;S$1&amp;""":"""&amp;S23&amp;"""")
+&amp;IF(LEN(T23)=0,"",","""&amp;T$1&amp;""":"&amp;T23)
+&amp;IF(LEN(U23)=0,"",","""&amp;U$1&amp;""":"""&amp;U23&amp;"""")
+&amp;IF(LEN(W23)=0,"",","""&amp;W$1&amp;""":"""&amp;W23&amp;"""")
+&amp;IF(LEN(X23)=0,"",","""&amp;X$1&amp;""":"&amp;X23)
+&amp;IF(LEN(Y23)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y23&amp;"""")
+&amp;IF(LEN(AA23)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA23&amp;"""")
+&amp;IF(LEN(AB23)=0,"",","""&amp;AB$1&amp;""":"&amp;AB23)
+&amp;IF(LEN(AC23)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC23&amp;"""")
+&amp;IF(LEN(AE23)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE23&amp;"""")
+&amp;IF(LEN(AF23)=0,"",","""&amp;AF$1&amp;""":"&amp;AF23)&amp;"}")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U23 Y2:Y23 AC2:AC23 Q2:Q23 M2:M23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V23 Z2:Z23 AD2:AD23 R2:R23 N2:N23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4197,7 +4597,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8742E-C39F-4A5B-B136-012282367B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905D9DD-2B0D-4CAF-8093-D45E4A64C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,14 +380,6 @@
   </si>
   <si>
     <t>rewardCount5|Int</t>
-  </si>
-  <si>
-    <t>Cash_cDailyBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_cThickBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
@@ -940,10 +932,10 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -995,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -1019,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>21</v>
@@ -1142,7 +1134,7 @@
         <v>34</v>
       </c>
       <c r="BB1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -1318,7 +1310,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(AV1,COUNTA(AV:AV)-1,0),1)=",",SUBSTITUTE(OFFSET(AV1,COUNTA(AV:AV)-1,0),",","",1),OFFSET(AV1,COUNTA(AV:AV)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
+        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
       </c>
     </row>
     <row r="3" spans="1:54">
@@ -1475,7 +1467,7 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1487,7 +1479,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1502,7 +1494,7 @@
         <v>25000</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4">
         <v>548</v>
@@ -1515,43 +1507,61 @@
         <f t="shared" ref="M4:M13" ca="1" si="26">IF(ISBLANK(N4),"",
 VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="P4">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" ref="Q4:Q5" ca="1" si="27">IF(ISBLANK(R4),"",
 VLOOKUP(R4,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>80000</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U5" ca="1" si="28">IF(ISBLANK(V4),"",
 VLOOKUP(V4,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4">
+        <v>800</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y5" ca="1" si="29">IF(ISBLANK(Z4),"",
 VLOOKUP(Z4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4">
+        <v>100000</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" ref="AC4:AC5" ca="1" si="30">IF(ISBLANK(AD4),"",
@@ -1561,51 +1571,51 @@
       </c>
       <c r="AG4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="7"/>
-        <v>Cash_cDailyBox</v>
+        <v>EN</v>
       </c>
       <c r="AI4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="10"/>
-        <v>Cash_cThickBox</v>
+        <v>GO</v>
       </c>
       <c r="AL4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>80000</v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO4" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AO4">
         <f t="shared" si="14"/>
-        <v/>
+        <v>800</v>
       </c>
       <c r="AP4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AQ4" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AR4" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AR4">
         <f t="shared" si="17"/>
-        <v/>
+        <v>100000</v>
       </c>
       <c r="AS4" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -1630,7 +1640,7 @@
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1642,7 +1652,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1665,18 +1675,36 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P5">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>500</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="V5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5">
+        <v>70000</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -1692,35 +1720,35 @@
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="7"/>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="AI5">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL5" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="11"/>
-        <v/>
+        <v>500</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO5" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="14"/>
-        <v/>
+        <v>70000</v>
       </c>
       <c r="AP5" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -1748,10 +1776,10 @@
       </c>
       <c r="AV5" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
       <c r="AW5" t="str">
-        <f ca="1">IF(G5=FALSE,"",
+        <f t="shared" ref="AW5:AW23" ca="1" si="31">IF(G5=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C5&amp;""""
 &amp;","""&amp;K$1&amp;""":"&amp;K5
 &amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
@@ -1769,12 +1797,12 @@
 &amp;IF(LEN(AC5)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC5&amp;"""")
 &amp;IF(LEN(AE5)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE5&amp;"""")
 &amp;IF(LEN(AF5)=0,"",","""&amp;AF$1&amp;""":"&amp;AF5)&amp;"}")</f>
-        <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300}</v>
+        <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1786,7 +1814,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1812,28 +1840,55 @@
         <v>38</v>
       </c>
       <c r="P6">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q23" ca="1" si="31">IF(ISBLANK(R6),"",
+        <f t="shared" ref="Q6:Q23" ca="1" si="32">IF(ISBLANK(R6),"",
 VLOOKUP(R6,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6">
+        <v>60000</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U23" ca="1" si="32">IF(ISBLANK(V6),"",
+        <f t="shared" ref="U6:U23" ca="1" si="33">IF(ISBLANK(V6),"",
 VLOOKUP(V6,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="V6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6">
+        <v>90000</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" ref="Y6:Y23" ca="1" si="33">IF(ISBLANK(Z6),"",
+        <f t="shared" ref="Y6:Y23" ca="1" si="34">IF(ISBLANK(Z6),"",
 VLOOKUP(Z6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6">
+        <v>650</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" ref="AC6:AC23" ca="1" si="34">IF(ISBLANK(AD6),"",
+        <f t="shared" ref="AC6:AC23" ca="1" si="35">IF(ISBLANK(AD6),"",
 VLOOKUP(AD6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -1848,43 +1903,43 @@
       </c>
       <c r="AI6">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL6" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="11"/>
-        <v/>
+        <v>60000</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO6" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AO6">
         <f t="shared" si="14"/>
-        <v/>
+        <v>90000</v>
       </c>
       <c r="AP6" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AQ6" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AR6" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AR6">
         <f t="shared" si="17"/>
-        <v/>
+        <v>650</v>
       </c>
       <c r="AS6" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -1900,36 +1955,19 @@
       </c>
       <c r="AV6" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW6" t="str">
-        <f ca="1">IF(G6=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C6&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K6
-&amp;IF(LEN(M6)=0,"",","""&amp;M$1&amp;""":"""&amp;M6&amp;"""")
-&amp;IF(LEN(O6)=0,"",","""&amp;O$1&amp;""":"""&amp;O6&amp;"""")
-&amp;IF(LEN(P6)=0,"",","""&amp;P$1&amp;""":"&amp;P6)
-&amp;IF(LEN(Q6)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q6&amp;"""")
-&amp;IF(LEN(S6)=0,"",","""&amp;S$1&amp;""":"""&amp;S6&amp;"""")
-&amp;IF(LEN(T6)=0,"",","""&amp;T$1&amp;""":"&amp;T6)
-&amp;IF(LEN(U6)=0,"",","""&amp;U$1&amp;""":"""&amp;U6&amp;"""")
-&amp;IF(LEN(W6)=0,"",","""&amp;W$1&amp;""":"""&amp;W6&amp;"""")
-&amp;IF(LEN(X6)=0,"",","""&amp;X$1&amp;""":"&amp;X6)
-&amp;IF(LEN(Y6)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y6&amp;"""")
-&amp;IF(LEN(AA6)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA6&amp;"""")
-&amp;IF(LEN(AB6)=0,"",","""&amp;AB$1&amp;""":"&amp;AB6)
-&amp;IF(LEN(AC6)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC6&amp;"""")
-&amp;IF(LEN(AE6)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE6&amp;"""")
-&amp;IF(LEN(AF6)=0,"",","""&amp;AF$1&amp;""":"&amp;AF6)&amp;"}")</f>
-        <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C9" si="35">A7</f>
+        <f t="shared" ref="C7:C9" si="36">A7</f>
         <v>ev3_oneofthree_1</v>
       </c>
       <c r="D7" t="str">
@@ -1950,7 +1988,7 @@
         <v>19000</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>876</v>
@@ -1960,7 +1998,7 @@
         <v>876</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M7:M9" ca="1" si="36">IF(ISBLANK(N7),"",
+        <f t="shared" ref="M7:M9" ca="1" si="37">IF(ISBLANK(N7),"",
 VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1969,13 +2007,13 @@
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>30</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q9" ca="1" si="37">IF(ISBLANK(R7),"",
+        <f t="shared" ref="Q7:Q9" ca="1" si="38">IF(ISBLANK(R7),"",
 VLOOKUP(R7,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1990,7 +2028,7 @@
         <v>25000</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U7:U9" ca="1" si="38">IF(ISBLANK(V7),"",
+        <f t="shared" ref="U7:U9" ca="1" si="39">IF(ISBLANK(V7),"",
 VLOOKUP(V7,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1999,115 +2037,98 @@
         <v>18</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X7">
         <v>100</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" ref="Y7:Y9" ca="1" si="39">IF(ISBLANK(Z7),"",
+        <f t="shared" ref="Y7:Y9" ca="1" si="40">IF(ISBLANK(Z7),"",
 VLOOKUP(Z7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" ref="AC7:AC9" ca="1" si="40">IF(ISBLANK(AD7),"",
+        <f t="shared" ref="AC7:AC9" ca="1" si="41">IF(ISBLANK(AD7),"",
 VLOOKUP(AD7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AG9" ca="1" si="41">IF(LEN(M7)=0,"",M7)</f>
+        <f t="shared" ref="AG7:AG9" ca="1" si="42">IF(LEN(M7)=0,"",M7)</f>
         <v>cu</v>
       </c>
       <c r="AH7" t="str">
-        <f t="shared" ref="AH7:AH9" si="42">IF(LEN(O7)=0,"",O7)</f>
+        <f t="shared" ref="AH7:AH9" si="43">IF(LEN(O7)=0,"",O7)</f>
         <v>EN</v>
       </c>
       <c r="AI7">
-        <f t="shared" ref="AI7:AI9" si="43">IF(LEN(P7)=0,"",P7)</f>
+        <f t="shared" ref="AI7:AI9" si="44">IF(LEN(P7)=0,"",P7)</f>
         <v>30</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AJ9" ca="1" si="44">IF(LEN(Q7)=0,"",Q7)</f>
+        <f t="shared" ref="AJ7:AJ9" ca="1" si="45">IF(LEN(Q7)=0,"",Q7)</f>
         <v>cu</v>
       </c>
       <c r="AK7" t="str">
-        <f t="shared" ref="AK7:AK9" si="45">IF(LEN(S7)=0,"",S7)</f>
+        <f t="shared" ref="AK7:AK9" si="46">IF(LEN(S7)=0,"",S7)</f>
         <v>GO</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AL9" si="46">IF(LEN(T7)=0,"",T7)</f>
+        <f t="shared" ref="AL7:AL9" si="47">IF(LEN(T7)=0,"",T7)</f>
         <v>25000</v>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AM9" ca="1" si="47">IF(LEN(U7)=0,"",U7)</f>
+        <f t="shared" ref="AM7:AM9" ca="1" si="48">IF(LEN(U7)=0,"",U7)</f>
         <v>cu</v>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" ref="AN7:AN9" si="48">IF(LEN(W7)=0,"",W7)</f>
+        <f t="shared" ref="AN7:AN9" si="49">IF(LEN(W7)=0,"",W7)</f>
         <v>EN</v>
       </c>
       <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="49">IF(LEN(X7)=0,"",X7)</f>
+        <f t="shared" ref="AO7:AO9" si="50">IF(LEN(X7)=0,"",X7)</f>
         <v>100</v>
       </c>
       <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AP9" ca="1" si="50">IF(LEN(Y7)=0,"",Y7)</f>
+        <f t="shared" ref="AP7:AP9" ca="1" si="51">IF(LEN(Y7)=0,"",Y7)</f>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" si="51">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" ref="AQ7:AQ9" si="52">IF(LEN(AA7)=0,"",AA7)</f>
         <v/>
       </c>
       <c r="AR7" t="str">
-        <f t="shared" ref="AR7:AR9" si="52">IF(LEN(AB7)=0,"",AB7)</f>
+        <f t="shared" ref="AR7:AR9" si="53">IF(LEN(AB7)=0,"",AB7)</f>
         <v/>
       </c>
       <c r="AS7" t="str">
-        <f t="shared" ref="AS7:AS9" ca="1" si="53">IF(LEN(AC7)=0,"",AC7)</f>
+        <f t="shared" ref="AS7:AS9" ca="1" si="54">IF(LEN(AC7)=0,"",AC7)</f>
         <v/>
       </c>
       <c r="AT7" t="str">
-        <f t="shared" ref="AT7:AT9" si="54">IF(LEN(AE7)=0,"",AE7)</f>
+        <f t="shared" ref="AT7:AT9" si="55">IF(LEN(AE7)=0,"",AE7)</f>
         <v/>
       </c>
       <c r="AU7" t="str">
-        <f t="shared" ref="AU7:AU9" si="55">IF(LEN(AF7)=0,"",AF7)</f>
+        <f t="shared" ref="AU7:AU9" si="56">IF(LEN(AF7)=0,"",AF7)</f>
         <v/>
       </c>
       <c r="AV7" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW7" t="str">
-        <f>IF(G7=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C7&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K7
-&amp;IF(LEN(M7)=0,"",","""&amp;M$1&amp;""":"""&amp;M7&amp;"""")
-&amp;IF(LEN(O7)=0,"",","""&amp;O$1&amp;""":"""&amp;O7&amp;"""")
-&amp;IF(LEN(P7)=0,"",","""&amp;P$1&amp;""":"&amp;P7)
-&amp;IF(LEN(Q7)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q7&amp;"""")
-&amp;IF(LEN(S7)=0,"",","""&amp;S$1&amp;""":"""&amp;S7&amp;"""")
-&amp;IF(LEN(T7)=0,"",","""&amp;T$1&amp;""":"&amp;T7)
-&amp;IF(LEN(U7)=0,"",","""&amp;U$1&amp;""":"""&amp;U7&amp;"""")
-&amp;IF(LEN(W7)=0,"",","""&amp;W$1&amp;""":"""&amp;W7&amp;"""")
-&amp;IF(LEN(X7)=0,"",","""&amp;X$1&amp;""":"&amp;X7)
-&amp;IF(LEN(Y7)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y7&amp;"""")
-&amp;IF(LEN(AA7)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA7&amp;"""")
-&amp;IF(LEN(AB7)=0,"",","""&amp;AB$1&amp;""":"&amp;AB7)
-&amp;IF(LEN(AC7)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC7&amp;"""")
-&amp;IF(LEN(AE7)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE7&amp;"""")
-&amp;IF(LEN(AF7)=0,"",","""&amp;AF$1&amp;""":"&amp;AF7)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>ev3_oneofthree_2</v>
       </c>
       <c r="D8" t="str">
@@ -2128,7 +2149,7 @@
         <v>39000</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>973</v>
@@ -2138,20 +2159,20 @@
         <v>973</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P8">
         <v>60</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>cu</v>
       </c>
       <c r="R8" t="s">
@@ -2164,118 +2185,101 @@
         <v>15000</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>cu</v>
       </c>
       <c r="V8" t="s">
         <v>18</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X8">
         <v>120</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>cu</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>EN</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>60</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="45"/>
         <v>cu</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>GO</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>15000</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>cu</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>EN</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>120</v>
       </c>
       <c r="AP8" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="AR8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="AS8" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AT8" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AU8" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AV8" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW8" t="str">
-        <f>IF(G8=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C8&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K8
-&amp;IF(LEN(M8)=0,"",","""&amp;M$1&amp;""":"""&amp;M8&amp;"""")
-&amp;IF(LEN(O8)=0,"",","""&amp;O$1&amp;""":"""&amp;O8&amp;"""")
-&amp;IF(LEN(P8)=0,"",","""&amp;P$1&amp;""":"&amp;P8)
-&amp;IF(LEN(Q8)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q8&amp;"""")
-&amp;IF(LEN(S8)=0,"",","""&amp;S$1&amp;""":"""&amp;S8&amp;"""")
-&amp;IF(LEN(T8)=0,"",","""&amp;T$1&amp;""":"&amp;T8)
-&amp;IF(LEN(U8)=0,"",","""&amp;U$1&amp;""":"""&amp;U8&amp;"""")
-&amp;IF(LEN(W8)=0,"",","""&amp;W$1&amp;""":"""&amp;W8&amp;"""")
-&amp;IF(LEN(X8)=0,"",","""&amp;X$1&amp;""":"&amp;X8)
-&amp;IF(LEN(Y8)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y8&amp;"""")
-&amp;IF(LEN(AA8)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA8&amp;"""")
-&amp;IF(LEN(AB8)=0,"",","""&amp;AB$1&amp;""":"&amp;AB8)
-&amp;IF(LEN(AC8)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC8&amp;"""")
-&amp;IF(LEN(AE8)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE8&amp;"""")
-&amp;IF(LEN(AF8)=0,"",","""&amp;AF$1&amp;""":"&amp;AF8)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>ev3_oneofthree_3</v>
       </c>
       <c r="D9" t="str">
@@ -2296,7 +2300,7 @@
         <v>69000</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9">
         <v>180</v>
@@ -2306,20 +2310,20 @@
         <v>180</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="N9" t="s">
         <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <v>90</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>cu</v>
       </c>
       <c r="R9" t="s">
@@ -2332,124 +2336,107 @@
         <v>30000</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>cu</v>
       </c>
       <c r="V9" t="s">
         <v>18</v>
       </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X9">
         <v>150</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="Z9" t="s">
         <v>18</v>
       </c>
       <c r="AA9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB9">
         <v>300</v>
       </c>
       <c r="AC9" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>cu</v>
       </c>
       <c r="AH9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>EN</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>90</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="45"/>
         <v>cu</v>
       </c>
       <c r="AK9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>GO</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>30000</v>
       </c>
       <c r="AM9" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>cu</v>
       </c>
       <c r="AN9" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>EN</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>150</v>
       </c>
       <c r="AP9" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="AQ9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>EN</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>300</v>
       </c>
       <c r="AS9" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AT9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AU9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AV9" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW9" t="str">
-        <f>IF(G9=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C9&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K9
-&amp;IF(LEN(M9)=0,"",","""&amp;M$1&amp;""":"""&amp;M9&amp;"""")
-&amp;IF(LEN(O9)=0,"",","""&amp;O$1&amp;""":"""&amp;O9&amp;"""")
-&amp;IF(LEN(P9)=0,"",","""&amp;P$1&amp;""":"&amp;P9)
-&amp;IF(LEN(Q9)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q9&amp;"""")
-&amp;IF(LEN(S9)=0,"",","""&amp;S$1&amp;""":"""&amp;S9&amp;"""")
-&amp;IF(LEN(T9)=0,"",","""&amp;T$1&amp;""":"&amp;T9)
-&amp;IF(LEN(U9)=0,"",","""&amp;U$1&amp;""":"""&amp;U9&amp;"""")
-&amp;IF(LEN(W9)=0,"",","""&amp;W$1&amp;""":"""&amp;W9&amp;"""")
-&amp;IF(LEN(X9)=0,"",","""&amp;X$1&amp;""":"&amp;X9)
-&amp;IF(LEN(Y9)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y9&amp;"""")
-&amp;IF(LEN(AA9)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA9&amp;"""")
-&amp;IF(LEN(AB9)=0,"",","""&amp;AB$1&amp;""":"&amp;AB9)
-&amp;IF(LEN(AC9)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC9&amp;"""")
-&amp;IF(LEN(AE9)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE9&amp;"""")
-&amp;IF(LEN(AF9)=0,"",","""&amp;AF$1&amp;""":"&amp;AF9)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2490,7 +2477,7 @@
         <v>80</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="R10" t="s">
@@ -2503,24 +2490,24 @@
         <v>35000</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>cu</v>
       </c>
       <c r="V10" t="s">
         <v>18</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X10">
         <v>170</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC10" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG10" t="str">
@@ -2585,33 +2572,16 @@
       </c>
       <c r="AV10" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="AW10" t="str">
-        <f ca="1">IF(G10=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C10&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K10
-&amp;IF(LEN(M10)=0,"",","""&amp;M$1&amp;""":"""&amp;M10&amp;"""")
-&amp;IF(LEN(O10)=0,"",","""&amp;O$1&amp;""":"""&amp;O10&amp;"""")
-&amp;IF(LEN(P10)=0,"",","""&amp;P$1&amp;""":"&amp;P10)
-&amp;IF(LEN(Q10)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q10&amp;"""")
-&amp;IF(LEN(S10)=0,"",","""&amp;S$1&amp;""":"""&amp;S10&amp;"""")
-&amp;IF(LEN(T10)=0,"",","""&amp;T$1&amp;""":"&amp;T10)
-&amp;IF(LEN(U10)=0,"",","""&amp;U$1&amp;""":"""&amp;U10&amp;"""")
-&amp;IF(LEN(W10)=0,"",","""&amp;W$1&amp;""":"""&amp;W10&amp;"""")
-&amp;IF(LEN(X10)=0,"",","""&amp;X$1&amp;""":"&amp;X10)
-&amp;IF(LEN(Y10)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y10&amp;"""")
-&amp;IF(LEN(AA10)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA10&amp;"""")
-&amp;IF(LEN(AB10)=0,"",","""&amp;AB$1&amp;""":"&amp;AB10)
-&amp;IF(LEN(AC10)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC10&amp;"""")
-&amp;IF(LEN(AE10)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE10&amp;"""")
-&amp;IF(LEN(AF10)=0,"",","""&amp;AF$1&amp;""":"&amp;AF10)&amp;"}")</f>
+        <f t="shared" ca="1" si="31"/>
         <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -2652,19 +2622,19 @@
         <v>150</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG11" t="str">
@@ -2729,33 +2699,16 @@
       </c>
       <c r="AV11" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AW11" t="str">
-        <f ca="1">IF(G11=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C11&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K11
-&amp;IF(LEN(M11)=0,"",","""&amp;M$1&amp;""":"""&amp;M11&amp;"""")
-&amp;IF(LEN(O11)=0,"",","""&amp;O$1&amp;""":"""&amp;O11&amp;"""")
-&amp;IF(LEN(P11)=0,"",","""&amp;P$1&amp;""":"&amp;P11)
-&amp;IF(LEN(Q11)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q11&amp;"""")
-&amp;IF(LEN(S11)=0,"",","""&amp;S$1&amp;""":"""&amp;S11&amp;"""")
-&amp;IF(LEN(T11)=0,"",","""&amp;T$1&amp;""":"&amp;T11)
-&amp;IF(LEN(U11)=0,"",","""&amp;U$1&amp;""":"""&amp;U11&amp;"""")
-&amp;IF(LEN(W11)=0,"",","""&amp;W$1&amp;""":"""&amp;W11&amp;"""")
-&amp;IF(LEN(X11)=0,"",","""&amp;X$1&amp;""":"&amp;X11)
-&amp;IF(LEN(Y11)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y11&amp;"""")
-&amp;IF(LEN(AA11)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA11&amp;"""")
-&amp;IF(LEN(AB11)=0,"",","""&amp;AB$1&amp;""":"&amp;AB11)
-&amp;IF(LEN(AC11)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC11&amp;"""")
-&amp;IF(LEN(AE11)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE11&amp;"""")
-&amp;IF(LEN(AF11)=0,"",","""&amp;AF$1&amp;""":"&amp;AF11)&amp;"}")</f>
+        <f t="shared" ca="1" si="31"/>
         <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2782,7 +2735,7 @@
         <v>2500</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K12">
         <v>217</v>
@@ -2805,7 +2758,7 @@
         <v>20000</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="R12" t="s">
@@ -2818,7 +2771,7 @@
         <v>150</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>cu</v>
       </c>
       <c r="V12" t="s">
@@ -2831,7 +2784,7 @@
         <v>35000</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>cu</v>
       </c>
       <c r="Z12" t="s">
@@ -2844,7 +2797,7 @@
         <v>200</v>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG12" t="str">
@@ -2909,33 +2862,16 @@
       </c>
       <c r="AV12" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AW12" t="str">
-        <f>IF(G12=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C12&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K12
-&amp;IF(LEN(M12)=0,"",","""&amp;M$1&amp;""":"""&amp;M12&amp;"""")
-&amp;IF(LEN(O12)=0,"",","""&amp;O$1&amp;""":"""&amp;O12&amp;"""")
-&amp;IF(LEN(P12)=0,"",","""&amp;P$1&amp;""":"&amp;P12)
-&amp;IF(LEN(Q12)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q12&amp;"""")
-&amp;IF(LEN(S12)=0,"",","""&amp;S$1&amp;""":"""&amp;S12&amp;"""")
-&amp;IF(LEN(T12)=0,"",","""&amp;T$1&amp;""":"&amp;T12)
-&amp;IF(LEN(U12)=0,"",","""&amp;U$1&amp;""":"""&amp;U12&amp;"""")
-&amp;IF(LEN(W12)=0,"",","""&amp;W$1&amp;""":"""&amp;W12&amp;"""")
-&amp;IF(LEN(X12)=0,"",","""&amp;X$1&amp;""":"&amp;X12)
-&amp;IF(LEN(Y12)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y12&amp;"""")
-&amp;IF(LEN(AA12)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA12&amp;"""")
-&amp;IF(LEN(AB12)=0,"",","""&amp;AB$1&amp;""":"&amp;AB12)
-&amp;IF(LEN(AC12)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC12&amp;"""")
-&amp;IF(LEN(AE12)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE12&amp;"""")
-&amp;IF(LEN(AF12)=0,"",","""&amp;AF$1&amp;""":"&amp;AF12)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2976,7 +2912,7 @@
         <v>150</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="R13" t="s">
@@ -2989,15 +2925,15 @@
         <v>20000</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG13" t="str">
@@ -3062,33 +2998,16 @@
       </c>
       <c r="AV13" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW13" t="str">
-        <f ca="1">IF(G13=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C13&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K13
-&amp;IF(LEN(M13)=0,"",","""&amp;M$1&amp;""":"""&amp;M13&amp;"""")
-&amp;IF(LEN(O13)=0,"",","""&amp;O$1&amp;""":"""&amp;O13&amp;"""")
-&amp;IF(LEN(P13)=0,"",","""&amp;P$1&amp;""":"&amp;P13)
-&amp;IF(LEN(Q13)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q13&amp;"""")
-&amp;IF(LEN(S13)=0,"",","""&amp;S$1&amp;""":"""&amp;S13&amp;"""")
-&amp;IF(LEN(T13)=0,"",","""&amp;T$1&amp;""":"&amp;T13)
-&amp;IF(LEN(U13)=0,"",","""&amp;U$1&amp;""":"""&amp;U13&amp;"""")
-&amp;IF(LEN(W13)=0,"",","""&amp;W$1&amp;""":"""&amp;W13&amp;"""")
-&amp;IF(LEN(X13)=0,"",","""&amp;X$1&amp;""":"&amp;X13)
-&amp;IF(LEN(Y13)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y13&amp;"""")
-&amp;IF(LEN(AA13)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA13&amp;"""")
-&amp;IF(LEN(AB13)=0,"",","""&amp;AB$1&amp;""":"&amp;AB13)
-&amp;IF(LEN(AC13)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC13&amp;"""")
-&amp;IF(LEN(AE13)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE13&amp;"""")
-&amp;IF(LEN(AF13)=0,"",","""&amp;AF$1&amp;""":"&amp;AF13)&amp;"}")</f>
+        <f t="shared" ca="1" si="31"/>
         <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3112,7 +3031,7 @@
         <v>1200</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14">
         <v>712</v>
@@ -3122,7 +3041,7 @@
         <v>712</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M23" ca="1" si="56">IF(ISBLANK(N14),"",
+        <f t="shared" ref="M14:M23" ca="1" si="57">IF(ISBLANK(N14),"",
 VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3137,19 +3056,19 @@
         <v>80</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG14" t="str">
@@ -3214,33 +3133,16 @@
       </c>
       <c r="AV14" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW14" t="str">
-        <f>IF(G14=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C14&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K14
-&amp;IF(LEN(M14)=0,"",","""&amp;M$1&amp;""":"""&amp;M14&amp;"""")
-&amp;IF(LEN(O14)=0,"",","""&amp;O$1&amp;""":"""&amp;O14&amp;"""")
-&amp;IF(LEN(P14)=0,"",","""&amp;P$1&amp;""":"&amp;P14)
-&amp;IF(LEN(Q14)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q14&amp;"""")
-&amp;IF(LEN(S14)=0,"",","""&amp;S$1&amp;""":"""&amp;S14&amp;"""")
-&amp;IF(LEN(T14)=0,"",","""&amp;T$1&amp;""":"&amp;T14)
-&amp;IF(LEN(U14)=0,"",","""&amp;U$1&amp;""":"""&amp;U14&amp;"""")
-&amp;IF(LEN(W14)=0,"",","""&amp;W$1&amp;""":"""&amp;W14&amp;"""")
-&amp;IF(LEN(X14)=0,"",","""&amp;X$1&amp;""":"&amp;X14)
-&amp;IF(LEN(Y14)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y14&amp;"""")
-&amp;IF(LEN(AA14)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA14&amp;"""")
-&amp;IF(LEN(AB14)=0,"",","""&amp;AB$1&amp;""":"&amp;AB14)
-&amp;IF(LEN(AC14)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC14&amp;"""")
-&amp;IF(LEN(AE14)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE14&amp;"""")
-&amp;IF(LEN(AF14)=0,"",","""&amp;AF$1&amp;""":"&amp;AF14)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3264,7 +3166,7 @@
         <v>2500</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K15">
         <v>268</v>
@@ -3274,7 +3176,7 @@
         <v>268</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N15" t="s">
@@ -3287,19 +3189,19 @@
         <v>80</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG15" t="str">
@@ -3364,33 +3266,16 @@
       </c>
       <c r="AV15" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW15" t="str">
-        <f>IF(G15=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C15&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K15
-&amp;IF(LEN(M15)=0,"",","""&amp;M$1&amp;""":"""&amp;M15&amp;"""")
-&amp;IF(LEN(O15)=0,"",","""&amp;O$1&amp;""":"""&amp;O15&amp;"""")
-&amp;IF(LEN(P15)=0,"",","""&amp;P$1&amp;""":"&amp;P15)
-&amp;IF(LEN(Q15)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q15&amp;"""")
-&amp;IF(LEN(S15)=0,"",","""&amp;S$1&amp;""":"""&amp;S15&amp;"""")
-&amp;IF(LEN(T15)=0,"",","""&amp;T$1&amp;""":"&amp;T15)
-&amp;IF(LEN(U15)=0,"",","""&amp;U$1&amp;""":"""&amp;U15&amp;"""")
-&amp;IF(LEN(W15)=0,"",","""&amp;W$1&amp;""":"""&amp;W15&amp;"""")
-&amp;IF(LEN(X15)=0,"",","""&amp;X$1&amp;""":"&amp;X15)
-&amp;IF(LEN(Y15)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y15&amp;"""")
-&amp;IF(LEN(AA15)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA15&amp;"""")
-&amp;IF(LEN(AB15)=0,"",","""&amp;AB$1&amp;""":"&amp;AB15)
-&amp;IF(LEN(AC15)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC15&amp;"""")
-&amp;IF(LEN(AE15)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE15&amp;"""")
-&amp;IF(LEN(AF15)=0,"",","""&amp;AF$1&amp;""":"&amp;AF15)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3299,7 @@
         <v>3900</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16">
         <v>851</v>
@@ -3424,7 +3309,7 @@
         <v>851</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N16" t="s">
@@ -3437,19 +3322,19 @@
         <v>80</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U16" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG16" t="str">
@@ -3514,33 +3399,16 @@
       </c>
       <c r="AV16" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW16" t="str">
-        <f>IF(G16=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C16&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K16
-&amp;IF(LEN(M16)=0,"",","""&amp;M$1&amp;""":"""&amp;M16&amp;"""")
-&amp;IF(LEN(O16)=0,"",","""&amp;O$1&amp;""":"""&amp;O16&amp;"""")
-&amp;IF(LEN(P16)=0,"",","""&amp;P$1&amp;""":"&amp;P16)
-&amp;IF(LEN(Q16)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q16&amp;"""")
-&amp;IF(LEN(S16)=0,"",","""&amp;S$1&amp;""":"""&amp;S16&amp;"""")
-&amp;IF(LEN(T16)=0,"",","""&amp;T$1&amp;""":"&amp;T16)
-&amp;IF(LEN(U16)=0,"",","""&amp;U$1&amp;""":"""&amp;U16&amp;"""")
-&amp;IF(LEN(W16)=0,"",","""&amp;W$1&amp;""":"""&amp;W16&amp;"""")
-&amp;IF(LEN(X16)=0,"",","""&amp;X$1&amp;""":"&amp;X16)
-&amp;IF(LEN(Y16)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y16&amp;"""")
-&amp;IF(LEN(AA16)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA16&amp;"""")
-&amp;IF(LEN(AB16)=0,"",","""&amp;AB$1&amp;""":"&amp;AB16)
-&amp;IF(LEN(AC16)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC16&amp;"""")
-&amp;IF(LEN(AE16)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE16&amp;"""")
-&amp;IF(LEN(AF16)=0,"",","""&amp;AF$1&amp;""":"&amp;AF16)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3564,7 +3432,7 @@
         <v>4900</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17">
         <v>532</v>
@@ -3574,7 +3442,7 @@
         <v>532</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N17" t="s">
@@ -3587,19 +3455,19 @@
         <v>80</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG17" t="str">
@@ -3664,33 +3532,16 @@
       </c>
       <c r="AV17" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW17" t="str">
-        <f>IF(G17=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C17&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K17
-&amp;IF(LEN(M17)=0,"",","""&amp;M$1&amp;""":"""&amp;M17&amp;"""")
-&amp;IF(LEN(O17)=0,"",","""&amp;O$1&amp;""":"""&amp;O17&amp;"""")
-&amp;IF(LEN(P17)=0,"",","""&amp;P$1&amp;""":"&amp;P17)
-&amp;IF(LEN(Q17)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q17&amp;"""")
-&amp;IF(LEN(S17)=0,"",","""&amp;S$1&amp;""":"""&amp;S17&amp;"""")
-&amp;IF(LEN(T17)=0,"",","""&amp;T$1&amp;""":"&amp;T17)
-&amp;IF(LEN(U17)=0,"",","""&amp;U$1&amp;""":"""&amp;U17&amp;"""")
-&amp;IF(LEN(W17)=0,"",","""&amp;W$1&amp;""":"""&amp;W17&amp;"""")
-&amp;IF(LEN(X17)=0,"",","""&amp;X$1&amp;""":"&amp;X17)
-&amp;IF(LEN(Y17)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y17&amp;"""")
-&amp;IF(LEN(AA17)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA17&amp;"""")
-&amp;IF(LEN(AB17)=0,"",","""&amp;AB$1&amp;""":"&amp;AB17)
-&amp;IF(LEN(AC17)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC17&amp;"""")
-&amp;IF(LEN(AE17)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE17&amp;"""")
-&amp;IF(LEN(AF17)=0,"",","""&amp;AF$1&amp;""":"&amp;AF17)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3715,7 +3566,7 @@
         <v>444</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N18" t="s">
@@ -3728,19 +3579,19 @@
         <v>80</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U18" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG18" t="str">
@@ -3805,33 +3656,16 @@
       </c>
       <c r="AV18" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW18" t="str">
-        <f ca="1">IF(G18=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C18&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K18
-&amp;IF(LEN(M18)=0,"",","""&amp;M$1&amp;""":"""&amp;M18&amp;"""")
-&amp;IF(LEN(O18)=0,"",","""&amp;O$1&amp;""":"""&amp;O18&amp;"""")
-&amp;IF(LEN(P18)=0,"",","""&amp;P$1&amp;""":"&amp;P18)
-&amp;IF(LEN(Q18)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q18&amp;"""")
-&amp;IF(LEN(S18)=0,"",","""&amp;S$1&amp;""":"""&amp;S18&amp;"""")
-&amp;IF(LEN(T18)=0,"",","""&amp;T$1&amp;""":"&amp;T18)
-&amp;IF(LEN(U18)=0,"",","""&amp;U$1&amp;""":"""&amp;U18&amp;"""")
-&amp;IF(LEN(W18)=0,"",","""&amp;W$1&amp;""":"""&amp;W18&amp;"""")
-&amp;IF(LEN(X18)=0,"",","""&amp;X$1&amp;""":"&amp;X18)
-&amp;IF(LEN(Y18)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y18&amp;"""")
-&amp;IF(LEN(AA18)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA18&amp;"""")
-&amp;IF(LEN(AB18)=0,"",","""&amp;AB$1&amp;""":"&amp;AB18)
-&amp;IF(LEN(AC18)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC18&amp;"""")
-&amp;IF(LEN(AE18)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE18&amp;"""")
-&amp;IF(LEN(AF18)=0,"",","""&amp;AF$1&amp;""":"&amp;AF18)&amp;"}")</f>
+        <f t="shared" ca="1" si="31"/>
         <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3855,7 +3689,7 @@
         <v>2500</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K19">
         <v>833</v>
@@ -3865,7 +3699,7 @@
         <v>833</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N19" t="s">
@@ -3878,19 +3712,19 @@
         <v>80</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG19" t="str">
@@ -3955,33 +3789,16 @@
       </c>
       <c r="AV19" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW19" t="str">
-        <f>IF(G19=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C19&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K19
-&amp;IF(LEN(M19)=0,"",","""&amp;M$1&amp;""":"""&amp;M19&amp;"""")
-&amp;IF(LEN(O19)=0,"",","""&amp;O$1&amp;""":"""&amp;O19&amp;"""")
-&amp;IF(LEN(P19)=0,"",","""&amp;P$1&amp;""":"&amp;P19)
-&amp;IF(LEN(Q19)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q19&amp;"""")
-&amp;IF(LEN(S19)=0,"",","""&amp;S$1&amp;""":"""&amp;S19&amp;"""")
-&amp;IF(LEN(T19)=0,"",","""&amp;T$1&amp;""":"&amp;T19)
-&amp;IF(LEN(U19)=0,"",","""&amp;U$1&amp;""":"""&amp;U19&amp;"""")
-&amp;IF(LEN(W19)=0,"",","""&amp;W$1&amp;""":"""&amp;W19&amp;"""")
-&amp;IF(LEN(X19)=0,"",","""&amp;X$1&amp;""":"&amp;X19)
-&amp;IF(LEN(Y19)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y19&amp;"""")
-&amp;IF(LEN(AA19)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA19&amp;"""")
-&amp;IF(LEN(AB19)=0,"",","""&amp;AB$1&amp;""":"&amp;AB19)
-&amp;IF(LEN(AC19)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC19&amp;"""")
-&amp;IF(LEN(AE19)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE19&amp;"""")
-&amp;IF(LEN(AF19)=0,"",","""&amp;AF$1&amp;""":"&amp;AF19)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -4005,7 +3822,7 @@
         <v>3900</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20">
         <v>955</v>
@@ -4015,7 +3832,7 @@
         <v>955</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N20" t="s">
@@ -4028,19 +3845,19 @@
         <v>80</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U20" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG20" t="str">
@@ -4105,33 +3922,16 @@
       </c>
       <c r="AV20" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW20" t="str">
-        <f>IF(G20=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C20&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K20
-&amp;IF(LEN(M20)=0,"",","""&amp;M$1&amp;""":"""&amp;M20&amp;"""")
-&amp;IF(LEN(O20)=0,"",","""&amp;O$1&amp;""":"""&amp;O20&amp;"""")
-&amp;IF(LEN(P20)=0,"",","""&amp;P$1&amp;""":"&amp;P20)
-&amp;IF(LEN(Q20)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q20&amp;"""")
-&amp;IF(LEN(S20)=0,"",","""&amp;S$1&amp;""":"""&amp;S20&amp;"""")
-&amp;IF(LEN(T20)=0,"",","""&amp;T$1&amp;""":"&amp;T20)
-&amp;IF(LEN(U20)=0,"",","""&amp;U$1&amp;""":"""&amp;U20&amp;"""")
-&amp;IF(LEN(W20)=0,"",","""&amp;W$1&amp;""":"""&amp;W20&amp;"""")
-&amp;IF(LEN(X20)=0,"",","""&amp;X$1&amp;""":"&amp;X20)
-&amp;IF(LEN(Y20)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y20&amp;"""")
-&amp;IF(LEN(AA20)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA20&amp;"""")
-&amp;IF(LEN(AB20)=0,"",","""&amp;AB$1&amp;""":"&amp;AB20)
-&amp;IF(LEN(AC20)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC20&amp;"""")
-&amp;IF(LEN(AE20)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE20&amp;"""")
-&amp;IF(LEN(AF20)=0,"",","""&amp;AF$1&amp;""":"&amp;AF20)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -4155,7 +3955,7 @@
         <v>4900</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21">
         <v>375</v>
@@ -4165,7 +3965,7 @@
         <v>375</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N21" t="s">
@@ -4178,19 +3978,19 @@
         <v>80</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U21" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG21" t="str">
@@ -4255,33 +4055,16 @@
       </c>
       <c r="AV21" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW21" t="str">
-        <f>IF(G21=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C21&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K21
-&amp;IF(LEN(M21)=0,"",","""&amp;M$1&amp;""":"""&amp;M21&amp;"""")
-&amp;IF(LEN(O21)=0,"",","""&amp;O$1&amp;""":"""&amp;O21&amp;"""")
-&amp;IF(LEN(P21)=0,"",","""&amp;P$1&amp;""":"&amp;P21)
-&amp;IF(LEN(Q21)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q21&amp;"""")
-&amp;IF(LEN(S21)=0,"",","""&amp;S$1&amp;""":"""&amp;S21&amp;"""")
-&amp;IF(LEN(T21)=0,"",","""&amp;T$1&amp;""":"&amp;T21)
-&amp;IF(LEN(U21)=0,"",","""&amp;U$1&amp;""":"""&amp;U21&amp;"""")
-&amp;IF(LEN(W21)=0,"",","""&amp;W$1&amp;""":"""&amp;W21&amp;"""")
-&amp;IF(LEN(X21)=0,"",","""&amp;X$1&amp;""":"&amp;X21)
-&amp;IF(LEN(Y21)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y21&amp;"""")
-&amp;IF(LEN(AA21)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA21&amp;"""")
-&amp;IF(LEN(AB21)=0,"",","""&amp;AB$1&amp;""":"&amp;AB21)
-&amp;IF(LEN(AC21)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC21&amp;"""")
-&amp;IF(LEN(AE21)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE21&amp;"""")
-&amp;IF(LEN(AF21)=0,"",","""&amp;AF$1&amp;""":"&amp;AF21)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -4305,7 +4088,7 @@
         <v>5900</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K22">
         <v>970</v>
@@ -4315,7 +4098,7 @@
         <v>970</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N22" t="s">
@@ -4328,19 +4111,19 @@
         <v>80</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U22" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG22" t="str">
@@ -4405,33 +4188,16 @@
       </c>
       <c r="AV22" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW22" t="str">
-        <f>IF(G22=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C22&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K22
-&amp;IF(LEN(M22)=0,"",","""&amp;M$1&amp;""":"""&amp;M22&amp;"""")
-&amp;IF(LEN(O22)=0,"",","""&amp;O$1&amp;""":"""&amp;O22&amp;"""")
-&amp;IF(LEN(P22)=0,"",","""&amp;P$1&amp;""":"&amp;P22)
-&amp;IF(LEN(Q22)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q22&amp;"""")
-&amp;IF(LEN(S22)=0,"",","""&amp;S$1&amp;""":"""&amp;S22&amp;"""")
-&amp;IF(LEN(T22)=0,"",","""&amp;T$1&amp;""":"&amp;T22)
-&amp;IF(LEN(U22)=0,"",","""&amp;U$1&amp;""":"""&amp;U22&amp;"""")
-&amp;IF(LEN(W22)=0,"",","""&amp;W$1&amp;""":"""&amp;W22&amp;"""")
-&amp;IF(LEN(X22)=0,"",","""&amp;X$1&amp;""":"&amp;X22)
-&amp;IF(LEN(Y22)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y22&amp;"""")
-&amp;IF(LEN(AA22)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA22&amp;"""")
-&amp;IF(LEN(AB22)=0,"",","""&amp;AB$1&amp;""":"&amp;AB22)
-&amp;IF(LEN(AC22)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC22&amp;"""")
-&amp;IF(LEN(AE22)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE22&amp;"""")
-&amp;IF(LEN(AF22)=0,"",","""&amp;AF$1&amp;""":"&amp;AF22)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -4455,7 +4221,7 @@
         <v>7500</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>506</v>
@@ -4465,7 +4231,7 @@
         <v>506</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="N23" t="s">
@@ -4478,19 +4244,19 @@
         <v>80</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG23" t="str">
@@ -4555,34 +4321,17 @@
       </c>
       <c r="AV23" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"EN","cn1":300},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":80},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
       </c>
       <c r="AW23" t="str">
-        <f>IF(G23=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C23&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K23
-&amp;IF(LEN(M23)=0,"",","""&amp;M$1&amp;""":"""&amp;M23&amp;"""")
-&amp;IF(LEN(O23)=0,"",","""&amp;O$1&amp;""":"""&amp;O23&amp;"""")
-&amp;IF(LEN(P23)=0,"",","""&amp;P$1&amp;""":"&amp;P23)
-&amp;IF(LEN(Q23)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q23&amp;"""")
-&amp;IF(LEN(S23)=0,"",","""&amp;S$1&amp;""":"""&amp;S23&amp;"""")
-&amp;IF(LEN(T23)=0,"",","""&amp;T$1&amp;""":"&amp;T23)
-&amp;IF(LEN(U23)=0,"",","""&amp;U$1&amp;""":"""&amp;U23&amp;"""")
-&amp;IF(LEN(W23)=0,"",","""&amp;W$1&amp;""":"""&amp;W23&amp;"""")
-&amp;IF(LEN(X23)=0,"",","""&amp;X$1&amp;""":"&amp;X23)
-&amp;IF(LEN(Y23)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y23&amp;"""")
-&amp;IF(LEN(AA23)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA23&amp;"""")
-&amp;IF(LEN(AB23)=0,"",","""&amp;AB$1&amp;""":"&amp;AB23)
-&amp;IF(LEN(AC23)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC23&amp;"""")
-&amp;IF(LEN(AE23)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE23&amp;"""")
-&amp;IF(LEN(AF23)=0,"",","""&amp;AF$1&amp;""":"&amp;AF23)&amp;"}")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V23 Z2:Z23 AD2:AD23 R2:R23 N2:N23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R23 Z2:Z23 AD2:AD23 N2:N23 V2:V23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4812,18 +4561,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905D9DD-2B0D-4CAF-8093-D45E4A64C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868E417-D66E-4BC9-A136-A1A3DB0FAEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,38 +444,6 @@
     <t>ev4_conti_2</t>
   </si>
   <si>
-    <t>ev6_disco_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev6_disco_2</t>
-  </si>
-  <si>
-    <t>ev6_disco_3</t>
-  </si>
-  <si>
-    <t>ev6_disco_4</t>
-  </si>
-  <si>
-    <t>ev7_summer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev7_summer_2</t>
-  </si>
-  <si>
-    <t>ev7_summer_3</t>
-  </si>
-  <si>
-    <t>ev7_summer_4</t>
-  </si>
-  <si>
-    <t>ev7_summer_5</t>
-  </si>
-  <si>
-    <t>ev7_summer_6</t>
-  </si>
-  <si>
     <t>sProd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,23 +460,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ev10_disco_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev10_disco_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev10_disco_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev10_disco_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등록상품개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup1_2</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_3</t>
+  </si>
+  <si>
+    <t>seventotalgroup1_4</t>
+  </si>
+  <si>
+    <t>seventotalgroup2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -990,10 +991,10 @@
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>63</v>
@@ -1011,10 +1012,10 @@
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>21</v>
@@ -1134,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="BB1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:54">
@@ -1145,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C23" si="0">A2</f>
+        <f t="shared" ref="C2:C25" si="0">A2</f>
         <v>test_levelpass</v>
       </c>
       <c r="D2" t="str">
@@ -1216,63 +1217,63 @@
         <v/>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AG23" ca="1" si="6">IF(LEN(M2)=0,"",M2)</f>
+        <f t="shared" ref="AG2:AG10" ca="1" si="6">IF(LEN(M2)=0,"",M2)</f>
         <v>it</v>
       </c>
       <c r="AH2" t="str">
-        <f t="shared" ref="AH2:AH23" si="7">IF(LEN(O2)=0,"",O2)</f>
+        <f t="shared" ref="AH2:AH10" si="7">IF(LEN(O2)=0,"",O2)</f>
         <v>Cash_bLevelPass</v>
       </c>
       <c r="AI2">
-        <f t="shared" ref="AI2:AI23" si="8">IF(LEN(P2)=0,"",P2)</f>
+        <f t="shared" ref="AI2:AI10" si="8">IF(LEN(P2)=0,"",P2)</f>
         <v>1</v>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ23" ca="1" si="9">IF(LEN(Q2)=0,"",Q2)</f>
+        <f t="shared" ref="AJ2:AJ10" ca="1" si="9">IF(LEN(Q2)=0,"",Q2)</f>
         <v/>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK23" si="10">IF(LEN(S2)=0,"",S2)</f>
+        <f t="shared" ref="AK2:AK10" si="10">IF(LEN(S2)=0,"",S2)</f>
         <v/>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL23" si="11">IF(LEN(T2)=0,"",T2)</f>
+        <f t="shared" ref="AL2:AL10" si="11">IF(LEN(T2)=0,"",T2)</f>
         <v/>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM23" ca="1" si="12">IF(LEN(U2)=0,"",U2)</f>
+        <f t="shared" ref="AM2:AM10" ca="1" si="12">IF(LEN(U2)=0,"",U2)</f>
         <v/>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN23" si="13">IF(LEN(W2)=0,"",W2)</f>
+        <f t="shared" ref="AN2:AN10" si="13">IF(LEN(W2)=0,"",W2)</f>
         <v/>
       </c>
       <c r="AO2" t="str">
-        <f t="shared" ref="AO2:AO23" si="14">IF(LEN(X2)=0,"",X2)</f>
+        <f t="shared" ref="AO2:AO10" si="14">IF(LEN(X2)=0,"",X2)</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f t="shared" ref="AP2:AP23" ca="1" si="15">IF(LEN(Y2)=0,"",Y2)</f>
+        <f t="shared" ref="AP2:AP10" ca="1" si="15">IF(LEN(Y2)=0,"",Y2)</f>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f t="shared" ref="AQ2:AQ23" si="16">IF(LEN(AA2)=0,"",AA2)</f>
+        <f t="shared" ref="AQ2:AQ10" si="16">IF(LEN(AA2)=0,"",AA2)</f>
         <v/>
       </c>
       <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AR23" si="17">IF(LEN(AB2)=0,"",AB2)</f>
+        <f t="shared" ref="AR2:AR10" si="17">IF(LEN(AB2)=0,"",AB2)</f>
         <v/>
       </c>
       <c r="AS2" t="str">
-        <f t="shared" ref="AS2:AS23" ca="1" si="18">IF(LEN(AC2)=0,"",AC2)</f>
+        <f t="shared" ref="AS2:AS10" ca="1" si="18">IF(LEN(AC2)=0,"",AC2)</f>
         <v/>
       </c>
       <c r="AT2" t="str">
-        <f t="shared" ref="AT2:AT23" si="19">IF(LEN(AE2)=0,"",AE2)</f>
+        <f t="shared" ref="AT2:AT10" si="19">IF(LEN(AE2)=0,"",AE2)</f>
         <v/>
       </c>
       <c r="AU2" t="str">
-        <f t="shared" ref="AU2:AU23" si="20">IF(LEN(AF2)=0,"",AF2)</f>
+        <f t="shared" ref="AU2:AU10" si="20">IF(LEN(AF2)=0,"",AF2)</f>
         <v/>
       </c>
       <c r="AV2" t="str">
@@ -1280,7 +1281,7 @@
         <v/>
       </c>
       <c r="AW2" t="str">
-        <f t="shared" ref="AW2:AW4" si="21">IF(G2=FALSE,"",
+        <f t="shared" ref="AW2:AW3" si="21">IF(G2=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;","""&amp;K$1&amp;""":"&amp;K2
 &amp;IF(LEN(M2)=0,"",","""&amp;M$1&amp;""":"""&amp;M2&amp;"""")
@@ -1310,7 +1311,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(AV1,COUNTA(AV:AV)-1,0),1)=",",SUBSTITUTE(OFFSET(AV1,COUNTA(AV:AV)-1,0),",","",1),OFFSET(AV1,COUNTA(AV:AV)-1,0))
 &amp;"]"</f>
-        <v>[{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}]</v>
+        <v>[{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}]</v>
       </c>
     </row>
     <row r="3" spans="1:54">
@@ -1325,12 +1326,12 @@
         <v>test_bigboost</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D23" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
+        <f t="shared" ref="D3:D25" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
 LEFT(A3,FIND("_",A3)-1))</f>
         <v>test</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E23" si="23">COUNTA(N3,R3,V3,Z3,AD3)</f>
+        <f t="shared" ref="E3:E10" si="23">COUNTA(N3,R3,V3,Z3,AD3)</f>
         <v>2</v>
       </c>
       <c r="G3" t="b">
@@ -1349,7 +1350,7 @@
         <v>806</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L23" si="24">K3</f>
+        <f t="shared" ref="L3:L10" si="24">K3</f>
         <v>806</v>
       </c>
       <c r="M3" t="str">
@@ -1451,7 +1452,7 @@
         <v/>
       </c>
       <c r="AV3" t="str">
-        <f t="shared" ref="AV3:AV23" ca="1" si="25">IF(ROW()=2,AW3,OFFSET(AV3,-1,0)&amp;IF(LEN(AW3)=0,"",","&amp;AW3))</f>
+        <f t="shared" ref="AV3:AV10" ca="1" si="25">IF(ROW()=2,AW3,OFFSET(AV3,-1,0)&amp;IF(LEN(AW3)=0,"",","&amp;AW3))</f>
         <v/>
       </c>
       <c r="AW3" t="str">
@@ -1467,44 +1468,41 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>ev5_oneplustwo_1</v>
+        <f t="shared" ref="C4:C6" si="26">A4</f>
+        <v>ev3_oneofthree_1</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="22"/>
-        <v>ev5</v>
+        <v>ev3</v>
       </c>
       <c r="E4">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>19.989999999999998</v>
+        <v>14.99</v>
       </c>
       <c r="I4">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>548</v>
+        <v>876</v>
       </c>
       <c r="L4">
         <f t="shared" si="24"/>
-        <v>548</v>
+        <v>876</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M13" ca="1" si="26">IF(ISBLANK(N4),"",
+        <f t="shared" ref="M4:M6" ca="1" si="27">IF(ISBLANK(N4),"",
 VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1513,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P4">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q5" ca="1" si="27">IF(ISBLANK(R4),"",
+        <f t="shared" ref="Q4:Q6" ca="1" si="28">IF(ISBLANK(R4),"",
 VLOOKUP(R4,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1531,10 +1529,10 @@
         <v>17</v>
       </c>
       <c r="T4">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" ref="U4:U5" ca="1" si="28">IF(ISBLANK(V4),"",
+        <f t="shared" ref="U4:U6" ca="1" si="29">IF(ISBLANK(V4),"",
 VLOOKUP(V4,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1543,90 +1541,81 @@
         <v>18</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="X4">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y5" ca="1" si="29">IF(ISBLANK(Z4),"",
+        <f t="shared" ref="Y4:Y6" ca="1" si="30">IF(ISBLANK(Z4),"",
 VLOOKUP(Z4,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4">
-        <v>100000</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC5" ca="1" si="30">IF(ISBLANK(AD4),"",
+        <f t="shared" ref="AC4:AC6" ca="1" si="31">IF(ISBLANK(AD4),"",
 VLOOKUP(AD4,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="AG4:AG6" ca="1" si="32">IF(LEN(M4)=0,"",M4)</f>
         <v>cu</v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AH4:AH6" si="33">IF(LEN(O4)=0,"",O4)</f>
         <v>EN</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="8"/>
-        <v>350</v>
+        <f t="shared" ref="AI4:AI6" si="34">IF(LEN(P4)=0,"",P4)</f>
+        <v>30</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="AJ4:AJ6" ca="1" si="35">IF(LEN(Q4)=0,"",Q4)</f>
         <v>cu</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AK4:AK6" si="36">IF(LEN(S4)=0,"",S4)</f>
         <v>GO</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="11"/>
-        <v>80000</v>
+        <f t="shared" ref="AL4:AL6" si="37">IF(LEN(T4)=0,"",T4)</f>
+        <v>25000</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="AM4:AM6" ca="1" si="38">IF(LEN(U4)=0,"",U4)</f>
         <v>cu</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AN4:AN6" si="39">IF(LEN(W4)=0,"",W4)</f>
         <v>EN</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="14"/>
-        <v>800</v>
+        <f t="shared" ref="AO4:AO6" si="40">IF(LEN(X4)=0,"",X4)</f>
+        <v>100</v>
       </c>
       <c r="AP4" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>cu</v>
+        <f t="shared" ref="AP4:AP6" ca="1" si="41">IF(LEN(Y4)=0,"",Y4)</f>
+        <v/>
       </c>
       <c r="AQ4" t="str">
-        <f t="shared" si="16"/>
-        <v>GO</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="17"/>
-        <v>100000</v>
+        <f t="shared" ref="AQ4:AQ6" si="42">IF(LEN(AA4)=0,"",AA4)</f>
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <f t="shared" ref="AR4:AR6" si="43">IF(LEN(AB4)=0,"",AB4)</f>
+        <v/>
       </c>
       <c r="AS4" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="AS4:AS6" ca="1" si="44">IF(LEN(AC4)=0,"",AC4)</f>
         <v/>
       </c>
       <c r="AT4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AT4:AT6" si="45">IF(LEN(AE4)=0,"",AE4)</f>
         <v/>
       </c>
       <c r="AU4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AU4:AU6" si="46">IF(LEN(AF4)=0,"",AF4)</f>
         <v/>
       </c>
       <c r="AV4" t="str">
@@ -1634,218 +1623,228 @@
         <v/>
       </c>
       <c r="AW4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AW4:AW10" si="47">IF(G4=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C4&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K4
+&amp;IF(LEN(M4)=0,"",","""&amp;M$1&amp;""":"""&amp;M4&amp;"""")
+&amp;IF(LEN(O4)=0,"",","""&amp;O$1&amp;""":"""&amp;O4&amp;"""")
+&amp;IF(LEN(P4)=0,"",","""&amp;P$1&amp;""":"&amp;P4)
+&amp;IF(LEN(Q4)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q4&amp;"""")
+&amp;IF(LEN(S4)=0,"",","""&amp;S$1&amp;""":"""&amp;S4&amp;"""")
+&amp;IF(LEN(T4)=0,"",","""&amp;T$1&amp;""":"&amp;T4)
+&amp;IF(LEN(U4)=0,"",","""&amp;U$1&amp;""":"""&amp;U4&amp;"""")
+&amp;IF(LEN(W4)=0,"",","""&amp;W$1&amp;""":"""&amp;W4&amp;"""")
+&amp;IF(LEN(X4)=0,"",","""&amp;X$1&amp;""":"&amp;X4)
+&amp;IF(LEN(Y4)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y4&amp;"""")
+&amp;IF(LEN(AA4)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA4&amp;"""")
+&amp;IF(LEN(AB4)=0,"",","""&amp;AB$1&amp;""":"&amp;AB4)
+&amp;IF(LEN(AC4)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC4&amp;"""")
+&amp;IF(LEN(AE4)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE4&amp;"""")
+&amp;IF(LEN(AF4)=0,"",","""&amp;AF$1&amp;""":"&amp;AF4)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>ev5_oneplustwo_2</v>
+        <f t="shared" si="26"/>
+        <v>ev3_oneofthree_2</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="22"/>
-        <v>ev5</v>
+        <v>ev3</v>
       </c>
       <c r="E5">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>29.99</v>
+      </c>
+      <c r="I5">
+        <v>39000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>537</v>
+        <v>973</v>
       </c>
       <c r="L5">
         <f t="shared" si="24"/>
-        <v>537</v>
+        <v>973</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
       </c>
       <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>cu</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
         <v>17</v>
       </c>
-      <c r="P5">
-        <v>50000</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
       <c r="T5">
-        <v>500</v>
+        <v>15000</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>cu</v>
       </c>
       <c r="V5" t="s">
         <v>18</v>
       </c>
       <c r="W5" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="X5">
-        <v>70000</v>
+        <v>120</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="33"/>
+        <v>EN</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="34"/>
+        <v>60</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="36"/>
         <v>GO</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="8"/>
-        <v>50000</v>
-      </c>
-      <c r="AJ5" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="AK5" t="str">
-        <f t="shared" si="10"/>
+      <c r="AL5">
+        <f t="shared" si="37"/>
+        <v>15000</v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>cu</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" si="39"/>
         <v>EN</v>
       </c>
-      <c r="AL5">
-        <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-      <c r="AM5" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="AN5" t="str">
-        <f t="shared" si="13"/>
-        <v>GO</v>
-      </c>
       <c r="AO5">
-        <f t="shared" si="14"/>
-        <v>70000</v>
+        <f t="shared" si="40"/>
+        <v>120</v>
       </c>
       <c r="AP5" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AQ5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AR5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AS5" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AT5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AU5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AV5" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
+        <v/>
       </c>
       <c r="AW5" t="str">
-        <f t="shared" ref="AW5:AW23" ca="1" si="31">IF(G5=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C5&amp;""""
-&amp;","""&amp;K$1&amp;""":"&amp;K5
-&amp;IF(LEN(M5)=0,"",","""&amp;M$1&amp;""":"""&amp;M5&amp;"""")
-&amp;IF(LEN(O5)=0,"",","""&amp;O$1&amp;""":"""&amp;O5&amp;"""")
-&amp;IF(LEN(P5)=0,"",","""&amp;P$1&amp;""":"&amp;P5)
-&amp;IF(LEN(Q5)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q5&amp;"""")
-&amp;IF(LEN(S5)=0,"",","""&amp;S$1&amp;""":"""&amp;S5&amp;"""")
-&amp;IF(LEN(T5)=0,"",","""&amp;T$1&amp;""":"&amp;T5)
-&amp;IF(LEN(U5)=0,"",","""&amp;U$1&amp;""":"""&amp;U5&amp;"""")
-&amp;IF(LEN(W5)=0,"",","""&amp;W$1&amp;""":"""&amp;W5&amp;"""")
-&amp;IF(LEN(X5)=0,"",","""&amp;X$1&amp;""":"&amp;X5)
-&amp;IF(LEN(Y5)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y5&amp;"""")
-&amp;IF(LEN(AA5)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA5&amp;"""")
-&amp;IF(LEN(AB5)=0,"",","""&amp;AB$1&amp;""":"&amp;AB5)
-&amp;IF(LEN(AC5)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC5&amp;"""")
-&amp;IF(LEN(AE5)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE5&amp;"""")
-&amp;IF(LEN(AF5)=0,"",","""&amp;AF$1&amp;""":"&amp;AF5)&amp;"}")</f>
-        <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
+        <f t="shared" si="47"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>ev5_oneplustwo_3</v>
+        <f t="shared" si="26"/>
+        <v>ev3_oneofthree_3</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="22"/>
-        <v>ev5</v>
+        <v>ev3</v>
       </c>
       <c r="E6">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>49.99</v>
+      </c>
+      <c r="I6">
+        <v>69000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <f t="shared" si="24"/>
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>cu</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P6">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q23" ca="1" si="32">IF(ISBLANK(R6),"",
-VLOOKUP(R6,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="28"/>
         <v>cu</v>
       </c>
       <c r="R6" t="s">
@@ -1855,150 +1854,138 @@
         <v>17</v>
       </c>
       <c r="T6">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U23" ca="1" si="33">IF(ISBLANK(V6),"",
-VLOOKUP(V6,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="29"/>
         <v>cu</v>
       </c>
       <c r="V6" t="s">
         <v>18</v>
       </c>
       <c r="W6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="X6">
-        <v>90000</v>
+        <v>150</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" ref="Y6:Y23" ca="1" si="34">IF(ISBLANK(Z6),"",
-VLOOKUP(Z6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>cu</v>
       </c>
       <c r="Z6" t="s">
         <v>18</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AB6">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" ref="AC6:AC23" ca="1" si="35">IF(ISBLANK(AD6),"",
-VLOOKUP(AD6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="33"/>
         <v>EN</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="8"/>
-        <v>450</v>
+        <f t="shared" si="34"/>
+        <v>90</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="35"/>
         <v>cu</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="36"/>
         <v>GO</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="11"/>
-        <v>60000</v>
+        <f t="shared" si="37"/>
+        <v>30000</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="38"/>
         <v>cu</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="13"/>
-        <v>GO</v>
+        <f t="shared" si="39"/>
+        <v>EN</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="14"/>
-        <v>90000</v>
+        <f t="shared" si="40"/>
+        <v>150</v>
       </c>
       <c r="AP6" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="AQ6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="42"/>
         <v>EN</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="17"/>
-        <v>650</v>
+        <f t="shared" si="43"/>
+        <v>300</v>
       </c>
       <c r="AS6" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AT6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AU6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AV6" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+        <v/>
       </c>
       <c r="AW6" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+        <f t="shared" si="47"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C9" si="36">A7</f>
-        <v>ev3_oneofthree_1</v>
+        <f t="shared" si="0"/>
+        <v>ev4_conti_1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="22"/>
-        <v>ev3</v>
+        <v>ev4</v>
       </c>
       <c r="E7">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14.99</v>
-      </c>
-      <c r="I7">
-        <v>19000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>876</v>
+        <v>721</v>
       </c>
       <c r="L7">
         <f t="shared" si="24"/>
-        <v>876</v>
+        <v>721</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M7:M9" ca="1" si="37">IF(ISBLANK(N7),"",
+        <f t="shared" ref="M7:M10" ca="1" si="48">IF(ISBLANK(N7),"",
 VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -2007,13 +1994,13 @@
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="P7">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ref="Q7:Q9" ca="1" si="38">IF(ISBLANK(R7),"",
+        <f t="shared" ref="Q7:Q10" ca="1" si="49">IF(ISBLANK(R7),"",
 VLOOKUP(R7,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -2025,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="T7">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U7:U9" ca="1" si="39">IF(ISBLANK(V7),"",
+        <f t="shared" ref="U7:U10" ca="1" si="50">IF(ISBLANK(V7),"",
 VLOOKUP(V7,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -2040,407 +2027,386 @@
         <v>58</v>
       </c>
       <c r="X7">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" ref="Y7:Y9" ca="1" si="40">IF(ISBLANK(Z7),"",
+        <f t="shared" ref="Y7:Y10" ca="1" si="51">IF(ISBLANK(Z7),"",
 VLOOKUP(Z7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AC7" t="str">
-        <f t="shared" ref="AC7:AC9" ca="1" si="41">IF(ISBLANK(AD7),"",
+        <f t="shared" ref="AC7:AC10" ca="1" si="52">IF(ISBLANK(AD7),"",
 VLOOKUP(AD7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" ref="AG7:AG9" ca="1" si="42">IF(LEN(M7)=0,"",M7)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
       <c r="AH7" t="str">
-        <f t="shared" ref="AH7:AH9" si="43">IF(LEN(O7)=0,"",O7)</f>
+        <f t="shared" si="7"/>
         <v>EN</v>
       </c>
       <c r="AI7">
-        <f t="shared" ref="AI7:AI9" si="44">IF(LEN(P7)=0,"",P7)</f>
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" ref="AJ7:AJ9" ca="1" si="45">IF(LEN(Q7)=0,"",Q7)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="AK7" t="str">
-        <f t="shared" ref="AK7:AK9" si="46">IF(LEN(S7)=0,"",S7)</f>
+        <f t="shared" si="10"/>
         <v>GO</v>
       </c>
       <c r="AL7">
-        <f t="shared" ref="AL7:AL9" si="47">IF(LEN(T7)=0,"",T7)</f>
-        <v>25000</v>
+        <f t="shared" si="11"/>
+        <v>35000</v>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" ref="AM7:AM9" ca="1" si="48">IF(LEN(U7)=0,"",U7)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" ref="AN7:AN9" si="49">IF(LEN(W7)=0,"",W7)</f>
+        <f t="shared" si="13"/>
         <v>EN</v>
       </c>
       <c r="AO7">
-        <f t="shared" ref="AO7:AO9" si="50">IF(LEN(X7)=0,"",X7)</f>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>170</v>
       </c>
       <c r="AP7" t="str">
-        <f t="shared" ref="AP7:AP9" ca="1" si="51">IF(LEN(Y7)=0,"",Y7)</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f t="shared" ref="AQ7:AQ9" si="52">IF(LEN(AA7)=0,"",AA7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AR7" t="str">
-        <f t="shared" ref="AR7:AR9" si="53">IF(LEN(AB7)=0,"",AB7)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AS7" t="str">
-        <f t="shared" ref="AS7:AS9" ca="1" si="54">IF(LEN(AC7)=0,"",AC7)</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT7" t="str">
-        <f t="shared" ref="AT7:AT9" si="55">IF(LEN(AE7)=0,"",AE7)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AU7" t="str">
-        <f t="shared" ref="AU7:AU9" si="56">IF(LEN(AF7)=0,"",AF7)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AV7" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="AW7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+        <f t="shared" ca="1" si="47"/>
+        <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
     </row>
     <row r="8" spans="1:54">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="36"/>
-        <v>ev3_oneofthree_2</v>
+        <f t="shared" si="0"/>
+        <v>ev4_conti_2</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="22"/>
-        <v>ev3</v>
+        <v>ev4</v>
       </c>
       <c r="E8">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>29.99</v>
-      </c>
-      <c r="I8">
-        <v>39000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>973</v>
+        <v>884</v>
       </c>
       <c r="L8">
         <f t="shared" si="24"/>
-        <v>973</v>
+        <v>884</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="48"/>
         <v>cu</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>cu</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8">
-        <v>15000</v>
+        <f t="shared" ca="1" si="49"/>
+        <v/>
       </c>
       <c r="U8" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>cu</v>
-      </c>
-      <c r="V8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8">
-        <v>120</v>
+        <f t="shared" ca="1" si="50"/>
+        <v/>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AC8" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>EN</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="44"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="9"/>
+        <v/>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="46"/>
-        <v>GO</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="47"/>
-        <v>15000</v>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="49"/>
-        <v>EN</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="50"/>
-        <v>120</v>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AP8" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AR8" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AS8" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT8" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AU8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AV8" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AW8" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+        <f t="shared" ca="1" si="47"/>
+        <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="36"/>
-        <v>ev3_oneofthree_3</v>
+        <f t="shared" si="0"/>
+        <v>ev4_conti_3</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="22"/>
-        <v>ev3</v>
+        <v>ev4</v>
       </c>
       <c r="E9">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49.99</v>
+        <v>1.99</v>
       </c>
       <c r="I9">
-        <v>69000</v>
+        <v>2500</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="L9">
         <f t="shared" si="24"/>
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="48"/>
         <v>cu</v>
       </c>
       <c r="N9" t="s">
         <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="P9">
-        <v>90</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="49"/>
         <v>cu</v>
       </c>
       <c r="R9" t="s">
         <v>18</v>
       </c>
       <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9">
+        <v>150</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>cu</v>
+      </c>
+      <c r="V9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" t="s">
         <v>17</v>
       </c>
-      <c r="T9">
-        <v>30000</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v>cu</v>
-      </c>
-      <c r="V9" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" t="s">
-        <v>58</v>
-      </c>
       <c r="X9">
+        <v>35000</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9">
+        <v>200</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>cu</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="7"/>
+        <v>GO</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="10"/>
+        <v>EN</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
-      <c r="Y9" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB9">
-        <v>300</v>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
-      </c>
-      <c r="AH9" t="str">
-        <f t="shared" si="43"/>
+      <c r="AM9" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="13"/>
+        <v>GO</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="14"/>
+        <v>35000</v>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="16"/>
         <v>EN</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="44"/>
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v>cu</v>
-      </c>
-      <c r="AK9" t="str">
-        <f t="shared" si="46"/>
-        <v>GO</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="47"/>
-        <v>30000</v>
-      </c>
-      <c r="AM9" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>cu</v>
-      </c>
-      <c r="AN9" t="str">
-        <f t="shared" si="49"/>
-        <v>EN</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="50"/>
-        <v>150</v>
-      </c>
-      <c r="AP9" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v>cu</v>
-      </c>
-      <c r="AQ9" t="str">
-        <f t="shared" si="52"/>
-        <v>EN</v>
-      </c>
       <c r="AR9">
-        <f t="shared" si="53"/>
-        <v>300</v>
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
       <c r="AS9" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AU9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AV9" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="AW9" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>ev4_conti_1</v>
+        <v>ev4_conti_4</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="22"/>
@@ -2448,23 +2414,23 @@
       </c>
       <c r="E10">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>721</v>
+        <v>394</v>
       </c>
       <c r="L10">
         <f t="shared" si="24"/>
-        <v>721</v>
+        <v>394</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="48"/>
         <v>cu</v>
       </c>
       <c r="N10" t="s">
@@ -2474,10 +2440,10 @@
         <v>38</v>
       </c>
       <c r="P10">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="49"/>
         <v>cu</v>
       </c>
       <c r="R10" t="s">
@@ -2487,27 +2453,18 @@
         <v>17</v>
       </c>
       <c r="T10">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>cu</v>
-      </c>
-      <c r="V10" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10">
-        <v>170</v>
+        <f t="shared" ca="1" si="50"/>
+        <v/>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AC10" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AG10" t="str">
@@ -2520,7 +2477,7 @@
       </c>
       <c r="AI10">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2532,19 +2489,19 @@
       </c>
       <c r="AL10">
         <f t="shared" si="11"/>
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="AM10" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="13"/>
-        <v>EN</v>
-      </c>
-      <c r="AO10">
+        <v/>
+      </c>
+      <c r="AO10" t="str">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v/>
       </c>
       <c r="AP10" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -2572,44 +2529,56 @@
       </c>
       <c r="AV10" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW10" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
     </row>
     <row r="11" spans="1:54">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>ev4_conti_2</v>
+        <f>A11</f>
+        <v>ev5_oneplustwo_1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="22"/>
-        <v>ev4</v>
+        <f>IF(ISERROR(FIND("_",A11)),"구분자없음",
+LEFT(A11,FIND("_",A11)-1))</f>
+        <v>ev5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="23"/>
+        <f>COUNTA(N11,R11,V11,Z11,AD11)</f>
+        <v>4</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I11">
+        <v>25000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>884</v>
+        <v>548</v>
       </c>
       <c r="L11">
-        <f t="shared" si="24"/>
-        <v>884</v>
+        <f>K11</f>
+        <v>548</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f ca="1">IF(ISBLANK(N11),"",
+VLOOKUP(N11,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N11" t="s">
@@ -2619,133 +2588,179 @@
         <v>38</v>
       </c>
       <c r="P11">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f ca="1">IF(ISBLANK(R11),"",
+VLOOKUP(R11,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11">
+        <v>80000</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f ca="1">IF(ISBLANK(V11),"",
+VLOOKUP(V11,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="V11" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11">
+        <v>800</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
+        <f ca="1">IF(ISBLANK(Z11),"",
+VLOOKUP(Z11,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11">
+        <v>100000</v>
       </c>
       <c r="AC11" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(ISBLANK(AD11),"",
+VLOOKUP(AD11,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(LEN(M11)=0,"",M11)</f>
         <v>cu</v>
       </c>
       <c r="AH11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(LEN(O11)=0,"",O11)</f>
         <v>EN</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f>IF(LEN(P11)=0,"",P11)</f>
+        <v>350</v>
       </c>
       <c r="AJ11" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f ca="1">IF(LEN(Q11)=0,"",Q11)</f>
+        <v>cu</v>
       </c>
       <c r="AK11" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f>IF(LEN(S11)=0,"",S11)</f>
+        <v>GO</v>
+      </c>
+      <c r="AL11">
+        <f>IF(LEN(T11)=0,"",T11)</f>
+        <v>80000</v>
       </c>
       <c r="AM11" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f ca="1">IF(LEN(U11)=0,"",U11)</f>
+        <v>cu</v>
       </c>
       <c r="AN11" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO11" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f>IF(LEN(W11)=0,"",W11)</f>
+        <v>EN</v>
+      </c>
+      <c r="AO11">
+        <f>IF(LEN(X11)=0,"",X11)</f>
+        <v>800</v>
       </c>
       <c r="AP11" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
+        <f ca="1">IF(LEN(Y11)=0,"",Y11)</f>
+        <v>cu</v>
       </c>
       <c r="AQ11" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AR11" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(LEN(AA11)=0,"",AA11)</f>
+        <v>GO</v>
+      </c>
+      <c r="AR11">
+        <f>IF(LEN(AB11)=0,"",AB11)</f>
+        <v>100000</v>
       </c>
       <c r="AS11" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(LEN(AC11)=0,"",AC11)</f>
         <v/>
       </c>
       <c r="AT11" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(LEN(AE11)=0,"",AE11)</f>
         <v/>
       </c>
       <c r="AU11" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(LEN(AF11)=0,"",AF11)</f>
         <v/>
       </c>
       <c r="AV11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+        <f ca="1">IF(ROW()=2,AW11,OFFSET(AV11,-1,0)&amp;IF(LEN(AW11)=0,"",","&amp;AW11))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="AW11" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+        <f>IF(G11=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C11&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K11
+&amp;IF(LEN(M11)=0,"",","""&amp;M$1&amp;""":"""&amp;M11&amp;"""")
+&amp;IF(LEN(O11)=0,"",","""&amp;O$1&amp;""":"""&amp;O11&amp;"""")
+&amp;IF(LEN(P11)=0,"",","""&amp;P$1&amp;""":"&amp;P11)
+&amp;IF(LEN(Q11)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q11&amp;"""")
+&amp;IF(LEN(S11)=0,"",","""&amp;S$1&amp;""":"""&amp;S11&amp;"""")
+&amp;IF(LEN(T11)=0,"",","""&amp;T$1&amp;""":"&amp;T11)
+&amp;IF(LEN(U11)=0,"",","""&amp;U$1&amp;""":"""&amp;U11&amp;"""")
+&amp;IF(LEN(W11)=0,"",","""&amp;W$1&amp;""":"""&amp;W11&amp;"""")
+&amp;IF(LEN(X11)=0,"",","""&amp;X$1&amp;""":"&amp;X11)
+&amp;IF(LEN(Y11)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y11&amp;"""")
+&amp;IF(LEN(AA11)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA11&amp;"""")
+&amp;IF(LEN(AB11)=0,"",","""&amp;AB$1&amp;""":"&amp;AB11)
+&amp;IF(LEN(AC11)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC11&amp;"""")
+&amp;IF(LEN(AE11)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE11&amp;"""")
+&amp;IF(LEN(AF11)=0,"",","""&amp;AF$1&amp;""":"&amp;AF11)&amp;"}")</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:54">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>ev4_conti_3</v>
+        <f>A12</f>
+        <v>ev5_oneplustwo_2</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="22"/>
-        <v>ev4</v>
+        <f>IF(ISERROR(FIND("_",A12)),"구분자없음",
+LEFT(A12,FIND("_",A12)-1))</f>
+        <v>ev5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="23"/>
-        <v>4</v>
+        <f>COUNTA(N12,R12,V12,Z12,AD12)</f>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1.99</v>
-      </c>
-      <c r="I12">
-        <v>2500</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>217</v>
+        <v>537</v>
       </c>
       <c r="L12">
-        <f t="shared" si="24"/>
-        <v>217</v>
+        <f>K12</f>
+        <v>537</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f ca="1">IF(ISBLANK(N12),"",
+VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N12" t="s">
@@ -2755,10 +2770,12 @@
         <v>17</v>
       </c>
       <c r="P12">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(ISBLANK(R12),"",
+VLOOKUP(R12,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="R12" t="s">
@@ -2768,10 +2785,12 @@
         <v>38</v>
       </c>
       <c r="T12">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(ISBLANK(V12),"",
+VLOOKUP(V12,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="V12" t="s">
@@ -2781,125 +2800,140 @@
         <v>17</v>
       </c>
       <c r="X12">
-        <v>35000</v>
+        <v>70000</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>cu</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB12">
-        <v>200</v>
+        <f ca="1">IF(ISBLANK(Z12),"",
+VLOOKUP(Z12,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="AC12" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(ISBLANK(AD12),"",
+VLOOKUP(AD12,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(LEN(M12)=0,"",M12)</f>
         <v>cu</v>
       </c>
       <c r="AH12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(LEN(O12)=0,"",O12)</f>
         <v>GO</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
-        <v>20000</v>
+        <f>IF(LEN(P12)=0,"",P12)</f>
+        <v>50000</v>
       </c>
       <c r="AJ12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(LEN(Q12)=0,"",Q12)</f>
         <v>cu</v>
       </c>
       <c r="AK12" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(LEN(S12)=0,"",S12)</f>
         <v>EN</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="11"/>
-        <v>150</v>
+        <f>IF(LEN(T12)=0,"",T12)</f>
+        <v>500</v>
       </c>
       <c r="AM12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(LEN(U12)=0,"",U12)</f>
         <v>cu</v>
       </c>
       <c r="AN12" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(LEN(W12)=0,"",W12)</f>
         <v>GO</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="14"/>
-        <v>35000</v>
+        <f>IF(LEN(X12)=0,"",X12)</f>
+        <v>70000</v>
       </c>
       <c r="AP12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>cu</v>
+        <f ca="1">IF(LEN(Y12)=0,"",Y12)</f>
+        <v/>
       </c>
       <c r="AQ12" t="str">
-        <f t="shared" si="16"/>
-        <v>EN</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="17"/>
-        <v>200</v>
+        <f>IF(LEN(AA12)=0,"",AA12)</f>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f>IF(LEN(AB12)=0,"",AB12)</f>
+        <v/>
       </c>
       <c r="AS12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(LEN(AC12)=0,"",AC12)</f>
         <v/>
       </c>
       <c r="AT12" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(LEN(AE12)=0,"",AE12)</f>
         <v/>
       </c>
       <c r="AU12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(LEN(AF12)=0,"",AF12)</f>
         <v/>
       </c>
       <c r="AV12" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
+        <f ca="1">IF(ROW()=2,AW12,OFFSET(AV12,-1,0)&amp;IF(LEN(AW12)=0,"",","&amp;AW12))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
       <c r="AW12" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+        <f ca="1">IF(G12=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C12&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K12
+&amp;IF(LEN(M12)=0,"",","""&amp;M$1&amp;""":"""&amp;M12&amp;"""")
+&amp;IF(LEN(O12)=0,"",","""&amp;O$1&amp;""":"""&amp;O12&amp;"""")
+&amp;IF(LEN(P12)=0,"",","""&amp;P$1&amp;""":"&amp;P12)
+&amp;IF(LEN(Q12)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q12&amp;"""")
+&amp;IF(LEN(S12)=0,"",","""&amp;S$1&amp;""":"""&amp;S12&amp;"""")
+&amp;IF(LEN(T12)=0,"",","""&amp;T$1&amp;""":"&amp;T12)
+&amp;IF(LEN(U12)=0,"",","""&amp;U$1&amp;""":"""&amp;U12&amp;"""")
+&amp;IF(LEN(W12)=0,"",","""&amp;W$1&amp;""":"""&amp;W12&amp;"""")
+&amp;IF(LEN(X12)=0,"",","""&amp;X$1&amp;""":"&amp;X12)
+&amp;IF(LEN(Y12)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y12&amp;"""")
+&amp;IF(LEN(AA12)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA12&amp;"""")
+&amp;IF(LEN(AB12)=0,"",","""&amp;AB$1&amp;""":"&amp;AB12)
+&amp;IF(LEN(AC12)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC12&amp;"""")
+&amp;IF(LEN(AE12)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE12&amp;"""")
+&amp;IF(LEN(AF12)=0,"",","""&amp;AF$1&amp;""":"&amp;AF12)&amp;"}")</f>
+        <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
     </row>
     <row r="13" spans="1:54">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>ev4_conti_4</v>
+        <f>A13</f>
+        <v>ev5_oneplustwo_3</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="22"/>
-        <v>ev4</v>
+        <f>IF(ISERROR(FIND("_",A13)),"구분자없음",
+LEFT(A13,FIND("_",A13)-1))</f>
+        <v>ev5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f>COUNTA(N13,R13,V13,Z13,AD13)</f>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="L13">
-        <f t="shared" si="24"/>
-        <v>394</v>
+        <f>K13</f>
+        <v>314</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f ca="1">IF(ISBLANK(N13),"",
+VLOOKUP(N13,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N13" t="s">
@@ -2909,10 +2943,12 @@
         <v>38</v>
       </c>
       <c r="P13">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(ISBLANK(R13),"",
+VLOOKUP(R13,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="R13" t="s">
@@ -2922,126 +2958,167 @@
         <v>17</v>
       </c>
       <c r="T13">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f ca="1">IF(ISBLANK(V13),"",
+VLOOKUP(V13,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="V13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13">
+        <v>90000</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
+        <f ca="1">IF(ISBLANK(Z13),"",
+VLOOKUP(Z13,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13">
+        <v>650</v>
       </c>
       <c r="AC13" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(ISBLANK(AD13),"",
+VLOOKUP(AD13,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(LEN(M13)=0,"",M13)</f>
         <v>cu</v>
       </c>
       <c r="AH13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(LEN(O13)=0,"",O13)</f>
         <v>EN</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f>IF(LEN(P13)=0,"",P13)</f>
+        <v>450</v>
       </c>
       <c r="AJ13" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(LEN(Q13)=0,"",Q13)</f>
         <v>cu</v>
       </c>
       <c r="AK13" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(LEN(S13)=0,"",S13)</f>
         <v>GO</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="11"/>
-        <v>20000</v>
+        <f>IF(LEN(T13)=0,"",T13)</f>
+        <v>60000</v>
       </c>
       <c r="AM13" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f ca="1">IF(LEN(U13)=0,"",U13)</f>
+        <v>cu</v>
       </c>
       <c r="AN13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO13" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f>IF(LEN(W13)=0,"",W13)</f>
+        <v>GO</v>
+      </c>
+      <c r="AO13">
+        <f>IF(LEN(X13)=0,"",X13)</f>
+        <v>90000</v>
       </c>
       <c r="AP13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
+        <f ca="1">IF(LEN(Y13)=0,"",Y13)</f>
+        <v>cu</v>
       </c>
       <c r="AQ13" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AR13" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+        <f>IF(LEN(AA13)=0,"",AA13)</f>
+        <v>EN</v>
+      </c>
+      <c r="AR13">
+        <f>IF(LEN(AB13)=0,"",AB13)</f>
+        <v>650</v>
       </c>
       <c r="AS13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(LEN(AC13)=0,"",AC13)</f>
         <v/>
       </c>
       <c r="AT13" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(LEN(AE13)=0,"",AE13)</f>
         <v/>
       </c>
       <c r="AU13" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(LEN(AF13)=0,"",AF13)</f>
         <v/>
       </c>
       <c r="AV13" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f ca="1">IF(ROW()=2,AW13,OFFSET(AV13,-1,0)&amp;IF(LEN(AW13)=0,"",","&amp;AW13))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW13" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f ca="1">IF(G13=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C13&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K13
+&amp;IF(LEN(M13)=0,"",","""&amp;M$1&amp;""":"""&amp;M13&amp;"""")
+&amp;IF(LEN(O13)=0,"",","""&amp;O$1&amp;""":"""&amp;O13&amp;"""")
+&amp;IF(LEN(P13)=0,"",","""&amp;P$1&amp;""":"&amp;P13)
+&amp;IF(LEN(Q13)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q13&amp;"""")
+&amp;IF(LEN(S13)=0,"",","""&amp;S$1&amp;""":"""&amp;S13&amp;"""")
+&amp;IF(LEN(T13)=0,"",","""&amp;T$1&amp;""":"&amp;T13)
+&amp;IF(LEN(U13)=0,"",","""&amp;U$1&amp;""":"""&amp;U13&amp;"""")
+&amp;IF(LEN(W13)=0,"",","""&amp;W$1&amp;""":"""&amp;W13&amp;"""")
+&amp;IF(LEN(X13)=0,"",","""&amp;X$1&amp;""":"&amp;X13)
+&amp;IF(LEN(Y13)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y13&amp;"""")
+&amp;IF(LEN(AA13)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA13&amp;"""")
+&amp;IF(LEN(AB13)=0,"",","""&amp;AB$1&amp;""":"&amp;AB13)
+&amp;IF(LEN(AC13)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC13&amp;"""")
+&amp;IF(LEN(AE13)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE13&amp;"""")
+&amp;IF(LEN(AF13)=0,"",","""&amp;AF$1&amp;""":"&amp;AF13)&amp;"}")</f>
+        <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
     </row>
     <row r="14" spans="1:54">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>ev10_disco_1</v>
+        <v>seventotalgroup1_1</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="22"/>
-        <v>ev10</v>
+        <v>seventotalgroup1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" ref="E14:E25" si="53">COUNTA(N14,R14,V14,Z14,AD14)</f>
+        <v>3</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.99</v>
+        <v>9.99</v>
       </c>
       <c r="I14">
-        <v>1200</v>
+        <v>13000</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>712</v>
+        <v>513</v>
       </c>
       <c r="L14">
-        <f t="shared" si="24"/>
-        <v>712</v>
+        <f t="shared" ref="L14:L25" si="54">K14</f>
+        <v>513</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M23" ca="1" si="57">IF(ISBLANK(N14),"",
+        <f ca="1">IF(ISBLANK(N14),"",
 VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3053,263 +3130,328 @@
         <v>38</v>
       </c>
       <c r="P14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ref="Q14:Q25" ca="1" si="55">IF(ISBLANK(R14),"",
+VLOOKUP(R14,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14">
+        <v>50</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ref="U14:U25" ca="1" si="56">IF(ISBLANK(V14),"",
+VLOOKUP(V14,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="V14" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14">
+        <v>10000</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="Y14:Y25" ca="1" si="57">IF(ISBLANK(Z14),"",
+VLOOKUP(Z14,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="AC14:AC25" ca="1" si="58">IF(ISBLANK(AD14),"",
+VLOOKUP(AD14,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="AG14:AG25" ca="1" si="59">IF(LEN(M14)=0,"",M14)</f>
         <v>cu</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AH14:AH25" si="60">IF(LEN(O14)=0,"",O14)</f>
         <v>EN</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" ref="AI14:AI25" si="61">IF(LEN(P14)=0,"",P14)</f>
+        <v>100</v>
       </c>
       <c r="AJ14" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ref="AJ14:AJ25" ca="1" si="62">IF(LEN(Q14)=0,"",Q14)</f>
+        <v>cu</v>
       </c>
       <c r="AK14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" ref="AK14:AK25" si="63">IF(LEN(S14)=0,"",S14)</f>
+        <v>EN</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" ref="AL14:AL25" si="64">IF(LEN(T14)=0,"",T14)</f>
+        <v>50</v>
       </c>
       <c r="AM14" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ref="AM14:AM25" ca="1" si="65">IF(LEN(U14)=0,"",U14)</f>
+        <v>cu</v>
       </c>
       <c r="AN14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" ref="AN14:AN25" si="66">IF(LEN(W14)=0,"",W14)</f>
+        <v>GO</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" ref="AO14:AO25" si="67">IF(LEN(X14)=0,"",X14)</f>
+        <v>10000</v>
       </c>
       <c r="AP14" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="AP14:AP25" ca="1" si="68">IF(LEN(Y14)=0,"",Y14)</f>
         <v/>
       </c>
       <c r="AQ14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AQ14:AQ25" si="69">IF(LEN(AA14)=0,"",AA14)</f>
         <v/>
       </c>
       <c r="AR14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AR14:AR25" si="70">IF(LEN(AB14)=0,"",AB14)</f>
         <v/>
       </c>
       <c r="AS14" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="AS14:AS25" ca="1" si="71">IF(LEN(AC14)=0,"",AC14)</f>
         <v/>
       </c>
       <c r="AT14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AT14:AT25" si="72">IF(LEN(AE14)=0,"",AE14)</f>
         <v/>
       </c>
       <c r="AU14" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AU14:AU25" si="73">IF(LEN(AF14)=0,"",AF14)</f>
         <v/>
       </c>
       <c r="AV14" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f t="shared" ref="AV14:AV25" ca="1" si="74">IF(ROW()=2,AW14,OFFSET(AV14,-1,0)&amp;IF(LEN(AW14)=0,"",","&amp;AW14))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW14" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AW14:AW25" si="75">IF(G14=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C14&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K14
+&amp;IF(LEN(M14)=0,"",","""&amp;M$1&amp;""":"""&amp;M14&amp;"""")
+&amp;IF(LEN(O14)=0,"",","""&amp;O$1&amp;""":"""&amp;O14&amp;"""")
+&amp;IF(LEN(P14)=0,"",","""&amp;P$1&amp;""":"&amp;P14)
+&amp;IF(LEN(Q14)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q14&amp;"""")
+&amp;IF(LEN(S14)=0,"",","""&amp;S$1&amp;""":"""&amp;S14&amp;"""")
+&amp;IF(LEN(T14)=0,"",","""&amp;T$1&amp;""":"&amp;T14)
+&amp;IF(LEN(U14)=0,"",","""&amp;U$1&amp;""":"""&amp;U14&amp;"""")
+&amp;IF(LEN(W14)=0,"",","""&amp;W$1&amp;""":"""&amp;W14&amp;"""")
+&amp;IF(LEN(X14)=0,"",","""&amp;X$1&amp;""":"&amp;X14)
+&amp;IF(LEN(Y14)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y14&amp;"""")
+&amp;IF(LEN(AA14)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA14&amp;"""")
+&amp;IF(LEN(AB14)=0,"",","""&amp;AB$1&amp;""":"&amp;AB14)
+&amp;IF(LEN(AC14)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC14&amp;"""")
+&amp;IF(LEN(AE14)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE14&amp;"""")
+&amp;IF(LEN(AF14)=0,"",","""&amp;AF$1&amp;""":"&amp;AF14)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:54">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>ev10_disco_2</v>
+        <v>seventotalgroup1_2</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="22"/>
-        <v>ev10</v>
+        <v>seventotalgroup1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.99</v>
+        <v>14.99</v>
       </c>
       <c r="I15">
-        <v>2500</v>
+        <v>19000</v>
       </c>
       <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>981</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="54"/>
+        <v>981</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1">IF(ISBLANK(N15),"",
+VLOOKUP(N15,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15">
+        <v>500</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15">
         <v>75</v>
       </c>
-      <c r="K15">
-        <v>268</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="24"/>
-        <v>268</v>
-      </c>
-      <c r="M15" t="str">
+      <c r="U15" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15">
+        <v>20000</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>cu</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15">
-        <v>80</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="61"/>
+        <v>500</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="63"/>
         <v>EN</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AK15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AL15">
+        <f t="shared" si="64"/>
+        <v>75</v>
       </c>
       <c r="AM15" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="67"/>
+        <v>20000</v>
       </c>
       <c r="AP15" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR15" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS15" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU15" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV15" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:54">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>ev10_disco_3</v>
+        <v>seventotalgroup1_3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="22"/>
-        <v>ev10</v>
+        <v>seventotalgroup1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.99</v>
+        <v>29.99</v>
       </c>
       <c r="I16">
-        <v>3900</v>
+        <v>39000</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>851</v>
+        <v>112</v>
       </c>
       <c r="L16">
-        <f t="shared" si="24"/>
-        <v>851</v>
+        <f t="shared" si="54"/>
+        <v>112</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(ISBLANK(N16),"",
+VLOOKUP(N16,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N16" t="s">
@@ -3319,254 +3461,303 @@
         <v>38</v>
       </c>
       <c r="P16">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16">
+        <v>100</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16">
+        <v>40000</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="59"/>
         <v>cu</v>
       </c>
       <c r="AH16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
         <v>EN</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="61"/>
+        <v>300</v>
       </c>
       <c r="AJ16" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
       </c>
       <c r="AK16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL16" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="64"/>
+        <v>100</v>
       </c>
       <c r="AM16" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN16" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO16" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="67"/>
+        <v>40000</v>
       </c>
       <c r="AP16" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS16" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV16" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>ev10_disco_4</v>
+        <v>seventotalgroup1_4</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="22"/>
-        <v>ev10</v>
+        <v>seventotalgroup1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.99</v>
+        <v>49.99</v>
       </c>
       <c r="I17">
-        <v>4900</v>
+        <v>69000</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>532</v>
+        <v>152</v>
       </c>
       <c r="L17">
-        <f t="shared" si="24"/>
-        <v>532</v>
+        <f t="shared" si="54"/>
+        <v>152</v>
       </c>
       <c r="M17" t="str">
+        <f ca="1">IF(ISBLANK(N17),"",
+VLOOKUP(N17,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17">
+        <v>1500</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17">
+        <v>500</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <v>60000</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>cu</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17">
-        <v>80</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="61"/>
+        <v>1500</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="63"/>
         <v>EN</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AK17" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AL17">
+        <f t="shared" si="64"/>
+        <v>500</v>
       </c>
       <c r="AM17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN17" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO17" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="67"/>
+        <v>60000</v>
       </c>
       <c r="AP17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR17" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV17" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_1</v>
+        <v>seventotalgroup2_1</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>9.99</v>
+      </c>
+      <c r="I18">
+        <v>13000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>444</v>
+        <v>293</v>
       </c>
       <c r="L18">
-        <f t="shared" si="24"/>
-        <v>444</v>
+        <f t="shared" si="54"/>
+        <v>293</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(ISBLANK(N18),"",
+VLOOKUP(N18,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N18" t="s">
@@ -3576,263 +3767,303 @@
         <v>38</v>
       </c>
       <c r="P18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18">
+        <v>50</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <v>10000</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="59"/>
         <v>cu</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
         <v>EN</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="61"/>
+        <v>100</v>
       </c>
       <c r="AJ18" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
       </c>
       <c r="AK18" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="64"/>
+        <v>50</v>
       </c>
       <c r="AM18" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN18" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO18" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="67"/>
+        <v>10000</v>
       </c>
       <c r="AP18" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR18" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS18" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU18" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV18" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW18" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" si="75"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_2</v>
+        <v>seventotalgroup2_2</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1.99</v>
+        <v>14.99</v>
       </c>
       <c r="I19">
-        <v>2500</v>
+        <v>19000</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>833</v>
+        <v>364</v>
       </c>
       <c r="L19">
-        <f t="shared" si="24"/>
-        <v>833</v>
+        <f t="shared" si="54"/>
+        <v>364</v>
       </c>
       <c r="M19" t="str">
+        <f ca="1">IF(ISBLANK(N19),"",
+VLOOKUP(N19,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19">
+        <v>400</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19">
+        <v>75</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>20000</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>cu</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19">
-        <v>80</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
       </c>
       <c r="AH19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="61"/>
+        <v>400</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="63"/>
         <v>EN</v>
       </c>
-      <c r="AI19">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AK19" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL19" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AL19">
+        <f t="shared" si="64"/>
+        <v>75</v>
       </c>
       <c r="AM19" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN19" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO19" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="67"/>
+        <v>20000</v>
       </c>
       <c r="AP19" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS19" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU19" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV19" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW19" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_3</v>
+        <v>seventotalgroup2_3</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.99</v>
+        <v>29.99</v>
       </c>
       <c r="I20">
-        <v>3900</v>
+        <v>39000</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>955</v>
+        <v>440</v>
       </c>
       <c r="L20">
-        <f t="shared" si="24"/>
-        <v>955</v>
+        <f t="shared" si="54"/>
+        <v>440</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(ISBLANK(N20),"",
+VLOOKUP(N20,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N20" t="s">
@@ -3842,263 +4073,303 @@
         <v>38</v>
       </c>
       <c r="P20">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20">
+        <v>40000</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="59"/>
         <v>cu</v>
       </c>
       <c r="AH20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
         <v>EN</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="61"/>
+        <v>300</v>
       </c>
       <c r="AJ20" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
       </c>
       <c r="AK20" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL20" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="64"/>
+        <v>100</v>
       </c>
       <c r="AM20" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO20" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="67"/>
+        <v>40000</v>
       </c>
       <c r="AP20" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS20" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV20" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW20" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_4</v>
+        <v>seventotalgroup2_4</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.99</v>
+        <v>49.99</v>
       </c>
       <c r="I21">
-        <v>4900</v>
+        <v>69000</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="L21">
-        <f t="shared" si="24"/>
-        <v>375</v>
+        <f t="shared" si="54"/>
+        <v>335</v>
       </c>
       <c r="M21" t="str">
+        <f ca="1">IF(ISBLANK(N21),"",
+VLOOKUP(N21,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21">
+        <v>1200</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21">
+        <v>500</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21">
+        <v>60000</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>cu</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21">
-        <v>80</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="61"/>
+        <v>1200</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="63"/>
         <v>EN</v>
       </c>
-      <c r="AI21">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AK21" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL21" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="AL21">
+        <f t="shared" si="64"/>
+        <v>500</v>
       </c>
       <c r="AM21" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO21" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="67"/>
+        <v>60000</v>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR21" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS21" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV21" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW21" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_5</v>
+        <v>seventotalgroup3_1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="I22">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>970</v>
+        <v>349</v>
       </c>
       <c r="L22">
-        <f t="shared" si="24"/>
-        <v>970</v>
+        <f t="shared" si="54"/>
+        <v>349</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(ISBLANK(N22),"",
+VLOOKUP(N22,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="N22" t="s">
@@ -4108,230 +4379,574 @@
         <v>38</v>
       </c>
       <c r="P22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22">
+        <v>50</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22">
+        <v>10000</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="59"/>
         <v>cu</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="60"/>
         <v>EN</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="61"/>
+        <v>100</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
       </c>
       <c r="AK22" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL22" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="64"/>
+        <v>50</v>
       </c>
       <c r="AM22" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
       </c>
       <c r="AN22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO22" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="67"/>
+        <v>10000</v>
       </c>
       <c r="AP22" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AQ22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="AR22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="AS22" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AT22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="AU22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW22" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>ev7_summer_6</v>
+        <v>seventotalgroup3_2</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="22"/>
-        <v>ev7</v>
+        <v>seventotalgroup3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.99</v>
+        <v>14.99</v>
       </c>
       <c r="I23">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>506</v>
+        <v>901</v>
       </c>
       <c r="L23">
-        <f t="shared" si="24"/>
-        <v>506</v>
+        <f t="shared" si="54"/>
+        <v>901</v>
       </c>
       <c r="M23" t="str">
+        <f ca="1">IF(ISBLANK(N23),"",
+VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23">
+        <v>300</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23">
+        <v>75</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V23" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <v>20000</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" ca="1" si="57"/>
-        <v>cu</v>
-      </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" t="s">
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG23" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
+      </c>
+      <c r="AH23" t="str">
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="61"/>
+        <v>300</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK23" t="str">
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="64"/>
+        <v>75</v>
+      </c>
+      <c r="AM23" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
+      </c>
+      <c r="AN23" t="str">
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="67"/>
+        <v>20000</v>
+      </c>
+      <c r="AP23" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AQ23" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AR23" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="AS23" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AT23" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AU23" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV23" t="str">
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW23" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:49">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>seventotalgroup3_3</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="22"/>
+        <v>seventotalgroup3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>29.99</v>
+      </c>
+      <c r="I24">
+        <v>39000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24">
+        <v>265</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="54"/>
+        <v>265</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1">IF(ISBLANK(N24),"",
+VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
         <v>38</v>
       </c>
-      <c r="P23">
-        <v>80</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AG23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>cu</v>
-      </c>
-      <c r="AH23" t="str">
-        <f t="shared" si="7"/>
+      <c r="P24">
+        <v>300</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24">
+        <v>100</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24">
+        <v>40000</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>cu</v>
+      </c>
+      <c r="AH24" t="str">
+        <f t="shared" si="60"/>
         <v>EN</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AJ23" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="AK23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM23" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN23" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="AO23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AP23" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AQ23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AR23" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AS23" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="AT23" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AU23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AV23" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>,{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev7_summer_1","key":444,"tp1":"cu","vl1":"EN","cn1":80}</v>
-      </c>
-      <c r="AW23" t="str">
-        <f t="shared" si="31"/>
+      <c r="AI24">
+        <f t="shared" si="61"/>
+        <v>300</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK24" t="str">
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="64"/>
+        <v>100</v>
+      </c>
+      <c r="AM24" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
+      </c>
+      <c r="AN24" t="str">
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="67"/>
+        <v>40000</v>
+      </c>
+      <c r="AP24" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AQ24" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AR24" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="AS24" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AT24" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AU24" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV24" t="str">
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW24" t="str">
+        <f t="shared" si="75"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:49">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>seventotalgroup3_4</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="22"/>
+        <v>seventotalgroup3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>49.99</v>
+      </c>
+      <c r="I25">
+        <v>69000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <v>820</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="54"/>
+        <v>820</v>
+      </c>
+      <c r="M25" t="str">
+        <f ca="1">IF(ISBLANK(N25),"",
+VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25">
+        <v>1000</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v>cu</v>
+      </c>
+      <c r="R25" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25">
+        <v>500</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="V25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25">
+        <v>60000</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG25" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v>it</v>
+      </c>
+      <c r="AH25" t="str">
+        <f t="shared" si="60"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="61"/>
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="AK25" t="str">
+        <f t="shared" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="64"/>
+        <v>500</v>
+      </c>
+      <c r="AM25" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v>cu</v>
+      </c>
+      <c r="AN25" t="str">
+        <f t="shared" si="66"/>
+        <v>GO</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="67"/>
+        <v>60000</v>
+      </c>
+      <c r="AP25" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AQ25" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="AR25" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="AS25" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AT25" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="AV25" t="str">
+        <f t="shared" ca="1" si="74"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW25" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R23 Z2:Z23 AD2:AD23 N2:N23 V2:V23" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z25 AD2:AD25 N2:N25 R2:R25 V2:V25" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868E417-D66E-4BC9-A136-A1A3DB0FAEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1D137-CD50-4957-8A28-F712118E9591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -169,12 +169,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{EF70A7DA-85AE-4561-BAB8-6F76F6F64ECF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> UI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞춰서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반드시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개여야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +600,46 @@
   </si>
   <si>
     <t>Cash_sSevenTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_cDailyBox</t>
+  </si>
+  <si>
+    <t>Cash_sBrokenEnergy</t>
+  </si>
+  <si>
+    <t>Cash_sEv4ContiNext</t>
+  </si>
+  <si>
+    <t>Cash_sEv5OnePlTwoCash</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot0</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot1</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot2</t>
+  </si>
+  <si>
+    <t>Cash_sSevenSlot3</t>
+  </si>
+  <si>
+    <t>서버아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제공 목록 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BB25"/>
+  <dimension ref="A1:BH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -977,10 +1107,13 @@
     <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
     <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9" outlineLevel="1"/>
+    <col min="56" max="56" width="9" outlineLevel="1"/>
+    <col min="58" max="58" width="9" outlineLevel="1"/>
+    <col min="60" max="60" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="27" customHeight="1">
+    <row r="1" spans="1:60" ht="27" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1135,10 +1268,19 @@
         <v>34</v>
       </c>
       <c r="BB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1307,14 +1449,23 @@
       <c r="AZ2" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" t="str">
+      <c r="BB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH2" t="str">
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(AV1,COUNTA(AV:AV)-1,0),1)=",",SUBSTITUTE(OFFSET(AV1,COUNTA(AV:AV)-1,0),",","",1),OFFSET(AV1,COUNTA(AV:AV)-1,0))
 &amp;"]"</f>
         <v>[{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}]</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1465,8 +1616,14 @@
       <c r="AZ3" t="s">
         <v>37</v>
       </c>
+      <c r="BB3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:60">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1643,8 +1800,11 @@
 &amp;IF(LEN(AF4)=0,"",","""&amp;AF$1&amp;""":"&amp;AF4)&amp;"}")</f>
         <v/>
       </c>
+      <c r="BD4" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:60">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1794,8 +1954,11 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
+      <c r="BD5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:60">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1954,8 +2117,11 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
+      <c r="BD6" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:60">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2109,8 +2275,11 @@
         <f t="shared" ca="1" si="47"/>
         <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
+      <c r="BD7" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:60">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -2236,8 +2405,11 @@
         <f t="shared" ca="1" si="47"/>
         <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
+      <c r="BD8" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:60">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2399,8 +2571,11 @@
         <f t="shared" si="47"/>
         <v/>
       </c>
+      <c r="BD9" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:60">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2535,8 +2710,11 @@
         <f t="shared" ca="1" si="47"/>
         <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
+      <c r="BD10" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:60">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2576,7 +2754,7 @@
         <v>548</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">IF(ISBLANK(N11),"",
+        <f t="shared" ref="M11:M25" ca="1" si="53">IF(ISBLANK(N11),"",
 VLOOKUP(N11,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -2646,59 +2824,59 @@
         <v>cu</v>
       </c>
       <c r="AH11" t="str">
-        <f>IF(LEN(O11)=0,"",O11)</f>
+        <f t="shared" ref="AH11:AJ13" si="54">IF(LEN(O11)=0,"",O11)</f>
         <v>EN</v>
       </c>
       <c r="AI11">
-        <f>IF(LEN(P11)=0,"",P11)</f>
+        <f t="shared" si="54"/>
         <v>350</v>
       </c>
       <c r="AJ11" t="str">
-        <f ca="1">IF(LEN(Q11)=0,"",Q11)</f>
+        <f t="shared" ca="1" si="54"/>
         <v>cu</v>
       </c>
       <c r="AK11" t="str">
-        <f>IF(LEN(S11)=0,"",S11)</f>
+        <f t="shared" ref="AK11:AM13" si="55">IF(LEN(S11)=0,"",S11)</f>
         <v>GO</v>
       </c>
       <c r="AL11">
-        <f>IF(LEN(T11)=0,"",T11)</f>
+        <f t="shared" si="55"/>
         <v>80000</v>
       </c>
       <c r="AM11" t="str">
-        <f ca="1">IF(LEN(U11)=0,"",U11)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>cu</v>
       </c>
       <c r="AN11" t="str">
-        <f>IF(LEN(W11)=0,"",W11)</f>
+        <f t="shared" ref="AN11:AP13" si="56">IF(LEN(W11)=0,"",W11)</f>
         <v>EN</v>
       </c>
       <c r="AO11">
-        <f>IF(LEN(X11)=0,"",X11)</f>
+        <f t="shared" si="56"/>
         <v>800</v>
       </c>
       <c r="AP11" t="str">
-        <f ca="1">IF(LEN(Y11)=0,"",Y11)</f>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="AQ11" t="str">
-        <f>IF(LEN(AA11)=0,"",AA11)</f>
+        <f t="shared" ref="AQ11:AS13" si="57">IF(LEN(AA11)=0,"",AA11)</f>
         <v>GO</v>
       </c>
       <c r="AR11">
-        <f>IF(LEN(AB11)=0,"",AB11)</f>
+        <f t="shared" si="57"/>
         <v>100000</v>
       </c>
       <c r="AS11" t="str">
-        <f ca="1">IF(LEN(AC11)=0,"",AC11)</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AT11" t="str">
-        <f>IF(LEN(AE11)=0,"",AE11)</f>
+        <f t="shared" ref="AT11:AU13" si="58">IF(LEN(AE11)=0,"",AE11)</f>
         <v/>
       </c>
       <c r="AU11" t="str">
-        <f>IF(LEN(AF11)=0,"",AF11)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AV11" t="str">
@@ -2727,7 +2905,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:60">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2758,9 +2936,7 @@
         <v>537</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">IF(ISBLANK(N12),"",
-VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N12" t="s">
@@ -2819,59 +2995,59 @@
         <v>cu</v>
       </c>
       <c r="AH12" t="str">
-        <f>IF(LEN(O12)=0,"",O12)</f>
+        <f t="shared" si="54"/>
         <v>GO</v>
       </c>
       <c r="AI12">
-        <f>IF(LEN(P12)=0,"",P12)</f>
+        <f t="shared" si="54"/>
         <v>50000</v>
       </c>
       <c r="AJ12" t="str">
-        <f ca="1">IF(LEN(Q12)=0,"",Q12)</f>
+        <f t="shared" ca="1" si="54"/>
         <v>cu</v>
       </c>
       <c r="AK12" t="str">
-        <f>IF(LEN(S12)=0,"",S12)</f>
+        <f t="shared" si="55"/>
         <v>EN</v>
       </c>
       <c r="AL12">
-        <f>IF(LEN(T12)=0,"",T12)</f>
+        <f t="shared" si="55"/>
         <v>500</v>
       </c>
       <c r="AM12" t="str">
-        <f ca="1">IF(LEN(U12)=0,"",U12)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>cu</v>
       </c>
       <c r="AN12" t="str">
-        <f>IF(LEN(W12)=0,"",W12)</f>
+        <f t="shared" si="56"/>
         <v>GO</v>
       </c>
       <c r="AO12">
-        <f>IF(LEN(X12)=0,"",X12)</f>
+        <f t="shared" si="56"/>
         <v>70000</v>
       </c>
       <c r="AP12" t="str">
-        <f ca="1">IF(LEN(Y12)=0,"",Y12)</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="AQ12" t="str">
-        <f>IF(LEN(AA12)=0,"",AA12)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AR12" t="str">
-        <f>IF(LEN(AB12)=0,"",AB12)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AS12" t="str">
-        <f ca="1">IF(LEN(AC12)=0,"",AC12)</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AT12" t="str">
-        <f>IF(LEN(AE12)=0,"",AE12)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AU12" t="str">
-        <f>IF(LEN(AF12)=0,"",AF12)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AV12" t="str">
@@ -2900,7 +3076,7 @@
         <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:60">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2931,9 +3107,7 @@
         <v>314</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">IF(ISBLANK(N13),"",
-VLOOKUP(N13,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N13" t="s">
@@ -3001,59 +3175,59 @@
         <v>cu</v>
       </c>
       <c r="AH13" t="str">
-        <f>IF(LEN(O13)=0,"",O13)</f>
+        <f t="shared" si="54"/>
         <v>EN</v>
       </c>
       <c r="AI13">
-        <f>IF(LEN(P13)=0,"",P13)</f>
+        <f t="shared" si="54"/>
         <v>450</v>
       </c>
       <c r="AJ13" t="str">
-        <f ca="1">IF(LEN(Q13)=0,"",Q13)</f>
+        <f t="shared" ca="1" si="54"/>
         <v>cu</v>
       </c>
       <c r="AK13" t="str">
-        <f>IF(LEN(S13)=0,"",S13)</f>
+        <f t="shared" si="55"/>
         <v>GO</v>
       </c>
       <c r="AL13">
-        <f>IF(LEN(T13)=0,"",T13)</f>
+        <f t="shared" si="55"/>
         <v>60000</v>
       </c>
       <c r="AM13" t="str">
-        <f ca="1">IF(LEN(U13)=0,"",U13)</f>
+        <f t="shared" ca="1" si="55"/>
         <v>cu</v>
       </c>
       <c r="AN13" t="str">
-        <f>IF(LEN(W13)=0,"",W13)</f>
+        <f t="shared" si="56"/>
         <v>GO</v>
       </c>
       <c r="AO13">
-        <f>IF(LEN(X13)=0,"",X13)</f>
+        <f t="shared" si="56"/>
         <v>90000</v>
       </c>
       <c r="AP13" t="str">
-        <f ca="1">IF(LEN(Y13)=0,"",Y13)</f>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="AQ13" t="str">
-        <f>IF(LEN(AA13)=0,"",AA13)</f>
+        <f t="shared" si="57"/>
         <v>EN</v>
       </c>
       <c r="AR13">
-        <f>IF(LEN(AB13)=0,"",AB13)</f>
+        <f t="shared" si="57"/>
         <v>650</v>
       </c>
       <c r="AS13" t="str">
-        <f ca="1">IF(LEN(AC13)=0,"",AC13)</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AT13" t="str">
-        <f>IF(LEN(AE13)=0,"",AE13)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AU13" t="str">
-        <f>IF(LEN(AF13)=0,"",AF13)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AV13" t="str">
@@ -3082,8 +3256,8 @@
         <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
-      <c r="A14" t="s">
+    <row r="14" spans="1:60">
+      <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C14" t="str">
@@ -3095,7 +3269,7 @@
         <v>seventotalgroup1</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E25" si="53">COUNTA(N14,R14,V14,Z14,AD14)</f>
+        <f t="shared" ref="E14:E25" si="59">COUNTA(N14,R14,V14,Z14,AD14)</f>
         <v>3</v>
       </c>
       <c r="G14" t="b">
@@ -3114,13 +3288,11 @@
         <v>513</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L25" si="54">K14</f>
+        <f t="shared" ref="L14:L25" si="60">K14</f>
         <v>513</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">IF(ISBLANK(N14),"",
-VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N14" t="s">
@@ -3133,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ref="Q14:Q25" ca="1" si="55">IF(ISBLANK(R14),"",
+        <f t="shared" ref="Q14:Q25" ca="1" si="61">IF(ISBLANK(R14),"",
 VLOOKUP(R14,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3148,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" ref="U14:U25" ca="1" si="56">IF(ISBLANK(V14),"",
+        <f t="shared" ref="U14:U25" ca="1" si="62">IF(ISBLANK(V14),"",
 VLOOKUP(V14,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3163,83 +3335,83 @@
         <v>10000</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" ref="Y14:Y25" ca="1" si="57">IF(ISBLANK(Z14),"",
+        <f t="shared" ref="Y14:Y25" ca="1" si="63">IF(ISBLANK(Z14),"",
 VLOOKUP(Z14,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AC14" t="str">
-        <f t="shared" ref="AC14:AC25" ca="1" si="58">IF(ISBLANK(AD14),"",
+        <f t="shared" ref="AC14:AC25" ca="1" si="64">IF(ISBLANK(AD14),"",
 VLOOKUP(AD14,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" ref="AG14:AG25" ca="1" si="59">IF(LEN(M14)=0,"",M14)</f>
+        <f t="shared" ref="AG14:AG25" ca="1" si="65">IF(LEN(M14)=0,"",M14)</f>
         <v>cu</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" ref="AH14:AH25" si="60">IF(LEN(O14)=0,"",O14)</f>
+        <f t="shared" ref="AH14:AH25" si="66">IF(LEN(O14)=0,"",O14)</f>
         <v>EN</v>
       </c>
       <c r="AI14">
-        <f t="shared" ref="AI14:AI25" si="61">IF(LEN(P14)=0,"",P14)</f>
+        <f t="shared" ref="AI14:AI25" si="67">IF(LEN(P14)=0,"",P14)</f>
         <v>100</v>
       </c>
       <c r="AJ14" t="str">
-        <f t="shared" ref="AJ14:AJ25" ca="1" si="62">IF(LEN(Q14)=0,"",Q14)</f>
+        <f t="shared" ref="AJ14:AJ25" ca="1" si="68">IF(LEN(Q14)=0,"",Q14)</f>
         <v>cu</v>
       </c>
       <c r="AK14" t="str">
-        <f t="shared" ref="AK14:AK25" si="63">IF(LEN(S14)=0,"",S14)</f>
+        <f t="shared" ref="AK14:AK25" si="69">IF(LEN(S14)=0,"",S14)</f>
         <v>EN</v>
       </c>
       <c r="AL14">
-        <f t="shared" ref="AL14:AL25" si="64">IF(LEN(T14)=0,"",T14)</f>
+        <f t="shared" ref="AL14:AL25" si="70">IF(LEN(T14)=0,"",T14)</f>
         <v>50</v>
       </c>
       <c r="AM14" t="str">
-        <f t="shared" ref="AM14:AM25" ca="1" si="65">IF(LEN(U14)=0,"",U14)</f>
+        <f t="shared" ref="AM14:AM25" ca="1" si="71">IF(LEN(U14)=0,"",U14)</f>
         <v>cu</v>
       </c>
       <c r="AN14" t="str">
-        <f t="shared" ref="AN14:AN25" si="66">IF(LEN(W14)=0,"",W14)</f>
+        <f t="shared" ref="AN14:AN25" si="72">IF(LEN(W14)=0,"",W14)</f>
         <v>GO</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:AO25" si="67">IF(LEN(X14)=0,"",X14)</f>
+        <f t="shared" ref="AO14:AO25" si="73">IF(LEN(X14)=0,"",X14)</f>
         <v>10000</v>
       </c>
       <c r="AP14" t="str">
-        <f t="shared" ref="AP14:AP25" ca="1" si="68">IF(LEN(Y14)=0,"",Y14)</f>
+        <f t="shared" ref="AP14:AP25" ca="1" si="74">IF(LEN(Y14)=0,"",Y14)</f>
         <v/>
       </c>
       <c r="AQ14" t="str">
-        <f t="shared" ref="AQ14:AQ25" si="69">IF(LEN(AA14)=0,"",AA14)</f>
+        <f t="shared" ref="AQ14:AQ25" si="75">IF(LEN(AA14)=0,"",AA14)</f>
         <v/>
       </c>
       <c r="AR14" t="str">
-        <f t="shared" ref="AR14:AR25" si="70">IF(LEN(AB14)=0,"",AB14)</f>
+        <f t="shared" ref="AR14:AR25" si="76">IF(LEN(AB14)=0,"",AB14)</f>
         <v/>
       </c>
       <c r="AS14" t="str">
-        <f t="shared" ref="AS14:AS25" ca="1" si="71">IF(LEN(AC14)=0,"",AC14)</f>
+        <f t="shared" ref="AS14:AS25" ca="1" si="77">IF(LEN(AC14)=0,"",AC14)</f>
         <v/>
       </c>
       <c r="AT14" t="str">
-        <f t="shared" ref="AT14:AT25" si="72">IF(LEN(AE14)=0,"",AE14)</f>
+        <f t="shared" ref="AT14:AT25" si="78">IF(LEN(AE14)=0,"",AE14)</f>
         <v/>
       </c>
       <c r="AU14" t="str">
-        <f t="shared" ref="AU14:AU25" si="73">IF(LEN(AF14)=0,"",AF14)</f>
+        <f t="shared" ref="AU14:AU25" si="79">IF(LEN(AF14)=0,"",AF14)</f>
         <v/>
       </c>
       <c r="AV14" t="str">
-        <f t="shared" ref="AV14:AV25" ca="1" si="74">IF(ROW()=2,AW14,OFFSET(AV14,-1,0)&amp;IF(LEN(AW14)=0,"",","&amp;AW14))</f>
+        <f t="shared" ref="AV14:AV25" ca="1" si="80">IF(ROW()=2,AW14,OFFSET(AV14,-1,0)&amp;IF(LEN(AW14)=0,"",","&amp;AW14))</f>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW14" t="str">
-        <f t="shared" ref="AW14:AW25" si="75">IF(G14=FALSE,"",
+        <f t="shared" ref="AW14:AW25" si="81">IF(G14=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C14&amp;""""
 &amp;","""&amp;K$1&amp;""":"&amp;K14
 &amp;IF(LEN(M14)=0,"",","""&amp;M$1&amp;""":"""&amp;M14&amp;"""")
@@ -3260,7 +3432,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:60">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -3273,7 +3445,7 @@
         <v>seventotalgroup1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G15" t="b">
@@ -3292,13 +3464,11 @@
         <v>981</v>
       </c>
       <c r="L15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>981</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">IF(ISBLANK(N15),"",
-VLOOKUP(N15,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N15" t="s">
@@ -3311,7 +3481,7 @@
         <v>500</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R15" t="s">
@@ -3324,7 +3494,7 @@
         <v>75</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V15" t="s">
@@ -3337,83 +3507,83 @@
         <v>20000</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>500</v>
       </c>
       <c r="AJ15" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK15" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>75</v>
       </c>
       <c r="AM15" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN15" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>20000</v>
       </c>
       <c r="AP15" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ15" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR15" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS15" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT15" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU15" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV15" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW15" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:60">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -3426,7 +3596,7 @@
         <v>seventotalgroup1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G16" t="b">
@@ -3445,13 +3615,11 @@
         <v>112</v>
       </c>
       <c r="L16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>112</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">IF(ISBLANK(N16),"",
-VLOOKUP(N16,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N16" t="s">
@@ -3464,7 +3632,7 @@
         <v>300</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R16" t="s">
@@ -3477,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V16" t="s">
@@ -3490,79 +3658,79 @@
         <v>40000</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>cu</v>
       </c>
       <c r="AH16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>EN</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>300</v>
       </c>
       <c r="AJ16" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>100</v>
       </c>
       <c r="AM16" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>40000</v>
       </c>
       <c r="AP16" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS16" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV16" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -3579,7 +3747,7 @@
         <v>seventotalgroup1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G17" t="b">
@@ -3598,13 +3766,11 @@
         <v>152</v>
       </c>
       <c r="L17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>152</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">IF(ISBLANK(N17),"",
-VLOOKUP(N17,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N17" t="s">
@@ -3617,7 +3783,7 @@
         <v>1500</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R17" t="s">
@@ -3630,7 +3796,7 @@
         <v>500</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V17" t="s">
@@ -3643,79 +3809,79 @@
         <v>60000</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1500</v>
       </c>
       <c r="AJ17" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>500</v>
       </c>
       <c r="AM17" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>60000</v>
       </c>
       <c r="AP17" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS17" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV17" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -3732,7 +3898,7 @@
         <v>seventotalgroup2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G18" t="b">
@@ -3751,13 +3917,11 @@
         <v>293</v>
       </c>
       <c r="L18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>293</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">IF(ISBLANK(N18),"",
-VLOOKUP(N18,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N18" t="s">
@@ -3770,7 +3934,7 @@
         <v>100</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R18" t="s">
@@ -3783,7 +3947,7 @@
         <v>50</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V18" t="s">
@@ -3796,79 +3960,79 @@
         <v>10000</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC18" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG18" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>cu</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>EN</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>100</v>
       </c>
       <c r="AJ18" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>50</v>
       </c>
       <c r="AM18" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>10000</v>
       </c>
       <c r="AP18" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ18" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR18" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS18" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT18" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU18" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV18" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW18" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -3885,7 +4049,7 @@
         <v>seventotalgroup2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G19" t="b">
@@ -3904,13 +4068,11 @@
         <v>364</v>
       </c>
       <c r="L19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>364</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">IF(ISBLANK(N19),"",
-VLOOKUP(N19,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N19" t="s">
@@ -3923,7 +4085,7 @@
         <v>400</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R19" t="s">
@@ -3936,7 +4098,7 @@
         <v>75</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V19" t="s">
@@ -3949,79 +4111,79 @@
         <v>20000</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC19" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG19" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH19" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>400</v>
       </c>
       <c r="AJ19" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK19" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>75</v>
       </c>
       <c r="AM19" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>20000</v>
       </c>
       <c r="AP19" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ19" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS19" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU19" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV19" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW19" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4038,7 +4200,7 @@
         <v>seventotalgroup2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G20" t="b">
@@ -4057,13 +4219,11 @@
         <v>440</v>
       </c>
       <c r="L20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>440</v>
       </c>
       <c r="M20" t="str">
-        <f ca="1">IF(ISBLANK(N20),"",
-VLOOKUP(N20,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N20" t="s">
@@ -4076,7 +4236,7 @@
         <v>300</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R20" t="s">
@@ -4089,7 +4249,7 @@
         <v>100</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V20" t="s">
@@ -4102,79 +4262,79 @@
         <v>40000</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC20" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG20" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>cu</v>
       </c>
       <c r="AH20" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>EN</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>300</v>
       </c>
       <c r="AJ20" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>100</v>
       </c>
       <c r="AM20" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>40000</v>
       </c>
       <c r="AP20" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ20" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS20" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU20" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV20" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW20" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4191,7 +4351,7 @@
         <v>seventotalgroup2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G21" t="b">
@@ -4210,13 +4370,11 @@
         <v>335</v>
       </c>
       <c r="L21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>335</v>
       </c>
       <c r="M21" t="str">
-        <f ca="1">IF(ISBLANK(N21),"",
-VLOOKUP(N21,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N21" t="s">
@@ -4229,7 +4387,7 @@
         <v>1200</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R21" t="s">
@@ -4242,7 +4400,7 @@
         <v>500</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V21" t="s">
@@ -4255,79 +4413,79 @@
         <v>60000</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC21" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1200</v>
       </c>
       <c r="AJ21" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK21" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>500</v>
       </c>
       <c r="AM21" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN21" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>60000</v>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR21" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS21" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT21" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU21" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV21" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW21" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4344,7 +4502,7 @@
         <v>seventotalgroup3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G22" t="b">
@@ -4363,13 +4521,11 @@
         <v>349</v>
       </c>
       <c r="L22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>349</v>
       </c>
       <c r="M22" t="str">
-        <f ca="1">IF(ISBLANK(N22),"",
-VLOOKUP(N22,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N22" t="s">
@@ -4382,7 +4538,7 @@
         <v>100</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R22" t="s">
@@ -4395,7 +4551,7 @@
         <v>50</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V22" t="s">
@@ -4408,79 +4564,79 @@
         <v>10000</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>cu</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>EN</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>100</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>50</v>
       </c>
       <c r="AM22" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>10000</v>
       </c>
       <c r="AP22" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ22" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR22" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS22" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT22" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU22" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW22" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4497,7 +4653,7 @@
         <v>seventotalgroup3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G23" t="b">
@@ -4516,13 +4672,11 @@
         <v>901</v>
       </c>
       <c r="L23">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>901</v>
       </c>
       <c r="M23" t="str">
-        <f ca="1">IF(ISBLANK(N23),"",
-VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N23" t="s">
@@ -4535,7 +4689,7 @@
         <v>300</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R23" t="s">
@@ -4548,7 +4702,7 @@
         <v>75</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V23" t="s">
@@ -4561,79 +4715,79 @@
         <v>20000</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG23" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH23" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>300</v>
       </c>
       <c r="AJ23" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK23" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>75</v>
       </c>
       <c r="AM23" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN23" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>20000</v>
       </c>
       <c r="AP23" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ23" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR23" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS23" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT23" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU23" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV23" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW23" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4650,7 +4804,7 @@
         <v>seventotalgroup3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G24" t="b">
@@ -4669,13 +4823,11 @@
         <v>265</v>
       </c>
       <c r="L24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>265</v>
       </c>
       <c r="M24" t="str">
-        <f ca="1">IF(ISBLANK(N24),"",
-VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>cu</v>
       </c>
       <c r="N24" t="s">
@@ -4688,7 +4840,7 @@
         <v>300</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R24" t="s">
@@ -4701,7 +4853,7 @@
         <v>100</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V24" t="s">
@@ -4714,79 +4866,79 @@
         <v>40000</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG24" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>cu</v>
       </c>
       <c r="AH24" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>EN</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>300</v>
       </c>
       <c r="AJ24" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK24" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>100</v>
       </c>
       <c r="AM24" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN24" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>40000</v>
       </c>
       <c r="AP24" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ24" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR24" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS24" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT24" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU24" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV24" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW24" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
@@ -4803,7 +4955,7 @@
         <v>seventotalgroup3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="G25" t="b">
@@ -4822,13 +4974,11 @@
         <v>820</v>
       </c>
       <c r="L25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>820</v>
       </c>
       <c r="M25" t="str">
-        <f ca="1">IF(ISBLANK(N25),"",
-VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="53"/>
         <v>it</v>
       </c>
       <c r="N25" t="s">
@@ -4841,7 +4991,7 @@
         <v>1000</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="61"/>
         <v>cu</v>
       </c>
       <c r="R25" t="s">
@@ -4854,7 +5004,7 @@
         <v>500</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="62"/>
         <v>cu</v>
       </c>
       <c r="V25" t="s">
@@ -4867,87 +5017,90 @@
         <v>60000</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG25" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="65"/>
         <v>it</v>
       </c>
       <c r="AH25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>1000</v>
       </c>
       <c r="AJ25" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="68"/>
         <v>cu</v>
       </c>
       <c r="AK25" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>EN</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>500</v>
       </c>
       <c r="AM25" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="71"/>
         <v>cu</v>
       </c>
       <c r="AN25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>GO</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>60000</v>
       </c>
       <c r="AP25" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AQ25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="AS25" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT25" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="AU25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="AV25" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="80"/>
         <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="AW25" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z25 AD2:AD25 N2:N25 R2:R25 V2:V25" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE25 S2:S25 W2:W25 AA2:AA25 O2:O25" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1D137-CD50-4957-8A28-F712118E9591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0DBB04-B6D8-4C25-8E93-9119BB402D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,94 @@
   <si>
     <t>서버재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopenergy_1</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopenergy_2</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_1_more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopenergy_2_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_3_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_4_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_5_more</t>
+  </si>
+  <si>
+    <t>cashshopenergy_6_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_1</t>
+  </si>
+  <si>
+    <t>cashshopgold_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopgold_2</t>
+  </si>
+  <si>
+    <t>cashshopgold_3</t>
+  </si>
+  <si>
+    <t>cashshopgold_4</t>
+  </si>
+  <si>
+    <t>cashshopgold_5</t>
+  </si>
+  <si>
+    <t>cashshopgold_6</t>
+  </si>
+  <si>
+    <t>cashshopgold_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_1_more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopgold_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgold_6_more</t>
   </si>
 </sst>
 </file>
@@ -1060,24 +1148,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="6.625" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
@@ -1107,9 +1197,9 @@
     <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
     <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" outlineLevel="1"/>
-    <col min="56" max="56" width="9" outlineLevel="1"/>
-    <col min="58" max="58" width="9" outlineLevel="1"/>
+    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9" customWidth="1" outlineLevel="1"/>
     <col min="60" max="60" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -1288,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C25" si="0">A2</f>
+        <f t="shared" ref="C2:C26" si="0">A2</f>
         <v>test_levelpass</v>
       </c>
       <c r="D2" t="str">
@@ -1477,7 +1567,7 @@
         <v>test_bigboost</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D25" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
+        <f t="shared" ref="D3:D26" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
 LEFT(A3,FIND("_",A3)-1))</f>
         <v>test</v>
       </c>
@@ -5090,6 +5180,3226 @@
       </c>
       <c r="AW25" t="str">
         <f t="shared" si="81"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:49">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26:C49" si="82">A26</f>
+        <v>cashshopenergy_1</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D49" si="83">IF(ISERROR(FIND("_",A26)),"구분자없음",
+LEFT(A26,FIND("_",A26)-1))</f>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E49" si="84">COUNTA(N26,R26,V26,Z26,AD26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.99</v>
+      </c>
+      <c r="I26">
+        <v>1200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26">
+        <v>444</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L49" si="85">K26</f>
+        <v>444</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ref="M26:M49" ca="1" si="86">IF(ISBLANK(N26),"",
+VLOOKUP(N26,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26:Q49" ca="1" si="87">IF(ISBLANK(R26),"",
+VLOOKUP(R26,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" ref="U26:U49" ca="1" si="88">IF(ISBLANK(V26),"",
+VLOOKUP(V26,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" ref="Y26:Y49" ca="1" si="89">IF(ISBLANK(Z26),"",
+VLOOKUP(Z26,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" ref="AC26:AC49" ca="1" si="90">IF(ISBLANK(AD26),"",
+VLOOKUP(AD26,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AG26" t="str">
+        <f t="shared" ref="AG26:AG49" ca="1" si="91">IF(LEN(M26)=0,"",M26)</f>
+        <v>cu</v>
+      </c>
+      <c r="AH26" t="str">
+        <f t="shared" ref="AH26:AH49" si="92">IF(LEN(O26)=0,"",O26)</f>
+        <v>EN</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" ref="AI26:AI49" si="93">IF(LEN(P26)=0,"",P26)</f>
+        <v>30</v>
+      </c>
+      <c r="AJ26" t="str">
+        <f t="shared" ref="AJ26:AJ49" ca="1" si="94">IF(LEN(Q26)=0,"",Q26)</f>
+        <v/>
+      </c>
+      <c r="AK26" t="str">
+        <f t="shared" ref="AK26:AK49" si="95">IF(LEN(S26)=0,"",S26)</f>
+        <v/>
+      </c>
+      <c r="AL26" t="str">
+        <f t="shared" ref="AL26:AL49" si="96">IF(LEN(T26)=0,"",T26)</f>
+        <v/>
+      </c>
+      <c r="AM26" t="str">
+        <f t="shared" ref="AM26:AM49" ca="1" si="97">IF(LEN(U26)=0,"",U26)</f>
+        <v/>
+      </c>
+      <c r="AN26" t="str">
+        <f t="shared" ref="AN26:AN49" si="98">IF(LEN(W26)=0,"",W26)</f>
+        <v/>
+      </c>
+      <c r="AO26" t="str">
+        <f t="shared" ref="AO26:AO49" si="99">IF(LEN(X26)=0,"",X26)</f>
+        <v/>
+      </c>
+      <c r="AP26" t="str">
+        <f t="shared" ref="AP26:AP49" ca="1" si="100">IF(LEN(Y26)=0,"",Y26)</f>
+        <v/>
+      </c>
+      <c r="AQ26" t="str">
+        <f t="shared" ref="AQ26:AQ49" si="101">IF(LEN(AA26)=0,"",AA26)</f>
+        <v/>
+      </c>
+      <c r="AR26" t="str">
+        <f t="shared" ref="AR26:AR49" si="102">IF(LEN(AB26)=0,"",AB26)</f>
+        <v/>
+      </c>
+      <c r="AS26" t="str">
+        <f t="shared" ref="AS26:AS49" ca="1" si="103">IF(LEN(AC26)=0,"",AC26)</f>
+        <v/>
+      </c>
+      <c r="AT26" t="str">
+        <f t="shared" ref="AT26:AT49" si="104">IF(LEN(AE26)=0,"",AE26)</f>
+        <v/>
+      </c>
+      <c r="AU26" t="str">
+        <f t="shared" ref="AU26:AU49" si="105">IF(LEN(AF26)=0,"",AF26)</f>
+        <v/>
+      </c>
+      <c r="AV26" t="str">
+        <f t="shared" ref="AV26:AV49" ca="1" si="106">IF(ROW()=2,AW26,OFFSET(AV26,-1,0)&amp;IF(LEN(AW26)=0,"",","&amp;AW26))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW26" t="str">
+        <f t="shared" ref="AW26:AW49" si="107">IF(G26=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C26&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K26
+&amp;IF(LEN(M26)=0,"",","""&amp;M$1&amp;""":"""&amp;M26&amp;"""")
+&amp;IF(LEN(O26)=0,"",","""&amp;O$1&amp;""":"""&amp;O26&amp;"""")
+&amp;IF(LEN(P26)=0,"",","""&amp;P$1&amp;""":"&amp;P26)
+&amp;IF(LEN(Q26)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q26&amp;"""")
+&amp;IF(LEN(S26)=0,"",","""&amp;S$1&amp;""":"""&amp;S26&amp;"""")
+&amp;IF(LEN(T26)=0,"",","""&amp;T$1&amp;""":"&amp;T26)
+&amp;IF(LEN(U26)=0,"",","""&amp;U$1&amp;""":"""&amp;U26&amp;"""")
+&amp;IF(LEN(W26)=0,"",","""&amp;W$1&amp;""":"""&amp;W26&amp;"""")
+&amp;IF(LEN(X26)=0,"",","""&amp;X$1&amp;""":"&amp;X26)
+&amp;IF(LEN(Y26)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y26&amp;"""")
+&amp;IF(LEN(AA26)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA26&amp;"""")
+&amp;IF(LEN(AB26)=0,"",","""&amp;AB$1&amp;""":"&amp;AB26)
+&amp;IF(LEN(AC26)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC26&amp;"""")
+&amp;IF(LEN(AE26)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE26&amp;"""")
+&amp;IF(LEN(AF26)=0,"",","""&amp;AF$1&amp;""":"&amp;AF26)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:49">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_2</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4.99</v>
+      </c>
+      <c r="I27">
+        <v>5900</v>
+      </c>
+      <c r="J27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27">
+        <v>348</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="85"/>
+        <v>348</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27">
+        <v>90</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG27" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH27" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="93"/>
+        <v>90</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK27" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL27" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM27" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN27" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO27" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP27" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ27" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR27" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS27" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT27" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU27" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV27" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW27" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:49">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>9.99</v>
+      </c>
+      <c r="I28">
+        <v>12000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28">
+        <v>653</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="85"/>
+        <v>653</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28">
+        <v>260</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG28" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH28" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="93"/>
+        <v>260</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK28" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL28" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM28" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN28" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO28" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP28" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ28" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR28" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS28" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT28" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU28" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV28" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW28" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:49">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_4</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I29">
+        <v>25000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29">
+        <v>487</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="85"/>
+        <v>487</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29">
+        <v>525</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG29" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH29" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="93"/>
+        <v>525</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK29" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL29" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM29" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN29" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO29" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP29" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ29" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR29" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS29" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT29" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU29" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV29" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW29" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:49">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_5</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>49.99</v>
+      </c>
+      <c r="I30">
+        <v>65000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30">
+        <v>168</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="85"/>
+        <v>168</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30">
+        <v>1600</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG30" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH30" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="93"/>
+        <v>1600</v>
+      </c>
+      <c r="AJ30" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK30" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL30" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM30" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN30" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO30" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP30" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ30" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR30" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS30" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT30" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU30" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV30" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW30" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:49">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_6</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>99.99</v>
+      </c>
+      <c r="I31">
+        <v>119000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31">
+        <v>947</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="85"/>
+        <v>947</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31">
+        <v>3600</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG31" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="93"/>
+        <v>3600</v>
+      </c>
+      <c r="AJ31" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK31" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL31" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM31" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN31" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO31" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP31" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ31" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR31" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS31" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT31" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU31" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV31" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW31" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:49">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_1_more</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.99</v>
+      </c>
+      <c r="I32">
+        <v>1200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32">
+        <v>224</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="85"/>
+        <v>224</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32">
+        <v>90</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG32" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH32" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="93"/>
+        <v>90</v>
+      </c>
+      <c r="AJ32" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK32" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL32" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM32" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN32" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO32" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP32" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ32" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR32" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS32" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT32" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU32" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV32" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW32" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_2_more</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>4.99</v>
+      </c>
+      <c r="I33">
+        <v>5900</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33">
+        <v>392</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="85"/>
+        <v>392</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33">
+        <v>270</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG33" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH33" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="93"/>
+        <v>270</v>
+      </c>
+      <c r="AJ33" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK33" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL33" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM33" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN33" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO33" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP33" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ33" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR33" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS33" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT33" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU33" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV33" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW33" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_3_more</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>9.99</v>
+      </c>
+      <c r="I34">
+        <v>12000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34">
+        <v>759</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="85"/>
+        <v>759</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34">
+        <v>780</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG34" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH34" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="93"/>
+        <v>780</v>
+      </c>
+      <c r="AJ34" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK34" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL34" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM34" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN34" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO34" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP34" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ34" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR34" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS34" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT34" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU34" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV34" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW34" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_4_more</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I35">
+        <v>25000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35">
+        <v>837</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="85"/>
+        <v>837</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35">
+        <v>1575</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG35" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH35" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="93"/>
+        <v>1575</v>
+      </c>
+      <c r="AJ35" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK35" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL35" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM35" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN35" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO35" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP35" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ35" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR35" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS35" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT35" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU35" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV35" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW35" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_5_more</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>49.99</v>
+      </c>
+      <c r="I36">
+        <v>65000</v>
+      </c>
+      <c r="J36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36">
+        <v>820</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="85"/>
+        <v>820</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36">
+        <v>4800</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG36" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH36" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="93"/>
+        <v>4800</v>
+      </c>
+      <c r="AJ36" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK36" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL36" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM36" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN36" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO36" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP36" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ36" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR36" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS36" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT36" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU36" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV36" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW36" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopenergy_6_more</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopenergy</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>99.99</v>
+      </c>
+      <c r="I37">
+        <v>119000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>117</v>
+      </c>
+      <c r="K37">
+        <v>493</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="85"/>
+        <v>493</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37">
+        <v>10800</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG37" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH37" t="str">
+        <f t="shared" si="92"/>
+        <v>EN</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="93"/>
+        <v>10800</v>
+      </c>
+      <c r="AJ37" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK37" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL37" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM37" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN37" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO37" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP37" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ37" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR37" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS37" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT37" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU37" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV37" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW37" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_1</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.99</v>
+      </c>
+      <c r="I38">
+        <v>1200</v>
+      </c>
+      <c r="J38" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38">
+        <v>354</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="85"/>
+        <v>354</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38">
+        <v>40000</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG38" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH38" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="93"/>
+        <v>40000</v>
+      </c>
+      <c r="AJ38" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK38" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL38" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM38" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN38" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO38" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP38" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ38" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR38" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS38" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT38" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU38" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV38" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW38" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_2</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>4.99</v>
+      </c>
+      <c r="I39">
+        <v>5900</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>715</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="85"/>
+        <v>715</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39">
+        <v>105000</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG39" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH39" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="93"/>
+        <v>105000</v>
+      </c>
+      <c r="AJ39" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK39" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL39" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM39" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN39" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO39" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP39" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ39" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR39" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS39" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT39" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU39" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV39" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW39" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_3</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>9.99</v>
+      </c>
+      <c r="I40">
+        <v>12000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40">
+        <v>891</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="85"/>
+        <v>891</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40">
+        <v>250000</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG40" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH40" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="93"/>
+        <v>250000</v>
+      </c>
+      <c r="AJ40" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK40" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL40" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM40" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN40" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO40" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP40" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ40" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR40" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS40" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT40" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU40" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV40" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW40" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_4</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I41">
+        <v>25000</v>
+      </c>
+      <c r="J41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41">
+        <v>185</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="85"/>
+        <v>185</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41">
+        <v>600000</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG41" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="93"/>
+        <v>600000</v>
+      </c>
+      <c r="AJ41" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK41" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL41" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM41" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN41" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO41" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP41" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ41" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR41" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS41" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT41" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU41" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV41" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW41" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_5</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>49.99</v>
+      </c>
+      <c r="I42">
+        <v>65000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42">
+        <v>737</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="85"/>
+        <v>737</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>1900000</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG42" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH42" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="93"/>
+        <v>1900000</v>
+      </c>
+      <c r="AJ42" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK42" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL42" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM42" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN42" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO42" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP42" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ42" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR42" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS42" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT42" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU42" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV42" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW42" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:49">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_6</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>99.99</v>
+      </c>
+      <c r="I43">
+        <v>119000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43">
+        <v>574</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="85"/>
+        <v>574</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <v>4500000</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG43" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="93"/>
+        <v>4500000</v>
+      </c>
+      <c r="AJ43" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK43" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL43" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM43" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN43" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO43" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP43" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ43" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR43" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS43" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT43" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU43" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV43" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW43" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:49">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_1_more</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.99</v>
+      </c>
+      <c r="I44">
+        <v>1200</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44">
+        <v>122</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="85"/>
+        <v>122</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44">
+        <v>120000</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG44" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH44" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="93"/>
+        <v>120000</v>
+      </c>
+      <c r="AJ44" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK44" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL44" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM44" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN44" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO44" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP44" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ44" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR44" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS44" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT44" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU44" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV44" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW44" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:49">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_2_more</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>4.99</v>
+      </c>
+      <c r="I45">
+        <v>5900</v>
+      </c>
+      <c r="J45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45">
+        <v>926</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="85"/>
+        <v>926</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N45" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45">
+        <v>315000</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG45" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH45" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="93"/>
+        <v>315000</v>
+      </c>
+      <c r="AJ45" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK45" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL45" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM45" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN45" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO45" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP45" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ45" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR45" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS45" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT45" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU45" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV45" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW45" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:49">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_3_more</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>9.99</v>
+      </c>
+      <c r="I46">
+        <v>12000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>128</v>
+      </c>
+      <c r="K46">
+        <v>943</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="85"/>
+        <v>943</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46">
+        <v>750000</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG46" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH46" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="93"/>
+        <v>750000</v>
+      </c>
+      <c r="AJ46" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK46" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL46" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM46" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN46" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO46" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP46" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ46" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR46" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS46" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT46" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU46" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV46" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW46" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:49">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_4_more</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I47">
+        <v>25000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+      <c r="K47">
+        <v>106</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="85"/>
+        <v>106</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47">
+        <v>1800000</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG47" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH47" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="93"/>
+        <v>1800000</v>
+      </c>
+      <c r="AJ47" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK47" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL47" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM47" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN47" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO47" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP47" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ47" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR47" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS47" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT47" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU47" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV47" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW47" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:49">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_5_more</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>49.99</v>
+      </c>
+      <c r="I48">
+        <v>65000</v>
+      </c>
+      <c r="J48" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48">
+        <v>402</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="85"/>
+        <v>402</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N48" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48">
+        <v>5700000</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG48" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH48" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="93"/>
+        <v>5700000</v>
+      </c>
+      <c r="AJ48" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK48" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL48" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM48" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN48" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO48" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP48" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ48" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR48" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS48" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT48" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU48" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV48" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW48" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:49">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="82"/>
+        <v>cashshopgold_6_more</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="83"/>
+        <v>cashshopgold</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>99.99</v>
+      </c>
+      <c r="I49">
+        <v>119000</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49">
+        <v>905</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="85"/>
+        <v>905</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v>cu</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49">
+        <v>13500000</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AG49" t="str">
+        <f t="shared" ca="1" si="91"/>
+        <v>cu</v>
+      </c>
+      <c r="AH49" t="str">
+        <f t="shared" si="92"/>
+        <v>GO</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="93"/>
+        <v>13500000</v>
+      </c>
+      <c r="AJ49" t="str">
+        <f t="shared" ca="1" si="94"/>
+        <v/>
+      </c>
+      <c r="AK49" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="AL49" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AM49" t="str">
+        <f t="shared" ca="1" si="97"/>
+        <v/>
+      </c>
+      <c r="AN49" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="AO49" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+      <c r="AP49" t="str">
+        <f t="shared" ca="1" si="100"/>
+        <v/>
+      </c>
+      <c r="AQ49" t="str">
+        <f t="shared" si="101"/>
+        <v/>
+      </c>
+      <c r="AR49" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="AS49" t="str">
+        <f t="shared" ca="1" si="103"/>
+        <v/>
+      </c>
+      <c r="AT49" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="AU49" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="AV49" t="str">
+        <f t="shared" ca="1" si="106"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW49" t="str">
+        <f t="shared" si="107"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0DBB04-B6D8-4C25-8E93-9119BB402D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3753D-01FF-4485-B020-B5413609E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -1151,10 +1151,10 @@
   <dimension ref="A1:BH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -8406,10 +8406,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z25 AD2:AD25 N2:N25 R2:R25 V2:V25" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z49 AD2:AD49 N2:N25 R2:R49 V2:V49" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE25 S2:S25 W2:W25 AA2:AA25 O2:O25" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE49 S2:S49 W2:W49 AA2:AA49 O2:O49" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E3753D-01FF-4485-B020-B5413609E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B076E1AF-B6E6-43FA-AB46-AB3A82EE212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="142">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,6 +729,41 @@
   </si>
   <si>
     <t>cashshopgold_6_more</t>
+  </si>
+  <si>
+    <t>petsale_1</t>
+  </si>
+  <si>
+    <t>petsale_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petsale_2</t>
+  </si>
+  <si>
+    <t>petsale_3</t>
+  </si>
+  <si>
+    <t>petsale_4</t>
+  </si>
+  <si>
+    <t>petsale_5</t>
+  </si>
+  <si>
+    <t>펫 대량 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 에너지 200% 더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세븐데이즈 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1148,13 +1183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BH49"/>
+  <dimension ref="A1:BH54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="AY19" sqref="AY19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1378,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C26" si="0">A2</f>
+        <f t="shared" ref="C2:C25" si="0">A2</f>
         <v>test_levelpass</v>
       </c>
       <c r="D2" t="str">
@@ -1567,7 +1602,7 @@
         <v>test_bigboost</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D26" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
+        <f t="shared" ref="D3:D25" si="22">IF(ISERROR(FIND("_",A3)),"구분자없음",
 LEFT(A3,FIND("_",A3)-1))</f>
         <v>test</v>
       </c>
@@ -3350,6 +3385,9 @@
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>seventotalgroup1_1</v>
@@ -5187,17 +5225,20 @@
       <c r="A26" t="s">
         <v>105</v>
       </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
       <c r="C26" t="str">
-        <f t="shared" ref="C26:C49" si="82">A26</f>
+        <f t="shared" ref="C26:C54" si="82">A26</f>
         <v>cashshopenergy_1</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:D49" si="83">IF(ISERROR(FIND("_",A26)),"구분자없음",
+        <f t="shared" ref="D26:D54" si="83">IF(ISERROR(FIND("_",A26)),"구분자없음",
 LEFT(A26,FIND("_",A26)-1))</f>
         <v>cashshopenergy</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E49" si="84">COUNTA(N26,R26,V26,Z26,AD26)</f>
+        <f t="shared" ref="E26:E54" si="84">COUNTA(N26,R26,V26,Z26,AD26)</f>
         <v>1</v>
       </c>
       <c r="G26" t="b">
@@ -5216,11 +5257,11 @@
         <v>444</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L49" si="85">K26</f>
+        <f t="shared" ref="L26:L54" si="85">K26</f>
         <v>444</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M26:M49" ca="1" si="86">IF(ISBLANK(N26),"",
+        <f t="shared" ref="M26:M54" ca="1" si="86">IF(ISBLANK(N26),"",
 VLOOKUP(N26,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -5235,25 +5276,25 @@
         <v>30</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ref="Q26:Q49" ca="1" si="87">IF(ISBLANK(R26),"",
+        <f t="shared" ref="Q26:Q54" ca="1" si="87">IF(ISBLANK(R26),"",
 VLOOKUP(R26,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="U26" t="str">
-        <f t="shared" ref="U26:U49" ca="1" si="88">IF(ISBLANK(V26),"",
+        <f t="shared" ref="U26:U54" ca="1" si="88">IF(ISBLANK(V26),"",
 VLOOKUP(V26,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:Y49" ca="1" si="89">IF(ISBLANK(Z26),"",
+        <f t="shared" ref="Y26:Y54" ca="1" si="89">IF(ISBLANK(Z26),"",
 VLOOKUP(Z26,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" ref="AC26:AC49" ca="1" si="90">IF(ISBLANK(AD26),"",
+        <f t="shared" ref="AC26:AC54" ca="1" si="90">IF(ISBLANK(AD26),"",
 VLOOKUP(AD26,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -6013,6 +6054,9 @@
       <c r="A32" t="s">
         <v>112</v>
       </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
       <c r="C32" t="str">
         <f t="shared" si="82"/>
         <v>cashshopenergy_1_more</v>
@@ -8403,13 +8447,588 @@
         <v/>
       </c>
     </row>
+    <row r="50" spans="1:49">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="82"/>
+        <v>petsale_1</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="83"/>
+        <v>petsale</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>9.99</v>
+      </c>
+      <c r="I50">
+        <v>13000</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50">
+        <v>375</v>
+      </c>
+      <c r="L50">
+        <v>375</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ50" t="str">
+        <f t="shared" ref="AJ50:AJ54" ca="1" si="108">IF(LEN(Q50)=0,"",Q50)</f>
+        <v/>
+      </c>
+      <c r="AK50" t="str">
+        <f t="shared" ref="AK50:AK54" si="109">IF(LEN(S50)=0,"",S50)</f>
+        <v/>
+      </c>
+      <c r="AL50" t="str">
+        <f t="shared" ref="AL50:AL54" si="110">IF(LEN(T50)=0,"",T50)</f>
+        <v/>
+      </c>
+      <c r="AM50" t="str">
+        <f t="shared" ref="AM50:AM54" ca="1" si="111">IF(LEN(U50)=0,"",U50)</f>
+        <v/>
+      </c>
+      <c r="AN50" t="str">
+        <f t="shared" ref="AN50:AN54" si="112">IF(LEN(W50)=0,"",W50)</f>
+        <v/>
+      </c>
+      <c r="AO50" t="str">
+        <f t="shared" ref="AO50:AO54" si="113">IF(LEN(X50)=0,"",X50)</f>
+        <v/>
+      </c>
+      <c r="AP50" t="str">
+        <f t="shared" ref="AP50:AP54" ca="1" si="114">IF(LEN(Y50)=0,"",Y50)</f>
+        <v/>
+      </c>
+      <c r="AQ50" t="str">
+        <f t="shared" ref="AQ50:AQ54" si="115">IF(LEN(AA50)=0,"",AA50)</f>
+        <v/>
+      </c>
+      <c r="AR50" t="str">
+        <f t="shared" ref="AR50:AR54" si="116">IF(LEN(AB50)=0,"",AB50)</f>
+        <v/>
+      </c>
+      <c r="AS50" t="str">
+        <f t="shared" ref="AS50:AS54" ca="1" si="117">IF(LEN(AC50)=0,"",AC50)</f>
+        <v/>
+      </c>
+      <c r="AT50" t="str">
+        <f t="shared" ref="AT50:AT54" si="118">IF(LEN(AE50)=0,"",AE50)</f>
+        <v/>
+      </c>
+      <c r="AU50" t="str">
+        <f t="shared" ref="AU50:AU54" si="119">IF(LEN(AF50)=0,"",AF50)</f>
+        <v/>
+      </c>
+      <c r="AV50" t="str">
+        <f t="shared" ref="AV50:AV54" ca="1" si="120">IF(ROW()=2,AW50,OFFSET(AV50,-1,0)&amp;IF(LEN(AW50)=0,"",","&amp;AW50))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW50" t="str">
+        <f t="shared" ref="AW50:AW54" si="121">IF(G50=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C50&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K50
+&amp;IF(LEN(M50)=0,"",","""&amp;M$1&amp;""":"""&amp;M50&amp;"""")
+&amp;IF(LEN(O50)=0,"",","""&amp;O$1&amp;""":"""&amp;O50&amp;"""")
+&amp;IF(LEN(P50)=0,"",","""&amp;P$1&amp;""":"&amp;P50)
+&amp;IF(LEN(Q50)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q50&amp;"""")
+&amp;IF(LEN(S50)=0,"",","""&amp;S$1&amp;""":"""&amp;S50&amp;"""")
+&amp;IF(LEN(T50)=0,"",","""&amp;T$1&amp;""":"&amp;T50)
+&amp;IF(LEN(U50)=0,"",","""&amp;U$1&amp;""":"""&amp;U50&amp;"""")
+&amp;IF(LEN(W50)=0,"",","""&amp;W$1&amp;""":"""&amp;W50&amp;"""")
+&amp;IF(LEN(X50)=0,"",","""&amp;X$1&amp;""":"&amp;X50)
+&amp;IF(LEN(Y50)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y50&amp;"""")
+&amp;IF(LEN(AA50)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA50&amp;"""")
+&amp;IF(LEN(AB50)=0,"",","""&amp;AB$1&amp;""":"&amp;AB50)
+&amp;IF(LEN(AC50)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC50&amp;"""")
+&amp;IF(LEN(AE50)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE50&amp;"""")
+&amp;IF(LEN(AF50)=0,"",","""&amp;AF$1&amp;""":"&amp;AF50)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:49">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="82"/>
+        <v>petsale_2</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="83"/>
+        <v>petsale</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="I51">
+        <v>19000</v>
+      </c>
+      <c r="J51" t="s">
+        <v>134</v>
+      </c>
+      <c r="K51">
+        <v>368</v>
+      </c>
+      <c r="L51">
+        <v>368</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC51" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ51" t="str">
+        <f t="shared" ca="1" si="108"/>
+        <v/>
+      </c>
+      <c r="AK51" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AL51" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM51" t="str">
+        <f t="shared" ca="1" si="111"/>
+        <v/>
+      </c>
+      <c r="AN51" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AO51" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="AP51" t="str">
+        <f t="shared" ca="1" si="114"/>
+        <v/>
+      </c>
+      <c r="AQ51" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AR51" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AS51" t="str">
+        <f t="shared" ca="1" si="117"/>
+        <v/>
+      </c>
+      <c r="AT51" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AU51" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="AV51" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW51" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:49">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="82"/>
+        <v>petsale_3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="83"/>
+        <v>petsale</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>29.99</v>
+      </c>
+      <c r="I52">
+        <v>39000</v>
+      </c>
+      <c r="J52" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52">
+        <v>481</v>
+      </c>
+      <c r="L52">
+        <v>481</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v/>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ52" t="str">
+        <f t="shared" ca="1" si="108"/>
+        <v/>
+      </c>
+      <c r="AK52" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AL52" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM52" t="str">
+        <f t="shared" ca="1" si="111"/>
+        <v/>
+      </c>
+      <c r="AN52" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AO52" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="AP52" t="str">
+        <f t="shared" ca="1" si="114"/>
+        <v/>
+      </c>
+      <c r="AQ52" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AR52" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AS52" t="str">
+        <f t="shared" ca="1" si="117"/>
+        <v/>
+      </c>
+      <c r="AT52" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AU52" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="AV52" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW52" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:49">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="82"/>
+        <v>petsale_4</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="83"/>
+        <v>petsale</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>39.99</v>
+      </c>
+      <c r="I53">
+        <v>48000</v>
+      </c>
+      <c r="J53" t="s">
+        <v>136</v>
+      </c>
+      <c r="K53">
+        <v>420</v>
+      </c>
+      <c r="L53">
+        <v>420</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v/>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC53" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ53" t="str">
+        <f t="shared" ca="1" si="108"/>
+        <v/>
+      </c>
+      <c r="AK53" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AL53" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM53" t="str">
+        <f t="shared" ca="1" si="111"/>
+        <v/>
+      </c>
+      <c r="AN53" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AO53" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="AP53" t="str">
+        <f t="shared" ca="1" si="114"/>
+        <v/>
+      </c>
+      <c r="AQ53" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AR53" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AS53" t="str">
+        <f t="shared" ca="1" si="117"/>
+        <v/>
+      </c>
+      <c r="AT53" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AU53" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="AV53" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW53" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:49">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="82"/>
+        <v>petsale_5</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="83"/>
+        <v>petsale</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>49.99</v>
+      </c>
+      <c r="I54">
+        <v>65000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K54">
+        <v>362</v>
+      </c>
+      <c r="L54">
+        <v>362</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" ca="1" si="86"/>
+        <v/>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" ca="1" si="87"/>
+        <v/>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" ca="1" si="88"/>
+        <v/>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" ca="1" si="89"/>
+        <v/>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" ca="1" si="90"/>
+        <v/>
+      </c>
+      <c r="AJ54" t="str">
+        <f t="shared" ca="1" si="108"/>
+        <v/>
+      </c>
+      <c r="AK54" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="AL54" t="str">
+        <f t="shared" si="110"/>
+        <v/>
+      </c>
+      <c r="AM54" t="str">
+        <f t="shared" ca="1" si="111"/>
+        <v/>
+      </c>
+      <c r="AN54" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AO54" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="AP54" t="str">
+        <f t="shared" ca="1" si="114"/>
+        <v/>
+      </c>
+      <c r="AQ54" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="AR54" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="AS54" t="str">
+        <f t="shared" ca="1" si="117"/>
+        <v/>
+      </c>
+      <c r="AT54" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="AU54" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+      <c r="AV54" t="str">
+        <f t="shared" ca="1" si="120"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW54" t="str">
+        <f t="shared" si="121"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z49 AD2:AD49 N2:N25 R2:R49 V2:V49" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z54 AD2:AD54 V2:V54 R2:R54 N2:N54" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE49 S2:S49 W2:W49 AA2:AA49 O2:O49" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE54 S2:S54 W2:W54 AA2:AA54 O2:O54" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B076E1AF-B6E6-43FA-AB46-AB3A82EE212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B94AB90-6CD9-411C-A30E-285D304614AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="145">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,6 +763,18 @@
   </si>
   <si>
     <t xml:space="preserve">세븐데이즈 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petcapture_better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petcapture_best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 포획도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,59 +1195,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BH54"/>
+  <dimension ref="A1:BI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY19" sqref="AY19"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" collapsed="1"/>
     <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="19.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="9" collapsed="1"/>
+    <col min="51" max="52" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="9" collapsed="1"/>
+    <col min="54" max="54" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" collapsed="1"/>
+    <col min="56" max="56" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9" collapsed="1"/>
+    <col min="58" max="58" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="9" collapsed="1"/>
+    <col min="60" max="60" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="27" customHeight="1">
@@ -5229,11 +5248,11 @@
         <v>139</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ref="C26:C54" si="82">A26</f>
+        <f t="shared" ref="C26:C56" si="82">A26</f>
         <v>cashshopenergy_1</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:D54" si="83">IF(ISERROR(FIND("_",A26)),"구분자없음",
+        <f t="shared" ref="D26:D56" si="83">IF(ISERROR(FIND("_",A26)),"구분자없음",
 LEFT(A26,FIND("_",A26)-1))</f>
         <v>cashshopenergy</v>
       </c>
@@ -5257,7 +5276,7 @@
         <v>444</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L54" si="85">K26</f>
+        <f t="shared" ref="L26:L49" si="85">K26</f>
         <v>444</v>
       </c>
       <c r="M26" t="str">
@@ -9022,13 +9041,265 @@
         <v/>
       </c>
     </row>
+    <row r="55" spans="1:49">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="82"/>
+        <v>petcapture_better</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="83"/>
+        <v>petcapture</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:E56" si="122">COUNTA(N55,R55,V55,Z55,AD55)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.99</v>
+      </c>
+      <c r="I55">
+        <v>1200</v>
+      </c>
+      <c r="J55" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55">
+        <v>654</v>
+      </c>
+      <c r="L55">
+        <v>654</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ref="M55:M56" ca="1" si="123">IF(ISBLANK(N55),"",
+VLOOKUP(N55,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ref="Q55:Q56" ca="1" si="124">IF(ISBLANK(R55),"",
+VLOOKUP(R55,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" ref="U55:U56" ca="1" si="125">IF(ISBLANK(V55),"",
+VLOOKUP(V55,OFFSET(INDIRECT("$A:$B"),0,MATCH(V$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" ref="Y55:Y56" ca="1" si="126">IF(ISBLANK(Z55),"",
+VLOOKUP(Z55,OFFSET(INDIRECT("$A:$B"),0,MATCH(Z$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" ref="AC55:AC56" ca="1" si="127">IF(ISBLANK(AD55),"",
+VLOOKUP(AD55,OFFSET(INDIRECT("$A:$B"),0,MATCH(AD$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AJ55" t="str">
+        <f t="shared" ref="AJ55:AJ56" ca="1" si="128">IF(LEN(Q55)=0,"",Q55)</f>
+        <v/>
+      </c>
+      <c r="AK55" t="str">
+        <f t="shared" ref="AK55:AK56" si="129">IF(LEN(S55)=0,"",S55)</f>
+        <v/>
+      </c>
+      <c r="AL55" t="str">
+        <f t="shared" ref="AL55:AL56" si="130">IF(LEN(T55)=0,"",T55)</f>
+        <v/>
+      </c>
+      <c r="AM55" t="str">
+        <f t="shared" ref="AM55:AM56" ca="1" si="131">IF(LEN(U55)=0,"",U55)</f>
+        <v/>
+      </c>
+      <c r="AN55" t="str">
+        <f t="shared" ref="AN55:AN56" si="132">IF(LEN(W55)=0,"",W55)</f>
+        <v/>
+      </c>
+      <c r="AO55" t="str">
+        <f t="shared" ref="AO55:AO56" si="133">IF(LEN(X55)=0,"",X55)</f>
+        <v/>
+      </c>
+      <c r="AP55" t="str">
+        <f t="shared" ref="AP55:AP56" ca="1" si="134">IF(LEN(Y55)=0,"",Y55)</f>
+        <v/>
+      </c>
+      <c r="AQ55" t="str">
+        <f t="shared" ref="AQ55:AQ56" si="135">IF(LEN(AA55)=0,"",AA55)</f>
+        <v/>
+      </c>
+      <c r="AR55" t="str">
+        <f t="shared" ref="AR55:AR56" si="136">IF(LEN(AB55)=0,"",AB55)</f>
+        <v/>
+      </c>
+      <c r="AS55" t="str">
+        <f t="shared" ref="AS55:AS56" ca="1" si="137">IF(LEN(AC55)=0,"",AC55)</f>
+        <v/>
+      </c>
+      <c r="AT55" t="str">
+        <f t="shared" ref="AT55:AT56" si="138">IF(LEN(AE55)=0,"",AE55)</f>
+        <v/>
+      </c>
+      <c r="AU55" t="str">
+        <f t="shared" ref="AU55:AU56" si="139">IF(LEN(AF55)=0,"",AF55)</f>
+        <v/>
+      </c>
+      <c r="AV55" t="str">
+        <f t="shared" ref="AV55:AV56" ca="1" si="140">IF(ROW()=2,AW55,OFFSET(AV55,-1,0)&amp;IF(LEN(AW55)=0,"",","&amp;AW55))</f>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW55" t="str">
+        <f t="shared" ref="AW55:AW56" si="141">IF(G55=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C55&amp;""""
+&amp;","""&amp;K$1&amp;""":"&amp;K55
+&amp;IF(LEN(M55)=0,"",","""&amp;M$1&amp;""":"""&amp;M55&amp;"""")
+&amp;IF(LEN(O55)=0,"",","""&amp;O$1&amp;""":"""&amp;O55&amp;"""")
+&amp;IF(LEN(P55)=0,"",","""&amp;P$1&amp;""":"&amp;P55)
+&amp;IF(LEN(Q55)=0,"",","""&amp;Q$1&amp;""":"""&amp;Q55&amp;"""")
+&amp;IF(LEN(S55)=0,"",","""&amp;S$1&amp;""":"""&amp;S55&amp;"""")
+&amp;IF(LEN(T55)=0,"",","""&amp;T$1&amp;""":"&amp;T55)
+&amp;IF(LEN(U55)=0,"",","""&amp;U$1&amp;""":"""&amp;U55&amp;"""")
+&amp;IF(LEN(W55)=0,"",","""&amp;W$1&amp;""":"""&amp;W55&amp;"""")
+&amp;IF(LEN(X55)=0,"",","""&amp;X$1&amp;""":"&amp;X55)
+&amp;IF(LEN(Y55)=0,"",","""&amp;Y$1&amp;""":"""&amp;Y55&amp;"""")
+&amp;IF(LEN(AA55)=0,"",","""&amp;AA$1&amp;""":"""&amp;AA55&amp;"""")
+&amp;IF(LEN(AB55)=0,"",","""&amp;AB$1&amp;""":"&amp;AB55)
+&amp;IF(LEN(AC55)=0,"",","""&amp;AC$1&amp;""":"""&amp;AC55&amp;"""")
+&amp;IF(LEN(AE55)=0,"",","""&amp;AE$1&amp;""":"""&amp;AE55&amp;"""")
+&amp;IF(LEN(AF55)=0,"",","""&amp;AF$1&amp;""":"&amp;AF55)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:49">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="82"/>
+        <v>petcapture_best</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="83"/>
+        <v>petcapture</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>4.99</v>
+      </c>
+      <c r="I56">
+        <v>5900</v>
+      </c>
+      <c r="J56" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56">
+        <v>715</v>
+      </c>
+      <c r="L56">
+        <v>715</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" ca="1" si="123"/>
+        <v/>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" ca="1" si="124"/>
+        <v/>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" ca="1" si="125"/>
+        <v/>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" ca="1" si="126"/>
+        <v/>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" ca="1" si="127"/>
+        <v/>
+      </c>
+      <c r="AJ56" t="str">
+        <f t="shared" ca="1" si="128"/>
+        <v/>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" si="129"/>
+        <v/>
+      </c>
+      <c r="AL56" t="str">
+        <f t="shared" si="130"/>
+        <v/>
+      </c>
+      <c r="AM56" t="str">
+        <f t="shared" ca="1" si="131"/>
+        <v/>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+      <c r="AO56" t="str">
+        <f t="shared" si="133"/>
+        <v/>
+      </c>
+      <c r="AP56" t="str">
+        <f t="shared" ca="1" si="134"/>
+        <v/>
+      </c>
+      <c r="AQ56" t="str">
+        <f t="shared" si="135"/>
+        <v/>
+      </c>
+      <c r="AR56" t="str">
+        <f t="shared" si="136"/>
+        <v/>
+      </c>
+      <c r="AS56" t="str">
+        <f t="shared" ca="1" si="137"/>
+        <v/>
+      </c>
+      <c r="AT56" t="str">
+        <f t="shared" si="138"/>
+        <v/>
+      </c>
+      <c r="AU56" t="str">
+        <f t="shared" si="139"/>
+        <v/>
+      </c>
+      <c r="AV56" t="str">
+        <f t="shared" ca="1" si="140"/>
+        <v>,{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
+      </c>
+      <c r="AW56" t="str">
+        <f t="shared" si="141"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z54 AD2:AD54 V2:V54 R2:R54 N2:N54" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z56 AD2:AD56 V2:V56 R2:R56 N2:N56" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE54 S2:S54 W2:W54 AA2:AA54 O2:O54" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE56 S2:S56 W2:W56 AA2:AA56 O2:O56" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(N2="재화","서버재화",IF(N2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B94AB90-6CD9-411C-A30E-285D304614AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F93F2-18C0-4125-9CCB-DCE788775BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="147">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,14 @@
   </si>
   <si>
     <t>펫 포획도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sPetSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashName_sPetSale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
   <dimension ref="A1:BI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9515,10 +9523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4349C-9B9F-4098-A086-194012A30D18}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9543,6 +9551,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F93F2-18C0-4125-9CCB-DCE788775BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EECBCA5-353D-44E6-A8BA-FDF69B400256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="149">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,14 @@
   </si>
   <si>
     <t>CashName_sPetSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sFortuneWheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashName_sFortuneWheel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9523,10 +9531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4349C-9B9F-4098-A086-194012A30D18}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9559,6 +9567,14 @@
         <v>146</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF4C51D-2EFB-4AF8-8A09-DF875E6E6DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7677516-71B8-4B3D-8747-61360F84BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hoohoo</author>
+    <author>Ju &amp; Hoo</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{827B38CC-DD99-4F6D-93D8-7CDC436EA4BE}">
@@ -349,12 +350,273 @@
         </r>
       </text>
     </comment>
+    <comment ref="O76" authorId="1" shapeId="0" xr:uid="{D1C54C41-5516-47CF-96D5-6001196B2F7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>월정액은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반드시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데일리젬을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날짜만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지급</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일시지급</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적는다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="205">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,18 +956,6 @@
     <t>Cash_sEv5OnePlTwoCash</t>
   </si>
   <si>
-    <t>Cash_sSevenSlot0</t>
-  </si>
-  <si>
-    <t>Cash_sSevenSlot1</t>
-  </si>
-  <si>
-    <t>Cash_sSevenSlot2</t>
-  </si>
-  <si>
-    <t>Cash_sSevenSlot3</t>
-  </si>
-  <si>
     <t>서버아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,12 +1217,6 @@
     <t>Cash_sAutoNew</t>
   </si>
   <si>
-    <t>Item_cFestival</t>
-  </si>
-  <si>
-    <t>Item_cSevenTotal</t>
-  </si>
-  <si>
     <t>Cash_sCharacterGacha</t>
   </si>
   <si>
@@ -1071,6 +1315,20 @@
   </si>
   <si>
     <t>ev1_bigboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
+  </si>
+  <si>
+    <t>Cash_sSevenTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sFestivalTotal</t>
+  </si>
+  <si>
+    <t>Cash_sFestivalTotal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,59 +1752,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BH88"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" collapsed="1"/>
     <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="19.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="9" collapsed="1"/>
+    <col min="51" max="52" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="9" collapsed="1"/>
+    <col min="54" max="54" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" collapsed="1"/>
+    <col min="56" max="56" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9" collapsed="1"/>
+    <col min="58" max="58" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="9" collapsed="1"/>
+    <col min="60" max="60" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="27" customHeight="1">
@@ -1704,10 +1969,10 @@
         <v>32</v>
       </c>
       <c r="BB1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BD1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BF1" t="s">
         <v>89</v>
@@ -1718,7 +1983,7 @@
     </row>
     <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1746,7 +2011,7 @@
         <v>13000</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K2">
         <v>434</v>
@@ -1892,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="BF2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="BH2" t="str">
         <f ca="1">"["&amp;
@@ -1903,7 +2168,7 @@
     </row>
     <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1931,7 +2196,7 @@
         <v>13000</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K3">
         <v>806</v>
@@ -2061,7 +2326,7 @@
     </row>
     <row r="4" spans="1:60">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -2085,7 +2350,7 @@
         <v>6500</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K4">
         <v>256</v>
@@ -2219,10 +2484,10 @@
         <v/>
       </c>
       <c r="BB4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -2403,7 +2668,7 @@
         <v/>
       </c>
       <c r="BD5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -2878,7 +3143,7 @@
         <v>{"id":"ev4_conti_1","key":721,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="BD8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -3008,7 +3273,7 @@
         <v>{"id":"ev4_conti_2","key":884,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="BD9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:60">
@@ -3174,7 +3439,7 @@
         <v/>
       </c>
       <c r="BD10" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -3313,7 +3578,7 @@
         <v>{"id":"ev4_conti_4","key":394,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="BD11" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:60">
@@ -3506,7 +3771,7 @@
         <v/>
       </c>
       <c r="BD12" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -3679,7 +3944,7 @@
         <v>{"id":"ev5_oneplustwo_2","key":537,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
       <c r="BD13" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3861,12 +4126,12 @@
         <v>{"id":"ev5_oneplustwo_3","key":314,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650}</v>
       </c>
       <c r="BD14" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:60">
       <c r="A15" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C15" t="str">
         <f>A15</f>
@@ -3890,7 +4155,7 @@
         <v>1200</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K15">
         <v>741</v>
@@ -3909,7 +4174,7 @@
         <v>33</v>
       </c>
       <c r="O15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -4023,16 +4288,13 @@
 &amp;IF(LEN(AF15)=0,"",","""&amp;AF$1&amp;""":"&amp;AF15)&amp;"}")</f>
         <v/>
       </c>
-      <c r="BD15" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="16" spans="1:60">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -4205,9 +4467,6 @@
 &amp;IF(LEN(AF16)=0,"",","""&amp;AF$1&amp;""":"&amp;AF16)&amp;"}")</f>
         <v/>
       </c>
-      <c r="BD16" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
@@ -4252,10 +4511,10 @@
         <v>33</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" ca="1" si="97"/>
@@ -4297,11 +4556,11 @@
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="102"/>
-        <v>Cash_sSevenSlot1</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI17">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="str">
         <f t="shared" ca="1" si="104"/>
@@ -4554,10 +4813,10 @@
         <v>33</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" ca="1" si="97"/>
@@ -4599,11 +4858,11 @@
       </c>
       <c r="AH19" t="str">
         <f t="shared" si="102"/>
-        <v>Cash_sSevenSlot3</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI19">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="str">
         <f t="shared" ca="1" si="104"/>
@@ -4856,7 +5115,7 @@
         <v>33</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="P21">
         <v>400</v>
@@ -4901,7 +5160,7 @@
       </c>
       <c r="AH21" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI21">
         <f t="shared" si="103"/>
@@ -5158,7 +5417,7 @@
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="P23">
         <v>1200</v>
@@ -5203,7 +5462,7 @@
       </c>
       <c r="AH23" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI23">
         <f t="shared" si="103"/>
@@ -5460,7 +5719,7 @@
         <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="P25">
         <v>300</v>
@@ -5505,7 +5764,7 @@
       </c>
       <c r="AH25" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI25">
         <f t="shared" si="103"/>
@@ -5762,7 +6021,7 @@
         <v>33</v>
       </c>
       <c r="O27" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="P27">
         <v>1000</v>
@@ -5807,7 +6066,7 @@
       </c>
       <c r="AH27" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="AI27">
         <f t="shared" si="103"/>
@@ -5872,10 +6131,10 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -5899,7 +6158,7 @@
         <v>13000</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K28">
         <v>127</v>
@@ -5916,7 +6175,7 @@
         <v>33</v>
       </c>
       <c r="O28" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P28">
         <v>500</v>
@@ -5942,7 +6201,7 @@
         <v>16</v>
       </c>
       <c r="W28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X28">
         <v>20000</v>
@@ -5961,7 +6220,7 @@
       </c>
       <c r="AH28" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI28">
         <f t="shared" si="103"/>
@@ -6026,7 +6285,7 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -6050,7 +6309,7 @@
         <v>19000</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K29">
         <v>194</v>
@@ -6093,7 +6352,7 @@
         <v>16</v>
       </c>
       <c r="W29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X29">
         <v>40000</v>
@@ -6177,7 +6436,7 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -6201,7 +6460,7 @@
         <v>39000</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K30">
         <v>970</v>
@@ -6218,7 +6477,7 @@
         <v>33</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P30">
         <v>1500</v>
@@ -6244,7 +6503,7 @@
         <v>16</v>
       </c>
       <c r="W30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X30">
         <v>60000</v>
@@ -6263,7 +6522,7 @@
       </c>
       <c r="AH30" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI30">
         <f t="shared" si="103"/>
@@ -6328,7 +6587,7 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -6352,7 +6611,7 @@
         <v>69000</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K31">
         <v>874</v>
@@ -6395,7 +6654,7 @@
         <v>16</v>
       </c>
       <c r="W31" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X31">
         <v>10000</v>
@@ -6479,7 +6738,7 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -6503,7 +6762,7 @@
         <v>13000</v>
       </c>
       <c r="J32" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K32">
         <v>127</v>
@@ -6520,7 +6779,7 @@
         <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P32">
         <v>500</v>
@@ -6546,7 +6805,7 @@
         <v>16</v>
       </c>
       <c r="W32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X32">
         <v>20000</v>
@@ -6565,7 +6824,7 @@
       </c>
       <c r="AH32" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI32">
         <f t="shared" si="103"/>
@@ -6630,7 +6889,7 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -6654,7 +6913,7 @@
         <v>19000</v>
       </c>
       <c r="J33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K33">
         <v>194</v>
@@ -6697,7 +6956,7 @@
         <v>16</v>
       </c>
       <c r="W33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X33">
         <v>40000</v>
@@ -6781,7 +7040,7 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -6805,7 +7064,7 @@
         <v>39000</v>
       </c>
       <c r="J34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K34">
         <v>970</v>
@@ -6822,7 +7081,7 @@
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P34">
         <v>1500</v>
@@ -6848,7 +7107,7 @@
         <v>16</v>
       </c>
       <c r="W34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X34">
         <v>60000</v>
@@ -6867,7 +7126,7 @@
       </c>
       <c r="AH34" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI34">
         <f t="shared" si="103"/>
@@ -6932,7 +7191,7 @@
     </row>
     <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -6956,7 +7215,7 @@
         <v>69000</v>
       </c>
       <c r="J35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K35">
         <v>874</v>
@@ -6999,7 +7258,7 @@
         <v>16</v>
       </c>
       <c r="W35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X35">
         <v>10000</v>
@@ -7083,7 +7342,7 @@
     </row>
     <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -7107,7 +7366,7 @@
         <v>13000</v>
       </c>
       <c r="J36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K36">
         <v>127</v>
@@ -7124,7 +7383,7 @@
         <v>33</v>
       </c>
       <c r="O36" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P36">
         <v>500</v>
@@ -7150,7 +7409,7 @@
         <v>16</v>
       </c>
       <c r="W36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X36">
         <v>20000</v>
@@ -7169,7 +7428,7 @@
       </c>
       <c r="AH36" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI36">
         <f t="shared" si="103"/>
@@ -7234,7 +7493,7 @@
     </row>
     <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -7258,7 +7517,7 @@
         <v>19000</v>
       </c>
       <c r="J37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K37">
         <v>194</v>
@@ -7301,7 +7560,7 @@
         <v>16</v>
       </c>
       <c r="W37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X37">
         <v>40000</v>
@@ -7385,7 +7644,7 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -7409,7 +7668,7 @@
         <v>39000</v>
       </c>
       <c r="J38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K38">
         <v>970</v>
@@ -7426,7 +7685,7 @@
         <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="P38">
         <v>1500</v>
@@ -7452,7 +7711,7 @@
         <v>16</v>
       </c>
       <c r="W38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X38">
         <v>60000</v>
@@ -7471,7 +7730,7 @@
       </c>
       <c r="AH38" t="str">
         <f t="shared" si="102"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="AI38">
         <f t="shared" si="103"/>
@@ -7536,7 +7795,7 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -7560,7 +7819,7 @@
         <v>69000</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K39">
         <v>874</v>
@@ -7603,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="W39" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X39">
         <v>10000</v>
@@ -7687,10 +7946,10 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ref="C40:C70" si="119">A40</f>
@@ -7714,7 +7973,7 @@
         <v>1200</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K40">
         <v>444</v>
@@ -7850,7 +8109,7 @@
     </row>
     <row r="41" spans="1:49">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="119"/>
@@ -7874,7 +8133,7 @@
         <v>5900</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>348</v>
@@ -7983,7 +8242,7 @@
     </row>
     <row r="42" spans="1:49">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="119"/>
@@ -8007,7 +8266,7 @@
         <v>12000</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K42">
         <v>653</v>
@@ -8116,7 +8375,7 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="119"/>
@@ -8140,7 +8399,7 @@
         <v>25000</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>487</v>
@@ -8249,7 +8508,7 @@
     </row>
     <row r="44" spans="1:49">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="119"/>
@@ -8273,7 +8532,7 @@
         <v>65000</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>168</v>
@@ -8382,7 +8641,7 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="119"/>
@@ -8406,7 +8665,7 @@
         <v>119000</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K45">
         <v>947</v>
@@ -8515,10 +8774,10 @@
     </row>
     <row r="46" spans="1:49">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="119"/>
@@ -8542,7 +8801,7 @@
         <v>1200</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K46">
         <v>224</v>
@@ -8651,7 +8910,7 @@
     </row>
     <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="119"/>
@@ -8675,7 +8934,7 @@
         <v>5900</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K47">
         <v>392</v>
@@ -8784,7 +9043,7 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="119"/>
@@ -8808,7 +9067,7 @@
         <v>12000</v>
       </c>
       <c r="J48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>759</v>
@@ -8917,7 +9176,7 @@
     </row>
     <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="119"/>
@@ -8941,7 +9200,7 @@
         <v>25000</v>
       </c>
       <c r="J49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>837</v>
@@ -9050,7 +9309,7 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="119"/>
@@ -9074,7 +9333,7 @@
         <v>65000</v>
       </c>
       <c r="J50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>820</v>
@@ -9183,7 +9442,7 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="119"/>
@@ -9207,7 +9466,7 @@
         <v>119000</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K51">
         <v>493</v>
@@ -9316,7 +9575,7 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="119"/>
@@ -9340,7 +9599,7 @@
         <v>1200</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K52">
         <v>354</v>
@@ -9449,7 +9708,7 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="119"/>
@@ -9473,7 +9732,7 @@
         <v>5900</v>
       </c>
       <c r="J53" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K53">
         <v>715</v>
@@ -9582,7 +9841,7 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="119"/>
@@ -9606,7 +9865,7 @@
         <v>12000</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K54">
         <v>891</v>
@@ -9715,7 +9974,7 @@
     </row>
     <row r="55" spans="1:49">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="119"/>
@@ -9739,7 +9998,7 @@
         <v>25000</v>
       </c>
       <c r="J55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K55">
         <v>185</v>
@@ -9848,7 +10107,7 @@
     </row>
     <row r="56" spans="1:49">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="119"/>
@@ -9872,7 +10131,7 @@
         <v>65000</v>
       </c>
       <c r="J56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K56">
         <v>737</v>
@@ -9981,7 +10240,7 @@
     </row>
     <row r="57" spans="1:49">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="119"/>
@@ -10005,7 +10264,7 @@
         <v>119000</v>
       </c>
       <c r="J57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K57">
         <v>574</v>
@@ -10114,7 +10373,7 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="119"/>
@@ -10138,7 +10397,7 @@
         <v>1200</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K58">
         <v>122</v>
@@ -10247,7 +10506,7 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="119"/>
@@ -10271,7 +10530,7 @@
         <v>5900</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K59">
         <v>926</v>
@@ -10380,7 +10639,7 @@
     </row>
     <row r="60" spans="1:49">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="119"/>
@@ -10404,7 +10663,7 @@
         <v>12000</v>
       </c>
       <c r="J60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K60">
         <v>943</v>
@@ -10513,7 +10772,7 @@
     </row>
     <row r="61" spans="1:49">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="119"/>
@@ -10537,7 +10796,7 @@
         <v>25000</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K61">
         <v>106</v>
@@ -10646,7 +10905,7 @@
     </row>
     <row r="62" spans="1:49">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="119"/>
@@ -10670,7 +10929,7 @@
         <v>65000</v>
       </c>
       <c r="J62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K62">
         <v>402</v>
@@ -10779,7 +11038,7 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="119"/>
@@ -10803,7 +11062,7 @@
         <v>119000</v>
       </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K63">
         <v>905</v>
@@ -10912,10 +11171,10 @@
     </row>
     <row r="64" spans="1:49">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="119"/>
@@ -10939,7 +11198,7 @@
         <v>13000</v>
       </c>
       <c r="J64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K64">
         <v>375</v>
@@ -10956,7 +11215,7 @@
         <v>33</v>
       </c>
       <c r="O64" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -11065,7 +11324,7 @@
     </row>
     <row r="65" spans="1:49">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="119"/>
@@ -11089,7 +11348,7 @@
         <v>19000</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K65">
         <v>368</v>
@@ -11108,7 +11367,7 @@
         <v>33</v>
       </c>
       <c r="O65" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -11200,7 +11459,7 @@
     </row>
     <row r="66" spans="1:49">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="119"/>
@@ -11224,7 +11483,7 @@
         <v>39000</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K66">
         <v>481</v>
@@ -11241,7 +11500,7 @@
         <v>33</v>
       </c>
       <c r="O66" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -11333,7 +11592,7 @@
     </row>
     <row r="67" spans="1:49">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="119"/>
@@ -11358,7 +11617,7 @@
         <v>48000</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K67">
         <v>420</v>
@@ -11375,7 +11634,7 @@
         <v>33</v>
       </c>
       <c r="O67" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -11467,7 +11726,7 @@
     </row>
     <row r="68" spans="1:49">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="119"/>
@@ -11491,7 +11750,7 @@
         <v>65000</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K68">
         <v>362</v>
@@ -11508,7 +11767,7 @@
         <v>33</v>
       </c>
       <c r="O68" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -11600,10 +11859,10 @@
     </row>
     <row r="69" spans="1:49">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="119"/>
@@ -11627,7 +11886,7 @@
         <v>1200</v>
       </c>
       <c r="J69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K69">
         <v>654</v>
@@ -11646,7 +11905,7 @@
         <v>33</v>
       </c>
       <c r="O69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P69">
         <v>5</v>
@@ -11746,7 +12005,7 @@
     </row>
     <row r="70" spans="1:49">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="119"/>
@@ -11770,7 +12029,7 @@
         <v>5900</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K70">
         <v>715</v>
@@ -11789,7 +12048,7 @@
         <v>33</v>
       </c>
       <c r="O70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P70">
         <v>5</v>
@@ -11881,10 +12140,10 @@
     </row>
     <row r="71" spans="1:49">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" ref="C71:C87" si="169">A71</f>
@@ -11908,7 +12167,7 @@
         <v>1200</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K71">
         <v>668</v>
@@ -12061,7 +12320,7 @@
     </row>
     <row r="72" spans="1:49">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="169"/>
@@ -12085,7 +12344,7 @@
         <v>5900</v>
       </c>
       <c r="J72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K72">
         <v>188</v>
@@ -12217,7 +12476,7 @@
     </row>
     <row r="73" spans="1:49">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="169"/>
@@ -12241,7 +12500,7 @@
         <v>13000</v>
       </c>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K73">
         <v>284</v>
@@ -12373,7 +12632,7 @@
     </row>
     <row r="74" spans="1:49">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="169"/>
@@ -12397,7 +12656,7 @@
         <v>13000</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K74">
         <v>953</v>
@@ -12537,7 +12796,7 @@
     </row>
     <row r="75" spans="1:49">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="169"/>
@@ -12561,7 +12820,7 @@
         <v>13000</v>
       </c>
       <c r="J75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K75">
         <v>660</v>
@@ -12693,10 +12952,10 @@
     </row>
     <row r="76" spans="1:49">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="169"/>
@@ -12720,7 +12979,7 @@
         <v>5900</v>
       </c>
       <c r="J76" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K76">
         <v>456</v>
@@ -12738,8 +12997,8 @@
       <c r="N76" t="s">
         <v>33</v>
       </c>
-      <c r="O76" t="s">
-        <v>152</v>
+      <c r="O76" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="P76">
         <v>15</v>
@@ -12751,8 +13010,8 @@
       <c r="R76" t="s">
         <v>16</v>
       </c>
-      <c r="S76" t="s">
-        <v>155</v>
+      <c r="S76" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="T76">
         <v>500</v>
@@ -12842,10 +13101,10 @@
     </row>
     <row r="77" spans="1:49">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="169"/>
@@ -12869,7 +13128,7 @@
         <v>5900</v>
       </c>
       <c r="J77" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K77">
         <v>664</v>
@@ -12886,7 +13145,7 @@
         <v>33</v>
       </c>
       <c r="O77" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -13012,10 +13271,10 @@
     </row>
     <row r="78" spans="1:49">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="169"/>
@@ -13039,7 +13298,7 @@
         <v>1200</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K78">
         <v>126</v>
@@ -13166,7 +13425,7 @@
     </row>
     <row r="79" spans="1:49">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="169"/>
@@ -13190,7 +13449,7 @@
         <v>1200</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K79">
         <v>484</v>
@@ -13317,7 +13576,7 @@
     </row>
     <row r="80" spans="1:49">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="169"/>
@@ -13341,7 +13600,7 @@
         <v>1200</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K80">
         <v>584</v>
@@ -13477,7 +13736,7 @@
     </row>
     <row r="81" spans="1:49">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="169"/>
@@ -13501,7 +13760,7 @@
         <v>5900</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K81">
         <v>456</v>
@@ -13628,7 +13887,7 @@
     </row>
     <row r="82" spans="1:49">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="169"/>
@@ -13652,7 +13911,7 @@
         <v>5900</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K82">
         <v>574</v>
@@ -13779,7 +14038,7 @@
     </row>
     <row r="83" spans="1:49">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="169"/>
@@ -13803,7 +14062,7 @@
         <v>13000</v>
       </c>
       <c r="J83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K83">
         <v>117</v>
@@ -13939,7 +14198,7 @@
     </row>
     <row r="84" spans="1:49">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="169"/>
@@ -13963,7 +14222,7 @@
         <v>13000</v>
       </c>
       <c r="J84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K84">
         <v>206</v>
@@ -14090,7 +14349,7 @@
     </row>
     <row r="85" spans="1:49">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="169"/>
@@ -14114,7 +14373,7 @@
         <v>25000</v>
       </c>
       <c r="J85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K85">
         <v>464</v>
@@ -14241,7 +14500,7 @@
     </row>
     <row r="86" spans="1:49">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="169"/>
@@ -14265,7 +14524,7 @@
         <v>48000</v>
       </c>
       <c r="J86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K86">
         <v>836</v>
@@ -14392,7 +14651,7 @@
     </row>
     <row r="87" spans="1:49">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="169"/>
@@ -14416,7 +14675,7 @@
         <v>69000</v>
       </c>
       <c r="J87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K87">
         <v>475</v>
@@ -14552,10 +14811,10 @@
     </row>
     <row r="88" spans="1:49">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" ref="C88" si="220">A88</f>
@@ -14579,7 +14838,7 @@
         <v>109000</v>
       </c>
       <c r="J88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K88">
         <v>360</v>
@@ -14598,7 +14857,7 @@
         <v>33</v>
       </c>
       <c r="O88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -14639,7 +14898,7 @@
         <v>16</v>
       </c>
       <c r="AA88" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AB88">
         <v>750</v>
@@ -14988,18 +15247,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7677516-71B8-4B3D-8747-61360F84BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8530F999-4794-46A8-A269-312EDB83E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="1" r:id="rId2"/>
     <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
+    <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -616,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="211">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1331,27 @@
   <si>
     <t>Cash_sFestivalTotal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagecleared|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageclear_1</t>
+  </si>
+  <si>
+    <t>stageclear_5</t>
+  </si>
+  <si>
+    <t>stageclear_10</t>
   </si>
 </sst>
 </file>
@@ -1752,66 +1774,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BI88"/>
+  <dimension ref="A1:BH88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" collapsed="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="19.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9" collapsed="1"/>
-    <col min="51" max="52" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9" collapsed="1"/>
-    <col min="54" max="54" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9" collapsed="1"/>
-    <col min="56" max="56" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="9" collapsed="1"/>
-    <col min="58" max="58" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="9" collapsed="1"/>
-    <col min="60" max="60" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9" collapsed="1"/>
+    <col min="48" max="49" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="52" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="27" customHeight="1">
@@ -15266,4 +15281,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2243A04E-807C-4718-A6F6-96681A4C2F0B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0863F144-B625-410B-A44C-A6298399A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E535C-53B0-4454-AB19-7DD12261220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -400,6 +400,338 @@
             <charset val="129"/>
           </rPr>
           <t>한다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P68" authorId="0" shapeId="0" xr:uid="{0150D5CF-BC2E-49A2-8DC9-BA37E2604E75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이런건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>읽기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꾼다고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바뀌지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P73" authorId="0" shapeId="0" xr:uid="{F563BEFF-1276-43CE-A30C-792AD7B15788}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이런건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>읽기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꾼다고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바뀌지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
         </r>
       </text>
     </comment>
@@ -863,7 +1195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="224">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1623,6 +1955,28 @@
   </si>
   <si>
     <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>분석 부스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_cAnalysisBoost</t>
+  </si>
+  <si>
+    <t>analysisboost_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysisboost_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysisboost_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2056,66 +2410,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BJ92"/>
+  <dimension ref="A1:BI95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="8" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9" collapsed="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="9" collapsed="1"/>
-    <col min="52" max="53" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" collapsed="1"/>
-    <col min="55" max="55" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9" collapsed="1"/>
-    <col min="57" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9" collapsed="1"/>
-    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9" collapsed="1"/>
-    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9" collapsed="1"/>
+    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="53" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1">
@@ -12042,7 +12389,7 @@
       <c r="O68" t="s">
         <v>33</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="4" t="s">
         <v>173</v>
       </c>
       <c r="Q68">
@@ -12732,7 +13079,7 @@
       <c r="O73" t="s">
         <v>33</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="6" t="s">
         <v>147</v>
       </c>
       <c r="Q73">
@@ -15784,6 +16131,463 @@
       </c>
       <c r="AX92" t="str">
         <f t="shared" si="191"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:50">
+      <c r="A93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" ref="C93:C95" si="270">A93</f>
+        <v>analysisboost_1</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" ref="D93:D95" si="271">IF(ISERROR(FIND("_",A93)),A93,
+LEFT(A93,FIND("_",A93)-1))</f>
+        <v>analysisboost</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:E95" si="272">COUNTA(O93,S93,W93,AA93,AE93)</f>
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.99</v>
+      </c>
+      <c r="J93">
+        <v>1200</v>
+      </c>
+      <c r="K93" t="s">
+        <v>221</v>
+      </c>
+      <c r="L93">
+        <v>384</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ref="M93:M95" si="273">L93</f>
+        <v>384</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" ref="N93:N95" ca="1" si="274">IF(ISBLANK(O93),"",
+VLOOKUP(O93,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="O93" t="s">
+        <v>33</v>
+      </c>
+      <c r="P93" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q93">
+        <v>86400</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" ref="R93:R95" ca="1" si="275">IF(ISBLANK(S93),"",
+VLOOKUP(S93,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="V93" t="str">
+        <f t="shared" ref="V93:V95" ca="1" si="276">IF(ISBLANK(W93),"",
+VLOOKUP(W93,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" ref="Z93:Z95" ca="1" si="277">IF(ISBLANK(AA93),"",
+VLOOKUP(AA93,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" ref="AD93:AD95" ca="1" si="278">IF(ISBLANK(AE93),"",
+VLOOKUP(AE93,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH93" t="str">
+        <f t="shared" ref="AH93:AH95" ca="1" si="279">IF(LEN(N93)=0,"",N93)</f>
+        <v>it</v>
+      </c>
+      <c r="AI93" t="str">
+        <f t="shared" ref="AI93:AI95" si="280">IF(LEN(P93)=0,"",P93)</f>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" ref="AJ93:AJ95" si="281">IF(LEN(Q93)=0,"",Q93)</f>
+        <v>86400</v>
+      </c>
+      <c r="AK93" t="str">
+        <f t="shared" ref="AK93:AK95" ca="1" si="282">IF(LEN(R93)=0,"",R93)</f>
+        <v/>
+      </c>
+      <c r="AL93" t="str">
+        <f t="shared" ref="AL93:AL95" si="283">IF(LEN(T93)=0,"",T93)</f>
+        <v/>
+      </c>
+      <c r="AM93" t="str">
+        <f t="shared" ref="AM93:AM95" si="284">IF(LEN(U93)=0,"",U93)</f>
+        <v/>
+      </c>
+      <c r="AN93" t="str">
+        <f t="shared" ref="AN93:AN95" ca="1" si="285">IF(LEN(V93)=0,"",V93)</f>
+        <v/>
+      </c>
+      <c r="AO93" t="str">
+        <f t="shared" ref="AO93:AO95" si="286">IF(LEN(X93)=0,"",X93)</f>
+        <v/>
+      </c>
+      <c r="AP93" t="str">
+        <f t="shared" ref="AP93:AP95" si="287">IF(LEN(Y93)=0,"",Y93)</f>
+        <v/>
+      </c>
+      <c r="AQ93" t="str">
+        <f t="shared" ref="AQ93:AQ95" ca="1" si="288">IF(LEN(Z93)=0,"",Z93)</f>
+        <v/>
+      </c>
+      <c r="AR93" t="str">
+        <f t="shared" ref="AR93:AR95" si="289">IF(LEN(AB93)=0,"",AB93)</f>
+        <v/>
+      </c>
+      <c r="AS93" t="str">
+        <f t="shared" ref="AS93:AS95" si="290">IF(LEN(AC93)=0,"",AC93)</f>
+        <v/>
+      </c>
+      <c r="AT93" t="str">
+        <f t="shared" ref="AT93:AT95" ca="1" si="291">IF(LEN(AD93)=0,"",AD93)</f>
+        <v/>
+      </c>
+      <c r="AU93" t="str">
+        <f t="shared" ref="AU93:AU95" si="292">IF(LEN(AF93)=0,"",AF93)</f>
+        <v/>
+      </c>
+      <c r="AV93" t="str">
+        <f t="shared" ref="AV93:AV95" si="293">IF(LEN(AG93)=0,"",AG93)</f>
+        <v/>
+      </c>
+      <c r="AW93" t="str">
+        <f t="shared" ref="AW93:AW95" ca="1" si="294">IF(ROW()=2,AX93,OFFSET(AW93,-1,0)&amp;IF(LEN(AX93)=0,"",","&amp;AX93))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX93" t="str">
+        <f t="shared" ref="AX93:AX95" si="295">IF(G93=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C93&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L93
+&amp;IF(LEN(N93)=0,"",","""&amp;N$1&amp;""":"""&amp;N93&amp;"""")
+&amp;IF(LEN(P93)=0,"",","""&amp;P$1&amp;""":"""&amp;P93&amp;"""")
+&amp;IF(LEN(Q93)=0,"",","""&amp;Q$1&amp;""":"&amp;Q93)
+&amp;IF(LEN(R93)=0,"",","""&amp;R$1&amp;""":"""&amp;R93&amp;"""")
+&amp;IF(LEN(T93)=0,"",","""&amp;T$1&amp;""":"""&amp;T93&amp;"""")
+&amp;IF(LEN(U93)=0,"",","""&amp;U$1&amp;""":"&amp;U93)
+&amp;IF(LEN(V93)=0,"",","""&amp;V$1&amp;""":"""&amp;V93&amp;"""")
+&amp;IF(LEN(X93)=0,"",","""&amp;X$1&amp;""":"""&amp;X93&amp;"""")
+&amp;IF(LEN(Y93)=0,"",","""&amp;Y$1&amp;""":"&amp;Y93)
+&amp;IF(LEN(Z93)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z93&amp;"""")
+&amp;IF(LEN(AB93)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB93&amp;"""")
+&amp;IF(LEN(AC93)=0,"",","""&amp;AC$1&amp;""":"&amp;AC93)
+&amp;IF(LEN(AD93)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD93&amp;"""")
+&amp;IF(LEN(AF93)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF93&amp;"""")
+&amp;IF(LEN(AG93)=0,"",","""&amp;AG$1&amp;""":"&amp;AG93)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:50">
+      <c r="A94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="270"/>
+        <v>analysisboost_2</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="271"/>
+        <v>analysisboost</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="272"/>
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>4.99</v>
+      </c>
+      <c r="J94">
+        <v>5900</v>
+      </c>
+      <c r="K94" t="s">
+        <v>222</v>
+      </c>
+      <c r="L94">
+        <v>681</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="273"/>
+        <v>681</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" ca="1" si="274"/>
+        <v>it</v>
+      </c>
+      <c r="O94" t="s">
+        <v>33</v>
+      </c>
+      <c r="P94" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q94">
+        <v>604800</v>
+      </c>
+      <c r="R94" t="str">
+        <f t="shared" ca="1" si="275"/>
+        <v/>
+      </c>
+      <c r="V94" t="str">
+        <f t="shared" ca="1" si="276"/>
+        <v/>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" ca="1" si="277"/>
+        <v/>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" ca="1" si="278"/>
+        <v/>
+      </c>
+      <c r="AH94" t="str">
+        <f t="shared" ca="1" si="279"/>
+        <v>it</v>
+      </c>
+      <c r="AI94" t="str">
+        <f t="shared" si="280"/>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ94">
+        <f t="shared" si="281"/>
+        <v>604800</v>
+      </c>
+      <c r="AK94" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AL94" t="str">
+        <f t="shared" si="283"/>
+        <v/>
+      </c>
+      <c r="AM94" t="str">
+        <f t="shared" si="284"/>
+        <v/>
+      </c>
+      <c r="AN94" t="str">
+        <f t="shared" ca="1" si="285"/>
+        <v/>
+      </c>
+      <c r="AO94" t="str">
+        <f t="shared" si="286"/>
+        <v/>
+      </c>
+      <c r="AP94" t="str">
+        <f t="shared" si="287"/>
+        <v/>
+      </c>
+      <c r="AQ94" t="str">
+        <f t="shared" ca="1" si="288"/>
+        <v/>
+      </c>
+      <c r="AR94" t="str">
+        <f t="shared" si="289"/>
+        <v/>
+      </c>
+      <c r="AS94" t="str">
+        <f t="shared" si="290"/>
+        <v/>
+      </c>
+      <c r="AT94" t="str">
+        <f t="shared" ca="1" si="291"/>
+        <v/>
+      </c>
+      <c r="AU94" t="str">
+        <f t="shared" si="292"/>
+        <v/>
+      </c>
+      <c r="AV94" t="str">
+        <f t="shared" si="293"/>
+        <v/>
+      </c>
+      <c r="AW94" t="str">
+        <f t="shared" ca="1" si="294"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX94" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:50">
+      <c r="A95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="270"/>
+        <v>analysisboost_3</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="271"/>
+        <v>analysisboost</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="272"/>
+        <v>4</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>9.99</v>
+      </c>
+      <c r="J95">
+        <v>13000</v>
+      </c>
+      <c r="K95" t="s">
+        <v>223</v>
+      </c>
+      <c r="L95">
+        <v>813</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="273"/>
+        <v>813</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" ca="1" si="274"/>
+        <v>it</v>
+      </c>
+      <c r="O95" t="s">
+        <v>33</v>
+      </c>
+      <c r="P95" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q95">
+        <v>2592000</v>
+      </c>
+      <c r="R95" t="str">
+        <f t="shared" ca="1" si="275"/>
+        <v>cu</v>
+      </c>
+      <c r="S95" t="s">
+        <v>16</v>
+      </c>
+      <c r="T95" t="s">
+        <v>56</v>
+      </c>
+      <c r="U95">
+        <v>1000</v>
+      </c>
+      <c r="V95" t="str">
+        <f t="shared" ca="1" si="276"/>
+        <v>cu</v>
+      </c>
+      <c r="W95" t="s">
+        <v>16</v>
+      </c>
+      <c r="X95" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y95">
+        <v>25000</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC95">
+        <v>750</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" ca="1" si="278"/>
+        <v/>
+      </c>
+      <c r="AH95" t="str">
+        <f t="shared" ca="1" si="279"/>
+        <v>it</v>
+      </c>
+      <c r="AI95" t="str">
+        <f t="shared" si="280"/>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ95">
+        <f t="shared" si="281"/>
+        <v>2592000</v>
+      </c>
+      <c r="AK95" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v>cu</v>
+      </c>
+      <c r="AL95" t="str">
+        <f t="shared" si="283"/>
+        <v>EN</v>
+      </c>
+      <c r="AM95">
+        <f t="shared" si="284"/>
+        <v>1000</v>
+      </c>
+      <c r="AN95" t="str">
+        <f t="shared" ca="1" si="285"/>
+        <v>cu</v>
+      </c>
+      <c r="AO95" t="str">
+        <f t="shared" si="286"/>
+        <v>GO</v>
+      </c>
+      <c r="AP95">
+        <f t="shared" si="287"/>
+        <v>25000</v>
+      </c>
+      <c r="AQ95" t="str">
+        <f t="shared" ca="1" si="288"/>
+        <v>cu</v>
+      </c>
+      <c r="AR95" t="str">
+        <f t="shared" si="289"/>
+        <v>DI</v>
+      </c>
+      <c r="AS95">
+        <f t="shared" si="290"/>
+        <v>750</v>
+      </c>
+      <c r="AT95" t="str">
+        <f t="shared" ca="1" si="291"/>
+        <v/>
+      </c>
+      <c r="AU95" t="str">
+        <f t="shared" si="292"/>
+        <v/>
+      </c>
+      <c r="AV95" t="str">
+        <f t="shared" si="293"/>
+        <v/>
+      </c>
+      <c r="AW95" t="str">
+        <f t="shared" ca="1" si="294"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX95" t="str">
+        <f t="shared" si="295"/>
         <v/>
       </c>
     </row>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E535C-53B0-4454-AB19-7DD12261220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311F642-80C2-45A5-BF81-E0232E0CFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
     <sheet name="LevelPassTable" sheetId="1" r:id="rId2"/>
     <sheet name="ConsumeItemTable" sheetId="3" r:id="rId3"/>
     <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
+    <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
+    <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1190,12 +1192,178 @@
         </r>
       </text>
     </comment>
+    <comment ref="P95" authorId="0" shapeId="0" xr:uid="{F1A64B74-5CA9-40A9-A59D-6163A476FAB6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이런건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>읽기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때문에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>테이블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바꾼다고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바뀌지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="247">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1786,16 +1954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>autonew_1</t>
-  </si>
-  <si>
-    <t>autonew_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_sAutoNew</t>
-  </si>
-  <si>
     <t>Cash_sCharacterGacha</t>
   </si>
   <si>
@@ -1976,6 +2134,101 @@
   </si>
   <si>
     <t>analysisboost_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell_0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell_0018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquired|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell_0001</t>
+  </si>
+  <si>
+    <t>Spell_0002</t>
+  </si>
+  <si>
+    <t>spellId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13_acquiredspell</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell</t>
+  </si>
+  <si>
+    <t>ev14_unacquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0001</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0002</t>
+  </si>
+  <si>
+    <t>ev13_acquiredspell_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sAcquiredSpell</t>
+  </si>
+  <si>
+    <t>actorId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev15_acquiredcompanion</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>ev17_unacquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquired|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2410,13 +2663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BI95"/>
+  <dimension ref="A1:BI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AM89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2488,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2637,7 +2890,7 @@
     </row>
     <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2665,7 +2918,7 @@
         <v>13000</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L2">
         <v>744</v>
@@ -2822,7 +3075,7 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3" si="22">A3</f>
@@ -2847,7 +3100,7 @@
         <v>6500</v>
       </c>
       <c r="K3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L3">
         <v>493</v>
@@ -2985,7 +3238,7 @@
     </row>
     <row r="4" spans="1:61">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3013,7 +3266,7 @@
         <v>13000</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L4">
         <v>234</v>
@@ -3132,12 +3385,12 @@
         <v>151</v>
       </c>
       <c r="BE4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:61">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3161,7 +3414,7 @@
         <v>6500</v>
       </c>
       <c r="K5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L5">
         <v>125</v>
@@ -3287,7 +3540,7 @@
         <v/>
       </c>
       <c r="BE5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:61">
@@ -3768,7 +4021,7 @@
         <v/>
       </c>
       <c r="BE8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -3926,7 +4179,7 @@
         <v>{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="BE9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -4056,7 +4309,7 @@
         <v>{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="BE10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -4222,7 +4475,7 @@
         <v/>
       </c>
       <c r="BE11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -4361,7 +4614,7 @@
         <v>{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="BE12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:61">
@@ -4860,7 +5113,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C17" si="84">A16</f>
@@ -4885,7 +5138,7 @@
         <v>13000</v>
       </c>
       <c r="K16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L16">
         <v>682</v>
@@ -4917,7 +5170,7 @@
         <v>16</v>
       </c>
       <c r="T16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U16">
         <v>50000</v>
@@ -5028,7 +5281,7 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="84"/>
@@ -5052,7 +5305,7 @@
         <v>13000</v>
       </c>
       <c r="K17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L17">
         <v>601</v>
@@ -5082,7 +5335,7 @@
         <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U17">
         <v>30000</v>
@@ -5170,7 +5423,7 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" t="str">
         <f>A18</f>
@@ -5194,7 +5447,7 @@
         <v>1200</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L18">
         <v>797</v>
@@ -5213,7 +5466,7 @@
         <v>33</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5313,7 +5566,7 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C19" t="str">
         <f>A19</f>
@@ -5348,7 +5601,7 @@
         <v>33</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -5378,7 +5631,7 @@
         <v>16</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y19">
         <v>100000</v>
@@ -5686,7 +5939,7 @@
         <v>33</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>75</v>
@@ -5988,7 +6241,7 @@
         <v>33</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -6290,7 +6543,7 @@
         <v>33</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>400</v>
@@ -6592,7 +6845,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>1200</v>
@@ -6894,7 +7147,7 @@
         <v>33</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>300</v>
@@ -7196,7 +7449,7 @@
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>1000</v>
@@ -7306,10 +7559,10 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -7333,7 +7586,7 @@
         <v>13000</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L32">
         <v>359</v>
@@ -7350,7 +7603,7 @@
         <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>500</v>
@@ -7376,7 +7629,7 @@
         <v>16</v>
       </c>
       <c r="X32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y32">
         <v>20000</v>
@@ -7460,7 +7713,7 @@
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -7484,7 +7737,7 @@
         <v>19000</v>
       </c>
       <c r="K33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L33">
         <v>881</v>
@@ -7527,7 +7780,7 @@
         <v>16</v>
       </c>
       <c r="X33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y33">
         <v>40000</v>
@@ -7611,7 +7864,7 @@
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -7635,7 +7888,7 @@
         <v>39000</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34">
         <v>108</v>
@@ -7652,7 +7905,7 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>1500</v>
@@ -7678,7 +7931,7 @@
         <v>16</v>
       </c>
       <c r="X34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y34">
         <v>60000</v>
@@ -7762,7 +8015,7 @@
     </row>
     <row r="35" spans="1:50">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -7786,7 +8039,7 @@
         <v>69000</v>
       </c>
       <c r="K35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L35">
         <v>550</v>
@@ -7829,7 +8082,7 @@
         <v>16</v>
       </c>
       <c r="X35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y35">
         <v>10000</v>
@@ -7913,7 +8166,7 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -7937,7 +8190,7 @@
         <v>13000</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L36">
         <v>397</v>
@@ -7954,7 +8207,7 @@
         <v>33</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>500</v>
@@ -7980,7 +8233,7 @@
         <v>16</v>
       </c>
       <c r="X36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y36">
         <v>20000</v>
@@ -8064,7 +8317,7 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -8088,7 +8341,7 @@
         <v>19000</v>
       </c>
       <c r="K37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L37">
         <v>401</v>
@@ -8131,7 +8384,7 @@
         <v>16</v>
       </c>
       <c r="X37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y37">
         <v>40000</v>
@@ -8215,7 +8468,7 @@
     </row>
     <row r="38" spans="1:50">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -8239,7 +8492,7 @@
         <v>39000</v>
       </c>
       <c r="K38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L38">
         <v>177</v>
@@ -8256,7 +8509,7 @@
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>1500</v>
@@ -8282,7 +8535,7 @@
         <v>16</v>
       </c>
       <c r="X38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y38">
         <v>60000</v>
@@ -8383,7 +8636,7 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -8407,7 +8660,7 @@
         <v>69000</v>
       </c>
       <c r="K39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L39">
         <v>506</v>
@@ -8450,7 +8703,7 @@
         <v>16</v>
       </c>
       <c r="X39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y39">
         <v>10000</v>
@@ -8534,7 +8787,7 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -8558,7 +8811,7 @@
         <v>13000</v>
       </c>
       <c r="K40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L40">
         <v>741</v>
@@ -8575,7 +8828,7 @@
         <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>500</v>
@@ -8601,7 +8854,7 @@
         <v>16</v>
       </c>
       <c r="X40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y40">
         <v>20000</v>
@@ -8685,7 +8938,7 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -8709,7 +8962,7 @@
         <v>19000</v>
       </c>
       <c r="K41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L41">
         <v>578</v>
@@ -8752,7 +9005,7 @@
         <v>16</v>
       </c>
       <c r="X41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y41">
         <v>40000</v>
@@ -8836,7 +9089,7 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -8860,7 +9113,7 @@
         <v>39000</v>
       </c>
       <c r="K42" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L42">
         <v>106</v>
@@ -8877,7 +9130,7 @@
         <v>33</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>1500</v>
@@ -8903,7 +9156,7 @@
         <v>16</v>
       </c>
       <c r="X42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y42">
         <v>60000</v>
@@ -8987,7 +9240,7 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -9011,7 +9264,7 @@
         <v>69000</v>
       </c>
       <c r="K43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L43">
         <v>440</v>
@@ -9054,7 +9307,7 @@
         <v>16</v>
       </c>
       <c r="X43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y43">
         <v>10000</v>
@@ -12390,7 +12643,7 @@
         <v>33</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -12525,7 +12778,7 @@
         <v>33</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -12658,7 +12911,7 @@
         <v>33</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -12744,7 +12997,7 @@
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX70" t="str">
-        <f t="shared" ref="AX70:AX92" si="191">IF(G70=FALSE,"",
+        <f t="shared" ref="AX70:AX91" si="191">IF(G70=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C70&amp;""""
 &amp;","""&amp;L$1&amp;""":"&amp;L70
 &amp;IF(LEN(N70)=0,"",","""&amp;N$1&amp;""":"""&amp;N70&amp;"""")
@@ -12774,7 +13027,7 @@
         <v>petsale_4</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D92" si="192">IF(ISERROR(FIND("_",A71)),A71,
+        <f t="shared" ref="D71:D91" si="192">IF(ISERROR(FIND("_",A71)),A71,
 LEFT(A71,FIND("_",A71)-1))</f>
         <v>petsale</v>
       </c>
@@ -12809,7 +13062,7 @@
         <v>33</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -12942,7 +13195,7 @@
         <v>33</v>
       </c>
       <c r="P72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -13999,7 +14252,7 @@
         <v>484</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79:M92" si="224">L79</f>
+        <f t="shared" ref="M79:M91" si="224">L79</f>
         <v>484</v>
       </c>
       <c r="N79" t="str">
@@ -14125,7 +14378,7 @@
     </row>
     <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>150</v>
@@ -14152,7 +14405,7 @@
         <v>5900</v>
       </c>
       <c r="K80" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L80">
         <v>212</v>
@@ -14274,7 +14527,7 @@
     </row>
     <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
         <v>152</v>
@@ -14301,7 +14554,7 @@
         <v>5900</v>
       </c>
       <c r="K81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L81">
         <v>131</v>
@@ -14324,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" ref="R81:R92" ca="1" si="228">IF(ISBLANK(S81),"",
+        <f t="shared" ref="R81:R91" ca="1" si="228">IF(ISBLANK(S81),"",
 VLOOKUP(S81,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -14339,7 +14592,7 @@
         <v>750</v>
       </c>
       <c r="V81" t="str">
-        <f t="shared" ref="V81:V92" ca="1" si="229">IF(ISBLANK(W81),"",
+        <f t="shared" ref="V81:V91" ca="1" si="229">IF(ISBLANK(W81),"",
 VLOOKUP(W81,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -15967,44 +16220,45 @@
     </row>
     <row r="92" spans="1:50">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ref="C92" si="249">A92</f>
-        <v>autonew_1</v>
+        <f t="shared" ref="C92:C94" si="249">A92</f>
+        <v>analysisboost_1</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="192"/>
-        <v>autonew</v>
+        <f t="shared" ref="D92:D94" si="250">IF(ISERROR(FIND("_",A92)),A92,
+LEFT(A92,FIND("_",A92)-1))</f>
+        <v>analysisboost</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="250">COUNTA(O92,S92,W92,AA92,AE92)</f>
-        <v>4</v>
+        <f t="shared" ref="E92:E94" si="251">COUNTA(O92,S92,W92,AA92,AE92)</f>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>99.99</v>
+        <v>0.99</v>
       </c>
       <c r="J92">
-        <v>109000</v>
+        <v>1200</v>
       </c>
       <c r="K92" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="L92">
-        <v>792</v>
+        <v>384</v>
       </c>
       <c r="M92">
-        <f t="shared" si="224"/>
-        <v>792</v>
+        <f t="shared" ref="M92:M94" si="252">L92</f>
+        <v>384</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" ref="N92" ca="1" si="251">IF(ISBLANK(O92),"",
+        <f t="shared" ref="N92:N94" ca="1" si="253">IF(ISBLANK(O92),"",
 VLOOKUP(O92,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -16013,439 +16267,433 @@
         <v>33</v>
       </c>
       <c r="P92" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>86400</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" ca="1" si="228"/>
-        <v>cu</v>
-      </c>
-      <c r="S92" t="s">
-        <v>16</v>
-      </c>
-      <c r="T92" t="s">
-        <v>56</v>
-      </c>
-      <c r="U92">
-        <v>1000</v>
+        <f t="shared" ref="R92:R94" ca="1" si="254">IF(ISBLANK(S92),"",
+VLOOKUP(S92,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="V92" t="str">
-        <f t="shared" ca="1" si="229"/>
-        <v>cu</v>
-      </c>
-      <c r="W92" t="s">
-        <v>16</v>
-      </c>
-      <c r="X92" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y92">
-        <v>25000</v>
+        <f t="shared" ref="V92:V94" ca="1" si="255">IF(ISBLANK(W92),"",
+VLOOKUP(W92,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" ref="Z92" ca="1" si="252">IF(ISBLANK(AA92),"",
+        <f t="shared" ref="Z92:Z94" ca="1" si="256">IF(ISBLANK(AA92),"",
 VLOOKUP(AA92,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC92">
-        <v>750</v>
+        <v/>
       </c>
       <c r="AD92" t="str">
-        <f t="shared" ref="AD92" ca="1" si="253">IF(ISBLANK(AE92),"",
+        <f t="shared" ref="AD92:AD94" ca="1" si="257">IF(ISBLANK(AE92),"",
 VLOOKUP(AE92,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" ref="AH92" ca="1" si="254">IF(LEN(N92)=0,"",N92)</f>
+        <f t="shared" ref="AH92:AH94" ca="1" si="258">IF(LEN(N92)=0,"",N92)</f>
         <v>it</v>
       </c>
       <c r="AI92" t="str">
-        <f t="shared" ref="AI92" si="255">IF(LEN(P92)=0,"",P92)</f>
-        <v>Cash_sAutoNew</v>
+        <f t="shared" ref="AI92:AI94" si="259">IF(LEN(P92)=0,"",P92)</f>
+        <v>Item_cAnalysisBoost</v>
       </c>
       <c r="AJ92">
-        <f t="shared" ref="AJ92" si="256">IF(LEN(Q92)=0,"",Q92)</f>
-        <v>1</v>
+        <f t="shared" ref="AJ92:AJ94" si="260">IF(LEN(Q92)=0,"",Q92)</f>
+        <v>86400</v>
       </c>
       <c r="AK92" t="str">
-        <f t="shared" ref="AK92" ca="1" si="257">IF(LEN(R92)=0,"",R92)</f>
-        <v>cu</v>
+        <f t="shared" ref="AK92:AK94" ca="1" si="261">IF(LEN(R92)=0,"",R92)</f>
+        <v/>
       </c>
       <c r="AL92" t="str">
-        <f t="shared" ref="AL92" si="258">IF(LEN(T92)=0,"",T92)</f>
-        <v>EN</v>
-      </c>
-      <c r="AM92">
-        <f t="shared" ref="AM92" si="259">IF(LEN(U92)=0,"",U92)</f>
-        <v>1000</v>
+        <f t="shared" ref="AL92:AL94" si="262">IF(LEN(T92)=0,"",T92)</f>
+        <v/>
+      </c>
+      <c r="AM92" t="str">
+        <f t="shared" ref="AM92:AM94" si="263">IF(LEN(U92)=0,"",U92)</f>
+        <v/>
       </c>
       <c r="AN92" t="str">
-        <f t="shared" ref="AN92" ca="1" si="260">IF(LEN(V92)=0,"",V92)</f>
-        <v>cu</v>
+        <f t="shared" ref="AN92:AN94" ca="1" si="264">IF(LEN(V92)=0,"",V92)</f>
+        <v/>
       </c>
       <c r="AO92" t="str">
-        <f t="shared" ref="AO92" si="261">IF(LEN(X92)=0,"",X92)</f>
-        <v>GO</v>
-      </c>
-      <c r="AP92">
-        <f t="shared" ref="AP92" si="262">IF(LEN(Y92)=0,"",Y92)</f>
-        <v>25000</v>
+        <f t="shared" ref="AO92:AO94" si="265">IF(LEN(X92)=0,"",X92)</f>
+        <v/>
+      </c>
+      <c r="AP92" t="str">
+        <f t="shared" ref="AP92:AP94" si="266">IF(LEN(Y92)=0,"",Y92)</f>
+        <v/>
       </c>
       <c r="AQ92" t="str">
-        <f t="shared" ref="AQ92" ca="1" si="263">IF(LEN(Z92)=0,"",Z92)</f>
-        <v>cu</v>
+        <f t="shared" ref="AQ92:AQ94" ca="1" si="267">IF(LEN(Z92)=0,"",Z92)</f>
+        <v/>
       </c>
       <c r="AR92" t="str">
-        <f t="shared" ref="AR92" si="264">IF(LEN(AB92)=0,"",AB92)</f>
-        <v>DI</v>
-      </c>
-      <c r="AS92">
-        <f t="shared" ref="AS92" si="265">IF(LEN(AC92)=0,"",AC92)</f>
-        <v>750</v>
+        <f t="shared" ref="AR92:AR94" si="268">IF(LEN(AB92)=0,"",AB92)</f>
+        <v/>
+      </c>
+      <c r="AS92" t="str">
+        <f t="shared" ref="AS92:AS94" si="269">IF(LEN(AC92)=0,"",AC92)</f>
+        <v/>
       </c>
       <c r="AT92" t="str">
-        <f t="shared" ref="AT92" ca="1" si="266">IF(LEN(AD92)=0,"",AD92)</f>
+        <f t="shared" ref="AT92:AT94" ca="1" si="270">IF(LEN(AD92)=0,"",AD92)</f>
         <v/>
       </c>
       <c r="AU92" t="str">
-        <f t="shared" ref="AU92" si="267">IF(LEN(AF92)=0,"",AF92)</f>
+        <f t="shared" ref="AU92:AU94" si="271">IF(LEN(AF92)=0,"",AF92)</f>
         <v/>
       </c>
       <c r="AV92" t="str">
-        <f t="shared" ref="AV92" si="268">IF(LEN(AG92)=0,"",AG92)</f>
+        <f t="shared" ref="AV92:AV94" si="272">IF(LEN(AG92)=0,"",AG92)</f>
         <v/>
       </c>
       <c r="AW92" t="str">
-        <f t="shared" ref="AW92" ca="1" si="269">IF(ROW()=2,AX92,OFFSET(AW92,-1,0)&amp;IF(LEN(AX92)=0,"",","&amp;AX92))</f>
+        <f t="shared" ref="AW92:AW94" ca="1" si="273">IF(ROW()=2,AX92,OFFSET(AW92,-1,0)&amp;IF(LEN(AX92)=0,"",","&amp;AX92))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX92" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" ref="AX92:AX94" si="274">IF(G92=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C92&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L92
+&amp;IF(LEN(N92)=0,"",","""&amp;N$1&amp;""":"""&amp;N92&amp;"""")
+&amp;IF(LEN(P92)=0,"",","""&amp;P$1&amp;""":"""&amp;P92&amp;"""")
+&amp;IF(LEN(Q92)=0,"",","""&amp;Q$1&amp;""":"&amp;Q92)
+&amp;IF(LEN(R92)=0,"",","""&amp;R$1&amp;""":"""&amp;R92&amp;"""")
+&amp;IF(LEN(T92)=0,"",","""&amp;T$1&amp;""":"""&amp;T92&amp;"""")
+&amp;IF(LEN(U92)=0,"",","""&amp;U$1&amp;""":"&amp;U92)
+&amp;IF(LEN(V92)=0,"",","""&amp;V$1&amp;""":"""&amp;V92&amp;"""")
+&amp;IF(LEN(X92)=0,"",","""&amp;X$1&amp;""":"""&amp;X92&amp;"""")
+&amp;IF(LEN(Y92)=0,"",","""&amp;Y$1&amp;""":"&amp;Y92)
+&amp;IF(LEN(Z92)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z92&amp;"""")
+&amp;IF(LEN(AB92)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB92&amp;"""")
+&amp;IF(LEN(AC92)=0,"",","""&amp;AC$1&amp;""":"&amp;AC92)
+&amp;IF(LEN(AD92)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD92&amp;"""")
+&amp;IF(LEN(AF92)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF92&amp;"""")
+&amp;IF(LEN(AG92)=0,"",","""&amp;AG$1&amp;""":"&amp;AG92)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:50">
       <c r="A93" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" t="s">
         <v>219</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ref="C93:C95" si="270">A93</f>
-        <v>analysisboost_1</v>
+        <f t="shared" si="249"/>
+        <v>analysisboost_2</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" ref="D93:D95" si="271">IF(ISERROR(FIND("_",A93)),A93,
-LEFT(A93,FIND("_",A93)-1))</f>
+        <f t="shared" si="250"/>
         <v>analysisboost</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93:E95" si="272">COUNTA(O93,S93,W93,AA93,AE93)</f>
+        <f t="shared" si="251"/>
         <v>1</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="J93">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L93">
-        <v>384</v>
+        <v>681</v>
       </c>
       <c r="M93">
-        <f t="shared" ref="M93:M95" si="273">L93</f>
-        <v>384</v>
+        <f t="shared" si="252"/>
+        <v>681</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" ref="N93:N95" ca="1" si="274">IF(ISBLANK(O93),"",
-VLOOKUP(O93,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="253"/>
         <v>it</v>
       </c>
       <c r="O93" t="s">
         <v>33</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q93">
-        <v>86400</v>
+        <v>604800</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" ref="R93:R95" ca="1" si="275">IF(ISBLANK(S93),"",
-VLOOKUP(S93,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="254"/>
         <v/>
       </c>
       <c r="V93" t="str">
-        <f t="shared" ref="V93:V95" ca="1" si="276">IF(ISBLANK(W93),"",
-VLOOKUP(W93,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="255"/>
         <v/>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" ref="Z93:Z95" ca="1" si="277">IF(ISBLANK(AA93),"",
-VLOOKUP(AA93,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="256"/>
         <v/>
       </c>
       <c r="AD93" t="str">
-        <f t="shared" ref="AD93:AD95" ca="1" si="278">IF(ISBLANK(AE93),"",
-VLOOKUP(AE93,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="257"/>
         <v/>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" ref="AH93:AH95" ca="1" si="279">IF(LEN(N93)=0,"",N93)</f>
+        <f t="shared" ca="1" si="258"/>
         <v>it</v>
       </c>
       <c r="AI93" t="str">
-        <f t="shared" ref="AI93:AI95" si="280">IF(LEN(P93)=0,"",P93)</f>
+        <f t="shared" si="259"/>
         <v>Item_cAnalysisBoost</v>
       </c>
       <c r="AJ93">
-        <f t="shared" ref="AJ93:AJ95" si="281">IF(LEN(Q93)=0,"",Q93)</f>
-        <v>86400</v>
+        <f t="shared" si="260"/>
+        <v>604800</v>
       </c>
       <c r="AK93" t="str">
-        <f t="shared" ref="AK93:AK95" ca="1" si="282">IF(LEN(R93)=0,"",R93)</f>
+        <f t="shared" ca="1" si="261"/>
         <v/>
       </c>
       <c r="AL93" t="str">
-        <f t="shared" ref="AL93:AL95" si="283">IF(LEN(T93)=0,"",T93)</f>
+        <f t="shared" si="262"/>
         <v/>
       </c>
       <c r="AM93" t="str">
-        <f t="shared" ref="AM93:AM95" si="284">IF(LEN(U93)=0,"",U93)</f>
+        <f t="shared" si="263"/>
         <v/>
       </c>
       <c r="AN93" t="str">
-        <f t="shared" ref="AN93:AN95" ca="1" si="285">IF(LEN(V93)=0,"",V93)</f>
+        <f t="shared" ca="1" si="264"/>
         <v/>
       </c>
       <c r="AO93" t="str">
-        <f t="shared" ref="AO93:AO95" si="286">IF(LEN(X93)=0,"",X93)</f>
+        <f t="shared" si="265"/>
         <v/>
       </c>
       <c r="AP93" t="str">
-        <f t="shared" ref="AP93:AP95" si="287">IF(LEN(Y93)=0,"",Y93)</f>
+        <f t="shared" si="266"/>
         <v/>
       </c>
       <c r="AQ93" t="str">
-        <f t="shared" ref="AQ93:AQ95" ca="1" si="288">IF(LEN(Z93)=0,"",Z93)</f>
+        <f t="shared" ca="1" si="267"/>
         <v/>
       </c>
       <c r="AR93" t="str">
-        <f t="shared" ref="AR93:AR95" si="289">IF(LEN(AB93)=0,"",AB93)</f>
+        <f t="shared" si="268"/>
         <v/>
       </c>
       <c r="AS93" t="str">
-        <f t="shared" ref="AS93:AS95" si="290">IF(LEN(AC93)=0,"",AC93)</f>
+        <f t="shared" si="269"/>
         <v/>
       </c>
       <c r="AT93" t="str">
-        <f t="shared" ref="AT93:AT95" ca="1" si="291">IF(LEN(AD93)=0,"",AD93)</f>
+        <f t="shared" ca="1" si="270"/>
         <v/>
       </c>
       <c r="AU93" t="str">
-        <f t="shared" ref="AU93:AU95" si="292">IF(LEN(AF93)=0,"",AF93)</f>
+        <f t="shared" si="271"/>
         <v/>
       </c>
       <c r="AV93" t="str">
-        <f t="shared" ref="AV93:AV95" si="293">IF(LEN(AG93)=0,"",AG93)</f>
+        <f t="shared" si="272"/>
         <v/>
       </c>
       <c r="AW93" t="str">
-        <f t="shared" ref="AW93:AW95" ca="1" si="294">IF(ROW()=2,AX93,OFFSET(AW93,-1,0)&amp;IF(LEN(AX93)=0,"",","&amp;AX93))</f>
+        <f t="shared" ca="1" si="273"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX93" t="str">
-        <f t="shared" ref="AX93:AX95" si="295">IF(G93=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C93&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L93
-&amp;IF(LEN(N93)=0,"",","""&amp;N$1&amp;""":"""&amp;N93&amp;"""")
-&amp;IF(LEN(P93)=0,"",","""&amp;P$1&amp;""":"""&amp;P93&amp;"""")
-&amp;IF(LEN(Q93)=0,"",","""&amp;Q$1&amp;""":"&amp;Q93)
-&amp;IF(LEN(R93)=0,"",","""&amp;R$1&amp;""":"""&amp;R93&amp;"""")
-&amp;IF(LEN(T93)=0,"",","""&amp;T$1&amp;""":"""&amp;T93&amp;"""")
-&amp;IF(LEN(U93)=0,"",","""&amp;U$1&amp;""":"&amp;U93)
-&amp;IF(LEN(V93)=0,"",","""&amp;V$1&amp;""":"""&amp;V93&amp;"""")
-&amp;IF(LEN(X93)=0,"",","""&amp;X$1&amp;""":"""&amp;X93&amp;"""")
-&amp;IF(LEN(Y93)=0,"",","""&amp;Y$1&amp;""":"&amp;Y93)
-&amp;IF(LEN(Z93)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z93&amp;"""")
-&amp;IF(LEN(AB93)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB93&amp;"""")
-&amp;IF(LEN(AC93)=0,"",","""&amp;AC$1&amp;""":"&amp;AC93)
-&amp;IF(LEN(AD93)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD93&amp;"""")
-&amp;IF(LEN(AF93)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF93&amp;"""")
-&amp;IF(LEN(AG93)=0,"",","""&amp;AG$1&amp;""":"&amp;AG93)&amp;"}")</f>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:50">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="270"/>
-        <v>analysisboost_2</v>
+        <f t="shared" si="249"/>
+        <v>analysisboost_3</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="250"/>
         <v>analysisboost</v>
       </c>
       <c r="E94">
-        <f t="shared" si="272"/>
-        <v>1</v>
+        <f t="shared" si="251"/>
+        <v>4</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="J94">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="K94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L94">
-        <v>681</v>
+        <v>813</v>
       </c>
       <c r="M94">
-        <f t="shared" si="273"/>
-        <v>681</v>
+        <f t="shared" si="252"/>
+        <v>813</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" ca="1" si="274"/>
+        <f t="shared" ca="1" si="253"/>
         <v>it</v>
       </c>
       <c r="O94" t="s">
         <v>33</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q94">
-        <v>604800</v>
+        <v>2592000</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" ca="1" si="275"/>
-        <v/>
+        <f t="shared" ca="1" si="254"/>
+        <v>cu</v>
+      </c>
+      <c r="S94" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" t="s">
+        <v>56</v>
+      </c>
+      <c r="U94">
+        <v>1000</v>
       </c>
       <c r="V94" t="str">
-        <f t="shared" ca="1" si="276"/>
-        <v/>
+        <f t="shared" ca="1" si="255"/>
+        <v>cu</v>
+      </c>
+      <c r="W94" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y94">
+        <v>25000</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" ca="1" si="277"/>
-        <v/>
+        <f t="shared" ca="1" si="256"/>
+        <v>cu</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC94">
+        <v>750</v>
       </c>
       <c r="AD94" t="str">
-        <f t="shared" ca="1" si="278"/>
+        <f t="shared" ca="1" si="257"/>
         <v/>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" ca="1" si="279"/>
+        <f t="shared" ca="1" si="258"/>
         <v>it</v>
       </c>
       <c r="AI94" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="259"/>
         <v>Item_cAnalysisBoost</v>
       </c>
       <c r="AJ94">
-        <f t="shared" si="281"/>
-        <v>604800</v>
+        <f t="shared" si="260"/>
+        <v>2592000</v>
       </c>
       <c r="AK94" t="str">
-        <f t="shared" ca="1" si="282"/>
-        <v/>
+        <f t="shared" ca="1" si="261"/>
+        <v>cu</v>
       </c>
       <c r="AL94" t="str">
-        <f t="shared" si="283"/>
-        <v/>
-      </c>
-      <c r="AM94" t="str">
-        <f t="shared" si="284"/>
-        <v/>
+        <f t="shared" si="262"/>
+        <v>EN</v>
+      </c>
+      <c r="AM94">
+        <f t="shared" si="263"/>
+        <v>1000</v>
       </c>
       <c r="AN94" t="str">
-        <f t="shared" ca="1" si="285"/>
-        <v/>
+        <f t="shared" ca="1" si="264"/>
+        <v>cu</v>
       </c>
       <c r="AO94" t="str">
-        <f t="shared" si="286"/>
-        <v/>
-      </c>
-      <c r="AP94" t="str">
-        <f t="shared" si="287"/>
-        <v/>
+        <f t="shared" si="265"/>
+        <v>GO</v>
+      </c>
+      <c r="AP94">
+        <f t="shared" si="266"/>
+        <v>25000</v>
       </c>
       <c r="AQ94" t="str">
-        <f t="shared" ca="1" si="288"/>
-        <v/>
+        <f t="shared" ca="1" si="267"/>
+        <v>cu</v>
       </c>
       <c r="AR94" t="str">
-        <f t="shared" si="289"/>
-        <v/>
-      </c>
-      <c r="AS94" t="str">
-        <f t="shared" si="290"/>
-        <v/>
+        <f t="shared" si="268"/>
+        <v>DI</v>
+      </c>
+      <c r="AS94">
+        <f t="shared" si="269"/>
+        <v>750</v>
       </c>
       <c r="AT94" t="str">
-        <f t="shared" ca="1" si="291"/>
+        <f t="shared" ca="1" si="270"/>
         <v/>
       </c>
       <c r="AU94" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" si="271"/>
         <v/>
       </c>
       <c r="AV94" t="str">
-        <f t="shared" si="293"/>
+        <f t="shared" si="272"/>
         <v/>
       </c>
       <c r="AW94" t="str">
-        <f t="shared" ca="1" si="294"/>
+        <f t="shared" ca="1" si="273"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX94" t="str">
-        <f t="shared" si="295"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>166</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="270"/>
-        <v>analysisboost_3</v>
+        <f t="shared" ref="C95:C99" si="275">A95</f>
+        <v>ev14_unacquiredspell</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="271"/>
-        <v>analysisboost</v>
+        <f t="shared" ref="D95:D99" si="276">IF(ISERROR(FIND("_",A95)),A95,
+LEFT(A95,FIND("_",A95)-1))</f>
+        <v>ev14</v>
       </c>
       <c r="E95">
-        <f t="shared" si="272"/>
-        <v>4</v>
+        <f t="shared" ref="E95:E99" si="277">COUNTA(O95,S95,W95,AA95,AE95)</f>
+        <v>1</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
@@ -16457,147 +16705,679 @@
         <v>13000</v>
       </c>
       <c r="K95" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L95">
-        <v>813</v>
+        <v>178</v>
       </c>
       <c r="M95">
-        <f t="shared" si="273"/>
-        <v>813</v>
+        <f t="shared" ref="M95:M99" si="278">L95</f>
+        <v>178</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" ca="1" si="274"/>
+        <f t="shared" ref="N95:N99" ca="1" si="279">IF(ISBLANK(O95),"",
+VLOOKUP(O95,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>it</v>
       </c>
       <c r="O95" t="s">
         <v>33</v>
       </c>
-      <c r="P95" t="s">
-        <v>220</v>
+      <c r="P95" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="Q95">
-        <v>2592000</v>
+        <v>1</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" ca="1" si="275"/>
-        <v>cu</v>
-      </c>
-      <c r="S95" t="s">
-        <v>16</v>
-      </c>
-      <c r="T95" t="s">
-        <v>56</v>
-      </c>
-      <c r="U95">
-        <v>1000</v>
+        <f t="shared" ref="R95:R99" ca="1" si="280">IF(ISBLANK(S95),"",
+VLOOKUP(S95,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="V95" t="str">
-        <f t="shared" ca="1" si="276"/>
-        <v>cu</v>
-      </c>
-      <c r="W95" t="s">
-        <v>16</v>
-      </c>
-      <c r="X95" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y95">
-        <v>25000</v>
+        <f t="shared" ref="V95:V99" ca="1" si="281">IF(ISBLANK(W95),"",
+VLOOKUP(W95,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" ca="1" si="277"/>
-        <v>cu</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC95">
-        <v>750</v>
+        <f t="shared" ref="Z95:Z99" ca="1" si="282">IF(ISBLANK(AA95),"",
+VLOOKUP(AA95,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" ca="1" si="278"/>
+        <f t="shared" ref="AD95:AD99" ca="1" si="283">IF(ISBLANK(AE95),"",
+VLOOKUP(AE95,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH95" t="str">
+        <f t="shared" ref="AH95:AH99" ca="1" si="284">IF(LEN(N95)=0,"",N95)</f>
+        <v>it</v>
+      </c>
+      <c r="AI95" t="str">
+        <f t="shared" ref="AI95:AI99" si="285">IF(LEN(P95)=0,"",P95)</f>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ95">
+        <f t="shared" ref="AJ95:AJ99" si="286">IF(LEN(Q95)=0,"",Q95)</f>
+        <v>1</v>
+      </c>
+      <c r="AK95" t="str">
+        <f t="shared" ref="AK95:AK99" ca="1" si="287">IF(LEN(R95)=0,"",R95)</f>
+        <v/>
+      </c>
+      <c r="AL95" t="str">
+        <f t="shared" ref="AL95:AL99" si="288">IF(LEN(T95)=0,"",T95)</f>
+        <v/>
+      </c>
+      <c r="AM95" t="str">
+        <f t="shared" ref="AM95:AM99" si="289">IF(LEN(U95)=0,"",U95)</f>
+        <v/>
+      </c>
+      <c r="AN95" t="str">
+        <f t="shared" ref="AN95:AN99" ca="1" si="290">IF(LEN(V95)=0,"",V95)</f>
+        <v/>
+      </c>
+      <c r="AO95" t="str">
+        <f t="shared" ref="AO95:AO99" si="291">IF(LEN(X95)=0,"",X95)</f>
+        <v/>
+      </c>
+      <c r="AP95" t="str">
+        <f t="shared" ref="AP95:AP99" si="292">IF(LEN(Y95)=0,"",Y95)</f>
+        <v/>
+      </c>
+      <c r="AQ95" t="str">
+        <f t="shared" ref="AQ95:AQ99" ca="1" si="293">IF(LEN(Z95)=0,"",Z95)</f>
+        <v/>
+      </c>
+      <c r="AR95" t="str">
+        <f t="shared" ref="AR95:AR99" si="294">IF(LEN(AB95)=0,"",AB95)</f>
+        <v/>
+      </c>
+      <c r="AS95" t="str">
+        <f t="shared" ref="AS95:AS99" si="295">IF(LEN(AC95)=0,"",AC95)</f>
+        <v/>
+      </c>
+      <c r="AT95" t="str">
+        <f t="shared" ref="AT95:AT99" ca="1" si="296">IF(LEN(AD95)=0,"",AD95)</f>
+        <v/>
+      </c>
+      <c r="AU95" t="str">
+        <f t="shared" ref="AU95:AU99" si="297">IF(LEN(AF95)=0,"",AF95)</f>
+        <v/>
+      </c>
+      <c r="AV95" t="str">
+        <f t="shared" ref="AV95:AV99" si="298">IF(LEN(AG95)=0,"",AG95)</f>
+        <v/>
+      </c>
+      <c r="AW95" t="str">
+        <f t="shared" ref="AW95:AW99" ca="1" si="299">IF(ROW()=2,AX95,OFFSET(AW95,-1,0)&amp;IF(LEN(AX95)=0,"",","&amp;AX95))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX95" t="str">
+        <f t="shared" ref="AX95:AX99" si="300">IF(G95=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C95&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L95
+&amp;IF(LEN(N95)=0,"",","""&amp;N$1&amp;""":"""&amp;N95&amp;"""")
+&amp;IF(LEN(P95)=0,"",","""&amp;P$1&amp;""":"""&amp;P95&amp;"""")
+&amp;IF(LEN(Q95)=0,"",","""&amp;Q$1&amp;""":"&amp;Q95)
+&amp;IF(LEN(R95)=0,"",","""&amp;R$1&amp;""":"""&amp;R95&amp;"""")
+&amp;IF(LEN(T95)=0,"",","""&amp;T$1&amp;""":"""&amp;T95&amp;"""")
+&amp;IF(LEN(U95)=0,"",","""&amp;U$1&amp;""":"&amp;U95)
+&amp;IF(LEN(V95)=0,"",","""&amp;V$1&amp;""":"""&amp;V95&amp;"""")
+&amp;IF(LEN(X95)=0,"",","""&amp;X$1&amp;""":"""&amp;X95&amp;"""")
+&amp;IF(LEN(Y95)=0,"",","""&amp;Y$1&amp;""":"&amp;Y95)
+&amp;IF(LEN(Z95)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z95&amp;"""")
+&amp;IF(LEN(AB95)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB95&amp;"""")
+&amp;IF(LEN(AC95)=0,"",","""&amp;AC$1&amp;""":"&amp;AC95)
+&amp;IF(LEN(AD95)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD95&amp;"""")
+&amp;IF(LEN(AF95)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF95&amp;"""")
+&amp;IF(LEN(AG95)=0,"",","""&amp;AG$1&amp;""":"&amp;AG95)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:50">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="275"/>
+        <v>ev14_unacquiredspell</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="276"/>
+        <v>ev14</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="277"/>
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>9.99</v>
+      </c>
+      <c r="J96">
+        <v>13000</v>
+      </c>
+      <c r="K96" t="s">
+        <v>230</v>
+      </c>
+      <c r="L96">
+        <v>156</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="278"/>
+        <v>156</v>
+      </c>
+      <c r="N96" t="str">
         <f t="shared" ca="1" si="279"/>
         <v>it</v>
       </c>
-      <c r="AI95" t="str">
-        <f t="shared" si="280"/>
-        <v>Item_cAnalysisBoost</v>
-      </c>
-      <c r="AJ95">
-        <f t="shared" si="281"/>
-        <v>2592000</v>
-      </c>
-      <c r="AK95" t="str">
+      <c r="O96" t="s">
+        <v>33</v>
+      </c>
+      <c r="P96" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v/>
+      </c>
+      <c r="V96" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v/>
+      </c>
+      <c r="Z96" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v>cu</v>
-      </c>
-      <c r="AL95" t="str">
-        <f t="shared" si="283"/>
-        <v>EN</v>
-      </c>
-      <c r="AM95">
-        <f t="shared" si="284"/>
-        <v>1000</v>
-      </c>
-      <c r="AN95" t="str">
-        <f t="shared" ca="1" si="285"/>
-        <v>cu</v>
-      </c>
-      <c r="AO95" t="str">
+        <v/>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH96" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>it</v>
+      </c>
+      <c r="AI96" t="str">
+        <f t="shared" si="285"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ96">
         <f t="shared" si="286"/>
-        <v>GO</v>
-      </c>
-      <c r="AP95">
-        <f t="shared" si="287"/>
-        <v>25000</v>
-      </c>
-      <c r="AQ95" t="str">
-        <f t="shared" ca="1" si="288"/>
-        <v>cu</v>
-      </c>
-      <c r="AR95" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK96" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v/>
+      </c>
+      <c r="AL96" t="str">
+        <f t="shared" si="288"/>
+        <v/>
+      </c>
+      <c r="AM96" t="str">
         <f t="shared" si="289"/>
-        <v>DI</v>
-      </c>
-      <c r="AS95">
-        <f t="shared" si="290"/>
-        <v>750</v>
-      </c>
-      <c r="AT95" t="str">
-        <f t="shared" ca="1" si="291"/>
-        <v/>
-      </c>
-      <c r="AU95" t="str">
+        <v/>
+      </c>
+      <c r="AN96" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v/>
+      </c>
+      <c r="AO96" t="str">
+        <f t="shared" si="291"/>
+        <v/>
+      </c>
+      <c r="AP96" t="str">
         <f t="shared" si="292"/>
         <v/>
       </c>
-      <c r="AV95" t="str">
-        <f t="shared" si="293"/>
-        <v/>
-      </c>
-      <c r="AW95" t="str">
-        <f t="shared" ca="1" si="294"/>
+      <c r="AQ96" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR96" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS96" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT96" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU96" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV96" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW96" t="str">
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
-      <c r="AX95" t="str">
+      <c r="AX96" t="str">
+        <f t="shared" si="300"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:50">
+      <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="275"/>
+        <v>ev13_acquiredspell_0001</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="276"/>
+        <v>ev13</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="277"/>
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>9.99</v>
+      </c>
+      <c r="J97">
+        <v>13000</v>
+      </c>
+      <c r="K97" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97">
+        <v>240</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="278"/>
+        <v>240</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" ca="1" si="279"/>
+        <v>it</v>
+      </c>
+      <c r="O97" t="s">
+        <v>33</v>
+      </c>
+      <c r="P97" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v/>
+      </c>
+      <c r="V97" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v/>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH97" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>it</v>
+      </c>
+      <c r="AI97" t="str">
+        <f t="shared" si="285"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ97">
+        <f t="shared" si="286"/>
+        <v>1</v>
+      </c>
+      <c r="AK97" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v/>
+      </c>
+      <c r="AL97" t="str">
+        <f t="shared" si="288"/>
+        <v/>
+      </c>
+      <c r="AM97" t="str">
+        <f t="shared" si="289"/>
+        <v/>
+      </c>
+      <c r="AN97" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v/>
+      </c>
+      <c r="AO97" t="str">
+        <f t="shared" si="291"/>
+        <v/>
+      </c>
+      <c r="AP97" t="str">
+        <f t="shared" si="292"/>
+        <v/>
+      </c>
+      <c r="AQ97" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR97" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS97" t="str">
         <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT97" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU97" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV97" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW97" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX97" t="str">
+        <f t="shared" si="300"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:50">
+      <c r="A98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="275"/>
+        <v>ev13_acquiredspell_0002</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="276"/>
+        <v>ev13</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="277"/>
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>9.99</v>
+      </c>
+      <c r="J98">
+        <v>13000</v>
+      </c>
+      <c r="K98" t="s">
+        <v>234</v>
+      </c>
+      <c r="L98">
+        <v>652</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="278"/>
+        <v>652</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" ca="1" si="279"/>
+        <v>it</v>
+      </c>
+      <c r="O98" t="s">
+        <v>33</v>
+      </c>
+      <c r="P98" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v/>
+      </c>
+      <c r="V98" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v/>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH98" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>it</v>
+      </c>
+      <c r="AI98" t="str">
+        <f t="shared" si="285"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ98">
+        <f t="shared" si="286"/>
+        <v>1</v>
+      </c>
+      <c r="AK98" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v/>
+      </c>
+      <c r="AL98" t="str">
+        <f t="shared" si="288"/>
+        <v/>
+      </c>
+      <c r="AM98" t="str">
+        <f t="shared" si="289"/>
+        <v/>
+      </c>
+      <c r="AN98" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v/>
+      </c>
+      <c r="AO98" t="str">
+        <f t="shared" si="291"/>
+        <v/>
+      </c>
+      <c r="AP98" t="str">
+        <f t="shared" si="292"/>
+        <v/>
+      </c>
+      <c r="AQ98" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR98" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS98" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT98" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU98" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV98" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW98" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX98" t="str">
+        <f t="shared" si="300"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:50">
+      <c r="A99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="275"/>
+        <v>ev13_acquiredspell</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="276"/>
+        <v>ev13</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="277"/>
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>9.99</v>
+      </c>
+      <c r="J99">
+        <v>13000</v>
+      </c>
+      <c r="K99" t="s">
+        <v>228</v>
+      </c>
+      <c r="L99">
+        <v>358</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="278"/>
+        <v>358</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" ca="1" si="279"/>
+        <v>it</v>
+      </c>
+      <c r="O99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P99" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v/>
+      </c>
+      <c r="V99" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v/>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH99" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>it</v>
+      </c>
+      <c r="AI99" t="str">
+        <f t="shared" si="285"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" si="286"/>
+        <v>1</v>
+      </c>
+      <c r="AK99" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v/>
+      </c>
+      <c r="AL99" t="str">
+        <f t="shared" si="288"/>
+        <v/>
+      </c>
+      <c r="AM99" t="str">
+        <f t="shared" si="289"/>
+        <v/>
+      </c>
+      <c r="AN99" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v/>
+      </c>
+      <c r="AO99" t="str">
+        <f t="shared" si="291"/>
+        <v/>
+      </c>
+      <c r="AP99" t="str">
+        <f t="shared" si="292"/>
+        <v/>
+      </c>
+      <c r="AQ99" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR99" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS99" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT99" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU99" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV99" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW99" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX99" t="str">
+        <f t="shared" si="300"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE80:AE92 AE2:AE74 AA2:AA92 W2:W92 S2:S92 O2:O92" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE80:AE91 AE2:AE74 AA2:AA91 W2:W91 S2:S91 O2:O91" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF80:AF92 AB2:AB92 X2:X92 T2:T92 AF2:AF74 P2:P92" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF74 P95 P2:P91 T2:T91 X2:X91 AB2:AB91 AF80:AF91" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -16880,13 +17660,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16897,7 +17677,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16930,7 +17710,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16941,7 +17721,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -16949,4 +17729,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE9C19-2D50-4E86-8FCD-1161C8919907}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B200672-0A9F-4780-942F-3824D7437BB0}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311F642-80C2-45A5-BF81-E0232E0CFD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAE2CB2-7E8B-45DD-9ACA-4DDCAB8E5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="252">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1582,10 +1582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CashName_sBrokenEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indexSub|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1854,18 +1850,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CashName_sPetSale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cash_sFortuneWheel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CashName_sFortuneWheel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stageclear_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2145,10 +2133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acquired|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spell_0001</t>
   </si>
   <si>
@@ -2230,13 +2214,44 @@
   <si>
     <t>acquired|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredSpell</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanion</t>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanionPp</t>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredCompanion</t>
+  </si>
+  <si>
+    <t>pickSpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquired|bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashName_sAcquiredSpell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2304,6 +2319,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2327,7 +2349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2347,6 +2369,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2663,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BI99"/>
+  <dimension ref="A1:BI98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AM89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2729,19 +2754,19 @@
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2753,10 +2778,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>19</v>
@@ -2876,21 +2901,21 @@
         <v>32</v>
       </c>
       <c r="BC1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BE1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BI1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2918,7 +2943,7 @@
         <v>13000</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L2">
         <v>744</v>
@@ -3064,7 +3089,7 @@
         <v>13</v>
       </c>
       <c r="BG2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BI2" t="str">
         <f ca="1">"["&amp;
@@ -3075,7 +3100,7 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3" si="22">A3</f>
@@ -3100,7 +3125,7 @@
         <v>6500</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L3">
         <v>493</v>
@@ -3117,7 +3142,7 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -3233,12 +3258,12 @@
         <v>15</v>
       </c>
       <c r="BE3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:61">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3266,7 +3291,7 @@
         <v>13000</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L4">
         <v>234</v>
@@ -3382,15 +3407,15 @@
         <v/>
       </c>
       <c r="BC4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BE4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:61">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3439,7 @@
         <v>6500</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L5">
         <v>125</v>
@@ -3540,12 +3565,12 @@
         <v/>
       </c>
       <c r="BE5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:61">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:C8" si="52">A6</f>
@@ -3569,7 +3594,7 @@
         <v>19000</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6">
         <v>348</v>
@@ -3704,12 +3729,12 @@
         <v/>
       </c>
       <c r="BE6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:61">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="52"/>
@@ -3733,7 +3758,7 @@
         <v>39000</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7">
         <v>431</v>
@@ -3858,12 +3883,12 @@
         <v/>
       </c>
       <c r="BE7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:61">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="52"/>
@@ -3887,7 +3912,7 @@
         <v>69000</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8">
         <v>969</v>
@@ -4021,12 +4046,12 @@
         <v/>
       </c>
       <c r="BE8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:61">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -4179,12 +4204,12 @@
         <v>{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170}</v>
       </c>
       <c r="BE9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:61">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -4309,12 +4334,12 @@
         <v>{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150}</v>
       </c>
       <c r="BE10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:61">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -4341,7 +4366,7 @@
         <v>2500</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11">
         <v>390</v>
@@ -4475,12 +4500,12 @@
         <v/>
       </c>
       <c r="BE11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:61">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -4614,12 +4639,12 @@
         <v>{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000}</v>
       </c>
       <c r="BE12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="str">
         <f>A13</f>
@@ -4646,7 +4671,7 @@
         <v>25000</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13">
         <v>384</v>
@@ -4790,12 +4815,12 @@
         <v/>
       </c>
       <c r="BE13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:61">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="str">
         <f>A14</f>
@@ -4946,12 +4971,12 @@
         <v>{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000}</v>
       </c>
       <c r="BE14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:61">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="str">
         <f>A15</f>
@@ -5113,7 +5138,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ref="C16:C17" si="84">A16</f>
@@ -5138,7 +5163,7 @@
         <v>13000</v>
       </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L16">
         <v>682</v>
@@ -5170,7 +5195,7 @@
         <v>16</v>
       </c>
       <c r="T16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U16">
         <v>50000</v>
@@ -5281,7 +5306,7 @@
     </row>
     <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="84"/>
@@ -5305,7 +5330,7 @@
         <v>13000</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L17">
         <v>601</v>
@@ -5335,7 +5360,7 @@
         <v>16</v>
       </c>
       <c r="T17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U17">
         <v>30000</v>
@@ -5423,7 +5448,7 @@
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" t="str">
         <f>A18</f>
@@ -5447,7 +5472,7 @@
         <v>1200</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18">
         <v>797</v>
@@ -5466,7 +5491,7 @@
         <v>33</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5566,7 +5591,7 @@
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C19" t="str">
         <f>A19</f>
@@ -5601,7 +5626,7 @@
         <v>33</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -5631,7 +5656,7 @@
         <v>16</v>
       </c>
       <c r="X19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y19">
         <v>100000</v>
@@ -5736,10 +5761,10 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -5763,7 +5788,7 @@
         <v>13000</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20">
         <v>386</v>
@@ -5898,7 +5923,7 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -5922,7 +5947,7 @@
         <v>19000</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L21">
         <v>582</v>
@@ -5939,7 +5964,7 @@
         <v>33</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>75</v>
@@ -6049,7 +6074,7 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -6073,7 +6098,7 @@
         <v>39000</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22">
         <v>538</v>
@@ -6200,7 +6225,7 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -6224,7 +6249,7 @@
         <v>69000</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L23">
         <v>620</v>
@@ -6241,7 +6266,7 @@
         <v>33</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>200</v>
@@ -6351,7 +6376,7 @@
     </row>
     <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -6375,7 +6400,7 @@
         <v>13000</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24">
         <v>474</v>
@@ -6502,7 +6527,7 @@
     </row>
     <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -6526,7 +6551,7 @@
         <v>19000</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25">
         <v>244</v>
@@ -6543,7 +6568,7 @@
         <v>33</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>400</v>
@@ -6653,7 +6678,7 @@
     </row>
     <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -6677,7 +6702,7 @@
         <v>39000</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26">
         <v>944</v>
@@ -6804,7 +6829,7 @@
     </row>
     <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -6828,7 +6853,7 @@
         <v>69000</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27">
         <v>383</v>
@@ -6845,7 +6870,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>1200</v>
@@ -6955,7 +6980,7 @@
     </row>
     <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -6979,7 +7004,7 @@
         <v>13000</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28">
         <v>545</v>
@@ -7106,7 +7131,7 @@
     </row>
     <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -7130,7 +7155,7 @@
         <v>19000</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L29">
         <v>231</v>
@@ -7147,7 +7172,7 @@
         <v>33</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>300</v>
@@ -7257,7 +7282,7 @@
     </row>
     <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -7281,7 +7306,7 @@
         <v>39000</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30">
         <v>654</v>
@@ -7408,7 +7433,7 @@
     </row>
     <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -7432,7 +7457,7 @@
         <v>69000</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31">
         <v>279</v>
@@ -7449,7 +7474,7 @@
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>1000</v>
@@ -7559,10 +7584,10 @@
     </row>
     <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -7586,7 +7611,7 @@
         <v>13000</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L32">
         <v>359</v>
@@ -7603,7 +7628,7 @@
         <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>500</v>
@@ -7629,7 +7654,7 @@
         <v>16</v>
       </c>
       <c r="X32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y32">
         <v>20000</v>
@@ -7713,7 +7738,7 @@
     </row>
     <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -7737,7 +7762,7 @@
         <v>19000</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L33">
         <v>881</v>
@@ -7780,7 +7805,7 @@
         <v>16</v>
       </c>
       <c r="X33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y33">
         <v>40000</v>
@@ -7864,7 +7889,7 @@
     </row>
     <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -7888,7 +7913,7 @@
         <v>39000</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L34">
         <v>108</v>
@@ -7905,7 +7930,7 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>1500</v>
@@ -7931,7 +7956,7 @@
         <v>16</v>
       </c>
       <c r="X34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y34">
         <v>60000</v>
@@ -8015,7 +8040,7 @@
     </row>
     <row r="35" spans="1:50">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -8039,7 +8064,7 @@
         <v>69000</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L35">
         <v>550</v>
@@ -8082,7 +8107,7 @@
         <v>16</v>
       </c>
       <c r="X35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y35">
         <v>10000</v>
@@ -8166,7 +8191,7 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -8190,7 +8215,7 @@
         <v>13000</v>
       </c>
       <c r="K36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L36">
         <v>397</v>
@@ -8207,7 +8232,7 @@
         <v>33</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>500</v>
@@ -8233,7 +8258,7 @@
         <v>16</v>
       </c>
       <c r="X36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y36">
         <v>20000</v>
@@ -8317,7 +8342,7 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -8341,7 +8366,7 @@
         <v>19000</v>
       </c>
       <c r="K37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L37">
         <v>401</v>
@@ -8384,7 +8409,7 @@
         <v>16</v>
       </c>
       <c r="X37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y37">
         <v>40000</v>
@@ -8468,7 +8493,7 @@
     </row>
     <row r="38" spans="1:50">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -8492,7 +8517,7 @@
         <v>39000</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L38">
         <v>177</v>
@@ -8509,7 +8534,7 @@
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>1500</v>
@@ -8535,7 +8560,7 @@
         <v>16</v>
       </c>
       <c r="X38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y38">
         <v>60000</v>
@@ -8636,7 +8661,7 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -8660,7 +8685,7 @@
         <v>69000</v>
       </c>
       <c r="K39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L39">
         <v>506</v>
@@ -8703,7 +8728,7 @@
         <v>16</v>
       </c>
       <c r="X39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y39">
         <v>10000</v>
@@ -8787,7 +8812,7 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -8811,7 +8836,7 @@
         <v>13000</v>
       </c>
       <c r="K40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L40">
         <v>741</v>
@@ -8828,7 +8853,7 @@
         <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>500</v>
@@ -8854,7 +8879,7 @@
         <v>16</v>
       </c>
       <c r="X40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y40">
         <v>20000</v>
@@ -8938,7 +8963,7 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -8962,7 +8987,7 @@
         <v>19000</v>
       </c>
       <c r="K41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L41">
         <v>578</v>
@@ -9005,7 +9030,7 @@
         <v>16</v>
       </c>
       <c r="X41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y41">
         <v>40000</v>
@@ -9089,7 +9114,7 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -9113,7 +9138,7 @@
         <v>39000</v>
       </c>
       <c r="K42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L42">
         <v>106</v>
@@ -9130,7 +9155,7 @@
         <v>33</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>1500</v>
@@ -9156,7 +9181,7 @@
         <v>16</v>
       </c>
       <c r="X42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y42">
         <v>60000</v>
@@ -9240,7 +9265,7 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -9264,7 +9289,7 @@
         <v>69000</v>
       </c>
       <c r="K43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L43">
         <v>440</v>
@@ -9307,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="X43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y43">
         <v>10000</v>
@@ -9391,10 +9416,10 @@
     </row>
     <row r="44" spans="1:50">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ref="C44:C74" si="151">A44</f>
@@ -9418,7 +9443,7 @@
         <v>1200</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44">
         <v>713</v>
@@ -9537,7 +9562,7 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="151"/>
@@ -9561,7 +9586,7 @@
         <v>5900</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L45">
         <v>794</v>
@@ -9670,7 +9695,7 @@
     </row>
     <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="151"/>
@@ -9694,7 +9719,7 @@
         <v>12000</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L46">
         <v>121</v>
@@ -9803,7 +9828,7 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="151"/>
@@ -9827,7 +9852,7 @@
         <v>25000</v>
       </c>
       <c r="K47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47">
         <v>114</v>
@@ -9936,7 +9961,7 @@
     </row>
     <row r="48" spans="1:50">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="151"/>
@@ -9960,7 +9985,7 @@
         <v>65000</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L48">
         <v>950</v>
@@ -10069,7 +10094,7 @@
     </row>
     <row r="49" spans="1:50">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="151"/>
@@ -10093,7 +10118,7 @@
         <v>119000</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L49">
         <v>490</v>
@@ -10202,10 +10227,10 @@
     </row>
     <row r="50" spans="1:50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="151"/>
@@ -10229,7 +10254,7 @@
         <v>1200</v>
       </c>
       <c r="K50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L50">
         <v>338</v>
@@ -10338,7 +10363,7 @@
     </row>
     <row r="51" spans="1:50">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="151"/>
@@ -10362,7 +10387,7 @@
         <v>5900</v>
       </c>
       <c r="K51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L51">
         <v>215</v>
@@ -10471,7 +10496,7 @@
     </row>
     <row r="52" spans="1:50">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="151"/>
@@ -10495,7 +10520,7 @@
         <v>12000</v>
       </c>
       <c r="K52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L52">
         <v>674</v>
@@ -10604,7 +10629,7 @@
     </row>
     <row r="53" spans="1:50">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="151"/>
@@ -10628,7 +10653,7 @@
         <v>25000</v>
       </c>
       <c r="K53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L53">
         <v>145</v>
@@ -10737,7 +10762,7 @@
     </row>
     <row r="54" spans="1:50">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="151"/>
@@ -10761,7 +10786,7 @@
         <v>65000</v>
       </c>
       <c r="K54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L54">
         <v>858</v>
@@ -10870,7 +10895,7 @@
     </row>
     <row r="55" spans="1:50">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="151"/>
@@ -10894,7 +10919,7 @@
         <v>119000</v>
       </c>
       <c r="K55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L55">
         <v>173</v>
@@ -11003,7 +11028,7 @@
     </row>
     <row r="56" spans="1:50">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="151"/>
@@ -11027,7 +11052,7 @@
         <v>1200</v>
       </c>
       <c r="K56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L56">
         <v>201</v>
@@ -11136,7 +11161,7 @@
     </row>
     <row r="57" spans="1:50">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="151"/>
@@ -11160,7 +11185,7 @@
         <v>5900</v>
       </c>
       <c r="K57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L57">
         <v>803</v>
@@ -11269,7 +11294,7 @@
     </row>
     <row r="58" spans="1:50">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="151"/>
@@ -11293,7 +11318,7 @@
         <v>12000</v>
       </c>
       <c r="K58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L58">
         <v>650</v>
@@ -11402,7 +11427,7 @@
     </row>
     <row r="59" spans="1:50">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="151"/>
@@ -11426,7 +11451,7 @@
         <v>25000</v>
       </c>
       <c r="K59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L59">
         <v>953</v>
@@ -11535,7 +11560,7 @@
     </row>
     <row r="60" spans="1:50">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="151"/>
@@ -11559,7 +11584,7 @@
         <v>65000</v>
       </c>
       <c r="K60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L60">
         <v>640</v>
@@ -11668,7 +11693,7 @@
     </row>
     <row r="61" spans="1:50">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="151"/>
@@ -11692,7 +11717,7 @@
         <v>119000</v>
       </c>
       <c r="K61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L61">
         <v>553</v>
@@ -11801,7 +11826,7 @@
     </row>
     <row r="62" spans="1:50">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="151"/>
@@ -11825,7 +11850,7 @@
         <v>1200</v>
       </c>
       <c r="K62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L62">
         <v>963</v>
@@ -11934,7 +11959,7 @@
     </row>
     <row r="63" spans="1:50">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="151"/>
@@ -11958,7 +11983,7 @@
         <v>5900</v>
       </c>
       <c r="K63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L63">
         <v>340</v>
@@ -12067,7 +12092,7 @@
     </row>
     <row r="64" spans="1:50">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="151"/>
@@ -12091,7 +12116,7 @@
         <v>12000</v>
       </c>
       <c r="K64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L64">
         <v>420</v>
@@ -12200,7 +12225,7 @@
     </row>
     <row r="65" spans="1:50">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="151"/>
@@ -12224,7 +12249,7 @@
         <v>25000</v>
       </c>
       <c r="K65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L65">
         <v>756</v>
@@ -12333,7 +12358,7 @@
     </row>
     <row r="66" spans="1:50">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="151"/>
@@ -12357,7 +12382,7 @@
         <v>65000</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L66">
         <v>979</v>
@@ -12466,7 +12491,7 @@
     </row>
     <row r="67" spans="1:50">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="151"/>
@@ -12490,7 +12515,7 @@
         <v>119000</v>
       </c>
       <c r="K67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L67">
         <v>435</v>
@@ -12599,10 +12624,10 @@
     </row>
     <row r="68" spans="1:50">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="151"/>
@@ -12626,7 +12651,7 @@
         <v>13000</v>
       </c>
       <c r="K68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L68">
         <v>781</v>
@@ -12643,7 +12668,7 @@
         <v>33</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -12735,7 +12760,7 @@
     </row>
     <row r="69" spans="1:50">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="151"/>
@@ -12759,7 +12784,7 @@
         <v>19000</v>
       </c>
       <c r="K69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L69">
         <v>142</v>
@@ -12778,7 +12803,7 @@
         <v>33</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -12870,7 +12895,7 @@
     </row>
     <row r="70" spans="1:50">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="151"/>
@@ -12894,7 +12919,7 @@
         <v>39000</v>
       </c>
       <c r="K70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L70">
         <v>610</v>
@@ -12911,7 +12936,7 @@
         <v>33</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -13020,7 +13045,7 @@
     </row>
     <row r="71" spans="1:50">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="151"/>
@@ -13045,7 +13070,7 @@
         <v>48000</v>
       </c>
       <c r="K71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L71">
         <v>433</v>
@@ -13062,7 +13087,7 @@
         <v>33</v>
       </c>
       <c r="P71" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -13154,7 +13179,7 @@
     </row>
     <row r="72" spans="1:50">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="151"/>
@@ -13178,7 +13203,7 @@
         <v>65000</v>
       </c>
       <c r="K72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L72">
         <v>604</v>
@@ -13195,7 +13220,7 @@
         <v>33</v>
       </c>
       <c r="P72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -13287,10 +13312,10 @@
     </row>
     <row r="73" spans="1:50">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="151"/>
@@ -13314,7 +13339,7 @@
         <v>1200</v>
       </c>
       <c r="K73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L73">
         <v>902</v>
@@ -13333,7 +13358,7 @@
         <v>33</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -13433,7 +13458,7 @@
     </row>
     <row r="74" spans="1:50">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="151"/>
@@ -13457,7 +13482,7 @@
         <v>5900</v>
       </c>
       <c r="K74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L74">
         <v>924</v>
@@ -13476,7 +13501,7 @@
         <v>33</v>
       </c>
       <c r="P74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -13568,10 +13593,10 @@
     </row>
     <row r="75" spans="1:50">
       <c r="A75" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" ref="C75:C91" si="200">A75</f>
@@ -13598,7 +13623,7 @@
         <v>1200</v>
       </c>
       <c r="K75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L75">
         <v>802</v>
@@ -13734,7 +13759,7 @@
     </row>
     <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="200"/>
@@ -13761,7 +13786,7 @@
         <v>5900</v>
       </c>
       <c r="K76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L76">
         <v>585</v>
@@ -13893,7 +13918,7 @@
     </row>
     <row r="77" spans="1:50">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="200"/>
@@ -13920,7 +13945,7 @@
         <v>13000</v>
       </c>
       <c r="K77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L77">
         <v>634</v>
@@ -14052,7 +14077,7 @@
     </row>
     <row r="78" spans="1:50">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="200"/>
@@ -14079,7 +14104,7 @@
         <v>13000</v>
       </c>
       <c r="K78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L78">
         <v>791</v>
@@ -14219,7 +14244,7 @@
     </row>
     <row r="79" spans="1:50">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="200"/>
@@ -14246,7 +14271,7 @@
         <v>13000</v>
       </c>
       <c r="K79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L79">
         <v>484</v>
@@ -14378,10 +14403,10 @@
     </row>
     <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="200"/>
@@ -14405,7 +14430,7 @@
         <v>5900</v>
       </c>
       <c r="K80" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L80">
         <v>212</v>
@@ -14424,7 +14449,7 @@
         <v>33</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q80">
         <v>15</v>
@@ -14437,7 +14462,7 @@
         <v>16</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U80">
         <v>500</v>
@@ -14527,10 +14552,10 @@
     </row>
     <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="200"/>
@@ -14554,7 +14579,7 @@
         <v>5900</v>
       </c>
       <c r="K81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L81">
         <v>131</v>
@@ -14571,7 +14596,7 @@
         <v>33</v>
       </c>
       <c r="P81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -14680,10 +14705,10 @@
     </row>
     <row r="82" spans="1:50">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="200"/>
@@ -14707,7 +14732,7 @@
         <v>1200</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L82">
         <v>704</v>
@@ -14834,7 +14859,7 @@
     </row>
     <row r="83" spans="1:50">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="200"/>
@@ -14858,7 +14883,7 @@
         <v>1200</v>
       </c>
       <c r="K83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L83">
         <v>148</v>
@@ -14985,7 +15010,7 @@
     </row>
     <row r="84" spans="1:50">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="200"/>
@@ -15009,7 +15034,7 @@
         <v>1200</v>
       </c>
       <c r="K84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L84">
         <v>784</v>
@@ -15145,7 +15170,7 @@
     </row>
     <row r="85" spans="1:50">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="200"/>
@@ -15169,7 +15194,7 @@
         <v>5900</v>
       </c>
       <c r="K85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L85">
         <v>354</v>
@@ -15296,7 +15321,7 @@
     </row>
     <row r="86" spans="1:50">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="200"/>
@@ -15320,7 +15345,7 @@
         <v>5900</v>
       </c>
       <c r="K86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L86">
         <v>414</v>
@@ -15447,7 +15472,7 @@
     </row>
     <row r="87" spans="1:50">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="200"/>
@@ -15471,7 +15496,7 @@
         <v>13000</v>
       </c>
       <c r="K87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L87">
         <v>726</v>
@@ -15607,7 +15632,7 @@
     </row>
     <row r="88" spans="1:50">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="200"/>
@@ -15631,7 +15656,7 @@
         <v>13000</v>
       </c>
       <c r="K88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L88">
         <v>679</v>
@@ -15758,7 +15783,7 @@
     </row>
     <row r="89" spans="1:50">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="200"/>
@@ -15782,7 +15807,7 @@
         <v>25000</v>
       </c>
       <c r="K89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L89">
         <v>752</v>
@@ -15909,7 +15934,7 @@
     </row>
     <row r="90" spans="1:50">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="200"/>
@@ -15933,7 +15958,7 @@
         <v>48000</v>
       </c>
       <c r="K90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L90">
         <v>534</v>
@@ -16060,7 +16085,7 @@
     </row>
     <row r="91" spans="1:50">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="200"/>
@@ -16084,7 +16109,7 @@
         <v>69000</v>
       </c>
       <c r="K91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L91">
         <v>243</v>
@@ -16220,10 +16245,10 @@
     </row>
     <row r="92" spans="1:50">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" ref="C92:C94" si="249">A92</f>
@@ -16248,7 +16273,7 @@
         <v>1200</v>
       </c>
       <c r="K92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L92">
         <v>384</v>
@@ -16267,7 +16292,7 @@
         <v>33</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>86400</v>
@@ -16384,7 +16409,7 @@
     </row>
     <row r="93" spans="1:50">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="249"/>
@@ -16408,7 +16433,7 @@
         <v>5900</v>
       </c>
       <c r="K93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L93">
         <v>681</v>
@@ -16425,7 +16450,7 @@
         <v>33</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>604800</v>
@@ -16517,7 +16542,7 @@
     </row>
     <row r="94" spans="1:50">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="249"/>
@@ -16541,7 +16566,7 @@
         <v>13000</v>
       </c>
       <c r="K94" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L94">
         <v>813</v>
@@ -16558,7 +16583,7 @@
         <v>33</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>2592000</v>
@@ -16584,7 +16609,7 @@
         <v>16</v>
       </c>
       <c r="X94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y94">
         <v>25000</v>
@@ -16597,7 +16622,7 @@
         <v>16</v>
       </c>
       <c r="AB94" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AC94">
         <v>750</v>
@@ -16677,22 +16702,22 @@
     </row>
     <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:C99" si="275">A95</f>
+        <f t="shared" ref="C95:C98" si="275">A95</f>
         <v>ev14_unacquiredspell</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D99" si="276">IF(ISERROR(FIND("_",A95)),A95,
+        <f t="shared" ref="D95:D98" si="276">IF(ISERROR(FIND("_",A95)),A95,
 LEFT(A95,FIND("_",A95)-1))</f>
         <v>ev14</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E99" si="277">COUNTA(O95,S95,W95,AA95,AE95)</f>
+        <f t="shared" ref="E95:E98" si="277">COUNTA(O95,S95,W95,AA95,AE95)</f>
         <v>1</v>
       </c>
       <c r="G95" t="b">
@@ -16705,17 +16730,17 @@
         <v>13000</v>
       </c>
       <c r="K95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L95">
         <v>178</v>
       </c>
       <c r="M95">
-        <f t="shared" ref="M95:M99" si="278">L95</f>
+        <f t="shared" ref="M95:M98" si="278">L95</f>
         <v>178</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" ref="N95:N99" ca="1" si="279">IF(ISBLANK(O95),"",
+        <f t="shared" ref="N95:N98" ca="1" si="279">IF(ISBLANK(O95),"",
 VLOOKUP(O95,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -16724,101 +16749,101 @@
         <v>33</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" ref="R95:R99" ca="1" si="280">IF(ISBLANK(S95),"",
+        <f t="shared" ref="R95:R98" ca="1" si="280">IF(ISBLANK(S95),"",
 VLOOKUP(S95,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="V95" t="str">
-        <f t="shared" ref="V95:V99" ca="1" si="281">IF(ISBLANK(W95),"",
+        <f t="shared" ref="V95:V98" ca="1" si="281">IF(ISBLANK(W95),"",
 VLOOKUP(W95,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" ref="Z95:Z99" ca="1" si="282">IF(ISBLANK(AA95),"",
+        <f t="shared" ref="Z95:Z98" ca="1" si="282">IF(ISBLANK(AA95),"",
 VLOOKUP(AA95,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AD95" t="str">
-        <f t="shared" ref="AD95:AD99" ca="1" si="283">IF(ISBLANK(AE95),"",
+        <f t="shared" ref="AD95:AD98" ca="1" si="283">IF(ISBLANK(AE95),"",
 VLOOKUP(AE95,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" ref="AH95:AH99" ca="1" si="284">IF(LEN(N95)=0,"",N95)</f>
+        <f t="shared" ref="AH95:AH98" ca="1" si="284">IF(LEN(N95)=0,"",N95)</f>
         <v>it</v>
       </c>
       <c r="AI95" t="str">
-        <f t="shared" ref="AI95:AI99" si="285">IF(LEN(P95)=0,"",P95)</f>
-        <v>Cash_sAcquiredSpell</v>
+        <f t="shared" ref="AI95:AI98" si="285">IF(LEN(P95)=0,"",P95)</f>
+        <v>Cash_sUnacquiredSpell</v>
       </c>
       <c r="AJ95">
-        <f t="shared" ref="AJ95:AJ99" si="286">IF(LEN(Q95)=0,"",Q95)</f>
+        <f t="shared" ref="AJ95:AJ98" si="286">IF(LEN(Q95)=0,"",Q95)</f>
         <v>1</v>
       </c>
       <c r="AK95" t="str">
-        <f t="shared" ref="AK95:AK99" ca="1" si="287">IF(LEN(R95)=0,"",R95)</f>
+        <f t="shared" ref="AK95:AK98" ca="1" si="287">IF(LEN(R95)=0,"",R95)</f>
         <v/>
       </c>
       <c r="AL95" t="str">
-        <f t="shared" ref="AL95:AL99" si="288">IF(LEN(T95)=0,"",T95)</f>
+        <f t="shared" ref="AL95:AL98" si="288">IF(LEN(T95)=0,"",T95)</f>
         <v/>
       </c>
       <c r="AM95" t="str">
-        <f t="shared" ref="AM95:AM99" si="289">IF(LEN(U95)=0,"",U95)</f>
+        <f t="shared" ref="AM95:AM98" si="289">IF(LEN(U95)=0,"",U95)</f>
         <v/>
       </c>
       <c r="AN95" t="str">
-        <f t="shared" ref="AN95:AN99" ca="1" si="290">IF(LEN(V95)=0,"",V95)</f>
+        <f t="shared" ref="AN95:AN98" ca="1" si="290">IF(LEN(V95)=0,"",V95)</f>
         <v/>
       </c>
       <c r="AO95" t="str">
-        <f t="shared" ref="AO95:AO99" si="291">IF(LEN(X95)=0,"",X95)</f>
+        <f t="shared" ref="AO95:AO98" si="291">IF(LEN(X95)=0,"",X95)</f>
         <v/>
       </c>
       <c r="AP95" t="str">
-        <f t="shared" ref="AP95:AP99" si="292">IF(LEN(Y95)=0,"",Y95)</f>
+        <f t="shared" ref="AP95:AP98" si="292">IF(LEN(Y95)=0,"",Y95)</f>
         <v/>
       </c>
       <c r="AQ95" t="str">
-        <f t="shared" ref="AQ95:AQ99" ca="1" si="293">IF(LEN(Z95)=0,"",Z95)</f>
+        <f t="shared" ref="AQ95:AQ98" ca="1" si="293">IF(LEN(Z95)=0,"",Z95)</f>
         <v/>
       </c>
       <c r="AR95" t="str">
-        <f t="shared" ref="AR95:AR99" si="294">IF(LEN(AB95)=0,"",AB95)</f>
+        <f t="shared" ref="AR95:AR98" si="294">IF(LEN(AB95)=0,"",AB95)</f>
         <v/>
       </c>
       <c r="AS95" t="str">
-        <f t="shared" ref="AS95:AS99" si="295">IF(LEN(AC95)=0,"",AC95)</f>
+        <f t="shared" ref="AS95:AS98" si="295">IF(LEN(AC95)=0,"",AC95)</f>
         <v/>
       </c>
       <c r="AT95" t="str">
-        <f t="shared" ref="AT95:AT99" ca="1" si="296">IF(LEN(AD95)=0,"",AD95)</f>
+        <f t="shared" ref="AT95:AT98" ca="1" si="296">IF(LEN(AD95)=0,"",AD95)</f>
         <v/>
       </c>
       <c r="AU95" t="str">
-        <f t="shared" ref="AU95:AU99" si="297">IF(LEN(AF95)=0,"",AF95)</f>
+        <f t="shared" ref="AU95:AU98" si="297">IF(LEN(AF95)=0,"",AF95)</f>
         <v/>
       </c>
       <c r="AV95" t="str">
-        <f t="shared" ref="AV95:AV99" si="298">IF(LEN(AG95)=0,"",AG95)</f>
+        <f t="shared" ref="AV95:AV98" si="298">IF(LEN(AG95)=0,"",AG95)</f>
         <v/>
       </c>
       <c r="AW95" t="str">
-        <f t="shared" ref="AW95:AW99" ca="1" si="299">IF(ROW()=2,AX95,OFFSET(AW95,-1,0)&amp;IF(LEN(AX95)=0,"",","&amp;AX95))</f>
+        <f t="shared" ref="AW95:AW98" ca="1" si="299">IF(ROW()=2,AX95,OFFSET(AW95,-1,0)&amp;IF(LEN(AX95)=0,"",","&amp;AX95))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX95" t="str">
-        <f t="shared" ref="AX95:AX99" si="300">IF(G95=FALSE,"",
+        <f t="shared" ref="AX95:AX98" si="300">IF(G95=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C95&amp;""""
 &amp;","""&amp;L$1&amp;""":"&amp;L95
 &amp;IF(LEN(N95)=0,"",","""&amp;N$1&amp;""":"""&amp;N95&amp;"""")
@@ -16841,15 +16866,15 @@
     </row>
     <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="275"/>
-        <v>ev14_unacquiredspell</v>
+        <v>ev13_acquiredspell_0001</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="276"/>
-        <v>ev14</v>
+        <v>ev13</v>
       </c>
       <c r="E96">
         <f t="shared" si="277"/>
@@ -16865,14 +16890,14 @@
         <v>13000</v>
       </c>
       <c r="K96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L96">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="M96">
         <f t="shared" si="278"/>
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" ca="1" si="279"/>
@@ -16882,7 +16907,7 @@
         <v>33</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -16909,7 +16934,7 @@
       </c>
       <c r="AI96" t="str">
         <f t="shared" si="285"/>
-        <v>Cash_sAcquiredSpell</v>
+        <v>CashName_sAcquiredSpell</v>
       </c>
       <c r="AJ96">
         <f t="shared" si="286"/>
@@ -16974,11 +16999,11 @@
     </row>
     <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="275"/>
-        <v>ev13_acquiredspell_0001</v>
+        <v>ev13_acquiredspell_0002</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="276"/>
@@ -16998,14 +17023,14 @@
         <v>13000</v>
       </c>
       <c r="K97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L97">
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="M97">
         <f t="shared" si="278"/>
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" ca="1" si="279"/>
@@ -17015,7 +17040,7 @@
         <v>33</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -17042,7 +17067,7 @@
       </c>
       <c r="AI97" t="str">
         <f t="shared" si="285"/>
-        <v>Cash_sAcquiredSpell</v>
+        <v>CashName_sAcquiredSpell</v>
       </c>
       <c r="AJ97">
         <f t="shared" si="286"/>
@@ -17107,11 +17132,11 @@
     </row>
     <row r="98" spans="1:50">
       <c r="A98" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="275"/>
-        <v>ev13_acquiredspell_0002</v>
+        <v>ev13_acquiredspell</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="276"/>
@@ -17131,14 +17156,14 @@
         <v>13000</v>
       </c>
       <c r="K98" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L98">
-        <v>652</v>
+        <v>358</v>
       </c>
       <c r="M98">
         <f t="shared" si="278"/>
-        <v>652</v>
+        <v>358</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" ca="1" si="279"/>
@@ -17148,7 +17173,7 @@
         <v>33</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -17175,7 +17200,7 @@
       </c>
       <c r="AI98" t="str">
         <f t="shared" si="285"/>
-        <v>Cash_sAcquiredSpell</v>
+        <v>CashName_sAcquiredSpell</v>
       </c>
       <c r="AJ98">
         <f t="shared" si="286"/>
@@ -17234,139 +17259,6 @@
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX98" t="str">
-        <f t="shared" si="300"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:50">
-      <c r="A99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="275"/>
-        <v>ev13_acquiredspell</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="276"/>
-        <v>ev13</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="277"/>
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>9.99</v>
-      </c>
-      <c r="J99">
-        <v>13000</v>
-      </c>
-      <c r="K99" t="s">
-        <v>228</v>
-      </c>
-      <c r="L99">
-        <v>358</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="278"/>
-        <v>358</v>
-      </c>
-      <c r="N99" t="str">
-        <f t="shared" ca="1" si="279"/>
-        <v>it</v>
-      </c>
-      <c r="O99" t="s">
-        <v>33</v>
-      </c>
-      <c r="P99" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99" t="str">
-        <f t="shared" ca="1" si="280"/>
-        <v/>
-      </c>
-      <c r="V99" t="str">
-        <f t="shared" ca="1" si="281"/>
-        <v/>
-      </c>
-      <c r="Z99" t="str">
-        <f t="shared" ca="1" si="282"/>
-        <v/>
-      </c>
-      <c r="AD99" t="str">
-        <f t="shared" ca="1" si="283"/>
-        <v/>
-      </c>
-      <c r="AH99" t="str">
-        <f t="shared" ca="1" si="284"/>
-        <v>it</v>
-      </c>
-      <c r="AI99" t="str">
-        <f t="shared" si="285"/>
-        <v>Cash_sAcquiredSpell</v>
-      </c>
-      <c r="AJ99">
-        <f t="shared" si="286"/>
-        <v>1</v>
-      </c>
-      <c r="AK99" t="str">
-        <f t="shared" ca="1" si="287"/>
-        <v/>
-      </c>
-      <c r="AL99" t="str">
-        <f t="shared" si="288"/>
-        <v/>
-      </c>
-      <c r="AM99" t="str">
-        <f t="shared" si="289"/>
-        <v/>
-      </c>
-      <c r="AN99" t="str">
-        <f t="shared" ca="1" si="290"/>
-        <v/>
-      </c>
-      <c r="AO99" t="str">
-        <f t="shared" si="291"/>
-        <v/>
-      </c>
-      <c r="AP99" t="str">
-        <f t="shared" si="292"/>
-        <v/>
-      </c>
-      <c r="AQ99" t="str">
-        <f t="shared" ca="1" si="293"/>
-        <v/>
-      </c>
-      <c r="AR99" t="str">
-        <f t="shared" si="294"/>
-        <v/>
-      </c>
-      <c r="AS99" t="str">
-        <f t="shared" si="295"/>
-        <v/>
-      </c>
-      <c r="AT99" t="str">
-        <f t="shared" ca="1" si="296"/>
-        <v/>
-      </c>
-      <c r="AU99" t="str">
-        <f t="shared" si="297"/>
-        <v/>
-      </c>
-      <c r="AV99" t="str">
-        <f t="shared" si="298"/>
-        <v/>
-      </c>
-      <c r="AW99" t="str">
-        <f t="shared" ca="1" si="299"/>
-        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
-      </c>
-      <c r="AX99" t="str">
         <f t="shared" si="300"/>
         <v/>
       </c>
@@ -17593,15 +17485,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4349C-9B9F-4098-A086-194012A30D18}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="49.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17617,24 +17509,72 @@
       <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
+      <c r="B2" t="str">
+        <f>SUBSTITUTE(A2,"Cash_","CashName_")</f>
+        <v>CashName_sBrokenEnergy</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B9" si="0">SUBSTITUTE(A3,"Cash_","CashName_")</f>
+        <v>CashName_sPetSale</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sFortuneWheel</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sAcquiredSpell</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sUnacquiredSpell</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sAcquiredCompanion</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sAcquiredCompanionPp</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>CashName_sUnacquiredCompanion</v>
       </c>
     </row>
   </sheetData>
@@ -17660,13 +17600,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17677,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -17688,7 +17628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17699,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -17710,7 +17650,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17721,7 +17661,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -17733,99 +17673,231 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE9C19-2D50-4E86-8FCD-1161C8919907}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="9" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" t="s">
-        <v>227</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" t="b">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="E2">
+        <f>IF(A2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>B2</f>
+        <v>Spell_0019</v>
+      </c>
+      <c r="G2">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2" ca="1" si="0">IF(ROW()=2,I2,OFFSET(H2,-1,0)&amp;IF(LEN(I2)=0,"",","&amp;I2))</f>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1}</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"{"""&amp;E$1&amp;""":"&amp;E2
+&amp;IF(LEN(F2)=0,"",","""&amp;F$1&amp;""":"""&amp;F2&amp;"""")
+&amp;","""&amp;G$1&amp;""":"&amp;G2&amp;"}"</f>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1}</v>
+      </c>
+      <c r="K2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(H1,COUNTA(H:H)-1,0),1)=",",SUBSTITUTE(OFFSET(H1,COUNTA(H:H)-1,0),",","",1),OFFSET(H1,COUNTA(H:H)-1,0))
+&amp;"]"</f>
+        <v>[{"acq":0,"id":"Spell_0019","cnt":1},{"acq":0,"id":"Spell_0018","cnt":1},{"acq":1,"id":"Spell_0001","cnt":20},{"acq":1,"id":"Spell_0002","cnt":20},{"acq":1,"id":"Spell_0003","cnt":20}]</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" t="b">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">IF(A3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F6" si="2">B3</f>
+        <v>Spell_0018</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="3">C3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H6" ca="1" si="4">IF(ROW()=2,I3,OFFSET(H3,-1,0)&amp;IF(LEN(I3)=0,"",","&amp;I3))</f>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1},{"acq":0,"id":"Spell_0018","cnt":1}</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I6" si="5">"{"""&amp;E$1&amp;""":"&amp;E3
+&amp;IF(LEN(F3)=0,"",","""&amp;F$1&amp;""":"""&amp;F3&amp;"""")
+&amp;","""&amp;G$1&amp;""":"&amp;G3&amp;"}"</f>
+        <v>{"acq":0,"id":"Spell_0018","cnt":1}</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:11">
       <c r="A4" t="b">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>Spell_0001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1},{"acq":0,"id":"Spell_0018","cnt":1},{"acq":1,"id":"Spell_0001","cnt":20}</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="5"/>
+        <v>{"acq":1,"id":"Spell_0001","cnt":20}</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:11">
       <c r="A5" t="b">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>Spell_0002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1},{"acq":0,"id":"Spell_0018","cnt":1},{"acq":1,"id":"Spell_0001","cnt":20},{"acq":1,"id":"Spell_0002","cnt":20}</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="5"/>
+        <v>{"acq":1,"id":"Spell_0002","cnt":20}</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:11">
       <c r="A6" t="b">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>Spell_0003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>{"acq":0,"id":"Spell_0019","cnt":1},{"acq":0,"id":"Spell_0018","cnt":1},{"acq":1,"id":"Spell_0001","cnt":20},{"acq":1,"id":"Spell_0002","cnt":20},{"acq":1,"id":"Spell_0003","cnt":20}</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>{"acq":1,"id":"Spell_0003","cnt":20}</v>
       </c>
     </row>
   </sheetData>
@@ -17849,16 +17921,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -17866,13 +17938,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17880,13 +17952,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -17894,13 +17966,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17908,13 +17980,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17922,13 +17994,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAE2CB2-7E8B-45DD-9ACA-4DDCAB8E5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BAB91-D736-4E94-9F37-5F45563082DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="259">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,29 +2150,13 @@
     <t>ev13_acquiredspell</t>
   </si>
   <si>
-    <t>ev13_acquiredspell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ev14_unacquiredspell</t>
   </si>
   <si>
-    <t>ev14_unacquiredspell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ev13_acquiredspell_0001</t>
   </si>
   <si>
-    <t>ev13_acquiredspell_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ev13_acquiredspell_0002</t>
-  </si>
-  <si>
-    <t>ev13_acquiredspell_0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cash_sAcquiredSpell</t>
@@ -2202,16 +2186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ev15_acquiredcompanion</t>
-  </si>
-  <si>
-    <t>ev16_acquiredcompanionpp</t>
-  </si>
-  <si>
-    <t>ev17_unacquiredcompanion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acquired|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2244,7 +2218,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CashName_sAcquiredSpell</t>
+    <t>pickCha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev14_acquiredspell_0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev14_acquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13_unacquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev15_unacquiredcompanion</t>
+  </si>
+  <si>
+    <t>ev15_unacquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion</t>
+  </si>
+  <si>
+    <t>ev16_acquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev17_acquiredcompanionpp</t>
+  </si>
+  <si>
+    <t>ev17_acquiredcompanionpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sAcquiredSpell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sUnacquiredCompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sAcquiredCompanionPp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2688,59 +2716,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BI98"/>
+  <dimension ref="A1:BJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomRight" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="14" max="14" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="27.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" collapsed="1"/>
+    <col min="35" max="35" width="28.875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="53" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="9" collapsed="1"/>
+    <col min="52" max="53" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9" collapsed="1"/>
+    <col min="55" max="55" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9" collapsed="1"/>
+    <col min="57" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9" collapsed="1"/>
+    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9" collapsed="1"/>
+    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1">
@@ -16702,7 +16737,7 @@
     </row>
     <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
         <v>163</v>
@@ -16730,7 +16765,7 @@
         <v>13000</v>
       </c>
       <c r="K95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L95">
         <v>178</v>
@@ -16749,7 +16784,7 @@
         <v>33</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -16866,7 +16901,7 @@
     </row>
     <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="275"/>
@@ -16890,7 +16925,7 @@
         <v>13000</v>
       </c>
       <c r="K96" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L96">
         <v>240</v>
@@ -16907,7 +16942,7 @@
         <v>33</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -16934,7 +16969,7 @@
       </c>
       <c r="AI96" t="str">
         <f t="shared" si="285"/>
-        <v>CashName_sAcquiredSpell</v>
+        <v>Cash_sAcquiredSpell</v>
       </c>
       <c r="AJ96">
         <f t="shared" si="286"/>
@@ -16999,7 +17034,7 @@
     </row>
     <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="275"/>
@@ -17023,7 +17058,7 @@
         <v>13000</v>
       </c>
       <c r="K97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L97">
         <v>652</v>
@@ -17040,7 +17075,7 @@
         <v>33</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -17067,7 +17102,7 @@
       </c>
       <c r="AI97" t="str">
         <f t="shared" si="285"/>
-        <v>CashName_sAcquiredSpell</v>
+        <v>Cash_sAcquiredSpell</v>
       </c>
       <c r="AJ97">
         <f t="shared" si="286"/>
@@ -17173,7 +17208,7 @@
         <v>33</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -17200,7 +17235,7 @@
       </c>
       <c r="AI98" t="str">
         <f t="shared" si="285"/>
-        <v>CashName_sAcquiredSpell</v>
+        <v>Cash_sAcquiredSpell</v>
       </c>
       <c r="AJ98">
         <f t="shared" si="286"/>
@@ -17263,13 +17298,440 @@
         <v/>
       </c>
     </row>
+    <row r="99" spans="1:50">
+      <c r="A99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ref="C99:C101" si="301">A99</f>
+        <v>ev15_unacquiredcompanion</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ref="D99:D101" si="302">IF(ISERROR(FIND("_",A99)),A99,
+LEFT(A99,FIND("_",A99)-1))</f>
+        <v>ev15</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99:E101" si="303">COUNTA(O99,S99,W99,AA99,AE99)</f>
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>9.99</v>
+      </c>
+      <c r="J99">
+        <v>13000</v>
+      </c>
+      <c r="K99" t="s">
+        <v>249</v>
+      </c>
+      <c r="L99">
+        <v>717</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ref="M99:M101" si="304">L99</f>
+        <v>717</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" ref="N99:N101" ca="1" si="305">IF(ISBLANK(O99),"",
+VLOOKUP(O99,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="O99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P99" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" ref="R99:R101" ca="1" si="306">IF(ISBLANK(S99),"",
+VLOOKUP(S99,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="V99" t="str">
+        <f t="shared" ref="V99:V101" ca="1" si="307">IF(ISBLANK(W99),"",
+VLOOKUP(W99,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" ref="Z99:Z101" ca="1" si="308">IF(ISBLANK(AA99),"",
+VLOOKUP(AA99,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" ref="AD99:AD101" ca="1" si="309">IF(ISBLANK(AE99),"",
+VLOOKUP(AE99,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH99" t="str">
+        <f t="shared" ref="AH99:AH101" ca="1" si="310">IF(LEN(N99)=0,"",N99)</f>
+        <v>it</v>
+      </c>
+      <c r="AI99" t="str">
+        <f t="shared" ref="AI99:AI101" si="311">IF(LEN(P99)=0,"",P99)</f>
+        <v>Cash_sUnacquiredCompanion</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" ref="AJ99:AJ101" si="312">IF(LEN(Q99)=0,"",Q99)</f>
+        <v>1</v>
+      </c>
+      <c r="AK99" t="str">
+        <f t="shared" ref="AK99:AK101" ca="1" si="313">IF(LEN(R99)=0,"",R99)</f>
+        <v/>
+      </c>
+      <c r="AL99" t="str">
+        <f t="shared" ref="AL99:AL101" si="314">IF(LEN(T99)=0,"",T99)</f>
+        <v/>
+      </c>
+      <c r="AM99" t="str">
+        <f t="shared" ref="AM99:AM101" si="315">IF(LEN(U99)=0,"",U99)</f>
+        <v/>
+      </c>
+      <c r="AN99" t="str">
+        <f t="shared" ref="AN99:AN101" ca="1" si="316">IF(LEN(V99)=0,"",V99)</f>
+        <v/>
+      </c>
+      <c r="AO99" t="str">
+        <f t="shared" ref="AO99:AO101" si="317">IF(LEN(X99)=0,"",X99)</f>
+        <v/>
+      </c>
+      <c r="AP99" t="str">
+        <f t="shared" ref="AP99:AP101" si="318">IF(LEN(Y99)=0,"",Y99)</f>
+        <v/>
+      </c>
+      <c r="AQ99" t="str">
+        <f t="shared" ref="AQ99:AQ101" ca="1" si="319">IF(LEN(Z99)=0,"",Z99)</f>
+        <v/>
+      </c>
+      <c r="AR99" t="str">
+        <f t="shared" ref="AR99:AR101" si="320">IF(LEN(AB99)=0,"",AB99)</f>
+        <v/>
+      </c>
+      <c r="AS99" t="str">
+        <f t="shared" ref="AS99:AS101" si="321">IF(LEN(AC99)=0,"",AC99)</f>
+        <v/>
+      </c>
+      <c r="AT99" t="str">
+        <f t="shared" ref="AT99:AT101" ca="1" si="322">IF(LEN(AD99)=0,"",AD99)</f>
+        <v/>
+      </c>
+      <c r="AU99" t="str">
+        <f t="shared" ref="AU99:AU101" si="323">IF(LEN(AF99)=0,"",AF99)</f>
+        <v/>
+      </c>
+      <c r="AV99" t="str">
+        <f t="shared" ref="AV99:AV101" si="324">IF(LEN(AG99)=0,"",AG99)</f>
+        <v/>
+      </c>
+      <c r="AW99" t="str">
+        <f t="shared" ref="AW99:AW101" ca="1" si="325">IF(ROW()=2,AX99,OFFSET(AW99,-1,0)&amp;IF(LEN(AX99)=0,"",","&amp;AX99))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX99" t="str">
+        <f t="shared" ref="AX99:AX101" si="326">IF(G99=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C99&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L99
+&amp;IF(LEN(N99)=0,"",","""&amp;N$1&amp;""":"""&amp;N99&amp;"""")
+&amp;IF(LEN(P99)=0,"",","""&amp;P$1&amp;""":"""&amp;P99&amp;"""")
+&amp;IF(LEN(Q99)=0,"",","""&amp;Q$1&amp;""":"&amp;Q99)
+&amp;IF(LEN(R99)=0,"",","""&amp;R$1&amp;""":"""&amp;R99&amp;"""")
+&amp;IF(LEN(T99)=0,"",","""&amp;T$1&amp;""":"""&amp;T99&amp;"""")
+&amp;IF(LEN(U99)=0,"",","""&amp;U$1&amp;""":"&amp;U99)
+&amp;IF(LEN(V99)=0,"",","""&amp;V$1&amp;""":"""&amp;V99&amp;"""")
+&amp;IF(LEN(X99)=0,"",","""&amp;X$1&amp;""":"""&amp;X99&amp;"""")
+&amp;IF(LEN(Y99)=0,"",","""&amp;Y$1&amp;""":"&amp;Y99)
+&amp;IF(LEN(Z99)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z99&amp;"""")
+&amp;IF(LEN(AB99)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB99&amp;"""")
+&amp;IF(LEN(AC99)=0,"",","""&amp;AC$1&amp;""":"&amp;AC99)
+&amp;IF(LEN(AD99)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD99&amp;"""")
+&amp;IF(LEN(AF99)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF99&amp;"""")
+&amp;IF(LEN(AG99)=0,"",","""&amp;AG$1&amp;""":"&amp;AG99)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:50">
+      <c r="A100" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="301"/>
+        <v>ev16_acquiredcompanion</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="302"/>
+        <v>ev16</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>9.99</v>
+      </c>
+      <c r="J100">
+        <v>13000</v>
+      </c>
+      <c r="K100" t="s">
+        <v>251</v>
+      </c>
+      <c r="L100">
+        <v>569</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="304"/>
+        <v>569</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" ca="1" si="305"/>
+        <v>it</v>
+      </c>
+      <c r="O100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100" t="str">
+        <f t="shared" ca="1" si="306"/>
+        <v/>
+      </c>
+      <c r="V100" t="str">
+        <f t="shared" ca="1" si="307"/>
+        <v/>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" ca="1" si="308"/>
+        <v/>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" ca="1" si="309"/>
+        <v/>
+      </c>
+      <c r="AH100" t="str">
+        <f t="shared" ca="1" si="310"/>
+        <v>it</v>
+      </c>
+      <c r="AI100" t="str">
+        <f t="shared" si="311"/>
+        <v>Cash_sAcquiredCompanion</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" si="312"/>
+        <v>1</v>
+      </c>
+      <c r="AK100" t="str">
+        <f t="shared" ca="1" si="313"/>
+        <v/>
+      </c>
+      <c r="AL100" t="str">
+        <f t="shared" si="314"/>
+        <v/>
+      </c>
+      <c r="AM100" t="str">
+        <f t="shared" si="315"/>
+        <v/>
+      </c>
+      <c r="AN100" t="str">
+        <f t="shared" ca="1" si="316"/>
+        <v/>
+      </c>
+      <c r="AO100" t="str">
+        <f t="shared" si="317"/>
+        <v/>
+      </c>
+      <c r="AP100" t="str">
+        <f t="shared" si="318"/>
+        <v/>
+      </c>
+      <c r="AQ100" t="str">
+        <f t="shared" ca="1" si="319"/>
+        <v/>
+      </c>
+      <c r="AR100" t="str">
+        <f t="shared" si="320"/>
+        <v/>
+      </c>
+      <c r="AS100" t="str">
+        <f t="shared" si="321"/>
+        <v/>
+      </c>
+      <c r="AT100" t="str">
+        <f t="shared" ca="1" si="322"/>
+        <v/>
+      </c>
+      <c r="AU100" t="str">
+        <f t="shared" si="323"/>
+        <v/>
+      </c>
+      <c r="AV100" t="str">
+        <f t="shared" si="324"/>
+        <v/>
+      </c>
+      <c r="AW100" t="str">
+        <f t="shared" ca="1" si="325"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX100" t="str">
+        <f t="shared" si="326"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:50">
+      <c r="A101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="301"/>
+        <v>ev17_acquiredcompanionpp</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="302"/>
+        <v>ev17</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>9.99</v>
+      </c>
+      <c r="J101">
+        <v>13000</v>
+      </c>
+      <c r="K101" t="s">
+        <v>253</v>
+      </c>
+      <c r="L101">
+        <v>880</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="304"/>
+        <v>880</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" ca="1" si="305"/>
+        <v>it</v>
+      </c>
+      <c r="O101" t="s">
+        <v>33</v>
+      </c>
+      <c r="P101" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101" t="str">
+        <f t="shared" ca="1" si="306"/>
+        <v/>
+      </c>
+      <c r="V101" t="str">
+        <f t="shared" ca="1" si="307"/>
+        <v/>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" ca="1" si="308"/>
+        <v/>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" ca="1" si="309"/>
+        <v/>
+      </c>
+      <c r="AH101" t="str">
+        <f t="shared" ca="1" si="310"/>
+        <v>it</v>
+      </c>
+      <c r="AI101" t="str">
+        <f t="shared" si="311"/>
+        <v>Cash_sAcquiredCompanionPp</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" si="312"/>
+        <v>1</v>
+      </c>
+      <c r="AK101" t="str">
+        <f t="shared" ca="1" si="313"/>
+        <v/>
+      </c>
+      <c r="AL101" t="str">
+        <f t="shared" si="314"/>
+        <v/>
+      </c>
+      <c r="AM101" t="str">
+        <f t="shared" si="315"/>
+        <v/>
+      </c>
+      <c r="AN101" t="str">
+        <f t="shared" ca="1" si="316"/>
+        <v/>
+      </c>
+      <c r="AO101" t="str">
+        <f t="shared" si="317"/>
+        <v/>
+      </c>
+      <c r="AP101" t="str">
+        <f t="shared" si="318"/>
+        <v/>
+      </c>
+      <c r="AQ101" t="str">
+        <f t="shared" ca="1" si="319"/>
+        <v/>
+      </c>
+      <c r="AR101" t="str">
+        <f t="shared" si="320"/>
+        <v/>
+      </c>
+      <c r="AS101" t="str">
+        <f t="shared" si="321"/>
+        <v/>
+      </c>
+      <c r="AT101" t="str">
+        <f t="shared" ca="1" si="322"/>
+        <v/>
+      </c>
+      <c r="AU101" t="str">
+        <f t="shared" si="323"/>
+        <v/>
+      </c>
+      <c r="AV101" t="str">
+        <f t="shared" si="324"/>
+        <v/>
+      </c>
+      <c r="AW101" t="str">
+        <f t="shared" ca="1" si="325"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX101" t="str">
+        <f t="shared" si="326"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE80:AE91 AE2:AE74 AA2:AA91 W2:W91 S2:S91 O2:O91" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA101 AE2:AE74 W2:W101 S2:S101 O2:O91 AE80:AE101" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF74 P95 P2:P91 T2:T91 X2:X91 AB2:AB91 AF80:AF91" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF74 AF80:AF101 T2:T101 X2:X101 P2:P101 AB2:AB101" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17534,7 +17996,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -17543,7 +18005,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -17552,7 +18014,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -17561,7 +18023,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -17570,7 +18032,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -17589,7 +18051,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17675,7 +18137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE9C19-2D50-4E86-8FCD-1161C8919907}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -17690,7 +18154,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
         <v>222</v>
@@ -17702,13 +18166,13 @@
         <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -17717,7 +18181,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -17731,7 +18195,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E2">
         <f>IF(A2,1,0)</f>
@@ -17773,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">IF(A3,1,0)</f>
@@ -17809,7 +18273,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -17843,7 +18307,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -17877,7 +18341,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -17908,23 +18372,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B200672-0A9F-4780-942F-3824D7437BB0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" activeCellId="2" sqref="D2 D4 D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="9" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
         <v>223</v>
@@ -17932,75 +18402,203 @@
       <c r="D1" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>B2</f>
+        <v>Actor2238</v>
+      </c>
+      <c r="G2">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H6" ca="1" si="0">IF(ROW()=2,I2,OFFSET(H2,-1,0)&amp;IF(LEN(I2)=0,"",","&amp;I2))</f>
+        <v>{"acq":0,"id":"Actor2238","cnt":1}</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"{"""&amp;E$1&amp;""":"&amp;E2
+&amp;IF(LEN(F2)=0,"",","""&amp;F$1&amp;""":"""&amp;F2&amp;"""")
+&amp;","""&amp;G$1&amp;""":"&amp;G2&amp;"}"</f>
+        <v>{"acq":0,"id":"Actor2238","cnt":1}</v>
+      </c>
+      <c r="K2" t="str">
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(H1,COUNTA(H:H)-1,0),1)=",",SUBSTITUTE(OFFSET(H1,COUNTA(H:H)-1,0),",","",1),OFFSET(H1,COUNTA(H:H)-1,0))
+&amp;"]"</f>
+        <v>[{"acq":0,"id":"Actor2238","cnt":1},{"acq":0,"id":"Actor0240","cnt":1},{"acq":1,"id":"Actor2103","cnt":1},{"acq":2,"id":"Actor2010","cnt":20},{"acq":1,"id":"Actor2011","cnt":1}]</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">A3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F6" si="2">B3</f>
+        <v>Actor0240</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="3">C3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"acq":0,"id":"Actor2238","cnt":1},{"acq":0,"id":"Actor0240","cnt":1}</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I6" si="4">"{"""&amp;E$1&amp;""":"&amp;E3
+&amp;IF(LEN(F3)=0,"",","""&amp;F$1&amp;""":"""&amp;F3&amp;"""")
+&amp;","""&amp;G$1&amp;""":"&amp;G3&amp;"}"</f>
+        <v>{"acq":0,"id":"Actor0240","cnt":1}</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>252</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>Actor2103</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"acq":0,"id":"Actor2238","cnt":1},{"acq":0,"id":"Actor0240","cnt":1},{"acq":1,"id":"Actor2103","cnt":1}</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>{"acq":1,"id":"Actor2103","cnt":1}</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>254</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>Actor2010</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"acq":0,"id":"Actor2238","cnt":1},{"acq":0,"id":"Actor0240","cnt":1},{"acq":1,"id":"Actor2103","cnt":1},{"acq":2,"id":"Actor2010","cnt":20}</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>{"acq":2,"id":"Actor2010","cnt":20}</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>252</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>Actor2011</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"acq":0,"id":"Actor2238","cnt":1},{"acq":0,"id":"Actor0240","cnt":1},{"acq":1,"id":"Actor2103","cnt":1},{"acq":2,"id":"Actor2010","cnt":20},{"acq":1,"id":"Actor2011","cnt":1}</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>{"acq":1,"id":"Actor2011","cnt":1}</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BAB91-D736-4E94-9F37-5F45563082DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E449A-FC74-40A3-A752-7885682CC77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
@@ -2716,66 +2716,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BJ101"/>
+  <dimension ref="A1:BI101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="8" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="27.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9" collapsed="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="27.5" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="28.875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="9" collapsed="1"/>
-    <col min="52" max="53" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9" collapsed="1"/>
-    <col min="55" max="55" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9" collapsed="1"/>
-    <col min="57" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9" collapsed="1"/>
-    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9" collapsed="1"/>
-    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9" collapsed="1"/>
+    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="53" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1">
@@ -11107,7 +11100,7 @@
         <v>15</v>
       </c>
       <c r="Q56">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11135,7 +11128,7 @@
       </c>
       <c r="AJ56">
         <f t="shared" si="160"/>
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="AK56" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11240,7 +11233,7 @@
         <v>15</v>
       </c>
       <c r="Q57">
-        <v>105000</v>
+        <v>1050000</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11268,7 +11261,7 @@
       </c>
       <c r="AJ57">
         <f t="shared" si="160"/>
-        <v>105000</v>
+        <v>1050000</v>
       </c>
       <c r="AK57" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11373,7 +11366,7 @@
         <v>15</v>
       </c>
       <c r="Q58">
-        <v>250000</v>
+        <v>2500000</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11401,7 +11394,7 @@
       </c>
       <c r="AJ58">
         <f t="shared" si="160"/>
-        <v>250000</v>
+        <v>2500000</v>
       </c>
       <c r="AK58" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11506,7 +11499,7 @@
         <v>15</v>
       </c>
       <c r="Q59">
-        <v>600000</v>
+        <v>6000000</v>
       </c>
       <c r="R59" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11534,7 +11527,7 @@
       </c>
       <c r="AJ59">
         <f t="shared" si="160"/>
-        <v>600000</v>
+        <v>6000000</v>
       </c>
       <c r="AK59" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11639,7 +11632,7 @@
         <v>15</v>
       </c>
       <c r="Q60">
-        <v>1900000</v>
+        <v>19000000</v>
       </c>
       <c r="R60" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11667,7 +11660,7 @@
       </c>
       <c r="AJ60">
         <f t="shared" si="160"/>
-        <v>1900000</v>
+        <v>19000000</v>
       </c>
       <c r="AK60" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11772,7 +11765,7 @@
         <v>15</v>
       </c>
       <c r="Q61">
-        <v>4500000</v>
+        <v>45000000</v>
       </c>
       <c r="R61" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11800,7 +11793,7 @@
       </c>
       <c r="AJ61">
         <f t="shared" si="160"/>
-        <v>4500000</v>
+        <v>45000000</v>
       </c>
       <c r="AK61" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -11905,7 +11898,7 @@
         <v>15</v>
       </c>
       <c r="Q62">
-        <v>120000</v>
+        <v>1200000</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -11933,7 +11926,7 @@
       </c>
       <c r="AJ62">
         <f t="shared" si="160"/>
-        <v>120000</v>
+        <v>1200000</v>
       </c>
       <c r="AK62" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -12038,7 +12031,7 @@
         <v>15</v>
       </c>
       <c r="Q63">
-        <v>315000</v>
+        <v>3150000</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -12066,7 +12059,7 @@
       </c>
       <c r="AJ63">
         <f t="shared" si="160"/>
-        <v>315000</v>
+        <v>3150000</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -12171,7 +12164,7 @@
         <v>15</v>
       </c>
       <c r="Q64">
-        <v>750000</v>
+        <v>7500000</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -12199,7 +12192,7 @@
       </c>
       <c r="AJ64">
         <f t="shared" si="160"/>
-        <v>750000</v>
+        <v>7500000</v>
       </c>
       <c r="AK64" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -12304,7 +12297,7 @@
         <v>15</v>
       </c>
       <c r="Q65">
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -12332,7 +12325,7 @@
       </c>
       <c r="AJ65">
         <f t="shared" si="160"/>
-        <v>1800000</v>
+        <v>18000000</v>
       </c>
       <c r="AK65" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -12437,7 +12430,7 @@
         <v>15</v>
       </c>
       <c r="Q66">
-        <v>5700000</v>
+        <v>57000000</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -12465,7 +12458,7 @@
       </c>
       <c r="AJ66">
         <f t="shared" si="160"/>
-        <v>5700000</v>
+        <v>57000000</v>
       </c>
       <c r="AK66" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -12570,7 +12563,7 @@
         <v>15</v>
       </c>
       <c r="Q67">
-        <v>13500000</v>
+        <v>135000000</v>
       </c>
       <c r="R67" t="str">
         <f t="shared" ca="1" si="154"/>
@@ -12598,7 +12591,7 @@
       </c>
       <c r="AJ67">
         <f t="shared" si="160"/>
-        <v>13500000</v>
+        <v>135000000</v>
       </c>
       <c r="AK67" t="str">
         <f t="shared" ca="1" si="161"/>
@@ -17727,7 +17720,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA101 AE2:AE74 W2:W101 S2:S101 O2:O91 AE80:AE101" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4526B6FA-09F4-4375-AD1C-9F9CE1B40112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387A938-2CA9-4D80-BE78-5E186645641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="StageClearTable" sheetId="4" r:id="rId4"/>
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
-    <sheet name="BrokenEnergy" sheetId="7" r:id="rId7"/>
+    <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2755,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
   <dimension ref="A1:BI105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -19201,7 +19201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E077D3-4348-4144-9A8E-A1C4EEB17388}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387A938-2CA9-4D80-BE78-5E186645641F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705F471-0AAC-4C5A-A490-4A8D706EA28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -406,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P72" authorId="0" shapeId="0" xr:uid="{0150D5CF-BC2E-49A2-8DC9-BA37E2604E75}">
+    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{0150D5CF-BC2E-49A2-8DC9-BA37E2604E75}">
       <text>
         <r>
           <rPr>
@@ -572,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P77" authorId="0" shapeId="0" xr:uid="{F563BEFF-1276-43CE-A30C-792AD7B15788}">
+    <comment ref="P89" authorId="0" shapeId="0" xr:uid="{F563BEFF-1276-43CE-A30C-792AD7B15788}">
       <text>
         <r>
           <rPr>
@@ -738,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A79" authorId="1" shapeId="0" xr:uid="{6952BAC6-5E8C-4B20-8924-E29C8F9467A2}">
+    <comment ref="A91" authorId="1" shapeId="0" xr:uid="{6952BAC6-5E8C-4B20-8924-E29C8F9467A2}">
       <text>
         <r>
           <rPr>
@@ -932,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="1" shapeId="0" xr:uid="{D1C54C41-5516-47CF-96D5-6001196B2F7E}">
+    <comment ref="P96" authorId="1" shapeId="0" xr:uid="{D1C54C41-5516-47CF-96D5-6001196B2F7E}">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{F1A64B74-5CA9-40A9-A59D-6163A476FAB6}">
+    <comment ref="P111" authorId="0" shapeId="0" xr:uid="{F1A64B74-5CA9-40A9-A59D-6163A476FAB6}">
       <text>
         <r>
           <rPr>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="281">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2310,6 +2310,42 @@
   <si>
     <t>maxEn</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashshopgem_1</t>
+  </si>
+  <si>
+    <t>cashshopgem_2</t>
+  </si>
+  <si>
+    <t>cashshopgem_3</t>
+  </si>
+  <si>
+    <t>cashshopgem_4</t>
+  </si>
+  <si>
+    <t>cashshopgem_5</t>
+  </si>
+  <si>
+    <t>cashshopgem_6</t>
+  </si>
+  <si>
+    <t>cashshopgem_1_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_2_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_3_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_4_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_5_more</t>
+  </si>
+  <si>
+    <t>cashshopgem_6_more</t>
   </si>
 </sst>
 </file>
@@ -2753,59 +2789,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BI105"/>
+  <dimension ref="A1:BJ117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="9.25" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="14" max="14" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="27.5" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="27.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" collapsed="1"/>
     <col min="35" max="35" width="28.875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="19.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="53" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="50" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="9" collapsed="1"/>
+    <col min="52" max="53" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9" collapsed="1"/>
+    <col min="55" max="55" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9" collapsed="1"/>
+    <col min="57" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9" collapsed="1"/>
+    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9" collapsed="1"/>
+    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1">
@@ -3913,7 +3956,7 @@
         <v>ev1_bigboost</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:D74" si="53">IF(ISERROR(FIND("_",A8)),A8,
+        <f t="shared" ref="D8:D86" si="53">IF(ISERROR(FIND("_",A8)),A8,
 LEFT(A8,FIND("_",A8)-1))</f>
         <v>ev1</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>234</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M82" si="55">L8</f>
+        <f t="shared" ref="M8:M94" si="55">L8</f>
         <v>234</v>
       </c>
       <c r="N8" t="str">
@@ -9263,7 +9306,7 @@
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX42" t="str">
-        <f t="shared" ref="AX42:AX73" si="176">IF(G42=FALSE,"",
+        <f t="shared" ref="AX42:AX85" si="176">IF(G42=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C42&amp;""""
 &amp;","""&amp;L$1&amp;""":"&amp;L42
 &amp;IF(LEN(N42)=0,"",","""&amp;N$1&amp;""":"""&amp;N42&amp;"""")
@@ -10047,7 +10090,7 @@
         <v>130</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48:C78" si="177">A48</f>
+        <f t="shared" ref="C48:C90" si="177">A48</f>
         <v>cashshopenergy_1</v>
       </c>
       <c r="D48" t="str">
@@ -10055,7 +10098,7 @@
         <v>cashshopenergy</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E76" si="178">COUNTA(O48,S48,W48,AA48,AE48)</f>
+        <f t="shared" ref="E48:E88" si="178">COUNTA(O48,S48,W48,AA48,AE48)</f>
         <v>1</v>
       </c>
       <c r="G48" t="b">
@@ -10078,7 +10121,7 @@
         <v>713</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" ref="N48:N72" ca="1" si="179">IF(ISBLANK(O48),"",
+        <f t="shared" ref="N48:N84" ca="1" si="179">IF(ISBLANK(O48),"",
 VLOOKUP(O48,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -10093,25 +10136,25 @@
         <v>30</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" ref="R48:R76" ca="1" si="180">IF(ISBLANK(S48),"",
+        <f t="shared" ref="R48:R88" ca="1" si="180">IF(ISBLANK(S48),"",
 VLOOKUP(S48,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="V48" t="str">
-        <f t="shared" ref="V48:V76" ca="1" si="181">IF(ISBLANK(W48),"",
+        <f t="shared" ref="V48:V88" ca="1" si="181">IF(ISBLANK(W48),"",
 VLOOKUP(W48,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="Z48" t="str">
-        <f t="shared" ref="Z48:Z76" ca="1" si="182">IF(ISBLANK(AA48),"",
+        <f t="shared" ref="Z48:Z88" ca="1" si="182">IF(ISBLANK(AA48),"",
 VLOOKUP(AA48,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AD48" t="str">
-        <f t="shared" ref="AD48:AD76" ca="1" si="183">IF(ISBLANK(AE48),"",
+        <f t="shared" ref="AD48:AD88" ca="1" si="183">IF(ISBLANK(AE48),"",
 VLOOKUP(AE48,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -13249,573 +13292,578 @@
     </row>
     <row r="72" spans="1:50">
       <c r="A72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="177"/>
-        <v>petsale_1</v>
+        <f t="shared" ref="C72:C83" si="200">A72</f>
+        <v>cashshopgem_1</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="53"/>
-        <v>petsale</v>
+        <f t="shared" ref="D72:D83" si="201">IF(ISERROR(FIND("_",A72)),A72,
+LEFT(A72,FIND("_",A72)-1))</f>
+        <v>cashshopgem</v>
       </c>
       <c r="E72">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="E72:E83" si="202">COUNTA(O72,S72,W72,AA72,AE72)</f>
         <v>1</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="J72">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="K72" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L72">
-        <v>781</v>
+        <v>407</v>
       </c>
       <c r="M72">
-        <f t="shared" si="55"/>
-        <v>781</v>
+        <f t="shared" ref="M72:M83" si="203">L72</f>
+        <v>407</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" ca="1" si="179"/>
-        <v>it</v>
+        <f t="shared" ref="N72:N83" ca="1" si="204">IF(ISBLANK(O72),"",
+VLOOKUP(O72,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
       </c>
       <c r="O72" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>167</v>
+        <v>16</v>
+      </c>
+      <c r="P72" t="s">
+        <v>211</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" ca="1" si="180"/>
+        <f t="shared" ref="R72:R83" ca="1" si="205">IF(ISBLANK(S72),"",
+VLOOKUP(S72,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="V72" t="str">
-        <f t="shared" ca="1" si="181"/>
+        <f t="shared" ref="V72:V83" ca="1" si="206">IF(ISBLANK(W72),"",
+VLOOKUP(W72,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" ca="1" si="182"/>
+        <f t="shared" ref="Z72:Z83" ca="1" si="207">IF(ISBLANK(AA72),"",
+VLOOKUP(AA72,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" ca="1" si="183"/>
+        <f t="shared" ref="AD72:AD83" ca="1" si="208">IF(ISBLANK(AE72),"",
+VLOOKUP(AE72,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" ref="AH72:AH78" ca="1" si="200">IF(LEN(N72)=0,"",N72)</f>
-        <v>it</v>
+        <f t="shared" ref="AH72:AH83" ca="1" si="209">IF(LEN(N72)=0,"",N72)</f>
+        <v>cu</v>
       </c>
       <c r="AI72" t="str">
-        <f t="shared" ref="AI72:AI78" si="201">IF(LEN(P72)=0,"",P72)</f>
-        <v>Cash_sPetSale</v>
+        <f t="shared" ref="AI72:AI83" si="210">IF(LEN(P72)=0,"",P72)</f>
+        <v>DI</v>
       </c>
       <c r="AJ72">
-        <f t="shared" ref="AJ72:AJ78" si="202">IF(LEN(Q72)=0,"",Q72)</f>
-        <v>1</v>
+        <f t="shared" ref="AJ72:AJ83" si="211">IF(LEN(Q72)=0,"",Q72)</f>
+        <v>400</v>
       </c>
       <c r="AK72" t="str">
-        <f t="shared" ref="AK72:AK78" ca="1" si="203">IF(LEN(R72)=0,"",R72)</f>
+        <f t="shared" ref="AK72:AK83" ca="1" si="212">IF(LEN(R72)=0,"",R72)</f>
         <v/>
       </c>
       <c r="AL72" t="str">
-        <f t="shared" ref="AL72:AL78" si="204">IF(LEN(T72)=0,"",T72)</f>
+        <f t="shared" ref="AL72:AL83" si="213">IF(LEN(T72)=0,"",T72)</f>
         <v/>
       </c>
       <c r="AM72" t="str">
-        <f t="shared" ref="AM72:AM78" si="205">IF(LEN(U72)=0,"",U72)</f>
+        <f t="shared" ref="AM72:AM83" si="214">IF(LEN(U72)=0,"",U72)</f>
         <v/>
       </c>
       <c r="AN72" t="str">
-        <f t="shared" ref="AN72:AN78" ca="1" si="206">IF(LEN(V72)=0,"",V72)</f>
+        <f t="shared" ref="AN72:AN83" ca="1" si="215">IF(LEN(V72)=0,"",V72)</f>
         <v/>
       </c>
       <c r="AO72" t="str">
-        <f t="shared" ref="AO72:AO78" si="207">IF(LEN(X72)=0,"",X72)</f>
+        <f t="shared" ref="AO72:AO83" si="216">IF(LEN(X72)=0,"",X72)</f>
         <v/>
       </c>
       <c r="AP72" t="str">
-        <f t="shared" ref="AP72:AP78" si="208">IF(LEN(Y72)=0,"",Y72)</f>
+        <f t="shared" ref="AP72:AP83" si="217">IF(LEN(Y72)=0,"",Y72)</f>
         <v/>
       </c>
       <c r="AQ72" t="str">
-        <f t="shared" ref="AQ72:AQ78" ca="1" si="209">IF(LEN(Z72)=0,"",Z72)</f>
+        <f t="shared" ref="AQ72:AQ83" ca="1" si="218">IF(LEN(Z72)=0,"",Z72)</f>
         <v/>
       </c>
       <c r="AR72" t="str">
-        <f t="shared" ref="AR72:AR78" si="210">IF(LEN(AB72)=0,"",AB72)</f>
+        <f t="shared" ref="AR72:AR83" si="219">IF(LEN(AB72)=0,"",AB72)</f>
         <v/>
       </c>
       <c r="AS72" t="str">
-        <f t="shared" ref="AS72:AS78" si="211">IF(LEN(AC72)=0,"",AC72)</f>
+        <f t="shared" ref="AS72:AS83" si="220">IF(LEN(AC72)=0,"",AC72)</f>
         <v/>
       </c>
       <c r="AT72" t="str">
-        <f t="shared" ref="AT72:AT78" ca="1" si="212">IF(LEN(AD72)=0,"",AD72)</f>
+        <f t="shared" ref="AT72:AT83" ca="1" si="221">IF(LEN(AD72)=0,"",AD72)</f>
         <v/>
       </c>
       <c r="AU72" t="str">
-        <f t="shared" ref="AU72:AU78" si="213">IF(LEN(AF72)=0,"",AF72)</f>
+        <f t="shared" ref="AU72:AU83" si="222">IF(LEN(AF72)=0,"",AF72)</f>
         <v/>
       </c>
       <c r="AV72" t="str">
-        <f t="shared" ref="AV72:AV78" si="214">IF(LEN(AG72)=0,"",AG72)</f>
+        <f t="shared" ref="AV72:AV83" si="223">IF(LEN(AG72)=0,"",AG72)</f>
         <v/>
       </c>
       <c r="AW72" t="str">
-        <f t="shared" ref="AW72:AW78" ca="1" si="215">IF(ROW()=2,AX72,OFFSET(AW72,-1,0)&amp;IF(LEN(AX72)=0,"",","&amp;AX72))</f>
+        <f t="shared" ref="AW72:AW83" ca="1" si="224">IF(ROW()=2,AX72,OFFSET(AW72,-1,0)&amp;IF(LEN(AX72)=0,"",","&amp;AX72))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX72" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" ref="AX72:AX83" si="225">IF(G72=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C72&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L72
+&amp;IF(LEN(N72)=0,"",","""&amp;N$1&amp;""":"""&amp;N72&amp;"""")
+&amp;IF(LEN(P72)=0,"",","""&amp;P$1&amp;""":"""&amp;P72&amp;"""")
+&amp;IF(LEN(Q72)=0,"",","""&amp;Q$1&amp;""":"&amp;Q72)
+&amp;IF(LEN(R72)=0,"",","""&amp;R$1&amp;""":"""&amp;R72&amp;"""")
+&amp;IF(LEN(T72)=0,"",","""&amp;T$1&amp;""":"""&amp;T72&amp;"""")
+&amp;IF(LEN(U72)=0,"",","""&amp;U$1&amp;""":"&amp;U72)
+&amp;IF(LEN(V72)=0,"",","""&amp;V$1&amp;""":"""&amp;V72&amp;"""")
+&amp;IF(LEN(X72)=0,"",","""&amp;X$1&amp;""":"""&amp;X72&amp;"""")
+&amp;IF(LEN(Y72)=0,"",","""&amp;Y$1&amp;""":"&amp;Y72)
+&amp;IF(LEN(Z72)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z72&amp;"""")
+&amp;IF(LEN(AB72)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB72&amp;"""")
+&amp;IF(LEN(AC72)=0,"",","""&amp;AC$1&amp;""":"&amp;AC72)
+&amp;IF(LEN(AD72)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD72&amp;"""")
+&amp;IF(LEN(AF72)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF72&amp;"""")
+&amp;IF(LEN(AG72)=0,"",","""&amp;AG$1&amp;""":"&amp;AG72)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:50">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="177"/>
-        <v>petsale_2</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_2</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="53"/>
-        <v>petsale</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E73">
-        <f t="shared" si="178"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="J73">
-        <v>19000</v>
+        <v>5900</v>
       </c>
       <c r="K73" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L73">
-        <v>142</v>
+        <v>934</v>
       </c>
       <c r="M73">
-        <f t="shared" si="55"/>
-        <v>142</v>
+        <f t="shared" si="203"/>
+        <v>934</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" ref="N73:N76" ca="1" si="216">IF(ISBLANK(O73),"",
-VLOOKUP(O73,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O73" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P73" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>1050</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" ca="1" si="180"/>
+        <f t="shared" ca="1" si="205"/>
         <v/>
       </c>
       <c r="V73" t="str">
-        <f t="shared" ca="1" si="181"/>
+        <f t="shared" ca="1" si="206"/>
         <v/>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" ca="1" si="182"/>
+        <f t="shared" ca="1" si="207"/>
         <v/>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" ca="1" si="183"/>
+        <f t="shared" ca="1" si="208"/>
         <v/>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
       </c>
       <c r="AI73" t="str">
-        <f t="shared" si="201"/>
-        <v>Cash_sPetSale</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ73">
-        <f t="shared" si="202"/>
-        <v>1</v>
+        <f t="shared" si="211"/>
+        <v>1050</v>
       </c>
       <c r="AK73" t="str">
-        <f t="shared" ca="1" si="203"/>
+        <f t="shared" ca="1" si="212"/>
         <v/>
       </c>
       <c r="AL73" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="AM73" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="AN73" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f t="shared" ca="1" si="215"/>
         <v/>
       </c>
       <c r="AO73" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="AP73" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="AQ73" t="str">
-        <f t="shared" ca="1" si="209"/>
+        <f t="shared" ca="1" si="218"/>
         <v/>
       </c>
       <c r="AR73" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="AS73" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="AT73" t="str">
-        <f t="shared" ca="1" si="212"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU73" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV73" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW73" t="str">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX73" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:50">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="177"/>
-        <v>petsale_3</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_3</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="53"/>
-        <v>petsale</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E74">
-        <f t="shared" si="178"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="J74">
-        <v>39000</v>
+        <v>12000</v>
       </c>
       <c r="K74" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L74">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="M74">
-        <f t="shared" si="55"/>
-        <v>610</v>
+        <f t="shared" si="203"/>
+        <v>626</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" ca="1" si="216"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O74" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P74" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" ca="1" si="180"/>
+        <f t="shared" ca="1" si="205"/>
         <v/>
       </c>
       <c r="V74" t="str">
-        <f t="shared" ca="1" si="181"/>
+        <f t="shared" ca="1" si="206"/>
         <v/>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" ca="1" si="182"/>
+        <f t="shared" ca="1" si="207"/>
         <v/>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" ca="1" si="183"/>
+        <f t="shared" ca="1" si="208"/>
         <v/>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
       </c>
       <c r="AI74" t="str">
-        <f t="shared" si="201"/>
-        <v>Cash_sPetSale</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ74">
-        <f t="shared" si="202"/>
-        <v>1</v>
+        <f t="shared" si="211"/>
+        <v>2500</v>
       </c>
       <c r="AK74" t="str">
-        <f t="shared" ca="1" si="203"/>
+        <f t="shared" ca="1" si="212"/>
         <v/>
       </c>
       <c r="AL74" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="AM74" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="AN74" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f t="shared" ca="1" si="215"/>
         <v/>
       </c>
       <c r="AO74" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="AP74" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="AQ74" t="str">
-        <f t="shared" ca="1" si="209"/>
+        <f t="shared" ca="1" si="218"/>
         <v/>
       </c>
       <c r="AR74" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="AS74" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="AT74" t="str">
-        <f t="shared" ca="1" si="212"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU74" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV74" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW74" t="str">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX74" t="str">
-        <f t="shared" ref="AX74:AX95" si="217">IF(G74=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C74&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L74
-&amp;IF(LEN(N74)=0,"",","""&amp;N$1&amp;""":"""&amp;N74&amp;"""")
-&amp;IF(LEN(P74)=0,"",","""&amp;P$1&amp;""":"""&amp;P74&amp;"""")
-&amp;IF(LEN(Q74)=0,"",","""&amp;Q$1&amp;""":"&amp;Q74)
-&amp;IF(LEN(R74)=0,"",","""&amp;R$1&amp;""":"""&amp;R74&amp;"""")
-&amp;IF(LEN(T74)=0,"",","""&amp;T$1&amp;""":"""&amp;T74&amp;"""")
-&amp;IF(LEN(U74)=0,"",","""&amp;U$1&amp;""":"&amp;U74)
-&amp;IF(LEN(V74)=0,"",","""&amp;V$1&amp;""":"""&amp;V74&amp;"""")
-&amp;IF(LEN(X74)=0,"",","""&amp;X$1&amp;""":"""&amp;X74&amp;"""")
-&amp;IF(LEN(Y74)=0,"",","""&amp;Y$1&amp;""":"&amp;Y74)
-&amp;IF(LEN(Z74)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z74&amp;"""")
-&amp;IF(LEN(AB74)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB74&amp;"""")
-&amp;IF(LEN(AC74)=0,"",","""&amp;AC$1&amp;""":"&amp;AC74)
-&amp;IF(LEN(AD74)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD74&amp;"""")
-&amp;IF(LEN(AF74)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF74&amp;"""")
-&amp;IF(LEN(AG74)=0,"",","""&amp;AG$1&amp;""":"&amp;AG74)&amp;"}")</f>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:50">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="177"/>
-        <v>petsale_4</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_4</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" ref="D75:D95" si="218">IF(ISERROR(FIND("_",A75)),A75,
-LEFT(A75,FIND("_",A75)-1))</f>
-        <v>petsale</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E75">
-        <f t="shared" si="178"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>39.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J75">
-        <v>48000</v>
+        <v>25000</v>
       </c>
       <c r="K75" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L75">
-        <v>433</v>
+        <v>910</v>
       </c>
       <c r="M75">
-        <f t="shared" si="55"/>
-        <v>433</v>
+        <f t="shared" si="203"/>
+        <v>910</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" ca="1" si="216"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O75" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P75" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" ca="1" si="180"/>
+        <f t="shared" ca="1" si="205"/>
         <v/>
       </c>
       <c r="V75" t="str">
-        <f t="shared" ca="1" si="181"/>
+        <f t="shared" ca="1" si="206"/>
         <v/>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" ca="1" si="182"/>
+        <f t="shared" ca="1" si="207"/>
         <v/>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" ca="1" si="183"/>
+        <f t="shared" ca="1" si="208"/>
         <v/>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
       </c>
       <c r="AI75" t="str">
-        <f t="shared" si="201"/>
-        <v>Cash_sPetSale</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ75">
-        <f t="shared" si="202"/>
-        <v>1</v>
+        <f t="shared" si="211"/>
+        <v>6000</v>
       </c>
       <c r="AK75" t="str">
-        <f t="shared" ca="1" si="203"/>
+        <f t="shared" ca="1" si="212"/>
         <v/>
       </c>
       <c r="AL75" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="AM75" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="AN75" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f t="shared" ca="1" si="215"/>
         <v/>
       </c>
       <c r="AO75" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="AP75" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="AQ75" t="str">
-        <f t="shared" ca="1" si="209"/>
+        <f t="shared" ca="1" si="218"/>
         <v/>
       </c>
       <c r="AR75" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="AS75" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="AT75" t="str">
-        <f t="shared" ca="1" si="212"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU75" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV75" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW75" t="str">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX75" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="177"/>
-        <v>petsale_5</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_5</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="218"/>
-        <v>petsale</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E76">
-        <f t="shared" si="178"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G76" t="b">
@@ -13828,2137 +13876,1893 @@
         <v>65000</v>
       </c>
       <c r="K76" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="L76">
-        <v>604</v>
+        <v>258</v>
       </c>
       <c r="M76">
-        <f t="shared" si="55"/>
-        <v>604</v>
+        <f t="shared" si="203"/>
+        <v>258</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" ca="1" si="216"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O76" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P76" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>19000</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" ca="1" si="180"/>
+        <f t="shared" ca="1" si="205"/>
         <v/>
       </c>
       <c r="V76" t="str">
-        <f t="shared" ca="1" si="181"/>
+        <f t="shared" ca="1" si="206"/>
         <v/>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" ca="1" si="182"/>
+        <f t="shared" ca="1" si="207"/>
         <v/>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" ca="1" si="183"/>
+        <f t="shared" ca="1" si="208"/>
         <v/>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
       </c>
       <c r="AI76" t="str">
-        <f t="shared" si="201"/>
-        <v>Cash_sPetSale</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ76">
-        <f t="shared" si="202"/>
-        <v>1</v>
+        <f t="shared" si="211"/>
+        <v>19000</v>
       </c>
       <c r="AK76" t="str">
-        <f t="shared" ca="1" si="203"/>
+        <f t="shared" ca="1" si="212"/>
         <v/>
       </c>
       <c r="AL76" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="AM76" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="AN76" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f t="shared" ca="1" si="215"/>
         <v/>
       </c>
       <c r="AO76" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="AP76" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="AQ76" t="str">
-        <f t="shared" ca="1" si="209"/>
+        <f t="shared" ca="1" si="218"/>
         <v/>
       </c>
       <c r="AR76" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="AS76" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="AT76" t="str">
-        <f t="shared" ca="1" si="212"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU76" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV76" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW76" t="str">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX76" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:50">
       <c r="A77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="177"/>
-        <v>petcapture_better</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_6</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="218"/>
-        <v>petcapture</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:E78" si="219">COUNTA(O77,S77,W77,AA77,AE77)</f>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0.99</v>
+        <v>99.99</v>
       </c>
       <c r="J77">
-        <v>1200</v>
+        <v>119000</v>
       </c>
       <c r="K77" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="L77">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="M77">
-        <f t="shared" si="55"/>
-        <v>902</v>
+        <f t="shared" si="203"/>
+        <v>872</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" ref="N77" ca="1" si="220">IF(ISBLANK(O77),"",
-VLOOKUP(O77,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O77" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="P77" t="s">
+        <v>211</v>
       </c>
       <c r="Q77">
-        <v>5</v>
+        <v>45000</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" ref="R77:R81" ca="1" si="221">IF(ISBLANK(S77),"",
-VLOOKUP(S77,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="205"/>
         <v/>
       </c>
       <c r="V77" t="str">
-        <f t="shared" ref="V77:V81" ca="1" si="222">IF(ISBLANK(W77),"",
-VLOOKUP(W77,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="206"/>
         <v/>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" ref="Z77:Z78" ca="1" si="223">IF(ISBLANK(AA77),"",
-VLOOKUP(AA77,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="207"/>
         <v/>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" ref="AD77:AD78" ca="1" si="224">IF(ISBLANK(AE77),"",
-VLOOKUP(AE77,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="208"/>
         <v/>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
       </c>
       <c r="AI77" t="str">
-        <f t="shared" si="201"/>
-        <v>Item_cCaptureBetter</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ77">
-        <f t="shared" si="202"/>
-        <v>5</v>
+        <f t="shared" si="211"/>
+        <v>45000</v>
       </c>
       <c r="AK77" t="str">
-        <f t="shared" ca="1" si="203"/>
+        <f t="shared" ca="1" si="212"/>
         <v/>
       </c>
       <c r="AL77" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="AM77" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="AN77" t="str">
-        <f t="shared" ca="1" si="206"/>
+        <f t="shared" ca="1" si="215"/>
         <v/>
       </c>
       <c r="AO77" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="AP77" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="AQ77" t="str">
-        <f t="shared" ca="1" si="209"/>
+        <f t="shared" ca="1" si="218"/>
         <v/>
       </c>
       <c r="AR77" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="AS77" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="AT77" t="str">
-        <f t="shared" ca="1" si="212"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU77" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV77" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW77" t="str">
-        <f t="shared" ca="1" si="215"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX77" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:50">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="177"/>
-        <v>petcapture_best</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_1_more</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="218"/>
-        <v>petcapture</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E78">
-        <f t="shared" si="219"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="J78">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="L78">
-        <v>924</v>
+        <v>357</v>
       </c>
       <c r="M78">
-        <f t="shared" si="55"/>
-        <v>924</v>
+        <f t="shared" si="203"/>
+        <v>357</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" ref="N78" ca="1" si="225">IF(ISBLANK(O78),"",
-VLOOKUP(O78,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="204"/>
+        <v>cu</v>
       </c>
       <c r="O78" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P78" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="Q78">
-        <v>5</v>
+        <v>1200</v>
       </c>
       <c r="R78" t="str">
+        <f t="shared" ca="1" si="205"/>
+        <v/>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" ca="1" si="206"/>
+        <v/>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD78" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
+      </c>
+      <c r="AH78" t="str">
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
+      </c>
+      <c r="AI78" t="str">
+        <f t="shared" si="210"/>
+        <v>DI</v>
+      </c>
+      <c r="AJ78">
+        <f t="shared" si="211"/>
+        <v>1200</v>
+      </c>
+      <c r="AK78" t="str">
+        <f t="shared" ca="1" si="212"/>
+        <v/>
+      </c>
+      <c r="AL78" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM78" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="AN78" t="str">
+        <f t="shared" ca="1" si="215"/>
+        <v/>
+      </c>
+      <c r="AO78" t="str">
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP78" t="str">
+        <f t="shared" si="217"/>
+        <v/>
+      </c>
+      <c r="AQ78" t="str">
+        <f t="shared" ca="1" si="218"/>
+        <v/>
+      </c>
+      <c r="AR78" t="str">
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS78" t="str">
+        <f t="shared" si="220"/>
+        <v/>
+      </c>
+      <c r="AT78" t="str">
         <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
-      <c r="V78" t="str">
-        <f t="shared" ca="1" si="222"/>
-        <v/>
-      </c>
-      <c r="Z78" t="str">
-        <f t="shared" ca="1" si="223"/>
-        <v/>
-      </c>
-      <c r="AD78" t="str">
+      <c r="AU78" t="str">
+        <f t="shared" si="222"/>
+        <v/>
+      </c>
+      <c r="AV78" t="str">
+        <f t="shared" si="223"/>
+        <v/>
+      </c>
+      <c r="AW78" t="str">
         <f t="shared" ca="1" si="224"/>
-        <v/>
-      </c>
-      <c r="AH78" t="str">
-        <f t="shared" ca="1" si="200"/>
-        <v>it</v>
-      </c>
-      <c r="AI78" t="str">
-        <f t="shared" si="201"/>
-        <v>Item_cCaptureBest</v>
-      </c>
-      <c r="AJ78">
-        <f t="shared" si="202"/>
-        <v>5</v>
-      </c>
-      <c r="AK78" t="str">
-        <f t="shared" ca="1" si="203"/>
-        <v/>
-      </c>
-      <c r="AL78" t="str">
-        <f t="shared" si="204"/>
-        <v/>
-      </c>
-      <c r="AM78" t="str">
-        <f t="shared" si="205"/>
-        <v/>
-      </c>
-      <c r="AN78" t="str">
-        <f t="shared" ca="1" si="206"/>
-        <v/>
-      </c>
-      <c r="AO78" t="str">
-        <f t="shared" si="207"/>
-        <v/>
-      </c>
-      <c r="AP78" t="str">
-        <f t="shared" si="208"/>
-        <v/>
-      </c>
-      <c r="AQ78" t="str">
-        <f t="shared" ca="1" si="209"/>
-        <v/>
-      </c>
-      <c r="AR78" t="str">
-        <f t="shared" si="210"/>
-        <v/>
-      </c>
-      <c r="AS78" t="str">
-        <f t="shared" si="211"/>
-        <v/>
-      </c>
-      <c r="AT78" t="str">
-        <f t="shared" ca="1" si="212"/>
-        <v/>
-      </c>
-      <c r="AU78" t="str">
-        <f t="shared" si="213"/>
-        <v/>
-      </c>
-      <c r="AV78" t="str">
-        <f t="shared" si="214"/>
-        <v/>
-      </c>
-      <c r="AW78" t="str">
-        <f t="shared" ca="1" si="215"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX78" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:50">
-      <c r="A79" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" t="s">
-        <v>146</v>
+      <c r="A79" t="s">
+        <v>276</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ref="C79:C95" si="226">A79</f>
-        <v>stageclear_1</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_2_more</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="218"/>
-        <v>stageclear</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E84" si="227">COUNTA(O79,S79,W79,AA79,AE79)</f>
-        <v>4</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>4</v>
-      </c>
       <c r="I79">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="J79">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="K79" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="L79">
-        <v>802</v>
+        <v>866</v>
       </c>
       <c r="M79">
-        <f t="shared" si="55"/>
-        <v>802</v>
+        <f t="shared" si="203"/>
+        <v>866</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" ref="N79:N81" ca="1" si="228">IF(ISBLANK(O79),"",
-VLOOKUP(O79,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="204"/>
         <v>cu</v>
       </c>
       <c r="O79" t="s">
         <v>16</v>
       </c>
       <c r="P79" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>3150</v>
       </c>
       <c r="R79" t="str">
+        <f t="shared" ca="1" si="205"/>
+        <v/>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" ca="1" si="206"/>
+        <v/>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD79" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
+      </c>
+      <c r="AH79" t="str">
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
+      </c>
+      <c r="AI79" t="str">
+        <f t="shared" si="210"/>
+        <v>DI</v>
+      </c>
+      <c r="AJ79">
+        <f t="shared" si="211"/>
+        <v>3150</v>
+      </c>
+      <c r="AK79" t="str">
+        <f t="shared" ca="1" si="212"/>
+        <v/>
+      </c>
+      <c r="AL79" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM79" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="AN79" t="str">
+        <f t="shared" ca="1" si="215"/>
+        <v/>
+      </c>
+      <c r="AO79" t="str">
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP79" t="str">
+        <f t="shared" si="217"/>
+        <v/>
+      </c>
+      <c r="AQ79" t="str">
+        <f t="shared" ca="1" si="218"/>
+        <v/>
+      </c>
+      <c r="AR79" t="str">
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS79" t="str">
+        <f t="shared" si="220"/>
+        <v/>
+      </c>
+      <c r="AT79" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>cu</v>
-      </c>
-      <c r="S79" t="s">
-        <v>16</v>
-      </c>
-      <c r="T79" t="s">
-        <v>15</v>
-      </c>
-      <c r="U79">
-        <v>25000</v>
-      </c>
-      <c r="V79" t="str">
-        <f t="shared" ca="1" si="222"/>
-        <v>cu</v>
-      </c>
-      <c r="W79" t="s">
-        <v>16</v>
-      </c>
-      <c r="X79" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y79">
-        <v>100</v>
-      </c>
-      <c r="Z79" t="str">
-        <f t="shared" ref="Z79:Z81" ca="1" si="229">IF(ISBLANK(AA79),"",
-VLOOKUP(AA79,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC79">
-        <v>35000</v>
-      </c>
-      <c r="AH79" t="str">
-        <f t="shared" ref="AH79:AH84" ca="1" si="230">IF(LEN(N79)=0,"",N79)</f>
-        <v>cu</v>
-      </c>
-      <c r="AI79" t="str">
-        <f t="shared" ref="AI79:AI84" si="231">IF(LEN(P79)=0,"",P79)</f>
-        <v>EN</v>
-      </c>
-      <c r="AJ79">
-        <f t="shared" ref="AJ79:AJ84" si="232">IF(LEN(Q79)=0,"",Q79)</f>
-        <v>30</v>
-      </c>
-      <c r="AK79" t="str">
-        <f t="shared" ref="AK79:AK84" ca="1" si="233">IF(LEN(R79)=0,"",R79)</f>
-        <v>cu</v>
-      </c>
-      <c r="AL79" t="str">
-        <f t="shared" ref="AL79:AL84" si="234">IF(LEN(T79)=0,"",T79)</f>
-        <v>GO</v>
-      </c>
-      <c r="AM79">
-        <f t="shared" ref="AM79:AM84" si="235">IF(LEN(U79)=0,"",U79)</f>
-        <v>25000</v>
-      </c>
-      <c r="AN79" t="str">
-        <f t="shared" ref="AN79:AN84" ca="1" si="236">IF(LEN(V79)=0,"",V79)</f>
-        <v>cu</v>
-      </c>
-      <c r="AO79" t="str">
-        <f t="shared" ref="AO79:AO84" si="237">IF(LEN(X79)=0,"",X79)</f>
-        <v>EN</v>
-      </c>
-      <c r="AP79">
-        <f t="shared" ref="AP79:AP84" si="238">IF(LEN(Y79)=0,"",Y79)</f>
-        <v>100</v>
-      </c>
-      <c r="AQ79" t="str">
-        <f t="shared" ref="AQ79:AQ84" ca="1" si="239">IF(LEN(Z79)=0,"",Z79)</f>
-        <v>cu</v>
-      </c>
-      <c r="AR79" t="str">
-        <f t="shared" ref="AR79:AR84" si="240">IF(LEN(AB79)=0,"",AB79)</f>
-        <v>GO</v>
-      </c>
-      <c r="AS79">
-        <f t="shared" ref="AS79:AS84" si="241">IF(LEN(AC79)=0,"",AC79)</f>
-        <v>35000</v>
-      </c>
-      <c r="AT79" t="str">
-        <f t="shared" ref="AT79:AT84" si="242">IF(LEN(AD79)=0,"",AD79)</f>
         <v/>
       </c>
       <c r="AU79" t="str">
-        <f t="shared" ref="AU79:AU84" si="243">IF(LEN(AF79)=0,"",AF79)</f>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV79" t="str">
-        <f t="shared" ref="AV79:AV84" si="244">IF(LEN(AG79)=0,"",AG79)</f>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW79" t="str">
-        <f t="shared" ref="AW79:AW84" ca="1" si="245">IF(ROW()=2,AX79,OFFSET(AW79,-1,0)&amp;IF(LEN(AX79)=0,"",","&amp;AX79))</f>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX79" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="226"/>
-        <v>stageclear_2</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_3_more</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="218"/>
-        <v>stageclear</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E80">
-        <f t="shared" si="227"/>
-        <v>4</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
       <c r="I80">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="J80">
-        <v>5900</v>
+        <v>12000</v>
       </c>
       <c r="K80" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="L80">
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="M80">
-        <f t="shared" si="55"/>
-        <v>585</v>
+        <f t="shared" si="203"/>
+        <v>240</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" ca="1" si="228"/>
+        <f t="shared" ca="1" si="204"/>
         <v>cu</v>
       </c>
       <c r="O80" t="s">
         <v>16</v>
       </c>
       <c r="P80" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="Q80">
-        <v>60</v>
+        <v>7500</v>
       </c>
       <c r="R80" t="str">
+        <f t="shared" ca="1" si="205"/>
+        <v/>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" ca="1" si="206"/>
+        <v/>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD80" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
+      </c>
+      <c r="AH80" t="str">
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
+      </c>
+      <c r="AI80" t="str">
+        <f t="shared" si="210"/>
+        <v>DI</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" si="211"/>
+        <v>7500</v>
+      </c>
+      <c r="AK80" t="str">
+        <f t="shared" ca="1" si="212"/>
+        <v/>
+      </c>
+      <c r="AL80" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM80" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="AN80" t="str">
+        <f t="shared" ca="1" si="215"/>
+        <v/>
+      </c>
+      <c r="AO80" t="str">
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP80" t="str">
+        <f t="shared" si="217"/>
+        <v/>
+      </c>
+      <c r="AQ80" t="str">
+        <f t="shared" ca="1" si="218"/>
+        <v/>
+      </c>
+      <c r="AR80" t="str">
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS80" t="str">
+        <f t="shared" si="220"/>
+        <v/>
+      </c>
+      <c r="AT80" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>cu</v>
-      </c>
-      <c r="S80" t="s">
-        <v>16</v>
-      </c>
-      <c r="T80" t="s">
-        <v>15</v>
-      </c>
-      <c r="U80">
-        <v>15000</v>
-      </c>
-      <c r="V80" t="str">
-        <f t="shared" ca="1" si="222"/>
-        <v>cu</v>
-      </c>
-      <c r="W80" t="s">
-        <v>16</v>
-      </c>
-      <c r="X80" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y80">
-        <v>120</v>
-      </c>
-      <c r="Z80" t="str">
-        <f t="shared" ca="1" si="229"/>
-        <v>cu</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC80">
-        <v>25000</v>
-      </c>
-      <c r="AH80" t="str">
-        <f t="shared" ca="1" si="230"/>
-        <v>cu</v>
-      </c>
-      <c r="AI80" t="str">
-        <f t="shared" si="231"/>
-        <v>EN</v>
-      </c>
-      <c r="AJ80">
-        <f t="shared" si="232"/>
-        <v>60</v>
-      </c>
-      <c r="AK80" t="str">
-        <f t="shared" ca="1" si="233"/>
-        <v>cu</v>
-      </c>
-      <c r="AL80" t="str">
-        <f t="shared" si="234"/>
-        <v>GO</v>
-      </c>
-      <c r="AM80">
-        <f t="shared" si="235"/>
-        <v>15000</v>
-      </c>
-      <c r="AN80" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>cu</v>
-      </c>
-      <c r="AO80" t="str">
-        <f t="shared" si="237"/>
-        <v>EN</v>
-      </c>
-      <c r="AP80">
-        <f t="shared" si="238"/>
-        <v>120</v>
-      </c>
-      <c r="AQ80" t="str">
-        <f t="shared" ca="1" si="239"/>
-        <v>cu</v>
-      </c>
-      <c r="AR80" t="str">
-        <f t="shared" si="240"/>
-        <v>GO</v>
-      </c>
-      <c r="AS80">
-        <f t="shared" si="241"/>
-        <v>25000</v>
-      </c>
-      <c r="AT80" t="str">
-        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="AU80" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV80" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW80" t="str">
-        <f t="shared" ca="1" si="245"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX80" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="226"/>
-        <v>stageclear_3</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_4_more</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="218"/>
-        <v>stageclear</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E81">
-        <f t="shared" si="227"/>
-        <v>4</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>4</v>
-      </c>
       <c r="I81">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J81">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K81" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L81">
-        <v>634</v>
+        <v>722</v>
       </c>
       <c r="M81">
-        <f t="shared" si="55"/>
-        <v>634</v>
+        <f t="shared" si="203"/>
+        <v>722</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" ca="1" si="228"/>
+        <f t="shared" ca="1" si="204"/>
         <v>cu</v>
       </c>
       <c r="O81" t="s">
         <v>16</v>
       </c>
       <c r="P81" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="Q81">
-        <v>90</v>
+        <v>18000</v>
       </c>
       <c r="R81" t="str">
+        <f t="shared" ca="1" si="205"/>
+        <v/>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" ca="1" si="206"/>
+        <v/>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD81" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
+      </c>
+      <c r="AH81" t="str">
+        <f t="shared" ca="1" si="209"/>
+        <v>cu</v>
+      </c>
+      <c r="AI81" t="str">
+        <f t="shared" si="210"/>
+        <v>DI</v>
+      </c>
+      <c r="AJ81">
+        <f t="shared" si="211"/>
+        <v>18000</v>
+      </c>
+      <c r="AK81" t="str">
+        <f t="shared" ca="1" si="212"/>
+        <v/>
+      </c>
+      <c r="AL81" t="str">
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM81" t="str">
+        <f t="shared" si="214"/>
+        <v/>
+      </c>
+      <c r="AN81" t="str">
+        <f t="shared" ca="1" si="215"/>
+        <v/>
+      </c>
+      <c r="AO81" t="str">
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP81" t="str">
+        <f t="shared" si="217"/>
+        <v/>
+      </c>
+      <c r="AQ81" t="str">
+        <f t="shared" ca="1" si="218"/>
+        <v/>
+      </c>
+      <c r="AR81" t="str">
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS81" t="str">
+        <f t="shared" si="220"/>
+        <v/>
+      </c>
+      <c r="AT81" t="str">
         <f t="shared" ca="1" si="221"/>
-        <v>cu</v>
-      </c>
-      <c r="S81" t="s">
-        <v>16</v>
-      </c>
-      <c r="T81" t="s">
-        <v>15</v>
-      </c>
-      <c r="U81">
-        <v>30000</v>
-      </c>
-      <c r="V81" t="str">
-        <f t="shared" ca="1" si="222"/>
-        <v>cu</v>
-      </c>
-      <c r="W81" t="s">
-        <v>16</v>
-      </c>
-      <c r="X81" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y81">
-        <v>150</v>
-      </c>
-      <c r="Z81" t="str">
-        <f t="shared" ca="1" si="229"/>
-        <v>cu</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC81">
-        <v>300</v>
-      </c>
-      <c r="AH81" t="str">
-        <f t="shared" ca="1" si="230"/>
-        <v>cu</v>
-      </c>
-      <c r="AI81" t="str">
-        <f t="shared" si="231"/>
-        <v>EN</v>
-      </c>
-      <c r="AJ81">
-        <f t="shared" si="232"/>
-        <v>90</v>
-      </c>
-      <c r="AK81" t="str">
-        <f t="shared" ca="1" si="233"/>
-        <v>cu</v>
-      </c>
-      <c r="AL81" t="str">
-        <f t="shared" si="234"/>
-        <v>GO</v>
-      </c>
-      <c r="AM81">
-        <f t="shared" si="235"/>
-        <v>30000</v>
-      </c>
-      <c r="AN81" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>cu</v>
-      </c>
-      <c r="AO81" t="str">
-        <f t="shared" si="237"/>
-        <v>EN</v>
-      </c>
-      <c r="AP81">
-        <f t="shared" si="238"/>
-        <v>150</v>
-      </c>
-      <c r="AQ81" t="str">
-        <f t="shared" ca="1" si="239"/>
-        <v>cu</v>
-      </c>
-      <c r="AR81" t="str">
-        <f t="shared" si="240"/>
-        <v>EN</v>
-      </c>
-      <c r="AS81">
-        <f t="shared" si="241"/>
-        <v>300</v>
-      </c>
-      <c r="AT81" t="str">
-        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="AU81" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV81" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW81" t="str">
-        <f t="shared" ca="1" si="245"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX81" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:50">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="226"/>
-        <v>stageclear_5</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_5_more</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="218"/>
-        <v>stageclear</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E82">
-        <f t="shared" si="227"/>
-        <v>4</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>4</v>
-      </c>
       <c r="I82">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="J82">
-        <v>13000</v>
+        <v>65000</v>
       </c>
       <c r="K82" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L82">
-        <v>791</v>
+        <v>517</v>
       </c>
       <c r="M82">
-        <f t="shared" si="55"/>
-        <v>791</v>
+        <f t="shared" si="203"/>
+        <v>517</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" ref="N82:N83" ca="1" si="246">IF(ISBLANK(O82),"",
-VLOOKUP(O82,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="204"/>
         <v>cu</v>
       </c>
       <c r="O82" t="s">
         <v>16</v>
       </c>
       <c r="P82" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="Q82">
-        <v>120</v>
+        <v>57000</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" ref="R82:R84" ca="1" si="247">IF(ISBLANK(S82),"",
-VLOOKUP(S82,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="S82" t="s">
-        <v>16</v>
-      </c>
-      <c r="T82" t="s">
-        <v>15</v>
-      </c>
-      <c r="U82">
-        <v>50000</v>
+        <f t="shared" ca="1" si="205"/>
+        <v/>
       </c>
       <c r="V82" t="str">
-        <f t="shared" ref="V82:V84" ca="1" si="248">IF(ISBLANK(W82),"",
-VLOOKUP(W82,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="W82" t="s">
-        <v>16</v>
-      </c>
-      <c r="X82" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y82">
-        <v>120</v>
+        <f t="shared" ca="1" si="206"/>
+        <v/>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" ref="Z82:Z84" ca="1" si="249">IF(ISBLANK(AA82),"",
-VLOOKUP(AA82,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC82">
-        <v>25000</v>
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD82" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" ca="1" si="230"/>
+        <f t="shared" ca="1" si="209"/>
         <v>cu</v>
       </c>
       <c r="AI82" t="str">
-        <f t="shared" si="231"/>
-        <v>EN</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ82">
-        <f t="shared" si="232"/>
-        <v>120</v>
+        <f t="shared" si="211"/>
+        <v>57000</v>
       </c>
       <c r="AK82" t="str">
-        <f t="shared" ca="1" si="233"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="212"/>
+        <v/>
       </c>
       <c r="AL82" t="str">
-        <f t="shared" si="234"/>
-        <v>GO</v>
-      </c>
-      <c r="AM82">
-        <f t="shared" si="235"/>
-        <v>50000</v>
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM82" t="str">
+        <f t="shared" si="214"/>
+        <v/>
       </c>
       <c r="AN82" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="215"/>
+        <v/>
       </c>
       <c r="AO82" t="str">
-        <f t="shared" si="237"/>
-        <v>EN</v>
-      </c>
-      <c r="AP82">
-        <f t="shared" si="238"/>
-        <v>120</v>
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP82" t="str">
+        <f t="shared" si="217"/>
+        <v/>
       </c>
       <c r="AQ82" t="str">
-        <f t="shared" ca="1" si="239"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="218"/>
+        <v/>
       </c>
       <c r="AR82" t="str">
-        <f t="shared" si="240"/>
-        <v>GO</v>
-      </c>
-      <c r="AS82">
-        <f t="shared" si="241"/>
-        <v>25000</v>
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS82" t="str">
+        <f t="shared" si="220"/>
+        <v/>
       </c>
       <c r="AT82" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU82" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV82" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW82" t="str">
-        <f t="shared" ca="1" si="245"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX82" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:50">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="226"/>
-        <v>stageclear_10</v>
+        <f t="shared" si="200"/>
+        <v>cashshopgem_6_more</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="218"/>
-        <v>stageclear</v>
+        <f t="shared" si="201"/>
+        <v>cashshopgem</v>
       </c>
       <c r="E83">
-        <f t="shared" si="227"/>
-        <v>4</v>
+        <f t="shared" si="202"/>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>4</v>
-      </c>
       <c r="I83">
-        <v>9.99</v>
+        <v>99.99</v>
       </c>
       <c r="J83">
-        <v>13000</v>
+        <v>119000</v>
       </c>
       <c r="K83" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="L83">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M83:M95" si="250">L83</f>
-        <v>484</v>
+        <f t="shared" si="203"/>
+        <v>526</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" ca="1" si="246"/>
+        <f t="shared" ca="1" si="204"/>
         <v>cu</v>
       </c>
       <c r="O83" t="s">
         <v>16</v>
       </c>
       <c r="P83" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="Q83">
-        <v>150</v>
+        <v>135000</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" ca="1" si="247"/>
-        <v>cu</v>
-      </c>
-      <c r="S83" t="s">
-        <v>16</v>
-      </c>
-      <c r="T83" t="s">
-        <v>15</v>
-      </c>
-      <c r="U83">
-        <v>90000</v>
+        <f t="shared" ca="1" si="205"/>
+        <v/>
       </c>
       <c r="V83" t="str">
-        <f t="shared" ca="1" si="248"/>
-        <v>cu</v>
-      </c>
-      <c r="W83" t="s">
-        <v>16</v>
-      </c>
-      <c r="X83" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y83">
-        <v>150</v>
+        <f t="shared" ca="1" si="206"/>
+        <v/>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" ca="1" si="249"/>
-        <v>cu</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC83">
-        <v>300</v>
+        <f t="shared" ca="1" si="207"/>
+        <v/>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" ca="1" si="208"/>
+        <v/>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" ca="1" si="230"/>
+        <f t="shared" ca="1" si="209"/>
         <v>cu</v>
       </c>
       <c r="AI83" t="str">
-        <f t="shared" si="231"/>
-        <v>EN</v>
+        <f t="shared" si="210"/>
+        <v>DI</v>
       </c>
       <c r="AJ83">
-        <f t="shared" si="232"/>
-        <v>150</v>
+        <f t="shared" si="211"/>
+        <v>135000</v>
       </c>
       <c r="AK83" t="str">
-        <f t="shared" ca="1" si="233"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="212"/>
+        <v/>
       </c>
       <c r="AL83" t="str">
-        <f t="shared" si="234"/>
-        <v>GO</v>
-      </c>
-      <c r="AM83">
-        <f t="shared" si="235"/>
-        <v>90000</v>
+        <f t="shared" si="213"/>
+        <v/>
+      </c>
+      <c r="AM83" t="str">
+        <f t="shared" si="214"/>
+        <v/>
       </c>
       <c r="AN83" t="str">
-        <f t="shared" ca="1" si="236"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="215"/>
+        <v/>
       </c>
       <c r="AO83" t="str">
-        <f t="shared" si="237"/>
-        <v>EN</v>
-      </c>
-      <c r="AP83">
-        <f t="shared" si="238"/>
-        <v>150</v>
+        <f t="shared" si="216"/>
+        <v/>
+      </c>
+      <c r="AP83" t="str">
+        <f t="shared" si="217"/>
+        <v/>
       </c>
       <c r="AQ83" t="str">
-        <f t="shared" ca="1" si="239"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="218"/>
+        <v/>
       </c>
       <c r="AR83" t="str">
-        <f t="shared" si="240"/>
-        <v>EN</v>
-      </c>
-      <c r="AS83">
-        <f t="shared" si="241"/>
-        <v>300</v>
+        <f t="shared" si="219"/>
+        <v/>
+      </c>
+      <c r="AS83" t="str">
+        <f t="shared" si="220"/>
+        <v/>
       </c>
       <c r="AT83" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" ca="1" si="221"/>
         <v/>
       </c>
       <c r="AU83" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="AV83" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="AW83" t="str">
-        <f t="shared" ca="1" si="245"/>
+        <f t="shared" ca="1" si="224"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX83" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:50">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="226"/>
-        <v>dailygem</v>
+        <f t="shared" si="177"/>
+        <v>petsale_1</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="218"/>
-        <v>dailygem</v>
+        <f t="shared" si="53"/>
+        <v>petsale</v>
       </c>
       <c r="E84">
-        <f t="shared" si="227"/>
-        <v>2</v>
+        <f t="shared" si="178"/>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="J84">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="K84" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="L84">
-        <v>212</v>
+        <v>781</v>
       </c>
       <c r="M84">
-        <f t="shared" si="250"/>
-        <v>212</v>
+        <f t="shared" si="55"/>
+        <v>781</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" ref="N84:N95" ca="1" si="251">IF(ISBLANK(O84),"",
-VLOOKUP(O84,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="179"/>
         <v>it</v>
       </c>
       <c r="O84" t="s">
         <v>33</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="Q84">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" ca="1" si="247"/>
-        <v>cu</v>
-      </c>
-      <c r="S84" t="s">
-        <v>16</v>
-      </c>
-      <c r="T84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="U84">
-        <v>500</v>
+        <f t="shared" ca="1" si="180"/>
+        <v/>
       </c>
       <c r="V84" t="str">
-        <f t="shared" ca="1" si="248"/>
+        <f t="shared" ca="1" si="181"/>
         <v/>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" ca="1" si="249"/>
+        <f t="shared" ca="1" si="182"/>
         <v/>
       </c>
       <c r="AD84" t="str">
-        <f t="shared" ref="AD84" ca="1" si="252">IF(ISBLANK(AE84),"",
-VLOOKUP(AE84,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="183"/>
         <v/>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" ca="1" si="230"/>
+        <f t="shared" ref="AH84:AH90" ca="1" si="226">IF(LEN(N84)=0,"",N84)</f>
         <v>it</v>
       </c>
       <c r="AI84" t="str">
-        <f t="shared" si="231"/>
-        <v>Item_cDailyGem</v>
+        <f t="shared" ref="AI84:AI90" si="227">IF(LEN(P84)=0,"",P84)</f>
+        <v>Cash_sPetSale</v>
       </c>
       <c r="AJ84">
-        <f t="shared" si="232"/>
-        <v>15</v>
+        <f t="shared" ref="AJ84:AJ90" si="228">IF(LEN(Q84)=0,"",Q84)</f>
+        <v>1</v>
       </c>
       <c r="AK84" t="str">
-        <f t="shared" ca="1" si="233"/>
-        <v>cu</v>
+        <f t="shared" ref="AK84:AK90" ca="1" si="229">IF(LEN(R84)=0,"",R84)</f>
+        <v/>
       </c>
       <c r="AL84" t="str">
-        <f t="shared" si="234"/>
-        <v>DI</v>
-      </c>
-      <c r="AM84">
-        <f t="shared" si="235"/>
-        <v>500</v>
+        <f t="shared" ref="AL84:AL90" si="230">IF(LEN(T84)=0,"",T84)</f>
+        <v/>
+      </c>
+      <c r="AM84" t="str">
+        <f t="shared" ref="AM84:AM90" si="231">IF(LEN(U84)=0,"",U84)</f>
+        <v/>
       </c>
       <c r="AN84" t="str">
-        <f t="shared" ca="1" si="236"/>
+        <f t="shared" ref="AN84:AN90" ca="1" si="232">IF(LEN(V84)=0,"",V84)</f>
         <v/>
       </c>
       <c r="AO84" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" ref="AO84:AO90" si="233">IF(LEN(X84)=0,"",X84)</f>
         <v/>
       </c>
       <c r="AP84" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" ref="AP84:AP90" si="234">IF(LEN(Y84)=0,"",Y84)</f>
         <v/>
       </c>
       <c r="AQ84" t="str">
-        <f t="shared" ca="1" si="239"/>
+        <f t="shared" ref="AQ84:AQ90" ca="1" si="235">IF(LEN(Z84)=0,"",Z84)</f>
         <v/>
       </c>
       <c r="AR84" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" ref="AR84:AR90" si="236">IF(LEN(AB84)=0,"",AB84)</f>
         <v/>
       </c>
       <c r="AS84" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" ref="AS84:AS90" si="237">IF(LEN(AC84)=0,"",AC84)</f>
         <v/>
       </c>
       <c r="AT84" t="str">
-        <f t="shared" ca="1" si="242"/>
+        <f t="shared" ref="AT84:AT90" ca="1" si="238">IF(LEN(AD84)=0,"",AD84)</f>
         <v/>
       </c>
       <c r="AU84" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" ref="AU84:AU90" si="239">IF(LEN(AF84)=0,"",AF84)</f>
         <v/>
       </c>
       <c r="AV84" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" ref="AV84:AV90" si="240">IF(LEN(AG84)=0,"",AG84)</f>
         <v/>
       </c>
       <c r="AW84" t="str">
-        <f t="shared" ca="1" si="245"/>
+        <f t="shared" ref="AW84:AW90" ca="1" si="241">IF(ROW()=2,AX84,OFFSET(AW84,-1,0)&amp;IF(LEN(AX84)=0,"",","&amp;AX84))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX84" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="176"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:50">
       <c r="A85" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="226"/>
-        <v>researchboost</v>
+        <f t="shared" si="177"/>
+        <v>petsale_2</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="218"/>
-        <v>researchboost</v>
+        <f t="shared" si="53"/>
+        <v>petsale</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="253">COUNTA(O85,S85,W85,AA85,AE85)</f>
-        <v>2</v>
+        <f t="shared" si="178"/>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J85">
-        <v>5900</v>
+        <v>19000</v>
       </c>
       <c r="K85" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="L85">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M85">
-        <f t="shared" si="250"/>
-        <v>131</v>
+        <f t="shared" si="55"/>
+        <v>142</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ref="N85:N88" ca="1" si="242">IF(ISBLANK(O85),"",
+VLOOKUP(O85,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>it</v>
       </c>
       <c r="O85" t="s">
         <v>33</v>
       </c>
       <c r="P85" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" ref="R85:R95" ca="1" si="254">IF(ISBLANK(S85),"",
-VLOOKUP(S85,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>cu</v>
-      </c>
-      <c r="S85" t="s">
-        <v>16</v>
-      </c>
-      <c r="T85" t="s">
-        <v>36</v>
-      </c>
-      <c r="U85">
-        <v>750</v>
+        <f t="shared" ca="1" si="180"/>
+        <v/>
       </c>
       <c r="V85" t="str">
-        <f t="shared" ref="V85:V95" ca="1" si="255">IF(ISBLANK(W85),"",
-VLOOKUP(W85,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="181"/>
         <v/>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" ref="Z85:Z95" ca="1" si="256">IF(ISBLANK(AA85),"",
-VLOOKUP(AA85,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="182"/>
         <v/>
       </c>
       <c r="AD85" t="str">
-        <f t="shared" ref="AD85:AD95" ca="1" si="257">IF(ISBLANK(AE85),"",
-VLOOKUP(AE85,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="183"/>
         <v/>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" ref="AH85:AH95" ca="1" si="258">IF(LEN(N85)=0,"",N85)</f>
+        <f t="shared" ca="1" si="226"/>
         <v>it</v>
       </c>
       <c r="AI85" t="str">
-        <f t="shared" ref="AI85:AI95" si="259">IF(LEN(P85)=0,"",P85)</f>
-        <v>Cash_sResearchBoost</v>
+        <f t="shared" si="227"/>
+        <v>Cash_sPetSale</v>
       </c>
       <c r="AJ85">
-        <f t="shared" ref="AJ85:AJ95" si="260">IF(LEN(Q85)=0,"",Q85)</f>
+        <f t="shared" si="228"/>
         <v>1</v>
       </c>
       <c r="AK85" t="str">
-        <f t="shared" ref="AK85:AK95" ca="1" si="261">IF(LEN(R85)=0,"",R85)</f>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL85" t="str">
-        <f t="shared" ref="AL85:AL95" si="262">IF(LEN(T85)=0,"",T85)</f>
-        <v>EN</v>
-      </c>
-      <c r="AM85">
-        <f t="shared" ref="AM85:AM95" si="263">IF(LEN(U85)=0,"",U85)</f>
-        <v>750</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM85" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN85" t="str">
-        <f t="shared" ref="AN85:AN95" ca="1" si="264">IF(LEN(V85)=0,"",V85)</f>
+        <f t="shared" ca="1" si="232"/>
         <v/>
       </c>
       <c r="AO85" t="str">
-        <f t="shared" ref="AO85:AO95" si="265">IF(LEN(X85)=0,"",X85)</f>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="AP85" t="str">
-        <f t="shared" ref="AP85:AP95" si="266">IF(LEN(Y85)=0,"",Y85)</f>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="AQ85" t="str">
-        <f t="shared" ref="AQ85:AQ95" ca="1" si="267">IF(LEN(Z85)=0,"",Z85)</f>
+        <f t="shared" ca="1" si="235"/>
         <v/>
       </c>
       <c r="AR85" t="str">
-        <f t="shared" ref="AR85:AR95" si="268">IF(LEN(AB85)=0,"",AB85)</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="AS85" t="str">
-        <f t="shared" ref="AS85:AS95" si="269">IF(LEN(AC85)=0,"",AC85)</f>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="AT85" t="str">
-        <f t="shared" ref="AT85:AT95" ca="1" si="270">IF(LEN(AD85)=0,"",AD85)</f>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU85" t="str">
-        <f t="shared" ref="AU85:AU95" si="271">IF(LEN(AF85)=0,"",AF85)</f>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV85" t="str">
-        <f t="shared" ref="AV85:AV95" si="272">IF(LEN(AG85)=0,"",AG85)</f>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW85" t="str">
-        <f t="shared" ref="AW85:AW95" ca="1" si="273">IF(ROW()=2,AX85,OFFSET(AW85,-1,0)&amp;IF(LEN(AX85)=0,"",","&amp;AX85))</f>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX85" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="176"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:50">
       <c r="A86" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_1</v>
+        <f t="shared" si="177"/>
+        <v>petsale_3</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="53"/>
+        <v>petsale</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86:E95" si="274">COUNTA(O86,S86,W86,AA86,AE86)</f>
-        <v>3</v>
+        <f t="shared" si="178"/>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0.99</v>
+        <v>29.99</v>
       </c>
       <c r="J86">
-        <v>1200</v>
+        <v>39000</v>
       </c>
       <c r="K86" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="L86">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="M86">
-        <f t="shared" si="250"/>
-        <v>704</v>
+        <f t="shared" si="55"/>
+        <v>610</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="242"/>
+        <v>it</v>
       </c>
       <c r="O86" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P86" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>cu</v>
-      </c>
-      <c r="S86" t="s">
-        <v>16</v>
-      </c>
-      <c r="T86" t="s">
-        <v>15</v>
-      </c>
-      <c r="U86">
-        <v>25000</v>
+        <f t="shared" ca="1" si="180"/>
+        <v/>
       </c>
       <c r="V86" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>cu</v>
-      </c>
-      <c r="W86" t="s">
-        <v>16</v>
-      </c>
-      <c r="X86" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y86">
-        <v>100</v>
+        <f t="shared" ca="1" si="181"/>
+        <v/>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ca="1" si="182"/>
         <v/>
       </c>
       <c r="AD86" t="str">
-        <f t="shared" ca="1" si="257"/>
+        <f t="shared" ca="1" si="183"/>
         <v/>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" ca="1" si="258"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="226"/>
+        <v>it</v>
       </c>
       <c r="AI86" t="str">
-        <f t="shared" si="259"/>
-        <v>EN</v>
+        <f t="shared" si="227"/>
+        <v>Cash_sPetSale</v>
       </c>
       <c r="AJ86">
-        <f t="shared" si="260"/>
-        <v>30</v>
+        <f t="shared" si="228"/>
+        <v>1</v>
       </c>
       <c r="AK86" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL86" t="str">
-        <f t="shared" si="262"/>
-        <v>GO</v>
-      </c>
-      <c r="AM86">
-        <f t="shared" si="263"/>
-        <v>25000</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM86" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN86" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="232"/>
+        <v/>
       </c>
       <c r="AO86" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP86">
-        <f t="shared" si="266"/>
-        <v>100</v>
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="AP86" t="str">
+        <f t="shared" si="234"/>
+        <v/>
       </c>
       <c r="AQ86" t="str">
-        <f t="shared" ca="1" si="267"/>
+        <f t="shared" ca="1" si="235"/>
         <v/>
       </c>
       <c r="AR86" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="AS86" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="AT86" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU86" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV86" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW86" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX86" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" ref="AX86:AX107" si="243">IF(G86=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C86&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L86
+&amp;IF(LEN(N86)=0,"",","""&amp;N$1&amp;""":"""&amp;N86&amp;"""")
+&amp;IF(LEN(P86)=0,"",","""&amp;P$1&amp;""":"""&amp;P86&amp;"""")
+&amp;IF(LEN(Q86)=0,"",","""&amp;Q$1&amp;""":"&amp;Q86)
+&amp;IF(LEN(R86)=0,"",","""&amp;R$1&amp;""":"""&amp;R86&amp;"""")
+&amp;IF(LEN(T86)=0,"",","""&amp;T$1&amp;""":"""&amp;T86&amp;"""")
+&amp;IF(LEN(U86)=0,"",","""&amp;U$1&amp;""":"&amp;U86)
+&amp;IF(LEN(V86)=0,"",","""&amp;V$1&amp;""":"""&amp;V86&amp;"""")
+&amp;IF(LEN(X86)=0,"",","""&amp;X$1&amp;""":"""&amp;X86&amp;"""")
+&amp;IF(LEN(Y86)=0,"",","""&amp;Y$1&amp;""":"&amp;Y86)
+&amp;IF(LEN(Z86)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z86&amp;"""")
+&amp;IF(LEN(AB86)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB86&amp;"""")
+&amp;IF(LEN(AC86)=0,"",","""&amp;AC$1&amp;""":"&amp;AC86)
+&amp;IF(LEN(AD86)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD86&amp;"""")
+&amp;IF(LEN(AF86)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF86&amp;"""")
+&amp;IF(LEN(AG86)=0,"",","""&amp;AG$1&amp;""":"&amp;AG86)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:50">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_2</v>
+        <f t="shared" si="177"/>
+        <v>petsale_4</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" ref="D87:D107" si="244">IF(ISERROR(FIND("_",A87)),A87,
+LEFT(A87,FIND("_",A87)-1))</f>
+        <v>petsale</v>
       </c>
       <c r="E87">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" si="178"/>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0.99</v>
+        <v>39.99</v>
       </c>
       <c r="J87">
-        <v>1200</v>
+        <v>48000</v>
       </c>
       <c r="K87" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L87">
-        <v>148</v>
+        <v>433</v>
       </c>
       <c r="M87">
-        <f t="shared" si="250"/>
-        <v>148</v>
+        <f t="shared" si="55"/>
+        <v>433</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="242"/>
+        <v>it</v>
       </c>
       <c r="O87" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P87" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="Q87">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>cu</v>
-      </c>
-      <c r="S87" t="s">
-        <v>16</v>
-      </c>
-      <c r="T87" t="s">
-        <v>15</v>
-      </c>
-      <c r="U87">
-        <v>15000</v>
+        <f t="shared" ca="1" si="180"/>
+        <v/>
       </c>
       <c r="V87" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>cu</v>
-      </c>
-      <c r="W87" t="s">
-        <v>16</v>
-      </c>
-      <c r="X87" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y87">
-        <v>120</v>
+        <f t="shared" ca="1" si="181"/>
+        <v/>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ca="1" si="182"/>
         <v/>
       </c>
       <c r="AD87" t="str">
-        <f t="shared" ca="1" si="257"/>
+        <f t="shared" ca="1" si="183"/>
         <v/>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" ca="1" si="258"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="226"/>
+        <v>it</v>
       </c>
       <c r="AI87" t="str">
-        <f t="shared" si="259"/>
-        <v>EN</v>
+        <f t="shared" si="227"/>
+        <v>Cash_sPetSale</v>
       </c>
       <c r="AJ87">
-        <f t="shared" si="260"/>
-        <v>60</v>
+        <f t="shared" si="228"/>
+        <v>1</v>
       </c>
       <c r="AK87" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL87" t="str">
-        <f t="shared" si="262"/>
-        <v>GO</v>
-      </c>
-      <c r="AM87">
-        <f t="shared" si="263"/>
-        <v>15000</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM87" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN87" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="232"/>
+        <v/>
       </c>
       <c r="AO87" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP87">
-        <f t="shared" si="266"/>
-        <v>120</v>
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="AP87" t="str">
+        <f t="shared" si="234"/>
+        <v/>
       </c>
       <c r="AQ87" t="str">
-        <f t="shared" ca="1" si="267"/>
+        <f t="shared" ca="1" si="235"/>
         <v/>
       </c>
       <c r="AR87" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="AS87" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="AT87" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU87" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV87" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW87" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX87" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:50">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_3</v>
+        <f t="shared" si="177"/>
+        <v>petsale_5</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>petsale</v>
       </c>
       <c r="E88">
-        <f t="shared" si="274"/>
-        <v>4</v>
+        <f t="shared" si="178"/>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0.99</v>
+        <v>49.99</v>
       </c>
       <c r="J88">
-        <v>1200</v>
+        <v>65000</v>
       </c>
       <c r="K88" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="L88">
-        <v>784</v>
+        <v>604</v>
       </c>
       <c r="M88">
-        <f t="shared" si="250"/>
-        <v>784</v>
+        <f t="shared" si="55"/>
+        <v>604</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="242"/>
+        <v>it</v>
       </c>
       <c r="O88" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P88" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="Q88">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>cu</v>
-      </c>
-      <c r="S88" t="s">
-        <v>16</v>
-      </c>
-      <c r="T88" t="s">
-        <v>15</v>
-      </c>
-      <c r="U88">
-        <v>30000</v>
+        <f t="shared" ca="1" si="180"/>
+        <v/>
       </c>
       <c r="V88" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>cu</v>
-      </c>
-      <c r="W88" t="s">
-        <v>16</v>
-      </c>
-      <c r="X88" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y88">
-        <v>150</v>
+        <f t="shared" ca="1" si="181"/>
+        <v/>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" ca="1" si="256"/>
-        <v>cu</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC88">
-        <v>300</v>
+        <f t="shared" ca="1" si="182"/>
+        <v/>
       </c>
       <c r="AD88" t="str">
-        <f t="shared" ca="1" si="257"/>
+        <f t="shared" ca="1" si="183"/>
         <v/>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" ca="1" si="258"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="226"/>
+        <v>it</v>
       </c>
       <c r="AI88" t="str">
-        <f t="shared" si="259"/>
-        <v>EN</v>
+        <f t="shared" si="227"/>
+        <v>Cash_sPetSale</v>
       </c>
       <c r="AJ88">
-        <f t="shared" si="260"/>
-        <v>90</v>
+        <f t="shared" si="228"/>
+        <v>1</v>
       </c>
       <c r="AK88" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL88" t="str">
-        <f t="shared" si="262"/>
-        <v>GO</v>
-      </c>
-      <c r="AM88">
-        <f t="shared" si="263"/>
-        <v>30000</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM88" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN88" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="232"/>
+        <v/>
       </c>
       <c r="AO88" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP88">
-        <f t="shared" si="266"/>
-        <v>150</v>
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="AP88" t="str">
+        <f t="shared" si="234"/>
+        <v/>
       </c>
       <c r="AQ88" t="str">
-        <f t="shared" ca="1" si="267"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="235"/>
+        <v/>
       </c>
       <c r="AR88" t="str">
-        <f t="shared" si="268"/>
-        <v>EN</v>
-      </c>
-      <c r="AS88">
-        <f t="shared" si="269"/>
-        <v>300</v>
+        <f t="shared" si="236"/>
+        <v/>
+      </c>
+      <c r="AS88" t="str">
+        <f t="shared" si="237"/>
+        <v/>
       </c>
       <c r="AT88" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU88" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV88" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW88" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX88" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:50">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_4</v>
+        <f t="shared" si="177"/>
+        <v>petcapture_better</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>petcapture</v>
       </c>
       <c r="E89">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" ref="E89:E90" si="245">COUNTA(O89,S89,W89,AA89,AE89)</f>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="J89">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="K89" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L89">
-        <v>354</v>
+        <v>902</v>
       </c>
       <c r="M89">
-        <f t="shared" si="250"/>
-        <v>354</v>
+        <f t="shared" si="55"/>
+        <v>902</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>cu</v>
+        <f t="shared" ref="N89" ca="1" si="246">IF(ISBLANK(O89),"",
+VLOOKUP(O89,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
       </c>
       <c r="O89" t="s">
-        <v>16</v>
-      </c>
-      <c r="P89" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>cu</v>
-      </c>
-      <c r="S89" t="s">
-        <v>16</v>
-      </c>
-      <c r="T89" t="s">
-        <v>15</v>
-      </c>
-      <c r="U89">
-        <v>25000</v>
+        <f t="shared" ref="R89:R93" ca="1" si="247">IF(ISBLANK(S89),"",
+VLOOKUP(S89,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="V89" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>cu</v>
-      </c>
-      <c r="W89" t="s">
-        <v>16</v>
-      </c>
-      <c r="X89" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y89">
-        <v>100</v>
+        <f t="shared" ref="V89:V93" ca="1" si="248">IF(ISBLANK(W89),"",
+VLOOKUP(W89,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ref="Z89:Z90" ca="1" si="249">IF(ISBLANK(AA89),"",
+VLOOKUP(AA89,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AD89" t="str">
-        <f t="shared" ca="1" si="257"/>
+        <f t="shared" ref="AD89:AD90" ca="1" si="250">IF(ISBLANK(AE89),"",
+VLOOKUP(AE89,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" ca="1" si="258"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="226"/>
+        <v>it</v>
       </c>
       <c r="AI89" t="str">
-        <f t="shared" si="259"/>
-        <v>EN</v>
+        <f t="shared" si="227"/>
+        <v>Item_cCaptureBetter</v>
       </c>
       <c r="AJ89">
-        <f t="shared" si="260"/>
-        <v>30</v>
+        <f t="shared" si="228"/>
+        <v>5</v>
       </c>
       <c r="AK89" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL89" t="str">
-        <f t="shared" si="262"/>
-        <v>GO</v>
-      </c>
-      <c r="AM89">
-        <f t="shared" si="263"/>
-        <v>25000</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM89" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN89" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="232"/>
+        <v/>
       </c>
       <c r="AO89" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP89">
-        <f t="shared" si="266"/>
-        <v>100</v>
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="AP89" t="str">
+        <f t="shared" si="234"/>
+        <v/>
       </c>
       <c r="AQ89" t="str">
-        <f t="shared" ca="1" si="267"/>
+        <f t="shared" ca="1" si="235"/>
         <v/>
       </c>
       <c r="AR89" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="AS89" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="AT89" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU89" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV89" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW89" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX89" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:50">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_5</v>
+        <f t="shared" si="177"/>
+        <v>petcapture_best</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>petcapture</v>
       </c>
       <c r="E90">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" si="245"/>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -15970,168 +15774,160 @@
         <v>5900</v>
       </c>
       <c r="K90" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L90">
-        <v>414</v>
+        <v>924</v>
       </c>
       <c r="M90">
-        <f t="shared" si="250"/>
-        <v>414</v>
+        <f t="shared" si="55"/>
+        <v>924</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" ca="1" si="251"/>
-        <v>cu</v>
+        <f t="shared" ref="N90" ca="1" si="251">IF(ISBLANK(O90),"",
+VLOOKUP(O90,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
       </c>
       <c r="O90" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P90" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="Q90">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" ca="1" si="254"/>
-        <v>cu</v>
-      </c>
-      <c r="S90" t="s">
-        <v>16</v>
-      </c>
-      <c r="T90" t="s">
-        <v>15</v>
-      </c>
-      <c r="U90">
-        <v>15000</v>
+        <f t="shared" ca="1" si="247"/>
+        <v/>
       </c>
       <c r="V90" t="str">
-        <f t="shared" ca="1" si="255"/>
-        <v>cu</v>
-      </c>
-      <c r="W90" t="s">
-        <v>16</v>
-      </c>
-      <c r="X90" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y90">
-        <v>120</v>
+        <f t="shared" ca="1" si="248"/>
+        <v/>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ca="1" si="249"/>
         <v/>
       </c>
       <c r="AD90" t="str">
-        <f t="shared" ca="1" si="257"/>
+        <f t="shared" ca="1" si="250"/>
         <v/>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" ca="1" si="258"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="226"/>
+        <v>it</v>
       </c>
       <c r="AI90" t="str">
-        <f t="shared" si="259"/>
-        <v>EN</v>
+        <f t="shared" si="227"/>
+        <v>Item_cCaptureBest</v>
       </c>
       <c r="AJ90">
-        <f t="shared" si="260"/>
-        <v>60</v>
+        <f t="shared" si="228"/>
+        <v>5</v>
       </c>
       <c r="AK90" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="229"/>
+        <v/>
       </c>
       <c r="AL90" t="str">
-        <f t="shared" si="262"/>
-        <v>GO</v>
-      </c>
-      <c r="AM90">
-        <f t="shared" si="263"/>
-        <v>15000</v>
+        <f t="shared" si="230"/>
+        <v/>
+      </c>
+      <c r="AM90" t="str">
+        <f t="shared" si="231"/>
+        <v/>
       </c>
       <c r="AN90" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="232"/>
+        <v/>
       </c>
       <c r="AO90" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP90">
-        <f t="shared" si="266"/>
-        <v>120</v>
+        <f t="shared" si="233"/>
+        <v/>
+      </c>
+      <c r="AP90" t="str">
+        <f t="shared" si="234"/>
+        <v/>
       </c>
       <c r="AQ90" t="str">
-        <f t="shared" ca="1" si="267"/>
+        <f t="shared" ca="1" si="235"/>
         <v/>
       </c>
       <c r="AR90" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="AS90" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="AT90" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ca="1" si="238"/>
         <v/>
       </c>
       <c r="AU90" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="AV90" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="AW90" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="241"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX90" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:50">
-      <c r="A91" t="s">
-        <v>157</v>
+      <c r="A91" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>146</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_6</v>
+        <f t="shared" ref="C91:C107" si="252">A91</f>
+        <v>stageclear_1</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>stageclear</v>
       </c>
       <c r="E91">
-        <f t="shared" si="274"/>
+        <f t="shared" ref="E91:E96" si="253">COUNTA(O91,S91,W91,AA91,AE91)</f>
         <v>4</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
       <c r="I91">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="J91">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="K91" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L91">
-        <v>726</v>
+        <v>802</v>
       </c>
       <c r="M91">
-        <f t="shared" si="250"/>
-        <v>726</v>
+        <f t="shared" si="55"/>
+        <v>802</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ref="N91:N93" ca="1" si="254">IF(ISBLANK(O91),"",
+VLOOKUP(O91,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="O91" t="s">
@@ -16141,10 +15937,10 @@
         <v>56</v>
       </c>
       <c r="Q91">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" ca="1" si="254"/>
+        <f t="shared" ca="1" si="247"/>
         <v>cu</v>
       </c>
       <c r="S91" t="s">
@@ -16154,10 +15950,10 @@
         <v>15</v>
       </c>
       <c r="U91">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="V91" t="str">
-        <f t="shared" ca="1" si="255"/>
+        <f t="shared" ca="1" si="248"/>
         <v>cu</v>
       </c>
       <c r="W91" t="s">
@@ -16167,131 +15963,132 @@
         <v>56</v>
       </c>
       <c r="Y91">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ref="Z91:Z93" ca="1" si="255">IF(ISBLANK(AA91),"",
+VLOOKUP(AA91,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="AA91" t="s">
         <v>16</v>
       </c>
       <c r="AB91" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="AC91">
-        <v>300</v>
-      </c>
-      <c r="AD91" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v/>
+        <v>35000</v>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" ca="1" si="258"/>
+        <f t="shared" ref="AH91:AH96" ca="1" si="256">IF(LEN(N91)=0,"",N91)</f>
         <v>cu</v>
       </c>
       <c r="AI91" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" ref="AI91:AI96" si="257">IF(LEN(P91)=0,"",P91)</f>
         <v>EN</v>
       </c>
       <c r="AJ91">
-        <f t="shared" si="260"/>
-        <v>90</v>
+        <f t="shared" ref="AJ91:AJ96" si="258">IF(LEN(Q91)=0,"",Q91)</f>
+        <v>30</v>
       </c>
       <c r="AK91" t="str">
-        <f t="shared" ca="1" si="261"/>
+        <f t="shared" ref="AK91:AK96" ca="1" si="259">IF(LEN(R91)=0,"",R91)</f>
         <v>cu</v>
       </c>
       <c r="AL91" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" ref="AL91:AL96" si="260">IF(LEN(T91)=0,"",T91)</f>
         <v>GO</v>
       </c>
       <c r="AM91">
-        <f t="shared" si="263"/>
-        <v>30000</v>
+        <f t="shared" ref="AM91:AM96" si="261">IF(LEN(U91)=0,"",U91)</f>
+        <v>25000</v>
       </c>
       <c r="AN91" t="str">
-        <f t="shared" ca="1" si="264"/>
+        <f t="shared" ref="AN91:AN96" ca="1" si="262">IF(LEN(V91)=0,"",V91)</f>
         <v>cu</v>
       </c>
       <c r="AO91" t="str">
-        <f t="shared" si="265"/>
+        <f t="shared" ref="AO91:AO96" si="263">IF(LEN(X91)=0,"",X91)</f>
         <v>EN</v>
       </c>
       <c r="AP91">
-        <f t="shared" si="266"/>
-        <v>150</v>
+        <f t="shared" ref="AP91:AP96" si="264">IF(LEN(Y91)=0,"",Y91)</f>
+        <v>100</v>
       </c>
       <c r="AQ91" t="str">
-        <f t="shared" ca="1" si="267"/>
+        <f t="shared" ref="AQ91:AQ96" ca="1" si="265">IF(LEN(Z91)=0,"",Z91)</f>
         <v>cu</v>
       </c>
       <c r="AR91" t="str">
-        <f t="shared" si="268"/>
-        <v>EN</v>
+        <f t="shared" ref="AR91:AR96" si="266">IF(LEN(AB91)=0,"",AB91)</f>
+        <v>GO</v>
       </c>
       <c r="AS91">
-        <f t="shared" si="269"/>
-        <v>300</v>
+        <f t="shared" ref="AS91:AS96" si="267">IF(LEN(AC91)=0,"",AC91)</f>
+        <v>35000</v>
       </c>
       <c r="AT91" t="str">
-        <f t="shared" ca="1" si="270"/>
+        <f t="shared" ref="AT91:AT96" si="268">IF(LEN(AD91)=0,"",AD91)</f>
         <v/>
       </c>
       <c r="AU91" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" ref="AU91:AU96" si="269">IF(LEN(AF91)=0,"",AF91)</f>
         <v/>
       </c>
       <c r="AV91" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" ref="AV91:AV96" si="270">IF(LEN(AG91)=0,"",AG91)</f>
         <v/>
       </c>
       <c r="AW91" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ref="AW91:AW96" ca="1" si="271">IF(ROW()=2,AX91,OFFSET(AW91,-1,0)&amp;IF(LEN(AX91)=0,"",","&amp;AX91))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX91" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:50">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_7</v>
+        <f t="shared" si="252"/>
+        <v>stageclear_2</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>stageclear</v>
       </c>
       <c r="E92">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" si="253"/>
+        <v>4</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
       <c r="I92">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="J92">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="K92" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L92">
-        <v>679</v>
+        <v>585</v>
       </c>
       <c r="M92">
-        <f t="shared" si="250"/>
-        <v>679</v>
+        <f t="shared" si="55"/>
+        <v>585</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ca="1" si="254"/>
         <v>cu</v>
       </c>
       <c r="O92" t="s">
@@ -16301,10 +16098,10 @@
         <v>56</v>
       </c>
       <c r="Q92">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" ca="1" si="254"/>
+        <f t="shared" ca="1" si="247"/>
         <v>cu</v>
       </c>
       <c r="S92" t="s">
@@ -16314,10 +16111,10 @@
         <v>15</v>
       </c>
       <c r="U92">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="V92" t="str">
-        <f t="shared" ca="1" si="255"/>
+        <f t="shared" ca="1" si="248"/>
         <v>cu</v>
       </c>
       <c r="W92" t="s">
@@ -16327,122 +16124,130 @@
         <v>56</v>
       </c>
       <c r="Y92">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z92" t="str">
+        <f t="shared" ca="1" si="255"/>
+        <v>cu</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC92">
+        <v>25000</v>
+      </c>
+      <c r="AH92" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v/>
-      </c>
-      <c r="AD92" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v/>
-      </c>
-      <c r="AH92" t="str">
-        <f t="shared" ca="1" si="258"/>
         <v>cu</v>
       </c>
       <c r="AI92" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>EN</v>
       </c>
       <c r="AJ92">
+        <f t="shared" si="258"/>
+        <v>60</v>
+      </c>
+      <c r="AK92" t="str">
+        <f t="shared" ca="1" si="259"/>
+        <v>cu</v>
+      </c>
+      <c r="AL92" t="str">
         <f t="shared" si="260"/>
-        <v>30</v>
-      </c>
-      <c r="AK92" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
-      </c>
-      <c r="AL92" t="str">
-        <f t="shared" si="262"/>
         <v>GO</v>
       </c>
       <c r="AM92">
+        <f t="shared" si="261"/>
+        <v>15000</v>
+      </c>
+      <c r="AN92" t="str">
+        <f t="shared" ca="1" si="262"/>
+        <v>cu</v>
+      </c>
+      <c r="AO92" t="str">
         <f t="shared" si="263"/>
+        <v>EN</v>
+      </c>
+      <c r="AP92">
+        <f t="shared" si="264"/>
+        <v>120</v>
+      </c>
+      <c r="AQ92" t="str">
+        <f t="shared" ca="1" si="265"/>
+        <v>cu</v>
+      </c>
+      <c r="AR92" t="str">
+        <f t="shared" si="266"/>
+        <v>GO</v>
+      </c>
+      <c r="AS92">
+        <f t="shared" si="267"/>
         <v>25000</v>
       </c>
-      <c r="AN92" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
-      </c>
-      <c r="AO92" t="str">
-        <f t="shared" si="265"/>
-        <v>EN</v>
-      </c>
-      <c r="AP92">
-        <f t="shared" si="266"/>
-        <v>100</v>
-      </c>
-      <c r="AQ92" t="str">
-        <f t="shared" ca="1" si="267"/>
-        <v/>
-      </c>
-      <c r="AR92" t="str">
+      <c r="AT92" t="str">
         <f t="shared" si="268"/>
         <v/>
       </c>
-      <c r="AS92" t="str">
+      <c r="AU92" t="str">
         <f t="shared" si="269"/>
         <v/>
       </c>
-      <c r="AT92" t="str">
-        <f t="shared" ca="1" si="270"/>
-        <v/>
-      </c>
-      <c r="AU92" t="str">
-        <f t="shared" si="271"/>
-        <v/>
-      </c>
       <c r="AV92" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="AW92" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="271"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX92" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:50">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_8</v>
+        <f t="shared" si="252"/>
+        <v>stageclear_3</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>stageclear</v>
       </c>
       <c r="E93">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" si="253"/>
+        <v>4</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
       <c r="I93">
-        <v>19.989999999999998</v>
+        <v>9.99</v>
       </c>
       <c r="J93">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="K93" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L93">
-        <v>752</v>
+        <v>634</v>
       </c>
       <c r="M93">
-        <f t="shared" si="250"/>
-        <v>752</v>
+        <f t="shared" si="55"/>
+        <v>634</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ca="1" si="254"/>
         <v>cu</v>
       </c>
       <c r="O93" t="s">
@@ -16452,10 +16257,10 @@
         <v>56</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" ca="1" si="254"/>
+        <f t="shared" ca="1" si="247"/>
         <v>cu</v>
       </c>
       <c r="S93" t="s">
@@ -16465,10 +16270,10 @@
         <v>15</v>
       </c>
       <c r="U93">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="V93" t="str">
-        <f t="shared" ca="1" si="255"/>
+        <f t="shared" ca="1" si="248"/>
         <v>cu</v>
       </c>
       <c r="W93" t="s">
@@ -16478,122 +16283,132 @@
         <v>56</v>
       </c>
       <c r="Y93">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Z93" t="str">
+        <f t="shared" ca="1" si="255"/>
+        <v>cu</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC93">
+        <v>300</v>
+      </c>
+      <c r="AH93" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v/>
-      </c>
-      <c r="AD93" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v/>
-      </c>
-      <c r="AH93" t="str">
-        <f t="shared" ca="1" si="258"/>
         <v>cu</v>
       </c>
       <c r="AI93" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>EN</v>
       </c>
       <c r="AJ93">
+        <f t="shared" si="258"/>
+        <v>90</v>
+      </c>
+      <c r="AK93" t="str">
+        <f t="shared" ca="1" si="259"/>
+        <v>cu</v>
+      </c>
+      <c r="AL93" t="str">
         <f t="shared" si="260"/>
-        <v>30</v>
-      </c>
-      <c r="AK93" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
-      </c>
-      <c r="AL93" t="str">
-        <f t="shared" si="262"/>
         <v>GO</v>
       </c>
       <c r="AM93">
+        <f t="shared" si="261"/>
+        <v>30000</v>
+      </c>
+      <c r="AN93" t="str">
+        <f t="shared" ca="1" si="262"/>
+        <v>cu</v>
+      </c>
+      <c r="AO93" t="str">
         <f t="shared" si="263"/>
-        <v>25000</v>
-      </c>
-      <c r="AN93" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
-      </c>
-      <c r="AO93" t="str">
-        <f t="shared" si="265"/>
         <v>EN</v>
       </c>
       <c r="AP93">
+        <f t="shared" si="264"/>
+        <v>150</v>
+      </c>
+      <c r="AQ93" t="str">
+        <f t="shared" ca="1" si="265"/>
+        <v>cu</v>
+      </c>
+      <c r="AR93" t="str">
         <f t="shared" si="266"/>
-        <v>100</v>
-      </c>
-      <c r="AQ93" t="str">
-        <f t="shared" ca="1" si="267"/>
-        <v/>
-      </c>
-      <c r="AR93" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AS93">
+        <f t="shared" si="267"/>
+        <v>300</v>
+      </c>
+      <c r="AT93" t="str">
         <f t="shared" si="268"/>
         <v/>
       </c>
-      <c r="AS93" t="str">
+      <c r="AU93" t="str">
         <f t="shared" si="269"/>
         <v/>
       </c>
-      <c r="AT93" t="str">
-        <f t="shared" ca="1" si="270"/>
-        <v/>
-      </c>
-      <c r="AU93" t="str">
-        <f t="shared" si="271"/>
-        <v/>
-      </c>
       <c r="AV93" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="AW93" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="271"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX93" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:50">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_9</v>
+        <f t="shared" si="252"/>
+        <v>stageclear_5</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>stageclear</v>
       </c>
       <c r="E94">
-        <f t="shared" si="274"/>
-        <v>3</v>
+        <f t="shared" si="253"/>
+        <v>4</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
       <c r="I94">
-        <v>39.99</v>
+        <v>9.99</v>
       </c>
       <c r="J94">
-        <v>48000</v>
+        <v>13000</v>
       </c>
       <c r="K94" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L94">
-        <v>534</v>
+        <v>791</v>
       </c>
       <c r="M94">
-        <f t="shared" si="250"/>
-        <v>534</v>
+        <f t="shared" si="55"/>
+        <v>791</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ref="N94:N95" ca="1" si="272">IF(ISBLANK(O94),"",
+VLOOKUP(O94,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="O94" t="s">
@@ -16603,10 +16418,12 @@
         <v>56</v>
       </c>
       <c r="Q94">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" ca="1" si="254"/>
+        <f t="shared" ref="R94:R96" ca="1" si="273">IF(ISBLANK(S94),"",
+VLOOKUP(S94,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="S94" t="s">
@@ -16616,10 +16433,12 @@
         <v>15</v>
       </c>
       <c r="U94">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="V94" t="str">
-        <f t="shared" ca="1" si="255"/>
+        <f t="shared" ref="V94:V96" ca="1" si="274">IF(ISBLANK(W94),"",
+VLOOKUP(W94,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="W94" t="s">
@@ -16632,119 +16451,129 @@
         <v>120</v>
       </c>
       <c r="Z94" t="str">
+        <f t="shared" ref="Z94:Z96" ca="1" si="275">IF(ISBLANK(AA94),"",
+VLOOKUP(AA94,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC94">
+        <v>25000</v>
+      </c>
+      <c r="AH94" t="str">
         <f t="shared" ca="1" si="256"/>
-        <v/>
-      </c>
-      <c r="AD94" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v/>
-      </c>
-      <c r="AH94" t="str">
-        <f t="shared" ca="1" si="258"/>
         <v>cu</v>
       </c>
       <c r="AI94" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>EN</v>
       </c>
       <c r="AJ94">
+        <f t="shared" si="258"/>
+        <v>120</v>
+      </c>
+      <c r="AK94" t="str">
+        <f t="shared" ca="1" si="259"/>
+        <v>cu</v>
+      </c>
+      <c r="AL94" t="str">
         <f t="shared" si="260"/>
-        <v>60</v>
-      </c>
-      <c r="AK94" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
-      </c>
-      <c r="AL94" t="str">
-        <f t="shared" si="262"/>
         <v>GO</v>
       </c>
       <c r="AM94">
+        <f t="shared" si="261"/>
+        <v>50000</v>
+      </c>
+      <c r="AN94" t="str">
+        <f t="shared" ca="1" si="262"/>
+        <v>cu</v>
+      </c>
+      <c r="AO94" t="str">
         <f t="shared" si="263"/>
-        <v>15000</v>
-      </c>
-      <c r="AN94" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
-      </c>
-      <c r="AO94" t="str">
-        <f t="shared" si="265"/>
         <v>EN</v>
       </c>
       <c r="AP94">
+        <f t="shared" si="264"/>
+        <v>120</v>
+      </c>
+      <c r="AQ94" t="str">
+        <f t="shared" ca="1" si="265"/>
+        <v>cu</v>
+      </c>
+      <c r="AR94" t="str">
         <f t="shared" si="266"/>
-        <v>120</v>
-      </c>
-      <c r="AQ94" t="str">
-        <f t="shared" ca="1" si="267"/>
-        <v/>
-      </c>
-      <c r="AR94" t="str">
+        <v>GO</v>
+      </c>
+      <c r="AS94">
+        <f t="shared" si="267"/>
+        <v>25000</v>
+      </c>
+      <c r="AT94" t="str">
         <f t="shared" si="268"/>
         <v/>
       </c>
-      <c r="AS94" t="str">
+      <c r="AU94" t="str">
         <f t="shared" si="269"/>
         <v/>
       </c>
-      <c r="AT94" t="str">
-        <f t="shared" ca="1" si="270"/>
-        <v/>
-      </c>
-      <c r="AU94" t="str">
-        <f t="shared" si="271"/>
-        <v/>
-      </c>
       <c r="AV94" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="AW94" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="271"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX94" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="226"/>
-        <v>relay_10</v>
+        <f t="shared" si="252"/>
+        <v>stageclear_10</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="218"/>
-        <v>relay</v>
+        <f t="shared" si="244"/>
+        <v>stageclear</v>
       </c>
       <c r="E95">
-        <f t="shared" si="274"/>
+        <f t="shared" si="253"/>
         <v>4</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
       <c r="I95">
-        <v>49.99</v>
+        <v>9.99</v>
       </c>
       <c r="J95">
-        <v>69000</v>
+        <v>13000</v>
       </c>
       <c r="K95" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L95">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="M95">
-        <f t="shared" si="250"/>
-        <v>243</v>
+        <f t="shared" ref="M95:M107" si="276">L95</f>
+        <v>484</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" ca="1" si="251"/>
+        <f t="shared" ca="1" si="272"/>
         <v>cu</v>
       </c>
       <c r="O95" t="s">
@@ -16754,10 +16583,10 @@
         <v>56</v>
       </c>
       <c r="Q95">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" ca="1" si="254"/>
+        <f t="shared" ca="1" si="273"/>
         <v>cu</v>
       </c>
       <c r="S95" t="s">
@@ -16767,10 +16596,10 @@
         <v>15</v>
       </c>
       <c r="U95">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="V95" t="str">
-        <f t="shared" ca="1" si="255"/>
+        <f t="shared" ca="1" si="274"/>
         <v>cu</v>
       </c>
       <c r="W95" t="s">
@@ -16783,7 +16612,7 @@
         <v>150</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" ca="1" si="256"/>
+        <f t="shared" ca="1" si="275"/>
         <v>cu</v>
       </c>
       <c r="AA95" t="s">
@@ -16795,120 +16624,115 @@
       <c r="AC95">
         <v>300</v>
       </c>
-      <c r="AD95" t="str">
-        <f t="shared" ca="1" si="257"/>
-        <v/>
-      </c>
       <c r="AH95" t="str">
-        <f t="shared" ca="1" si="258"/>
+        <f t="shared" ca="1" si="256"/>
         <v>cu</v>
       </c>
       <c r="AI95" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="257"/>
         <v>EN</v>
       </c>
       <c r="AJ95">
+        <f t="shared" si="258"/>
+        <v>150</v>
+      </c>
+      <c r="AK95" t="str">
+        <f t="shared" ca="1" si="259"/>
+        <v>cu</v>
+      </c>
+      <c r="AL95" t="str">
         <f t="shared" si="260"/>
-        <v>90</v>
-      </c>
-      <c r="AK95" t="str">
-        <f t="shared" ca="1" si="261"/>
-        <v>cu</v>
-      </c>
-      <c r="AL95" t="str">
-        <f t="shared" si="262"/>
         <v>GO</v>
       </c>
       <c r="AM95">
+        <f t="shared" si="261"/>
+        <v>90000</v>
+      </c>
+      <c r="AN95" t="str">
+        <f t="shared" ca="1" si="262"/>
+        <v>cu</v>
+      </c>
+      <c r="AO95" t="str">
         <f t="shared" si="263"/>
-        <v>30000</v>
-      </c>
-      <c r="AN95" t="str">
-        <f t="shared" ca="1" si="264"/>
-        <v>cu</v>
-      </c>
-      <c r="AO95" t="str">
-        <f t="shared" si="265"/>
         <v>EN</v>
       </c>
       <c r="AP95">
+        <f t="shared" si="264"/>
+        <v>150</v>
+      </c>
+      <c r="AQ95" t="str">
+        <f t="shared" ca="1" si="265"/>
+        <v>cu</v>
+      </c>
+      <c r="AR95" t="str">
         <f t="shared" si="266"/>
-        <v>150</v>
-      </c>
-      <c r="AQ95" t="str">
-        <f t="shared" ca="1" si="267"/>
-        <v>cu</v>
-      </c>
-      <c r="AR95" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AS95">
+        <f t="shared" si="267"/>
+        <v>300</v>
+      </c>
+      <c r="AT95" t="str">
         <f t="shared" si="268"/>
-        <v>EN</v>
-      </c>
-      <c r="AS95">
+        <v/>
+      </c>
+      <c r="AU95" t="str">
         <f t="shared" si="269"/>
-        <v>300</v>
-      </c>
-      <c r="AT95" t="str">
-        <f t="shared" ca="1" si="270"/>
-        <v/>
-      </c>
-      <c r="AU95" t="str">
-        <f t="shared" si="271"/>
         <v/>
       </c>
       <c r="AV95" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="AW95" t="str">
-        <f t="shared" ca="1" si="273"/>
+        <f t="shared" ca="1" si="271"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX95" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ref="C96:C98" si="275">A96</f>
-        <v>analysisboost_1</v>
+        <f t="shared" si="252"/>
+        <v>dailygem</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ref="D96:D98" si="276">IF(ISERROR(FIND("_",A96)),A96,
-LEFT(A96,FIND("_",A96)-1))</f>
-        <v>analysisboost</v>
+        <f t="shared" si="244"/>
+        <v>dailygem</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96:E98" si="277">COUNTA(O96,S96,W96,AA96,AE96)</f>
-        <v>1</v>
+        <f t="shared" si="253"/>
+        <v>2</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="J96">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="K96" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="L96">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="M96">
-        <f t="shared" ref="M96:M98" si="278">L96</f>
-        <v>384</v>
+        <f t="shared" si="276"/>
+        <v>212</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" ref="N96:N98" ca="1" si="279">IF(ISBLANK(O96),"",
+        <f t="shared" ref="N96:N107" ca="1" si="277">IF(ISBLANK(O96),"",
 VLOOKUP(O96,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -16916,137 +16740,126 @@
       <c r="O96" t="s">
         <v>33</v>
       </c>
-      <c r="P96" t="s">
-        <v>213</v>
+      <c r="P96" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="Q96">
-        <v>86400</v>
+        <v>15</v>
       </c>
       <c r="R96" t="str">
-        <f t="shared" ref="R96:R98" ca="1" si="280">IF(ISBLANK(S96),"",
-VLOOKUP(S96,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="273"/>
+        <v>cu</v>
+      </c>
+      <c r="S96" t="s">
+        <v>16</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U96">
+        <v>500</v>
       </c>
       <c r="V96" t="str">
-        <f t="shared" ref="V96:V98" ca="1" si="281">IF(ISBLANK(W96),"",
-VLOOKUP(W96,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="274"/>
         <v/>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" ref="Z96:Z98" ca="1" si="282">IF(ISBLANK(AA96),"",
-VLOOKUP(AA96,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="275"/>
         <v/>
       </c>
       <c r="AD96" t="str">
-        <f t="shared" ref="AD96:AD98" ca="1" si="283">IF(ISBLANK(AE96),"",
+        <f t="shared" ref="AD96" ca="1" si="278">IF(ISBLANK(AE96),"",
 VLOOKUP(AE96,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" ref="AH96:AH98" ca="1" si="284">IF(LEN(N96)=0,"",N96)</f>
+        <f t="shared" ca="1" si="256"/>
         <v>it</v>
       </c>
       <c r="AI96" t="str">
-        <f t="shared" ref="AI96:AI98" si="285">IF(LEN(P96)=0,"",P96)</f>
-        <v>Item_cAnalysisBoost</v>
+        <f t="shared" si="257"/>
+        <v>Item_cDailyGem</v>
       </c>
       <c r="AJ96">
-        <f t="shared" ref="AJ96:AJ98" si="286">IF(LEN(Q96)=0,"",Q96)</f>
-        <v>86400</v>
+        <f t="shared" si="258"/>
+        <v>15</v>
       </c>
       <c r="AK96" t="str">
-        <f t="shared" ref="AK96:AK98" ca="1" si="287">IF(LEN(R96)=0,"",R96)</f>
-        <v/>
+        <f t="shared" ca="1" si="259"/>
+        <v>cu</v>
       </c>
       <c r="AL96" t="str">
-        <f t="shared" ref="AL96:AL98" si="288">IF(LEN(T96)=0,"",T96)</f>
-        <v/>
-      </c>
-      <c r="AM96" t="str">
-        <f t="shared" ref="AM96:AM98" si="289">IF(LEN(U96)=0,"",U96)</f>
-        <v/>
+        <f t="shared" si="260"/>
+        <v>DI</v>
+      </c>
+      <c r="AM96">
+        <f t="shared" si="261"/>
+        <v>500</v>
       </c>
       <c r="AN96" t="str">
-        <f t="shared" ref="AN96:AN98" ca="1" si="290">IF(LEN(V96)=0,"",V96)</f>
+        <f t="shared" ca="1" si="262"/>
         <v/>
       </c>
       <c r="AO96" t="str">
-        <f t="shared" ref="AO96:AO98" si="291">IF(LEN(X96)=0,"",X96)</f>
+        <f t="shared" si="263"/>
         <v/>
       </c>
       <c r="AP96" t="str">
-        <f t="shared" ref="AP96:AP98" si="292">IF(LEN(Y96)=0,"",Y96)</f>
+        <f t="shared" si="264"/>
         <v/>
       </c>
       <c r="AQ96" t="str">
-        <f t="shared" ref="AQ96:AQ98" ca="1" si="293">IF(LEN(Z96)=0,"",Z96)</f>
+        <f t="shared" ca="1" si="265"/>
         <v/>
       </c>
       <c r="AR96" t="str">
-        <f t="shared" ref="AR96:AR98" si="294">IF(LEN(AB96)=0,"",AB96)</f>
+        <f t="shared" si="266"/>
         <v/>
       </c>
       <c r="AS96" t="str">
-        <f t="shared" ref="AS96:AS98" si="295">IF(LEN(AC96)=0,"",AC96)</f>
+        <f t="shared" si="267"/>
         <v/>
       </c>
       <c r="AT96" t="str">
-        <f t="shared" ref="AT96:AT98" ca="1" si="296">IF(LEN(AD96)=0,"",AD96)</f>
+        <f t="shared" ca="1" si="268"/>
         <v/>
       </c>
       <c r="AU96" t="str">
-        <f t="shared" ref="AU96:AU98" si="297">IF(LEN(AF96)=0,"",AF96)</f>
+        <f t="shared" si="269"/>
         <v/>
       </c>
       <c r="AV96" t="str">
-        <f t="shared" ref="AV96:AV98" si="298">IF(LEN(AG96)=0,"",AG96)</f>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="AW96" t="str">
-        <f t="shared" ref="AW96:AW98" ca="1" si="299">IF(ROW()=2,AX96,OFFSET(AW96,-1,0)&amp;IF(LEN(AX96)=0,"",","&amp;AX96))</f>
+        <f t="shared" ca="1" si="271"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX96" t="str">
-        <f t="shared" ref="AX96:AX98" si="300">IF(G96=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C96&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L96
-&amp;IF(LEN(N96)=0,"",","""&amp;N$1&amp;""":"""&amp;N96&amp;"""")
-&amp;IF(LEN(P96)=0,"",","""&amp;P$1&amp;""":"""&amp;P96&amp;"""")
-&amp;IF(LEN(Q96)=0,"",","""&amp;Q$1&amp;""":"&amp;Q96)
-&amp;IF(LEN(R96)=0,"",","""&amp;R$1&amp;""":"""&amp;R96&amp;"""")
-&amp;IF(LEN(T96)=0,"",","""&amp;T$1&amp;""":"""&amp;T96&amp;"""")
-&amp;IF(LEN(U96)=0,"",","""&amp;U$1&amp;""":"&amp;U96)
-&amp;IF(LEN(V96)=0,"",","""&amp;V$1&amp;""":"""&amp;V96&amp;"""")
-&amp;IF(LEN(X96)=0,"",","""&amp;X$1&amp;""":"""&amp;X96&amp;"""")
-&amp;IF(LEN(Y96)=0,"",","""&amp;Y$1&amp;""":"&amp;Y96)
-&amp;IF(LEN(Z96)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z96&amp;"""")
-&amp;IF(LEN(AB96)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB96&amp;"""")
-&amp;IF(LEN(AC96)=0,"",","""&amp;AC$1&amp;""":"&amp;AC96)
-&amp;IF(LEN(AD96)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD96&amp;"""")
-&amp;IF(LEN(AF96)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF96&amp;"""")
-&amp;IF(LEN(AG96)=0,"",","""&amp;AG$1&amp;""":"&amp;AG96)&amp;"}")</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="275"/>
-        <v>analysisboost_2</v>
+        <f t="shared" si="252"/>
+        <v>researchboost</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="276"/>
-        <v>analysisboost</v>
+        <f t="shared" si="244"/>
+        <v>researchboost</v>
       </c>
       <c r="E97">
-        <f t="shared" si="277"/>
-        <v>1</v>
+        <f t="shared" ref="E97" si="279">COUNTA(O97,S97,W97,AA97,AE97)</f>
+        <v>2</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -17058,160 +16871,180 @@
         <v>5900</v>
       </c>
       <c r="K97" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="L97">
-        <v>681</v>
+        <v>131</v>
       </c>
       <c r="M97">
-        <f t="shared" si="278"/>
-        <v>681</v>
+        <f t="shared" si="276"/>
+        <v>131</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" ca="1" si="279"/>
+        <f t="shared" ca="1" si="277"/>
         <v>it</v>
       </c>
       <c r="O97" t="s">
         <v>33</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="Q97">
-        <v>604800</v>
+        <v>1</v>
       </c>
       <c r="R97" t="str">
-        <f t="shared" ca="1" si="280"/>
-        <v/>
+        <f t="shared" ref="R97:R107" ca="1" si="280">IF(ISBLANK(S97),"",
+VLOOKUP(S97,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="S97" t="s">
+        <v>16</v>
+      </c>
+      <c r="T97" t="s">
+        <v>36</v>
+      </c>
+      <c r="U97">
+        <v>750</v>
       </c>
       <c r="V97" t="str">
-        <f t="shared" ca="1" si="281"/>
+        <f t="shared" ref="V97:V107" ca="1" si="281">IF(ISBLANK(W97),"",
+VLOOKUP(W97,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" ca="1" si="282"/>
+        <f t="shared" ref="Z97:Z107" ca="1" si="282">IF(ISBLANK(AA97),"",
+VLOOKUP(AA97,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" ca="1" si="283"/>
+        <f t="shared" ref="AD97:AD107" ca="1" si="283">IF(ISBLANK(AE97),"",
+VLOOKUP(AE97,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" ca="1" si="284"/>
+        <f t="shared" ref="AH97:AH107" ca="1" si="284">IF(LEN(N97)=0,"",N97)</f>
         <v>it</v>
       </c>
       <c r="AI97" t="str">
-        <f t="shared" si="285"/>
-        <v>Item_cAnalysisBoost</v>
+        <f t="shared" ref="AI97:AI107" si="285">IF(LEN(P97)=0,"",P97)</f>
+        <v>Cash_sResearchBoost</v>
       </c>
       <c r="AJ97">
-        <f t="shared" si="286"/>
-        <v>604800</v>
+        <f t="shared" ref="AJ97:AJ107" si="286">IF(LEN(Q97)=0,"",Q97)</f>
+        <v>1</v>
       </c>
       <c r="AK97" t="str">
-        <f t="shared" ca="1" si="287"/>
-        <v/>
+        <f t="shared" ref="AK97:AK107" ca="1" si="287">IF(LEN(R97)=0,"",R97)</f>
+        <v>cu</v>
       </c>
       <c r="AL97" t="str">
-        <f t="shared" si="288"/>
-        <v/>
-      </c>
-      <c r="AM97" t="str">
-        <f t="shared" si="289"/>
-        <v/>
+        <f t="shared" ref="AL97:AL107" si="288">IF(LEN(T97)=0,"",T97)</f>
+        <v>EN</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" ref="AM97:AM107" si="289">IF(LEN(U97)=0,"",U97)</f>
+        <v>750</v>
       </c>
       <c r="AN97" t="str">
-        <f t="shared" ca="1" si="290"/>
+        <f t="shared" ref="AN97:AN107" ca="1" si="290">IF(LEN(V97)=0,"",V97)</f>
         <v/>
       </c>
       <c r="AO97" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" ref="AO97:AO107" si="291">IF(LEN(X97)=0,"",X97)</f>
         <v/>
       </c>
       <c r="AP97" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" ref="AP97:AP107" si="292">IF(LEN(Y97)=0,"",Y97)</f>
         <v/>
       </c>
       <c r="AQ97" t="str">
-        <f t="shared" ca="1" si="293"/>
+        <f t="shared" ref="AQ97:AQ107" ca="1" si="293">IF(LEN(Z97)=0,"",Z97)</f>
         <v/>
       </c>
       <c r="AR97" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" ref="AR97:AR107" si="294">IF(LEN(AB97)=0,"",AB97)</f>
         <v/>
       </c>
       <c r="AS97" t="str">
-        <f t="shared" si="295"/>
+        <f t="shared" ref="AS97:AS107" si="295">IF(LEN(AC97)=0,"",AC97)</f>
         <v/>
       </c>
       <c r="AT97" t="str">
-        <f t="shared" ca="1" si="296"/>
+        <f t="shared" ref="AT97:AT107" ca="1" si="296">IF(LEN(AD97)=0,"",AD97)</f>
         <v/>
       </c>
       <c r="AU97" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" ref="AU97:AU107" si="297">IF(LEN(AF97)=0,"",AF97)</f>
         <v/>
       </c>
       <c r="AV97" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" ref="AV97:AV107" si="298">IF(LEN(AG97)=0,"",AG97)</f>
         <v/>
       </c>
       <c r="AW97" t="str">
-        <f t="shared" ca="1" si="299"/>
+        <f t="shared" ref="AW97:AW107" ca="1" si="299">IF(ROW()=2,AX97,OFFSET(AW97,-1,0)&amp;IF(LEN(AX97)=0,"",","&amp;AX97))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX97" t="str">
-        <f t="shared" si="300"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:50">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>152</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="275"/>
-        <v>analysisboost_3</v>
+        <f t="shared" si="252"/>
+        <v>relay_1</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="276"/>
-        <v>analysisboost</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E98">
-        <f t="shared" si="277"/>
-        <v>4</v>
+        <f t="shared" ref="E98:E107" si="300">COUNTA(O98,S98,W98,AA98,AE98)</f>
+        <v>3</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="J98">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="K98" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="L98">
-        <v>813</v>
+        <v>704</v>
       </c>
       <c r="M98">
-        <f t="shared" si="278"/>
-        <v>813</v>
+        <f t="shared" si="276"/>
+        <v>704</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" ca="1" si="279"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O98" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="Q98">
-        <v>2592000</v>
+        <v>30</v>
       </c>
       <c r="R98" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17221,10 +17054,10 @@
         <v>16</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="U98">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17234,23 +17067,14 @@
         <v>16</v>
       </c>
       <c r="X98" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="Y98">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="Z98" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v>cu</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC98">
-        <v>750</v>
+        <v/>
       </c>
       <c r="AD98" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -17258,15 +17082,15 @@
       </c>
       <c r="AH98" t="str">
         <f t="shared" ca="1" si="284"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="AI98" t="str">
         <f t="shared" si="285"/>
-        <v>Item_cAnalysisBoost</v>
+        <v>EN</v>
       </c>
       <c r="AJ98">
         <f t="shared" si="286"/>
-        <v>2592000</v>
+        <v>30</v>
       </c>
       <c r="AK98" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17274,11 +17098,11 @@
       </c>
       <c r="AL98" t="str">
         <f t="shared" si="288"/>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="AM98">
         <f t="shared" si="289"/>
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="AN98" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17286,23 +17110,23 @@
       </c>
       <c r="AO98" t="str">
         <f t="shared" si="291"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="AP98">
         <f t="shared" si="292"/>
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="AQ98" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AR98" t="str">
         <f t="shared" si="294"/>
-        <v>DI</v>
-      </c>
-      <c r="AS98">
+        <v/>
+      </c>
+      <c r="AS98" t="str">
         <f t="shared" si="295"/>
-        <v>750</v>
+        <v/>
       </c>
       <c r="AT98" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -17321,589 +17145,638 @@
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX98" t="str">
-        <f t="shared" si="300"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:50">
       <c r="A99" t="s">
-        <v>224</v>
-      </c>
-      <c r="B99" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:C102" si="301">A99</f>
-        <v>ev14_unacquiredspell</v>
+        <f t="shared" si="252"/>
+        <v>relay_2</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D102" si="302">IF(ISERROR(FIND("_",A99)),A99,
-LEFT(A99,FIND("_",A99)-1))</f>
-        <v>ev14</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:E102" si="303">COUNTA(O99,S99,W99,AA99,AE99)</f>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>3</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="J99">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="K99" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="L99">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="M99">
-        <f t="shared" ref="M99:M102" si="304">L99</f>
-        <v>178</v>
+        <f t="shared" si="276"/>
+        <v>148</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" ref="N99:N102" ca="1" si="305">IF(ISBLANK(O99),"",
-VLOOKUP(O99,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O99" t="s">
-        <v>33</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>235</v>
+        <v>16</v>
+      </c>
+      <c r="P99" t="s">
+        <v>56</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" ref="R99:R102" ca="1" si="306">IF(ISBLANK(S99),"",
-VLOOKUP(S99,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S99" t="s">
+        <v>16</v>
+      </c>
+      <c r="T99" t="s">
+        <v>15</v>
+      </c>
+      <c r="U99">
+        <v>15000</v>
       </c>
       <c r="V99" t="str">
-        <f t="shared" ref="V99:V102" ca="1" si="307">IF(ISBLANK(W99),"",
-VLOOKUP(W99,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W99" t="s">
+        <v>16</v>
+      </c>
+      <c r="X99" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y99">
+        <v>120</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" ref="Z99:Z102" ca="1" si="308">IF(ISBLANK(AA99),"",
-VLOOKUP(AA99,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="282"/>
         <v/>
       </c>
       <c r="AD99" t="str">
-        <f t="shared" ref="AD99:AD102" ca="1" si="309">IF(ISBLANK(AE99),"",
-VLOOKUP(AE99,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" ref="AH99:AH102" ca="1" si="310">IF(LEN(N99)=0,"",N99)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI99" t="str">
-        <f t="shared" ref="AI99:AI102" si="311">IF(LEN(P99)=0,"",P99)</f>
-        <v>Cash_sUnacquiredSpell</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ99">
-        <f t="shared" ref="AJ99:AJ102" si="312">IF(LEN(Q99)=0,"",Q99)</f>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>60</v>
       </c>
       <c r="AK99" t="str">
-        <f t="shared" ref="AK99:AK102" ca="1" si="313">IF(LEN(R99)=0,"",R99)</f>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL99" t="str">
-        <f t="shared" ref="AL99:AL102" si="314">IF(LEN(T99)=0,"",T99)</f>
-        <v/>
-      </c>
-      <c r="AM99" t="str">
-        <f t="shared" ref="AM99:AM102" si="315">IF(LEN(U99)=0,"",U99)</f>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" si="289"/>
+        <v>15000</v>
       </c>
       <c r="AN99" t="str">
-        <f t="shared" ref="AN99:AN102" ca="1" si="316">IF(LEN(V99)=0,"",V99)</f>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO99" t="str">
-        <f t="shared" ref="AO99:AO102" si="317">IF(LEN(X99)=0,"",X99)</f>
-        <v/>
-      </c>
-      <c r="AP99" t="str">
-        <f t="shared" ref="AP99:AP102" si="318">IF(LEN(Y99)=0,"",Y99)</f>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP99">
+        <f t="shared" si="292"/>
+        <v>120</v>
       </c>
       <c r="AQ99" t="str">
-        <f t="shared" ref="AQ99:AQ102" ca="1" si="319">IF(LEN(Z99)=0,"",Z99)</f>
+        <f t="shared" ca="1" si="293"/>
         <v/>
       </c>
       <c r="AR99" t="str">
-        <f t="shared" ref="AR99:AR102" si="320">IF(LEN(AB99)=0,"",AB99)</f>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="AS99" t="str">
-        <f t="shared" ref="AS99:AS102" si="321">IF(LEN(AC99)=0,"",AC99)</f>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="AT99" t="str">
-        <f t="shared" ref="AT99:AT102" ca="1" si="322">IF(LEN(AD99)=0,"",AD99)</f>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU99" t="str">
-        <f t="shared" ref="AU99:AU102" si="323">IF(LEN(AF99)=0,"",AF99)</f>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV99" t="str">
-        <f t="shared" ref="AV99:AV102" si="324">IF(LEN(AG99)=0,"",AG99)</f>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW99" t="str">
-        <f t="shared" ref="AW99:AW102" ca="1" si="325">IF(ROW()=2,AX99,OFFSET(AW99,-1,0)&amp;IF(LEN(AX99)=0,"",","&amp;AX99))</f>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX99" t="str">
-        <f t="shared" ref="AX99:AX102" si="326">IF(G99=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C99&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L99
-&amp;IF(LEN(N99)=0,"",","""&amp;N$1&amp;""":"""&amp;N99&amp;"""")
-&amp;IF(LEN(P99)=0,"",","""&amp;P$1&amp;""":"""&amp;P99&amp;"""")
-&amp;IF(LEN(Q99)=0,"",","""&amp;Q$1&amp;""":"&amp;Q99)
-&amp;IF(LEN(R99)=0,"",","""&amp;R$1&amp;""":"""&amp;R99&amp;"""")
-&amp;IF(LEN(T99)=0,"",","""&amp;T$1&amp;""":"""&amp;T99&amp;"""")
-&amp;IF(LEN(U99)=0,"",","""&amp;U$1&amp;""":"&amp;U99)
-&amp;IF(LEN(V99)=0,"",","""&amp;V$1&amp;""":"""&amp;V99&amp;"""")
-&amp;IF(LEN(X99)=0,"",","""&amp;X$1&amp;""":"""&amp;X99&amp;"""")
-&amp;IF(LEN(Y99)=0,"",","""&amp;Y$1&amp;""":"&amp;Y99)
-&amp;IF(LEN(Z99)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z99&amp;"""")
-&amp;IF(LEN(AB99)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB99&amp;"""")
-&amp;IF(LEN(AC99)=0,"",","""&amp;AC$1&amp;""":"&amp;AC99)
-&amp;IF(LEN(AD99)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD99&amp;"""")
-&amp;IF(LEN(AF99)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF99&amp;"""")
-&amp;IF(LEN(AG99)=0,"",","""&amp;AG$1&amp;""":"&amp;AG99)&amp;"}")</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:50">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="301"/>
-        <v>ev13_acquiredspell_0001</v>
+        <f t="shared" si="252"/>
+        <v>relay_3</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="302"/>
-        <v>ev13</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E100">
-        <f t="shared" si="303"/>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>4</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>9.99</v>
+        <v>0.99</v>
       </c>
       <c r="J100">
-        <v>13000</v>
+        <v>1200</v>
       </c>
       <c r="K100" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="L100">
-        <v>240</v>
+        <v>784</v>
       </c>
       <c r="M100">
-        <f t="shared" si="304"/>
-        <v>240</v>
+        <f t="shared" si="276"/>
+        <v>784</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" ca="1" si="305"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O100" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="R100" t="str">
-        <f t="shared" ca="1" si="306"/>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S100" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" t="s">
+        <v>15</v>
+      </c>
+      <c r="U100">
+        <v>30000</v>
       </c>
       <c r="V100" t="str">
-        <f t="shared" ca="1" si="307"/>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W100" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y100">
+        <v>150</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" ca="1" si="308"/>
-        <v/>
+        <f t="shared" ca="1" si="282"/>
+        <v>cu</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC100">
+        <v>300</v>
       </c>
       <c r="AD100" t="str">
-        <f t="shared" ca="1" si="309"/>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH100" t="str">
-        <f t="shared" ca="1" si="310"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI100" t="str">
-        <f t="shared" si="311"/>
-        <v>Cash_sAcquiredSpell</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ100">
-        <f t="shared" si="312"/>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>90</v>
       </c>
       <c r="AK100" t="str">
-        <f t="shared" ca="1" si="313"/>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL100" t="str">
-        <f t="shared" si="314"/>
-        <v/>
-      </c>
-      <c r="AM100" t="str">
-        <f t="shared" si="315"/>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="289"/>
+        <v>30000</v>
       </c>
       <c r="AN100" t="str">
-        <f t="shared" ca="1" si="316"/>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO100" t="str">
-        <f t="shared" si="317"/>
-        <v/>
-      </c>
-      <c r="AP100" t="str">
-        <f t="shared" si="318"/>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP100">
+        <f t="shared" si="292"/>
+        <v>150</v>
       </c>
       <c r="AQ100" t="str">
-        <f t="shared" ca="1" si="319"/>
-        <v/>
+        <f t="shared" ca="1" si="293"/>
+        <v>cu</v>
       </c>
       <c r="AR100" t="str">
-        <f t="shared" si="320"/>
-        <v/>
-      </c>
-      <c r="AS100" t="str">
-        <f t="shared" si="321"/>
-        <v/>
+        <f t="shared" si="294"/>
+        <v>EN</v>
+      </c>
+      <c r="AS100">
+        <f t="shared" si="295"/>
+        <v>300</v>
       </c>
       <c r="AT100" t="str">
-        <f t="shared" ca="1" si="322"/>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU100" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV100" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW100" t="str">
-        <f t="shared" ca="1" si="325"/>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX100" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:50">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="301"/>
-        <v>ev13_acquiredspell_0002</v>
+        <f t="shared" si="252"/>
+        <v>relay_4</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="302"/>
-        <v>ev13</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E101">
-        <f t="shared" si="303"/>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>3</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="J101">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="K101" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="L101">
-        <v>652</v>
+        <v>354</v>
       </c>
       <c r="M101">
-        <f t="shared" si="304"/>
-        <v>652</v>
+        <f t="shared" si="276"/>
+        <v>354</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" ca="1" si="305"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O101" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R101" t="str">
-        <f t="shared" ca="1" si="306"/>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S101" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" t="s">
+        <v>15</v>
+      </c>
+      <c r="U101">
+        <v>25000</v>
       </c>
       <c r="V101" t="str">
-        <f t="shared" ca="1" si="307"/>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W101" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y101">
+        <v>100</v>
       </c>
       <c r="Z101" t="str">
-        <f t="shared" ca="1" si="308"/>
+        <f t="shared" ca="1" si="282"/>
         <v/>
       </c>
       <c r="AD101" t="str">
-        <f t="shared" ca="1" si="309"/>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH101" t="str">
-        <f t="shared" ca="1" si="310"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI101" t="str">
-        <f t="shared" si="311"/>
-        <v>Cash_sAcquiredSpell</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ101">
-        <f t="shared" si="312"/>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>30</v>
       </c>
       <c r="AK101" t="str">
-        <f t="shared" ca="1" si="313"/>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL101" t="str">
-        <f t="shared" si="314"/>
-        <v/>
-      </c>
-      <c r="AM101" t="str">
-        <f t="shared" si="315"/>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="289"/>
+        <v>25000</v>
       </c>
       <c r="AN101" t="str">
-        <f t="shared" ca="1" si="316"/>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO101" t="str">
-        <f t="shared" si="317"/>
-        <v/>
-      </c>
-      <c r="AP101" t="str">
-        <f t="shared" si="318"/>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP101">
+        <f t="shared" si="292"/>
+        <v>100</v>
       </c>
       <c r="AQ101" t="str">
-        <f t="shared" ca="1" si="319"/>
+        <f t="shared" ca="1" si="293"/>
         <v/>
       </c>
       <c r="AR101" t="str">
-        <f t="shared" si="320"/>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="AS101" t="str">
-        <f t="shared" si="321"/>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="AT101" t="str">
-        <f t="shared" ca="1" si="322"/>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU101" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV101" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW101" t="str">
-        <f t="shared" ca="1" si="325"/>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX101" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:50">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="301"/>
-        <v>ev13_acquiredspell</v>
+        <f t="shared" si="252"/>
+        <v>relay_5</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="302"/>
-        <v>ev13</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E102">
-        <f t="shared" si="303"/>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>3</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>9.99</v>
+        <v>4.99</v>
       </c>
       <c r="J102">
-        <v>13000</v>
+        <v>5900</v>
       </c>
       <c r="K102" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="L102">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="M102">
-        <f t="shared" si="304"/>
-        <v>358</v>
+        <f t="shared" si="276"/>
+        <v>414</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" ca="1" si="305"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O102" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="R102" t="str">
-        <f t="shared" ca="1" si="306"/>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S102" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" t="s">
+        <v>15</v>
+      </c>
+      <c r="U102">
+        <v>15000</v>
       </c>
       <c r="V102" t="str">
-        <f t="shared" ca="1" si="307"/>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W102" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y102">
+        <v>120</v>
       </c>
       <c r="Z102" t="str">
-        <f t="shared" ca="1" si="308"/>
+        <f t="shared" ca="1" si="282"/>
         <v/>
       </c>
       <c r="AD102" t="str">
-        <f t="shared" ca="1" si="309"/>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH102" t="str">
-        <f t="shared" ca="1" si="310"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI102" t="str">
-        <f t="shared" si="311"/>
-        <v>Cash_sAcquiredSpell</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ102">
-        <f t="shared" si="312"/>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>60</v>
       </c>
       <c r="AK102" t="str">
-        <f t="shared" ca="1" si="313"/>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL102" t="str">
-        <f t="shared" si="314"/>
-        <v/>
-      </c>
-      <c r="AM102" t="str">
-        <f t="shared" si="315"/>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM102">
+        <f t="shared" si="289"/>
+        <v>15000</v>
       </c>
       <c r="AN102" t="str">
-        <f t="shared" ca="1" si="316"/>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO102" t="str">
-        <f t="shared" si="317"/>
-        <v/>
-      </c>
-      <c r="AP102" t="str">
-        <f t="shared" si="318"/>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP102">
+        <f t="shared" si="292"/>
+        <v>120</v>
       </c>
       <c r="AQ102" t="str">
-        <f t="shared" ca="1" si="319"/>
+        <f t="shared" ca="1" si="293"/>
         <v/>
       </c>
       <c r="AR102" t="str">
-        <f t="shared" si="320"/>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="AS102" t="str">
-        <f t="shared" si="321"/>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="AT102" t="str">
-        <f t="shared" ca="1" si="322"/>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU102" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV102" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW102" t="str">
-        <f t="shared" ca="1" si="325"/>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX102" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:50">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C105" si="327">A103</f>
-        <v>ev15_unacquiredcompanion</v>
+        <f t="shared" si="252"/>
+        <v>relay_6</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" ref="D103:D105" si="328">IF(ISERROR(FIND("_",A103)),A103,
-LEFT(A103,FIND("_",A103)-1))</f>
-        <v>ev15</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E105" si="329">COUNTA(O103,S103,W103,AA103,AE103)</f>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>4</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -17915,155 +17788,155 @@
         <v>13000</v>
       </c>
       <c r="K103" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="L103">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="M103">
-        <f t="shared" ref="M103:M105" si="330">L103</f>
-        <v>717</v>
+        <f t="shared" si="276"/>
+        <v>726</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" ref="N103:N105" ca="1" si="331">IF(ISBLANK(O103),"",
-VLOOKUP(O103,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O103" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="R103" t="str">
-        <f t="shared" ref="R103:R105" ca="1" si="332">IF(ISBLANK(S103),"",
-VLOOKUP(S103,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S103" t="s">
+        <v>16</v>
+      </c>
+      <c r="T103" t="s">
+        <v>15</v>
+      </c>
+      <c r="U103">
+        <v>30000</v>
       </c>
       <c r="V103" t="str">
-        <f t="shared" ref="V103:V105" ca="1" si="333">IF(ISBLANK(W103),"",
-VLOOKUP(W103,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W103" t="s">
+        <v>16</v>
+      </c>
+      <c r="X103" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y103">
+        <v>150</v>
       </c>
       <c r="Z103" t="str">
-        <f t="shared" ref="Z103:Z105" ca="1" si="334">IF(ISBLANK(AA103),"",
-VLOOKUP(AA103,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="282"/>
+        <v>cu</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC103">
+        <v>300</v>
       </c>
       <c r="AD103" t="str">
-        <f t="shared" ref="AD103:AD105" ca="1" si="335">IF(ISBLANK(AE103),"",
-VLOOKUP(AE103,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH103" t="str">
-        <f t="shared" ref="AH103:AH105" ca="1" si="336">IF(LEN(N103)=0,"",N103)</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI103" t="str">
-        <f t="shared" ref="AI103:AI105" si="337">IF(LEN(P103)=0,"",P103)</f>
-        <v>Cash_sUnacquiredCompanion</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ103">
-        <f t="shared" ref="AJ103:AJ105" si="338">IF(LEN(Q103)=0,"",Q103)</f>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>90</v>
       </c>
       <c r="AK103" t="str">
-        <f t="shared" ref="AK103:AK105" ca="1" si="339">IF(LEN(R103)=0,"",R103)</f>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL103" t="str">
-        <f t="shared" ref="AL103:AL105" si="340">IF(LEN(T103)=0,"",T103)</f>
-        <v/>
-      </c>
-      <c r="AM103" t="str">
-        <f t="shared" ref="AM103:AM105" si="341">IF(LEN(U103)=0,"",U103)</f>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="289"/>
+        <v>30000</v>
       </c>
       <c r="AN103" t="str">
-        <f t="shared" ref="AN103:AN105" ca="1" si="342">IF(LEN(V103)=0,"",V103)</f>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO103" t="str">
-        <f t="shared" ref="AO103:AO105" si="343">IF(LEN(X103)=0,"",X103)</f>
-        <v/>
-      </c>
-      <c r="AP103" t="str">
-        <f t="shared" ref="AP103:AP105" si="344">IF(LEN(Y103)=0,"",Y103)</f>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP103">
+        <f t="shared" si="292"/>
+        <v>150</v>
       </c>
       <c r="AQ103" t="str">
-        <f t="shared" ref="AQ103:AQ105" ca="1" si="345">IF(LEN(Z103)=0,"",Z103)</f>
-        <v/>
+        <f t="shared" ca="1" si="293"/>
+        <v>cu</v>
       </c>
       <c r="AR103" t="str">
-        <f t="shared" ref="AR103:AR105" si="346">IF(LEN(AB103)=0,"",AB103)</f>
-        <v/>
-      </c>
-      <c r="AS103" t="str">
-        <f t="shared" ref="AS103:AS105" si="347">IF(LEN(AC103)=0,"",AC103)</f>
-        <v/>
+        <f t="shared" si="294"/>
+        <v>EN</v>
+      </c>
+      <c r="AS103">
+        <f t="shared" si="295"/>
+        <v>300</v>
       </c>
       <c r="AT103" t="str">
-        <f t="shared" ref="AT103:AT105" ca="1" si="348">IF(LEN(AD103)=0,"",AD103)</f>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU103" t="str">
-        <f t="shared" ref="AU103:AU105" si="349">IF(LEN(AF103)=0,"",AF103)</f>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV103" t="str">
-        <f t="shared" ref="AV103:AV105" si="350">IF(LEN(AG103)=0,"",AG103)</f>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW103" t="str">
-        <f t="shared" ref="AW103:AW105" ca="1" si="351">IF(ROW()=2,AX103,OFFSET(AW103,-1,0)&amp;IF(LEN(AX103)=0,"",","&amp;AX103))</f>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX103" t="str">
-        <f t="shared" ref="AX103:AX105" si="352">IF(G103=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C103&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L103
-&amp;IF(LEN(N103)=0,"",","""&amp;N$1&amp;""":"""&amp;N103&amp;"""")
-&amp;IF(LEN(P103)=0,"",","""&amp;P$1&amp;""":"""&amp;P103&amp;"""")
-&amp;IF(LEN(Q103)=0,"",","""&amp;Q$1&amp;""":"&amp;Q103)
-&amp;IF(LEN(R103)=0,"",","""&amp;R$1&amp;""":"""&amp;R103&amp;"""")
-&amp;IF(LEN(T103)=0,"",","""&amp;T$1&amp;""":"""&amp;T103&amp;"""")
-&amp;IF(LEN(U103)=0,"",","""&amp;U$1&amp;""":"&amp;U103)
-&amp;IF(LEN(V103)=0,"",","""&amp;V$1&amp;""":"""&amp;V103&amp;"""")
-&amp;IF(LEN(X103)=0,"",","""&amp;X$1&amp;""":"""&amp;X103&amp;"""")
-&amp;IF(LEN(Y103)=0,"",","""&amp;Y$1&amp;""":"&amp;Y103)
-&amp;IF(LEN(Z103)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z103&amp;"""")
-&amp;IF(LEN(AB103)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB103&amp;"""")
-&amp;IF(LEN(AC103)=0,"",","""&amp;AC$1&amp;""":"&amp;AC103)
-&amp;IF(LEN(AD103)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD103&amp;"""")
-&amp;IF(LEN(AF103)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF103&amp;"""")
-&amp;IF(LEN(AG103)=0,"",","""&amp;AG$1&amp;""":"&amp;AG103)&amp;"}")</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:50">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="327"/>
-        <v>ev16_acquiredcompanion</v>
+        <f t="shared" si="252"/>
+        <v>relay_7</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="328"/>
-        <v>ev16</v>
+        <f t="shared" si="244"/>
+        <v>relay</v>
       </c>
       <c r="E104">
-        <f t="shared" si="329"/>
-        <v>1</v>
+        <f t="shared" si="300"/>
+        <v>3</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -18075,253 +17948,2047 @@
         <v>13000</v>
       </c>
       <c r="K104" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="L104">
-        <v>569</v>
+        <v>679</v>
       </c>
       <c r="M104">
-        <f t="shared" si="330"/>
-        <v>569</v>
+        <f t="shared" si="276"/>
+        <v>679</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" ca="1" si="331"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
       </c>
       <c r="O104" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R104" t="str">
-        <f t="shared" ca="1" si="332"/>
-        <v/>
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S104" t="s">
+        <v>16</v>
+      </c>
+      <c r="T104" t="s">
+        <v>15</v>
+      </c>
+      <c r="U104">
+        <v>25000</v>
       </c>
       <c r="V104" t="str">
-        <f t="shared" ca="1" si="333"/>
-        <v/>
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W104" t="s">
+        <v>16</v>
+      </c>
+      <c r="X104" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y104">
+        <v>100</v>
       </c>
       <c r="Z104" t="str">
-        <f t="shared" ca="1" si="334"/>
+        <f t="shared" ca="1" si="282"/>
         <v/>
       </c>
       <c r="AD104" t="str">
-        <f t="shared" ca="1" si="335"/>
+        <f t="shared" ca="1" si="283"/>
         <v/>
       </c>
       <c r="AH104" t="str">
-        <f t="shared" ca="1" si="336"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
       </c>
       <c r="AI104" t="str">
-        <f t="shared" si="337"/>
-        <v>Cash_sAcquiredCompanion</v>
+        <f t="shared" si="285"/>
+        <v>EN</v>
       </c>
       <c r="AJ104">
-        <f t="shared" si="338"/>
-        <v>1</v>
+        <f t="shared" si="286"/>
+        <v>30</v>
       </c>
       <c r="AK104" t="str">
-        <f t="shared" ca="1" si="339"/>
-        <v/>
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
       </c>
       <c r="AL104" t="str">
-        <f t="shared" si="340"/>
-        <v/>
-      </c>
-      <c r="AM104" t="str">
-        <f t="shared" si="341"/>
-        <v/>
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM104">
+        <f t="shared" si="289"/>
+        <v>25000</v>
       </c>
       <c r="AN104" t="str">
-        <f t="shared" ca="1" si="342"/>
-        <v/>
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
       </c>
       <c r="AO104" t="str">
-        <f t="shared" si="343"/>
-        <v/>
-      </c>
-      <c r="AP104" t="str">
-        <f t="shared" si="344"/>
-        <v/>
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP104">
+        <f t="shared" si="292"/>
+        <v>100</v>
       </c>
       <c r="AQ104" t="str">
-        <f t="shared" ca="1" si="345"/>
+        <f t="shared" ca="1" si="293"/>
         <v/>
       </c>
       <c r="AR104" t="str">
-        <f t="shared" si="346"/>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="AS104" t="str">
-        <f t="shared" si="347"/>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="AT104" t="str">
-        <f t="shared" ca="1" si="348"/>
+        <f t="shared" ca="1" si="296"/>
         <v/>
       </c>
       <c r="AU104" t="str">
-        <f t="shared" si="349"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="AV104" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="AW104" t="str">
-        <f t="shared" ca="1" si="351"/>
+        <f t="shared" ca="1" si="299"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX104" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:50">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="C105" t="str">
+        <f t="shared" si="252"/>
+        <v>relay_8</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="244"/>
+        <v>relay</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="300"/>
+        <v>3</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J105">
+        <v>25000</v>
+      </c>
+      <c r="K105" t="s">
+        <v>159</v>
+      </c>
+      <c r="L105">
+        <v>752</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="276"/>
+        <v>752</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
+      </c>
+      <c r="O105" t="s">
+        <v>16</v>
+      </c>
+      <c r="P105" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q105">
+        <v>30</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S105" t="s">
+        <v>16</v>
+      </c>
+      <c r="T105" t="s">
+        <v>15</v>
+      </c>
+      <c r="U105">
+        <v>25000</v>
+      </c>
+      <c r="V105" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W105" t="s">
+        <v>16</v>
+      </c>
+      <c r="X105" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y105">
+        <v>100</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH105" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
+      </c>
+      <c r="AI105" t="str">
+        <f t="shared" si="285"/>
+        <v>EN</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" si="286"/>
+        <v>30</v>
+      </c>
+      <c r="AK105" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
+      </c>
+      <c r="AL105" t="str">
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM105">
+        <f t="shared" si="289"/>
+        <v>25000</v>
+      </c>
+      <c r="AN105" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
+      </c>
+      <c r="AO105" t="str">
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP105">
+        <f t="shared" si="292"/>
+        <v>100</v>
+      </c>
+      <c r="AQ105" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR105" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS105" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT105" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU105" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV105" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW105" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX105" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:50">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="252"/>
+        <v>relay_9</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="244"/>
+        <v>relay</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="300"/>
+        <v>3</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>39.99</v>
+      </c>
+      <c r="J106">
+        <v>48000</v>
+      </c>
+      <c r="K106" t="s">
+        <v>160</v>
+      </c>
+      <c r="L106">
+        <v>534</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="276"/>
+        <v>534</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
+      </c>
+      <c r="O106" t="s">
+        <v>16</v>
+      </c>
+      <c r="P106" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q106">
+        <v>60</v>
+      </c>
+      <c r="R106" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S106" t="s">
+        <v>16</v>
+      </c>
+      <c r="T106" t="s">
+        <v>15</v>
+      </c>
+      <c r="U106">
+        <v>15000</v>
+      </c>
+      <c r="V106" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W106" t="s">
+        <v>16</v>
+      </c>
+      <c r="X106" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y106">
+        <v>120</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v/>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH106" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
+      </c>
+      <c r="AI106" t="str">
+        <f t="shared" si="285"/>
+        <v>EN</v>
+      </c>
+      <c r="AJ106">
+        <f t="shared" si="286"/>
+        <v>60</v>
+      </c>
+      <c r="AK106" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
+      </c>
+      <c r="AL106" t="str">
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM106">
+        <f t="shared" si="289"/>
+        <v>15000</v>
+      </c>
+      <c r="AN106" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
+      </c>
+      <c r="AO106" t="str">
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP106">
+        <f t="shared" si="292"/>
+        <v>120</v>
+      </c>
+      <c r="AQ106" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v/>
+      </c>
+      <c r="AR106" t="str">
+        <f t="shared" si="294"/>
+        <v/>
+      </c>
+      <c r="AS106" t="str">
+        <f t="shared" si="295"/>
+        <v/>
+      </c>
+      <c r="AT106" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU106" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV106" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW106" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX106" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:50">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="252"/>
+        <v>relay_10</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="244"/>
+        <v>relay</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="300"/>
+        <v>4</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>49.99</v>
+      </c>
+      <c r="J107">
+        <v>69000</v>
+      </c>
+      <c r="K107" t="s">
+        <v>161</v>
+      </c>
+      <c r="L107">
+        <v>243</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="276"/>
+        <v>243</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" ca="1" si="277"/>
+        <v>cu</v>
+      </c>
+      <c r="O107" t="s">
+        <v>16</v>
+      </c>
+      <c r="P107" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q107">
+        <v>90</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" ca="1" si="280"/>
+        <v>cu</v>
+      </c>
+      <c r="S107" t="s">
+        <v>16</v>
+      </c>
+      <c r="T107" t="s">
+        <v>15</v>
+      </c>
+      <c r="U107">
+        <v>30000</v>
+      </c>
+      <c r="V107" t="str">
+        <f t="shared" ca="1" si="281"/>
+        <v>cu</v>
+      </c>
+      <c r="W107" t="s">
+        <v>16</v>
+      </c>
+      <c r="X107" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y107">
+        <v>150</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" ca="1" si="282"/>
+        <v>cu</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC107">
+        <v>300</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" ca="1" si="283"/>
+        <v/>
+      </c>
+      <c r="AH107" t="str">
+        <f t="shared" ca="1" si="284"/>
+        <v>cu</v>
+      </c>
+      <c r="AI107" t="str">
+        <f t="shared" si="285"/>
+        <v>EN</v>
+      </c>
+      <c r="AJ107">
+        <f t="shared" si="286"/>
+        <v>90</v>
+      </c>
+      <c r="AK107" t="str">
+        <f t="shared" ca="1" si="287"/>
+        <v>cu</v>
+      </c>
+      <c r="AL107" t="str">
+        <f t="shared" si="288"/>
+        <v>GO</v>
+      </c>
+      <c r="AM107">
+        <f t="shared" si="289"/>
+        <v>30000</v>
+      </c>
+      <c r="AN107" t="str">
+        <f t="shared" ca="1" si="290"/>
+        <v>cu</v>
+      </c>
+      <c r="AO107" t="str">
+        <f t="shared" si="291"/>
+        <v>EN</v>
+      </c>
+      <c r="AP107">
+        <f t="shared" si="292"/>
+        <v>150</v>
+      </c>
+      <c r="AQ107" t="str">
+        <f t="shared" ca="1" si="293"/>
+        <v>cu</v>
+      </c>
+      <c r="AR107" t="str">
+        <f t="shared" si="294"/>
+        <v>EN</v>
+      </c>
+      <c r="AS107">
+        <f t="shared" si="295"/>
+        <v>300</v>
+      </c>
+      <c r="AT107" t="str">
+        <f t="shared" ca="1" si="296"/>
+        <v/>
+      </c>
+      <c r="AU107" t="str">
+        <f t="shared" si="297"/>
+        <v/>
+      </c>
+      <c r="AV107" t="str">
+        <f t="shared" si="298"/>
+        <v/>
+      </c>
+      <c r="AW107" t="str">
+        <f t="shared" ca="1" si="299"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX107" t="str">
+        <f t="shared" si="243"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:50">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" ref="C108:C110" si="301">A108</f>
+        <v>analysisboost_1</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" ref="D108:D110" si="302">IF(ISERROR(FIND("_",A108)),A108,
+LEFT(A108,FIND("_",A108)-1))</f>
+        <v>analysisboost</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108:E110" si="303">COUNTA(O108,S108,W108,AA108,AE108)</f>
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0.99</v>
+      </c>
+      <c r="J108">
+        <v>1200</v>
+      </c>
+      <c r="K108" t="s">
+        <v>214</v>
+      </c>
+      <c r="L108">
+        <v>384</v>
+      </c>
+      <c r="M108">
+        <f t="shared" ref="M108:M110" si="304">L108</f>
+        <v>384</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" ref="N108:N110" ca="1" si="305">IF(ISBLANK(O108),"",
+VLOOKUP(O108,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="O108" t="s">
+        <v>33</v>
+      </c>
+      <c r="P108" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q108">
+        <v>86400</v>
+      </c>
+      <c r="R108" t="str">
+        <f t="shared" ref="R108:R110" ca="1" si="306">IF(ISBLANK(S108),"",
+VLOOKUP(S108,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="V108" t="str">
+        <f t="shared" ref="V108:V110" ca="1" si="307">IF(ISBLANK(W108),"",
+VLOOKUP(W108,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" ref="Z108:Z110" ca="1" si="308">IF(ISBLANK(AA108),"",
+VLOOKUP(AA108,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD108" t="str">
+        <f t="shared" ref="AD108:AD110" ca="1" si="309">IF(ISBLANK(AE108),"",
+VLOOKUP(AE108,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH108" t="str">
+        <f t="shared" ref="AH108:AH110" ca="1" si="310">IF(LEN(N108)=0,"",N108)</f>
+        <v>it</v>
+      </c>
+      <c r="AI108" t="str">
+        <f t="shared" ref="AI108:AI110" si="311">IF(LEN(P108)=0,"",P108)</f>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" ref="AJ108:AJ110" si="312">IF(LEN(Q108)=0,"",Q108)</f>
+        <v>86400</v>
+      </c>
+      <c r="AK108" t="str">
+        <f t="shared" ref="AK108:AK110" ca="1" si="313">IF(LEN(R108)=0,"",R108)</f>
+        <v/>
+      </c>
+      <c r="AL108" t="str">
+        <f t="shared" ref="AL108:AL110" si="314">IF(LEN(T108)=0,"",T108)</f>
+        <v/>
+      </c>
+      <c r="AM108" t="str">
+        <f t="shared" ref="AM108:AM110" si="315">IF(LEN(U108)=0,"",U108)</f>
+        <v/>
+      </c>
+      <c r="AN108" t="str">
+        <f t="shared" ref="AN108:AN110" ca="1" si="316">IF(LEN(V108)=0,"",V108)</f>
+        <v/>
+      </c>
+      <c r="AO108" t="str">
+        <f t="shared" ref="AO108:AO110" si="317">IF(LEN(X108)=0,"",X108)</f>
+        <v/>
+      </c>
+      <c r="AP108" t="str">
+        <f t="shared" ref="AP108:AP110" si="318">IF(LEN(Y108)=0,"",Y108)</f>
+        <v/>
+      </c>
+      <c r="AQ108" t="str">
+        <f t="shared" ref="AQ108:AQ110" ca="1" si="319">IF(LEN(Z108)=0,"",Z108)</f>
+        <v/>
+      </c>
+      <c r="AR108" t="str">
+        <f t="shared" ref="AR108:AR110" si="320">IF(LEN(AB108)=0,"",AB108)</f>
+        <v/>
+      </c>
+      <c r="AS108" t="str">
+        <f t="shared" ref="AS108:AS110" si="321">IF(LEN(AC108)=0,"",AC108)</f>
+        <v/>
+      </c>
+      <c r="AT108" t="str">
+        <f t="shared" ref="AT108:AT110" ca="1" si="322">IF(LEN(AD108)=0,"",AD108)</f>
+        <v/>
+      </c>
+      <c r="AU108" t="str">
+        <f t="shared" ref="AU108:AU110" si="323">IF(LEN(AF108)=0,"",AF108)</f>
+        <v/>
+      </c>
+      <c r="AV108" t="str">
+        <f t="shared" ref="AV108:AV110" si="324">IF(LEN(AG108)=0,"",AG108)</f>
+        <v/>
+      </c>
+      <c r="AW108" t="str">
+        <f t="shared" ref="AW108:AW110" ca="1" si="325">IF(ROW()=2,AX108,OFFSET(AW108,-1,0)&amp;IF(LEN(AX108)=0,"",","&amp;AX108))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX108" t="str">
+        <f t="shared" ref="AX108:AX110" si="326">IF(G108=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C108&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L108
+&amp;IF(LEN(N108)=0,"",","""&amp;N$1&amp;""":"""&amp;N108&amp;"""")
+&amp;IF(LEN(P108)=0,"",","""&amp;P$1&amp;""":"""&amp;P108&amp;"""")
+&amp;IF(LEN(Q108)=0,"",","""&amp;Q$1&amp;""":"&amp;Q108)
+&amp;IF(LEN(R108)=0,"",","""&amp;R$1&amp;""":"""&amp;R108&amp;"""")
+&amp;IF(LEN(T108)=0,"",","""&amp;T$1&amp;""":"""&amp;T108&amp;"""")
+&amp;IF(LEN(U108)=0,"",","""&amp;U$1&amp;""":"&amp;U108)
+&amp;IF(LEN(V108)=0,"",","""&amp;V$1&amp;""":"""&amp;V108&amp;"""")
+&amp;IF(LEN(X108)=0,"",","""&amp;X$1&amp;""":"""&amp;X108&amp;"""")
+&amp;IF(LEN(Y108)=0,"",","""&amp;Y$1&amp;""":"&amp;Y108)
+&amp;IF(LEN(Z108)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z108&amp;"""")
+&amp;IF(LEN(AB108)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB108&amp;"""")
+&amp;IF(LEN(AC108)=0,"",","""&amp;AC$1&amp;""":"&amp;AC108)
+&amp;IF(LEN(AD108)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD108&amp;"""")
+&amp;IF(LEN(AF108)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF108&amp;"""")
+&amp;IF(LEN(AG108)=0,"",","""&amp;AG$1&amp;""":"&amp;AG108)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:50">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="301"/>
+        <v>analysisboost_2</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="302"/>
+        <v>analysisboost</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="303"/>
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>4.99</v>
+      </c>
+      <c r="J109">
+        <v>5900</v>
+      </c>
+      <c r="K109" t="s">
+        <v>215</v>
+      </c>
+      <c r="L109">
+        <v>681</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="304"/>
+        <v>681</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" ca="1" si="305"/>
+        <v>it</v>
+      </c>
+      <c r="O109" t="s">
+        <v>33</v>
+      </c>
+      <c r="P109" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q109">
+        <v>604800</v>
+      </c>
+      <c r="R109" t="str">
+        <f t="shared" ca="1" si="306"/>
+        <v/>
+      </c>
+      <c r="V109" t="str">
+        <f t="shared" ca="1" si="307"/>
+        <v/>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" ca="1" si="308"/>
+        <v/>
+      </c>
+      <c r="AD109" t="str">
+        <f t="shared" ca="1" si="309"/>
+        <v/>
+      </c>
+      <c r="AH109" t="str">
+        <f t="shared" ca="1" si="310"/>
+        <v>it</v>
+      </c>
+      <c r="AI109" t="str">
+        <f t="shared" si="311"/>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ109">
+        <f t="shared" si="312"/>
+        <v>604800</v>
+      </c>
+      <c r="AK109" t="str">
+        <f t="shared" ca="1" si="313"/>
+        <v/>
+      </c>
+      <c r="AL109" t="str">
+        <f t="shared" si="314"/>
+        <v/>
+      </c>
+      <c r="AM109" t="str">
+        <f t="shared" si="315"/>
+        <v/>
+      </c>
+      <c r="AN109" t="str">
+        <f t="shared" ca="1" si="316"/>
+        <v/>
+      </c>
+      <c r="AO109" t="str">
+        <f t="shared" si="317"/>
+        <v/>
+      </c>
+      <c r="AP109" t="str">
+        <f t="shared" si="318"/>
+        <v/>
+      </c>
+      <c r="AQ109" t="str">
+        <f t="shared" ca="1" si="319"/>
+        <v/>
+      </c>
+      <c r="AR109" t="str">
+        <f t="shared" si="320"/>
+        <v/>
+      </c>
+      <c r="AS109" t="str">
+        <f t="shared" si="321"/>
+        <v/>
+      </c>
+      <c r="AT109" t="str">
+        <f t="shared" ca="1" si="322"/>
+        <v/>
+      </c>
+      <c r="AU109" t="str">
+        <f t="shared" si="323"/>
+        <v/>
+      </c>
+      <c r="AV109" t="str">
+        <f t="shared" si="324"/>
+        <v/>
+      </c>
+      <c r="AW109" t="str">
+        <f t="shared" ca="1" si="325"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX109" t="str">
+        <f t="shared" si="326"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:50">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="301"/>
+        <v>analysisboost_3</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="302"/>
+        <v>analysisboost</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="303"/>
+        <v>4</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>9.99</v>
+      </c>
+      <c r="J110">
+        <v>13000</v>
+      </c>
+      <c r="K110" t="s">
+        <v>216</v>
+      </c>
+      <c r="L110">
+        <v>813</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="304"/>
+        <v>813</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" ca="1" si="305"/>
+        <v>it</v>
+      </c>
+      <c r="O110" t="s">
+        <v>33</v>
+      </c>
+      <c r="P110" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q110">
+        <v>2592000</v>
+      </c>
+      <c r="R110" t="str">
+        <f t="shared" ca="1" si="306"/>
+        <v>cu</v>
+      </c>
+      <c r="S110" t="s">
+        <v>16</v>
+      </c>
+      <c r="T110" t="s">
+        <v>56</v>
+      </c>
+      <c r="U110">
+        <v>1000</v>
+      </c>
+      <c r="V110" t="str">
+        <f t="shared" ca="1" si="307"/>
+        <v>cu</v>
+      </c>
+      <c r="W110" t="s">
+        <v>16</v>
+      </c>
+      <c r="X110" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y110">
+        <v>25000</v>
+      </c>
+      <c r="Z110" t="str">
+        <f t="shared" ca="1" si="308"/>
+        <v>cu</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC110">
+        <v>750</v>
+      </c>
+      <c r="AD110" t="str">
+        <f t="shared" ca="1" si="309"/>
+        <v/>
+      </c>
+      <c r="AH110" t="str">
+        <f t="shared" ca="1" si="310"/>
+        <v>it</v>
+      </c>
+      <c r="AI110" t="str">
+        <f t="shared" si="311"/>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ110">
+        <f t="shared" si="312"/>
+        <v>2592000</v>
+      </c>
+      <c r="AK110" t="str">
+        <f t="shared" ca="1" si="313"/>
+        <v>cu</v>
+      </c>
+      <c r="AL110" t="str">
+        <f t="shared" si="314"/>
+        <v>EN</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" si="315"/>
+        <v>1000</v>
+      </c>
+      <c r="AN110" t="str">
+        <f t="shared" ca="1" si="316"/>
+        <v>cu</v>
+      </c>
+      <c r="AO110" t="str">
+        <f t="shared" si="317"/>
+        <v>GO</v>
+      </c>
+      <c r="AP110">
+        <f t="shared" si="318"/>
+        <v>25000</v>
+      </c>
+      <c r="AQ110" t="str">
+        <f t="shared" ca="1" si="319"/>
+        <v>cu</v>
+      </c>
+      <c r="AR110" t="str">
+        <f t="shared" si="320"/>
+        <v>DI</v>
+      </c>
+      <c r="AS110">
+        <f t="shared" si="321"/>
+        <v>750</v>
+      </c>
+      <c r="AT110" t="str">
+        <f t="shared" ca="1" si="322"/>
+        <v/>
+      </c>
+      <c r="AU110" t="str">
+        <f t="shared" si="323"/>
+        <v/>
+      </c>
+      <c r="AV110" t="str">
+        <f t="shared" si="324"/>
+        <v/>
+      </c>
+      <c r="AW110" t="str">
+        <f t="shared" ca="1" si="325"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX110" t="str">
+        <f t="shared" si="326"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:50">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" ref="C111:C114" si="327">A111</f>
+        <v>ev14_unacquiredspell</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" ref="D111:D114" si="328">IF(ISERROR(FIND("_",A111)),A111,
+LEFT(A111,FIND("_",A111)-1))</f>
+        <v>ev14</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ref="E111:E114" si="329">COUNTA(O111,S111,W111,AA111,AE111)</f>
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>9.99</v>
+      </c>
+      <c r="J111">
+        <v>13000</v>
+      </c>
+      <c r="K111" t="s">
+        <v>224</v>
+      </c>
+      <c r="L111">
+        <v>178</v>
+      </c>
+      <c r="M111">
+        <f t="shared" ref="M111:M114" si="330">L111</f>
+        <v>178</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" ref="N111:N114" ca="1" si="331">IF(ISBLANK(O111),"",
+VLOOKUP(O111,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="O111" t="s">
+        <v>33</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111" t="str">
+        <f t="shared" ref="R111:R114" ca="1" si="332">IF(ISBLANK(S111),"",
+VLOOKUP(S111,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="V111" t="str">
+        <f t="shared" ref="V111:V114" ca="1" si="333">IF(ISBLANK(W111),"",
+VLOOKUP(W111,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" ref="Z111:Z114" ca="1" si="334">IF(ISBLANK(AA111),"",
+VLOOKUP(AA111,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD111" t="str">
+        <f t="shared" ref="AD111:AD114" ca="1" si="335">IF(ISBLANK(AE111),"",
+VLOOKUP(AE111,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH111" t="str">
+        <f t="shared" ref="AH111:AH114" ca="1" si="336">IF(LEN(N111)=0,"",N111)</f>
+        <v>it</v>
+      </c>
+      <c r="AI111" t="str">
+        <f t="shared" ref="AI111:AI114" si="337">IF(LEN(P111)=0,"",P111)</f>
+        <v>Cash_sUnacquiredSpell</v>
+      </c>
+      <c r="AJ111">
+        <f t="shared" ref="AJ111:AJ114" si="338">IF(LEN(Q111)=0,"",Q111)</f>
+        <v>1</v>
+      </c>
+      <c r="AK111" t="str">
+        <f t="shared" ref="AK111:AK114" ca="1" si="339">IF(LEN(R111)=0,"",R111)</f>
+        <v/>
+      </c>
+      <c r="AL111" t="str">
+        <f t="shared" ref="AL111:AL114" si="340">IF(LEN(T111)=0,"",T111)</f>
+        <v/>
+      </c>
+      <c r="AM111" t="str">
+        <f t="shared" ref="AM111:AM114" si="341">IF(LEN(U111)=0,"",U111)</f>
+        <v/>
+      </c>
+      <c r="AN111" t="str">
+        <f t="shared" ref="AN111:AN114" ca="1" si="342">IF(LEN(V111)=0,"",V111)</f>
+        <v/>
+      </c>
+      <c r="AO111" t="str">
+        <f t="shared" ref="AO111:AO114" si="343">IF(LEN(X111)=0,"",X111)</f>
+        <v/>
+      </c>
+      <c r="AP111" t="str">
+        <f t="shared" ref="AP111:AP114" si="344">IF(LEN(Y111)=0,"",Y111)</f>
+        <v/>
+      </c>
+      <c r="AQ111" t="str">
+        <f t="shared" ref="AQ111:AQ114" ca="1" si="345">IF(LEN(Z111)=0,"",Z111)</f>
+        <v/>
+      </c>
+      <c r="AR111" t="str">
+        <f t="shared" ref="AR111:AR114" si="346">IF(LEN(AB111)=0,"",AB111)</f>
+        <v/>
+      </c>
+      <c r="AS111" t="str">
+        <f t="shared" ref="AS111:AS114" si="347">IF(LEN(AC111)=0,"",AC111)</f>
+        <v/>
+      </c>
+      <c r="AT111" t="str">
+        <f t="shared" ref="AT111:AT114" ca="1" si="348">IF(LEN(AD111)=0,"",AD111)</f>
+        <v/>
+      </c>
+      <c r="AU111" t="str">
+        <f t="shared" ref="AU111:AU114" si="349">IF(LEN(AF111)=0,"",AF111)</f>
+        <v/>
+      </c>
+      <c r="AV111" t="str">
+        <f t="shared" ref="AV111:AV114" si="350">IF(LEN(AG111)=0,"",AG111)</f>
+        <v/>
+      </c>
+      <c r="AW111" t="str">
+        <f t="shared" ref="AW111:AW114" ca="1" si="351">IF(ROW()=2,AX111,OFFSET(AW111,-1,0)&amp;IF(LEN(AX111)=0,"",","&amp;AX111))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX111" t="str">
+        <f t="shared" ref="AX111:AX114" si="352">IF(G111=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C111&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L111
+&amp;IF(LEN(N111)=0,"",","""&amp;N$1&amp;""":"""&amp;N111&amp;"""")
+&amp;IF(LEN(P111)=0,"",","""&amp;P$1&amp;""":"""&amp;P111&amp;"""")
+&amp;IF(LEN(Q111)=0,"",","""&amp;Q$1&amp;""":"&amp;Q111)
+&amp;IF(LEN(R111)=0,"",","""&amp;R$1&amp;""":"""&amp;R111&amp;"""")
+&amp;IF(LEN(T111)=0,"",","""&amp;T$1&amp;""":"""&amp;T111&amp;"""")
+&amp;IF(LEN(U111)=0,"",","""&amp;U$1&amp;""":"&amp;U111)
+&amp;IF(LEN(V111)=0,"",","""&amp;V$1&amp;""":"""&amp;V111&amp;"""")
+&amp;IF(LEN(X111)=0,"",","""&amp;X$1&amp;""":"""&amp;X111&amp;"""")
+&amp;IF(LEN(Y111)=0,"",","""&amp;Y$1&amp;""":"&amp;Y111)
+&amp;IF(LEN(Z111)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z111&amp;"""")
+&amp;IF(LEN(AB111)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB111&amp;"""")
+&amp;IF(LEN(AC111)=0,"",","""&amp;AC$1&amp;""":"&amp;AC111)
+&amp;IF(LEN(AD111)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD111&amp;"""")
+&amp;IF(LEN(AF111)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF111&amp;"""")
+&amp;IF(LEN(AG111)=0,"",","""&amp;AG$1&amp;""":"&amp;AG111)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:50">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="str">
         <f t="shared" si="327"/>
-        <v>ev17_acquiredcompanionpp</v>
-      </c>
-      <c r="D105" t="str">
+        <v>ev13_acquiredspell_0001</v>
+      </c>
+      <c r="D112" t="str">
         <f t="shared" si="328"/>
-        <v>ev17</v>
-      </c>
-      <c r="E105">
+        <v>ev13</v>
+      </c>
+      <c r="E112">
         <f t="shared" si="329"/>
         <v>1</v>
       </c>
-      <c r="G105" t="b">
+      <c r="G112" t="b">
         <v>0</v>
       </c>
-      <c r="I105">
+      <c r="I112">
         <v>9.99</v>
       </c>
-      <c r="J105">
+      <c r="J112">
         <v>13000</v>
       </c>
-      <c r="K105" t="s">
-        <v>252</v>
-      </c>
-      <c r="L105">
-        <v>880</v>
-      </c>
-      <c r="M105">
+      <c r="K112" t="s">
+        <v>225</v>
+      </c>
+      <c r="L112">
+        <v>240</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="330"/>
-        <v>880</v>
-      </c>
-      <c r="N105" t="str">
+        <v>240</v>
+      </c>
+      <c r="N112" t="str">
         <f t="shared" ca="1" si="331"/>
         <v>it</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O112" t="s">
         <v>33</v>
       </c>
-      <c r="P105" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q105">
+      <c r="P112" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q112">
         <v>1</v>
       </c>
-      <c r="R105" t="str">
+      <c r="R112" t="str">
         <f t="shared" ca="1" si="332"/>
         <v/>
       </c>
-      <c r="V105" t="str">
+      <c r="V112" t="str">
         <f t="shared" ca="1" si="333"/>
         <v/>
       </c>
-      <c r="Z105" t="str">
+      <c r="Z112" t="str">
         <f t="shared" ca="1" si="334"/>
         <v/>
       </c>
-      <c r="AD105" t="str">
+      <c r="AD112" t="str">
         <f t="shared" ca="1" si="335"/>
         <v/>
       </c>
-      <c r="AH105" t="str">
+      <c r="AH112" t="str">
         <f t="shared" ca="1" si="336"/>
         <v>it</v>
       </c>
-      <c r="AI105" t="str">
+      <c r="AI112" t="str">
         <f t="shared" si="337"/>
-        <v>Cash_sAcquiredCompanionPp</v>
-      </c>
-      <c r="AJ105">
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ112">
         <f t="shared" si="338"/>
         <v>1</v>
       </c>
-      <c r="AK105" t="str">
+      <c r="AK112" t="str">
         <f t="shared" ca="1" si="339"/>
         <v/>
       </c>
-      <c r="AL105" t="str">
+      <c r="AL112" t="str">
         <f t="shared" si="340"/>
         <v/>
       </c>
-      <c r="AM105" t="str">
+      <c r="AM112" t="str">
         <f t="shared" si="341"/>
         <v/>
       </c>
-      <c r="AN105" t="str">
+      <c r="AN112" t="str">
         <f t="shared" ca="1" si="342"/>
         <v/>
       </c>
-      <c r="AO105" t="str">
+      <c r="AO112" t="str">
         <f t="shared" si="343"/>
         <v/>
       </c>
-      <c r="AP105" t="str">
+      <c r="AP112" t="str">
         <f t="shared" si="344"/>
         <v/>
       </c>
-      <c r="AQ105" t="str">
+      <c r="AQ112" t="str">
         <f t="shared" ca="1" si="345"/>
         <v/>
       </c>
-      <c r="AR105" t="str">
+      <c r="AR112" t="str">
         <f t="shared" si="346"/>
         <v/>
       </c>
-      <c r="AS105" t="str">
+      <c r="AS112" t="str">
         <f t="shared" si="347"/>
         <v/>
       </c>
-      <c r="AT105" t="str">
+      <c r="AT112" t="str">
         <f t="shared" ca="1" si="348"/>
         <v/>
       </c>
-      <c r="AU105" t="str">
+      <c r="AU112" t="str">
         <f t="shared" si="349"/>
         <v/>
       </c>
-      <c r="AV105" t="str">
+      <c r="AV112" t="str">
         <f t="shared" si="350"/>
         <v/>
       </c>
-      <c r="AW105" t="str">
+      <c r="AW112" t="str">
         <f t="shared" ca="1" si="351"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
-      <c r="AX105" t="str">
+      <c r="AX112" t="str">
         <f t="shared" si="352"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:50">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="327"/>
+        <v>ev13_acquiredspell_0002</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="328"/>
+        <v>ev13</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="329"/>
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>9.99</v>
+      </c>
+      <c r="J113">
+        <v>13000</v>
+      </c>
+      <c r="K113" t="s">
+        <v>226</v>
+      </c>
+      <c r="L113">
+        <v>652</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="330"/>
+        <v>652</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" ca="1" si="331"/>
+        <v>it</v>
+      </c>
+      <c r="O113" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113" t="str">
+        <f t="shared" ca="1" si="332"/>
+        <v/>
+      </c>
+      <c r="V113" t="str">
+        <f t="shared" ca="1" si="333"/>
+        <v/>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" ca="1" si="334"/>
+        <v/>
+      </c>
+      <c r="AD113" t="str">
+        <f t="shared" ca="1" si="335"/>
+        <v/>
+      </c>
+      <c r="AH113" t="str">
+        <f t="shared" ca="1" si="336"/>
+        <v>it</v>
+      </c>
+      <c r="AI113" t="str">
+        <f t="shared" si="337"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ113">
+        <f t="shared" si="338"/>
+        <v>1</v>
+      </c>
+      <c r="AK113" t="str">
+        <f t="shared" ca="1" si="339"/>
+        <v/>
+      </c>
+      <c r="AL113" t="str">
+        <f t="shared" si="340"/>
+        <v/>
+      </c>
+      <c r="AM113" t="str">
+        <f t="shared" si="341"/>
+        <v/>
+      </c>
+      <c r="AN113" t="str">
+        <f t="shared" ca="1" si="342"/>
+        <v/>
+      </c>
+      <c r="AO113" t="str">
+        <f t="shared" si="343"/>
+        <v/>
+      </c>
+      <c r="AP113" t="str">
+        <f t="shared" si="344"/>
+        <v/>
+      </c>
+      <c r="AQ113" t="str">
+        <f t="shared" ca="1" si="345"/>
+        <v/>
+      </c>
+      <c r="AR113" t="str">
+        <f t="shared" si="346"/>
+        <v/>
+      </c>
+      <c r="AS113" t="str">
+        <f t="shared" si="347"/>
+        <v/>
+      </c>
+      <c r="AT113" t="str">
+        <f t="shared" ca="1" si="348"/>
+        <v/>
+      </c>
+      <c r="AU113" t="str">
+        <f t="shared" si="349"/>
+        <v/>
+      </c>
+      <c r="AV113" t="str">
+        <f t="shared" si="350"/>
+        <v/>
+      </c>
+      <c r="AW113" t="str">
+        <f t="shared" ca="1" si="351"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX113" t="str">
+        <f t="shared" si="352"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:50">
+      <c r="A114" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="327"/>
+        <v>ev13_acquiredspell</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="328"/>
+        <v>ev13</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="329"/>
+        <v>1</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>9.99</v>
+      </c>
+      <c r="J114">
+        <v>13000</v>
+      </c>
+      <c r="K114" t="s">
+        <v>223</v>
+      </c>
+      <c r="L114">
+        <v>358</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="330"/>
+        <v>358</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" ca="1" si="331"/>
+        <v>it</v>
+      </c>
+      <c r="O114" t="s">
+        <v>33</v>
+      </c>
+      <c r="P114" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114" t="str">
+        <f t="shared" ca="1" si="332"/>
+        <v/>
+      </c>
+      <c r="V114" t="str">
+        <f t="shared" ca="1" si="333"/>
+        <v/>
+      </c>
+      <c r="Z114" t="str">
+        <f t="shared" ca="1" si="334"/>
+        <v/>
+      </c>
+      <c r="AD114" t="str">
+        <f t="shared" ca="1" si="335"/>
+        <v/>
+      </c>
+      <c r="AH114" t="str">
+        <f t="shared" ca="1" si="336"/>
+        <v>it</v>
+      </c>
+      <c r="AI114" t="str">
+        <f t="shared" si="337"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ114">
+        <f t="shared" si="338"/>
+        <v>1</v>
+      </c>
+      <c r="AK114" t="str">
+        <f t="shared" ca="1" si="339"/>
+        <v/>
+      </c>
+      <c r="AL114" t="str">
+        <f t="shared" si="340"/>
+        <v/>
+      </c>
+      <c r="AM114" t="str">
+        <f t="shared" si="341"/>
+        <v/>
+      </c>
+      <c r="AN114" t="str">
+        <f t="shared" ca="1" si="342"/>
+        <v/>
+      </c>
+      <c r="AO114" t="str">
+        <f t="shared" si="343"/>
+        <v/>
+      </c>
+      <c r="AP114" t="str">
+        <f t="shared" si="344"/>
+        <v/>
+      </c>
+      <c r="AQ114" t="str">
+        <f t="shared" ca="1" si="345"/>
+        <v/>
+      </c>
+      <c r="AR114" t="str">
+        <f t="shared" si="346"/>
+        <v/>
+      </c>
+      <c r="AS114" t="str">
+        <f t="shared" si="347"/>
+        <v/>
+      </c>
+      <c r="AT114" t="str">
+        <f t="shared" ca="1" si="348"/>
+        <v/>
+      </c>
+      <c r="AU114" t="str">
+        <f t="shared" si="349"/>
+        <v/>
+      </c>
+      <c r="AV114" t="str">
+        <f t="shared" si="350"/>
+        <v/>
+      </c>
+      <c r="AW114" t="str">
+        <f t="shared" ca="1" si="351"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX114" t="str">
+        <f t="shared" si="352"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:50">
+      <c r="A115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" ref="C115:C117" si="353">A115</f>
+        <v>ev15_unacquiredcompanion</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" ref="D115:D117" si="354">IF(ISERROR(FIND("_",A115)),A115,
+LEFT(A115,FIND("_",A115)-1))</f>
+        <v>ev15</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ref="E115:E117" si="355">COUNTA(O115,S115,W115,AA115,AE115)</f>
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>9.99</v>
+      </c>
+      <c r="J115">
+        <v>13000</v>
+      </c>
+      <c r="K115" t="s">
+        <v>248</v>
+      </c>
+      <c r="L115">
+        <v>717</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ref="M115:M117" si="356">L115</f>
+        <v>717</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" ref="N115:N117" ca="1" si="357">IF(ISBLANK(O115),"",
+VLOOKUP(O115,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="O115" t="s">
+        <v>33</v>
+      </c>
+      <c r="P115" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115" t="str">
+        <f t="shared" ref="R115:R117" ca="1" si="358">IF(ISBLANK(S115),"",
+VLOOKUP(S115,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="V115" t="str">
+        <f t="shared" ref="V115:V117" ca="1" si="359">IF(ISBLANK(W115),"",
+VLOOKUP(W115,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z115" t="str">
+        <f t="shared" ref="Z115:Z117" ca="1" si="360">IF(ISBLANK(AA115),"",
+VLOOKUP(AA115,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD115" t="str">
+        <f t="shared" ref="AD115:AD117" ca="1" si="361">IF(ISBLANK(AE115),"",
+VLOOKUP(AE115,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH115" t="str">
+        <f t="shared" ref="AH115:AH117" ca="1" si="362">IF(LEN(N115)=0,"",N115)</f>
+        <v>it</v>
+      </c>
+      <c r="AI115" t="str">
+        <f t="shared" ref="AI115:AI117" si="363">IF(LEN(P115)=0,"",P115)</f>
+        <v>Cash_sUnacquiredCompanion</v>
+      </c>
+      <c r="AJ115">
+        <f t="shared" ref="AJ115:AJ117" si="364">IF(LEN(Q115)=0,"",Q115)</f>
+        <v>1</v>
+      </c>
+      <c r="AK115" t="str">
+        <f t="shared" ref="AK115:AK117" ca="1" si="365">IF(LEN(R115)=0,"",R115)</f>
+        <v/>
+      </c>
+      <c r="AL115" t="str">
+        <f t="shared" ref="AL115:AL117" si="366">IF(LEN(T115)=0,"",T115)</f>
+        <v/>
+      </c>
+      <c r="AM115" t="str">
+        <f t="shared" ref="AM115:AM117" si="367">IF(LEN(U115)=0,"",U115)</f>
+        <v/>
+      </c>
+      <c r="AN115" t="str">
+        <f t="shared" ref="AN115:AN117" ca="1" si="368">IF(LEN(V115)=0,"",V115)</f>
+        <v/>
+      </c>
+      <c r="AO115" t="str">
+        <f t="shared" ref="AO115:AO117" si="369">IF(LEN(X115)=0,"",X115)</f>
+        <v/>
+      </c>
+      <c r="AP115" t="str">
+        <f t="shared" ref="AP115:AP117" si="370">IF(LEN(Y115)=0,"",Y115)</f>
+        <v/>
+      </c>
+      <c r="AQ115" t="str">
+        <f t="shared" ref="AQ115:AQ117" ca="1" si="371">IF(LEN(Z115)=0,"",Z115)</f>
+        <v/>
+      </c>
+      <c r="AR115" t="str">
+        <f t="shared" ref="AR115:AR117" si="372">IF(LEN(AB115)=0,"",AB115)</f>
+        <v/>
+      </c>
+      <c r="AS115" t="str">
+        <f t="shared" ref="AS115:AS117" si="373">IF(LEN(AC115)=0,"",AC115)</f>
+        <v/>
+      </c>
+      <c r="AT115" t="str">
+        <f t="shared" ref="AT115:AT117" ca="1" si="374">IF(LEN(AD115)=0,"",AD115)</f>
+        <v/>
+      </c>
+      <c r="AU115" t="str">
+        <f t="shared" ref="AU115:AU117" si="375">IF(LEN(AF115)=0,"",AF115)</f>
+        <v/>
+      </c>
+      <c r="AV115" t="str">
+        <f t="shared" ref="AV115:AV117" si="376">IF(LEN(AG115)=0,"",AG115)</f>
+        <v/>
+      </c>
+      <c r="AW115" t="str">
+        <f t="shared" ref="AW115:AW117" ca="1" si="377">IF(ROW()=2,AX115,OFFSET(AW115,-1,0)&amp;IF(LEN(AX115)=0,"",","&amp;AX115))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX115" t="str">
+        <f t="shared" ref="AX115:AX117" si="378">IF(G115=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C115&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L115
+&amp;IF(LEN(N115)=0,"",","""&amp;N$1&amp;""":"""&amp;N115&amp;"""")
+&amp;IF(LEN(P115)=0,"",","""&amp;P$1&amp;""":"""&amp;P115&amp;"""")
+&amp;IF(LEN(Q115)=0,"",","""&amp;Q$1&amp;""":"&amp;Q115)
+&amp;IF(LEN(R115)=0,"",","""&amp;R$1&amp;""":"""&amp;R115&amp;"""")
+&amp;IF(LEN(T115)=0,"",","""&amp;T$1&amp;""":"""&amp;T115&amp;"""")
+&amp;IF(LEN(U115)=0,"",","""&amp;U$1&amp;""":"&amp;U115)
+&amp;IF(LEN(V115)=0,"",","""&amp;V$1&amp;""":"""&amp;V115&amp;"""")
+&amp;IF(LEN(X115)=0,"",","""&amp;X$1&amp;""":"""&amp;X115&amp;"""")
+&amp;IF(LEN(Y115)=0,"",","""&amp;Y$1&amp;""":"&amp;Y115)
+&amp;IF(LEN(Z115)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z115&amp;"""")
+&amp;IF(LEN(AB115)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB115&amp;"""")
+&amp;IF(LEN(AC115)=0,"",","""&amp;AC$1&amp;""":"&amp;AC115)
+&amp;IF(LEN(AD115)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD115&amp;"""")
+&amp;IF(LEN(AF115)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF115&amp;"""")
+&amp;IF(LEN(AG115)=0,"",","""&amp;AG$1&amp;""":"&amp;AG115)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:50">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="353"/>
+        <v>ev16_acquiredcompanion</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="354"/>
+        <v>ev16</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="355"/>
+        <v>1</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>9.99</v>
+      </c>
+      <c r="J116">
+        <v>13000</v>
+      </c>
+      <c r="K116" t="s">
+        <v>250</v>
+      </c>
+      <c r="L116">
+        <v>569</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="356"/>
+        <v>569</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" ca="1" si="357"/>
+        <v>it</v>
+      </c>
+      <c r="O116" t="s">
+        <v>33</v>
+      </c>
+      <c r="P116" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" ca="1" si="358"/>
+        <v/>
+      </c>
+      <c r="V116" t="str">
+        <f t="shared" ca="1" si="359"/>
+        <v/>
+      </c>
+      <c r="Z116" t="str">
+        <f t="shared" ca="1" si="360"/>
+        <v/>
+      </c>
+      <c r="AD116" t="str">
+        <f t="shared" ca="1" si="361"/>
+        <v/>
+      </c>
+      <c r="AH116" t="str">
+        <f t="shared" ca="1" si="362"/>
+        <v>it</v>
+      </c>
+      <c r="AI116" t="str">
+        <f t="shared" si="363"/>
+        <v>Cash_sAcquiredCompanion</v>
+      </c>
+      <c r="AJ116">
+        <f t="shared" si="364"/>
+        <v>1</v>
+      </c>
+      <c r="AK116" t="str">
+        <f t="shared" ca="1" si="365"/>
+        <v/>
+      </c>
+      <c r="AL116" t="str">
+        <f t="shared" si="366"/>
+        <v/>
+      </c>
+      <c r="AM116" t="str">
+        <f t="shared" si="367"/>
+        <v/>
+      </c>
+      <c r="AN116" t="str">
+        <f t="shared" ca="1" si="368"/>
+        <v/>
+      </c>
+      <c r="AO116" t="str">
+        <f t="shared" si="369"/>
+        <v/>
+      </c>
+      <c r="AP116" t="str">
+        <f t="shared" si="370"/>
+        <v/>
+      </c>
+      <c r="AQ116" t="str">
+        <f t="shared" ca="1" si="371"/>
+        <v/>
+      </c>
+      <c r="AR116" t="str">
+        <f t="shared" si="372"/>
+        <v/>
+      </c>
+      <c r="AS116" t="str">
+        <f t="shared" si="373"/>
+        <v/>
+      </c>
+      <c r="AT116" t="str">
+        <f t="shared" ca="1" si="374"/>
+        <v/>
+      </c>
+      <c r="AU116" t="str">
+        <f t="shared" si="375"/>
+        <v/>
+      </c>
+      <c r="AV116" t="str">
+        <f t="shared" si="376"/>
+        <v/>
+      </c>
+      <c r="AW116" t="str">
+        <f t="shared" ca="1" si="377"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX116" t="str">
+        <f t="shared" si="378"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:50">
+      <c r="A117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="353"/>
+        <v>ev17_acquiredcompanionpp</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="354"/>
+        <v>ev17</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="355"/>
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>9.99</v>
+      </c>
+      <c r="J117">
+        <v>13000</v>
+      </c>
+      <c r="K117" t="s">
+        <v>252</v>
+      </c>
+      <c r="L117">
+        <v>880</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="356"/>
+        <v>880</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" ca="1" si="357"/>
+        <v>it</v>
+      </c>
+      <c r="O117" t="s">
+        <v>33</v>
+      </c>
+      <c r="P117" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" ca="1" si="358"/>
+        <v/>
+      </c>
+      <c r="V117" t="str">
+        <f t="shared" ca="1" si="359"/>
+        <v/>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" ca="1" si="360"/>
+        <v/>
+      </c>
+      <c r="AD117" t="str">
+        <f t="shared" ca="1" si="361"/>
+        <v/>
+      </c>
+      <c r="AH117" t="str">
+        <f t="shared" ca="1" si="362"/>
+        <v>it</v>
+      </c>
+      <c r="AI117" t="str">
+        <f t="shared" si="363"/>
+        <v>Cash_sAcquiredCompanionPp</v>
+      </c>
+      <c r="AJ117">
+        <f t="shared" si="364"/>
+        <v>1</v>
+      </c>
+      <c r="AK117" t="str">
+        <f t="shared" ca="1" si="365"/>
+        <v/>
+      </c>
+      <c r="AL117" t="str">
+        <f t="shared" si="366"/>
+        <v/>
+      </c>
+      <c r="AM117" t="str">
+        <f t="shared" si="367"/>
+        <v/>
+      </c>
+      <c r="AN117" t="str">
+        <f t="shared" ca="1" si="368"/>
+        <v/>
+      </c>
+      <c r="AO117" t="str">
+        <f t="shared" si="369"/>
+        <v/>
+      </c>
+      <c r="AP117" t="str">
+        <f t="shared" si="370"/>
+        <v/>
+      </c>
+      <c r="AQ117" t="str">
+        <f t="shared" ca="1" si="371"/>
+        <v/>
+      </c>
+      <c r="AR117" t="str">
+        <f t="shared" si="372"/>
+        <v/>
+      </c>
+      <c r="AS117" t="str">
+        <f t="shared" si="373"/>
+        <v/>
+      </c>
+      <c r="AT117" t="str">
+        <f t="shared" ca="1" si="374"/>
+        <v/>
+      </c>
+      <c r="AU117" t="str">
+        <f t="shared" si="375"/>
+        <v/>
+      </c>
+      <c r="AV117" t="str">
+        <f t="shared" si="376"/>
+        <v/>
+      </c>
+      <c r="AW117" t="str">
+        <f t="shared" ca="1" si="377"/>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="AX117" t="str">
+        <f t="shared" si="378"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE84:AE105 O2:O95 S2:S105 W2:W105 AE2:AE78 AA2:AA105" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE96:AE117 O2:O107 S2:S117 W2:W117 AE2:AE90 AA2:AA117" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF84:AF105 AB2:AB105 P2:P105 X2:X105 T2:T105 AF2:AF78" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF96:AF117 AB2:AB117 AF2:AF90 X2:X117 T2:T117 P2:P117" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -19201,8 +20868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E077D3-4348-4144-9A8E-A1C4EEB17388}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5705F471-0AAC-4C5A-A490-4A8D706EA28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874E0D10-1F33-4DB6-B99E-9618978DD49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P111" authorId="0" shapeId="0" xr:uid="{F1A64B74-5CA9-40A9-A59D-6163A476FAB6}">
+    <comment ref="P110" authorId="0" shapeId="0" xr:uid="{F1A64B74-5CA9-40A9-A59D-6163A476FAB6}">
       <text>
         <r>
           <rPr>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="281">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,13 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분석 월정액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_sResearchBoost</t>
-  </si>
-  <si>
     <t>relay_1</t>
   </si>
   <si>
@@ -1973,13 +1966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>researchboost</t>
-  </si>
-  <si>
-    <t>researchboost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>festivalgroup1_1</t>
   </si>
   <si>
@@ -2346,6 +2332,21 @@
   </si>
   <si>
     <t>cashshopgem_6_more</t>
+  </si>
+  <si>
+    <t>petpass</t>
+  </si>
+  <si>
+    <t>petpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 성장 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sPetPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2792,10 +2793,10 @@
   <dimension ref="A1:BJ117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2874,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -3023,7 +3024,7 @@
     </row>
     <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3051,7 +3052,7 @@
         <v>13000</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L2">
         <v>744</v>
@@ -3208,7 +3209,7 @@
     </row>
     <row r="3" spans="1:61">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3" si="22">A3</f>
@@ -3233,7 +3234,7 @@
         <v>6500</v>
       </c>
       <c r="K3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L3">
         <v>493</v>
@@ -3371,7 +3372,7 @@
     </row>
     <row r="4" spans="1:61">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C7" si="27">A4</f>
@@ -3396,7 +3397,7 @@
         <v>7900</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L4">
         <v>585</v>
@@ -3533,12 +3534,12 @@
         <v>148</v>
       </c>
       <c r="BE4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:61">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="27"/>
@@ -3562,7 +3563,7 @@
         <v>8900</v>
       </c>
       <c r="K5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L5">
         <v>752</v>
@@ -3669,12 +3670,12 @@
         <v/>
       </c>
       <c r="BE5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:61">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="27"/>
@@ -3698,7 +3699,7 @@
         <v>9900</v>
       </c>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L6">
         <v>529</v>
@@ -3810,7 +3811,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="27"/>
@@ -3834,7 +3835,7 @@
         <v>10900</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L7">
         <v>743</v>
@@ -3946,7 +3947,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3974,7 +3975,7 @@
         <v>11000</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L8">
         <v>234</v>
@@ -4090,12 +4091,12 @@
         <v/>
       </c>
       <c r="BE8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:61">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -4119,7 +4120,7 @@
         <v>6500</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L9">
         <v>125</v>
@@ -4245,7 +4246,7 @@
         <v/>
       </c>
       <c r="BE9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -4409,7 +4410,7 @@
         <v/>
       </c>
       <c r="BE10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -4563,7 +4564,7 @@
         <v/>
       </c>
       <c r="BE11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -4726,7 +4727,7 @@
         <v/>
       </c>
       <c r="BE12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:61">
@@ -5806,7 +5807,7 @@
     </row>
     <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ref="C20:C21" si="110">A20</f>
@@ -5831,7 +5832,7 @@
         <v>13000</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L20">
         <v>682</v>
@@ -5863,7 +5864,7 @@
         <v>16</v>
       </c>
       <c r="T20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U20">
         <v>50000</v>
@@ -5974,7 +5975,7 @@
     </row>
     <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="110"/>
@@ -5998,7 +5999,7 @@
         <v>13000</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L21">
         <v>601</v>
@@ -6028,7 +6029,7 @@
         <v>16</v>
       </c>
       <c r="T21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U21">
         <v>30000</v>
@@ -6116,7 +6117,7 @@
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" t="str">
         <f>A22</f>
@@ -6140,7 +6141,7 @@
         <v>1200</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L22">
         <v>797</v>
@@ -6159,7 +6160,7 @@
         <v>33</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -6259,7 +6260,7 @@
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C23" t="str">
         <f>A23</f>
@@ -6294,7 +6295,7 @@
         <v>33</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -6324,7 +6325,7 @@
         <v>16</v>
       </c>
       <c r="X23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y23">
         <v>100000</v>
@@ -6632,7 +6633,7 @@
         <v>33</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>75</v>
@@ -6934,7 +6935,7 @@
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -7236,7 +7237,7 @@
         <v>33</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>400</v>
@@ -7538,7 +7539,7 @@
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>1200</v>
@@ -7840,7 +7841,7 @@
         <v>33</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>300</v>
@@ -8142,7 +8143,7 @@
         <v>33</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>1000</v>
@@ -8252,10 +8253,10 @@
     </row>
     <row r="36" spans="1:50">
       <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
         <v>175</v>
-      </c>
-      <c r="B36" t="s">
-        <v>179</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -8279,7 +8280,7 @@
         <v>13000</v>
       </c>
       <c r="K36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L36">
         <v>359</v>
@@ -8296,7 +8297,7 @@
         <v>33</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>500</v>
@@ -8322,7 +8323,7 @@
         <v>16</v>
       </c>
       <c r="X36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y36">
         <v>20000</v>
@@ -8406,7 +8407,7 @@
     </row>
     <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -8430,7 +8431,7 @@
         <v>19000</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L37">
         <v>881</v>
@@ -8473,7 +8474,7 @@
         <v>16</v>
       </c>
       <c r="X37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y37">
         <v>40000</v>
@@ -8557,7 +8558,7 @@
     </row>
     <row r="38" spans="1:50">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -8581,7 +8582,7 @@
         <v>39000</v>
       </c>
       <c r="K38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L38">
         <v>108</v>
@@ -8598,7 +8599,7 @@
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>1500</v>
@@ -8624,7 +8625,7 @@
         <v>16</v>
       </c>
       <c r="X38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y38">
         <v>60000</v>
@@ -8708,7 +8709,7 @@
     </row>
     <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -8732,7 +8733,7 @@
         <v>69000</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L39">
         <v>550</v>
@@ -8775,7 +8776,7 @@
         <v>16</v>
       </c>
       <c r="X39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y39">
         <v>10000</v>
@@ -8859,7 +8860,7 @@
     </row>
     <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -8883,7 +8884,7 @@
         <v>13000</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L40">
         <v>397</v>
@@ -8900,7 +8901,7 @@
         <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>500</v>
@@ -8926,7 +8927,7 @@
         <v>16</v>
       </c>
       <c r="X40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y40">
         <v>20000</v>
@@ -9010,7 +9011,7 @@
     </row>
     <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -9034,7 +9035,7 @@
         <v>19000</v>
       </c>
       <c r="K41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L41">
         <v>401</v>
@@ -9077,7 +9078,7 @@
         <v>16</v>
       </c>
       <c r="X41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y41">
         <v>40000</v>
@@ -9161,7 +9162,7 @@
     </row>
     <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -9185,7 +9186,7 @@
         <v>39000</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L42">
         <v>177</v>
@@ -9202,7 +9203,7 @@
         <v>33</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>1500</v>
@@ -9228,7 +9229,7 @@
         <v>16</v>
       </c>
       <c r="X42" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y42">
         <v>60000</v>
@@ -9329,7 +9330,7 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -9353,7 +9354,7 @@
         <v>69000</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L43">
         <v>506</v>
@@ -9396,7 +9397,7 @@
         <v>16</v>
       </c>
       <c r="X43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y43">
         <v>10000</v>
@@ -9480,7 +9481,7 @@
     </row>
     <row r="44" spans="1:50">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -9504,7 +9505,7 @@
         <v>13000</v>
       </c>
       <c r="K44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L44">
         <v>741</v>
@@ -9521,7 +9522,7 @@
         <v>33</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>500</v>
@@ -9547,7 +9548,7 @@
         <v>16</v>
       </c>
       <c r="X44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y44">
         <v>20000</v>
@@ -9631,7 +9632,7 @@
     </row>
     <row r="45" spans="1:50">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -9655,7 +9656,7 @@
         <v>19000</v>
       </c>
       <c r="K45" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L45">
         <v>578</v>
@@ -9698,7 +9699,7 @@
         <v>16</v>
       </c>
       <c r="X45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y45">
         <v>40000</v>
@@ -9782,7 +9783,7 @@
     </row>
     <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -9806,7 +9807,7 @@
         <v>39000</v>
       </c>
       <c r="K46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L46">
         <v>106</v>
@@ -9823,7 +9824,7 @@
         <v>33</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>1500</v>
@@ -9849,7 +9850,7 @@
         <v>16</v>
       </c>
       <c r="X46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y46">
         <v>60000</v>
@@ -9933,7 +9934,7 @@
     </row>
     <row r="47" spans="1:50">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -9957,7 +9958,7 @@
         <v>69000</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L47">
         <v>440</v>
@@ -10000,7 +10001,7 @@
         <v>16</v>
       </c>
       <c r="X47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y47">
         <v>10000</v>
@@ -13292,7 +13293,7 @@
     </row>
     <row r="72" spans="1:50">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" ref="C72:C83" si="200">A72</f>
@@ -13336,7 +13337,7 @@
         <v>16</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>400</v>
@@ -13453,7 +13454,7 @@
     </row>
     <row r="73" spans="1:50">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="200"/>
@@ -13494,7 +13495,7 @@
         <v>16</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>1050</v>
@@ -13586,7 +13587,7 @@
     </row>
     <row r="74" spans="1:50">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="200"/>
@@ -13627,7 +13628,7 @@
         <v>16</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2500</v>
@@ -13719,7 +13720,7 @@
     </row>
     <row r="75" spans="1:50">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="200"/>
@@ -13760,7 +13761,7 @@
         <v>16</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>6000</v>
@@ -13852,7 +13853,7 @@
     </row>
     <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="200"/>
@@ -13893,7 +13894,7 @@
         <v>16</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>19000</v>
@@ -13985,7 +13986,7 @@
     </row>
     <row r="77" spans="1:50">
       <c r="A77" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="200"/>
@@ -14026,7 +14027,7 @@
         <v>16</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>45000</v>
@@ -14118,7 +14119,7 @@
     </row>
     <row r="78" spans="1:50">
       <c r="A78" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="200"/>
@@ -14159,7 +14160,7 @@
         <v>16</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>1200</v>
@@ -14251,7 +14252,7 @@
     </row>
     <row r="79" spans="1:50">
       <c r="A79" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="200"/>
@@ -14292,7 +14293,7 @@
         <v>16</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3150</v>
@@ -14384,7 +14385,7 @@
     </row>
     <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="200"/>
@@ -14425,7 +14426,7 @@
         <v>16</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>7500</v>
@@ -14517,7 +14518,7 @@
     </row>
     <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="200"/>
@@ -14558,7 +14559,7 @@
         <v>16</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>18000</v>
@@ -14650,7 +14651,7 @@
     </row>
     <row r="82" spans="1:50">
       <c r="A82" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="200"/>
@@ -14691,7 +14692,7 @@
         <v>16</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>57000</v>
@@ -14783,7 +14784,7 @@
     </row>
     <row r="83" spans="1:50">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="200"/>
@@ -14824,7 +14825,7 @@
         <v>16</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>135000</v>
@@ -14960,7 +14961,7 @@
         <v>33</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -15095,7 +15096,7 @@
         <v>33</v>
       </c>
       <c r="P85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -15228,7 +15229,7 @@
         <v>33</v>
       </c>
       <c r="P86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -15314,7 +15315,7 @@
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX86" t="str">
-        <f t="shared" ref="AX86:AX107" si="243">IF(G86=FALSE,"",
+        <f t="shared" ref="AX86:AX106" si="243">IF(G86=FALSE,"",
 "{"""&amp;C$1&amp;""":"""&amp;C86&amp;""""
 &amp;","""&amp;L$1&amp;""":"&amp;L86
 &amp;IF(LEN(N86)=0,"",","""&amp;N$1&amp;""":"""&amp;N86&amp;"""")
@@ -15344,7 +15345,7 @@
         <v>petsale_4</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:D107" si="244">IF(ISERROR(FIND("_",A87)),A87,
+        <f t="shared" ref="D87:D106" si="244">IF(ISERROR(FIND("_",A87)),A87,
 LEFT(A87,FIND("_",A87)-1))</f>
         <v>petsale</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>33</v>
       </c>
       <c r="P87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -15512,7 +15513,7 @@
         <v>33</v>
       </c>
       <c r="P88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -15891,7 +15892,7 @@
         <v>146</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ref="C91:C107" si="252">A91</f>
+        <f t="shared" ref="C91:C106" si="252">A91</f>
         <v>stageclear_1</v>
       </c>
       <c r="D91" t="str">
@@ -16569,7 +16570,7 @@
         <v>484</v>
       </c>
       <c r="M95">
-        <f t="shared" ref="M95:M107" si="276">L95</f>
+        <f t="shared" ref="M95:M106" si="276">L95</f>
         <v>484</v>
       </c>
       <c r="N95" t="str">
@@ -16695,7 +16696,7 @@
     </row>
     <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
         <v>147</v>
@@ -16722,7 +16723,7 @@
         <v>5900</v>
       </c>
       <c r="K96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L96">
         <v>212</v>
@@ -16732,7 +16733,7 @@
         <v>212</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" ref="N96:N107" ca="1" si="277">IF(ISBLANK(O96),"",
+        <f t="shared" ref="N96:N106" ca="1" si="277">IF(ISBLANK(O96),"",
 VLOOKUP(O96,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>it</v>
@@ -16844,57 +16845,57 @@
     </row>
     <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="252"/>
-        <v>researchboost</v>
+        <v>relay_1</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="244"/>
-        <v>researchboost</v>
+        <v>relay</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97" si="279">COUNTA(O97,S97,W97,AA97,AE97)</f>
-        <v>2</v>
+        <f t="shared" ref="E97:E106" si="279">COUNTA(O97,S97,W97,AA97,AE97)</f>
+        <v>3</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>4.99</v>
+        <v>0.99</v>
       </c>
       <c r="J97">
-        <v>5900</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="L97">
-        <v>131</v>
+        <v>704</v>
       </c>
       <c r="M97">
         <f t="shared" si="276"/>
-        <v>131</v>
+        <v>704</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" ca="1" si="277"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="O97" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P97" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R97" t="str">
-        <f t="shared" ref="R97:R107" ca="1" si="280">IF(ISBLANK(S97),"",
+        <f t="shared" ref="R97:R106" ca="1" si="280">IF(ISBLANK(S97),"",
 VLOOKUP(S97,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -16903,91 +16904,100 @@
         <v>16</v>
       </c>
       <c r="T97" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="U97">
-        <v>750</v>
+        <v>25000</v>
       </c>
       <c r="V97" t="str">
-        <f t="shared" ref="V97:V107" ca="1" si="281">IF(ISBLANK(W97),"",
+        <f t="shared" ref="V97:V106" ca="1" si="281">IF(ISBLANK(W97),"",
 VLOOKUP(W97,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="W97" t="s">
+        <v>16</v>
+      </c>
+      <c r="X97" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y97">
+        <v>100</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" ref="Z97:Z107" ca="1" si="282">IF(ISBLANK(AA97),"",
+        <f t="shared" ref="Z97:Z106" ca="1" si="282">IF(ISBLANK(AA97),"",
 VLOOKUP(AA97,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AD97" t="str">
-        <f t="shared" ref="AD97:AD107" ca="1" si="283">IF(ISBLANK(AE97),"",
+        <f t="shared" ref="AD97:AD106" ca="1" si="283">IF(ISBLANK(AE97),"",
 VLOOKUP(AE97,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" ref="AH97:AH107" ca="1" si="284">IF(LEN(N97)=0,"",N97)</f>
-        <v>it</v>
+        <f t="shared" ref="AH97:AH106" ca="1" si="284">IF(LEN(N97)=0,"",N97)</f>
+        <v>cu</v>
       </c>
       <c r="AI97" t="str">
-        <f t="shared" ref="AI97:AI107" si="285">IF(LEN(P97)=0,"",P97)</f>
-        <v>Cash_sResearchBoost</v>
+        <f t="shared" ref="AI97:AI106" si="285">IF(LEN(P97)=0,"",P97)</f>
+        <v>EN</v>
       </c>
       <c r="AJ97">
-        <f t="shared" ref="AJ97:AJ107" si="286">IF(LEN(Q97)=0,"",Q97)</f>
-        <v>1</v>
+        <f t="shared" ref="AJ97:AJ106" si="286">IF(LEN(Q97)=0,"",Q97)</f>
+        <v>30</v>
       </c>
       <c r="AK97" t="str">
-        <f t="shared" ref="AK97:AK107" ca="1" si="287">IF(LEN(R97)=0,"",R97)</f>
+        <f t="shared" ref="AK97:AK106" ca="1" si="287">IF(LEN(R97)=0,"",R97)</f>
         <v>cu</v>
       </c>
       <c r="AL97" t="str">
-        <f t="shared" ref="AL97:AL107" si="288">IF(LEN(T97)=0,"",T97)</f>
+        <f t="shared" ref="AL97:AL106" si="288">IF(LEN(T97)=0,"",T97)</f>
+        <v>GO</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" ref="AM97:AM106" si="289">IF(LEN(U97)=0,"",U97)</f>
+        <v>25000</v>
+      </c>
+      <c r="AN97" t="str">
+        <f t="shared" ref="AN97:AN106" ca="1" si="290">IF(LEN(V97)=0,"",V97)</f>
+        <v>cu</v>
+      </c>
+      <c r="AO97" t="str">
+        <f t="shared" ref="AO97:AO106" si="291">IF(LEN(X97)=0,"",X97)</f>
         <v>EN</v>
       </c>
-      <c r="AM97">
-        <f t="shared" ref="AM97:AM107" si="289">IF(LEN(U97)=0,"",U97)</f>
-        <v>750</v>
-      </c>
-      <c r="AN97" t="str">
-        <f t="shared" ref="AN97:AN107" ca="1" si="290">IF(LEN(V97)=0,"",V97)</f>
-        <v/>
-      </c>
-      <c r="AO97" t="str">
-        <f t="shared" ref="AO97:AO107" si="291">IF(LEN(X97)=0,"",X97)</f>
-        <v/>
-      </c>
-      <c r="AP97" t="str">
-        <f t="shared" ref="AP97:AP107" si="292">IF(LEN(Y97)=0,"",Y97)</f>
-        <v/>
+      <c r="AP97">
+        <f t="shared" ref="AP97:AP106" si="292">IF(LEN(Y97)=0,"",Y97)</f>
+        <v>100</v>
       </c>
       <c r="AQ97" t="str">
-        <f t="shared" ref="AQ97:AQ107" ca="1" si="293">IF(LEN(Z97)=0,"",Z97)</f>
+        <f t="shared" ref="AQ97:AQ106" ca="1" si="293">IF(LEN(Z97)=0,"",Z97)</f>
         <v/>
       </c>
       <c r="AR97" t="str">
-        <f t="shared" ref="AR97:AR107" si="294">IF(LEN(AB97)=0,"",AB97)</f>
+        <f t="shared" ref="AR97:AR106" si="294">IF(LEN(AB97)=0,"",AB97)</f>
         <v/>
       </c>
       <c r="AS97" t="str">
-        <f t="shared" ref="AS97:AS107" si="295">IF(LEN(AC97)=0,"",AC97)</f>
+        <f t="shared" ref="AS97:AS106" si="295">IF(LEN(AC97)=0,"",AC97)</f>
         <v/>
       </c>
       <c r="AT97" t="str">
-        <f t="shared" ref="AT97:AT107" ca="1" si="296">IF(LEN(AD97)=0,"",AD97)</f>
+        <f t="shared" ref="AT97:AT106" ca="1" si="296">IF(LEN(AD97)=0,"",AD97)</f>
         <v/>
       </c>
       <c r="AU97" t="str">
-        <f t="shared" ref="AU97:AU107" si="297">IF(LEN(AF97)=0,"",AF97)</f>
+        <f t="shared" ref="AU97:AU106" si="297">IF(LEN(AF97)=0,"",AF97)</f>
         <v/>
       </c>
       <c r="AV97" t="str">
-        <f t="shared" ref="AV97:AV107" si="298">IF(LEN(AG97)=0,"",AG97)</f>
+        <f t="shared" ref="AV97:AV106" si="298">IF(LEN(AG97)=0,"",AG97)</f>
         <v/>
       </c>
       <c r="AW97" t="str">
-        <f t="shared" ref="AW97:AW107" ca="1" si="299">IF(ROW()=2,AX97,OFFSET(AW97,-1,0)&amp;IF(LEN(AX97)=0,"",","&amp;AX97))</f>
+        <f t="shared" ref="AW97:AW106" ca="1" si="299">IF(ROW()=2,AX97,OFFSET(AW97,-1,0)&amp;IF(LEN(AX97)=0,"",","&amp;AX97))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX97" t="str">
@@ -16997,21 +17007,18 @@
     </row>
     <row r="98" spans="1:50">
       <c r="A98" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="252"/>
-        <v>relay_1</v>
+        <v>relay_2</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E107" si="300">COUNTA(O98,S98,W98,AA98,AE98)</f>
+        <f t="shared" si="279"/>
         <v>3</v>
       </c>
       <c r="G98" t="b">
@@ -17027,11 +17034,11 @@
         <v>151</v>
       </c>
       <c r="L98">
-        <v>704</v>
+        <v>148</v>
       </c>
       <c r="M98">
         <f t="shared" si="276"/>
-        <v>704</v>
+        <v>148</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17044,7 +17051,7 @@
         <v>56</v>
       </c>
       <c r="Q98">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R98" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17057,7 +17064,7 @@
         <v>15</v>
       </c>
       <c r="U98">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17070,7 +17077,7 @@
         <v>56</v>
       </c>
       <c r="Y98">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z98" t="str">
         <f t="shared" ca="1" si="282"/>
@@ -17090,7 +17097,7 @@
       </c>
       <c r="AJ98">
         <f t="shared" si="286"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK98" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17102,7 +17109,7 @@
       </c>
       <c r="AM98">
         <f t="shared" si="289"/>
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="AN98" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17114,7 +17121,7 @@
       </c>
       <c r="AP98">
         <f t="shared" si="292"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ98" t="str">
         <f t="shared" ca="1" si="293"/>
@@ -17151,19 +17158,19 @@
     </row>
     <row r="99" spans="1:50">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="252"/>
-        <v>relay_2</v>
+        <v>relay_3</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E99">
-        <f t="shared" si="300"/>
-        <v>3</v>
+        <f t="shared" si="279"/>
+        <v>4</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -17175,14 +17182,14 @@
         <v>1200</v>
       </c>
       <c r="K99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L99">
-        <v>148</v>
+        <v>784</v>
       </c>
       <c r="M99">
         <f t="shared" si="276"/>
-        <v>148</v>
+        <v>784</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17195,7 +17202,7 @@
         <v>56</v>
       </c>
       <c r="Q99">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R99" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17208,7 +17215,7 @@
         <v>15</v>
       </c>
       <c r="U99">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="V99" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17221,11 +17228,20 @@
         <v>56</v>
       </c>
       <c r="Y99">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z99" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC99">
+        <v>300</v>
       </c>
       <c r="AD99" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -17241,7 +17257,7 @@
       </c>
       <c r="AJ99">
         <f t="shared" si="286"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK99" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17253,7 +17269,7 @@
       </c>
       <c r="AM99">
         <f t="shared" si="289"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="AN99" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17265,19 +17281,19 @@
       </c>
       <c r="AP99">
         <f t="shared" si="292"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ99" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AR99" t="str">
         <f t="shared" si="294"/>
-        <v/>
-      </c>
-      <c r="AS99" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AS99">
         <f t="shared" si="295"/>
-        <v/>
+        <v>300</v>
       </c>
       <c r="AT99" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -17302,38 +17318,38 @@
     </row>
     <row r="100" spans="1:50">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="252"/>
-        <v>relay_3</v>
+        <v>relay_4</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E100">
-        <f t="shared" si="300"/>
-        <v>4</v>
+        <f t="shared" si="279"/>
+        <v>3</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="J100">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="K100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L100">
-        <v>784</v>
+        <v>354</v>
       </c>
       <c r="M100">
         <f t="shared" si="276"/>
-        <v>784</v>
+        <v>354</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17346,7 +17362,7 @@
         <v>56</v>
       </c>
       <c r="Q100">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="R100" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17359,7 +17375,7 @@
         <v>15</v>
       </c>
       <c r="U100">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="V100" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17372,20 +17388,11 @@
         <v>56</v>
       </c>
       <c r="Y100">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z100" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v>cu</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC100">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AD100" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -17401,7 +17408,7 @@
       </c>
       <c r="AJ100">
         <f t="shared" si="286"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AK100" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17413,7 +17420,7 @@
       </c>
       <c r="AM100">
         <f t="shared" si="289"/>
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="AN100" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17425,19 +17432,19 @@
       </c>
       <c r="AP100">
         <f t="shared" si="292"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AQ100" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AR100" t="str">
         <f t="shared" si="294"/>
-        <v>EN</v>
-      </c>
-      <c r="AS100">
+        <v/>
+      </c>
+      <c r="AS100" t="str">
         <f t="shared" si="295"/>
-        <v>300</v>
+        <v/>
       </c>
       <c r="AT100" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -17462,18 +17469,18 @@
     </row>
     <row r="101" spans="1:50">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="252"/>
-        <v>relay_4</v>
+        <v>relay_5</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E101">
-        <f t="shared" si="300"/>
+        <f t="shared" si="279"/>
         <v>3</v>
       </c>
       <c r="G101" t="b">
@@ -17486,14 +17493,14 @@
         <v>5900</v>
       </c>
       <c r="K101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L101">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="M101">
         <f t="shared" si="276"/>
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17506,7 +17513,7 @@
         <v>56</v>
       </c>
       <c r="Q101">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R101" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17519,7 +17526,7 @@
         <v>15</v>
       </c>
       <c r="U101">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="V101" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17532,7 +17539,7 @@
         <v>56</v>
       </c>
       <c r="Y101">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z101" t="str">
         <f t="shared" ca="1" si="282"/>
@@ -17552,7 +17559,7 @@
       </c>
       <c r="AJ101">
         <f t="shared" si="286"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK101" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17564,7 +17571,7 @@
       </c>
       <c r="AM101">
         <f t="shared" si="289"/>
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="AN101" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17576,7 +17583,7 @@
       </c>
       <c r="AP101">
         <f t="shared" si="292"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ101" t="str">
         <f t="shared" ca="1" si="293"/>
@@ -17613,38 +17620,38 @@
     </row>
     <row r="102" spans="1:50">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="252"/>
-        <v>relay_5</v>
+        <v>relay_6</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E102">
-        <f t="shared" si="300"/>
-        <v>3</v>
+        <f t="shared" si="279"/>
+        <v>4</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="J102">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="K102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L102">
-        <v>414</v>
+        <v>726</v>
       </c>
       <c r="M102">
         <f t="shared" si="276"/>
-        <v>414</v>
+        <v>726</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17657,7 +17664,7 @@
         <v>56</v>
       </c>
       <c r="Q102">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R102" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17670,7 +17677,7 @@
         <v>15</v>
       </c>
       <c r="U102">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="V102" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17683,11 +17690,20 @@
         <v>56</v>
       </c>
       <c r="Y102">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z102" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC102">
+        <v>300</v>
       </c>
       <c r="AD102" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -17703,7 +17719,7 @@
       </c>
       <c r="AJ102">
         <f t="shared" si="286"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK102" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17715,7 +17731,7 @@
       </c>
       <c r="AM102">
         <f t="shared" si="289"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="AN102" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17727,19 +17743,19 @@
       </c>
       <c r="AP102">
         <f t="shared" si="292"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ102" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AR102" t="str">
         <f t="shared" si="294"/>
-        <v/>
-      </c>
-      <c r="AS102" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AS102">
         <f t="shared" si="295"/>
-        <v/>
+        <v>300</v>
       </c>
       <c r="AT102" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -17764,19 +17780,19 @@
     </row>
     <row r="103" spans="1:50">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="252"/>
-        <v>relay_6</v>
+        <v>relay_7</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E103">
-        <f t="shared" si="300"/>
-        <v>4</v>
+        <f t="shared" si="279"/>
+        <v>3</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
@@ -17788,14 +17804,14 @@
         <v>13000</v>
       </c>
       <c r="K103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L103">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="M103">
         <f t="shared" si="276"/>
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="N103" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -17808,7 +17824,7 @@
         <v>56</v>
       </c>
       <c r="Q103">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="R103" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -17821,7 +17837,7 @@
         <v>15</v>
       </c>
       <c r="U103">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="V103" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -17834,20 +17850,11 @@
         <v>56</v>
       </c>
       <c r="Y103">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z103" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v>cu</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC103">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AD103" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -17863,7 +17870,7 @@
       </c>
       <c r="AJ103">
         <f t="shared" si="286"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AK103" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -17875,7 +17882,7 @@
       </c>
       <c r="AM103">
         <f t="shared" si="289"/>
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="AN103" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -17887,19 +17894,19 @@
       </c>
       <c r="AP103">
         <f t="shared" si="292"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AQ103" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v>cu</v>
+        <v/>
       </c>
       <c r="AR103" t="str">
         <f t="shared" si="294"/>
-        <v>EN</v>
-      </c>
-      <c r="AS103">
+        <v/>
+      </c>
+      <c r="AS103" t="str">
         <f t="shared" si="295"/>
-        <v>300</v>
+        <v/>
       </c>
       <c r="AT103" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -17924,38 +17931,38 @@
     </row>
     <row r="104" spans="1:50">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="252"/>
-        <v>relay_7</v>
+        <v>relay_8</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E104">
-        <f t="shared" si="300"/>
+        <f t="shared" si="279"/>
         <v>3</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>9.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="J104">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="K104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L104">
-        <v>679</v>
+        <v>752</v>
       </c>
       <c r="M104">
         <f t="shared" si="276"/>
-        <v>679</v>
+        <v>752</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -18075,38 +18082,38 @@
     </row>
     <row r="105" spans="1:50">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="252"/>
-        <v>relay_8</v>
+        <v>relay_9</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E105">
-        <f t="shared" si="300"/>
+        <f t="shared" si="279"/>
         <v>3</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>19.989999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="J105">
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="K105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L105">
-        <v>752</v>
+        <v>534</v>
       </c>
       <c r="M105">
         <f t="shared" si="276"/>
-        <v>752</v>
+        <v>534</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -18119,7 +18126,7 @@
         <v>56</v>
       </c>
       <c r="Q105">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R105" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -18132,7 +18139,7 @@
         <v>15</v>
       </c>
       <c r="U105">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="V105" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -18145,7 +18152,7 @@
         <v>56</v>
       </c>
       <c r="Y105">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z105" t="str">
         <f t="shared" ca="1" si="282"/>
@@ -18165,7 +18172,7 @@
       </c>
       <c r="AJ105">
         <f t="shared" si="286"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AK105" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -18177,7 +18184,7 @@
       </c>
       <c r="AM105">
         <f t="shared" si="289"/>
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="AN105" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -18189,7 +18196,7 @@
       </c>
       <c r="AP105">
         <f t="shared" si="292"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ105" t="str">
         <f t="shared" ca="1" si="293"/>
@@ -18226,38 +18233,38 @@
     </row>
     <row r="106" spans="1:50">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="252"/>
-        <v>relay_9</v>
+        <v>relay_10</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="244"/>
         <v>relay</v>
       </c>
       <c r="E106">
-        <f t="shared" si="300"/>
-        <v>3</v>
+        <f t="shared" si="279"/>
+        <v>4</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>39.99</v>
+        <v>49.99</v>
       </c>
       <c r="J106">
-        <v>48000</v>
+        <v>69000</v>
       </c>
       <c r="K106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L106">
-        <v>534</v>
+        <v>243</v>
       </c>
       <c r="M106">
         <f t="shared" si="276"/>
-        <v>534</v>
+        <v>243</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" ca="1" si="277"/>
@@ -18270,7 +18277,7 @@
         <v>56</v>
       </c>
       <c r="Q106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R106" t="str">
         <f t="shared" ca="1" si="280"/>
@@ -18283,7 +18290,7 @@
         <v>15</v>
       </c>
       <c r="U106">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="V106" t="str">
         <f t="shared" ca="1" si="281"/>
@@ -18296,11 +18303,20 @@
         <v>56</v>
       </c>
       <c r="Y106">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Z106" t="str">
         <f t="shared" ca="1" si="282"/>
-        <v/>
+        <v>cu</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC106">
+        <v>300</v>
       </c>
       <c r="AD106" t="str">
         <f t="shared" ca="1" si="283"/>
@@ -18316,7 +18332,7 @@
       </c>
       <c r="AJ106">
         <f t="shared" si="286"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK106" t="str">
         <f t="shared" ca="1" si="287"/>
@@ -18328,7 +18344,7 @@
       </c>
       <c r="AM106">
         <f t="shared" si="289"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="AN106" t="str">
         <f t="shared" ca="1" si="290"/>
@@ -18340,19 +18356,19 @@
       </c>
       <c r="AP106">
         <f t="shared" si="292"/>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ106" t="str">
         <f t="shared" ca="1" si="293"/>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="AR106" t="str">
         <f t="shared" si="294"/>
-        <v/>
-      </c>
-      <c r="AS106" t="str">
+        <v>EN</v>
+      </c>
+      <c r="AS106">
         <f t="shared" si="295"/>
-        <v/>
+        <v>300</v>
       </c>
       <c r="AT106" t="str">
         <f t="shared" ca="1" si="296"/>
@@ -18377,476 +18393,480 @@
     </row>
     <row r="107" spans="1:50">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="252"/>
-        <v>relay_10</v>
+        <f t="shared" ref="C107:C109" si="300">A107</f>
+        <v>analysisboost_1</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="244"/>
-        <v>relay</v>
+        <f t="shared" ref="D107:D109" si="301">IF(ISERROR(FIND("_",A107)),A107,
+LEFT(A107,FIND("_",A107)-1))</f>
+        <v>analysisboost</v>
       </c>
       <c r="E107">
-        <f t="shared" si="300"/>
-        <v>4</v>
+        <f t="shared" ref="E107:E109" si="302">COUNTA(O107,S107,W107,AA107,AE107)</f>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>49.99</v>
+        <v>0.99</v>
       </c>
       <c r="J107">
-        <v>69000</v>
+        <v>1200</v>
       </c>
       <c r="K107" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="L107">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="M107">
-        <f t="shared" si="276"/>
-        <v>243</v>
+        <f t="shared" ref="M107:M109" si="303">L107</f>
+        <v>384</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" ca="1" si="277"/>
-        <v>cu</v>
+        <f t="shared" ref="N107:N109" ca="1" si="304">IF(ISBLANK(O107),"",
+VLOOKUP(O107,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
       </c>
       <c r="O107" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P107" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="Q107">
-        <v>90</v>
+        <v>86400</v>
       </c>
       <c r="R107" t="str">
-        <f t="shared" ca="1" si="280"/>
-        <v>cu</v>
-      </c>
-      <c r="S107" t="s">
-        <v>16</v>
-      </c>
-      <c r="T107" t="s">
-        <v>15</v>
-      </c>
-      <c r="U107">
-        <v>30000</v>
+        <f t="shared" ref="R107:R109" ca="1" si="305">IF(ISBLANK(S107),"",
+VLOOKUP(S107,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="V107" t="str">
-        <f t="shared" ca="1" si="281"/>
-        <v>cu</v>
-      </c>
-      <c r="W107" t="s">
-        <v>16</v>
-      </c>
-      <c r="X107" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y107">
-        <v>150</v>
+        <f t="shared" ref="V107:V109" ca="1" si="306">IF(ISBLANK(W107),"",
+VLOOKUP(W107,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="Z107" t="str">
-        <f t="shared" ca="1" si="282"/>
-        <v>cu</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC107">
-        <v>300</v>
+        <f t="shared" ref="Z107:Z109" ca="1" si="307">IF(ISBLANK(AA107),"",
+VLOOKUP(AA107,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="AD107" t="str">
-        <f t="shared" ca="1" si="283"/>
+        <f t="shared" ref="AD107:AD109" ca="1" si="308">IF(ISBLANK(AE107),"",
+VLOOKUP(AE107,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH107" t="str">
-        <f t="shared" ca="1" si="284"/>
-        <v>cu</v>
+        <f t="shared" ref="AH107:AH109" ca="1" si="309">IF(LEN(N107)=0,"",N107)</f>
+        <v>it</v>
       </c>
       <c r="AI107" t="str">
-        <f t="shared" si="285"/>
-        <v>EN</v>
+        <f t="shared" ref="AI107:AI109" si="310">IF(LEN(P107)=0,"",P107)</f>
+        <v>Item_cAnalysisBoost</v>
       </c>
       <c r="AJ107">
-        <f t="shared" si="286"/>
-        <v>90</v>
+        <f t="shared" ref="AJ107:AJ109" si="311">IF(LEN(Q107)=0,"",Q107)</f>
+        <v>86400</v>
       </c>
       <c r="AK107" t="str">
-        <f t="shared" ca="1" si="287"/>
-        <v>cu</v>
+        <f t="shared" ref="AK107:AK109" ca="1" si="312">IF(LEN(R107)=0,"",R107)</f>
+        <v/>
       </c>
       <c r="AL107" t="str">
-        <f t="shared" si="288"/>
-        <v>GO</v>
-      </c>
-      <c r="AM107">
-        <f t="shared" si="289"/>
-        <v>30000</v>
+        <f t="shared" ref="AL107:AL109" si="313">IF(LEN(T107)=0,"",T107)</f>
+        <v/>
+      </c>
+      <c r="AM107" t="str">
+        <f t="shared" ref="AM107:AM109" si="314">IF(LEN(U107)=0,"",U107)</f>
+        <v/>
       </c>
       <c r="AN107" t="str">
-        <f t="shared" ca="1" si="290"/>
-        <v>cu</v>
+        <f t="shared" ref="AN107:AN109" ca="1" si="315">IF(LEN(V107)=0,"",V107)</f>
+        <v/>
       </c>
       <c r="AO107" t="str">
-        <f t="shared" si="291"/>
-        <v>EN</v>
-      </c>
-      <c r="AP107">
-        <f t="shared" si="292"/>
-        <v>150</v>
+        <f t="shared" ref="AO107:AO109" si="316">IF(LEN(X107)=0,"",X107)</f>
+        <v/>
+      </c>
+      <c r="AP107" t="str">
+        <f t="shared" ref="AP107:AP109" si="317">IF(LEN(Y107)=0,"",Y107)</f>
+        <v/>
       </c>
       <c r="AQ107" t="str">
-        <f t="shared" ca="1" si="293"/>
-        <v>cu</v>
+        <f t="shared" ref="AQ107:AQ109" ca="1" si="318">IF(LEN(Z107)=0,"",Z107)</f>
+        <v/>
       </c>
       <c r="AR107" t="str">
-        <f t="shared" si="294"/>
-        <v>EN</v>
-      </c>
-      <c r="AS107">
-        <f t="shared" si="295"/>
-        <v>300</v>
+        <f t="shared" ref="AR107:AR109" si="319">IF(LEN(AB107)=0,"",AB107)</f>
+        <v/>
+      </c>
+      <c r="AS107" t="str">
+        <f t="shared" ref="AS107:AS109" si="320">IF(LEN(AC107)=0,"",AC107)</f>
+        <v/>
       </c>
       <c r="AT107" t="str">
-        <f t="shared" ca="1" si="296"/>
+        <f t="shared" ref="AT107:AT109" ca="1" si="321">IF(LEN(AD107)=0,"",AD107)</f>
         <v/>
       </c>
       <c r="AU107" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" ref="AU107:AU109" si="322">IF(LEN(AF107)=0,"",AF107)</f>
         <v/>
       </c>
       <c r="AV107" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" ref="AV107:AV109" si="323">IF(LEN(AG107)=0,"",AG107)</f>
         <v/>
       </c>
       <c r="AW107" t="str">
-        <f t="shared" ca="1" si="299"/>
+        <f t="shared" ref="AW107:AW109" ca="1" si="324">IF(ROW()=2,AX107,OFFSET(AW107,-1,0)&amp;IF(LEN(AX107)=0,"",","&amp;AX107))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX107" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" ref="AX107:AX109" si="325">IF(G107=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C107&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L107
+&amp;IF(LEN(N107)=0,"",","""&amp;N$1&amp;""":"""&amp;N107&amp;"""")
+&amp;IF(LEN(P107)=0,"",","""&amp;P$1&amp;""":"""&amp;P107&amp;"""")
+&amp;IF(LEN(Q107)=0,"",","""&amp;Q$1&amp;""":"&amp;Q107)
+&amp;IF(LEN(R107)=0,"",","""&amp;R$1&amp;""":"""&amp;R107&amp;"""")
+&amp;IF(LEN(T107)=0,"",","""&amp;T$1&amp;""":"""&amp;T107&amp;"""")
+&amp;IF(LEN(U107)=0,"",","""&amp;U$1&amp;""":"&amp;U107)
+&amp;IF(LEN(V107)=0,"",","""&amp;V$1&amp;""":"""&amp;V107&amp;"""")
+&amp;IF(LEN(X107)=0,"",","""&amp;X$1&amp;""":"""&amp;X107&amp;"""")
+&amp;IF(LEN(Y107)=0,"",","""&amp;Y$1&amp;""":"&amp;Y107)
+&amp;IF(LEN(Z107)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z107&amp;"""")
+&amp;IF(LEN(AB107)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB107&amp;"""")
+&amp;IF(LEN(AC107)=0,"",","""&amp;AC$1&amp;""":"&amp;AC107)
+&amp;IF(LEN(AD107)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD107&amp;"""")
+&amp;IF(LEN(AF107)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF107&amp;"""")
+&amp;IF(LEN(AG107)=0,"",","""&amp;AG$1&amp;""":"&amp;AG107)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:50">
       <c r="A108" t="s">
-        <v>214</v>
-      </c>
-      <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" ref="C108:C110" si="301">A108</f>
-        <v>analysisboost_1</v>
+        <f t="shared" si="300"/>
+        <v>analysisboost_2</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" ref="D108:D110" si="302">IF(ISERROR(FIND("_",A108)),A108,
-LEFT(A108,FIND("_",A108)-1))</f>
+        <f t="shared" si="301"/>
         <v>analysisboost</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108:E110" si="303">COUNTA(O108,S108,W108,AA108,AE108)</f>
+        <f t="shared" si="302"/>
         <v>1</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0.99</v>
+        <v>4.99</v>
       </c>
       <c r="J108">
-        <v>1200</v>
+        <v>5900</v>
       </c>
       <c r="K108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L108">
-        <v>384</v>
+        <v>681</v>
       </c>
       <c r="M108">
-        <f t="shared" ref="M108:M110" si="304">L108</f>
-        <v>384</v>
+        <f t="shared" si="303"/>
+        <v>681</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" ref="N108:N110" ca="1" si="305">IF(ISBLANK(O108),"",
-VLOOKUP(O108,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="304"/>
         <v>it</v>
       </c>
       <c r="O108" t="s">
         <v>33</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q108">
-        <v>86400</v>
+        <v>604800</v>
       </c>
       <c r="R108" t="str">
-        <f t="shared" ref="R108:R110" ca="1" si="306">IF(ISBLANK(S108),"",
-VLOOKUP(S108,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="305"/>
         <v/>
       </c>
       <c r="V108" t="str">
-        <f t="shared" ref="V108:V110" ca="1" si="307">IF(ISBLANK(W108),"",
-VLOOKUP(W108,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="306"/>
         <v/>
       </c>
       <c r="Z108" t="str">
-        <f t="shared" ref="Z108:Z110" ca="1" si="308">IF(ISBLANK(AA108),"",
-VLOOKUP(AA108,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="307"/>
         <v/>
       </c>
       <c r="AD108" t="str">
-        <f t="shared" ref="AD108:AD110" ca="1" si="309">IF(ISBLANK(AE108),"",
-VLOOKUP(AE108,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="308"/>
         <v/>
       </c>
       <c r="AH108" t="str">
-        <f t="shared" ref="AH108:AH110" ca="1" si="310">IF(LEN(N108)=0,"",N108)</f>
+        <f t="shared" ca="1" si="309"/>
         <v>it</v>
       </c>
       <c r="AI108" t="str">
-        <f t="shared" ref="AI108:AI110" si="311">IF(LEN(P108)=0,"",P108)</f>
+        <f t="shared" si="310"/>
         <v>Item_cAnalysisBoost</v>
       </c>
       <c r="AJ108">
-        <f t="shared" ref="AJ108:AJ110" si="312">IF(LEN(Q108)=0,"",Q108)</f>
-        <v>86400</v>
+        <f t="shared" si="311"/>
+        <v>604800</v>
       </c>
       <c r="AK108" t="str">
-        <f t="shared" ref="AK108:AK110" ca="1" si="313">IF(LEN(R108)=0,"",R108)</f>
+        <f t="shared" ca="1" si="312"/>
         <v/>
       </c>
       <c r="AL108" t="str">
-        <f t="shared" ref="AL108:AL110" si="314">IF(LEN(T108)=0,"",T108)</f>
+        <f t="shared" si="313"/>
         <v/>
       </c>
       <c r="AM108" t="str">
-        <f t="shared" ref="AM108:AM110" si="315">IF(LEN(U108)=0,"",U108)</f>
+        <f t="shared" si="314"/>
         <v/>
       </c>
       <c r="AN108" t="str">
-        <f t="shared" ref="AN108:AN110" ca="1" si="316">IF(LEN(V108)=0,"",V108)</f>
+        <f t="shared" ca="1" si="315"/>
         <v/>
       </c>
       <c r="AO108" t="str">
-        <f t="shared" ref="AO108:AO110" si="317">IF(LEN(X108)=0,"",X108)</f>
+        <f t="shared" si="316"/>
         <v/>
       </c>
       <c r="AP108" t="str">
-        <f t="shared" ref="AP108:AP110" si="318">IF(LEN(Y108)=0,"",Y108)</f>
+        <f t="shared" si="317"/>
         <v/>
       </c>
       <c r="AQ108" t="str">
-        <f t="shared" ref="AQ108:AQ110" ca="1" si="319">IF(LEN(Z108)=0,"",Z108)</f>
+        <f t="shared" ca="1" si="318"/>
         <v/>
       </c>
       <c r="AR108" t="str">
-        <f t="shared" ref="AR108:AR110" si="320">IF(LEN(AB108)=0,"",AB108)</f>
+        <f t="shared" si="319"/>
         <v/>
       </c>
       <c r="AS108" t="str">
-        <f t="shared" ref="AS108:AS110" si="321">IF(LEN(AC108)=0,"",AC108)</f>
+        <f t="shared" si="320"/>
         <v/>
       </c>
       <c r="AT108" t="str">
-        <f t="shared" ref="AT108:AT110" ca="1" si="322">IF(LEN(AD108)=0,"",AD108)</f>
+        <f t="shared" ca="1" si="321"/>
         <v/>
       </c>
       <c r="AU108" t="str">
-        <f t="shared" ref="AU108:AU110" si="323">IF(LEN(AF108)=0,"",AF108)</f>
+        <f t="shared" si="322"/>
         <v/>
       </c>
       <c r="AV108" t="str">
-        <f t="shared" ref="AV108:AV110" si="324">IF(LEN(AG108)=0,"",AG108)</f>
+        <f t="shared" si="323"/>
         <v/>
       </c>
       <c r="AW108" t="str">
-        <f t="shared" ref="AW108:AW110" ca="1" si="325">IF(ROW()=2,AX108,OFFSET(AW108,-1,0)&amp;IF(LEN(AX108)=0,"",","&amp;AX108))</f>
+        <f t="shared" ca="1" si="324"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX108" t="str">
-        <f t="shared" ref="AX108:AX110" si="326">IF(G108=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C108&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L108
-&amp;IF(LEN(N108)=0,"",","""&amp;N$1&amp;""":"""&amp;N108&amp;"""")
-&amp;IF(LEN(P108)=0,"",","""&amp;P$1&amp;""":"""&amp;P108&amp;"""")
-&amp;IF(LEN(Q108)=0,"",","""&amp;Q$1&amp;""":"&amp;Q108)
-&amp;IF(LEN(R108)=0,"",","""&amp;R$1&amp;""":"""&amp;R108&amp;"""")
-&amp;IF(LEN(T108)=0,"",","""&amp;T$1&amp;""":"""&amp;T108&amp;"""")
-&amp;IF(LEN(U108)=0,"",","""&amp;U$1&amp;""":"&amp;U108)
-&amp;IF(LEN(V108)=0,"",","""&amp;V$1&amp;""":"""&amp;V108&amp;"""")
-&amp;IF(LEN(X108)=0,"",","""&amp;X$1&amp;""":"""&amp;X108&amp;"""")
-&amp;IF(LEN(Y108)=0,"",","""&amp;Y$1&amp;""":"&amp;Y108)
-&amp;IF(LEN(Z108)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z108&amp;"""")
-&amp;IF(LEN(AB108)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB108&amp;"""")
-&amp;IF(LEN(AC108)=0,"",","""&amp;AC$1&amp;""":"&amp;AC108)
-&amp;IF(LEN(AD108)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD108&amp;"""")
-&amp;IF(LEN(AF108)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF108&amp;"""")
-&amp;IF(LEN(AG108)=0,"",","""&amp;AG$1&amp;""":"&amp;AG108)&amp;"}")</f>
+        <f t="shared" si="325"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:50">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C109" t="str">
+        <f t="shared" si="300"/>
+        <v>analysisboost_3</v>
+      </c>
+      <c r="D109" t="str">
         <f t="shared" si="301"/>
-        <v>analysisboost_2</v>
-      </c>
-      <c r="D109" t="str">
+        <v>analysisboost</v>
+      </c>
+      <c r="E109">
         <f t="shared" si="302"/>
-        <v>analysisboost</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="303"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="J109">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="K109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L109">
-        <v>681</v>
+        <v>813</v>
       </c>
       <c r="M109">
-        <f t="shared" si="304"/>
-        <v>681</v>
+        <f t="shared" si="303"/>
+        <v>813</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" ca="1" si="305"/>
+        <f t="shared" ca="1" si="304"/>
         <v>it</v>
       </c>
       <c r="O109" t="s">
         <v>33</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q109">
-        <v>604800</v>
+        <v>2592000</v>
       </c>
       <c r="R109" t="str">
+        <f t="shared" ca="1" si="305"/>
+        <v>cu</v>
+      </c>
+      <c r="S109" t="s">
+        <v>16</v>
+      </c>
+      <c r="T109" t="s">
+        <v>56</v>
+      </c>
+      <c r="U109">
+        <v>1000</v>
+      </c>
+      <c r="V109" t="str">
         <f t="shared" ca="1" si="306"/>
-        <v/>
-      </c>
-      <c r="V109" t="str">
+        <v>cu</v>
+      </c>
+      <c r="W109" t="s">
+        <v>16</v>
+      </c>
+      <c r="X109" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y109">
+        <v>25000</v>
+      </c>
+      <c r="Z109" t="str">
         <f t="shared" ca="1" si="307"/>
-        <v/>
-      </c>
-      <c r="Z109" t="str">
+        <v>cu</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC109">
+        <v>750</v>
+      </c>
+      <c r="AD109" t="str">
         <f t="shared" ca="1" si="308"/>
         <v/>
       </c>
-      <c r="AD109" t="str">
+      <c r="AH109" t="str">
         <f t="shared" ca="1" si="309"/>
-        <v/>
-      </c>
-      <c r="AH109" t="str">
-        <f t="shared" ca="1" si="310"/>
         <v>it</v>
       </c>
       <c r="AI109" t="str">
+        <f t="shared" si="310"/>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="AJ109">
         <f t="shared" si="311"/>
-        <v>Item_cAnalysisBoost</v>
-      </c>
-      <c r="AJ109">
-        <f t="shared" si="312"/>
-        <v>604800</v>
+        <v>2592000</v>
       </c>
       <c r="AK109" t="str">
-        <f t="shared" ca="1" si="313"/>
-        <v/>
+        <f t="shared" ca="1" si="312"/>
+        <v>cu</v>
       </c>
       <c r="AL109" t="str">
+        <f t="shared" si="313"/>
+        <v>EN</v>
+      </c>
+      <c r="AM109">
         <f t="shared" si="314"/>
-        <v/>
-      </c>
-      <c r="AM109" t="str">
-        <f t="shared" si="315"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AN109" t="str">
-        <f t="shared" ca="1" si="316"/>
-        <v/>
+        <f t="shared" ca="1" si="315"/>
+        <v>cu</v>
       </c>
       <c r="AO109" t="str">
+        <f t="shared" si="316"/>
+        <v>GO</v>
+      </c>
+      <c r="AP109">
         <f t="shared" si="317"/>
-        <v/>
-      </c>
-      <c r="AP109" t="str">
-        <f t="shared" si="318"/>
-        <v/>
+        <v>25000</v>
       </c>
       <c r="AQ109" t="str">
-        <f t="shared" ca="1" si="319"/>
-        <v/>
+        <f t="shared" ca="1" si="318"/>
+        <v>cu</v>
       </c>
       <c r="AR109" t="str">
+        <f t="shared" si="319"/>
+        <v>DI</v>
+      </c>
+      <c r="AS109">
         <f t="shared" si="320"/>
-        <v/>
-      </c>
-      <c r="AS109" t="str">
-        <f t="shared" si="321"/>
-        <v/>
+        <v>750</v>
       </c>
       <c r="AT109" t="str">
-        <f t="shared" ca="1" si="322"/>
+        <f t="shared" ca="1" si="321"/>
         <v/>
       </c>
       <c r="AU109" t="str">
+        <f t="shared" si="322"/>
+        <v/>
+      </c>
+      <c r="AV109" t="str">
         <f t="shared" si="323"/>
         <v/>
       </c>
-      <c r="AV109" t="str">
-        <f t="shared" si="324"/>
-        <v/>
-      </c>
       <c r="AW109" t="str">
-        <f t="shared" ca="1" si="325"/>
+        <f t="shared" ca="1" si="324"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX109" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="325"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:50">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="301"/>
-        <v>analysisboost_3</v>
+        <f t="shared" ref="C110:C113" si="326">A110</f>
+        <v>ev14_unacquiredspell</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="302"/>
-        <v>analysisboost</v>
+        <f t="shared" ref="D110:D113" si="327">IF(ISERROR(FIND("_",A110)),A110,
+LEFT(A110,FIND("_",A110)-1))</f>
+        <v>ev14</v>
       </c>
       <c r="E110">
-        <f t="shared" si="303"/>
-        <v>4</v>
+        <f t="shared" ref="E110:E113" si="328">COUNTA(O110,S110,W110,AA110,AE110)</f>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -18858,158 +18878,154 @@
         <v>13000</v>
       </c>
       <c r="K110" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L110">
-        <v>813</v>
+        <v>178</v>
       </c>
       <c r="M110">
-        <f t="shared" si="304"/>
-        <v>813</v>
+        <f t="shared" ref="M110:M113" si="329">L110</f>
+        <v>178</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" ca="1" si="305"/>
+        <f t="shared" ref="N110:N113" ca="1" si="330">IF(ISBLANK(O110),"",
+VLOOKUP(O110,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>it</v>
       </c>
       <c r="O110" t="s">
         <v>33</v>
       </c>
-      <c r="P110" t="s">
-        <v>213</v>
+      <c r="P110" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="Q110">
-        <v>2592000</v>
+        <v>1</v>
       </c>
       <c r="R110" t="str">
-        <f t="shared" ca="1" si="306"/>
-        <v>cu</v>
-      </c>
-      <c r="S110" t="s">
-        <v>16</v>
-      </c>
-      <c r="T110" t="s">
-        <v>56</v>
-      </c>
-      <c r="U110">
-        <v>1000</v>
+        <f t="shared" ref="R110:R113" ca="1" si="331">IF(ISBLANK(S110),"",
+VLOOKUP(S110,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="V110" t="str">
-        <f t="shared" ca="1" si="307"/>
-        <v>cu</v>
-      </c>
-      <c r="W110" t="s">
-        <v>16</v>
-      </c>
-      <c r="X110" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y110">
-        <v>25000</v>
+        <f t="shared" ref="V110:V113" ca="1" si="332">IF(ISBLANK(W110),"",
+VLOOKUP(W110,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="Z110" t="str">
-        <f t="shared" ca="1" si="308"/>
-        <v>cu</v>
-      </c>
-      <c r="AA110" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC110">
-        <v>750</v>
+        <f t="shared" ref="Z110:Z113" ca="1" si="333">IF(ISBLANK(AA110),"",
+VLOOKUP(AA110,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="AD110" t="str">
-        <f t="shared" ca="1" si="309"/>
+        <f t="shared" ref="AD110:AD113" ca="1" si="334">IF(ISBLANK(AE110),"",
+VLOOKUP(AE110,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH110" t="str">
-        <f t="shared" ca="1" si="310"/>
+        <f t="shared" ref="AH110:AH113" ca="1" si="335">IF(LEN(N110)=0,"",N110)</f>
         <v>it</v>
       </c>
       <c r="AI110" t="str">
-        <f t="shared" si="311"/>
-        <v>Item_cAnalysisBoost</v>
+        <f t="shared" ref="AI110:AI113" si="336">IF(LEN(P110)=0,"",P110)</f>
+        <v>Cash_sUnacquiredSpell</v>
       </c>
       <c r="AJ110">
-        <f t="shared" si="312"/>
-        <v>2592000</v>
+        <f t="shared" ref="AJ110:AJ113" si="337">IF(LEN(Q110)=0,"",Q110)</f>
+        <v>1</v>
       </c>
       <c r="AK110" t="str">
-        <f t="shared" ca="1" si="313"/>
-        <v>cu</v>
+        <f t="shared" ref="AK110:AK113" ca="1" si="338">IF(LEN(R110)=0,"",R110)</f>
+        <v/>
       </c>
       <c r="AL110" t="str">
-        <f t="shared" si="314"/>
-        <v>EN</v>
-      </c>
-      <c r="AM110">
-        <f t="shared" si="315"/>
-        <v>1000</v>
+        <f t="shared" ref="AL110:AL113" si="339">IF(LEN(T110)=0,"",T110)</f>
+        <v/>
+      </c>
+      <c r="AM110" t="str">
+        <f t="shared" ref="AM110:AM113" si="340">IF(LEN(U110)=0,"",U110)</f>
+        <v/>
       </c>
       <c r="AN110" t="str">
-        <f t="shared" ca="1" si="316"/>
-        <v>cu</v>
+        <f t="shared" ref="AN110:AN113" ca="1" si="341">IF(LEN(V110)=0,"",V110)</f>
+        <v/>
       </c>
       <c r="AO110" t="str">
-        <f t="shared" si="317"/>
-        <v>GO</v>
-      </c>
-      <c r="AP110">
-        <f t="shared" si="318"/>
-        <v>25000</v>
+        <f t="shared" ref="AO110:AO113" si="342">IF(LEN(X110)=0,"",X110)</f>
+        <v/>
+      </c>
+      <c r="AP110" t="str">
+        <f t="shared" ref="AP110:AP113" si="343">IF(LEN(Y110)=0,"",Y110)</f>
+        <v/>
       </c>
       <c r="AQ110" t="str">
-        <f t="shared" ca="1" si="319"/>
-        <v>cu</v>
+        <f t="shared" ref="AQ110:AQ113" ca="1" si="344">IF(LEN(Z110)=0,"",Z110)</f>
+        <v/>
       </c>
       <c r="AR110" t="str">
-        <f t="shared" si="320"/>
-        <v>DI</v>
-      </c>
-      <c r="AS110">
-        <f t="shared" si="321"/>
-        <v>750</v>
+        <f t="shared" ref="AR110:AR113" si="345">IF(LEN(AB110)=0,"",AB110)</f>
+        <v/>
+      </c>
+      <c r="AS110" t="str">
+        <f t="shared" ref="AS110:AS113" si="346">IF(LEN(AC110)=0,"",AC110)</f>
+        <v/>
       </c>
       <c r="AT110" t="str">
-        <f t="shared" ca="1" si="322"/>
+        <f t="shared" ref="AT110:AT113" ca="1" si="347">IF(LEN(AD110)=0,"",AD110)</f>
         <v/>
       </c>
       <c r="AU110" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" ref="AU110:AU113" si="348">IF(LEN(AF110)=0,"",AF110)</f>
         <v/>
       </c>
       <c r="AV110" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" ref="AV110:AV113" si="349">IF(LEN(AG110)=0,"",AG110)</f>
         <v/>
       </c>
       <c r="AW110" t="str">
-        <f t="shared" ca="1" si="325"/>
+        <f t="shared" ref="AW110:AW113" ca="1" si="350">IF(ROW()=2,AX110,OFFSET(AW110,-1,0)&amp;IF(LEN(AX110)=0,"",","&amp;AX110))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX110" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" ref="AX110:AX113" si="351">IF(G110=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C110&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L110
+&amp;IF(LEN(N110)=0,"",","""&amp;N$1&amp;""":"""&amp;N110&amp;"""")
+&amp;IF(LEN(P110)=0,"",","""&amp;P$1&amp;""":"""&amp;P110&amp;"""")
+&amp;IF(LEN(Q110)=0,"",","""&amp;Q$1&amp;""":"&amp;Q110)
+&amp;IF(LEN(R110)=0,"",","""&amp;R$1&amp;""":"""&amp;R110&amp;"""")
+&amp;IF(LEN(T110)=0,"",","""&amp;T$1&amp;""":"""&amp;T110&amp;"""")
+&amp;IF(LEN(U110)=0,"",","""&amp;U$1&amp;""":"&amp;U110)
+&amp;IF(LEN(V110)=0,"",","""&amp;V$1&amp;""":"""&amp;V110&amp;"""")
+&amp;IF(LEN(X110)=0,"",","""&amp;X$1&amp;""":"""&amp;X110&amp;"""")
+&amp;IF(LEN(Y110)=0,"",","""&amp;Y$1&amp;""":"&amp;Y110)
+&amp;IF(LEN(Z110)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z110&amp;"""")
+&amp;IF(LEN(AB110)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB110&amp;"""")
+&amp;IF(LEN(AC110)=0,"",","""&amp;AC$1&amp;""":"&amp;AC110)
+&amp;IF(LEN(AD110)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD110&amp;"""")
+&amp;IF(LEN(AF110)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF110&amp;"""")
+&amp;IF(LEN(AG110)=0,"",","""&amp;AG$1&amp;""":"&amp;AG110)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:50">
       <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" ref="C111:C114" si="327">A111</f>
-        <v>ev14_unacquiredspell</v>
+        <f t="shared" si="326"/>
+        <v>ev13_acquiredspell_0001</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D114" si="328">IF(ISERROR(FIND("_",A111)),A111,
-LEFT(A111,FIND("_",A111)-1))</f>
-        <v>ev14</v>
+        <f t="shared" si="327"/>
+        <v>ev13</v>
       </c>
       <c r="E111">
-        <f t="shared" ref="E111:E114" si="329">COUNTA(O111,S111,W111,AA111,AE111)</f>
+        <f t="shared" si="328"/>
         <v>1</v>
       </c>
       <c r="G111" t="b">
@@ -19022,154 +19038,127 @@
         <v>13000</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L111">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="M111">
-        <f t="shared" ref="M111:M114" si="330">L111</f>
-        <v>178</v>
+        <f t="shared" si="329"/>
+        <v>240</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" ref="N111:N114" ca="1" si="331">IF(ISBLANK(O111),"",
-VLOOKUP(O111,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="330"/>
         <v>it</v>
       </c>
       <c r="O111" t="s">
         <v>33</v>
       </c>
-      <c r="P111" s="4" t="s">
-        <v>235</v>
+      <c r="P111" t="s">
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>1</v>
       </c>
       <c r="R111" t="str">
-        <f t="shared" ref="R111:R114" ca="1" si="332">IF(ISBLANK(S111),"",
-VLOOKUP(S111,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="331"/>
         <v/>
       </c>
       <c r="V111" t="str">
-        <f t="shared" ref="V111:V114" ca="1" si="333">IF(ISBLANK(W111),"",
-VLOOKUP(W111,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="332"/>
         <v/>
       </c>
       <c r="Z111" t="str">
-        <f t="shared" ref="Z111:Z114" ca="1" si="334">IF(ISBLANK(AA111),"",
-VLOOKUP(AA111,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="333"/>
         <v/>
       </c>
       <c r="AD111" t="str">
-        <f t="shared" ref="AD111:AD114" ca="1" si="335">IF(ISBLANK(AE111),"",
-VLOOKUP(AE111,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="334"/>
         <v/>
       </c>
       <c r="AH111" t="str">
-        <f t="shared" ref="AH111:AH114" ca="1" si="336">IF(LEN(N111)=0,"",N111)</f>
+        <f t="shared" ca="1" si="335"/>
         <v>it</v>
       </c>
       <c r="AI111" t="str">
-        <f t="shared" ref="AI111:AI114" si="337">IF(LEN(P111)=0,"",P111)</f>
-        <v>Cash_sUnacquiredSpell</v>
+        <f t="shared" si="336"/>
+        <v>Cash_sAcquiredSpell</v>
       </c>
       <c r="AJ111">
-        <f t="shared" ref="AJ111:AJ114" si="338">IF(LEN(Q111)=0,"",Q111)</f>
+        <f t="shared" si="337"/>
         <v>1</v>
       </c>
       <c r="AK111" t="str">
-        <f t="shared" ref="AK111:AK114" ca="1" si="339">IF(LEN(R111)=0,"",R111)</f>
+        <f t="shared" ca="1" si="338"/>
         <v/>
       </c>
       <c r="AL111" t="str">
-        <f t="shared" ref="AL111:AL114" si="340">IF(LEN(T111)=0,"",T111)</f>
+        <f t="shared" si="339"/>
         <v/>
       </c>
       <c r="AM111" t="str">
-        <f t="shared" ref="AM111:AM114" si="341">IF(LEN(U111)=0,"",U111)</f>
+        <f t="shared" si="340"/>
         <v/>
       </c>
       <c r="AN111" t="str">
-        <f t="shared" ref="AN111:AN114" ca="1" si="342">IF(LEN(V111)=0,"",V111)</f>
+        <f t="shared" ca="1" si="341"/>
         <v/>
       </c>
       <c r="AO111" t="str">
-        <f t="shared" ref="AO111:AO114" si="343">IF(LEN(X111)=0,"",X111)</f>
+        <f t="shared" si="342"/>
         <v/>
       </c>
       <c r="AP111" t="str">
-        <f t="shared" ref="AP111:AP114" si="344">IF(LEN(Y111)=0,"",Y111)</f>
+        <f t="shared" si="343"/>
         <v/>
       </c>
       <c r="AQ111" t="str">
-        <f t="shared" ref="AQ111:AQ114" ca="1" si="345">IF(LEN(Z111)=0,"",Z111)</f>
+        <f t="shared" ca="1" si="344"/>
         <v/>
       </c>
       <c r="AR111" t="str">
-        <f t="shared" ref="AR111:AR114" si="346">IF(LEN(AB111)=0,"",AB111)</f>
+        <f t="shared" si="345"/>
         <v/>
       </c>
       <c r="AS111" t="str">
-        <f t="shared" ref="AS111:AS114" si="347">IF(LEN(AC111)=0,"",AC111)</f>
+        <f t="shared" si="346"/>
         <v/>
       </c>
       <c r="AT111" t="str">
-        <f t="shared" ref="AT111:AT114" ca="1" si="348">IF(LEN(AD111)=0,"",AD111)</f>
+        <f t="shared" ca="1" si="347"/>
         <v/>
       </c>
       <c r="AU111" t="str">
-        <f t="shared" ref="AU111:AU114" si="349">IF(LEN(AF111)=0,"",AF111)</f>
+        <f t="shared" si="348"/>
         <v/>
       </c>
       <c r="AV111" t="str">
-        <f t="shared" ref="AV111:AV114" si="350">IF(LEN(AG111)=0,"",AG111)</f>
+        <f t="shared" si="349"/>
         <v/>
       </c>
       <c r="AW111" t="str">
-        <f t="shared" ref="AW111:AW114" ca="1" si="351">IF(ROW()=2,AX111,OFFSET(AW111,-1,0)&amp;IF(LEN(AX111)=0,"",","&amp;AX111))</f>
+        <f t="shared" ca="1" si="350"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX111" t="str">
-        <f t="shared" ref="AX111:AX114" si="352">IF(G111=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C111&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L111
-&amp;IF(LEN(N111)=0,"",","""&amp;N$1&amp;""":"""&amp;N111&amp;"""")
-&amp;IF(LEN(P111)=0,"",","""&amp;P$1&amp;""":"""&amp;P111&amp;"""")
-&amp;IF(LEN(Q111)=0,"",","""&amp;Q$1&amp;""":"&amp;Q111)
-&amp;IF(LEN(R111)=0,"",","""&amp;R$1&amp;""":"""&amp;R111&amp;"""")
-&amp;IF(LEN(T111)=0,"",","""&amp;T$1&amp;""":"""&amp;T111&amp;"""")
-&amp;IF(LEN(U111)=0,"",","""&amp;U$1&amp;""":"&amp;U111)
-&amp;IF(LEN(V111)=0,"",","""&amp;V$1&amp;""":"""&amp;V111&amp;"""")
-&amp;IF(LEN(X111)=0,"",","""&amp;X$1&amp;""":"""&amp;X111&amp;"""")
-&amp;IF(LEN(Y111)=0,"",","""&amp;Y$1&amp;""":"&amp;Y111)
-&amp;IF(LEN(Z111)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z111&amp;"""")
-&amp;IF(LEN(AB111)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB111&amp;"""")
-&amp;IF(LEN(AC111)=0,"",","""&amp;AC$1&amp;""":"&amp;AC111)
-&amp;IF(LEN(AD111)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD111&amp;"""")
-&amp;IF(LEN(AF111)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF111&amp;"""")
-&amp;IF(LEN(AG111)=0,"",","""&amp;AG$1&amp;""":"&amp;AG111)&amp;"}")</f>
+        <f t="shared" si="351"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:50">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C112" t="str">
+        <f t="shared" si="326"/>
+        <v>ev13_acquiredspell_0002</v>
+      </c>
+      <c r="D112" t="str">
         <f t="shared" si="327"/>
-        <v>ev13_acquiredspell_0001</v>
-      </c>
-      <c r="D112" t="str">
+        <v>ev13</v>
+      </c>
+      <c r="E112">
         <f t="shared" si="328"/>
-        <v>ev13</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="329"/>
         <v>1</v>
       </c>
       <c r="G112" t="b">
@@ -19182,127 +19171,127 @@
         <v>13000</v>
       </c>
       <c r="K112" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L112">
-        <v>240</v>
+        <v>652</v>
       </c>
       <c r="M112">
-        <f t="shared" si="330"/>
-        <v>240</v>
+        <f t="shared" si="329"/>
+        <v>652</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" ca="1" si="331"/>
+        <f t="shared" ca="1" si="330"/>
         <v>it</v>
       </c>
       <c r="O112" t="s">
         <v>33</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>1</v>
       </c>
       <c r="R112" t="str">
+        <f t="shared" ca="1" si="331"/>
+        <v/>
+      </c>
+      <c r="V112" t="str">
         <f t="shared" ca="1" si="332"/>
         <v/>
       </c>
-      <c r="V112" t="str">
+      <c r="Z112" t="str">
         <f t="shared" ca="1" si="333"/>
         <v/>
       </c>
-      <c r="Z112" t="str">
+      <c r="AD112" t="str">
         <f t="shared" ca="1" si="334"/>
         <v/>
       </c>
-      <c r="AD112" t="str">
+      <c r="AH112" t="str">
         <f t="shared" ca="1" si="335"/>
-        <v/>
-      </c>
-      <c r="AH112" t="str">
-        <f t="shared" ca="1" si="336"/>
         <v>it</v>
       </c>
       <c r="AI112" t="str">
+        <f t="shared" si="336"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ112">
         <f t="shared" si="337"/>
-        <v>Cash_sAcquiredSpell</v>
-      </c>
-      <c r="AJ112">
-        <f t="shared" si="338"/>
         <v>1</v>
       </c>
       <c r="AK112" t="str">
-        <f t="shared" ca="1" si="339"/>
+        <f t="shared" ca="1" si="338"/>
         <v/>
       </c>
       <c r="AL112" t="str">
+        <f t="shared" si="339"/>
+        <v/>
+      </c>
+      <c r="AM112" t="str">
         <f t="shared" si="340"/>
         <v/>
       </c>
-      <c r="AM112" t="str">
-        <f t="shared" si="341"/>
-        <v/>
-      </c>
       <c r="AN112" t="str">
-        <f t="shared" ca="1" si="342"/>
+        <f t="shared" ca="1" si="341"/>
         <v/>
       </c>
       <c r="AO112" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+      <c r="AP112" t="str">
         <f t="shared" si="343"/>
         <v/>
       </c>
-      <c r="AP112" t="str">
-        <f t="shared" si="344"/>
-        <v/>
-      </c>
       <c r="AQ112" t="str">
-        <f t="shared" ca="1" si="345"/>
+        <f t="shared" ca="1" si="344"/>
         <v/>
       </c>
       <c r="AR112" t="str">
+        <f t="shared" si="345"/>
+        <v/>
+      </c>
+      <c r="AS112" t="str">
         <f t="shared" si="346"/>
         <v/>
       </c>
-      <c r="AS112" t="str">
-        <f t="shared" si="347"/>
-        <v/>
-      </c>
       <c r="AT112" t="str">
-        <f t="shared" ca="1" si="348"/>
+        <f t="shared" ca="1" si="347"/>
         <v/>
       </c>
       <c r="AU112" t="str">
+        <f t="shared" si="348"/>
+        <v/>
+      </c>
+      <c r="AV112" t="str">
         <f t="shared" si="349"/>
         <v/>
       </c>
-      <c r="AV112" t="str">
-        <f t="shared" si="350"/>
-        <v/>
-      </c>
       <c r="AW112" t="str">
-        <f t="shared" ca="1" si="351"/>
+        <f t="shared" ca="1" si="350"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX112" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="351"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:50">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C113" t="str">
+        <f t="shared" si="326"/>
+        <v>ev13_acquiredspell</v>
+      </c>
+      <c r="D113" t="str">
         <f t="shared" si="327"/>
-        <v>ev13_acquiredspell_0002</v>
-      </c>
-      <c r="D113" t="str">
+        <v>ev13</v>
+      </c>
+      <c r="E113">
         <f t="shared" si="328"/>
-        <v>ev13</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="329"/>
         <v>1</v>
       </c>
       <c r="G113" t="b">
@@ -19315,127 +19304,128 @@
         <v>13000</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L113">
-        <v>652</v>
+        <v>358</v>
       </c>
       <c r="M113">
-        <f t="shared" si="330"/>
-        <v>652</v>
+        <f t="shared" si="329"/>
+        <v>358</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" ca="1" si="331"/>
+        <f t="shared" ca="1" si="330"/>
         <v>it</v>
       </c>
       <c r="O113" t="s">
         <v>33</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="str">
+        <f t="shared" ca="1" si="331"/>
+        <v/>
+      </c>
+      <c r="V113" t="str">
         <f t="shared" ca="1" si="332"/>
         <v/>
       </c>
-      <c r="V113" t="str">
+      <c r="Z113" t="str">
         <f t="shared" ca="1" si="333"/>
         <v/>
       </c>
-      <c r="Z113" t="str">
+      <c r="AD113" t="str">
         <f t="shared" ca="1" si="334"/>
         <v/>
       </c>
-      <c r="AD113" t="str">
+      <c r="AH113" t="str">
         <f t="shared" ca="1" si="335"/>
-        <v/>
-      </c>
-      <c r="AH113" t="str">
-        <f t="shared" ca="1" si="336"/>
         <v>it</v>
       </c>
       <c r="AI113" t="str">
+        <f t="shared" si="336"/>
+        <v>Cash_sAcquiredSpell</v>
+      </c>
+      <c r="AJ113">
         <f t="shared" si="337"/>
-        <v>Cash_sAcquiredSpell</v>
-      </c>
-      <c r="AJ113">
-        <f t="shared" si="338"/>
         <v>1</v>
       </c>
       <c r="AK113" t="str">
-        <f t="shared" ca="1" si="339"/>
+        <f t="shared" ca="1" si="338"/>
         <v/>
       </c>
       <c r="AL113" t="str">
+        <f t="shared" si="339"/>
+        <v/>
+      </c>
+      <c r="AM113" t="str">
         <f t="shared" si="340"/>
         <v/>
       </c>
-      <c r="AM113" t="str">
-        <f t="shared" si="341"/>
-        <v/>
-      </c>
       <c r="AN113" t="str">
-        <f t="shared" ca="1" si="342"/>
+        <f t="shared" ca="1" si="341"/>
         <v/>
       </c>
       <c r="AO113" t="str">
+        <f t="shared" si="342"/>
+        <v/>
+      </c>
+      <c r="AP113" t="str">
         <f t="shared" si="343"/>
         <v/>
       </c>
-      <c r="AP113" t="str">
-        <f t="shared" si="344"/>
-        <v/>
-      </c>
       <c r="AQ113" t="str">
-        <f t="shared" ca="1" si="345"/>
+        <f t="shared" ca="1" si="344"/>
         <v/>
       </c>
       <c r="AR113" t="str">
+        <f t="shared" si="345"/>
+        <v/>
+      </c>
+      <c r="AS113" t="str">
         <f t="shared" si="346"/>
         <v/>
       </c>
-      <c r="AS113" t="str">
-        <f t="shared" si="347"/>
-        <v/>
-      </c>
       <c r="AT113" t="str">
-        <f t="shared" ca="1" si="348"/>
+        <f t="shared" ca="1" si="347"/>
         <v/>
       </c>
       <c r="AU113" t="str">
+        <f t="shared" si="348"/>
+        <v/>
+      </c>
+      <c r="AV113" t="str">
         <f t="shared" si="349"/>
         <v/>
       </c>
-      <c r="AV113" t="str">
-        <f t="shared" si="350"/>
-        <v/>
-      </c>
       <c r="AW113" t="str">
-        <f t="shared" ca="1" si="351"/>
+        <f t="shared" ca="1" si="350"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX113" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="351"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:50">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="327"/>
-        <v>ev13_acquiredspell</v>
+        <f t="shared" ref="C114:C117" si="352">A114</f>
+        <v>ev15_unacquiredcompanion</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="328"/>
-        <v>ev13</v>
+        <f t="shared" ref="D114:D117" si="353">IF(ISERROR(FIND("_",A114)),A114,
+LEFT(A114,FIND("_",A114)-1))</f>
+        <v>ev15</v>
       </c>
       <c r="E114">
-        <f t="shared" si="329"/>
+        <f t="shared" ref="E114:E116" si="354">COUNTA(O114,S114,W114,AA114,AE114)</f>
         <v>1</v>
       </c>
       <c r="G114" t="b">
@@ -19448,128 +19438,154 @@
         <v>13000</v>
       </c>
       <c r="K114" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L114">
-        <v>358</v>
+        <v>717</v>
       </c>
       <c r="M114">
-        <f t="shared" si="330"/>
-        <v>358</v>
+        <f t="shared" ref="M114:M116" si="355">L114</f>
+        <v>717</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" ca="1" si="331"/>
+        <f t="shared" ref="N114:N116" ca="1" si="356">IF(ISBLANK(O114),"",
+VLOOKUP(O114,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>it</v>
       </c>
       <c r="O114" t="s">
         <v>33</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>1</v>
       </c>
       <c r="R114" t="str">
-        <f t="shared" ca="1" si="332"/>
+        <f t="shared" ref="R114:R116" ca="1" si="357">IF(ISBLANK(S114),"",
+VLOOKUP(S114,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="V114" t="str">
-        <f t="shared" ca="1" si="333"/>
+        <f t="shared" ref="V114:V116" ca="1" si="358">IF(ISBLANK(W114),"",
+VLOOKUP(W114,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="Z114" t="str">
-        <f t="shared" ca="1" si="334"/>
+        <f t="shared" ref="Z114:Z116" ca="1" si="359">IF(ISBLANK(AA114),"",
+VLOOKUP(AA114,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AD114" t="str">
-        <f t="shared" ca="1" si="335"/>
+        <f t="shared" ref="AD114:AD116" ca="1" si="360">IF(ISBLANK(AE114),"",
+VLOOKUP(AE114,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH114" t="str">
-        <f t="shared" ca="1" si="336"/>
+        <f t="shared" ref="AH114:AH116" ca="1" si="361">IF(LEN(N114)=0,"",N114)</f>
         <v>it</v>
       </c>
       <c r="AI114" t="str">
-        <f t="shared" si="337"/>
-        <v>Cash_sAcquiredSpell</v>
+        <f t="shared" ref="AI114:AI116" si="362">IF(LEN(P114)=0,"",P114)</f>
+        <v>Cash_sUnacquiredCompanion</v>
       </c>
       <c r="AJ114">
-        <f t="shared" si="338"/>
+        <f t="shared" ref="AJ114:AJ116" si="363">IF(LEN(Q114)=0,"",Q114)</f>
         <v>1</v>
       </c>
       <c r="AK114" t="str">
-        <f t="shared" ca="1" si="339"/>
+        <f t="shared" ref="AK114:AK116" ca="1" si="364">IF(LEN(R114)=0,"",R114)</f>
         <v/>
       </c>
       <c r="AL114" t="str">
-        <f t="shared" si="340"/>
+        <f t="shared" ref="AL114:AL116" si="365">IF(LEN(T114)=0,"",T114)</f>
         <v/>
       </c>
       <c r="AM114" t="str">
-        <f t="shared" si="341"/>
+        <f t="shared" ref="AM114:AM116" si="366">IF(LEN(U114)=0,"",U114)</f>
         <v/>
       </c>
       <c r="AN114" t="str">
-        <f t="shared" ca="1" si="342"/>
+        <f t="shared" ref="AN114:AN116" ca="1" si="367">IF(LEN(V114)=0,"",V114)</f>
         <v/>
       </c>
       <c r="AO114" t="str">
-        <f t="shared" si="343"/>
+        <f t="shared" ref="AO114:AO116" si="368">IF(LEN(X114)=0,"",X114)</f>
         <v/>
       </c>
       <c r="AP114" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" ref="AP114:AP116" si="369">IF(LEN(Y114)=0,"",Y114)</f>
         <v/>
       </c>
       <c r="AQ114" t="str">
-        <f t="shared" ca="1" si="345"/>
+        <f t="shared" ref="AQ114:AQ116" ca="1" si="370">IF(LEN(Z114)=0,"",Z114)</f>
         <v/>
       </c>
       <c r="AR114" t="str">
-        <f t="shared" si="346"/>
+        <f t="shared" ref="AR114:AR116" si="371">IF(LEN(AB114)=0,"",AB114)</f>
         <v/>
       </c>
       <c r="AS114" t="str">
-        <f t="shared" si="347"/>
+        <f t="shared" ref="AS114:AS116" si="372">IF(LEN(AC114)=0,"",AC114)</f>
         <v/>
       </c>
       <c r="AT114" t="str">
-        <f t="shared" ca="1" si="348"/>
+        <f t="shared" ref="AT114:AT116" ca="1" si="373">IF(LEN(AD114)=0,"",AD114)</f>
         <v/>
       </c>
       <c r="AU114" t="str">
-        <f t="shared" si="349"/>
+        <f t="shared" ref="AU114:AU116" si="374">IF(LEN(AF114)=0,"",AF114)</f>
         <v/>
       </c>
       <c r="AV114" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" ref="AV114:AV116" si="375">IF(LEN(AG114)=0,"",AG114)</f>
         <v/>
       </c>
       <c r="AW114" t="str">
-        <f t="shared" ca="1" si="351"/>
+        <f t="shared" ref="AW114:AW116" ca="1" si="376">IF(ROW()=2,AX114,OFFSET(AW114,-1,0)&amp;IF(LEN(AX114)=0,"",","&amp;AX114))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX114" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" ref="AX114:AX116" si="377">IF(G114=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C114&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L114
+&amp;IF(LEN(N114)=0,"",","""&amp;N$1&amp;""":"""&amp;N114&amp;"""")
+&amp;IF(LEN(P114)=0,"",","""&amp;P$1&amp;""":"""&amp;P114&amp;"""")
+&amp;IF(LEN(Q114)=0,"",","""&amp;Q$1&amp;""":"&amp;Q114)
+&amp;IF(LEN(R114)=0,"",","""&amp;R$1&amp;""":"""&amp;R114&amp;"""")
+&amp;IF(LEN(T114)=0,"",","""&amp;T$1&amp;""":"""&amp;T114&amp;"""")
+&amp;IF(LEN(U114)=0,"",","""&amp;U$1&amp;""":"&amp;U114)
+&amp;IF(LEN(V114)=0,"",","""&amp;V$1&amp;""":"""&amp;V114&amp;"""")
+&amp;IF(LEN(X114)=0,"",","""&amp;X$1&amp;""":"""&amp;X114&amp;"""")
+&amp;IF(LEN(Y114)=0,"",","""&amp;Y$1&amp;""":"&amp;Y114)
+&amp;IF(LEN(Z114)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z114&amp;"""")
+&amp;IF(LEN(AB114)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB114&amp;"""")
+&amp;IF(LEN(AC114)=0,"",","""&amp;AC$1&amp;""":"&amp;AC114)
+&amp;IF(LEN(AD114)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD114&amp;"""")
+&amp;IF(LEN(AF114)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF114&amp;"""")
+&amp;IF(LEN(AG114)=0,"",","""&amp;AG$1&amp;""":"&amp;AG114)&amp;"}")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:50">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" ref="C115:C117" si="353">A115</f>
-        <v>ev15_unacquiredcompanion</v>
+        <f t="shared" si="352"/>
+        <v>ev16_acquiredcompanion</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115:D117" si="354">IF(ISERROR(FIND("_",A115)),A115,
-LEFT(A115,FIND("_",A115)-1))</f>
-        <v>ev15</v>
+        <f t="shared" si="353"/>
+        <v>ev16</v>
       </c>
       <c r="E115">
-        <f t="shared" ref="E115:E117" si="355">COUNTA(O115,S115,W115,AA115,AE115)</f>
+        <f t="shared" si="354"/>
         <v>1</v>
       </c>
       <c r="G115" t="b">
@@ -19582,154 +19598,127 @@
         <v>13000</v>
       </c>
       <c r="K115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L115">
-        <v>717</v>
+        <v>569</v>
       </c>
       <c r="M115">
-        <f t="shared" ref="M115:M117" si="356">L115</f>
-        <v>717</v>
+        <f t="shared" si="355"/>
+        <v>569</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" ref="N115:N117" ca="1" si="357">IF(ISBLANK(O115),"",
-VLOOKUP(O115,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="356"/>
         <v>it</v>
       </c>
       <c r="O115" t="s">
         <v>33</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>1</v>
       </c>
       <c r="R115" t="str">
-        <f t="shared" ref="R115:R117" ca="1" si="358">IF(ISBLANK(S115),"",
-VLOOKUP(S115,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="357"/>
         <v/>
       </c>
       <c r="V115" t="str">
-        <f t="shared" ref="V115:V117" ca="1" si="359">IF(ISBLANK(W115),"",
-VLOOKUP(W115,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="358"/>
         <v/>
       </c>
       <c r="Z115" t="str">
-        <f t="shared" ref="Z115:Z117" ca="1" si="360">IF(ISBLANK(AA115),"",
-VLOOKUP(AA115,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="359"/>
         <v/>
       </c>
       <c r="AD115" t="str">
-        <f t="shared" ref="AD115:AD117" ca="1" si="361">IF(ISBLANK(AE115),"",
-VLOOKUP(AE115,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="360"/>
         <v/>
       </c>
       <c r="AH115" t="str">
-        <f t="shared" ref="AH115:AH117" ca="1" si="362">IF(LEN(N115)=0,"",N115)</f>
+        <f t="shared" ca="1" si="361"/>
         <v>it</v>
       </c>
       <c r="AI115" t="str">
-        <f t="shared" ref="AI115:AI117" si="363">IF(LEN(P115)=0,"",P115)</f>
-        <v>Cash_sUnacquiredCompanion</v>
+        <f t="shared" si="362"/>
+        <v>Cash_sAcquiredCompanion</v>
       </c>
       <c r="AJ115">
-        <f t="shared" ref="AJ115:AJ117" si="364">IF(LEN(Q115)=0,"",Q115)</f>
+        <f t="shared" si="363"/>
         <v>1</v>
       </c>
       <c r="AK115" t="str">
-        <f t="shared" ref="AK115:AK117" ca="1" si="365">IF(LEN(R115)=0,"",R115)</f>
+        <f t="shared" ca="1" si="364"/>
         <v/>
       </c>
       <c r="AL115" t="str">
-        <f t="shared" ref="AL115:AL117" si="366">IF(LEN(T115)=0,"",T115)</f>
+        <f t="shared" si="365"/>
         <v/>
       </c>
       <c r="AM115" t="str">
-        <f t="shared" ref="AM115:AM117" si="367">IF(LEN(U115)=0,"",U115)</f>
+        <f t="shared" si="366"/>
         <v/>
       </c>
       <c r="AN115" t="str">
-        <f t="shared" ref="AN115:AN117" ca="1" si="368">IF(LEN(V115)=0,"",V115)</f>
+        <f t="shared" ca="1" si="367"/>
         <v/>
       </c>
       <c r="AO115" t="str">
-        <f t="shared" ref="AO115:AO117" si="369">IF(LEN(X115)=0,"",X115)</f>
+        <f t="shared" si="368"/>
         <v/>
       </c>
       <c r="AP115" t="str">
-        <f t="shared" ref="AP115:AP117" si="370">IF(LEN(Y115)=0,"",Y115)</f>
+        <f t="shared" si="369"/>
         <v/>
       </c>
       <c r="AQ115" t="str">
-        <f t="shared" ref="AQ115:AQ117" ca="1" si="371">IF(LEN(Z115)=0,"",Z115)</f>
+        <f t="shared" ca="1" si="370"/>
         <v/>
       </c>
       <c r="AR115" t="str">
-        <f t="shared" ref="AR115:AR117" si="372">IF(LEN(AB115)=0,"",AB115)</f>
+        <f t="shared" si="371"/>
         <v/>
       </c>
       <c r="AS115" t="str">
-        <f t="shared" ref="AS115:AS117" si="373">IF(LEN(AC115)=0,"",AC115)</f>
+        <f t="shared" si="372"/>
         <v/>
       </c>
       <c r="AT115" t="str">
-        <f t="shared" ref="AT115:AT117" ca="1" si="374">IF(LEN(AD115)=0,"",AD115)</f>
+        <f t="shared" ca="1" si="373"/>
         <v/>
       </c>
       <c r="AU115" t="str">
-        <f t="shared" ref="AU115:AU117" si="375">IF(LEN(AF115)=0,"",AF115)</f>
+        <f t="shared" si="374"/>
         <v/>
       </c>
       <c r="AV115" t="str">
-        <f t="shared" ref="AV115:AV117" si="376">IF(LEN(AG115)=0,"",AG115)</f>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="AW115" t="str">
-        <f t="shared" ref="AW115:AW117" ca="1" si="377">IF(ROW()=2,AX115,OFFSET(AW115,-1,0)&amp;IF(LEN(AX115)=0,"",","&amp;AX115))</f>
+        <f t="shared" ca="1" si="376"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX115" t="str">
-        <f t="shared" ref="AX115:AX117" si="378">IF(G115=FALSE,"",
-"{"""&amp;C$1&amp;""":"""&amp;C115&amp;""""
-&amp;","""&amp;L$1&amp;""":"&amp;L115
-&amp;IF(LEN(N115)=0,"",","""&amp;N$1&amp;""":"""&amp;N115&amp;"""")
-&amp;IF(LEN(P115)=0,"",","""&amp;P$1&amp;""":"""&amp;P115&amp;"""")
-&amp;IF(LEN(Q115)=0,"",","""&amp;Q$1&amp;""":"&amp;Q115)
-&amp;IF(LEN(R115)=0,"",","""&amp;R$1&amp;""":"""&amp;R115&amp;"""")
-&amp;IF(LEN(T115)=0,"",","""&amp;T$1&amp;""":"""&amp;T115&amp;"""")
-&amp;IF(LEN(U115)=0,"",","""&amp;U$1&amp;""":"&amp;U115)
-&amp;IF(LEN(V115)=0,"",","""&amp;V$1&amp;""":"""&amp;V115&amp;"""")
-&amp;IF(LEN(X115)=0,"",","""&amp;X$1&amp;""":"""&amp;X115&amp;"""")
-&amp;IF(LEN(Y115)=0,"",","""&amp;Y$1&amp;""":"&amp;Y115)
-&amp;IF(LEN(Z115)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z115&amp;"""")
-&amp;IF(LEN(AB115)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB115&amp;"""")
-&amp;IF(LEN(AC115)=0,"",","""&amp;AC$1&amp;""":"&amp;AC115)
-&amp;IF(LEN(AD115)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD115&amp;"""")
-&amp;IF(LEN(AF115)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF115&amp;"""")
-&amp;IF(LEN(AG115)=0,"",","""&amp;AG$1&amp;""":"&amp;AG115)&amp;"}")</f>
+        <f t="shared" si="377"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:50">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C116" t="str">
+        <f t="shared" si="352"/>
+        <v>ev17_acquiredcompanionpp</v>
+      </c>
+      <c r="D116" t="str">
         <f t="shared" si="353"/>
-        <v>ev16_acquiredcompanion</v>
-      </c>
-      <c r="D116" t="str">
+        <v>ev17</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="354"/>
-        <v>ev16</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="355"/>
         <v>1</v>
       </c>
       <c r="G116" t="b">
@@ -19742,127 +19731,131 @@
         <v>13000</v>
       </c>
       <c r="K116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L116">
-        <v>569</v>
+        <v>880</v>
       </c>
       <c r="M116">
-        <f t="shared" si="356"/>
-        <v>569</v>
+        <f t="shared" si="355"/>
+        <v>880</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" ca="1" si="357"/>
+        <f t="shared" ca="1" si="356"/>
         <v>it</v>
       </c>
       <c r="O116" t="s">
         <v>33</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="str">
+        <f t="shared" ca="1" si="357"/>
+        <v/>
+      </c>
+      <c r="V116" t="str">
         <f t="shared" ca="1" si="358"/>
         <v/>
       </c>
-      <c r="V116" t="str">
+      <c r="Z116" t="str">
         <f t="shared" ca="1" si="359"/>
         <v/>
       </c>
-      <c r="Z116" t="str">
+      <c r="AD116" t="str">
         <f t="shared" ca="1" si="360"/>
         <v/>
       </c>
-      <c r="AD116" t="str">
+      <c r="AH116" t="str">
         <f t="shared" ca="1" si="361"/>
-        <v/>
-      </c>
-      <c r="AH116" t="str">
-        <f t="shared" ca="1" si="362"/>
         <v>it</v>
       </c>
       <c r="AI116" t="str">
+        <f t="shared" si="362"/>
+        <v>Cash_sAcquiredCompanionPp</v>
+      </c>
+      <c r="AJ116">
         <f t="shared" si="363"/>
-        <v>Cash_sAcquiredCompanion</v>
-      </c>
-      <c r="AJ116">
-        <f t="shared" si="364"/>
         <v>1</v>
       </c>
       <c r="AK116" t="str">
-        <f t="shared" ca="1" si="365"/>
+        <f t="shared" ca="1" si="364"/>
         <v/>
       </c>
       <c r="AL116" t="str">
+        <f t="shared" si="365"/>
+        <v/>
+      </c>
+      <c r="AM116" t="str">
         <f t="shared" si="366"/>
         <v/>
       </c>
-      <c r="AM116" t="str">
-        <f t="shared" si="367"/>
-        <v/>
-      </c>
       <c r="AN116" t="str">
-        <f t="shared" ca="1" si="368"/>
+        <f t="shared" ca="1" si="367"/>
         <v/>
       </c>
       <c r="AO116" t="str">
+        <f t="shared" si="368"/>
+        <v/>
+      </c>
+      <c r="AP116" t="str">
         <f t="shared" si="369"/>
         <v/>
       </c>
-      <c r="AP116" t="str">
-        <f t="shared" si="370"/>
-        <v/>
-      </c>
       <c r="AQ116" t="str">
-        <f t="shared" ca="1" si="371"/>
+        <f t="shared" ca="1" si="370"/>
         <v/>
       </c>
       <c r="AR116" t="str">
+        <f t="shared" si="371"/>
+        <v/>
+      </c>
+      <c r="AS116" t="str">
         <f t="shared" si="372"/>
         <v/>
       </c>
-      <c r="AS116" t="str">
-        <f t="shared" si="373"/>
-        <v/>
-      </c>
       <c r="AT116" t="str">
-        <f t="shared" ca="1" si="374"/>
+        <f t="shared" ca="1" si="373"/>
         <v/>
       </c>
       <c r="AU116" t="str">
+        <f t="shared" si="374"/>
+        <v/>
+      </c>
+      <c r="AV116" t="str">
         <f t="shared" si="375"/>
         <v/>
       </c>
-      <c r="AV116" t="str">
-        <f t="shared" si="376"/>
-        <v/>
-      </c>
       <c r="AW116" t="str">
-        <f t="shared" ca="1" si="377"/>
+        <f t="shared" ca="1" si="376"/>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX116" t="str">
-        <f t="shared" si="378"/>
+        <f t="shared" si="377"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:50">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>278</v>
+      </c>
+      <c r="B117" t="s">
+        <v>279</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="353"/>
-        <v>ev17_acquiredcompanionpp</v>
+        <f t="shared" ref="C117" si="378">A117</f>
+        <v>petpass</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="354"/>
-        <v>ev17</v>
+        <f t="shared" ref="D117" si="379">IF(ISERROR(FIND("_",A117)),A117,
+LEFT(A117,FIND("_",A117)-1))</f>
+        <v>petpass</v>
       </c>
       <c r="E117">
-        <f t="shared" si="355"/>
+        <f t="shared" ref="E117" si="380">COUNTA(O117,S117,W117,AA117,AE117)</f>
         <v>1</v>
       </c>
       <c r="G117" t="b">
@@ -19875,120 +19868,147 @@
         <v>13000</v>
       </c>
       <c r="K117" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L117">
-        <v>880</v>
+        <v>406</v>
       </c>
       <c r="M117">
-        <f t="shared" si="356"/>
-        <v>880</v>
+        <f t="shared" ref="M117" si="381">L117</f>
+        <v>406</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" ca="1" si="357"/>
+        <f t="shared" ref="N117" ca="1" si="382">IF(ISBLANK(O117),"",
+VLOOKUP(O117,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>it</v>
       </c>
       <c r="O117" t="s">
         <v>33</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>1</v>
       </c>
       <c r="R117" t="str">
-        <f t="shared" ca="1" si="358"/>
+        <f t="shared" ref="R117" ca="1" si="383">IF(ISBLANK(S117),"",
+VLOOKUP(S117,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="V117" t="str">
-        <f t="shared" ca="1" si="359"/>
+        <f t="shared" ref="V117" ca="1" si="384">IF(ISBLANK(W117),"",
+VLOOKUP(W117,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="Z117" t="str">
-        <f t="shared" ca="1" si="360"/>
+        <f t="shared" ref="Z117" ca="1" si="385">IF(ISBLANK(AA117),"",
+VLOOKUP(AA117,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AD117" t="str">
-        <f t="shared" ca="1" si="361"/>
+        <f t="shared" ref="AD117" ca="1" si="386">IF(ISBLANK(AE117),"",
+VLOOKUP(AE117,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="AH117" t="str">
-        <f t="shared" ca="1" si="362"/>
+        <f t="shared" ref="AH117" ca="1" si="387">IF(LEN(N117)=0,"",N117)</f>
         <v>it</v>
       </c>
       <c r="AI117" t="str">
-        <f t="shared" si="363"/>
-        <v>Cash_sAcquiredCompanionPp</v>
+        <f t="shared" ref="AI117" si="388">IF(LEN(P117)=0,"",P117)</f>
+        <v>Cash_sPetPass</v>
       </c>
       <c r="AJ117">
-        <f t="shared" si="364"/>
+        <f t="shared" ref="AJ117" si="389">IF(LEN(Q117)=0,"",Q117)</f>
         <v>1</v>
       </c>
       <c r="AK117" t="str">
-        <f t="shared" ca="1" si="365"/>
+        <f t="shared" ref="AK117" ca="1" si="390">IF(LEN(R117)=0,"",R117)</f>
         <v/>
       </c>
       <c r="AL117" t="str">
-        <f t="shared" si="366"/>
+        <f t="shared" ref="AL117" si="391">IF(LEN(T117)=0,"",T117)</f>
         <v/>
       </c>
       <c r="AM117" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" ref="AM117" si="392">IF(LEN(U117)=0,"",U117)</f>
         <v/>
       </c>
       <c r="AN117" t="str">
-        <f t="shared" ca="1" si="368"/>
+        <f t="shared" ref="AN117" ca="1" si="393">IF(LEN(V117)=0,"",V117)</f>
         <v/>
       </c>
       <c r="AO117" t="str">
-        <f t="shared" si="369"/>
+        <f t="shared" ref="AO117" si="394">IF(LEN(X117)=0,"",X117)</f>
         <v/>
       </c>
       <c r="AP117" t="str">
-        <f t="shared" si="370"/>
+        <f t="shared" ref="AP117" si="395">IF(LEN(Y117)=0,"",Y117)</f>
         <v/>
       </c>
       <c r="AQ117" t="str">
-        <f t="shared" ca="1" si="371"/>
+        <f t="shared" ref="AQ117" ca="1" si="396">IF(LEN(Z117)=0,"",Z117)</f>
         <v/>
       </c>
       <c r="AR117" t="str">
-        <f t="shared" si="372"/>
+        <f t="shared" ref="AR117" si="397">IF(LEN(AB117)=0,"",AB117)</f>
         <v/>
       </c>
       <c r="AS117" t="str">
-        <f t="shared" si="373"/>
+        <f t="shared" ref="AS117" si="398">IF(LEN(AC117)=0,"",AC117)</f>
         <v/>
       </c>
       <c r="AT117" t="str">
-        <f t="shared" ca="1" si="374"/>
+        <f t="shared" ref="AT117" ca="1" si="399">IF(LEN(AD117)=0,"",AD117)</f>
         <v/>
       </c>
       <c r="AU117" t="str">
-        <f t="shared" si="375"/>
+        <f t="shared" ref="AU117" si="400">IF(LEN(AF117)=0,"",AF117)</f>
         <v/>
       </c>
       <c r="AV117" t="str">
-        <f t="shared" si="376"/>
+        <f t="shared" ref="AV117" si="401">IF(LEN(AG117)=0,"",AG117)</f>
         <v/>
       </c>
       <c r="AW117" t="str">
-        <f t="shared" ca="1" si="377"/>
+        <f t="shared" ref="AW117" ca="1" si="402">IF(ROW()=2,AX117,OFFSET(AW117,-1,0)&amp;IF(LEN(AX117)=0,"",","&amp;AX117))</f>
         <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0003","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
       </c>
       <c r="AX117" t="str">
-        <f t="shared" si="378"/>
+        <f t="shared" ref="AX117" si="403">IF(G117=FALSE,"",
+"{"""&amp;C$1&amp;""":"""&amp;C117&amp;""""
+&amp;","""&amp;L$1&amp;""":"&amp;L117
+&amp;IF(LEN(N117)=0,"",","""&amp;N$1&amp;""":"""&amp;N117&amp;"""")
+&amp;IF(LEN(P117)=0,"",","""&amp;P$1&amp;""":"""&amp;P117&amp;"""")
+&amp;IF(LEN(Q117)=0,"",","""&amp;Q$1&amp;""":"&amp;Q117)
+&amp;IF(LEN(R117)=0,"",","""&amp;R$1&amp;""":"""&amp;R117&amp;"""")
+&amp;IF(LEN(T117)=0,"",","""&amp;T$1&amp;""":"""&amp;T117&amp;"""")
+&amp;IF(LEN(U117)=0,"",","""&amp;U$1&amp;""":"&amp;U117)
+&amp;IF(LEN(V117)=0,"",","""&amp;V$1&amp;""":"""&amp;V117&amp;"""")
+&amp;IF(LEN(X117)=0,"",","""&amp;X$1&amp;""":"""&amp;X117&amp;"""")
+&amp;IF(LEN(Y117)=0,"",","""&amp;Y$1&amp;""":"&amp;Y117)
+&amp;IF(LEN(Z117)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z117&amp;"""")
+&amp;IF(LEN(AB117)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB117&amp;"""")
+&amp;IF(LEN(AC117)=0,"",","""&amp;AC$1&amp;""":"&amp;AC117)
+&amp;IF(LEN(AD117)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD117&amp;"""")
+&amp;IF(LEN(AF117)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF117&amp;"""")
+&amp;IF(LEN(AG117)=0,"",","""&amp;AG$1&amp;""":"&amp;AG117)&amp;"}")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE96:AE117 O2:O107 S2:S117 W2:W117 AE2:AE90 AA2:AA117" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE90 AA2:AA116 W2:W116 S2:S116 O2:O106 AE96:AE116" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF96:AF117 AB2:AB117 AF2:AF90 X2:X117 T2:T117 P2:P117" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF90 P2:P116 T2:T116 X2:X116 AB2:AB116 AF96:AF116" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(IF(O2="재화","서버재화",IF(O2="아이템","서버아이템","그외")),INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -20253,7 +20273,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -20262,7 +20282,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -20271,7 +20291,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -20280,7 +20300,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -20289,7 +20309,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -20319,13 +20339,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20336,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20369,7 +20389,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20380,7 +20400,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -20411,25 +20431,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -20438,7 +20458,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -20446,13 +20466,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E2">
         <f>IF(A2,1,0)</f>
@@ -20488,13 +20508,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">IF(A3,1,0)</f>
@@ -20524,13 +20544,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -20558,13 +20578,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -20592,13 +20612,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -20648,25 +20668,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
         <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>10</v>
@@ -20675,7 +20695,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -20683,13 +20703,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E2">
         <f>A2</f>
@@ -20725,13 +20745,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">A3</f>
@@ -20761,13 +20781,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -20795,13 +20815,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -20829,13 +20849,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -20888,19 +20908,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>268</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -20909,7 +20929,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -20931,7 +20951,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G6" ca="1" si="0">IF(ROW()=2,H2,OFFSET(G2,-1,0)&amp;IF(LEN(H2)=0,"",","&amp;H2))</f>
@@ -20968,7 +20988,7 @@
         <v>3000</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -20999,7 +21019,7 @@
         <v>4000</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -21029,7 +21049,7 @@
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -21059,7 +21079,7 @@
         <v>6000</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="0"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1790EEAE-B3AE-4C25-B766-5D03F7C4A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF2F6A-B535-4F9D-AE44-E34DC6AD1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="PickOneSpellTable" sheetId="5" r:id="rId5"/>
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
     <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId7"/>
+    <sheet name="PassAtkTable" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1483,7 +1484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="440">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,10 +2458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>펫 성장 패스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cash_sPetPass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2897,6 +2894,69 @@
   </si>
   <si>
     <t>Cash_sAnalysisBoost</t>
+  </si>
+  <si>
+    <t>teampass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 전투 패스(14일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펫 성장 패스(28일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Advance Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 향상 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sTeamPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay2</t>
+  </si>
+  <si>
+    <t>relay3</t>
+  </si>
+  <si>
+    <t>relay4</t>
+  </si>
+  <si>
+    <t>relay5</t>
+  </si>
+  <si>
+    <t>relay6</t>
+  </si>
+  <si>
+    <t>relay7</t>
+  </si>
+  <si>
+    <t>relay8</t>
+  </si>
+  <si>
+    <t>relay9</t>
+  </si>
+  <si>
+    <t>relay10</t>
+  </si>
+  <si>
+    <t>atk|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3340,72 +3400,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BT117"/>
+  <dimension ref="A1:BS118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AZ101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="12" width="9.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="11" max="12" width="9.25" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="27.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="9" collapsed="1"/>
+    <col min="16" max="16" width="6.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="27.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="18.75" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="28.875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9" collapsed="1"/>
-    <col min="56" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9" collapsed="1"/>
-    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="9" collapsed="1"/>
-    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9" collapsed="1"/>
-    <col min="63" max="63" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9" collapsed="1"/>
-    <col min="65" max="69" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="9" collapsed="1"/>
-    <col min="71" max="71" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="9" collapsed="1"/>
+    <col min="53" max="54" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="57" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="69" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="27" customHeight="1">
@@ -3416,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>55</v>
@@ -3440,10 +3491,10 @@
         <v>199</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>2</v>
@@ -3587,19 +3638,19 @@
         <v>88</v>
       </c>
       <c r="BM1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BN1" t="s">
         <v>280</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>281</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>282</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>283</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>284</v>
       </c>
       <c r="BS1" t="s">
         <v>71</v>
@@ -3613,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
         <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>307</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E47" si="0">A2</f>
@@ -3639,7 +3690,7 @@
         <v/>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M14" si="1">IF(ISBLANK($L2),"",VLOOKUP($L2,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -3802,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="BN2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BO2">
         <v>0.99</v>
@@ -3826,10 +3877,10 @@
         <v>254</v>
       </c>
       <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
         <v>308</v>
-      </c>
-      <c r="D3" t="s">
-        <v>309</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3" si="25">A3</f>
@@ -3852,7 +3903,7 @@
         <v/>
       </c>
       <c r="L3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3985,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="BN3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BO3">
         <v>1.99</v>
@@ -4003,10 +4054,10 @@
         <v>255</v>
       </c>
       <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
         <v>310</v>
-      </c>
-      <c r="D4" t="s">
-        <v>311</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E7" si="30">A4</f>
@@ -4029,7 +4080,7 @@
         <v/>
       </c>
       <c r="L4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
@@ -4166,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="BN4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BO4">
         <v>2.99</v>
@@ -4184,10 +4235,10 @@
         <v>256</v>
       </c>
       <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
         <v>312</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="30"/>
@@ -4209,7 +4260,7 @@
         <v/>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
@@ -4333,7 +4384,7 @@
         <v>4</v>
       </c>
       <c r="BN5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BO5">
         <v>3.99</v>
@@ -4351,10 +4402,10 @@
         <v>257</v>
       </c>
       <c r="C6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" t="s">
         <v>314</v>
-      </c>
-      <c r="D6" t="s">
-        <v>315</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="30"/>
@@ -4376,7 +4427,7 @@
         <v/>
       </c>
       <c r="L6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
@@ -4500,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="BN6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BO6">
         <v>4.99</v>
@@ -4510,7 +4561,7 @@
       </c>
       <c r="BQ6">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -4518,10 +4569,10 @@
         <v>258</v>
       </c>
       <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
         <v>316</v>
-      </c>
-      <c r="D7" t="s">
-        <v>317</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="30"/>
@@ -4543,7 +4594,7 @@
         <v/>
       </c>
       <c r="L7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
@@ -4667,7 +4718,7 @@
         <v>6</v>
       </c>
       <c r="BN7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BO7">
         <v>5.99</v>
@@ -4688,10 +4739,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
         <v>318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>319</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -4714,7 +4765,7 @@
         <v/>
       </c>
       <c r="L8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
@@ -4847,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="BN8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BO8">
         <v>6.99</v>
@@ -4865,10 +4916,10 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
         <v>320</v>
-      </c>
-      <c r="D9" t="s">
-        <v>321</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -4890,7 +4941,7 @@
         <v/>
       </c>
       <c r="L9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -5033,7 +5084,7 @@
         <v>8</v>
       </c>
       <c r="BN9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BO9">
         <v>7.99</v>
@@ -5051,10 +5102,10 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" t="s">
         <v>322</v>
-      </c>
-      <c r="D10" t="s">
-        <v>323</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ref="E10:E12" si="80">A10</f>
@@ -5076,7 +5127,7 @@
         <v/>
       </c>
       <c r="L10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -5228,7 +5279,7 @@
         <v>9</v>
       </c>
       <c r="BN10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO10">
         <v>8.99</v>
@@ -5246,10 +5297,10 @@
         <v>67</v>
       </c>
       <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
         <v>324</v>
-      </c>
-      <c r="D11" t="s">
-        <v>325</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="80"/>
@@ -5271,7 +5322,7 @@
         <v/>
       </c>
       <c r="L11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
@@ -5413,7 +5464,7 @@
         <v>10</v>
       </c>
       <c r="BN11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BO11">
         <v>9.99</v>
@@ -5431,10 +5482,10 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
         <v>326</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="80"/>
@@ -5456,7 +5507,7 @@
         <v/>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
@@ -5607,7 +5658,7 @@
         <v>11</v>
       </c>
       <c r="BN12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BO12">
         <v>11.99</v>
@@ -5793,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="BN13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BO13">
         <v>18.989999999999998</v>
@@ -5951,7 +6002,7 @@
         <v>13</v>
       </c>
       <c r="BN14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BO14">
         <v>19.989999999999998</v>
@@ -6134,7 +6185,7 @@
         <v>14</v>
       </c>
       <c r="BN15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BO15">
         <v>29.99</v>
@@ -6298,7 +6349,7 @@
         <v>15</v>
       </c>
       <c r="BN16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BO16">
         <v>49.99</v>
@@ -6491,7 +6542,7 @@
         <v>16</v>
       </c>
       <c r="BN17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BO17">
         <v>64.989999999999995</v>
@@ -6672,7 +6723,7 @@
         <v>17</v>
       </c>
       <c r="BN18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BO18">
         <v>79.989999999999995</v>
@@ -6862,7 +6913,7 @@
         <v>18</v>
       </c>
       <c r="BN19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BO19">
         <v>99.99</v>
@@ -6880,10 +6931,10 @@
         <v>202</v>
       </c>
       <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" t="s">
         <v>328</v>
-      </c>
-      <c r="D20" t="s">
-        <v>329</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ref="E20:E21" si="114">A20</f>
@@ -6906,7 +6957,7 @@
         <v/>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M20">
         <f t="shared" si="112"/>
@@ -7046,10 +7097,10 @@
         <v>204</v>
       </c>
       <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" t="s">
         <v>330</v>
-      </c>
-      <c r="D21" t="s">
-        <v>331</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="114"/>
@@ -7071,7 +7122,7 @@
         <v/>
       </c>
       <c r="L21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M21">
         <f t="shared" si="112"/>
@@ -7203,10 +7254,10 @@
         <v>168</v>
       </c>
       <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
         <v>332</v>
-      </c>
-      <c r="D22" t="s">
-        <v>333</v>
       </c>
       <c r="E22" t="str">
         <f>A22</f>
@@ -7228,7 +7279,7 @@
         <v/>
       </c>
       <c r="L22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M22">
         <f t="shared" si="112"/>
@@ -7405,7 +7456,7 @@
         <v>33</v>
       </c>
       <c r="T23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -7529,10 +7580,10 @@
         <v>132</v>
       </c>
       <c r="C24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" t="s">
         <v>334</v>
-      </c>
-      <c r="D24" t="s">
-        <v>335</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -7554,7 +7605,7 @@
         <v/>
       </c>
       <c r="L24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M24">
         <f t="shared" si="112"/>
@@ -7703,10 +7754,10 @@
         <v>77</v>
       </c>
       <c r="C25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" t="s">
         <v>336</v>
-      </c>
-      <c r="D25" t="s">
-        <v>337</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -7728,7 +7779,7 @@
         <v/>
       </c>
       <c r="L25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M25">
         <f t="shared" si="112"/>
@@ -7869,10 +7920,10 @@
         <v>78</v>
       </c>
       <c r="C26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" t="s">
         <v>338</v>
-      </c>
-      <c r="D26" t="s">
-        <v>339</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -7894,7 +7945,7 @@
         <v/>
       </c>
       <c r="L26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M26">
         <f t="shared" si="112"/>
@@ -8035,10 +8086,10 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" t="s">
         <v>340</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -8060,7 +8111,7 @@
         <v/>
       </c>
       <c r="L27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M27">
         <f t="shared" si="112"/>
@@ -8201,10 +8252,10 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
         <v>334</v>
-      </c>
-      <c r="D28" t="s">
-        <v>335</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -8226,7 +8277,7 @@
         <v/>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M28">
         <f t="shared" si="112"/>
@@ -8367,10 +8418,10 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
         <v>336</v>
-      </c>
-      <c r="D29" t="s">
-        <v>337</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -8392,7 +8443,7 @@
         <v/>
       </c>
       <c r="L29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M29">
         <f t="shared" si="112"/>
@@ -8533,10 +8584,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" t="s">
         <v>338</v>
-      </c>
-      <c r="D30" t="s">
-        <v>339</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -8558,7 +8609,7 @@
         <v/>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M30">
         <f t="shared" si="112"/>
@@ -8699,10 +8750,10 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
         <v>340</v>
-      </c>
-      <c r="D31" t="s">
-        <v>341</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -8724,7 +8775,7 @@
         <v/>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M31">
         <f t="shared" si="112"/>
@@ -8865,10 +8916,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" t="s">
         <v>334</v>
-      </c>
-      <c r="D32" t="s">
-        <v>335</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -8890,7 +8941,7 @@
         <v/>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M32">
         <f t="shared" si="112"/>
@@ -9031,10 +9082,10 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
         <v>336</v>
-      </c>
-      <c r="D33" t="s">
-        <v>337</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -9056,7 +9107,7 @@
         <v/>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M33">
         <f t="shared" si="112"/>
@@ -9197,10 +9248,10 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
         <v>338</v>
-      </c>
-      <c r="D34" t="s">
-        <v>339</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -9222,7 +9273,7 @@
         <v/>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M34">
         <f t="shared" si="112"/>
@@ -9380,10 +9431,10 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" t="s">
         <v>340</v>
-      </c>
-      <c r="D35" t="s">
-        <v>341</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -9405,7 +9456,7 @@
         <v/>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M35">
         <f t="shared" si="112"/>
@@ -9549,10 +9600,10 @@
         <v>175</v>
       </c>
       <c r="C36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" t="s">
         <v>342</v>
-      </c>
-      <c r="D36" t="s">
-        <v>343</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -9574,7 +9625,7 @@
         <v/>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M36">
         <f t="shared" si="112"/>
@@ -9715,10 +9766,10 @@
         <v>172</v>
       </c>
       <c r="C37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" t="s">
         <v>344</v>
-      </c>
-      <c r="D37" t="s">
-        <v>345</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -9740,7 +9791,7 @@
         <v/>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M37">
         <f t="shared" si="112"/>
@@ -9881,10 +9932,10 @@
         <v>173</v>
       </c>
       <c r="C38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" t="s">
         <v>346</v>
-      </c>
-      <c r="D38" t="s">
-        <v>347</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -9906,7 +9957,7 @@
         <v/>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M38">
         <f t="shared" si="112"/>
@@ -10047,10 +10098,10 @@
         <v>174</v>
       </c>
       <c r="C39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" t="s">
         <v>348</v>
-      </c>
-      <c r="D39" t="s">
-        <v>349</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -10072,7 +10123,7 @@
         <v/>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M39">
         <f t="shared" si="112"/>
@@ -10213,10 +10264,10 @@
         <v>178</v>
       </c>
       <c r="C40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" t="s">
         <v>342</v>
-      </c>
-      <c r="D40" t="s">
-        <v>343</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -10238,7 +10289,7 @@
         <v/>
       </c>
       <c r="L40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M40">
         <f t="shared" si="112"/>
@@ -10379,10 +10430,10 @@
         <v>179</v>
       </c>
       <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
         <v>344</v>
-      </c>
-      <c r="D41" t="s">
-        <v>345</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -10404,7 +10455,7 @@
         <v/>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M41">
         <f t="shared" si="112"/>
@@ -10545,10 +10596,10 @@
         <v>180</v>
       </c>
       <c r="C42" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" t="s">
         <v>346</v>
-      </c>
-      <c r="D42" t="s">
-        <v>347</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -10570,7 +10621,7 @@
         <v/>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M42">
         <f t="shared" si="112"/>
@@ -10711,10 +10762,10 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" t="s">
         <v>348</v>
-      </c>
-      <c r="D43" t="s">
-        <v>349</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -10736,7 +10787,7 @@
         <v/>
       </c>
       <c r="L43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M43">
         <f t="shared" si="112"/>
@@ -10877,10 +10928,10 @@
         <v>183</v>
       </c>
       <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" t="s">
         <v>342</v>
-      </c>
-      <c r="D44" t="s">
-        <v>343</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -10902,7 +10953,7 @@
         <v/>
       </c>
       <c r="L44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M44">
         <f t="shared" si="112"/>
@@ -11043,10 +11094,10 @@
         <v>184</v>
       </c>
       <c r="C45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" t="s">
         <v>344</v>
-      </c>
-      <c r="D45" t="s">
-        <v>345</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -11068,7 +11119,7 @@
         <v/>
       </c>
       <c r="L45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M45">
         <f t="shared" si="112"/>
@@ -11209,10 +11260,10 @@
         <v>185</v>
       </c>
       <c r="C46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" t="s">
         <v>346</v>
-      </c>
-      <c r="D46" t="s">
-        <v>347</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -11234,7 +11285,7 @@
         <v/>
       </c>
       <c r="L46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M46">
         <f t="shared" si="112"/>
@@ -11375,10 +11426,10 @@
         <v>186</v>
       </c>
       <c r="C47" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" t="s">
         <v>348</v>
-      </c>
-      <c r="D47" t="s">
-        <v>349</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -11400,7 +11451,7 @@
         <v/>
       </c>
       <c r="L47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M47">
         <f t="shared" si="112"/>
@@ -11544,10 +11595,10 @@
         <v>130</v>
       </c>
       <c r="C48" t="s">
+        <v>349</v>
+      </c>
+      <c r="D48" t="s">
         <v>350</v>
-      </c>
-      <c r="D48" t="s">
-        <v>351</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ref="E48:E90" si="179">A48</f>
@@ -11569,7 +11620,7 @@
         <v/>
       </c>
       <c r="L48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M48">
         <f t="shared" si="112"/>
@@ -11702,10 +11753,10 @@
         <v>97</v>
       </c>
       <c r="C49" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
         <v>352</v>
-      </c>
-      <c r="D49" t="s">
-        <v>353</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="179"/>
@@ -11727,7 +11778,7 @@
         <v/>
       </c>
       <c r="L49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M49">
         <f t="shared" si="112"/>
@@ -11850,10 +11901,10 @@
         <v>98</v>
       </c>
       <c r="C50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" t="s">
         <v>354</v>
-      </c>
-      <c r="D50" t="s">
-        <v>355</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="179"/>
@@ -11875,7 +11926,7 @@
         <v/>
       </c>
       <c r="L50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M50">
         <f t="shared" ref="M50:M81" si="202">IF(ISBLANK($L50),"",VLOOKUP($L50,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -11998,10 +12049,10 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" t="s">
         <v>356</v>
-      </c>
-      <c r="D51" t="s">
-        <v>357</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="179"/>
@@ -12023,7 +12074,7 @@
         <v/>
       </c>
       <c r="L51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M51">
         <f t="shared" si="202"/>
@@ -12146,10 +12197,10 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
         <v>358</v>
-      </c>
-      <c r="D52" t="s">
-        <v>359</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="179"/>
@@ -12171,7 +12222,7 @@
         <v/>
       </c>
       <c r="L52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M52">
         <f t="shared" si="202"/>
@@ -12294,10 +12345,10 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" t="s">
         <v>360</v>
-      </c>
-      <c r="D53" t="s">
-        <v>361</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="179"/>
@@ -12319,7 +12370,7 @@
         <v/>
       </c>
       <c r="L53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M53">
         <f t="shared" si="202"/>
@@ -12445,10 +12496,10 @@
         <v>131</v>
       </c>
       <c r="C54" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" t="s">
         <v>350</v>
-      </c>
-      <c r="D54" t="s">
-        <v>351</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="179"/>
@@ -12470,7 +12521,7 @@
         <v/>
       </c>
       <c r="L54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M54">
         <f t="shared" si="202"/>
@@ -12593,10 +12644,10 @@
         <v>104</v>
       </c>
       <c r="C55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" t="s">
         <v>352</v>
-      </c>
-      <c r="D55" t="s">
-        <v>353</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="179"/>
@@ -12618,7 +12669,7 @@
         <v/>
       </c>
       <c r="L55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M55">
         <f t="shared" si="202"/>
@@ -12741,10 +12792,10 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" t="s">
         <v>354</v>
-      </c>
-      <c r="D56" t="s">
-        <v>355</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="179"/>
@@ -12766,7 +12817,7 @@
         <v/>
       </c>
       <c r="L56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M56">
         <f t="shared" si="202"/>
@@ -12889,10 +12940,10 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" t="s">
         <v>356</v>
-      </c>
-      <c r="D57" t="s">
-        <v>357</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="179"/>
@@ -12914,7 +12965,7 @@
         <v/>
       </c>
       <c r="L57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M57">
         <f t="shared" si="202"/>
@@ -13037,10 +13088,10 @@
         <v>107</v>
       </c>
       <c r="C58" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" t="s">
         <v>358</v>
-      </c>
-      <c r="D58" t="s">
-        <v>359</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="179"/>
@@ -13062,7 +13113,7 @@
         <v/>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M58">
         <f t="shared" si="202"/>
@@ -13185,10 +13236,10 @@
         <v>108</v>
       </c>
       <c r="C59" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" t="s">
         <v>360</v>
-      </c>
-      <c r="D59" t="s">
-        <v>361</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="179"/>
@@ -13210,7 +13261,7 @@
         <v/>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M59">
         <f t="shared" si="202"/>
@@ -13333,10 +13384,10 @@
         <v>110</v>
       </c>
       <c r="C60" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" t="s">
         <v>362</v>
-      </c>
-      <c r="D60" t="s">
-        <v>363</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="179"/>
@@ -13358,7 +13409,7 @@
         <v/>
       </c>
       <c r="L60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M60">
         <f t="shared" si="202"/>
@@ -13481,10 +13532,10 @@
         <v>111</v>
       </c>
       <c r="C61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" t="s">
         <v>364</v>
-      </c>
-      <c r="D61" t="s">
-        <v>365</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="179"/>
@@ -13506,7 +13557,7 @@
         <v/>
       </c>
       <c r="L61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M61">
         <f t="shared" si="202"/>
@@ -13629,10 +13680,10 @@
         <v>112</v>
       </c>
       <c r="C62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" t="s">
         <v>366</v>
-      </c>
-      <c r="D62" t="s">
-        <v>367</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="179"/>
@@ -13654,7 +13705,7 @@
         <v/>
       </c>
       <c r="L62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M62">
         <f t="shared" si="202"/>
@@ -13777,10 +13828,10 @@
         <v>113</v>
       </c>
       <c r="C63" t="s">
+        <v>367</v>
+      </c>
+      <c r="D63" t="s">
         <v>368</v>
-      </c>
-      <c r="D63" t="s">
-        <v>369</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="179"/>
@@ -13802,7 +13853,7 @@
         <v/>
       </c>
       <c r="L63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M63">
         <f t="shared" si="202"/>
@@ -13925,10 +13976,10 @@
         <v>114</v>
       </c>
       <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s">
         <v>370</v>
-      </c>
-      <c r="D64" t="s">
-        <v>371</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="179"/>
@@ -13950,7 +14001,7 @@
         <v/>
       </c>
       <c r="L64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M64">
         <f t="shared" si="202"/>
@@ -14073,10 +14124,10 @@
         <v>115</v>
       </c>
       <c r="C65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D65" t="s">
         <v>372</v>
-      </c>
-      <c r="D65" t="s">
-        <v>373</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="179"/>
@@ -14098,7 +14149,7 @@
         <v/>
       </c>
       <c r="L65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M65">
         <f t="shared" si="202"/>
@@ -14221,10 +14272,10 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" t="s">
         <v>362</v>
-      </c>
-      <c r="D66" t="s">
-        <v>363</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="179"/>
@@ -14246,7 +14297,7 @@
         <v/>
       </c>
       <c r="L66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M66">
         <f t="shared" si="202"/>
@@ -14386,10 +14437,10 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s">
         <v>364</v>
-      </c>
-      <c r="D67" t="s">
-        <v>365</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="179"/>
@@ -14411,7 +14462,7 @@
         <v/>
       </c>
       <c r="L67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M67">
         <f t="shared" si="202"/>
@@ -14534,10 +14585,10 @@
         <v>119</v>
       </c>
       <c r="C68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" t="s">
         <v>366</v>
-      </c>
-      <c r="D68" t="s">
-        <v>367</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="179"/>
@@ -14559,7 +14610,7 @@
         <v/>
       </c>
       <c r="L68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M68">
         <f t="shared" si="202"/>
@@ -14682,10 +14733,10 @@
         <v>120</v>
       </c>
       <c r="C69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" t="s">
         <v>368</v>
-      </c>
-      <c r="D69" t="s">
-        <v>369</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="179"/>
@@ -14707,7 +14758,7 @@
         <v/>
       </c>
       <c r="L69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M69">
         <f t="shared" si="202"/>
@@ -14830,10 +14881,10 @@
         <v>121</v>
       </c>
       <c r="C70" t="s">
+        <v>369</v>
+      </c>
+      <c r="D70" t="s">
         <v>370</v>
-      </c>
-      <c r="D70" t="s">
-        <v>371</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="179"/>
@@ -14855,7 +14906,7 @@
         <v/>
       </c>
       <c r="L70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M70">
         <f t="shared" si="202"/>
@@ -14978,10 +15029,10 @@
         <v>122</v>
       </c>
       <c r="C71" t="s">
+        <v>371</v>
+      </c>
+      <c r="D71" t="s">
         <v>372</v>
-      </c>
-      <c r="D71" t="s">
-        <v>373</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="179"/>
@@ -15003,7 +15054,7 @@
         <v/>
       </c>
       <c r="L71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M71">
         <f t="shared" si="202"/>
@@ -15126,10 +15177,10 @@
         <v>264</v>
       </c>
       <c r="C72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" t="s">
         <v>374</v>
-      </c>
-      <c r="D72" t="s">
-        <v>375</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ref="E72:E83" si="206">A72</f>
@@ -15152,7 +15203,7 @@
         <v/>
       </c>
       <c r="L72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M72">
         <f t="shared" si="202"/>
@@ -15285,10 +15336,10 @@
         <v>265</v>
       </c>
       <c r="C73" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" t="s">
         <v>376</v>
-      </c>
-      <c r="D73" t="s">
-        <v>377</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="206"/>
@@ -15310,7 +15361,7 @@
         <v/>
       </c>
       <c r="L73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M73">
         <f t="shared" si="202"/>
@@ -15433,10 +15484,10 @@
         <v>266</v>
       </c>
       <c r="C74" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" t="s">
         <v>378</v>
-      </c>
-      <c r="D74" t="s">
-        <v>379</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="206"/>
@@ -15458,7 +15509,7 @@
         <v/>
       </c>
       <c r="L74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M74">
         <f t="shared" si="202"/>
@@ -15581,10 +15632,10 @@
         <v>267</v>
       </c>
       <c r="C75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" t="s">
         <v>380</v>
-      </c>
-      <c r="D75" t="s">
-        <v>381</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="206"/>
@@ -15606,7 +15657,7 @@
         <v/>
       </c>
       <c r="L75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M75">
         <f t="shared" si="202"/>
@@ -15729,10 +15780,10 @@
         <v>268</v>
       </c>
       <c r="C76" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" t="s">
         <v>382</v>
-      </c>
-      <c r="D76" t="s">
-        <v>383</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="206"/>
@@ -15754,7 +15805,7 @@
         <v/>
       </c>
       <c r="L76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M76">
         <f t="shared" si="202"/>
@@ -15877,10 +15928,10 @@
         <v>269</v>
       </c>
       <c r="C77" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" t="s">
         <v>384</v>
-      </c>
-      <c r="D77" t="s">
-        <v>385</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="206"/>
@@ -15902,7 +15953,7 @@
         <v/>
       </c>
       <c r="L77" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M77">
         <f t="shared" si="202"/>
@@ -16025,10 +16076,10 @@
         <v>270</v>
       </c>
       <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" t="s">
         <v>374</v>
-      </c>
-      <c r="D78" t="s">
-        <v>375</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="206"/>
@@ -16050,7 +16101,7 @@
         <v/>
       </c>
       <c r="L78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M78">
         <f t="shared" si="202"/>
@@ -16173,10 +16224,10 @@
         <v>271</v>
       </c>
       <c r="C79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" t="s">
         <v>376</v>
-      </c>
-      <c r="D79" t="s">
-        <v>377</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="206"/>
@@ -16198,7 +16249,7 @@
         <v/>
       </c>
       <c r="L79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M79">
         <f t="shared" si="202"/>
@@ -16321,10 +16372,10 @@
         <v>272</v>
       </c>
       <c r="C80" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" t="s">
         <v>378</v>
-      </c>
-      <c r="D80" t="s">
-        <v>379</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="206"/>
@@ -16346,7 +16397,7 @@
         <v/>
       </c>
       <c r="L80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M80">
         <f t="shared" si="202"/>
@@ -16469,10 +16520,10 @@
         <v>273</v>
       </c>
       <c r="C81" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" t="s">
         <v>380</v>
-      </c>
-      <c r="D81" t="s">
-        <v>381</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="206"/>
@@ -16494,7 +16545,7 @@
         <v/>
       </c>
       <c r="L81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M81">
         <f t="shared" si="202"/>
@@ -16617,10 +16668,10 @@
         <v>274</v>
       </c>
       <c r="C82" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" t="s">
         <v>382</v>
-      </c>
-      <c r="D82" t="s">
-        <v>383</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="206"/>
@@ -16642,7 +16693,7 @@
         <v/>
       </c>
       <c r="L82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82:M90" si="231">IF(ISBLANK($L82),"",VLOOKUP($L82,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -16765,10 +16816,10 @@
         <v>275</v>
       </c>
       <c r="C83" t="s">
+        <v>383</v>
+      </c>
+      <c r="D83" t="s">
         <v>384</v>
-      </c>
-      <c r="D83" t="s">
-        <v>385</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="206"/>
@@ -16790,7 +16841,7 @@
         <v/>
       </c>
       <c r="L83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M83">
         <f t="shared" si="231"/>
@@ -16916,10 +16967,10 @@
         <v>129</v>
       </c>
       <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
         <v>386</v>
-      </c>
-      <c r="D84" t="s">
-        <v>387</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="179"/>
@@ -16941,7 +16992,7 @@
         <v/>
       </c>
       <c r="L84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M84">
         <f t="shared" si="231"/>
@@ -17064,10 +17115,10 @@
         <v>125</v>
       </c>
       <c r="C85" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" t="s">
         <v>388</v>
-      </c>
-      <c r="D85" t="s">
-        <v>389</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="179"/>
@@ -17089,7 +17140,7 @@
         <v/>
       </c>
       <c r="L85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M85">
         <f t="shared" si="231"/>
@@ -17214,10 +17265,10 @@
         <v>126</v>
       </c>
       <c r="C86" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" t="s">
         <v>390</v>
-      </c>
-      <c r="D86" t="s">
-        <v>391</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="179"/>
@@ -17239,7 +17290,7 @@
         <v/>
       </c>
       <c r="L86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M86">
         <f t="shared" si="231"/>
@@ -17362,10 +17413,10 @@
         <v>127</v>
       </c>
       <c r="C87" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" t="s">
         <v>392</v>
-      </c>
-      <c r="D87" t="s">
-        <v>393</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="179"/>
@@ -17388,7 +17439,7 @@
         <v/>
       </c>
       <c r="L87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M87">
         <f t="shared" si="231"/>
@@ -17511,10 +17562,10 @@
         <v>128</v>
       </c>
       <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
         <v>394</v>
-      </c>
-      <c r="D88" t="s">
-        <v>395</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="179"/>
@@ -17536,7 +17587,7 @@
         <v/>
       </c>
       <c r="L88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M88">
         <f t="shared" si="231"/>
@@ -17662,10 +17713,10 @@
         <v>135</v>
       </c>
       <c r="C89" t="s">
+        <v>395</v>
+      </c>
+      <c r="D89" t="s">
         <v>396</v>
-      </c>
-      <c r="D89" t="s">
-        <v>397</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="179"/>
@@ -17687,7 +17738,7 @@
         <v/>
       </c>
       <c r="L89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M89">
         <f t="shared" si="231"/>
@@ -17820,10 +17871,10 @@
         <v>134</v>
       </c>
       <c r="C90" t="s">
+        <v>397</v>
+      </c>
+      <c r="D90" t="s">
         <v>398</v>
-      </c>
-      <c r="D90" t="s">
-        <v>399</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="179"/>
@@ -17845,7 +17896,7 @@
         <v/>
       </c>
       <c r="L90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M90">
         <f t="shared" si="231"/>
@@ -18803,10 +18854,10 @@
         <v>147</v>
       </c>
       <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" t="s">
         <v>400</v>
-      </c>
-      <c r="D96" t="s">
-        <v>401</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="258"/>
@@ -18828,7 +18879,7 @@
         <v/>
       </c>
       <c r="L96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M96">
         <f>IF(ISBLANK($L96),"",VLOOKUP($L96,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -20572,10 +20623,10 @@
         <v>208</v>
       </c>
       <c r="C107" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" t="s">
         <v>402</v>
-      </c>
-      <c r="D107" t="s">
-        <v>403</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" ref="E107:E109" si="307">A107</f>
@@ -20598,7 +20649,7 @@
         <v/>
       </c>
       <c r="L107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M107">
         <f>IF(ISBLANK($L107),"",VLOOKUP($L107,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -20628,7 +20679,7 @@
         <v>33</v>
       </c>
       <c r="T107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -20731,10 +20782,10 @@
         <v>210</v>
       </c>
       <c r="C108" t="s">
+        <v>403</v>
+      </c>
+      <c r="D108" t="s">
         <v>404</v>
-      </c>
-      <c r="D108" t="s">
-        <v>405</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="307"/>
@@ -20756,7 +20807,7 @@
         <v/>
       </c>
       <c r="L108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M108">
         <f>IF(ISBLANK($L108),"",VLOOKUP($L108,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -20784,7 +20835,7 @@
         <v>33</v>
       </c>
       <c r="T108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U108">
         <v>7</v>
@@ -20879,10 +20930,10 @@
         <v>211</v>
       </c>
       <c r="C109" t="s">
+        <v>405</v>
+      </c>
+      <c r="D109" t="s">
         <v>406</v>
-      </c>
-      <c r="D109" t="s">
-        <v>407</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="307"/>
@@ -20904,7 +20955,7 @@
         <v/>
       </c>
       <c r="L109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M109">
         <f>IF(ISBLANK($L109),"",VLOOKUP($L109,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -20932,7 +20983,7 @@
         <v>33</v>
       </c>
       <c r="T109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U109">
         <v>30</v>
@@ -21057,10 +21108,10 @@
         <v>161</v>
       </c>
       <c r="C110" t="s">
+        <v>407</v>
+      </c>
+      <c r="D110" t="s">
         <v>408</v>
-      </c>
-      <c r="D110" t="s">
-        <v>409</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" ref="E110:E113" si="332">A110</f>
@@ -21211,10 +21262,10 @@
         <v>220</v>
       </c>
       <c r="C111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" t="s">
         <v>410</v>
-      </c>
-      <c r="D111" t="s">
-        <v>411</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="332"/>
@@ -21354,10 +21405,10 @@
         <v>221</v>
       </c>
       <c r="C112" t="s">
+        <v>409</v>
+      </c>
+      <c r="D112" t="s">
         <v>410</v>
-      </c>
-      <c r="D112" t="s">
-        <v>411</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="332"/>
@@ -21497,10 +21548,10 @@
         <v>218</v>
       </c>
       <c r="C113" t="s">
+        <v>409</v>
+      </c>
+      <c r="D113" t="s">
         <v>410</v>
-      </c>
-      <c r="D113" t="s">
-        <v>411</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="332"/>
@@ -21640,10 +21691,10 @@
         <v>243</v>
       </c>
       <c r="C114" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" t="s">
         <v>412</v>
-      </c>
-      <c r="D114" t="s">
-        <v>413</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" ref="E114:E116" si="357">A114</f>
@@ -21794,10 +21845,10 @@
         <v>245</v>
       </c>
       <c r="C115" t="s">
+        <v>413</v>
+      </c>
+      <c r="D115" t="s">
         <v>414</v>
-      </c>
-      <c r="D115" t="s">
-        <v>415</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="357"/>
@@ -21937,10 +21988,10 @@
         <v>247</v>
       </c>
       <c r="C116" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" t="s">
         <v>416</v>
-      </c>
-      <c r="D116" t="s">
-        <v>417</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="357"/>
@@ -22080,20 +22131,20 @@
         <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" t="s">
         <v>418</v>
       </c>
-      <c r="D117" t="s">
-        <v>419</v>
-      </c>
       <c r="E117" t="str">
-        <f t="shared" ref="E117" si="382">A117</f>
+        <f t="shared" ref="E117:E118" si="382">A117</f>
         <v>petpass</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" ref="F117" si="383">IF(ISERROR(FIND("_",A117)),A117,
+        <f t="shared" ref="F117:F118" si="383">IF(ISERROR(FIND("_",A117)),A117,
 LEFT(A117,FIND("_",A117)-1))</f>
         <v>petpass</v>
       </c>
@@ -22109,7 +22160,7 @@
         <v/>
       </c>
       <c r="L117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M117">
         <f>IF(ISBLANK($L117),"",VLOOKUP($L117,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
@@ -22139,7 +22190,7 @@
         <v>33</v>
       </c>
       <c r="T117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -22237,10 +22288,189 @@
         <v/>
       </c>
     </row>
+    <row r="118" spans="1:54">
+      <c r="A118" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" t="s">
+        <v>426</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" ref="E118" si="407">A118</f>
+        <v>teampass</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" ref="F118" si="408">IF(ISERROR(FIND("_",A118)),A118,
+LEFT(A118,FIND("_",A118)-1))</f>
+        <v>teampass</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118" si="409">COUNTA(S118,W118,AA118,AE118,AI118)</f>
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" ref="K118" si="410">IF(AND(I118=FALSE,ISBLANK(L118)),"가격필요","")</f>
+        <v/>
+      </c>
+      <c r="L118" t="s">
+        <v>288</v>
+      </c>
+      <c r="M118">
+        <f>IF(ISBLANK($L118),"",VLOOKUP($L118,$BN:$BP,MATCH($BO$1,$BN$1:$BP$1,0),0))</f>
+        <v>4.99</v>
+      </c>
+      <c r="N118">
+        <f>IF(ISBLANK($L118),"",VLOOKUP($L118,$BN:$BP,MATCH($BP$1,$BN$1:$BP$1,0),0))</f>
+        <v>7500</v>
+      </c>
+      <c r="O118" t="s">
+        <v>422</v>
+      </c>
+      <c r="P118">
+        <v>841</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" ref="Q118" si="411">P118</f>
+        <v>841</v>
+      </c>
+      <c r="R118" t="str">
+        <f t="shared" ref="R118" ca="1" si="412">IF(ISBLANK(S118),"",
+VLOOKUP(S118,OFFSET(INDIRECT("$A:$B"),0,MATCH(S$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>it</v>
+      </c>
+      <c r="S118" t="s">
+        <v>33</v>
+      </c>
+      <c r="T118" t="s">
+        <v>427</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="V118" t="str">
+        <f t="shared" ref="V118" ca="1" si="413">IF(ISBLANK(W118),"",
+VLOOKUP(W118,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="Z118" t="str">
+        <f t="shared" ref="Z118" ca="1" si="414">IF(ISBLANK(AA118),"",
+VLOOKUP(AA118,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AD118" t="str">
+        <f t="shared" ref="AD118" ca="1" si="415">IF(ISBLANK(AE118),"",
+VLOOKUP(AE118,OFFSET(INDIRECT("$A:$B"),0,MATCH(AE$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AH118" t="str">
+        <f t="shared" ref="AH118" ca="1" si="416">IF(ISBLANK(AI118),"",
+VLOOKUP(AI118,OFFSET(INDIRECT("$A:$B"),0,MATCH(AI$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="AL118" t="str">
+        <f t="shared" ref="AL118" ca="1" si="417">IF(LEN(R118)=0,"",R118)</f>
+        <v>it</v>
+      </c>
+      <c r="AM118" t="str">
+        <f t="shared" ref="AM118" si="418">IF(LEN(T118)=0,"",T118)</f>
+        <v>Cash_sTeamPass</v>
+      </c>
+      <c r="AN118">
+        <f t="shared" ref="AN118" si="419">IF(LEN(U118)=0,"",U118)</f>
+        <v>1</v>
+      </c>
+      <c r="AO118" t="str">
+        <f t="shared" ref="AO118" ca="1" si="420">IF(LEN(V118)=0,"",V118)</f>
+        <v/>
+      </c>
+      <c r="AP118" t="str">
+        <f t="shared" ref="AP118" si="421">IF(LEN(X118)=0,"",X118)</f>
+        <v/>
+      </c>
+      <c r="AQ118" t="str">
+        <f t="shared" ref="AQ118" si="422">IF(LEN(Y118)=0,"",Y118)</f>
+        <v/>
+      </c>
+      <c r="AR118" t="str">
+        <f t="shared" ref="AR118" ca="1" si="423">IF(LEN(Z118)=0,"",Z118)</f>
+        <v/>
+      </c>
+      <c r="AS118" t="str">
+        <f t="shared" ref="AS118" si="424">IF(LEN(AB118)=0,"",AB118)</f>
+        <v/>
+      </c>
+      <c r="AT118" t="str">
+        <f t="shared" ref="AT118" si="425">IF(LEN(AC118)=0,"",AC118)</f>
+        <v/>
+      </c>
+      <c r="AU118" t="str">
+        <f t="shared" ref="AU118" ca="1" si="426">IF(LEN(AD118)=0,"",AD118)</f>
+        <v/>
+      </c>
+      <c r="AV118" t="str">
+        <f t="shared" ref="AV118" si="427">IF(LEN(AF118)=0,"",AF118)</f>
+        <v/>
+      </c>
+      <c r="AW118" t="str">
+        <f t="shared" ref="AW118" si="428">IF(LEN(AG118)=0,"",AG118)</f>
+        <v/>
+      </c>
+      <c r="AX118" t="str">
+        <f t="shared" ref="AX118" ca="1" si="429">IF(LEN(AH118)=0,"",AH118)</f>
+        <v/>
+      </c>
+      <c r="AY118" t="str">
+        <f t="shared" ref="AY118" si="430">IF(LEN(AJ118)=0,"",AJ118)</f>
+        <v/>
+      </c>
+      <c r="AZ118" t="str">
+        <f t="shared" ref="AZ118" si="431">IF(LEN(AK118)=0,"",AK118)</f>
+        <v/>
+      </c>
+      <c r="BA118" t="str">
+        <f t="shared" ref="BA118" ca="1" si="432">IF(ROW()=2,BB118,OFFSET(BA118,-1,0)&amp;IF(LEN(BB118)=0,"",","&amp;BB118))</f>
+        <v>,{"id":"ev4_conti_1","key":987,"tp1":"cu","vl1":"EN","cn1":80,"tp2":"cu","vl2":"GO","cn2":35000,"tp3":"cu","vl3":"EN","cn3":170},{"id":"ev4_conti_2","key":261,"tp1":"cu","vl1":"EN","cn1":150},{"id":"ev4_conti_4","key":997,"tp1":"cu","vl1":"EN","cn1":150,"tp2":"cu","vl2":"GO","cn2":20000},{"id":"ev5_oneplustwo_2","key":619,"tp1":"cu","vl1":"GO","cn1":50000,"tp2":"cu","vl2":"EN","cn2":500,"tp3":"cu","vl3":"GO","cn3":70000},{"id":"ev5_oneplustwo_3","key":150,"tp1":"cu","vl1":"EN","cn1":450,"tp2":"cu","vl2":"GO","cn2":60000,"tp3":"cu","vl3":"GO","cn3":90000,"tp4":"cu","vl4":"EN","cn4":650},{"id":"firstpurchase","key":658,"tp1":"it","vl1":"Spell_0018","cn1":1,"tp2":"cu","vl2":"EN","cn2":150,"tp3":"cu","vl3":"GO","cn3":100000}</v>
+      </c>
+      <c r="BB118" t="str">
+        <f t="shared" ref="BB118" si="433">IF(I118=FALSE,"",
+"{"""&amp;E$1&amp;""":"""&amp;E118&amp;""""
+&amp;","""&amp;P$1&amp;""":"&amp;P118
+&amp;IF(LEN(R118)=0,"",","""&amp;R$1&amp;""":"""&amp;R118&amp;"""")
+&amp;IF(LEN(T118)=0,"",","""&amp;T$1&amp;""":"""&amp;T118&amp;"""")
+&amp;IF(LEN(U118)=0,"",","""&amp;U$1&amp;""":"&amp;U118)
+&amp;IF(LEN(V118)=0,"",","""&amp;V$1&amp;""":"""&amp;V118&amp;"""")
+&amp;IF(LEN(X118)=0,"",","""&amp;X$1&amp;""":"""&amp;X118&amp;"""")
+&amp;IF(LEN(Y118)=0,"",","""&amp;Y$1&amp;""":"&amp;Y118)
+&amp;IF(LEN(Z118)=0,"",","""&amp;Z$1&amp;""":"""&amp;Z118&amp;"""")
+&amp;IF(LEN(AB118)=0,"",","""&amp;AB$1&amp;""":"""&amp;AB118&amp;"""")
+&amp;IF(LEN(AC118)=0,"",","""&amp;AC$1&amp;""":"&amp;AC118)
+&amp;IF(LEN(AD118)=0,"",","""&amp;AD$1&amp;""":"""&amp;AD118&amp;"""")
+&amp;IF(LEN(AF118)=0,"",","""&amp;AF$1&amp;""":"""&amp;AF118&amp;"""")
+&amp;IF(LEN(AG118)=0,"",","""&amp;AG$1&amp;""":"&amp;AG118)
+&amp;IF(LEN(AH118)=0,"",","""&amp;AH$1&amp;""":"""&amp;AH118&amp;"""")
+&amp;IF(LEN(AJ118)=0,"",","""&amp;AJ$1&amp;""":"""&amp;AJ118&amp;"""")
+&amp;IF(LEN(AK118)=0,"",","""&amp;AK$1&amp;""":"&amp;AK118)&amp;"}")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI90 AE2:AE116 AA2:AA116 W2:W116 S2:S106 AI96:AI116 L2:L117" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI90 AE2:AE116 AA2:AA116 W2:W116 S2:S106 AI96:AI116 L2:L118" xr:uid="{F3C874F6-E7DF-4E69-9F0E-3FA791FD6C74}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ90 T2:T116 X2:X116 AB2:AB116 AF2:AF116 AJ96:AJ116" xr:uid="{1817ED84-94D5-4388-9638-B638710DD0FB}">
@@ -23329,4 +23559,131 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14425C4-AEC9-4F29-9E45-46FABC1C10B2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B13">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF2F6A-B535-4F9D-AE44-E34DC6AD1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CAE9A-CDD5-4897-81A1-52AC5706FCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="7" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -1484,7 +1484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="440">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2951,11 +2951,11 @@
     <t>relay10</t>
   </si>
   <si>
-    <t>atk|Int</t>
+    <t>passAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>passAtk</t>
+    <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3402,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
   <dimension ref="A1:BS118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AZ101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22140,11 +22140,11 @@
         <v>418</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" ref="E117:E118" si="382">A117</f>
+        <f t="shared" ref="E117" si="382">A117</f>
         <v>petpass</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" ref="F117:F118" si="383">IF(ISERROR(FIND("_",A117)),A117,
+        <f t="shared" ref="F117" si="383">IF(ISERROR(FIND("_",A117)),A117,
 LEFT(A117,FIND("_",A117)-1))</f>
         <v>petpass</v>
       </c>
@@ -23117,7 +23117,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -23563,123 +23563,229 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14425C4-AEC9-4F29-9E45-46FABC1C10B2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>438</v>
       </c>
-      <c r="D1" t="s">
-        <v>439</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>277</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" ca="1" si="0">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
+        <v>"petpass":100</v>
+      </c>
+      <c r="D2" t="str">
+        <f>""""&amp;A2&amp;""":"&amp;B2</f>
+        <v>"petpass":100</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(C1,COUNTA(C:C)-1,0),1)=",",SUBSTITUTE(OFFSET(C1,COUNTA(C:C)-1,0),",","",1),OFFSET(C1,COUNTA(C:C)-1,0))
+&amp;"}"</f>
+        <v>{"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175,"relay7":200,"relay8":225,"relay9":250,"relay10":275}</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>422</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" ca="1" si="1">IF(ROW()=2,D3,OFFSET(C3,-1,0)&amp;IF(LEN(D3)=0,"",","&amp;D3))</f>
+        <v>"petpass":100,"teampass":200</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D13" si="2">""""&amp;A3&amp;""":"&amp;B3</f>
+        <v>"teampass":200</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>428</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay1":50</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>429</v>
       </c>
       <c r="B5">
         <v>75</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay2":75</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>430</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay3":100</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>431</v>
       </c>
       <c r="B7">
         <v>125</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay4":125</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>432</v>
       </c>
       <c r="B8">
         <v>150</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay5":150</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>433</v>
       </c>
       <c r="B9">
         <v>175</v>
       </c>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay6":175</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>434</v>
       </c>
       <c r="B10">
         <v>200</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175,"relay7":200</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay7":200</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>435</v>
       </c>
       <c r="B11">
         <v>225</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175,"relay7":200,"relay8":225</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay8":225</v>
+      </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>436</v>
       </c>
       <c r="B12">
         <v>250</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175,"relay7":200,"relay8":225,"relay9":250</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay9":250</v>
+      </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>437</v>
       </c>
       <c r="B13">
         <v>275</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>"petpass":100,"teampass":200,"relay1":50,"relay2":75,"relay3":100,"relay4":125,"relay5":150,"relay6":175,"relay7":200,"relay8":225,"relay9":250,"relay10":275</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>"relay10":275</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CAE9A-CDD5-4897-81A1-52AC5706FCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61338775-1CEE-4120-8714-E0CCA03080C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="7" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -3400,63 +3400,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BS118"/>
+  <dimension ref="A1:BT118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AZ101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="12" width="9.25" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="12" width="9.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
     <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="27.5" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="27.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="9" collapsed="1"/>
     <col min="39" max="39" width="28.875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="19.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="57" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="69" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="71" max="71" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="54" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9" collapsed="1"/>
+    <col min="56" max="57" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9" collapsed="1"/>
+    <col min="59" max="59" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="9" collapsed="1"/>
+    <col min="61" max="61" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9" collapsed="1"/>
+    <col min="63" max="63" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9" collapsed="1"/>
+    <col min="65" max="69" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="9" collapsed="1"/>
+    <col min="71" max="71" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="72" max="72" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="27" customHeight="1">
@@ -3863,7 +3872,7 @@
       </c>
       <c r="BQ2">
         <f t="shared" ref="BQ2:BQ19" si="24">COUNTIF(L:L,BN2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS2" t="str">
         <f ca="1">"["&amp;
@@ -4046,7 +4055,7 @@
       </c>
       <c r="BQ3">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -7279,15 +7288,15 @@
         <v/>
       </c>
       <c r="L22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M22">
         <f t="shared" si="112"/>
-        <v>1.99</v>
+        <v>0.99</v>
       </c>
       <c r="N22">
         <f t="shared" si="113"/>
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="O22" t="s">
         <v>168</v>
@@ -23565,7 +23574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14425C4-AEC9-4F29-9E45-46FABC1C10B2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61338775-1CEE-4120-8714-E0CCA03080C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E5C56-5FB1-4E6C-B923-F92C5A6A672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="8" xr2:uid="{DC4C458F-9CA5-49D2-A95F-4D750910E46E}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopProductTable" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PickOneCharacterTable" sheetId="6" r:id="rId6"/>
     <sheet name="BrokenEnergyTable" sheetId="7" r:id="rId7"/>
     <sheet name="PassAtkTable" sheetId="8" r:id="rId8"/>
+    <sheet name="PointShopTable" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1483,8 +1484,108 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ju &amp; Hoo</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2D9C6395-5C05-40FF-8613-2A574FF277C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>행마다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> max </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넘는지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검사</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="449">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2956,6 +3057,42 @@
   </si>
   <si>
     <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pntShp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3400,72 +3537,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182B73-115D-48F7-A0C9-818F1519DCCC}">
-  <dimension ref="A1:BT118"/>
+  <dimension ref="A1:BS118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="26.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="20.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="17.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="12" width="9.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="11" max="12" width="9.25" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1" collapsed="1